--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BFFEA5-98F6-4ABD-A286-6E4EB8E678FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.2.ファイル転送（配信）" sheetId="4" r:id="rId1"/>
@@ -17,7 +18,18 @@
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
     <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -861,7 +873,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1251,6 +1263,72 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1277,15 +1355,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1320,76 +1389,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1412,7 +1427,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1468,7 +1489,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1526,16 +1553,6 @@
             </a:rPr>
             <a:t>ファイルコピー</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
@@ -1575,7 +1592,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="フローチャート : 記憶データ 84"/>
+        <xdr:cNvPr id="85" name="フローチャート : 記憶データ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1637,7 +1660,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+        <xdr:cNvPr id="87" name="正方形/長方形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1695,16 +1724,6 @@
             </a:rPr>
             <a:t>ファイルコピー</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
@@ -1744,7 +1763,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="フローチャート : 記憶データ 87"/>
+        <xdr:cNvPr id="88" name="フローチャート : 記憶データ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1806,7 +1831,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="フローチャート : 記憶データ 88"/>
+        <xdr:cNvPr id="89" name="フローチャート : 記憶データ 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1868,7 +1899,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="フローチャート : 記憶データ 89"/>
+        <xdr:cNvPr id="90" name="フローチャート : 記憶データ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1930,7 +1967,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="カギ線コネクタ 90"/>
+        <xdr:cNvPr id="91" name="カギ線コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="90" idx="2"/>
           <a:endCxn id="88" idx="3"/>
@@ -1984,7 +2027,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直線矢印コネクタ 91"/>
+        <xdr:cNvPr id="92" name="直線矢印コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="83" idx="3"/>
           <a:endCxn id="130" idx="1"/>
@@ -2038,7 +2087,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="直線矢印コネクタ 93"/>
+        <xdr:cNvPr id="94" name="直線矢印コネクタ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="87" idx="3"/>
           <a:endCxn id="90" idx="1"/>
@@ -2092,7 +2147,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+        <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2170,7 +2231,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="フローチャート : 記憶データ 96"/>
+        <xdr:cNvPr id="97" name="フローチャート : 記憶データ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2232,7 +2299,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="3"/>
           <a:endCxn id="97" idx="1"/>
@@ -2286,7 +2359,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="フローチャート : 記憶データ 98"/>
+        <xdr:cNvPr id="99" name="フローチャート : 記憶データ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2348,7 +2427,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="直線矢印コネクタ 99"/>
+        <xdr:cNvPr id="100" name="直線矢印コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="97" idx="2"/>
           <a:endCxn id="99" idx="0"/>
@@ -2402,7 +2487,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="フローチャート : 記憶データ 101"/>
+        <xdr:cNvPr id="102" name="フローチャート : 記憶データ 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2464,7 +2555,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2572,7 +2669,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2650,7 +2753,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="直線矢印コネクタ 104"/>
+        <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="103" idx="3"/>
           <a:endCxn id="104" idx="1"/>
@@ -2703,7 +2812,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="106" name="カギ線コネクタ 105"/>
+        <xdr:cNvPr id="106" name="カギ線コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="104" idx="2"/>
           <a:endCxn id="102" idx="0"/>
@@ -2759,7 +2874,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2837,7 +2958,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="フローチャート : 記憶データ 108"/>
+        <xdr:cNvPr id="109" name="フローチャート : 記憶データ 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2899,7 +3026,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直線矢印コネクタ 109"/>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="107" idx="3"/>
           <a:endCxn id="109" idx="1"/>
@@ -2953,7 +3086,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="乗算記号 110"/>
+        <xdr:cNvPr id="111" name="乗算記号 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3005,7 +3144,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="直線矢印コネクタ 113"/>
+        <xdr:cNvPr id="114" name="直線矢印コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="155" idx="2"/>
           <a:endCxn id="125" idx="0"/>
@@ -3058,7 +3203,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="直線矢印コネクタ 114"/>
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="83" idx="2"/>
           <a:endCxn id="87" idx="0"/>
@@ -3111,7 +3262,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="直線矢印コネクタ 115"/>
+        <xdr:cNvPr id="116" name="直線矢印コネクタ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="87" idx="2"/>
           <a:endCxn id="141" idx="0"/>
@@ -3164,7 +3321,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直線矢印コネクタ 116"/>
+        <xdr:cNvPr id="117" name="直線矢印コネクタ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="2"/>
           <a:endCxn id="83" idx="0"/>
@@ -3217,7 +3380,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="直線矢印コネクタ 117"/>
+        <xdr:cNvPr id="118" name="直線矢印コネクタ 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="103" idx="2"/>
           <a:endCxn id="95" idx="0"/>
@@ -3270,7 +3439,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="テキスト ボックス 122"/>
+        <xdr:cNvPr id="123" name="テキスト ボックス 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3329,7 +3504,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="直線矢印コネクタ 123"/>
+        <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="123" idx="1"/>
           <a:endCxn id="125" idx="3"/>
@@ -3383,7 +3564,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+        <xdr:cNvPr id="125" name="正方形/長方形 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3461,7 +3648,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="直線矢印コネクタ 127"/>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="107" idx="2"/>
           <a:endCxn id="103" idx="0"/>
@@ -3514,7 +3707,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="フローチャート : 記憶データ 129"/>
+        <xdr:cNvPr id="130" name="フローチャート : 記憶データ 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3576,7 +3775,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="カギ線コネクタ 132"/>
+        <xdr:cNvPr id="133" name="カギ線コネクタ 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="130" idx="2"/>
           <a:endCxn id="85" idx="3"/>
@@ -3630,7 +3835,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="正方形/長方形 140"/>
+        <xdr:cNvPr id="141" name="正方形/長方形 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3708,7 +3919,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="正方形/長方形 141"/>
+        <xdr:cNvPr id="142" name="正方形/長方形 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3806,7 +4023,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="143" name="直線矢印コネクタ 142"/>
+        <xdr:cNvPr id="143" name="直線矢印コネクタ 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="141" idx="3"/>
           <a:endCxn id="142" idx="1"/>
@@ -3859,7 +4082,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="フローチャート : 記憶データ 143"/>
+        <xdr:cNvPr id="144" name="フローチャート : 記憶データ 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3921,7 +4150,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="145" name="カギ線コネクタ 144"/>
+        <xdr:cNvPr id="145" name="カギ線コネクタ 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="142" idx="2"/>
           <a:endCxn id="144" idx="0"/>
@@ -3975,7 +4210,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="テキスト ボックス 145"/>
+        <xdr:cNvPr id="146" name="テキスト ボックス 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4034,7 +4275,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="147" name="直線矢印コネクタ 146"/>
+        <xdr:cNvPr id="147" name="直線矢印コネクタ 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="144" idx="3"/>
           <a:endCxn id="146" idx="1"/>
@@ -4088,7 +4335,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="148" name="直線矢印コネクタ 147"/>
+        <xdr:cNvPr id="148" name="直線矢印コネクタ 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="141" idx="2"/>
           <a:endCxn id="155" idx="0"/>
@@ -4141,7 +4394,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="フローチャート : 記憶データ 152"/>
+        <xdr:cNvPr id="153" name="フローチャート : 記憶データ 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4203,7 +4462,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="フローチャート : 記憶データ 153"/>
+        <xdr:cNvPr id="154" name="フローチャート : 記憶データ 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4265,7 +4530,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="正方形/長方形 154"/>
+        <xdr:cNvPr id="155" name="正方形/長方形 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4343,7 +4614,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="157" name="直線矢印コネクタ 156"/>
+        <xdr:cNvPr id="157" name="直線矢印コネクタ 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="155" idx="3"/>
           <a:endCxn id="160" idx="1"/>
@@ -4397,7 +4674,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="フローチャート : 記憶データ 159"/>
+        <xdr:cNvPr id="160" name="フローチャート : 記憶データ 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4459,7 +4742,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="乗算記号 162"/>
+        <xdr:cNvPr id="163" name="乗算記号 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4511,7 +4800,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="フローチャート : 記憶データ 163"/>
+        <xdr:cNvPr id="164" name="フローチャート : 記憶データ 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4573,7 +4868,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="フローチャート : 記憶データ 164"/>
+        <xdr:cNvPr id="165" name="フローチャート : 記憶データ 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4635,7 +4936,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="フローチャート : 記憶データ 178"/>
+        <xdr:cNvPr id="179" name="フローチャート : 記憶データ 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4697,7 +5004,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="フローチャート : 記憶データ 179"/>
+        <xdr:cNvPr id="180" name="フローチャート : 記憶データ 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4759,7 +5072,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4821,7 +5140,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="テキスト ボックス 128"/>
+        <xdr:cNvPr id="129" name="テキスト ボックス 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4879,7 +5204,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="テキスト ボックス 130"/>
+        <xdr:cNvPr id="131" name="テキスト ボックス 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4937,7 +5268,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="テキスト ボックス 133"/>
+        <xdr:cNvPr id="134" name="テキスト ボックス 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4995,7 +5332,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5073,7 +5416,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線矢印コネクタ 69"/>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="125" idx="2"/>
           <a:endCxn id="67" idx="0"/>
@@ -5115,7 +5464,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5157,7 +5506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5190,9 +5539,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5225,6 +5591,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5400,7 +5783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5420,39 +5803,39 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="79"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="56"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="82"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="59"/>
       <c r="AF1" s="60"/>
       <c r="AG1" s="61"/>
       <c r="AH1" s="61"/>
@@ -5465,39 +5848,39 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="85"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="65"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="88"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="68"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="59"/>
       <c r="AF2" s="60"/>
       <c r="AG2" s="61"/>
       <c r="AH2" s="61"/>
@@ -5510,35 +5893,35 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="91"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="71"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="82"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="59"/>
       <c r="AF3" s="60"/>
       <c r="AG3" s="61"/>
       <c r="AH3" s="61"/>
@@ -5614,8 +5997,8 @@
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="4" t="str">
-        <f>D6&amp;"を行う機能には、以下の方法がある。"</f>
-        <v>を行う機能には、以下の方法がある。</v>
+        <f>D7&amp;"を行う機能には、以下の方法がある。"</f>
+        <v>ファイル転送（配信）を行う機能には、以下の方法がある。</v>
       </c>
     </row>
     <row r="17" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6583,15 +6966,15 @@
       <c r="Y50" s="24"/>
       <c r="Z50" s="24"/>
       <c r="AA50" s="24"/>
-      <c r="AB50" s="51" t="s">
+      <c r="AB50" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="AC50" s="52"/>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="52"/>
-      <c r="AH50" s="53"/>
+      <c r="AC50" s="74"/>
+      <c r="AD50" s="74"/>
+      <c r="AE50" s="74"/>
+      <c r="AF50" s="74"/>
+      <c r="AG50" s="74"/>
+      <c r="AH50" s="75"/>
     </row>
     <row r="51" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E51" s="15"/>
@@ -6617,13 +7000,13 @@
       <c r="Y51" s="27"/>
       <c r="Z51" s="27"/>
       <c r="AA51" s="27"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="55"/>
-      <c r="AD51" s="55"/>
-      <c r="AE51" s="55"/>
-      <c r="AF51" s="55"/>
-      <c r="AG51" s="55"/>
-      <c r="AH51" s="56"/>
+      <c r="AB51" s="76"/>
+      <c r="AC51" s="77"/>
+      <c r="AD51" s="77"/>
+      <c r="AE51" s="77"/>
+      <c r="AF51" s="77"/>
+      <c r="AG51" s="77"/>
+      <c r="AH51" s="78"/>
     </row>
     <row r="52" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" s="15"/>
@@ -6649,13 +7032,13 @@
       <c r="Y52" s="27"/>
       <c r="Z52" s="27"/>
       <c r="AA52" s="27"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="55"/>
-      <c r="AD52" s="55"/>
-      <c r="AE52" s="55"/>
-      <c r="AF52" s="55"/>
-      <c r="AG52" s="55"/>
-      <c r="AH52" s="56"/>
+      <c r="AB52" s="76"/>
+      <c r="AC52" s="77"/>
+      <c r="AD52" s="77"/>
+      <c r="AE52" s="77"/>
+      <c r="AF52" s="77"/>
+      <c r="AG52" s="77"/>
+      <c r="AH52" s="78"/>
     </row>
     <row r="53" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="15"/>
@@ -6681,13 +7064,13 @@
       <c r="Y53" s="27"/>
       <c r="Z53" s="27"/>
       <c r="AA53" s="27"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="55"/>
-      <c r="AD53" s="55"/>
-      <c r="AE53" s="55"/>
-      <c r="AF53" s="55"/>
-      <c r="AG53" s="55"/>
-      <c r="AH53" s="56"/>
+      <c r="AB53" s="76"/>
+      <c r="AC53" s="77"/>
+      <c r="AD53" s="77"/>
+      <c r="AE53" s="77"/>
+      <c r="AF53" s="77"/>
+      <c r="AG53" s="77"/>
+      <c r="AH53" s="78"/>
     </row>
     <row r="54" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" s="15"/>
@@ -6713,13 +7096,13 @@
       <c r="Y54" s="27"/>
       <c r="Z54" s="27"/>
       <c r="AA54" s="27"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="55"/>
-      <c r="AD54" s="55"/>
-      <c r="AE54" s="55"/>
-      <c r="AF54" s="55"/>
-      <c r="AG54" s="55"/>
-      <c r="AH54" s="56"/>
+      <c r="AB54" s="76"/>
+      <c r="AC54" s="77"/>
+      <c r="AD54" s="77"/>
+      <c r="AE54" s="77"/>
+      <c r="AF54" s="77"/>
+      <c r="AG54" s="77"/>
+      <c r="AH54" s="78"/>
     </row>
     <row r="55" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="15"/>
@@ -6745,13 +7128,13 @@
       <c r="Y55" s="27"/>
       <c r="Z55" s="27"/>
       <c r="AA55" s="27"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="55"/>
-      <c r="AD55" s="55"/>
-      <c r="AE55" s="55"/>
-      <c r="AF55" s="55"/>
-      <c r="AG55" s="55"/>
-      <c r="AH55" s="56"/>
+      <c r="AB55" s="76"/>
+      <c r="AC55" s="77"/>
+      <c r="AD55" s="77"/>
+      <c r="AE55" s="77"/>
+      <c r="AF55" s="77"/>
+      <c r="AG55" s="77"/>
+      <c r="AH55" s="78"/>
     </row>
     <row r="56" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
@@ -6777,13 +7160,13 @@
       <c r="Y56" s="27"/>
       <c r="Z56" s="27"/>
       <c r="AA56" s="27"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="55"/>
-      <c r="AE56" s="55"/>
-      <c r="AF56" s="55"/>
-      <c r="AG56" s="55"/>
-      <c r="AH56" s="56"/>
+      <c r="AB56" s="76"/>
+      <c r="AC56" s="77"/>
+      <c r="AD56" s="77"/>
+      <c r="AE56" s="77"/>
+      <c r="AF56" s="77"/>
+      <c r="AG56" s="77"/>
+      <c r="AH56" s="78"/>
     </row>
     <row r="57" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
@@ -6809,13 +7192,13 @@
       <c r="Y57" s="27"/>
       <c r="Z57" s="27"/>
       <c r="AA57" s="27"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="55"/>
-      <c r="AD57" s="55"/>
-      <c r="AE57" s="55"/>
-      <c r="AF57" s="55"/>
-      <c r="AG57" s="55"/>
-      <c r="AH57" s="56"/>
+      <c r="AB57" s="76"/>
+      <c r="AC57" s="77"/>
+      <c r="AD57" s="77"/>
+      <c r="AE57" s="77"/>
+      <c r="AF57" s="77"/>
+      <c r="AG57" s="77"/>
+      <c r="AH57" s="78"/>
     </row>
     <row r="58" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
@@ -6841,13 +7224,13 @@
       <c r="Y58" s="30"/>
       <c r="Z58" s="30"/>
       <c r="AA58" s="30"/>
-      <c r="AB58" s="57"/>
-      <c r="AC58" s="58"/>
-      <c r="AD58" s="58"/>
-      <c r="AE58" s="58"/>
-      <c r="AF58" s="58"/>
-      <c r="AG58" s="58"/>
-      <c r="AH58" s="59"/>
+      <c r="AB58" s="79"/>
+      <c r="AC58" s="80"/>
+      <c r="AD58" s="80"/>
+      <c r="AE58" s="80"/>
+      <c r="AF58" s="80"/>
+      <c r="AG58" s="80"/>
+      <c r="AH58" s="81"/>
     </row>
     <row r="59" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
@@ -6875,15 +7258,15 @@
       <c r="Y59" s="24"/>
       <c r="Z59" s="24"/>
       <c r="AA59" s="24"/>
-      <c r="AB59" s="51" t="s">
+      <c r="AB59" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="AC59" s="52"/>
-      <c r="AD59" s="52"/>
-      <c r="AE59" s="52"/>
-      <c r="AF59" s="52"/>
-      <c r="AG59" s="52"/>
-      <c r="AH59" s="53"/>
+      <c r="AC59" s="74"/>
+      <c r="AD59" s="74"/>
+      <c r="AE59" s="74"/>
+      <c r="AF59" s="74"/>
+      <c r="AG59" s="74"/>
+      <c r="AH59" s="75"/>
     </row>
     <row r="60" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
@@ -6909,13 +7292,13 @@
       <c r="Y60" s="27"/>
       <c r="Z60" s="27"/>
       <c r="AA60" s="27"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="55"/>
-      <c r="AD60" s="55"/>
-      <c r="AE60" s="55"/>
-      <c r="AF60" s="55"/>
-      <c r="AG60" s="55"/>
-      <c r="AH60" s="56"/>
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="77"/>
+      <c r="AD60" s="77"/>
+      <c r="AE60" s="77"/>
+      <c r="AF60" s="77"/>
+      <c r="AG60" s="77"/>
+      <c r="AH60" s="78"/>
     </row>
     <row r="61" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
@@ -6941,13 +7324,13 @@
       <c r="Y61" s="27"/>
       <c r="Z61" s="27"/>
       <c r="AA61" s="27"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="55"/>
-      <c r="AE61" s="55"/>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="55"/>
-      <c r="AH61" s="56"/>
+      <c r="AB61" s="76"/>
+      <c r="AC61" s="77"/>
+      <c r="AD61" s="77"/>
+      <c r="AE61" s="77"/>
+      <c r="AF61" s="77"/>
+      <c r="AG61" s="77"/>
+      <c r="AH61" s="78"/>
     </row>
     <row r="62" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
@@ -6973,13 +7356,13 @@
       <c r="Y62" s="27"/>
       <c r="Z62" s="27"/>
       <c r="AA62" s="27"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="55"/>
-      <c r="AE62" s="55"/>
-      <c r="AF62" s="55"/>
-      <c r="AG62" s="55"/>
-      <c r="AH62" s="56"/>
+      <c r="AB62" s="76"/>
+      <c r="AC62" s="77"/>
+      <c r="AD62" s="77"/>
+      <c r="AE62" s="77"/>
+      <c r="AF62" s="77"/>
+      <c r="AG62" s="77"/>
+      <c r="AH62" s="78"/>
     </row>
     <row r="63" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
@@ -7005,13 +7388,13 @@
       <c r="Y63" s="27"/>
       <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="55"/>
-      <c r="AD63" s="55"/>
-      <c r="AE63" s="55"/>
-      <c r="AF63" s="55"/>
-      <c r="AG63" s="55"/>
-      <c r="AH63" s="56"/>
+      <c r="AB63" s="76"/>
+      <c r="AC63" s="77"/>
+      <c r="AD63" s="77"/>
+      <c r="AE63" s="77"/>
+      <c r="AF63" s="77"/>
+      <c r="AG63" s="77"/>
+      <c r="AH63" s="78"/>
     </row>
     <row r="64" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="15"/>
@@ -7037,13 +7420,13 @@
       <c r="Y64" s="27"/>
       <c r="Z64" s="27"/>
       <c r="AA64" s="27"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="55"/>
-      <c r="AD64" s="55"/>
-      <c r="AE64" s="55"/>
-      <c r="AF64" s="55"/>
-      <c r="AG64" s="55"/>
-      <c r="AH64" s="56"/>
+      <c r="AB64" s="76"/>
+      <c r="AC64" s="77"/>
+      <c r="AD64" s="77"/>
+      <c r="AE64" s="77"/>
+      <c r="AF64" s="77"/>
+      <c r="AG64" s="77"/>
+      <c r="AH64" s="78"/>
     </row>
     <row r="65" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
@@ -7069,13 +7452,13 @@
       <c r="Y65" s="27"/>
       <c r="Z65" s="27"/>
       <c r="AA65" s="27"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="55"/>
-      <c r="AD65" s="55"/>
-      <c r="AE65" s="55"/>
-      <c r="AF65" s="55"/>
-      <c r="AG65" s="55"/>
-      <c r="AH65" s="56"/>
+      <c r="AB65" s="76"/>
+      <c r="AC65" s="77"/>
+      <c r="AD65" s="77"/>
+      <c r="AE65" s="77"/>
+      <c r="AF65" s="77"/>
+      <c r="AG65" s="77"/>
+      <c r="AH65" s="78"/>
     </row>
     <row r="66" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="15"/>
@@ -7101,13 +7484,13 @@
       <c r="Y66" s="27"/>
       <c r="Z66" s="27"/>
       <c r="AA66" s="27"/>
-      <c r="AB66" s="54"/>
-      <c r="AC66" s="55"/>
-      <c r="AD66" s="55"/>
-      <c r="AE66" s="55"/>
-      <c r="AF66" s="55"/>
-      <c r="AG66" s="55"/>
-      <c r="AH66" s="56"/>
+      <c r="AB66" s="76"/>
+      <c r="AC66" s="77"/>
+      <c r="AD66" s="77"/>
+      <c r="AE66" s="77"/>
+      <c r="AF66" s="77"/>
+      <c r="AG66" s="77"/>
+      <c r="AH66" s="78"/>
     </row>
     <row r="67" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="15"/>
@@ -7133,13 +7516,13 @@
       <c r="Y67" s="27"/>
       <c r="Z67" s="27"/>
       <c r="AA67" s="27"/>
-      <c r="AB67" s="54"/>
-      <c r="AC67" s="55"/>
-      <c r="AD67" s="55"/>
-      <c r="AE67" s="55"/>
-      <c r="AF67" s="55"/>
-      <c r="AG67" s="55"/>
-      <c r="AH67" s="56"/>
+      <c r="AB67" s="76"/>
+      <c r="AC67" s="77"/>
+      <c r="AD67" s="77"/>
+      <c r="AE67" s="77"/>
+      <c r="AF67" s="77"/>
+      <c r="AG67" s="77"/>
+      <c r="AH67" s="78"/>
     </row>
     <row r="68" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="15"/>
@@ -7165,13 +7548,13 @@
       <c r="Y68" s="27"/>
       <c r="Z68" s="27"/>
       <c r="AA68" s="27"/>
-      <c r="AB68" s="54"/>
-      <c r="AC68" s="55"/>
-      <c r="AD68" s="55"/>
-      <c r="AE68" s="55"/>
-      <c r="AF68" s="55"/>
-      <c r="AG68" s="55"/>
-      <c r="AH68" s="56"/>
+      <c r="AB68" s="76"/>
+      <c r="AC68" s="77"/>
+      <c r="AD68" s="77"/>
+      <c r="AE68" s="77"/>
+      <c r="AF68" s="77"/>
+      <c r="AG68" s="77"/>
+      <c r="AH68" s="78"/>
     </row>
     <row r="69" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="15"/>
@@ -7197,13 +7580,13 @@
       <c r="Y69" s="27"/>
       <c r="Z69" s="27"/>
       <c r="AA69" s="27"/>
-      <c r="AB69" s="54"/>
-      <c r="AC69" s="55"/>
-      <c r="AD69" s="55"/>
-      <c r="AE69" s="55"/>
-      <c r="AF69" s="55"/>
-      <c r="AG69" s="55"/>
-      <c r="AH69" s="56"/>
+      <c r="AB69" s="76"/>
+      <c r="AC69" s="77"/>
+      <c r="AD69" s="77"/>
+      <c r="AE69" s="77"/>
+      <c r="AF69" s="77"/>
+      <c r="AG69" s="77"/>
+      <c r="AH69" s="78"/>
     </row>
     <row r="70" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="15"/>
@@ -7229,13 +7612,13 @@
       <c r="Y70" s="30"/>
       <c r="Z70" s="30"/>
       <c r="AA70" s="30"/>
-      <c r="AB70" s="57"/>
-      <c r="AC70" s="58"/>
-      <c r="AD70" s="58"/>
-      <c r="AE70" s="58"/>
-      <c r="AF70" s="58"/>
-      <c r="AG70" s="58"/>
-      <c r="AH70" s="59"/>
+      <c r="AB70" s="79"/>
+      <c r="AC70" s="80"/>
+      <c r="AD70" s="80"/>
+      <c r="AE70" s="80"/>
+      <c r="AF70" s="80"/>
+      <c r="AG70" s="80"/>
+      <c r="AH70" s="81"/>
     </row>
     <row r="71" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="15"/>
@@ -7263,15 +7646,15 @@
       <c r="Y71" s="24"/>
       <c r="Z71" s="24"/>
       <c r="AA71" s="24"/>
-      <c r="AB71" s="51" t="s">
+      <c r="AB71" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="AC71" s="52"/>
-      <c r="AD71" s="52"/>
-      <c r="AE71" s="52"/>
-      <c r="AF71" s="52"/>
-      <c r="AG71" s="52"/>
-      <c r="AH71" s="53"/>
+      <c r="AC71" s="74"/>
+      <c r="AD71" s="74"/>
+      <c r="AE71" s="74"/>
+      <c r="AF71" s="74"/>
+      <c r="AG71" s="74"/>
+      <c r="AH71" s="75"/>
     </row>
     <row r="72" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="15"/>
@@ -7297,13 +7680,13 @@
       <c r="Y72" s="27"/>
       <c r="Z72" s="27"/>
       <c r="AA72" s="27"/>
-      <c r="AB72" s="54"/>
-      <c r="AC72" s="55"/>
-      <c r="AD72" s="55"/>
-      <c r="AE72" s="55"/>
-      <c r="AF72" s="55"/>
-      <c r="AG72" s="55"/>
-      <c r="AH72" s="56"/>
+      <c r="AB72" s="76"/>
+      <c r="AC72" s="77"/>
+      <c r="AD72" s="77"/>
+      <c r="AE72" s="77"/>
+      <c r="AF72" s="77"/>
+      <c r="AG72" s="77"/>
+      <c r="AH72" s="78"/>
     </row>
     <row r="73" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="15"/>
@@ -7329,13 +7712,13 @@
       <c r="Y73" s="27"/>
       <c r="Z73" s="27"/>
       <c r="AA73" s="27"/>
-      <c r="AB73" s="54"/>
-      <c r="AC73" s="55"/>
-      <c r="AD73" s="55"/>
-      <c r="AE73" s="55"/>
-      <c r="AF73" s="55"/>
-      <c r="AG73" s="55"/>
-      <c r="AH73" s="56"/>
+      <c r="AB73" s="76"/>
+      <c r="AC73" s="77"/>
+      <c r="AD73" s="77"/>
+      <c r="AE73" s="77"/>
+      <c r="AF73" s="77"/>
+      <c r="AG73" s="77"/>
+      <c r="AH73" s="78"/>
     </row>
     <row r="74" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="15"/>
@@ -7361,13 +7744,13 @@
       <c r="Y74" s="27"/>
       <c r="Z74" s="27"/>
       <c r="AA74" s="27"/>
-      <c r="AB74" s="54"/>
-      <c r="AC74" s="55"/>
-      <c r="AD74" s="55"/>
-      <c r="AE74" s="55"/>
-      <c r="AF74" s="55"/>
-      <c r="AG74" s="55"/>
-      <c r="AH74" s="56"/>
+      <c r="AB74" s="76"/>
+      <c r="AC74" s="77"/>
+      <c r="AD74" s="77"/>
+      <c r="AE74" s="77"/>
+      <c r="AF74" s="77"/>
+      <c r="AG74" s="77"/>
+      <c r="AH74" s="78"/>
     </row>
     <row r="75" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="15"/>
@@ -7393,13 +7776,13 @@
       <c r="Y75" s="27"/>
       <c r="Z75" s="27"/>
       <c r="AA75" s="27"/>
-      <c r="AB75" s="54"/>
-      <c r="AC75" s="55"/>
-      <c r="AD75" s="55"/>
-      <c r="AE75" s="55"/>
-      <c r="AF75" s="55"/>
-      <c r="AG75" s="55"/>
-      <c r="AH75" s="56"/>
+      <c r="AB75" s="76"/>
+      <c r="AC75" s="77"/>
+      <c r="AD75" s="77"/>
+      <c r="AE75" s="77"/>
+      <c r="AF75" s="77"/>
+      <c r="AG75" s="77"/>
+      <c r="AH75" s="78"/>
     </row>
     <row r="76" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="15"/>
@@ -7425,13 +7808,13 @@
       <c r="Y76" s="27"/>
       <c r="Z76" s="27"/>
       <c r="AA76" s="27"/>
-      <c r="AB76" s="54"/>
-      <c r="AC76" s="55"/>
-      <c r="AD76" s="55"/>
-      <c r="AE76" s="55"/>
-      <c r="AF76" s="55"/>
-      <c r="AG76" s="55"/>
-      <c r="AH76" s="56"/>
+      <c r="AB76" s="76"/>
+      <c r="AC76" s="77"/>
+      <c r="AD76" s="77"/>
+      <c r="AE76" s="77"/>
+      <c r="AF76" s="77"/>
+      <c r="AG76" s="77"/>
+      <c r="AH76" s="78"/>
     </row>
     <row r="77" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="15"/>
@@ -7457,13 +7840,13 @@
       <c r="Y77" s="27"/>
       <c r="Z77" s="27"/>
       <c r="AA77" s="27"/>
-      <c r="AB77" s="54"/>
-      <c r="AC77" s="55"/>
-      <c r="AD77" s="55"/>
-      <c r="AE77" s="55"/>
-      <c r="AF77" s="55"/>
-      <c r="AG77" s="55"/>
-      <c r="AH77" s="56"/>
+      <c r="AB77" s="76"/>
+      <c r="AC77" s="77"/>
+      <c r="AD77" s="77"/>
+      <c r="AE77" s="77"/>
+      <c r="AF77" s="77"/>
+      <c r="AG77" s="77"/>
+      <c r="AH77" s="78"/>
     </row>
     <row r="78" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="15"/>
@@ -7489,13 +7872,13 @@
       <c r="Y78" s="27"/>
       <c r="Z78" s="27"/>
       <c r="AA78" s="27"/>
-      <c r="AB78" s="54"/>
-      <c r="AC78" s="55"/>
-      <c r="AD78" s="55"/>
-      <c r="AE78" s="55"/>
-      <c r="AF78" s="55"/>
-      <c r="AG78" s="55"/>
-      <c r="AH78" s="56"/>
+      <c r="AB78" s="76"/>
+      <c r="AC78" s="77"/>
+      <c r="AD78" s="77"/>
+      <c r="AE78" s="77"/>
+      <c r="AF78" s="77"/>
+      <c r="AG78" s="77"/>
+      <c r="AH78" s="78"/>
     </row>
     <row r="79" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="15"/>
@@ -7521,13 +7904,13 @@
       <c r="Y79" s="27"/>
       <c r="Z79" s="27"/>
       <c r="AA79" s="27"/>
-      <c r="AB79" s="54"/>
-      <c r="AC79" s="55"/>
-      <c r="AD79" s="55"/>
-      <c r="AE79" s="55"/>
-      <c r="AF79" s="55"/>
-      <c r="AG79" s="55"/>
-      <c r="AH79" s="56"/>
+      <c r="AB79" s="76"/>
+      <c r="AC79" s="77"/>
+      <c r="AD79" s="77"/>
+      <c r="AE79" s="77"/>
+      <c r="AF79" s="77"/>
+      <c r="AG79" s="77"/>
+      <c r="AH79" s="78"/>
     </row>
     <row r="80" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="15"/>
@@ -7553,13 +7936,13 @@
       <c r="Y80" s="27"/>
       <c r="Z80" s="27"/>
       <c r="AA80" s="27"/>
-      <c r="AB80" s="54"/>
-      <c r="AC80" s="55"/>
-      <c r="AD80" s="55"/>
-      <c r="AE80" s="55"/>
-      <c r="AF80" s="55"/>
-      <c r="AG80" s="55"/>
-      <c r="AH80" s="56"/>
+      <c r="AB80" s="76"/>
+      <c r="AC80" s="77"/>
+      <c r="AD80" s="77"/>
+      <c r="AE80" s="77"/>
+      <c r="AF80" s="77"/>
+      <c r="AG80" s="77"/>
+      <c r="AH80" s="78"/>
     </row>
     <row r="81" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E81" s="15"/>
@@ -7585,13 +7968,13 @@
       <c r="Y81" s="27"/>
       <c r="Z81" s="27"/>
       <c r="AA81" s="27"/>
-      <c r="AB81" s="54"/>
-      <c r="AC81" s="55"/>
-      <c r="AD81" s="55"/>
-      <c r="AE81" s="55"/>
-      <c r="AF81" s="55"/>
-      <c r="AG81" s="55"/>
-      <c r="AH81" s="56"/>
+      <c r="AB81" s="76"/>
+      <c r="AC81" s="77"/>
+      <c r="AD81" s="77"/>
+      <c r="AE81" s="77"/>
+      <c r="AF81" s="77"/>
+      <c r="AG81" s="77"/>
+      <c r="AH81" s="78"/>
     </row>
     <row r="82" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="15"/>
@@ -7617,13 +8000,13 @@
       <c r="Y82" s="27"/>
       <c r="Z82" s="27"/>
       <c r="AA82" s="27"/>
-      <c r="AB82" s="54"/>
-      <c r="AC82" s="55"/>
-      <c r="AD82" s="55"/>
-      <c r="AE82" s="55"/>
-      <c r="AF82" s="55"/>
-      <c r="AG82" s="55"/>
-      <c r="AH82" s="56"/>
+      <c r="AB82" s="76"/>
+      <c r="AC82" s="77"/>
+      <c r="AD82" s="77"/>
+      <c r="AE82" s="77"/>
+      <c r="AF82" s="77"/>
+      <c r="AG82" s="77"/>
+      <c r="AH82" s="78"/>
     </row>
     <row r="83" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="15"/>
@@ -7649,13 +8032,13 @@
       <c r="Y83" s="30"/>
       <c r="Z83" s="30"/>
       <c r="AA83" s="30"/>
-      <c r="AB83" s="57"/>
-      <c r="AC83" s="58"/>
-      <c r="AD83" s="58"/>
-      <c r="AE83" s="58"/>
-      <c r="AF83" s="58"/>
-      <c r="AG83" s="58"/>
-      <c r="AH83" s="59"/>
+      <c r="AB83" s="79"/>
+      <c r="AC83" s="80"/>
+      <c r="AD83" s="80"/>
+      <c r="AE83" s="80"/>
+      <c r="AF83" s="80"/>
+      <c r="AG83" s="80"/>
+      <c r="AH83" s="81"/>
     </row>
     <row r="84" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="15"/>
@@ -7683,15 +8066,15 @@
       <c r="Y84" s="24"/>
       <c r="Z84" s="24"/>
       <c r="AA84" s="24"/>
-      <c r="AB84" s="51" t="s">
+      <c r="AB84" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="AC84" s="63"/>
-      <c r="AD84" s="63"/>
-      <c r="AE84" s="63"/>
-      <c r="AF84" s="63"/>
-      <c r="AG84" s="63"/>
-      <c r="AH84" s="64"/>
+      <c r="AC84" s="82"/>
+      <c r="AD84" s="82"/>
+      <c r="AE84" s="82"/>
+      <c r="AF84" s="82"/>
+      <c r="AG84" s="82"/>
+      <c r="AH84" s="83"/>
     </row>
     <row r="85" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85" s="15"/>
@@ -7717,13 +8100,13 @@
       <c r="Y85" s="27"/>
       <c r="Z85" s="27"/>
       <c r="AA85" s="27"/>
-      <c r="AB85" s="65"/>
-      <c r="AC85" s="66"/>
-      <c r="AD85" s="66"/>
-      <c r="AE85" s="66"/>
-      <c r="AF85" s="66"/>
-      <c r="AG85" s="66"/>
-      <c r="AH85" s="67"/>
+      <c r="AB85" s="84"/>
+      <c r="AC85" s="85"/>
+      <c r="AD85" s="85"/>
+      <c r="AE85" s="85"/>
+      <c r="AF85" s="85"/>
+      <c r="AG85" s="85"/>
+      <c r="AH85" s="86"/>
     </row>
     <row r="86" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="15"/>
@@ -7749,13 +8132,13 @@
       <c r="Y86" s="27"/>
       <c r="Z86" s="27"/>
       <c r="AA86" s="27"/>
-      <c r="AB86" s="65"/>
-      <c r="AC86" s="66"/>
-      <c r="AD86" s="66"/>
-      <c r="AE86" s="66"/>
-      <c r="AF86" s="66"/>
-      <c r="AG86" s="66"/>
-      <c r="AH86" s="67"/>
+      <c r="AB86" s="84"/>
+      <c r="AC86" s="85"/>
+      <c r="AD86" s="85"/>
+      <c r="AE86" s="85"/>
+      <c r="AF86" s="85"/>
+      <c r="AG86" s="85"/>
+      <c r="AH86" s="86"/>
     </row>
     <row r="87" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87" s="15"/>
@@ -7781,13 +8164,13 @@
       <c r="Y87" s="27"/>
       <c r="Z87" s="27"/>
       <c r="AA87" s="27"/>
-      <c r="AB87" s="65"/>
-      <c r="AC87" s="66"/>
-      <c r="AD87" s="66"/>
-      <c r="AE87" s="66"/>
-      <c r="AF87" s="66"/>
-      <c r="AG87" s="66"/>
-      <c r="AH87" s="67"/>
+      <c r="AB87" s="84"/>
+      <c r="AC87" s="85"/>
+      <c r="AD87" s="85"/>
+      <c r="AE87" s="85"/>
+      <c r="AF87" s="85"/>
+      <c r="AG87" s="85"/>
+      <c r="AH87" s="86"/>
     </row>
     <row r="88" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="15"/>
@@ -7813,13 +8196,13 @@
       <c r="Y88" s="27"/>
       <c r="Z88" s="27"/>
       <c r="AA88" s="27"/>
-      <c r="AB88" s="65"/>
-      <c r="AC88" s="66"/>
-      <c r="AD88" s="66"/>
-      <c r="AE88" s="66"/>
-      <c r="AF88" s="66"/>
-      <c r="AG88" s="66"/>
-      <c r="AH88" s="67"/>
+      <c r="AB88" s="84"/>
+      <c r="AC88" s="85"/>
+      <c r="AD88" s="85"/>
+      <c r="AE88" s="85"/>
+      <c r="AF88" s="85"/>
+      <c r="AG88" s="85"/>
+      <c r="AH88" s="86"/>
     </row>
     <row r="89" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="15"/>
@@ -7845,13 +8228,13 @@
       <c r="Y89" s="27"/>
       <c r="Z89" s="27"/>
       <c r="AA89" s="27"/>
-      <c r="AB89" s="65"/>
-      <c r="AC89" s="66"/>
-      <c r="AD89" s="66"/>
-      <c r="AE89" s="66"/>
-      <c r="AF89" s="66"/>
-      <c r="AG89" s="66"/>
-      <c r="AH89" s="67"/>
+      <c r="AB89" s="84"/>
+      <c r="AC89" s="85"/>
+      <c r="AD89" s="85"/>
+      <c r="AE89" s="85"/>
+      <c r="AF89" s="85"/>
+      <c r="AG89" s="85"/>
+      <c r="AH89" s="86"/>
     </row>
     <row r="90" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E90" s="15"/>
@@ -7877,13 +8260,13 @@
       <c r="Y90" s="27"/>
       <c r="Z90" s="27"/>
       <c r="AA90" s="27"/>
-      <c r="AB90" s="65"/>
-      <c r="AC90" s="66"/>
-      <c r="AD90" s="66"/>
-      <c r="AE90" s="66"/>
-      <c r="AF90" s="66"/>
-      <c r="AG90" s="66"/>
-      <c r="AH90" s="67"/>
+      <c r="AB90" s="84"/>
+      <c r="AC90" s="85"/>
+      <c r="AD90" s="85"/>
+      <c r="AE90" s="85"/>
+      <c r="AF90" s="85"/>
+      <c r="AG90" s="85"/>
+      <c r="AH90" s="86"/>
     </row>
     <row r="91" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E91" s="15"/>
@@ -7909,13 +8292,13 @@
       <c r="Y91" s="27"/>
       <c r="Z91" s="27"/>
       <c r="AA91" s="27"/>
-      <c r="AB91" s="65"/>
-      <c r="AC91" s="66"/>
-      <c r="AD91" s="66"/>
-      <c r="AE91" s="66"/>
-      <c r="AF91" s="66"/>
-      <c r="AG91" s="66"/>
-      <c r="AH91" s="67"/>
+      <c r="AB91" s="84"/>
+      <c r="AC91" s="85"/>
+      <c r="AD91" s="85"/>
+      <c r="AE91" s="85"/>
+      <c r="AF91" s="85"/>
+      <c r="AG91" s="85"/>
+      <c r="AH91" s="86"/>
     </row>
     <row r="92" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="15"/>
@@ -7941,13 +8324,13 @@
       <c r="Y92" s="27"/>
       <c r="Z92" s="27"/>
       <c r="AA92" s="27"/>
-      <c r="AB92" s="65"/>
-      <c r="AC92" s="66"/>
-      <c r="AD92" s="66"/>
-      <c r="AE92" s="66"/>
-      <c r="AF92" s="66"/>
-      <c r="AG92" s="66"/>
-      <c r="AH92" s="67"/>
+      <c r="AB92" s="84"/>
+      <c r="AC92" s="85"/>
+      <c r="AD92" s="85"/>
+      <c r="AE92" s="85"/>
+      <c r="AF92" s="85"/>
+      <c r="AG92" s="85"/>
+      <c r="AH92" s="86"/>
     </row>
     <row r="93" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E93" s="15"/>
@@ -7973,13 +8356,13 @@
       <c r="Y93" s="30"/>
       <c r="Z93" s="30"/>
       <c r="AA93" s="30"/>
-      <c r="AB93" s="68"/>
-      <c r="AC93" s="69"/>
-      <c r="AD93" s="69"/>
-      <c r="AE93" s="69"/>
-      <c r="AF93" s="69"/>
-      <c r="AG93" s="69"/>
-      <c r="AH93" s="70"/>
+      <c r="AB93" s="87"/>
+      <c r="AC93" s="88"/>
+      <c r="AD93" s="88"/>
+      <c r="AE93" s="88"/>
+      <c r="AF93" s="88"/>
+      <c r="AG93" s="88"/>
+      <c r="AH93" s="89"/>
     </row>
     <row r="94" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E94" s="15"/>
@@ -8007,15 +8390,15 @@
       <c r="Y94" s="24"/>
       <c r="Z94" s="24"/>
       <c r="AA94" s="24"/>
-      <c r="AB94" s="51" t="s">
+      <c r="AB94" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="AC94" s="52"/>
-      <c r="AD94" s="52"/>
-      <c r="AE94" s="52"/>
-      <c r="AF94" s="52"/>
-      <c r="AG94" s="52"/>
-      <c r="AH94" s="53"/>
+      <c r="AC94" s="74"/>
+      <c r="AD94" s="74"/>
+      <c r="AE94" s="74"/>
+      <c r="AF94" s="74"/>
+      <c r="AG94" s="74"/>
+      <c r="AH94" s="75"/>
     </row>
     <row r="95" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="15"/>
@@ -8041,13 +8424,13 @@
       <c r="Y95" s="27"/>
       <c r="Z95" s="27"/>
       <c r="AA95" s="27"/>
-      <c r="AB95" s="54"/>
-      <c r="AC95" s="55"/>
-      <c r="AD95" s="55"/>
-      <c r="AE95" s="55"/>
-      <c r="AF95" s="55"/>
-      <c r="AG95" s="55"/>
-      <c r="AH95" s="56"/>
+      <c r="AB95" s="76"/>
+      <c r="AC95" s="77"/>
+      <c r="AD95" s="77"/>
+      <c r="AE95" s="77"/>
+      <c r="AF95" s="77"/>
+      <c r="AG95" s="77"/>
+      <c r="AH95" s="78"/>
     </row>
     <row r="96" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E96" s="15"/>
@@ -8073,13 +8456,13 @@
       <c r="Y96" s="27"/>
       <c r="Z96" s="27"/>
       <c r="AA96" s="27"/>
-      <c r="AB96" s="54"/>
-      <c r="AC96" s="55"/>
-      <c r="AD96" s="55"/>
-      <c r="AE96" s="55"/>
-      <c r="AF96" s="55"/>
-      <c r="AG96" s="55"/>
-      <c r="AH96" s="56"/>
+      <c r="AB96" s="76"/>
+      <c r="AC96" s="77"/>
+      <c r="AD96" s="77"/>
+      <c r="AE96" s="77"/>
+      <c r="AF96" s="77"/>
+      <c r="AG96" s="77"/>
+      <c r="AH96" s="78"/>
     </row>
     <row r="97" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E97" s="15"/>
@@ -8105,13 +8488,13 @@
       <c r="Y97" s="27"/>
       <c r="Z97" s="27"/>
       <c r="AA97" s="27"/>
-      <c r="AB97" s="54"/>
-      <c r="AC97" s="55"/>
-      <c r="AD97" s="55"/>
-      <c r="AE97" s="55"/>
-      <c r="AF97" s="55"/>
-      <c r="AG97" s="55"/>
-      <c r="AH97" s="56"/>
+      <c r="AB97" s="76"/>
+      <c r="AC97" s="77"/>
+      <c r="AD97" s="77"/>
+      <c r="AE97" s="77"/>
+      <c r="AF97" s="77"/>
+      <c r="AG97" s="77"/>
+      <c r="AH97" s="78"/>
     </row>
     <row r="98" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E98" s="15"/>
@@ -8137,13 +8520,13 @@
       <c r="Y98" s="27"/>
       <c r="Z98" s="27"/>
       <c r="AA98" s="27"/>
-      <c r="AB98" s="54"/>
-      <c r="AC98" s="55"/>
-      <c r="AD98" s="55"/>
-      <c r="AE98" s="55"/>
-      <c r="AF98" s="55"/>
-      <c r="AG98" s="55"/>
-      <c r="AH98" s="56"/>
+      <c r="AB98" s="76"/>
+      <c r="AC98" s="77"/>
+      <c r="AD98" s="77"/>
+      <c r="AE98" s="77"/>
+      <c r="AF98" s="77"/>
+      <c r="AG98" s="77"/>
+      <c r="AH98" s="78"/>
     </row>
     <row r="99" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E99" s="15"/>
@@ -8169,13 +8552,13 @@
       <c r="Y99" s="27"/>
       <c r="Z99" s="27"/>
       <c r="AA99" s="27"/>
-      <c r="AB99" s="54"/>
-      <c r="AC99" s="55"/>
-      <c r="AD99" s="55"/>
-      <c r="AE99" s="55"/>
-      <c r="AF99" s="55"/>
-      <c r="AG99" s="55"/>
-      <c r="AH99" s="56"/>
+      <c r="AB99" s="76"/>
+      <c r="AC99" s="77"/>
+      <c r="AD99" s="77"/>
+      <c r="AE99" s="77"/>
+      <c r="AF99" s="77"/>
+      <c r="AG99" s="77"/>
+      <c r="AH99" s="78"/>
     </row>
     <row r="100" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E100" s="15"/>
@@ -8201,13 +8584,13 @@
       <c r="Y100" s="27"/>
       <c r="Z100" s="27"/>
       <c r="AA100" s="27"/>
-      <c r="AB100" s="54"/>
-      <c r="AC100" s="55"/>
-      <c r="AD100" s="55"/>
-      <c r="AE100" s="55"/>
-      <c r="AF100" s="55"/>
-      <c r="AG100" s="55"/>
-      <c r="AH100" s="56"/>
+      <c r="AB100" s="76"/>
+      <c r="AC100" s="77"/>
+      <c r="AD100" s="77"/>
+      <c r="AE100" s="77"/>
+      <c r="AF100" s="77"/>
+      <c r="AG100" s="77"/>
+      <c r="AH100" s="78"/>
     </row>
     <row r="101" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="15"/>
@@ -8233,13 +8616,13 @@
       <c r="Y101" s="27"/>
       <c r="Z101" s="27"/>
       <c r="AA101" s="27"/>
-      <c r="AB101" s="54"/>
-      <c r="AC101" s="55"/>
-      <c r="AD101" s="55"/>
-      <c r="AE101" s="55"/>
-      <c r="AF101" s="55"/>
-      <c r="AG101" s="55"/>
-      <c r="AH101" s="56"/>
+      <c r="AB101" s="76"/>
+      <c r="AC101" s="77"/>
+      <c r="AD101" s="77"/>
+      <c r="AE101" s="77"/>
+      <c r="AF101" s="77"/>
+      <c r="AG101" s="77"/>
+      <c r="AH101" s="78"/>
     </row>
     <row r="102" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E102" s="15"/>
@@ -8265,13 +8648,13 @@
       <c r="Y102" s="27"/>
       <c r="Z102" s="27"/>
       <c r="AA102" s="27"/>
-      <c r="AB102" s="54"/>
-      <c r="AC102" s="55"/>
-      <c r="AD102" s="55"/>
-      <c r="AE102" s="55"/>
-      <c r="AF102" s="55"/>
-      <c r="AG102" s="55"/>
-      <c r="AH102" s="56"/>
+      <c r="AB102" s="76"/>
+      <c r="AC102" s="77"/>
+      <c r="AD102" s="77"/>
+      <c r="AE102" s="77"/>
+      <c r="AF102" s="77"/>
+      <c r="AG102" s="77"/>
+      <c r="AH102" s="78"/>
     </row>
     <row r="103" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E103" s="15"/>
@@ -8297,13 +8680,13 @@
       <c r="Y103" s="27"/>
       <c r="Z103" s="27"/>
       <c r="AA103" s="27"/>
-      <c r="AB103" s="54"/>
-      <c r="AC103" s="55"/>
-      <c r="AD103" s="55"/>
-      <c r="AE103" s="55"/>
-      <c r="AF103" s="55"/>
-      <c r="AG103" s="55"/>
-      <c r="AH103" s="56"/>
+      <c r="AB103" s="76"/>
+      <c r="AC103" s="77"/>
+      <c r="AD103" s="77"/>
+      <c r="AE103" s="77"/>
+      <c r="AF103" s="77"/>
+      <c r="AG103" s="77"/>
+      <c r="AH103" s="78"/>
     </row>
     <row r="104" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="15"/>
@@ -8329,13 +8712,13 @@
       <c r="Y104" s="27"/>
       <c r="Z104" s="27"/>
       <c r="AA104" s="27"/>
-      <c r="AB104" s="54"/>
-      <c r="AC104" s="55"/>
-      <c r="AD104" s="55"/>
-      <c r="AE104" s="55"/>
-      <c r="AF104" s="55"/>
-      <c r="AG104" s="55"/>
-      <c r="AH104" s="56"/>
+      <c r="AB104" s="76"/>
+      <c r="AC104" s="77"/>
+      <c r="AD104" s="77"/>
+      <c r="AE104" s="77"/>
+      <c r="AF104" s="77"/>
+      <c r="AG104" s="77"/>
+      <c r="AH104" s="78"/>
     </row>
     <row r="105" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E105" s="15"/>
@@ -8361,13 +8744,13 @@
       <c r="Y105" s="27"/>
       <c r="Z105" s="27"/>
       <c r="AA105" s="27"/>
-      <c r="AB105" s="54"/>
-      <c r="AC105" s="55"/>
-      <c r="AD105" s="55"/>
-      <c r="AE105" s="55"/>
-      <c r="AF105" s="55"/>
-      <c r="AG105" s="55"/>
-      <c r="AH105" s="56"/>
+      <c r="AB105" s="76"/>
+      <c r="AC105" s="77"/>
+      <c r="AD105" s="77"/>
+      <c r="AE105" s="77"/>
+      <c r="AF105" s="77"/>
+      <c r="AG105" s="77"/>
+      <c r="AH105" s="78"/>
     </row>
     <row r="106" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E106" s="15"/>
@@ -8393,13 +8776,13 @@
       <c r="Y106" s="27"/>
       <c r="Z106" s="27"/>
       <c r="AA106" s="27"/>
-      <c r="AB106" s="54"/>
-      <c r="AC106" s="55"/>
-      <c r="AD106" s="55"/>
-      <c r="AE106" s="55"/>
-      <c r="AF106" s="55"/>
-      <c r="AG106" s="55"/>
-      <c r="AH106" s="56"/>
+      <c r="AB106" s="76"/>
+      <c r="AC106" s="77"/>
+      <c r="AD106" s="77"/>
+      <c r="AE106" s="77"/>
+      <c r="AF106" s="77"/>
+      <c r="AG106" s="77"/>
+      <c r="AH106" s="78"/>
     </row>
     <row r="107" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E107" s="15"/>
@@ -8427,15 +8810,15 @@
       <c r="Y107" s="24"/>
       <c r="Z107" s="24"/>
       <c r="AA107" s="24"/>
-      <c r="AB107" s="51" t="s">
+      <c r="AB107" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="AC107" s="52"/>
-      <c r="AD107" s="52"/>
-      <c r="AE107" s="52"/>
-      <c r="AF107" s="52"/>
-      <c r="AG107" s="52"/>
-      <c r="AH107" s="53"/>
+      <c r="AC107" s="74"/>
+      <c r="AD107" s="74"/>
+      <c r="AE107" s="74"/>
+      <c r="AF107" s="74"/>
+      <c r="AG107" s="74"/>
+      <c r="AH107" s="75"/>
     </row>
     <row r="108" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E108" s="15"/>
@@ -8461,13 +8844,13 @@
       <c r="Y108" s="27"/>
       <c r="Z108" s="27"/>
       <c r="AA108" s="27"/>
-      <c r="AB108" s="54"/>
-      <c r="AC108" s="55"/>
-      <c r="AD108" s="55"/>
-      <c r="AE108" s="55"/>
-      <c r="AF108" s="55"/>
-      <c r="AG108" s="55"/>
-      <c r="AH108" s="56"/>
+      <c r="AB108" s="76"/>
+      <c r="AC108" s="77"/>
+      <c r="AD108" s="77"/>
+      <c r="AE108" s="77"/>
+      <c r="AF108" s="77"/>
+      <c r="AG108" s="77"/>
+      <c r="AH108" s="78"/>
     </row>
     <row r="109" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E109" s="15"/>
@@ -8493,13 +8876,13 @@
       <c r="Y109" s="27"/>
       <c r="Z109" s="27"/>
       <c r="AA109" s="27"/>
-      <c r="AB109" s="54"/>
-      <c r="AC109" s="55"/>
-      <c r="AD109" s="55"/>
-      <c r="AE109" s="55"/>
-      <c r="AF109" s="55"/>
-      <c r="AG109" s="55"/>
-      <c r="AH109" s="56"/>
+      <c r="AB109" s="76"/>
+      <c r="AC109" s="77"/>
+      <c r="AD109" s="77"/>
+      <c r="AE109" s="77"/>
+      <c r="AF109" s="77"/>
+      <c r="AG109" s="77"/>
+      <c r="AH109" s="78"/>
     </row>
     <row r="110" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E110" s="15"/>
@@ -8525,13 +8908,13 @@
       <c r="Y110" s="27"/>
       <c r="Z110" s="27"/>
       <c r="AA110" s="27"/>
-      <c r="AB110" s="54"/>
-      <c r="AC110" s="55"/>
-      <c r="AD110" s="55"/>
-      <c r="AE110" s="55"/>
-      <c r="AF110" s="55"/>
-      <c r="AG110" s="55"/>
-      <c r="AH110" s="56"/>
+      <c r="AB110" s="76"/>
+      <c r="AC110" s="77"/>
+      <c r="AD110" s="77"/>
+      <c r="AE110" s="77"/>
+      <c r="AF110" s="77"/>
+      <c r="AG110" s="77"/>
+      <c r="AH110" s="78"/>
     </row>
     <row r="111" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E111" s="15"/>
@@ -8557,13 +8940,13 @@
       <c r="Y111" s="27"/>
       <c r="Z111" s="27"/>
       <c r="AA111" s="27"/>
-      <c r="AB111" s="54"/>
-      <c r="AC111" s="55"/>
-      <c r="AD111" s="55"/>
-      <c r="AE111" s="55"/>
-      <c r="AF111" s="55"/>
-      <c r="AG111" s="55"/>
-      <c r="AH111" s="56"/>
+      <c r="AB111" s="76"/>
+      <c r="AC111" s="77"/>
+      <c r="AD111" s="77"/>
+      <c r="AE111" s="77"/>
+      <c r="AF111" s="77"/>
+      <c r="AG111" s="77"/>
+      <c r="AH111" s="78"/>
     </row>
     <row r="112" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E112" s="15"/>
@@ -8589,13 +8972,13 @@
       <c r="Y112" s="27"/>
       <c r="Z112" s="27"/>
       <c r="AA112" s="27"/>
-      <c r="AB112" s="54"/>
-      <c r="AC112" s="55"/>
-      <c r="AD112" s="55"/>
-      <c r="AE112" s="55"/>
-      <c r="AF112" s="55"/>
-      <c r="AG112" s="55"/>
-      <c r="AH112" s="56"/>
+      <c r="AB112" s="76"/>
+      <c r="AC112" s="77"/>
+      <c r="AD112" s="77"/>
+      <c r="AE112" s="77"/>
+      <c r="AF112" s="77"/>
+      <c r="AG112" s="77"/>
+      <c r="AH112" s="78"/>
     </row>
     <row r="113" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E113" s="15"/>
@@ -8621,13 +9004,13 @@
       <c r="Y113" s="27"/>
       <c r="Z113" s="27"/>
       <c r="AA113" s="27"/>
-      <c r="AB113" s="54"/>
-      <c r="AC113" s="55"/>
-      <c r="AD113" s="55"/>
-      <c r="AE113" s="55"/>
-      <c r="AF113" s="55"/>
-      <c r="AG113" s="55"/>
-      <c r="AH113" s="56"/>
+      <c r="AB113" s="76"/>
+      <c r="AC113" s="77"/>
+      <c r="AD113" s="77"/>
+      <c r="AE113" s="77"/>
+      <c r="AF113" s="77"/>
+      <c r="AG113" s="77"/>
+      <c r="AH113" s="78"/>
     </row>
     <row r="114" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E114" s="15"/>
@@ -8653,13 +9036,13 @@
       <c r="Y114" s="27"/>
       <c r="Z114" s="27"/>
       <c r="AA114" s="27"/>
-      <c r="AB114" s="54"/>
-      <c r="AC114" s="55"/>
-      <c r="AD114" s="55"/>
-      <c r="AE114" s="55"/>
-      <c r="AF114" s="55"/>
-      <c r="AG114" s="55"/>
-      <c r="AH114" s="56"/>
+      <c r="AB114" s="76"/>
+      <c r="AC114" s="77"/>
+      <c r="AD114" s="77"/>
+      <c r="AE114" s="77"/>
+      <c r="AF114" s="77"/>
+      <c r="AG114" s="77"/>
+      <c r="AH114" s="78"/>
     </row>
     <row r="115" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E115" s="15"/>
@@ -8685,13 +9068,13 @@
       <c r="Y115" s="27"/>
       <c r="Z115" s="27"/>
       <c r="AA115" s="27"/>
-      <c r="AB115" s="54"/>
-      <c r="AC115" s="55"/>
-      <c r="AD115" s="55"/>
-      <c r="AE115" s="55"/>
-      <c r="AF115" s="55"/>
-      <c r="AG115" s="55"/>
-      <c r="AH115" s="56"/>
+      <c r="AB115" s="76"/>
+      <c r="AC115" s="77"/>
+      <c r="AD115" s="77"/>
+      <c r="AE115" s="77"/>
+      <c r="AF115" s="77"/>
+      <c r="AG115" s="77"/>
+      <c r="AH115" s="78"/>
     </row>
     <row r="116" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E116" s="15"/>
@@ -8717,13 +9100,13 @@
       <c r="Y116" s="27"/>
       <c r="Z116" s="27"/>
       <c r="AA116" s="27"/>
-      <c r="AB116" s="54"/>
-      <c r="AC116" s="55"/>
-      <c r="AD116" s="55"/>
-      <c r="AE116" s="55"/>
-      <c r="AF116" s="55"/>
-      <c r="AG116" s="55"/>
-      <c r="AH116" s="56"/>
+      <c r="AB116" s="76"/>
+      <c r="AC116" s="77"/>
+      <c r="AD116" s="77"/>
+      <c r="AE116" s="77"/>
+      <c r="AF116" s="77"/>
+      <c r="AG116" s="77"/>
+      <c r="AH116" s="78"/>
     </row>
     <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E117" s="15"/>
@@ -8749,13 +9132,13 @@
       <c r="Y117" s="27"/>
       <c r="Z117" s="27"/>
       <c r="AA117" s="27"/>
-      <c r="AB117" s="54"/>
-      <c r="AC117" s="55"/>
-      <c r="AD117" s="55"/>
-      <c r="AE117" s="55"/>
-      <c r="AF117" s="55"/>
-      <c r="AG117" s="55"/>
-      <c r="AH117" s="56"/>
+      <c r="AB117" s="76"/>
+      <c r="AC117" s="77"/>
+      <c r="AD117" s="77"/>
+      <c r="AE117" s="77"/>
+      <c r="AF117" s="77"/>
+      <c r="AG117" s="77"/>
+      <c r="AH117" s="78"/>
     </row>
     <row r="118" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E118" s="15"/>
@@ -8781,13 +9164,13 @@
       <c r="Y118" s="30"/>
       <c r="Z118" s="30"/>
       <c r="AA118" s="30"/>
-      <c r="AB118" s="57"/>
-      <c r="AC118" s="58"/>
-      <c r="AD118" s="58"/>
-      <c r="AE118" s="58"/>
-      <c r="AF118" s="58"/>
-      <c r="AG118" s="58"/>
-      <c r="AH118" s="59"/>
+      <c r="AB118" s="79"/>
+      <c r="AC118" s="80"/>
+      <c r="AD118" s="80"/>
+      <c r="AE118" s="80"/>
+      <c r="AF118" s="80"/>
+      <c r="AG118" s="80"/>
+      <c r="AH118" s="81"/>
     </row>
     <row r="119" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E119" s="15"/>
@@ -8815,15 +9198,15 @@
       <c r="Y119" s="24"/>
       <c r="Z119" s="24"/>
       <c r="AA119" s="24"/>
-      <c r="AB119" s="51" t="s">
+      <c r="AB119" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="AC119" s="52"/>
-      <c r="AD119" s="52"/>
-      <c r="AE119" s="52"/>
-      <c r="AF119" s="52"/>
-      <c r="AG119" s="52"/>
-      <c r="AH119" s="53"/>
+      <c r="AC119" s="74"/>
+      <c r="AD119" s="74"/>
+      <c r="AE119" s="74"/>
+      <c r="AF119" s="74"/>
+      <c r="AG119" s="74"/>
+      <c r="AH119" s="75"/>
     </row>
     <row r="120" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E120" s="15"/>
@@ -8849,13 +9232,13 @@
       <c r="Y120" s="27"/>
       <c r="Z120" s="27"/>
       <c r="AA120" s="27"/>
-      <c r="AB120" s="54"/>
-      <c r="AC120" s="55"/>
-      <c r="AD120" s="55"/>
-      <c r="AE120" s="55"/>
-      <c r="AF120" s="55"/>
-      <c r="AG120" s="55"/>
-      <c r="AH120" s="56"/>
+      <c r="AB120" s="76"/>
+      <c r="AC120" s="77"/>
+      <c r="AD120" s="77"/>
+      <c r="AE120" s="77"/>
+      <c r="AF120" s="77"/>
+      <c r="AG120" s="77"/>
+      <c r="AH120" s="78"/>
     </row>
     <row r="121" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="15"/>
@@ -8881,13 +9264,13 @@
       <c r="Y121" s="27"/>
       <c r="Z121" s="27"/>
       <c r="AA121" s="27"/>
-      <c r="AB121" s="54"/>
-      <c r="AC121" s="55"/>
-      <c r="AD121" s="55"/>
-      <c r="AE121" s="55"/>
-      <c r="AF121" s="55"/>
-      <c r="AG121" s="55"/>
-      <c r="AH121" s="56"/>
+      <c r="AB121" s="76"/>
+      <c r="AC121" s="77"/>
+      <c r="AD121" s="77"/>
+      <c r="AE121" s="77"/>
+      <c r="AF121" s="77"/>
+      <c r="AG121" s="77"/>
+      <c r="AH121" s="78"/>
     </row>
     <row r="122" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="15"/>
@@ -8913,13 +9296,13 @@
       <c r="Y122" s="27"/>
       <c r="Z122" s="27"/>
       <c r="AA122" s="27"/>
-      <c r="AB122" s="54"/>
-      <c r="AC122" s="55"/>
-      <c r="AD122" s="55"/>
-      <c r="AE122" s="55"/>
-      <c r="AF122" s="55"/>
-      <c r="AG122" s="55"/>
-      <c r="AH122" s="56"/>
+      <c r="AB122" s="76"/>
+      <c r="AC122" s="77"/>
+      <c r="AD122" s="77"/>
+      <c r="AE122" s="77"/>
+      <c r="AF122" s="77"/>
+      <c r="AG122" s="77"/>
+      <c r="AH122" s="78"/>
     </row>
     <row r="123" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E123" s="15"/>
@@ -8945,13 +9328,13 @@
       <c r="Y123" s="27"/>
       <c r="Z123" s="27"/>
       <c r="AA123" s="27"/>
-      <c r="AB123" s="54"/>
-      <c r="AC123" s="55"/>
-      <c r="AD123" s="55"/>
-      <c r="AE123" s="55"/>
-      <c r="AF123" s="55"/>
-      <c r="AG123" s="55"/>
-      <c r="AH123" s="56"/>
+      <c r="AB123" s="76"/>
+      <c r="AC123" s="77"/>
+      <c r="AD123" s="77"/>
+      <c r="AE123" s="77"/>
+      <c r="AF123" s="77"/>
+      <c r="AG123" s="77"/>
+      <c r="AH123" s="78"/>
     </row>
     <row r="124" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E124" s="15"/>
@@ -8977,13 +9360,13 @@
       <c r="Y124" s="27"/>
       <c r="Z124" s="27"/>
       <c r="AA124" s="27"/>
-      <c r="AB124" s="54"/>
-      <c r="AC124" s="55"/>
-      <c r="AD124" s="55"/>
-      <c r="AE124" s="55"/>
-      <c r="AF124" s="55"/>
-      <c r="AG124" s="55"/>
-      <c r="AH124" s="56"/>
+      <c r="AB124" s="76"/>
+      <c r="AC124" s="77"/>
+      <c r="AD124" s="77"/>
+      <c r="AE124" s="77"/>
+      <c r="AF124" s="77"/>
+      <c r="AG124" s="77"/>
+      <c r="AH124" s="78"/>
     </row>
     <row r="125" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E125" s="15"/>
@@ -9009,13 +9392,13 @@
       <c r="Y125" s="27"/>
       <c r="Z125" s="27"/>
       <c r="AA125" s="27"/>
-      <c r="AB125" s="54"/>
-      <c r="AC125" s="55"/>
-      <c r="AD125" s="55"/>
-      <c r="AE125" s="55"/>
-      <c r="AF125" s="55"/>
-      <c r="AG125" s="55"/>
-      <c r="AH125" s="56"/>
+      <c r="AB125" s="76"/>
+      <c r="AC125" s="77"/>
+      <c r="AD125" s="77"/>
+      <c r="AE125" s="77"/>
+      <c r="AF125" s="77"/>
+      <c r="AG125" s="77"/>
+      <c r="AH125" s="78"/>
     </row>
     <row r="126" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E126" s="15"/>
@@ -9041,13 +9424,13 @@
       <c r="Y126" s="27"/>
       <c r="Z126" s="27"/>
       <c r="AA126" s="27"/>
-      <c r="AB126" s="54"/>
-      <c r="AC126" s="55"/>
-      <c r="AD126" s="55"/>
-      <c r="AE126" s="55"/>
-      <c r="AF126" s="55"/>
-      <c r="AG126" s="55"/>
-      <c r="AH126" s="56"/>
+      <c r="AB126" s="76"/>
+      <c r="AC126" s="77"/>
+      <c r="AD126" s="77"/>
+      <c r="AE126" s="77"/>
+      <c r="AF126" s="77"/>
+      <c r="AG126" s="77"/>
+      <c r="AH126" s="78"/>
     </row>
     <row r="127" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E127" s="15"/>
@@ -9073,47 +9456,47 @@
       <c r="Y127" s="30"/>
       <c r="Z127" s="30"/>
       <c r="AA127" s="30"/>
-      <c r="AB127" s="57"/>
-      <c r="AC127" s="58"/>
-      <c r="AD127" s="58"/>
-      <c r="AE127" s="58"/>
-      <c r="AF127" s="58"/>
-      <c r="AG127" s="58"/>
-      <c r="AH127" s="59"/>
+      <c r="AB127" s="79"/>
+      <c r="AC127" s="80"/>
+      <c r="AD127" s="80"/>
+      <c r="AE127" s="80"/>
+      <c r="AF127" s="80"/>
+      <c r="AG127" s="80"/>
+      <c r="AH127" s="81"/>
     </row>
     <row r="128" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E128" s="15"/>
-      <c r="F128" s="71" t="s">
+      <c r="F128" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G128" s="72"/>
-      <c r="H128" s="72"/>
-      <c r="I128" s="72"/>
-      <c r="J128" s="72"/>
-      <c r="K128" s="72"/>
-      <c r="L128" s="72"/>
-      <c r="M128" s="72"/>
-      <c r="N128" s="72"/>
-      <c r="O128" s="72"/>
-      <c r="P128" s="72"/>
-      <c r="Q128" s="72"/>
-      <c r="R128" s="72"/>
-      <c r="S128" s="72"/>
-      <c r="T128" s="72"/>
-      <c r="U128" s="72"/>
-      <c r="V128" s="72"/>
-      <c r="W128" s="72"/>
-      <c r="X128" s="72"/>
-      <c r="Y128" s="72"/>
-      <c r="Z128" s="72"/>
-      <c r="AA128" s="72"/>
-      <c r="AB128" s="72"/>
-      <c r="AC128" s="72"/>
-      <c r="AD128" s="72"/>
-      <c r="AE128" s="72"/>
-      <c r="AF128" s="72"/>
-      <c r="AG128" s="72"/>
-      <c r="AH128" s="73"/>
+      <c r="G128" s="91"/>
+      <c r="H128" s="91"/>
+      <c r="I128" s="91"/>
+      <c r="J128" s="91"/>
+      <c r="K128" s="91"/>
+      <c r="L128" s="91"/>
+      <c r="M128" s="91"/>
+      <c r="N128" s="91"/>
+      <c r="O128" s="91"/>
+      <c r="P128" s="91"/>
+      <c r="Q128" s="91"/>
+      <c r="R128" s="91"/>
+      <c r="S128" s="91"/>
+      <c r="T128" s="91"/>
+      <c r="U128" s="91"/>
+      <c r="V128" s="91"/>
+      <c r="W128" s="91"/>
+      <c r="X128" s="91"/>
+      <c r="Y128" s="91"/>
+      <c r="Z128" s="91"/>
+      <c r="AA128" s="91"/>
+      <c r="AB128" s="91"/>
+      <c r="AC128" s="91"/>
+      <c r="AD128" s="91"/>
+      <c r="AE128" s="91"/>
+      <c r="AF128" s="91"/>
+      <c r="AG128" s="91"/>
+      <c r="AH128" s="92"/>
     </row>
     <row r="129" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E129" s="15"/>
@@ -9141,15 +9524,15 @@
       <c r="Y129" s="24"/>
       <c r="Z129" s="24"/>
       <c r="AA129" s="25"/>
-      <c r="AB129" s="51" t="s">
+      <c r="AB129" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="AC129" s="52"/>
-      <c r="AD129" s="52"/>
-      <c r="AE129" s="52"/>
-      <c r="AF129" s="52"/>
-      <c r="AG129" s="52"/>
-      <c r="AH129" s="53"/>
+      <c r="AC129" s="74"/>
+      <c r="AD129" s="74"/>
+      <c r="AE129" s="74"/>
+      <c r="AF129" s="74"/>
+      <c r="AG129" s="74"/>
+      <c r="AH129" s="75"/>
     </row>
     <row r="130" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E130" s="15"/>
@@ -9175,13 +9558,13 @@
       <c r="Y130" s="27"/>
       <c r="Z130" s="27"/>
       <c r="AA130" s="28"/>
-      <c r="AB130" s="54"/>
-      <c r="AC130" s="55"/>
-      <c r="AD130" s="55"/>
-      <c r="AE130" s="55"/>
-      <c r="AF130" s="55"/>
-      <c r="AG130" s="55"/>
-      <c r="AH130" s="56"/>
+      <c r="AB130" s="76"/>
+      <c r="AC130" s="77"/>
+      <c r="AD130" s="77"/>
+      <c r="AE130" s="77"/>
+      <c r="AF130" s="77"/>
+      <c r="AG130" s="77"/>
+      <c r="AH130" s="78"/>
     </row>
     <row r="131" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E131" s="15"/>
@@ -9207,13 +9590,13 @@
       <c r="Y131" s="27"/>
       <c r="Z131" s="27"/>
       <c r="AA131" s="28"/>
-      <c r="AB131" s="54"/>
-      <c r="AC131" s="55"/>
-      <c r="AD131" s="55"/>
-      <c r="AE131" s="55"/>
-      <c r="AF131" s="55"/>
-      <c r="AG131" s="55"/>
-      <c r="AH131" s="56"/>
+      <c r="AB131" s="76"/>
+      <c r="AC131" s="77"/>
+      <c r="AD131" s="77"/>
+      <c r="AE131" s="77"/>
+      <c r="AF131" s="77"/>
+      <c r="AG131" s="77"/>
+      <c r="AH131" s="78"/>
     </row>
     <row r="132" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E132" s="15"/>
@@ -9239,13 +9622,13 @@
       <c r="Y132" s="27"/>
       <c r="Z132" s="27"/>
       <c r="AA132" s="27"/>
-      <c r="AB132" s="54"/>
-      <c r="AC132" s="55"/>
-      <c r="AD132" s="55"/>
-      <c r="AE132" s="55"/>
-      <c r="AF132" s="55"/>
-      <c r="AG132" s="55"/>
-      <c r="AH132" s="56"/>
+      <c r="AB132" s="76"/>
+      <c r="AC132" s="77"/>
+      <c r="AD132" s="77"/>
+      <c r="AE132" s="77"/>
+      <c r="AF132" s="77"/>
+      <c r="AG132" s="77"/>
+      <c r="AH132" s="78"/>
     </row>
     <row r="133" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E133" s="15"/>
@@ -9271,13 +9654,13 @@
       <c r="Y133" s="27"/>
       <c r="Z133" s="27"/>
       <c r="AA133" s="27"/>
-      <c r="AB133" s="54"/>
-      <c r="AC133" s="55"/>
-      <c r="AD133" s="55"/>
-      <c r="AE133" s="55"/>
-      <c r="AF133" s="55"/>
-      <c r="AG133" s="55"/>
-      <c r="AH133" s="56"/>
+      <c r="AB133" s="76"/>
+      <c r="AC133" s="77"/>
+      <c r="AD133" s="77"/>
+      <c r="AE133" s="77"/>
+      <c r="AF133" s="77"/>
+      <c r="AG133" s="77"/>
+      <c r="AH133" s="78"/>
     </row>
     <row r="134" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E134" s="15"/>
@@ -9303,13 +9686,13 @@
       <c r="Y134" s="27"/>
       <c r="Z134" s="27"/>
       <c r="AA134" s="27"/>
-      <c r="AB134" s="54"/>
-      <c r="AC134" s="55"/>
-      <c r="AD134" s="55"/>
-      <c r="AE134" s="55"/>
-      <c r="AF134" s="55"/>
-      <c r="AG134" s="55"/>
-      <c r="AH134" s="56"/>
+      <c r="AB134" s="76"/>
+      <c r="AC134" s="77"/>
+      <c r="AD134" s="77"/>
+      <c r="AE134" s="77"/>
+      <c r="AF134" s="77"/>
+      <c r="AG134" s="77"/>
+      <c r="AH134" s="78"/>
     </row>
     <row r="135" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E135" s="15"/>
@@ -9335,13 +9718,13 @@
       <c r="Y135" s="27"/>
       <c r="Z135" s="27"/>
       <c r="AA135" s="27"/>
-      <c r="AB135" s="54"/>
-      <c r="AC135" s="55"/>
-      <c r="AD135" s="55"/>
-      <c r="AE135" s="55"/>
-      <c r="AF135" s="55"/>
-      <c r="AG135" s="55"/>
-      <c r="AH135" s="56"/>
+      <c r="AB135" s="76"/>
+      <c r="AC135" s="77"/>
+      <c r="AD135" s="77"/>
+      <c r="AE135" s="77"/>
+      <c r="AF135" s="77"/>
+      <c r="AG135" s="77"/>
+      <c r="AH135" s="78"/>
     </row>
     <row r="136" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E136" s="15"/>
@@ -9367,13 +9750,13 @@
       <c r="Y136" s="27"/>
       <c r="Z136" s="27"/>
       <c r="AA136" s="27"/>
-      <c r="AB136" s="54"/>
-      <c r="AC136" s="55"/>
-      <c r="AD136" s="55"/>
-      <c r="AE136" s="55"/>
-      <c r="AF136" s="55"/>
-      <c r="AG136" s="55"/>
-      <c r="AH136" s="56"/>
+      <c r="AB136" s="76"/>
+      <c r="AC136" s="77"/>
+      <c r="AD136" s="77"/>
+      <c r="AE136" s="77"/>
+      <c r="AF136" s="77"/>
+      <c r="AG136" s="77"/>
+      <c r="AH136" s="78"/>
     </row>
     <row r="137" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E137" s="15"/>
@@ -9399,13 +9782,13 @@
       <c r="Y137" s="27"/>
       <c r="Z137" s="27"/>
       <c r="AA137" s="27"/>
-      <c r="AB137" s="54"/>
-      <c r="AC137" s="55"/>
-      <c r="AD137" s="55"/>
-      <c r="AE137" s="55"/>
-      <c r="AF137" s="55"/>
-      <c r="AG137" s="55"/>
-      <c r="AH137" s="56"/>
+      <c r="AB137" s="76"/>
+      <c r="AC137" s="77"/>
+      <c r="AD137" s="77"/>
+      <c r="AE137" s="77"/>
+      <c r="AF137" s="77"/>
+      <c r="AG137" s="77"/>
+      <c r="AH137" s="78"/>
     </row>
     <row r="138" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E138" s="15"/>
@@ -9431,13 +9814,13 @@
       <c r="Y138" s="27"/>
       <c r="Z138" s="27"/>
       <c r="AA138" s="27"/>
-      <c r="AB138" s="54"/>
-      <c r="AC138" s="55"/>
-      <c r="AD138" s="55"/>
-      <c r="AE138" s="55"/>
-      <c r="AF138" s="55"/>
-      <c r="AG138" s="55"/>
-      <c r="AH138" s="56"/>
+      <c r="AB138" s="76"/>
+      <c r="AC138" s="77"/>
+      <c r="AD138" s="77"/>
+      <c r="AE138" s="77"/>
+      <c r="AF138" s="77"/>
+      <c r="AG138" s="77"/>
+      <c r="AH138" s="78"/>
     </row>
     <row r="139" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E139" s="15"/>
@@ -9463,13 +9846,13 @@
       <c r="Y139" s="30"/>
       <c r="Z139" s="30"/>
       <c r="AA139" s="30"/>
-      <c r="AB139" s="57"/>
-      <c r="AC139" s="58"/>
-      <c r="AD139" s="58"/>
-      <c r="AE139" s="58"/>
-      <c r="AF139" s="58"/>
-      <c r="AG139" s="58"/>
-      <c r="AH139" s="59"/>
+      <c r="AB139" s="79"/>
+      <c r="AC139" s="80"/>
+      <c r="AD139" s="80"/>
+      <c r="AE139" s="80"/>
+      <c r="AF139" s="80"/>
+      <c r="AG139" s="80"/>
+      <c r="AH139" s="81"/>
     </row>
     <row r="140" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E140" s="15"/>
@@ -9497,15 +9880,15 @@
       <c r="Y140" s="24"/>
       <c r="Z140" s="24"/>
       <c r="AA140" s="25"/>
-      <c r="AB140" s="51" t="s">
+      <c r="AB140" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="AC140" s="52"/>
-      <c r="AD140" s="52"/>
-      <c r="AE140" s="52"/>
-      <c r="AF140" s="52"/>
-      <c r="AG140" s="52"/>
-      <c r="AH140" s="53"/>
+      <c r="AC140" s="74"/>
+      <c r="AD140" s="74"/>
+      <c r="AE140" s="74"/>
+      <c r="AF140" s="74"/>
+      <c r="AG140" s="74"/>
+      <c r="AH140" s="75"/>
     </row>
     <row r="141" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E141" s="15"/>
@@ -9531,13 +9914,13 @@
       <c r="Y141" s="27"/>
       <c r="Z141" s="27"/>
       <c r="AA141" s="28"/>
-      <c r="AB141" s="54"/>
-      <c r="AC141" s="55"/>
-      <c r="AD141" s="55"/>
-      <c r="AE141" s="55"/>
-      <c r="AF141" s="55"/>
-      <c r="AG141" s="55"/>
-      <c r="AH141" s="56"/>
+      <c r="AB141" s="76"/>
+      <c r="AC141" s="77"/>
+      <c r="AD141" s="77"/>
+      <c r="AE141" s="77"/>
+      <c r="AF141" s="77"/>
+      <c r="AG141" s="77"/>
+      <c r="AH141" s="78"/>
     </row>
     <row r="142" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E142" s="15"/>
@@ -9563,13 +9946,13 @@
       <c r="Y142" s="27"/>
       <c r="Z142" s="27"/>
       <c r="AA142" s="27"/>
-      <c r="AB142" s="54"/>
-      <c r="AC142" s="55"/>
-      <c r="AD142" s="55"/>
-      <c r="AE142" s="55"/>
-      <c r="AF142" s="55"/>
-      <c r="AG142" s="55"/>
-      <c r="AH142" s="56"/>
+      <c r="AB142" s="76"/>
+      <c r="AC142" s="77"/>
+      <c r="AD142" s="77"/>
+      <c r="AE142" s="77"/>
+      <c r="AF142" s="77"/>
+      <c r="AG142" s="77"/>
+      <c r="AH142" s="78"/>
     </row>
     <row r="143" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E143" s="15"/>
@@ -9595,13 +9978,13 @@
       <c r="Y143" s="27"/>
       <c r="Z143" s="27"/>
       <c r="AA143" s="27"/>
-      <c r="AB143" s="54"/>
-      <c r="AC143" s="55"/>
-      <c r="AD143" s="55"/>
-      <c r="AE143" s="55"/>
-      <c r="AF143" s="55"/>
-      <c r="AG143" s="55"/>
-      <c r="AH143" s="56"/>
+      <c r="AB143" s="76"/>
+      <c r="AC143" s="77"/>
+      <c r="AD143" s="77"/>
+      <c r="AE143" s="77"/>
+      <c r="AF143" s="77"/>
+      <c r="AG143" s="77"/>
+      <c r="AH143" s="78"/>
     </row>
     <row r="144" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E144" s="15"/>
@@ -9627,13 +10010,13 @@
       <c r="Y144" s="27"/>
       <c r="Z144" s="27"/>
       <c r="AA144" s="27"/>
-      <c r="AB144" s="54"/>
-      <c r="AC144" s="55"/>
-      <c r="AD144" s="55"/>
-      <c r="AE144" s="55"/>
-      <c r="AF144" s="55"/>
-      <c r="AG144" s="55"/>
-      <c r="AH144" s="56"/>
+      <c r="AB144" s="76"/>
+      <c r="AC144" s="77"/>
+      <c r="AD144" s="77"/>
+      <c r="AE144" s="77"/>
+      <c r="AF144" s="77"/>
+      <c r="AG144" s="77"/>
+      <c r="AH144" s="78"/>
     </row>
     <row r="145" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E145" s="15"/>
@@ -9659,13 +10042,13 @@
       <c r="Y145" s="27"/>
       <c r="Z145" s="27"/>
       <c r="AA145" s="27"/>
-      <c r="AB145" s="54"/>
-      <c r="AC145" s="55"/>
-      <c r="AD145" s="55"/>
-      <c r="AE145" s="55"/>
-      <c r="AF145" s="55"/>
-      <c r="AG145" s="55"/>
-      <c r="AH145" s="56"/>
+      <c r="AB145" s="76"/>
+      <c r="AC145" s="77"/>
+      <c r="AD145" s="77"/>
+      <c r="AE145" s="77"/>
+      <c r="AF145" s="77"/>
+      <c r="AG145" s="77"/>
+      <c r="AH145" s="78"/>
     </row>
     <row r="146" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E146" s="15"/>
@@ -9691,13 +10074,13 @@
       <c r="Y146" s="27"/>
       <c r="Z146" s="27"/>
       <c r="AA146" s="27"/>
-      <c r="AB146" s="54"/>
-      <c r="AC146" s="55"/>
-      <c r="AD146" s="55"/>
-      <c r="AE146" s="55"/>
-      <c r="AF146" s="55"/>
-      <c r="AG146" s="55"/>
-      <c r="AH146" s="56"/>
+      <c r="AB146" s="76"/>
+      <c r="AC146" s="77"/>
+      <c r="AD146" s="77"/>
+      <c r="AE146" s="77"/>
+      <c r="AF146" s="77"/>
+      <c r="AG146" s="77"/>
+      <c r="AH146" s="78"/>
     </row>
     <row r="147" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E147" s="15"/>
@@ -9723,13 +10106,13 @@
       <c r="Y147" s="27"/>
       <c r="Z147" s="27"/>
       <c r="AA147" s="27"/>
-      <c r="AB147" s="54"/>
-      <c r="AC147" s="55"/>
-      <c r="AD147" s="55"/>
-      <c r="AE147" s="55"/>
-      <c r="AF147" s="55"/>
-      <c r="AG147" s="55"/>
-      <c r="AH147" s="56"/>
+      <c r="AB147" s="76"/>
+      <c r="AC147" s="77"/>
+      <c r="AD147" s="77"/>
+      <c r="AE147" s="77"/>
+      <c r="AF147" s="77"/>
+      <c r="AG147" s="77"/>
+      <c r="AH147" s="78"/>
     </row>
     <row r="148" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E148" s="15"/>
@@ -9755,13 +10138,13 @@
       <c r="Y148" s="30"/>
       <c r="Z148" s="30"/>
       <c r="AA148" s="30"/>
-      <c r="AB148" s="57"/>
-      <c r="AC148" s="58"/>
-      <c r="AD148" s="58"/>
-      <c r="AE148" s="58"/>
-      <c r="AF148" s="58"/>
-      <c r="AG148" s="58"/>
-      <c r="AH148" s="59"/>
+      <c r="AB148" s="79"/>
+      <c r="AC148" s="80"/>
+      <c r="AD148" s="80"/>
+      <c r="AE148" s="80"/>
+      <c r="AF148" s="80"/>
+      <c r="AG148" s="80"/>
+      <c r="AH148" s="81"/>
     </row>
     <row r="149" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E149" s="15"/>
@@ -10370,16 +10753,6 @@
     <row r="611" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AB140:AH148"/>
     <mergeCell ref="AB107:AH118"/>
     <mergeCell ref="AB119:AH127"/>
@@ -10391,6 +10764,16 @@
     <mergeCell ref="AB59:AH70"/>
     <mergeCell ref="AB50:AH58"/>
     <mergeCell ref="F128:AH128"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BFFEA5-98F6-4ABD-A286-6E4EB8E678FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3768CD7-3EBB-4752-AFEE-7CBA6817610C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,13 +319,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ファイル転送方式（配信）は、ファイルの生成からファイルの配信に至るまでの処理についての方式設計を行う。</t>
-    <rPh sb="9" eb="11">
-      <t>ハイシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>外部IFの要件に基づき、FTPによるファイル転送（配信）を使用しない。</t>
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
@@ -867,6 +860,10 @@
     <rPh sb="13" eb="15">
       <t>ホウホウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル転送（配信）方式は、ファイルの生成からファイルの配信に至るまでの処理についての方式設計を行う。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1263,72 +1260,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1355,6 +1286,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1388,6 +1328,63 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5803,39 +5800,39 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="76"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="56"/>
+      <c r="R1" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="79"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="59"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="82"/>
       <c r="AF1" s="60"/>
       <c r="AG1" s="61"/>
       <c r="AH1" s="61"/>
@@ -5848,39 +5845,39 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="65"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="85"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="66" t="s">
+      <c r="R2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="68"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="88"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="59"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="82"/>
       <c r="AF2" s="60"/>
       <c r="AG2" s="61"/>
       <c r="AH2" s="61"/>
@@ -5893,35 +5890,35 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="71"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="91"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="59"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="82"/>
       <c r="AF3" s="60"/>
       <c r="AG3" s="61"/>
       <c r="AH3" s="61"/>
@@ -5971,7 +5968,7 @@
     </row>
     <row r="11" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F11" s="16" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
@@ -5981,7 +5978,7 @@
     </row>
     <row r="13" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F13" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6041,7 +6038,7 @@
     <row r="19" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="19"/>
       <c r="F19" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
@@ -6145,7 +6142,7 @@
     <row r="22" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="19"/>
       <c r="F22" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
@@ -6185,7 +6182,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
@@ -6219,7 +6216,7 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
@@ -6249,7 +6246,7 @@
     <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="19"/>
       <c r="F25" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
@@ -6289,7 +6286,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
@@ -6323,7 +6320,7 @@
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -6544,7 +6541,7 @@
       <c r="N34" s="30"/>
       <c r="O34" s="31"/>
       <c r="P34" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q34" s="30"/>
       <c r="R34" s="30"/>
@@ -6573,7 +6570,7 @@
       <c r="H35" s="27"/>
       <c r="I35" s="28"/>
       <c r="J35" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
@@ -6581,7 +6578,7 @@
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
       <c r="P35" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
@@ -6635,7 +6632,7 @@
     </row>
     <row r="37" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
@@ -6649,7 +6646,7 @@
       <c r="N37" s="27"/>
       <c r="O37" s="28"/>
       <c r="P37" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
@@ -6717,7 +6714,7 @@
       <c r="N39" s="27"/>
       <c r="O39" s="28"/>
       <c r="P39" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
@@ -6816,7 +6813,7 @@
     <row r="45" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="15"/>
       <c r="F45" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6825,16 +6822,16 @@
     <row r="47" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" s="15"/>
       <c r="F47" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="33" t="s">
         <v>49</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>50</v>
       </c>
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
       <c r="J47" s="35"/>
       <c r="K47" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
@@ -6853,7 +6850,7 @@
       <c r="Z47" s="36"/>
       <c r="AA47" s="36"/>
       <c r="AB47" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC47" s="37"/>
       <c r="AD47" s="37"/>
@@ -6870,7 +6867,7 @@
       <c r="I48" s="40"/>
       <c r="J48" s="41"/>
       <c r="K48" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
@@ -6881,13 +6878,13 @@
       <c r="R48" s="36"/>
       <c r="S48" s="36"/>
       <c r="T48" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U48" s="34"/>
       <c r="V48" s="34"/>
       <c r="W48" s="35"/>
       <c r="X48" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y48" s="40"/>
       <c r="Z48" s="40"/>
@@ -6908,22 +6905,22 @@
       <c r="I49" s="45"/>
       <c r="J49" s="46"/>
       <c r="K49" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L49" s="45"/>
       <c r="M49" s="45"/>
       <c r="N49" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O49" s="36"/>
       <c r="P49" s="48"/>
       <c r="Q49" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R49" s="45"/>
       <c r="S49" s="45"/>
       <c r="T49" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U49" s="45"/>
       <c r="V49" s="45"/>
@@ -6966,15 +6963,15 @@
       <c r="Y50" s="24"/>
       <c r="Z50" s="24"/>
       <c r="AA50" s="24"/>
-      <c r="AB50" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC50" s="74"/>
-      <c r="AD50" s="74"/>
-      <c r="AE50" s="74"/>
-      <c r="AF50" s="74"/>
-      <c r="AG50" s="74"/>
-      <c r="AH50" s="75"/>
+      <c r="AB50" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC50" s="52"/>
+      <c r="AD50" s="52"/>
+      <c r="AE50" s="52"/>
+      <c r="AF50" s="52"/>
+      <c r="AG50" s="52"/>
+      <c r="AH50" s="53"/>
     </row>
     <row r="51" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E51" s="15"/>
@@ -7000,13 +6997,13 @@
       <c r="Y51" s="27"/>
       <c r="Z51" s="27"/>
       <c r="AA51" s="27"/>
-      <c r="AB51" s="76"/>
-      <c r="AC51" s="77"/>
-      <c r="AD51" s="77"/>
-      <c r="AE51" s="77"/>
-      <c r="AF51" s="77"/>
-      <c r="AG51" s="77"/>
-      <c r="AH51" s="78"/>
+      <c r="AB51" s="54"/>
+      <c r="AC51" s="55"/>
+      <c r="AD51" s="55"/>
+      <c r="AE51" s="55"/>
+      <c r="AF51" s="55"/>
+      <c r="AG51" s="55"/>
+      <c r="AH51" s="56"/>
     </row>
     <row r="52" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" s="15"/>
@@ -7032,13 +7029,13 @@
       <c r="Y52" s="27"/>
       <c r="Z52" s="27"/>
       <c r="AA52" s="27"/>
-      <c r="AB52" s="76"/>
-      <c r="AC52" s="77"/>
-      <c r="AD52" s="77"/>
-      <c r="AE52" s="77"/>
-      <c r="AF52" s="77"/>
-      <c r="AG52" s="77"/>
-      <c r="AH52" s="78"/>
+      <c r="AB52" s="54"/>
+      <c r="AC52" s="55"/>
+      <c r="AD52" s="55"/>
+      <c r="AE52" s="55"/>
+      <c r="AF52" s="55"/>
+      <c r="AG52" s="55"/>
+      <c r="AH52" s="56"/>
     </row>
     <row r="53" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="15"/>
@@ -7064,13 +7061,13 @@
       <c r="Y53" s="27"/>
       <c r="Z53" s="27"/>
       <c r="AA53" s="27"/>
-      <c r="AB53" s="76"/>
-      <c r="AC53" s="77"/>
-      <c r="AD53" s="77"/>
-      <c r="AE53" s="77"/>
-      <c r="AF53" s="77"/>
-      <c r="AG53" s="77"/>
-      <c r="AH53" s="78"/>
+      <c r="AB53" s="54"/>
+      <c r="AC53" s="55"/>
+      <c r="AD53" s="55"/>
+      <c r="AE53" s="55"/>
+      <c r="AF53" s="55"/>
+      <c r="AG53" s="55"/>
+      <c r="AH53" s="56"/>
     </row>
     <row r="54" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" s="15"/>
@@ -7096,13 +7093,13 @@
       <c r="Y54" s="27"/>
       <c r="Z54" s="27"/>
       <c r="AA54" s="27"/>
-      <c r="AB54" s="76"/>
-      <c r="AC54" s="77"/>
-      <c r="AD54" s="77"/>
-      <c r="AE54" s="77"/>
-      <c r="AF54" s="77"/>
-      <c r="AG54" s="77"/>
-      <c r="AH54" s="78"/>
+      <c r="AB54" s="54"/>
+      <c r="AC54" s="55"/>
+      <c r="AD54" s="55"/>
+      <c r="AE54" s="55"/>
+      <c r="AF54" s="55"/>
+      <c r="AG54" s="55"/>
+      <c r="AH54" s="56"/>
     </row>
     <row r="55" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="15"/>
@@ -7128,13 +7125,13 @@
       <c r="Y55" s="27"/>
       <c r="Z55" s="27"/>
       <c r="AA55" s="27"/>
-      <c r="AB55" s="76"/>
-      <c r="AC55" s="77"/>
-      <c r="AD55" s="77"/>
-      <c r="AE55" s="77"/>
-      <c r="AF55" s="77"/>
-      <c r="AG55" s="77"/>
-      <c r="AH55" s="78"/>
+      <c r="AB55" s="54"/>
+      <c r="AC55" s="55"/>
+      <c r="AD55" s="55"/>
+      <c r="AE55" s="55"/>
+      <c r="AF55" s="55"/>
+      <c r="AG55" s="55"/>
+      <c r="AH55" s="56"/>
     </row>
     <row r="56" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
@@ -7160,13 +7157,13 @@
       <c r="Y56" s="27"/>
       <c r="Z56" s="27"/>
       <c r="AA56" s="27"/>
-      <c r="AB56" s="76"/>
-      <c r="AC56" s="77"/>
-      <c r="AD56" s="77"/>
-      <c r="AE56" s="77"/>
-      <c r="AF56" s="77"/>
-      <c r="AG56" s="77"/>
-      <c r="AH56" s="78"/>
+      <c r="AB56" s="54"/>
+      <c r="AC56" s="55"/>
+      <c r="AD56" s="55"/>
+      <c r="AE56" s="55"/>
+      <c r="AF56" s="55"/>
+      <c r="AG56" s="55"/>
+      <c r="AH56" s="56"/>
     </row>
     <row r="57" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
@@ -7192,13 +7189,13 @@
       <c r="Y57" s="27"/>
       <c r="Z57" s="27"/>
       <c r="AA57" s="27"/>
-      <c r="AB57" s="76"/>
-      <c r="AC57" s="77"/>
-      <c r="AD57" s="77"/>
-      <c r="AE57" s="77"/>
-      <c r="AF57" s="77"/>
-      <c r="AG57" s="77"/>
-      <c r="AH57" s="78"/>
+      <c r="AB57" s="54"/>
+      <c r="AC57" s="55"/>
+      <c r="AD57" s="55"/>
+      <c r="AE57" s="55"/>
+      <c r="AF57" s="55"/>
+      <c r="AG57" s="55"/>
+      <c r="AH57" s="56"/>
     </row>
     <row r="58" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
@@ -7224,13 +7221,13 @@
       <c r="Y58" s="30"/>
       <c r="Z58" s="30"/>
       <c r="AA58" s="30"/>
-      <c r="AB58" s="79"/>
-      <c r="AC58" s="80"/>
-      <c r="AD58" s="80"/>
-      <c r="AE58" s="80"/>
-      <c r="AF58" s="80"/>
-      <c r="AG58" s="80"/>
-      <c r="AH58" s="81"/>
+      <c r="AB58" s="57"/>
+      <c r="AC58" s="58"/>
+      <c r="AD58" s="58"/>
+      <c r="AE58" s="58"/>
+      <c r="AF58" s="58"/>
+      <c r="AG58" s="58"/>
+      <c r="AH58" s="59"/>
     </row>
     <row r="59" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
@@ -7258,15 +7255,15 @@
       <c r="Y59" s="24"/>
       <c r="Z59" s="24"/>
       <c r="AA59" s="24"/>
-      <c r="AB59" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC59" s="74"/>
-      <c r="AD59" s="74"/>
-      <c r="AE59" s="74"/>
-      <c r="AF59" s="74"/>
-      <c r="AG59" s="74"/>
-      <c r="AH59" s="75"/>
+      <c r="AB59" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC59" s="52"/>
+      <c r="AD59" s="52"/>
+      <c r="AE59" s="52"/>
+      <c r="AF59" s="52"/>
+      <c r="AG59" s="52"/>
+      <c r="AH59" s="53"/>
     </row>
     <row r="60" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
@@ -7292,13 +7289,13 @@
       <c r="Y60" s="27"/>
       <c r="Z60" s="27"/>
       <c r="AA60" s="27"/>
-      <c r="AB60" s="76"/>
-      <c r="AC60" s="77"/>
-      <c r="AD60" s="77"/>
-      <c r="AE60" s="77"/>
-      <c r="AF60" s="77"/>
-      <c r="AG60" s="77"/>
-      <c r="AH60" s="78"/>
+      <c r="AB60" s="54"/>
+      <c r="AC60" s="55"/>
+      <c r="AD60" s="55"/>
+      <c r="AE60" s="55"/>
+      <c r="AF60" s="55"/>
+      <c r="AG60" s="55"/>
+      <c r="AH60" s="56"/>
     </row>
     <row r="61" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
@@ -7324,13 +7321,13 @@
       <c r="Y61" s="27"/>
       <c r="Z61" s="27"/>
       <c r="AA61" s="27"/>
-      <c r="AB61" s="76"/>
-      <c r="AC61" s="77"/>
-      <c r="AD61" s="77"/>
-      <c r="AE61" s="77"/>
-      <c r="AF61" s="77"/>
-      <c r="AG61" s="77"/>
-      <c r="AH61" s="78"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="55"/>
+      <c r="AD61" s="55"/>
+      <c r="AE61" s="55"/>
+      <c r="AF61" s="55"/>
+      <c r="AG61" s="55"/>
+      <c r="AH61" s="56"/>
     </row>
     <row r="62" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
@@ -7356,13 +7353,13 @@
       <c r="Y62" s="27"/>
       <c r="Z62" s="27"/>
       <c r="AA62" s="27"/>
-      <c r="AB62" s="76"/>
-      <c r="AC62" s="77"/>
-      <c r="AD62" s="77"/>
-      <c r="AE62" s="77"/>
-      <c r="AF62" s="77"/>
-      <c r="AG62" s="77"/>
-      <c r="AH62" s="78"/>
+      <c r="AB62" s="54"/>
+      <c r="AC62" s="55"/>
+      <c r="AD62" s="55"/>
+      <c r="AE62" s="55"/>
+      <c r="AF62" s="55"/>
+      <c r="AG62" s="55"/>
+      <c r="AH62" s="56"/>
     </row>
     <row r="63" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
@@ -7388,13 +7385,13 @@
       <c r="Y63" s="27"/>
       <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
-      <c r="AB63" s="76"/>
-      <c r="AC63" s="77"/>
-      <c r="AD63" s="77"/>
-      <c r="AE63" s="77"/>
-      <c r="AF63" s="77"/>
-      <c r="AG63" s="77"/>
-      <c r="AH63" s="78"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="55"/>
+      <c r="AD63" s="55"/>
+      <c r="AE63" s="55"/>
+      <c r="AF63" s="55"/>
+      <c r="AG63" s="55"/>
+      <c r="AH63" s="56"/>
     </row>
     <row r="64" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="15"/>
@@ -7420,13 +7417,13 @@
       <c r="Y64" s="27"/>
       <c r="Z64" s="27"/>
       <c r="AA64" s="27"/>
-      <c r="AB64" s="76"/>
-      <c r="AC64" s="77"/>
-      <c r="AD64" s="77"/>
-      <c r="AE64" s="77"/>
-      <c r="AF64" s="77"/>
-      <c r="AG64" s="77"/>
-      <c r="AH64" s="78"/>
+      <c r="AB64" s="54"/>
+      <c r="AC64" s="55"/>
+      <c r="AD64" s="55"/>
+      <c r="AE64" s="55"/>
+      <c r="AF64" s="55"/>
+      <c r="AG64" s="55"/>
+      <c r="AH64" s="56"/>
     </row>
     <row r="65" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
@@ -7452,13 +7449,13 @@
       <c r="Y65" s="27"/>
       <c r="Z65" s="27"/>
       <c r="AA65" s="27"/>
-      <c r="AB65" s="76"/>
-      <c r="AC65" s="77"/>
-      <c r="AD65" s="77"/>
-      <c r="AE65" s="77"/>
-      <c r="AF65" s="77"/>
-      <c r="AG65" s="77"/>
-      <c r="AH65" s="78"/>
+      <c r="AB65" s="54"/>
+      <c r="AC65" s="55"/>
+      <c r="AD65" s="55"/>
+      <c r="AE65" s="55"/>
+      <c r="AF65" s="55"/>
+      <c r="AG65" s="55"/>
+      <c r="AH65" s="56"/>
     </row>
     <row r="66" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="15"/>
@@ -7484,13 +7481,13 @@
       <c r="Y66" s="27"/>
       <c r="Z66" s="27"/>
       <c r="AA66" s="27"/>
-      <c r="AB66" s="76"/>
-      <c r="AC66" s="77"/>
-      <c r="AD66" s="77"/>
-      <c r="AE66" s="77"/>
-      <c r="AF66" s="77"/>
-      <c r="AG66" s="77"/>
-      <c r="AH66" s="78"/>
+      <c r="AB66" s="54"/>
+      <c r="AC66" s="55"/>
+      <c r="AD66" s="55"/>
+      <c r="AE66" s="55"/>
+      <c r="AF66" s="55"/>
+      <c r="AG66" s="55"/>
+      <c r="AH66" s="56"/>
     </row>
     <row r="67" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="15"/>
@@ -7516,13 +7513,13 @@
       <c r="Y67" s="27"/>
       <c r="Z67" s="27"/>
       <c r="AA67" s="27"/>
-      <c r="AB67" s="76"/>
-      <c r="AC67" s="77"/>
-      <c r="AD67" s="77"/>
-      <c r="AE67" s="77"/>
-      <c r="AF67" s="77"/>
-      <c r="AG67" s="77"/>
-      <c r="AH67" s="78"/>
+      <c r="AB67" s="54"/>
+      <c r="AC67" s="55"/>
+      <c r="AD67" s="55"/>
+      <c r="AE67" s="55"/>
+      <c r="AF67" s="55"/>
+      <c r="AG67" s="55"/>
+      <c r="AH67" s="56"/>
     </row>
     <row r="68" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="15"/>
@@ -7548,13 +7545,13 @@
       <c r="Y68" s="27"/>
       <c r="Z68" s="27"/>
       <c r="AA68" s="27"/>
-      <c r="AB68" s="76"/>
-      <c r="AC68" s="77"/>
-      <c r="AD68" s="77"/>
-      <c r="AE68" s="77"/>
-      <c r="AF68" s="77"/>
-      <c r="AG68" s="77"/>
-      <c r="AH68" s="78"/>
+      <c r="AB68" s="54"/>
+      <c r="AC68" s="55"/>
+      <c r="AD68" s="55"/>
+      <c r="AE68" s="55"/>
+      <c r="AF68" s="55"/>
+      <c r="AG68" s="55"/>
+      <c r="AH68" s="56"/>
     </row>
     <row r="69" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="15"/>
@@ -7580,13 +7577,13 @@
       <c r="Y69" s="27"/>
       <c r="Z69" s="27"/>
       <c r="AA69" s="27"/>
-      <c r="AB69" s="76"/>
-      <c r="AC69" s="77"/>
-      <c r="AD69" s="77"/>
-      <c r="AE69" s="77"/>
-      <c r="AF69" s="77"/>
-      <c r="AG69" s="77"/>
-      <c r="AH69" s="78"/>
+      <c r="AB69" s="54"/>
+      <c r="AC69" s="55"/>
+      <c r="AD69" s="55"/>
+      <c r="AE69" s="55"/>
+      <c r="AF69" s="55"/>
+      <c r="AG69" s="55"/>
+      <c r="AH69" s="56"/>
     </row>
     <row r="70" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="15"/>
@@ -7612,13 +7609,13 @@
       <c r="Y70" s="30"/>
       <c r="Z70" s="30"/>
       <c r="AA70" s="30"/>
-      <c r="AB70" s="79"/>
-      <c r="AC70" s="80"/>
-      <c r="AD70" s="80"/>
-      <c r="AE70" s="80"/>
-      <c r="AF70" s="80"/>
-      <c r="AG70" s="80"/>
-      <c r="AH70" s="81"/>
+      <c r="AB70" s="57"/>
+      <c r="AC70" s="58"/>
+      <c r="AD70" s="58"/>
+      <c r="AE70" s="58"/>
+      <c r="AF70" s="58"/>
+      <c r="AG70" s="58"/>
+      <c r="AH70" s="59"/>
     </row>
     <row r="71" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="15"/>
@@ -7646,15 +7643,15 @@
       <c r="Y71" s="24"/>
       <c r="Z71" s="24"/>
       <c r="AA71" s="24"/>
-      <c r="AB71" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC71" s="74"/>
-      <c r="AD71" s="74"/>
-      <c r="AE71" s="74"/>
-      <c r="AF71" s="74"/>
-      <c r="AG71" s="74"/>
-      <c r="AH71" s="75"/>
+      <c r="AB71" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC71" s="52"/>
+      <c r="AD71" s="52"/>
+      <c r="AE71" s="52"/>
+      <c r="AF71" s="52"/>
+      <c r="AG71" s="52"/>
+      <c r="AH71" s="53"/>
     </row>
     <row r="72" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="15"/>
@@ -7680,13 +7677,13 @@
       <c r="Y72" s="27"/>
       <c r="Z72" s="27"/>
       <c r="AA72" s="27"/>
-      <c r="AB72" s="76"/>
-      <c r="AC72" s="77"/>
-      <c r="AD72" s="77"/>
-      <c r="AE72" s="77"/>
-      <c r="AF72" s="77"/>
-      <c r="AG72" s="77"/>
-      <c r="AH72" s="78"/>
+      <c r="AB72" s="54"/>
+      <c r="AC72" s="55"/>
+      <c r="AD72" s="55"/>
+      <c r="AE72" s="55"/>
+      <c r="AF72" s="55"/>
+      <c r="AG72" s="55"/>
+      <c r="AH72" s="56"/>
     </row>
     <row r="73" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="15"/>
@@ -7712,13 +7709,13 @@
       <c r="Y73" s="27"/>
       <c r="Z73" s="27"/>
       <c r="AA73" s="27"/>
-      <c r="AB73" s="76"/>
-      <c r="AC73" s="77"/>
-      <c r="AD73" s="77"/>
-      <c r="AE73" s="77"/>
-      <c r="AF73" s="77"/>
-      <c r="AG73" s="77"/>
-      <c r="AH73" s="78"/>
+      <c r="AB73" s="54"/>
+      <c r="AC73" s="55"/>
+      <c r="AD73" s="55"/>
+      <c r="AE73" s="55"/>
+      <c r="AF73" s="55"/>
+      <c r="AG73" s="55"/>
+      <c r="AH73" s="56"/>
     </row>
     <row r="74" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="15"/>
@@ -7744,13 +7741,13 @@
       <c r="Y74" s="27"/>
       <c r="Z74" s="27"/>
       <c r="AA74" s="27"/>
-      <c r="AB74" s="76"/>
-      <c r="AC74" s="77"/>
-      <c r="AD74" s="77"/>
-      <c r="AE74" s="77"/>
-      <c r="AF74" s="77"/>
-      <c r="AG74" s="77"/>
-      <c r="AH74" s="78"/>
+      <c r="AB74" s="54"/>
+      <c r="AC74" s="55"/>
+      <c r="AD74" s="55"/>
+      <c r="AE74" s="55"/>
+      <c r="AF74" s="55"/>
+      <c r="AG74" s="55"/>
+      <c r="AH74" s="56"/>
     </row>
     <row r="75" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="15"/>
@@ -7776,13 +7773,13 @@
       <c r="Y75" s="27"/>
       <c r="Z75" s="27"/>
       <c r="AA75" s="27"/>
-      <c r="AB75" s="76"/>
-      <c r="AC75" s="77"/>
-      <c r="AD75" s="77"/>
-      <c r="AE75" s="77"/>
-      <c r="AF75" s="77"/>
-      <c r="AG75" s="77"/>
-      <c r="AH75" s="78"/>
+      <c r="AB75" s="54"/>
+      <c r="AC75" s="55"/>
+      <c r="AD75" s="55"/>
+      <c r="AE75" s="55"/>
+      <c r="AF75" s="55"/>
+      <c r="AG75" s="55"/>
+      <c r="AH75" s="56"/>
     </row>
     <row r="76" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="15"/>
@@ -7808,13 +7805,13 @@
       <c r="Y76" s="27"/>
       <c r="Z76" s="27"/>
       <c r="AA76" s="27"/>
-      <c r="AB76" s="76"/>
-      <c r="AC76" s="77"/>
-      <c r="AD76" s="77"/>
-      <c r="AE76" s="77"/>
-      <c r="AF76" s="77"/>
-      <c r="AG76" s="77"/>
-      <c r="AH76" s="78"/>
+      <c r="AB76" s="54"/>
+      <c r="AC76" s="55"/>
+      <c r="AD76" s="55"/>
+      <c r="AE76" s="55"/>
+      <c r="AF76" s="55"/>
+      <c r="AG76" s="55"/>
+      <c r="AH76" s="56"/>
     </row>
     <row r="77" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="15"/>
@@ -7840,13 +7837,13 @@
       <c r="Y77" s="27"/>
       <c r="Z77" s="27"/>
       <c r="AA77" s="27"/>
-      <c r="AB77" s="76"/>
-      <c r="AC77" s="77"/>
-      <c r="AD77" s="77"/>
-      <c r="AE77" s="77"/>
-      <c r="AF77" s="77"/>
-      <c r="AG77" s="77"/>
-      <c r="AH77" s="78"/>
+      <c r="AB77" s="54"/>
+      <c r="AC77" s="55"/>
+      <c r="AD77" s="55"/>
+      <c r="AE77" s="55"/>
+      <c r="AF77" s="55"/>
+      <c r="AG77" s="55"/>
+      <c r="AH77" s="56"/>
     </row>
     <row r="78" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="15"/>
@@ -7872,13 +7869,13 @@
       <c r="Y78" s="27"/>
       <c r="Z78" s="27"/>
       <c r="AA78" s="27"/>
-      <c r="AB78" s="76"/>
-      <c r="AC78" s="77"/>
-      <c r="AD78" s="77"/>
-      <c r="AE78" s="77"/>
-      <c r="AF78" s="77"/>
-      <c r="AG78" s="77"/>
-      <c r="AH78" s="78"/>
+      <c r="AB78" s="54"/>
+      <c r="AC78" s="55"/>
+      <c r="AD78" s="55"/>
+      <c r="AE78" s="55"/>
+      <c r="AF78" s="55"/>
+      <c r="AG78" s="55"/>
+      <c r="AH78" s="56"/>
     </row>
     <row r="79" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="15"/>
@@ -7904,13 +7901,13 @@
       <c r="Y79" s="27"/>
       <c r="Z79" s="27"/>
       <c r="AA79" s="27"/>
-      <c r="AB79" s="76"/>
-      <c r="AC79" s="77"/>
-      <c r="AD79" s="77"/>
-      <c r="AE79" s="77"/>
-      <c r="AF79" s="77"/>
-      <c r="AG79" s="77"/>
-      <c r="AH79" s="78"/>
+      <c r="AB79" s="54"/>
+      <c r="AC79" s="55"/>
+      <c r="AD79" s="55"/>
+      <c r="AE79" s="55"/>
+      <c r="AF79" s="55"/>
+      <c r="AG79" s="55"/>
+      <c r="AH79" s="56"/>
     </row>
     <row r="80" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="15"/>
@@ -7936,13 +7933,13 @@
       <c r="Y80" s="27"/>
       <c r="Z80" s="27"/>
       <c r="AA80" s="27"/>
-      <c r="AB80" s="76"/>
-      <c r="AC80" s="77"/>
-      <c r="AD80" s="77"/>
-      <c r="AE80" s="77"/>
-      <c r="AF80" s="77"/>
-      <c r="AG80" s="77"/>
-      <c r="AH80" s="78"/>
+      <c r="AB80" s="54"/>
+      <c r="AC80" s="55"/>
+      <c r="AD80" s="55"/>
+      <c r="AE80" s="55"/>
+      <c r="AF80" s="55"/>
+      <c r="AG80" s="55"/>
+      <c r="AH80" s="56"/>
     </row>
     <row r="81" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E81" s="15"/>
@@ -7968,13 +7965,13 @@
       <c r="Y81" s="27"/>
       <c r="Z81" s="27"/>
       <c r="AA81" s="27"/>
-      <c r="AB81" s="76"/>
-      <c r="AC81" s="77"/>
-      <c r="AD81" s="77"/>
-      <c r="AE81" s="77"/>
-      <c r="AF81" s="77"/>
-      <c r="AG81" s="77"/>
-      <c r="AH81" s="78"/>
+      <c r="AB81" s="54"/>
+      <c r="AC81" s="55"/>
+      <c r="AD81" s="55"/>
+      <c r="AE81" s="55"/>
+      <c r="AF81" s="55"/>
+      <c r="AG81" s="55"/>
+      <c r="AH81" s="56"/>
     </row>
     <row r="82" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="15"/>
@@ -8000,13 +7997,13 @@
       <c r="Y82" s="27"/>
       <c r="Z82" s="27"/>
       <c r="AA82" s="27"/>
-      <c r="AB82" s="76"/>
-      <c r="AC82" s="77"/>
-      <c r="AD82" s="77"/>
-      <c r="AE82" s="77"/>
-      <c r="AF82" s="77"/>
-      <c r="AG82" s="77"/>
-      <c r="AH82" s="78"/>
+      <c r="AB82" s="54"/>
+      <c r="AC82" s="55"/>
+      <c r="AD82" s="55"/>
+      <c r="AE82" s="55"/>
+      <c r="AF82" s="55"/>
+      <c r="AG82" s="55"/>
+      <c r="AH82" s="56"/>
     </row>
     <row r="83" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="15"/>
@@ -8032,13 +8029,13 @@
       <c r="Y83" s="30"/>
       <c r="Z83" s="30"/>
       <c r="AA83" s="30"/>
-      <c r="AB83" s="79"/>
-      <c r="AC83" s="80"/>
-      <c r="AD83" s="80"/>
-      <c r="AE83" s="80"/>
-      <c r="AF83" s="80"/>
-      <c r="AG83" s="80"/>
-      <c r="AH83" s="81"/>
+      <c r="AB83" s="57"/>
+      <c r="AC83" s="58"/>
+      <c r="AD83" s="58"/>
+      <c r="AE83" s="58"/>
+      <c r="AF83" s="58"/>
+      <c r="AG83" s="58"/>
+      <c r="AH83" s="59"/>
     </row>
     <row r="84" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="15"/>
@@ -8066,15 +8063,15 @@
       <c r="Y84" s="24"/>
       <c r="Z84" s="24"/>
       <c r="AA84" s="24"/>
-      <c r="AB84" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC84" s="82"/>
-      <c r="AD84" s="82"/>
-      <c r="AE84" s="82"/>
-      <c r="AF84" s="82"/>
-      <c r="AG84" s="82"/>
-      <c r="AH84" s="83"/>
+      <c r="AB84" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC84" s="63"/>
+      <c r="AD84" s="63"/>
+      <c r="AE84" s="63"/>
+      <c r="AF84" s="63"/>
+      <c r="AG84" s="63"/>
+      <c r="AH84" s="64"/>
     </row>
     <row r="85" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85" s="15"/>
@@ -8100,13 +8097,13 @@
       <c r="Y85" s="27"/>
       <c r="Z85" s="27"/>
       <c r="AA85" s="27"/>
-      <c r="AB85" s="84"/>
-      <c r="AC85" s="85"/>
-      <c r="AD85" s="85"/>
-      <c r="AE85" s="85"/>
-      <c r="AF85" s="85"/>
-      <c r="AG85" s="85"/>
-      <c r="AH85" s="86"/>
+      <c r="AB85" s="65"/>
+      <c r="AC85" s="66"/>
+      <c r="AD85" s="66"/>
+      <c r="AE85" s="66"/>
+      <c r="AF85" s="66"/>
+      <c r="AG85" s="66"/>
+      <c r="AH85" s="67"/>
     </row>
     <row r="86" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="15"/>
@@ -8132,13 +8129,13 @@
       <c r="Y86" s="27"/>
       <c r="Z86" s="27"/>
       <c r="AA86" s="27"/>
-      <c r="AB86" s="84"/>
-      <c r="AC86" s="85"/>
-      <c r="AD86" s="85"/>
-      <c r="AE86" s="85"/>
-      <c r="AF86" s="85"/>
-      <c r="AG86" s="85"/>
-      <c r="AH86" s="86"/>
+      <c r="AB86" s="65"/>
+      <c r="AC86" s="66"/>
+      <c r="AD86" s="66"/>
+      <c r="AE86" s="66"/>
+      <c r="AF86" s="66"/>
+      <c r="AG86" s="66"/>
+      <c r="AH86" s="67"/>
     </row>
     <row r="87" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87" s="15"/>
@@ -8164,13 +8161,13 @@
       <c r="Y87" s="27"/>
       <c r="Z87" s="27"/>
       <c r="AA87" s="27"/>
-      <c r="AB87" s="84"/>
-      <c r="AC87" s="85"/>
-      <c r="AD87" s="85"/>
-      <c r="AE87" s="85"/>
-      <c r="AF87" s="85"/>
-      <c r="AG87" s="85"/>
-      <c r="AH87" s="86"/>
+      <c r="AB87" s="65"/>
+      <c r="AC87" s="66"/>
+      <c r="AD87" s="66"/>
+      <c r="AE87" s="66"/>
+      <c r="AF87" s="66"/>
+      <c r="AG87" s="66"/>
+      <c r="AH87" s="67"/>
     </row>
     <row r="88" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="15"/>
@@ -8196,13 +8193,13 @@
       <c r="Y88" s="27"/>
       <c r="Z88" s="27"/>
       <c r="AA88" s="27"/>
-      <c r="AB88" s="84"/>
-      <c r="AC88" s="85"/>
-      <c r="AD88" s="85"/>
-      <c r="AE88" s="85"/>
-      <c r="AF88" s="85"/>
-      <c r="AG88" s="85"/>
-      <c r="AH88" s="86"/>
+      <c r="AB88" s="65"/>
+      <c r="AC88" s="66"/>
+      <c r="AD88" s="66"/>
+      <c r="AE88" s="66"/>
+      <c r="AF88" s="66"/>
+      <c r="AG88" s="66"/>
+      <c r="AH88" s="67"/>
     </row>
     <row r="89" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="15"/>
@@ -8228,13 +8225,13 @@
       <c r="Y89" s="27"/>
       <c r="Z89" s="27"/>
       <c r="AA89" s="27"/>
-      <c r="AB89" s="84"/>
-      <c r="AC89" s="85"/>
-      <c r="AD89" s="85"/>
-      <c r="AE89" s="85"/>
-      <c r="AF89" s="85"/>
-      <c r="AG89" s="85"/>
-      <c r="AH89" s="86"/>
+      <c r="AB89" s="65"/>
+      <c r="AC89" s="66"/>
+      <c r="AD89" s="66"/>
+      <c r="AE89" s="66"/>
+      <c r="AF89" s="66"/>
+      <c r="AG89" s="66"/>
+      <c r="AH89" s="67"/>
     </row>
     <row r="90" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E90" s="15"/>
@@ -8260,13 +8257,13 @@
       <c r="Y90" s="27"/>
       <c r="Z90" s="27"/>
       <c r="AA90" s="27"/>
-      <c r="AB90" s="84"/>
-      <c r="AC90" s="85"/>
-      <c r="AD90" s="85"/>
-      <c r="AE90" s="85"/>
-      <c r="AF90" s="85"/>
-      <c r="AG90" s="85"/>
-      <c r="AH90" s="86"/>
+      <c r="AB90" s="65"/>
+      <c r="AC90" s="66"/>
+      <c r="AD90" s="66"/>
+      <c r="AE90" s="66"/>
+      <c r="AF90" s="66"/>
+      <c r="AG90" s="66"/>
+      <c r="AH90" s="67"/>
     </row>
     <row r="91" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E91" s="15"/>
@@ -8292,13 +8289,13 @@
       <c r="Y91" s="27"/>
       <c r="Z91" s="27"/>
       <c r="AA91" s="27"/>
-      <c r="AB91" s="84"/>
-      <c r="AC91" s="85"/>
-      <c r="AD91" s="85"/>
-      <c r="AE91" s="85"/>
-      <c r="AF91" s="85"/>
-      <c r="AG91" s="85"/>
-      <c r="AH91" s="86"/>
+      <c r="AB91" s="65"/>
+      <c r="AC91" s="66"/>
+      <c r="AD91" s="66"/>
+      <c r="AE91" s="66"/>
+      <c r="AF91" s="66"/>
+      <c r="AG91" s="66"/>
+      <c r="AH91" s="67"/>
     </row>
     <row r="92" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="15"/>
@@ -8324,13 +8321,13 @@
       <c r="Y92" s="27"/>
       <c r="Z92" s="27"/>
       <c r="AA92" s="27"/>
-      <c r="AB92" s="84"/>
-      <c r="AC92" s="85"/>
-      <c r="AD92" s="85"/>
-      <c r="AE92" s="85"/>
-      <c r="AF92" s="85"/>
-      <c r="AG92" s="85"/>
-      <c r="AH92" s="86"/>
+      <c r="AB92" s="65"/>
+      <c r="AC92" s="66"/>
+      <c r="AD92" s="66"/>
+      <c r="AE92" s="66"/>
+      <c r="AF92" s="66"/>
+      <c r="AG92" s="66"/>
+      <c r="AH92" s="67"/>
     </row>
     <row r="93" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E93" s="15"/>
@@ -8356,13 +8353,13 @@
       <c r="Y93" s="30"/>
       <c r="Z93" s="30"/>
       <c r="AA93" s="30"/>
-      <c r="AB93" s="87"/>
-      <c r="AC93" s="88"/>
-      <c r="AD93" s="88"/>
-      <c r="AE93" s="88"/>
-      <c r="AF93" s="88"/>
-      <c r="AG93" s="88"/>
-      <c r="AH93" s="89"/>
+      <c r="AB93" s="68"/>
+      <c r="AC93" s="69"/>
+      <c r="AD93" s="69"/>
+      <c r="AE93" s="69"/>
+      <c r="AF93" s="69"/>
+      <c r="AG93" s="69"/>
+      <c r="AH93" s="70"/>
     </row>
     <row r="94" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E94" s="15"/>
@@ -8390,15 +8387,15 @@
       <c r="Y94" s="24"/>
       <c r="Z94" s="24"/>
       <c r="AA94" s="24"/>
-      <c r="AB94" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC94" s="74"/>
-      <c r="AD94" s="74"/>
-      <c r="AE94" s="74"/>
-      <c r="AF94" s="74"/>
-      <c r="AG94" s="74"/>
-      <c r="AH94" s="75"/>
+      <c r="AB94" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC94" s="52"/>
+      <c r="AD94" s="52"/>
+      <c r="AE94" s="52"/>
+      <c r="AF94" s="52"/>
+      <c r="AG94" s="52"/>
+      <c r="AH94" s="53"/>
     </row>
     <row r="95" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="15"/>
@@ -8424,13 +8421,13 @@
       <c r="Y95" s="27"/>
       <c r="Z95" s="27"/>
       <c r="AA95" s="27"/>
-      <c r="AB95" s="76"/>
-      <c r="AC95" s="77"/>
-      <c r="AD95" s="77"/>
-      <c r="AE95" s="77"/>
-      <c r="AF95" s="77"/>
-      <c r="AG95" s="77"/>
-      <c r="AH95" s="78"/>
+      <c r="AB95" s="54"/>
+      <c r="AC95" s="55"/>
+      <c r="AD95" s="55"/>
+      <c r="AE95" s="55"/>
+      <c r="AF95" s="55"/>
+      <c r="AG95" s="55"/>
+      <c r="AH95" s="56"/>
     </row>
     <row r="96" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E96" s="15"/>
@@ -8456,13 +8453,13 @@
       <c r="Y96" s="27"/>
       <c r="Z96" s="27"/>
       <c r="AA96" s="27"/>
-      <c r="AB96" s="76"/>
-      <c r="AC96" s="77"/>
-      <c r="AD96" s="77"/>
-      <c r="AE96" s="77"/>
-      <c r="AF96" s="77"/>
-      <c r="AG96" s="77"/>
-      <c r="AH96" s="78"/>
+      <c r="AB96" s="54"/>
+      <c r="AC96" s="55"/>
+      <c r="AD96" s="55"/>
+      <c r="AE96" s="55"/>
+      <c r="AF96" s="55"/>
+      <c r="AG96" s="55"/>
+      <c r="AH96" s="56"/>
     </row>
     <row r="97" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E97" s="15"/>
@@ -8488,13 +8485,13 @@
       <c r="Y97" s="27"/>
       <c r="Z97" s="27"/>
       <c r="AA97" s="27"/>
-      <c r="AB97" s="76"/>
-      <c r="AC97" s="77"/>
-      <c r="AD97" s="77"/>
-      <c r="AE97" s="77"/>
-      <c r="AF97" s="77"/>
-      <c r="AG97" s="77"/>
-      <c r="AH97" s="78"/>
+      <c r="AB97" s="54"/>
+      <c r="AC97" s="55"/>
+      <c r="AD97" s="55"/>
+      <c r="AE97" s="55"/>
+      <c r="AF97" s="55"/>
+      <c r="AG97" s="55"/>
+      <c r="AH97" s="56"/>
     </row>
     <row r="98" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E98" s="15"/>
@@ -8520,13 +8517,13 @@
       <c r="Y98" s="27"/>
       <c r="Z98" s="27"/>
       <c r="AA98" s="27"/>
-      <c r="AB98" s="76"/>
-      <c r="AC98" s="77"/>
-      <c r="AD98" s="77"/>
-      <c r="AE98" s="77"/>
-      <c r="AF98" s="77"/>
-      <c r="AG98" s="77"/>
-      <c r="AH98" s="78"/>
+      <c r="AB98" s="54"/>
+      <c r="AC98" s="55"/>
+      <c r="AD98" s="55"/>
+      <c r="AE98" s="55"/>
+      <c r="AF98" s="55"/>
+      <c r="AG98" s="55"/>
+      <c r="AH98" s="56"/>
     </row>
     <row r="99" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E99" s="15"/>
@@ -8552,13 +8549,13 @@
       <c r="Y99" s="27"/>
       <c r="Z99" s="27"/>
       <c r="AA99" s="27"/>
-      <c r="AB99" s="76"/>
-      <c r="AC99" s="77"/>
-      <c r="AD99" s="77"/>
-      <c r="AE99" s="77"/>
-      <c r="AF99" s="77"/>
-      <c r="AG99" s="77"/>
-      <c r="AH99" s="78"/>
+      <c r="AB99" s="54"/>
+      <c r="AC99" s="55"/>
+      <c r="AD99" s="55"/>
+      <c r="AE99" s="55"/>
+      <c r="AF99" s="55"/>
+      <c r="AG99" s="55"/>
+      <c r="AH99" s="56"/>
     </row>
     <row r="100" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E100" s="15"/>
@@ -8584,13 +8581,13 @@
       <c r="Y100" s="27"/>
       <c r="Z100" s="27"/>
       <c r="AA100" s="27"/>
-      <c r="AB100" s="76"/>
-      <c r="AC100" s="77"/>
-      <c r="AD100" s="77"/>
-      <c r="AE100" s="77"/>
-      <c r="AF100" s="77"/>
-      <c r="AG100" s="77"/>
-      <c r="AH100" s="78"/>
+      <c r="AB100" s="54"/>
+      <c r="AC100" s="55"/>
+      <c r="AD100" s="55"/>
+      <c r="AE100" s="55"/>
+      <c r="AF100" s="55"/>
+      <c r="AG100" s="55"/>
+      <c r="AH100" s="56"/>
     </row>
     <row r="101" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="15"/>
@@ -8616,13 +8613,13 @@
       <c r="Y101" s="27"/>
       <c r="Z101" s="27"/>
       <c r="AA101" s="27"/>
-      <c r="AB101" s="76"/>
-      <c r="AC101" s="77"/>
-      <c r="AD101" s="77"/>
-      <c r="AE101" s="77"/>
-      <c r="AF101" s="77"/>
-      <c r="AG101" s="77"/>
-      <c r="AH101" s="78"/>
+      <c r="AB101" s="54"/>
+      <c r="AC101" s="55"/>
+      <c r="AD101" s="55"/>
+      <c r="AE101" s="55"/>
+      <c r="AF101" s="55"/>
+      <c r="AG101" s="55"/>
+      <c r="AH101" s="56"/>
     </row>
     <row r="102" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E102" s="15"/>
@@ -8648,13 +8645,13 @@
       <c r="Y102" s="27"/>
       <c r="Z102" s="27"/>
       <c r="AA102" s="27"/>
-      <c r="AB102" s="76"/>
-      <c r="AC102" s="77"/>
-      <c r="AD102" s="77"/>
-      <c r="AE102" s="77"/>
-      <c r="AF102" s="77"/>
-      <c r="AG102" s="77"/>
-      <c r="AH102" s="78"/>
+      <c r="AB102" s="54"/>
+      <c r="AC102" s="55"/>
+      <c r="AD102" s="55"/>
+      <c r="AE102" s="55"/>
+      <c r="AF102" s="55"/>
+      <c r="AG102" s="55"/>
+      <c r="AH102" s="56"/>
     </row>
     <row r="103" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E103" s="15"/>
@@ -8680,13 +8677,13 @@
       <c r="Y103" s="27"/>
       <c r="Z103" s="27"/>
       <c r="AA103" s="27"/>
-      <c r="AB103" s="76"/>
-      <c r="AC103" s="77"/>
-      <c r="AD103" s="77"/>
-      <c r="AE103" s="77"/>
-      <c r="AF103" s="77"/>
-      <c r="AG103" s="77"/>
-      <c r="AH103" s="78"/>
+      <c r="AB103" s="54"/>
+      <c r="AC103" s="55"/>
+      <c r="AD103" s="55"/>
+      <c r="AE103" s="55"/>
+      <c r="AF103" s="55"/>
+      <c r="AG103" s="55"/>
+      <c r="AH103" s="56"/>
     </row>
     <row r="104" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="15"/>
@@ -8712,13 +8709,13 @@
       <c r="Y104" s="27"/>
       <c r="Z104" s="27"/>
       <c r="AA104" s="27"/>
-      <c r="AB104" s="76"/>
-      <c r="AC104" s="77"/>
-      <c r="AD104" s="77"/>
-      <c r="AE104" s="77"/>
-      <c r="AF104" s="77"/>
-      <c r="AG104" s="77"/>
-      <c r="AH104" s="78"/>
+      <c r="AB104" s="54"/>
+      <c r="AC104" s="55"/>
+      <c r="AD104" s="55"/>
+      <c r="AE104" s="55"/>
+      <c r="AF104" s="55"/>
+      <c r="AG104" s="55"/>
+      <c r="AH104" s="56"/>
     </row>
     <row r="105" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E105" s="15"/>
@@ -8744,13 +8741,13 @@
       <c r="Y105" s="27"/>
       <c r="Z105" s="27"/>
       <c r="AA105" s="27"/>
-      <c r="AB105" s="76"/>
-      <c r="AC105" s="77"/>
-      <c r="AD105" s="77"/>
-      <c r="AE105" s="77"/>
-      <c r="AF105" s="77"/>
-      <c r="AG105" s="77"/>
-      <c r="AH105" s="78"/>
+      <c r="AB105" s="54"/>
+      <c r="AC105" s="55"/>
+      <c r="AD105" s="55"/>
+      <c r="AE105" s="55"/>
+      <c r="AF105" s="55"/>
+      <c r="AG105" s="55"/>
+      <c r="AH105" s="56"/>
     </row>
     <row r="106" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E106" s="15"/>
@@ -8776,13 +8773,13 @@
       <c r="Y106" s="27"/>
       <c r="Z106" s="27"/>
       <c r="AA106" s="27"/>
-      <c r="AB106" s="76"/>
-      <c r="AC106" s="77"/>
-      <c r="AD106" s="77"/>
-      <c r="AE106" s="77"/>
-      <c r="AF106" s="77"/>
-      <c r="AG106" s="77"/>
-      <c r="AH106" s="78"/>
+      <c r="AB106" s="54"/>
+      <c r="AC106" s="55"/>
+      <c r="AD106" s="55"/>
+      <c r="AE106" s="55"/>
+      <c r="AF106" s="55"/>
+      <c r="AG106" s="55"/>
+      <c r="AH106" s="56"/>
     </row>
     <row r="107" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E107" s="15"/>
@@ -8810,15 +8807,15 @@
       <c r="Y107" s="24"/>
       <c r="Z107" s="24"/>
       <c r="AA107" s="24"/>
-      <c r="AB107" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC107" s="74"/>
-      <c r="AD107" s="74"/>
-      <c r="AE107" s="74"/>
-      <c r="AF107" s="74"/>
-      <c r="AG107" s="74"/>
-      <c r="AH107" s="75"/>
+      <c r="AB107" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC107" s="52"/>
+      <c r="AD107" s="52"/>
+      <c r="AE107" s="52"/>
+      <c r="AF107" s="52"/>
+      <c r="AG107" s="52"/>
+      <c r="AH107" s="53"/>
     </row>
     <row r="108" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E108" s="15"/>
@@ -8844,13 +8841,13 @@
       <c r="Y108" s="27"/>
       <c r="Z108" s="27"/>
       <c r="AA108" s="27"/>
-      <c r="AB108" s="76"/>
-      <c r="AC108" s="77"/>
-      <c r="AD108" s="77"/>
-      <c r="AE108" s="77"/>
-      <c r="AF108" s="77"/>
-      <c r="AG108" s="77"/>
-      <c r="AH108" s="78"/>
+      <c r="AB108" s="54"/>
+      <c r="AC108" s="55"/>
+      <c r="AD108" s="55"/>
+      <c r="AE108" s="55"/>
+      <c r="AF108" s="55"/>
+      <c r="AG108" s="55"/>
+      <c r="AH108" s="56"/>
     </row>
     <row r="109" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E109" s="15"/>
@@ -8876,13 +8873,13 @@
       <c r="Y109" s="27"/>
       <c r="Z109" s="27"/>
       <c r="AA109" s="27"/>
-      <c r="AB109" s="76"/>
-      <c r="AC109" s="77"/>
-      <c r="AD109" s="77"/>
-      <c r="AE109" s="77"/>
-      <c r="AF109" s="77"/>
-      <c r="AG109" s="77"/>
-      <c r="AH109" s="78"/>
+      <c r="AB109" s="54"/>
+      <c r="AC109" s="55"/>
+      <c r="AD109" s="55"/>
+      <c r="AE109" s="55"/>
+      <c r="AF109" s="55"/>
+      <c r="AG109" s="55"/>
+      <c r="AH109" s="56"/>
     </row>
     <row r="110" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E110" s="15"/>
@@ -8908,13 +8905,13 @@
       <c r="Y110" s="27"/>
       <c r="Z110" s="27"/>
       <c r="AA110" s="27"/>
-      <c r="AB110" s="76"/>
-      <c r="AC110" s="77"/>
-      <c r="AD110" s="77"/>
-      <c r="AE110" s="77"/>
-      <c r="AF110" s="77"/>
-      <c r="AG110" s="77"/>
-      <c r="AH110" s="78"/>
+      <c r="AB110" s="54"/>
+      <c r="AC110" s="55"/>
+      <c r="AD110" s="55"/>
+      <c r="AE110" s="55"/>
+      <c r="AF110" s="55"/>
+      <c r="AG110" s="55"/>
+      <c r="AH110" s="56"/>
     </row>
     <row r="111" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E111" s="15"/>
@@ -8940,13 +8937,13 @@
       <c r="Y111" s="27"/>
       <c r="Z111" s="27"/>
       <c r="AA111" s="27"/>
-      <c r="AB111" s="76"/>
-      <c r="AC111" s="77"/>
-      <c r="AD111" s="77"/>
-      <c r="AE111" s="77"/>
-      <c r="AF111" s="77"/>
-      <c r="AG111" s="77"/>
-      <c r="AH111" s="78"/>
+      <c r="AB111" s="54"/>
+      <c r="AC111" s="55"/>
+      <c r="AD111" s="55"/>
+      <c r="AE111" s="55"/>
+      <c r="AF111" s="55"/>
+      <c r="AG111" s="55"/>
+      <c r="AH111" s="56"/>
     </row>
     <row r="112" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E112" s="15"/>
@@ -8972,13 +8969,13 @@
       <c r="Y112" s="27"/>
       <c r="Z112" s="27"/>
       <c r="AA112" s="27"/>
-      <c r="AB112" s="76"/>
-      <c r="AC112" s="77"/>
-      <c r="AD112" s="77"/>
-      <c r="AE112" s="77"/>
-      <c r="AF112" s="77"/>
-      <c r="AG112" s="77"/>
-      <c r="AH112" s="78"/>
+      <c r="AB112" s="54"/>
+      <c r="AC112" s="55"/>
+      <c r="AD112" s="55"/>
+      <c r="AE112" s="55"/>
+      <c r="AF112" s="55"/>
+      <c r="AG112" s="55"/>
+      <c r="AH112" s="56"/>
     </row>
     <row r="113" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E113" s="15"/>
@@ -9004,13 +9001,13 @@
       <c r="Y113" s="27"/>
       <c r="Z113" s="27"/>
       <c r="AA113" s="27"/>
-      <c r="AB113" s="76"/>
-      <c r="AC113" s="77"/>
-      <c r="AD113" s="77"/>
-      <c r="AE113" s="77"/>
-      <c r="AF113" s="77"/>
-      <c r="AG113" s="77"/>
-      <c r="AH113" s="78"/>
+      <c r="AB113" s="54"/>
+      <c r="AC113" s="55"/>
+      <c r="AD113" s="55"/>
+      <c r="AE113" s="55"/>
+      <c r="AF113" s="55"/>
+      <c r="AG113" s="55"/>
+      <c r="AH113" s="56"/>
     </row>
     <row r="114" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E114" s="15"/>
@@ -9036,13 +9033,13 @@
       <c r="Y114" s="27"/>
       <c r="Z114" s="27"/>
       <c r="AA114" s="27"/>
-      <c r="AB114" s="76"/>
-      <c r="AC114" s="77"/>
-      <c r="AD114" s="77"/>
-      <c r="AE114" s="77"/>
-      <c r="AF114" s="77"/>
-      <c r="AG114" s="77"/>
-      <c r="AH114" s="78"/>
+      <c r="AB114" s="54"/>
+      <c r="AC114" s="55"/>
+      <c r="AD114" s="55"/>
+      <c r="AE114" s="55"/>
+      <c r="AF114" s="55"/>
+      <c r="AG114" s="55"/>
+      <c r="AH114" s="56"/>
     </row>
     <row r="115" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E115" s="15"/>
@@ -9068,13 +9065,13 @@
       <c r="Y115" s="27"/>
       <c r="Z115" s="27"/>
       <c r="AA115" s="27"/>
-      <c r="AB115" s="76"/>
-      <c r="AC115" s="77"/>
-      <c r="AD115" s="77"/>
-      <c r="AE115" s="77"/>
-      <c r="AF115" s="77"/>
-      <c r="AG115" s="77"/>
-      <c r="AH115" s="78"/>
+      <c r="AB115" s="54"/>
+      <c r="AC115" s="55"/>
+      <c r="AD115" s="55"/>
+      <c r="AE115" s="55"/>
+      <c r="AF115" s="55"/>
+      <c r="AG115" s="55"/>
+      <c r="AH115" s="56"/>
     </row>
     <row r="116" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E116" s="15"/>
@@ -9100,13 +9097,13 @@
       <c r="Y116" s="27"/>
       <c r="Z116" s="27"/>
       <c r="AA116" s="27"/>
-      <c r="AB116" s="76"/>
-      <c r="AC116" s="77"/>
-      <c r="AD116" s="77"/>
-      <c r="AE116" s="77"/>
-      <c r="AF116" s="77"/>
-      <c r="AG116" s="77"/>
-      <c r="AH116" s="78"/>
+      <c r="AB116" s="54"/>
+      <c r="AC116" s="55"/>
+      <c r="AD116" s="55"/>
+      <c r="AE116" s="55"/>
+      <c r="AF116" s="55"/>
+      <c r="AG116" s="55"/>
+      <c r="AH116" s="56"/>
     </row>
     <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E117" s="15"/>
@@ -9132,13 +9129,13 @@
       <c r="Y117" s="27"/>
       <c r="Z117" s="27"/>
       <c r="AA117" s="27"/>
-      <c r="AB117" s="76"/>
-      <c r="AC117" s="77"/>
-      <c r="AD117" s="77"/>
-      <c r="AE117" s="77"/>
-      <c r="AF117" s="77"/>
-      <c r="AG117" s="77"/>
-      <c r="AH117" s="78"/>
+      <c r="AB117" s="54"/>
+      <c r="AC117" s="55"/>
+      <c r="AD117" s="55"/>
+      <c r="AE117" s="55"/>
+      <c r="AF117" s="55"/>
+      <c r="AG117" s="55"/>
+      <c r="AH117" s="56"/>
     </row>
     <row r="118" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E118" s="15"/>
@@ -9164,13 +9161,13 @@
       <c r="Y118" s="30"/>
       <c r="Z118" s="30"/>
       <c r="AA118" s="30"/>
-      <c r="AB118" s="79"/>
-      <c r="AC118" s="80"/>
-      <c r="AD118" s="80"/>
-      <c r="AE118" s="80"/>
-      <c r="AF118" s="80"/>
-      <c r="AG118" s="80"/>
-      <c r="AH118" s="81"/>
+      <c r="AB118" s="57"/>
+      <c r="AC118" s="58"/>
+      <c r="AD118" s="58"/>
+      <c r="AE118" s="58"/>
+      <c r="AF118" s="58"/>
+      <c r="AG118" s="58"/>
+      <c r="AH118" s="59"/>
     </row>
     <row r="119" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E119" s="15"/>
@@ -9198,15 +9195,15 @@
       <c r="Y119" s="24"/>
       <c r="Z119" s="24"/>
       <c r="AA119" s="24"/>
-      <c r="AB119" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC119" s="74"/>
-      <c r="AD119" s="74"/>
-      <c r="AE119" s="74"/>
-      <c r="AF119" s="74"/>
-      <c r="AG119" s="74"/>
-      <c r="AH119" s="75"/>
+      <c r="AB119" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC119" s="52"/>
+      <c r="AD119" s="52"/>
+      <c r="AE119" s="52"/>
+      <c r="AF119" s="52"/>
+      <c r="AG119" s="52"/>
+      <c r="AH119" s="53"/>
     </row>
     <row r="120" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E120" s="15"/>
@@ -9232,13 +9229,13 @@
       <c r="Y120" s="27"/>
       <c r="Z120" s="27"/>
       <c r="AA120" s="27"/>
-      <c r="AB120" s="76"/>
-      <c r="AC120" s="77"/>
-      <c r="AD120" s="77"/>
-      <c r="AE120" s="77"/>
-      <c r="AF120" s="77"/>
-      <c r="AG120" s="77"/>
-      <c r="AH120" s="78"/>
+      <c r="AB120" s="54"/>
+      <c r="AC120" s="55"/>
+      <c r="AD120" s="55"/>
+      <c r="AE120" s="55"/>
+      <c r="AF120" s="55"/>
+      <c r="AG120" s="55"/>
+      <c r="AH120" s="56"/>
     </row>
     <row r="121" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="15"/>
@@ -9264,13 +9261,13 @@
       <c r="Y121" s="27"/>
       <c r="Z121" s="27"/>
       <c r="AA121" s="27"/>
-      <c r="AB121" s="76"/>
-      <c r="AC121" s="77"/>
-      <c r="AD121" s="77"/>
-      <c r="AE121" s="77"/>
-      <c r="AF121" s="77"/>
-      <c r="AG121" s="77"/>
-      <c r="AH121" s="78"/>
+      <c r="AB121" s="54"/>
+      <c r="AC121" s="55"/>
+      <c r="AD121" s="55"/>
+      <c r="AE121" s="55"/>
+      <c r="AF121" s="55"/>
+      <c r="AG121" s="55"/>
+      <c r="AH121" s="56"/>
     </row>
     <row r="122" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="15"/>
@@ -9296,13 +9293,13 @@
       <c r="Y122" s="27"/>
       <c r="Z122" s="27"/>
       <c r="AA122" s="27"/>
-      <c r="AB122" s="76"/>
-      <c r="AC122" s="77"/>
-      <c r="AD122" s="77"/>
-      <c r="AE122" s="77"/>
-      <c r="AF122" s="77"/>
-      <c r="AG122" s="77"/>
-      <c r="AH122" s="78"/>
+      <c r="AB122" s="54"/>
+      <c r="AC122" s="55"/>
+      <c r="AD122" s="55"/>
+      <c r="AE122" s="55"/>
+      <c r="AF122" s="55"/>
+      <c r="AG122" s="55"/>
+      <c r="AH122" s="56"/>
     </row>
     <row r="123" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E123" s="15"/>
@@ -9328,13 +9325,13 @@
       <c r="Y123" s="27"/>
       <c r="Z123" s="27"/>
       <c r="AA123" s="27"/>
-      <c r="AB123" s="76"/>
-      <c r="AC123" s="77"/>
-      <c r="AD123" s="77"/>
-      <c r="AE123" s="77"/>
-      <c r="AF123" s="77"/>
-      <c r="AG123" s="77"/>
-      <c r="AH123" s="78"/>
+      <c r="AB123" s="54"/>
+      <c r="AC123" s="55"/>
+      <c r="AD123" s="55"/>
+      <c r="AE123" s="55"/>
+      <c r="AF123" s="55"/>
+      <c r="AG123" s="55"/>
+      <c r="AH123" s="56"/>
     </row>
     <row r="124" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E124" s="15"/>
@@ -9360,13 +9357,13 @@
       <c r="Y124" s="27"/>
       <c r="Z124" s="27"/>
       <c r="AA124" s="27"/>
-      <c r="AB124" s="76"/>
-      <c r="AC124" s="77"/>
-      <c r="AD124" s="77"/>
-      <c r="AE124" s="77"/>
-      <c r="AF124" s="77"/>
-      <c r="AG124" s="77"/>
-      <c r="AH124" s="78"/>
+      <c r="AB124" s="54"/>
+      <c r="AC124" s="55"/>
+      <c r="AD124" s="55"/>
+      <c r="AE124" s="55"/>
+      <c r="AF124" s="55"/>
+      <c r="AG124" s="55"/>
+      <c r="AH124" s="56"/>
     </row>
     <row r="125" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E125" s="15"/>
@@ -9392,13 +9389,13 @@
       <c r="Y125" s="27"/>
       <c r="Z125" s="27"/>
       <c r="AA125" s="27"/>
-      <c r="AB125" s="76"/>
-      <c r="AC125" s="77"/>
-      <c r="AD125" s="77"/>
-      <c r="AE125" s="77"/>
-      <c r="AF125" s="77"/>
-      <c r="AG125" s="77"/>
-      <c r="AH125" s="78"/>
+      <c r="AB125" s="54"/>
+      <c r="AC125" s="55"/>
+      <c r="AD125" s="55"/>
+      <c r="AE125" s="55"/>
+      <c r="AF125" s="55"/>
+      <c r="AG125" s="55"/>
+      <c r="AH125" s="56"/>
     </row>
     <row r="126" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E126" s="15"/>
@@ -9424,13 +9421,13 @@
       <c r="Y126" s="27"/>
       <c r="Z126" s="27"/>
       <c r="AA126" s="27"/>
-      <c r="AB126" s="76"/>
-      <c r="AC126" s="77"/>
-      <c r="AD126" s="77"/>
-      <c r="AE126" s="77"/>
-      <c r="AF126" s="77"/>
-      <c r="AG126" s="77"/>
-      <c r="AH126" s="78"/>
+      <c r="AB126" s="54"/>
+      <c r="AC126" s="55"/>
+      <c r="AD126" s="55"/>
+      <c r="AE126" s="55"/>
+      <c r="AF126" s="55"/>
+      <c r="AG126" s="55"/>
+      <c r="AH126" s="56"/>
     </row>
     <row r="127" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E127" s="15"/>
@@ -9456,47 +9453,47 @@
       <c r="Y127" s="30"/>
       <c r="Z127" s="30"/>
       <c r="AA127" s="30"/>
-      <c r="AB127" s="79"/>
-      <c r="AC127" s="80"/>
-      <c r="AD127" s="80"/>
-      <c r="AE127" s="80"/>
-      <c r="AF127" s="80"/>
-      <c r="AG127" s="80"/>
-      <c r="AH127" s="81"/>
+      <c r="AB127" s="57"/>
+      <c r="AC127" s="58"/>
+      <c r="AD127" s="58"/>
+      <c r="AE127" s="58"/>
+      <c r="AF127" s="58"/>
+      <c r="AG127" s="58"/>
+      <c r="AH127" s="59"/>
     </row>
     <row r="128" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E128" s="15"/>
-      <c r="F128" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="G128" s="91"/>
-      <c r="H128" s="91"/>
-      <c r="I128" s="91"/>
-      <c r="J128" s="91"/>
-      <c r="K128" s="91"/>
-      <c r="L128" s="91"/>
-      <c r="M128" s="91"/>
-      <c r="N128" s="91"/>
-      <c r="O128" s="91"/>
-      <c r="P128" s="91"/>
-      <c r="Q128" s="91"/>
-      <c r="R128" s="91"/>
-      <c r="S128" s="91"/>
-      <c r="T128" s="91"/>
-      <c r="U128" s="91"/>
-      <c r="V128" s="91"/>
-      <c r="W128" s="91"/>
-      <c r="X128" s="91"/>
-      <c r="Y128" s="91"/>
-      <c r="Z128" s="91"/>
-      <c r="AA128" s="91"/>
-      <c r="AB128" s="91"/>
-      <c r="AC128" s="91"/>
-      <c r="AD128" s="91"/>
-      <c r="AE128" s="91"/>
-      <c r="AF128" s="91"/>
-      <c r="AG128" s="91"/>
-      <c r="AH128" s="92"/>
+      <c r="F128" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="G128" s="72"/>
+      <c r="H128" s="72"/>
+      <c r="I128" s="72"/>
+      <c r="J128" s="72"/>
+      <c r="K128" s="72"/>
+      <c r="L128" s="72"/>
+      <c r="M128" s="72"/>
+      <c r="N128" s="72"/>
+      <c r="O128" s="72"/>
+      <c r="P128" s="72"/>
+      <c r="Q128" s="72"/>
+      <c r="R128" s="72"/>
+      <c r="S128" s="72"/>
+      <c r="T128" s="72"/>
+      <c r="U128" s="72"/>
+      <c r="V128" s="72"/>
+      <c r="W128" s="72"/>
+      <c r="X128" s="72"/>
+      <c r="Y128" s="72"/>
+      <c r="Z128" s="72"/>
+      <c r="AA128" s="72"/>
+      <c r="AB128" s="72"/>
+      <c r="AC128" s="72"/>
+      <c r="AD128" s="72"/>
+      <c r="AE128" s="72"/>
+      <c r="AF128" s="72"/>
+      <c r="AG128" s="72"/>
+      <c r="AH128" s="73"/>
     </row>
     <row r="129" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E129" s="15"/>
@@ -9524,15 +9521,15 @@
       <c r="Y129" s="24"/>
       <c r="Z129" s="24"/>
       <c r="AA129" s="25"/>
-      <c r="AB129" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC129" s="74"/>
-      <c r="AD129" s="74"/>
-      <c r="AE129" s="74"/>
-      <c r="AF129" s="74"/>
-      <c r="AG129" s="74"/>
-      <c r="AH129" s="75"/>
+      <c r="AB129" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC129" s="52"/>
+      <c r="AD129" s="52"/>
+      <c r="AE129" s="52"/>
+      <c r="AF129" s="52"/>
+      <c r="AG129" s="52"/>
+      <c r="AH129" s="53"/>
     </row>
     <row r="130" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E130" s="15"/>
@@ -9558,13 +9555,13 @@
       <c r="Y130" s="27"/>
       <c r="Z130" s="27"/>
       <c r="AA130" s="28"/>
-      <c r="AB130" s="76"/>
-      <c r="AC130" s="77"/>
-      <c r="AD130" s="77"/>
-      <c r="AE130" s="77"/>
-      <c r="AF130" s="77"/>
-      <c r="AG130" s="77"/>
-      <c r="AH130" s="78"/>
+      <c r="AB130" s="54"/>
+      <c r="AC130" s="55"/>
+      <c r="AD130" s="55"/>
+      <c r="AE130" s="55"/>
+      <c r="AF130" s="55"/>
+      <c r="AG130" s="55"/>
+      <c r="AH130" s="56"/>
     </row>
     <row r="131" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E131" s="15"/>
@@ -9590,13 +9587,13 @@
       <c r="Y131" s="27"/>
       <c r="Z131" s="27"/>
       <c r="AA131" s="28"/>
-      <c r="AB131" s="76"/>
-      <c r="AC131" s="77"/>
-      <c r="AD131" s="77"/>
-      <c r="AE131" s="77"/>
-      <c r="AF131" s="77"/>
-      <c r="AG131" s="77"/>
-      <c r="AH131" s="78"/>
+      <c r="AB131" s="54"/>
+      <c r="AC131" s="55"/>
+      <c r="AD131" s="55"/>
+      <c r="AE131" s="55"/>
+      <c r="AF131" s="55"/>
+      <c r="AG131" s="55"/>
+      <c r="AH131" s="56"/>
     </row>
     <row r="132" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E132" s="15"/>
@@ -9622,13 +9619,13 @@
       <c r="Y132" s="27"/>
       <c r="Z132" s="27"/>
       <c r="AA132" s="27"/>
-      <c r="AB132" s="76"/>
-      <c r="AC132" s="77"/>
-      <c r="AD132" s="77"/>
-      <c r="AE132" s="77"/>
-      <c r="AF132" s="77"/>
-      <c r="AG132" s="77"/>
-      <c r="AH132" s="78"/>
+      <c r="AB132" s="54"/>
+      <c r="AC132" s="55"/>
+      <c r="AD132" s="55"/>
+      <c r="AE132" s="55"/>
+      <c r="AF132" s="55"/>
+      <c r="AG132" s="55"/>
+      <c r="AH132" s="56"/>
     </row>
     <row r="133" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E133" s="15"/>
@@ -9654,13 +9651,13 @@
       <c r="Y133" s="27"/>
       <c r="Z133" s="27"/>
       <c r="AA133" s="27"/>
-      <c r="AB133" s="76"/>
-      <c r="AC133" s="77"/>
-      <c r="AD133" s="77"/>
-      <c r="AE133" s="77"/>
-      <c r="AF133" s="77"/>
-      <c r="AG133" s="77"/>
-      <c r="AH133" s="78"/>
+      <c r="AB133" s="54"/>
+      <c r="AC133" s="55"/>
+      <c r="AD133" s="55"/>
+      <c r="AE133" s="55"/>
+      <c r="AF133" s="55"/>
+      <c r="AG133" s="55"/>
+      <c r="AH133" s="56"/>
     </row>
     <row r="134" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E134" s="15"/>
@@ -9686,13 +9683,13 @@
       <c r="Y134" s="27"/>
       <c r="Z134" s="27"/>
       <c r="AA134" s="27"/>
-      <c r="AB134" s="76"/>
-      <c r="AC134" s="77"/>
-      <c r="AD134" s="77"/>
-      <c r="AE134" s="77"/>
-      <c r="AF134" s="77"/>
-      <c r="AG134" s="77"/>
-      <c r="AH134" s="78"/>
+      <c r="AB134" s="54"/>
+      <c r="AC134" s="55"/>
+      <c r="AD134" s="55"/>
+      <c r="AE134" s="55"/>
+      <c r="AF134" s="55"/>
+      <c r="AG134" s="55"/>
+      <c r="AH134" s="56"/>
     </row>
     <row r="135" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E135" s="15"/>
@@ -9718,13 +9715,13 @@
       <c r="Y135" s="27"/>
       <c r="Z135" s="27"/>
       <c r="AA135" s="27"/>
-      <c r="AB135" s="76"/>
-      <c r="AC135" s="77"/>
-      <c r="AD135" s="77"/>
-      <c r="AE135" s="77"/>
-      <c r="AF135" s="77"/>
-      <c r="AG135" s="77"/>
-      <c r="AH135" s="78"/>
+      <c r="AB135" s="54"/>
+      <c r="AC135" s="55"/>
+      <c r="AD135" s="55"/>
+      <c r="AE135" s="55"/>
+      <c r="AF135" s="55"/>
+      <c r="AG135" s="55"/>
+      <c r="AH135" s="56"/>
     </row>
     <row r="136" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E136" s="15"/>
@@ -9750,13 +9747,13 @@
       <c r="Y136" s="27"/>
       <c r="Z136" s="27"/>
       <c r="AA136" s="27"/>
-      <c r="AB136" s="76"/>
-      <c r="AC136" s="77"/>
-      <c r="AD136" s="77"/>
-      <c r="AE136" s="77"/>
-      <c r="AF136" s="77"/>
-      <c r="AG136" s="77"/>
-      <c r="AH136" s="78"/>
+      <c r="AB136" s="54"/>
+      <c r="AC136" s="55"/>
+      <c r="AD136" s="55"/>
+      <c r="AE136" s="55"/>
+      <c r="AF136" s="55"/>
+      <c r="AG136" s="55"/>
+      <c r="AH136" s="56"/>
     </row>
     <row r="137" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E137" s="15"/>
@@ -9782,13 +9779,13 @@
       <c r="Y137" s="27"/>
       <c r="Z137" s="27"/>
       <c r="AA137" s="27"/>
-      <c r="AB137" s="76"/>
-      <c r="AC137" s="77"/>
-      <c r="AD137" s="77"/>
-      <c r="AE137" s="77"/>
-      <c r="AF137" s="77"/>
-      <c r="AG137" s="77"/>
-      <c r="AH137" s="78"/>
+      <c r="AB137" s="54"/>
+      <c r="AC137" s="55"/>
+      <c r="AD137" s="55"/>
+      <c r="AE137" s="55"/>
+      <c r="AF137" s="55"/>
+      <c r="AG137" s="55"/>
+      <c r="AH137" s="56"/>
     </row>
     <row r="138" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E138" s="15"/>
@@ -9814,13 +9811,13 @@
       <c r="Y138" s="27"/>
       <c r="Z138" s="27"/>
       <c r="AA138" s="27"/>
-      <c r="AB138" s="76"/>
-      <c r="AC138" s="77"/>
-      <c r="AD138" s="77"/>
-      <c r="AE138" s="77"/>
-      <c r="AF138" s="77"/>
-      <c r="AG138" s="77"/>
-      <c r="AH138" s="78"/>
+      <c r="AB138" s="54"/>
+      <c r="AC138" s="55"/>
+      <c r="AD138" s="55"/>
+      <c r="AE138" s="55"/>
+      <c r="AF138" s="55"/>
+      <c r="AG138" s="55"/>
+      <c r="AH138" s="56"/>
     </row>
     <row r="139" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E139" s="15"/>
@@ -9846,13 +9843,13 @@
       <c r="Y139" s="30"/>
       <c r="Z139" s="30"/>
       <c r="AA139" s="30"/>
-      <c r="AB139" s="79"/>
-      <c r="AC139" s="80"/>
-      <c r="AD139" s="80"/>
-      <c r="AE139" s="80"/>
-      <c r="AF139" s="80"/>
-      <c r="AG139" s="80"/>
-      <c r="AH139" s="81"/>
+      <c r="AB139" s="57"/>
+      <c r="AC139" s="58"/>
+      <c r="AD139" s="58"/>
+      <c r="AE139" s="58"/>
+      <c r="AF139" s="58"/>
+      <c r="AG139" s="58"/>
+      <c r="AH139" s="59"/>
     </row>
     <row r="140" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E140" s="15"/>
@@ -9880,15 +9877,15 @@
       <c r="Y140" s="24"/>
       <c r="Z140" s="24"/>
       <c r="AA140" s="25"/>
-      <c r="AB140" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC140" s="74"/>
-      <c r="AD140" s="74"/>
-      <c r="AE140" s="74"/>
-      <c r="AF140" s="74"/>
-      <c r="AG140" s="74"/>
-      <c r="AH140" s="75"/>
+      <c r="AB140" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC140" s="52"/>
+      <c r="AD140" s="52"/>
+      <c r="AE140" s="52"/>
+      <c r="AF140" s="52"/>
+      <c r="AG140" s="52"/>
+      <c r="AH140" s="53"/>
     </row>
     <row r="141" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E141" s="15"/>
@@ -9914,13 +9911,13 @@
       <c r="Y141" s="27"/>
       <c r="Z141" s="27"/>
       <c r="AA141" s="28"/>
-      <c r="AB141" s="76"/>
-      <c r="AC141" s="77"/>
-      <c r="AD141" s="77"/>
-      <c r="AE141" s="77"/>
-      <c r="AF141" s="77"/>
-      <c r="AG141" s="77"/>
-      <c r="AH141" s="78"/>
+      <c r="AB141" s="54"/>
+      <c r="AC141" s="55"/>
+      <c r="AD141" s="55"/>
+      <c r="AE141" s="55"/>
+      <c r="AF141" s="55"/>
+      <c r="AG141" s="55"/>
+      <c r="AH141" s="56"/>
     </row>
     <row r="142" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E142" s="15"/>
@@ -9946,13 +9943,13 @@
       <c r="Y142" s="27"/>
       <c r="Z142" s="27"/>
       <c r="AA142" s="27"/>
-      <c r="AB142" s="76"/>
-      <c r="AC142" s="77"/>
-      <c r="AD142" s="77"/>
-      <c r="AE142" s="77"/>
-      <c r="AF142" s="77"/>
-      <c r="AG142" s="77"/>
-      <c r="AH142" s="78"/>
+      <c r="AB142" s="54"/>
+      <c r="AC142" s="55"/>
+      <c r="AD142" s="55"/>
+      <c r="AE142" s="55"/>
+      <c r="AF142" s="55"/>
+      <c r="AG142" s="55"/>
+      <c r="AH142" s="56"/>
     </row>
     <row r="143" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E143" s="15"/>
@@ -9978,13 +9975,13 @@
       <c r="Y143" s="27"/>
       <c r="Z143" s="27"/>
       <c r="AA143" s="27"/>
-      <c r="AB143" s="76"/>
-      <c r="AC143" s="77"/>
-      <c r="AD143" s="77"/>
-      <c r="AE143" s="77"/>
-      <c r="AF143" s="77"/>
-      <c r="AG143" s="77"/>
-      <c r="AH143" s="78"/>
+      <c r="AB143" s="54"/>
+      <c r="AC143" s="55"/>
+      <c r="AD143" s="55"/>
+      <c r="AE143" s="55"/>
+      <c r="AF143" s="55"/>
+      <c r="AG143" s="55"/>
+      <c r="AH143" s="56"/>
     </row>
     <row r="144" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E144" s="15"/>
@@ -10010,13 +10007,13 @@
       <c r="Y144" s="27"/>
       <c r="Z144" s="27"/>
       <c r="AA144" s="27"/>
-      <c r="AB144" s="76"/>
-      <c r="AC144" s="77"/>
-      <c r="AD144" s="77"/>
-      <c r="AE144" s="77"/>
-      <c r="AF144" s="77"/>
-      <c r="AG144" s="77"/>
-      <c r="AH144" s="78"/>
+      <c r="AB144" s="54"/>
+      <c r="AC144" s="55"/>
+      <c r="AD144" s="55"/>
+      <c r="AE144" s="55"/>
+      <c r="AF144" s="55"/>
+      <c r="AG144" s="55"/>
+      <c r="AH144" s="56"/>
     </row>
     <row r="145" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E145" s="15"/>
@@ -10042,13 +10039,13 @@
       <c r="Y145" s="27"/>
       <c r="Z145" s="27"/>
       <c r="AA145" s="27"/>
-      <c r="AB145" s="76"/>
-      <c r="AC145" s="77"/>
-      <c r="AD145" s="77"/>
-      <c r="AE145" s="77"/>
-      <c r="AF145" s="77"/>
-      <c r="AG145" s="77"/>
-      <c r="AH145" s="78"/>
+      <c r="AB145" s="54"/>
+      <c r="AC145" s="55"/>
+      <c r="AD145" s="55"/>
+      <c r="AE145" s="55"/>
+      <c r="AF145" s="55"/>
+      <c r="AG145" s="55"/>
+      <c r="AH145" s="56"/>
     </row>
     <row r="146" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E146" s="15"/>
@@ -10074,13 +10071,13 @@
       <c r="Y146" s="27"/>
       <c r="Z146" s="27"/>
       <c r="AA146" s="27"/>
-      <c r="AB146" s="76"/>
-      <c r="AC146" s="77"/>
-      <c r="AD146" s="77"/>
-      <c r="AE146" s="77"/>
-      <c r="AF146" s="77"/>
-      <c r="AG146" s="77"/>
-      <c r="AH146" s="78"/>
+      <c r="AB146" s="54"/>
+      <c r="AC146" s="55"/>
+      <c r="AD146" s="55"/>
+      <c r="AE146" s="55"/>
+      <c r="AF146" s="55"/>
+      <c r="AG146" s="55"/>
+      <c r="AH146" s="56"/>
     </row>
     <row r="147" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E147" s="15"/>
@@ -10106,13 +10103,13 @@
       <c r="Y147" s="27"/>
       <c r="Z147" s="27"/>
       <c r="AA147" s="27"/>
-      <c r="AB147" s="76"/>
-      <c r="AC147" s="77"/>
-      <c r="AD147" s="77"/>
-      <c r="AE147" s="77"/>
-      <c r="AF147" s="77"/>
-      <c r="AG147" s="77"/>
-      <c r="AH147" s="78"/>
+      <c r="AB147" s="54"/>
+      <c r="AC147" s="55"/>
+      <c r="AD147" s="55"/>
+      <c r="AE147" s="55"/>
+      <c r="AF147" s="55"/>
+      <c r="AG147" s="55"/>
+      <c r="AH147" s="56"/>
     </row>
     <row r="148" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E148" s="15"/>
@@ -10138,13 +10135,13 @@
       <c r="Y148" s="30"/>
       <c r="Z148" s="30"/>
       <c r="AA148" s="30"/>
-      <c r="AB148" s="79"/>
-      <c r="AC148" s="80"/>
-      <c r="AD148" s="80"/>
-      <c r="AE148" s="80"/>
-      <c r="AF148" s="80"/>
-      <c r="AG148" s="80"/>
-      <c r="AH148" s="81"/>
+      <c r="AB148" s="57"/>
+      <c r="AC148" s="58"/>
+      <c r="AD148" s="58"/>
+      <c r="AE148" s="58"/>
+      <c r="AF148" s="58"/>
+      <c r="AG148" s="58"/>
+      <c r="AH148" s="59"/>
     </row>
     <row r="149" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E149" s="15"/>
@@ -10152,28 +10149,28 @@
     <row r="150" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E150" s="15"/>
       <c r="F150" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E151" s="15"/>
       <c r="H151" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="152" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E152" s="15"/>
       <c r="H152" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D153" s="18"/>
       <c r="H153" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10207,7 +10204,7 @@
     </row>
     <row r="161" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E161" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F161" s="17"/>
       <c r="G161" s="17"/>
@@ -10302,7 +10299,7 @@
         <v>25</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="176" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
@@ -10753,6 +10750,16 @@
     <row r="611" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AB140:AH148"/>
     <mergeCell ref="AB107:AH118"/>
     <mergeCell ref="AB119:AH127"/>
@@ -10764,16 +10771,6 @@
     <mergeCell ref="AB59:AH70"/>
     <mergeCell ref="AB50:AH58"/>
     <mergeCell ref="F128:AH128"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3768CD7-3EBB-4752-AFEE-7CBA6817610C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952946DB-DFFC-4285-8BB3-A96FECC42225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="6.2.ファイル転送（配信）" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -860,10 +860,6 @@
     <rPh sb="13" eb="15">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ファイル転送（配信）方式は、ファイルの生成からファイルの配信に至るまでの処理についての方式設計を行う。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1260,6 +1256,72 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1286,15 +1348,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1329,63 +1382,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1413,13 +1409,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1475,13 +1471,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1578,13 +1574,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1646,13 +1642,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1749,13 +1745,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1817,13 +1813,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1885,13 +1881,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1953,13 +1949,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2013,13 +2009,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2073,13 +2069,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2133,13 +2129,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2217,13 +2213,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2285,13 +2281,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2345,13 +2341,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2413,13 +2409,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2473,13 +2469,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2541,13 +2537,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2655,13 +2651,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2739,13 +2735,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2798,13 +2794,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>261939</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2860,13 +2856,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2944,13 +2940,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3012,13 +3008,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3072,13 +3068,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3130,13 +3126,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3189,13 +3185,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3248,13 +3244,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3307,13 +3303,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3366,13 +3362,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3425,13 +3421,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3490,13 +3486,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3550,13 +3546,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3634,13 +3630,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3693,13 +3689,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3761,13 +3757,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>22226</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3821,13 +3817,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3905,13 +3901,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4009,13 +4005,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4068,13 +4064,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4136,13 +4132,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4196,13 +4192,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4261,13 +4257,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4321,13 +4317,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4380,13 +4376,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4448,13 +4444,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4516,13 +4512,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4600,13 +4596,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4660,13 +4656,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4728,13 +4724,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4786,13 +4782,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4854,13 +4850,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4922,13 +4918,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4990,13 +4986,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5058,13 +5054,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5126,13 +5122,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5190,13 +5186,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5254,13 +5250,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5318,13 +5314,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5402,13 +5398,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5784,7 +5780,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI611"/>
+  <dimension ref="A1:AI610"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -5800,39 +5796,39 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="79"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="56"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="82"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="59"/>
       <c r="AF1" s="60"/>
       <c r="AG1" s="61"/>
       <c r="AH1" s="61"/>
@@ -5845,39 +5841,39 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="85"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="65"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="88"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="68"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="59"/>
       <c r="AF2" s="60"/>
       <c r="AG2" s="61"/>
       <c r="AH2" s="61"/>
@@ -5890,35 +5886,35 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="91"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="71"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="82"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="59"/>
       <c r="AF3" s="60"/>
       <c r="AG3" s="61"/>
       <c r="AH3" s="61"/>
@@ -5968,108 +5964,137 @@
     </row>
     <row r="11" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F11" s="16" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F12" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F13" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="15" t="str">
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="15" t="str">
         <f>$D$9&amp;"2."</f>
         <v>6.2.1.2.</v>
       </c>
-      <c r="F15" s="4" t="str">
+      <c r="F14" s="4" t="str">
         <f>D7&amp;"方法"</f>
         <v>ファイル転送（配信）方法</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="4" t="str">
+    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="4" t="str">
         <f>D7&amp;"を行う機能には、以下の方法がある。"</f>
         <v>ファイル転送（配信）を行う機能には、以下の方法がある。</v>
       </c>
     </row>
-    <row r="17" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="19"/>
+      <c r="F17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="22"/>
+    </row>
     <row r="18" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
-      <c r="F18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="22"/>
+      <c r="F18" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="25"/>
     </row>
     <row r="19" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="19"/>
-      <c r="F19" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="28"/>
     </row>
     <row r="20" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="19"/>
@@ -6078,7 +6103,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="26" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -6107,73 +6132,73 @@
     </row>
     <row r="21" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="19"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="28"/>
+      <c r="F21" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="25"/>
     </row>
     <row r="22" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="19"/>
-      <c r="F22" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="28"/>
     </row>
     <row r="23" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="19"/>
@@ -6182,7 +6207,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
@@ -6211,627 +6236,629 @@
     </row>
     <row r="24" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="19"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="28"/>
+      <c r="F24" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="25"/>
     </row>
     <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="19"/>
-      <c r="F25" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="28"/>
     </row>
     <row r="26" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="31"/>
     </row>
     <row r="27" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="19"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="31"/>
+      <c r="F27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="25"/>
     </row>
     <row r="28" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="19"/>
-      <c r="F28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="25"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="31"/>
     </row>
     <row r="29" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="19"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="31"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
     </row>
     <row r="30" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="19"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="27"/>
+      <c r="F30" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="19"/>
-      <c r="F31" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="F31" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="22"/>
     </row>
     <row r="32" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F32" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="22"/>
+      <c r="F32" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="28"/>
     </row>
     <row r="33" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="31"/>
     </row>
     <row r="34" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="31"/>
+      <c r="F34" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="28"/>
     </row>
     <row r="35" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="27"/>
-      <c r="AH35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="31"/>
     </row>
     <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="31"/>
+      <c r="F36" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="28"/>
     </row>
     <row r="37" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="27" t="s">
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="31"/>
+    </row>
+    <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="27"/>
-      <c r="AH37" s="28"/>
-    </row>
-    <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="30"/>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="30"/>
-      <c r="AH38" s="31"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="27"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="27"/>
+      <c r="AH38" s="28"/>
     </row>
     <row r="39" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="28"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="30"/>
+      <c r="AG39" s="30"/>
+      <c r="AH39" s="31"/>
     </row>
     <row r="40" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30"/>
-      <c r="AF40" s="30"/>
-      <c r="AG40" s="30"/>
-      <c r="AH40" s="31"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="27"/>
+      <c r="AH40" s="27"/>
     </row>
     <row r="41" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="27"/>
-    </row>
-    <row r="42" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="15" t="str">
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>6.2.2.</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E43" s="16" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="15"/>
+      <c r="F44" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="15"/>
-      <c r="F45" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="46" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="15"/>
+      <c r="F46" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="38"/>
     </row>
     <row r="47" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" s="15"/>
-      <c r="F47" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="41"/>
       <c r="K47" s="36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
@@ -6841,137 +6868,133 @@
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="37"/>
-      <c r="AE47" s="37"/>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="38"/>
+      <c r="T47" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
+      <c r="AE47" s="42"/>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="42"/>
+      <c r="AH47" s="43"/>
     </row>
     <row r="48" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E48" s="15"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="47" t="s">
+        <v>55</v>
+      </c>
       <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
-      <c r="AA48" s="40"/>
-      <c r="AB48" s="39"/>
-      <c r="AC48" s="42"/>
-      <c r="AD48" s="42"/>
-      <c r="AE48" s="42"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="43"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AE48" s="49"/>
+      <c r="AF48" s="49"/>
+      <c r="AG48" s="49"/>
+      <c r="AH48" s="50"/>
     </row>
     <row r="49" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="15"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
-      <c r="AA49" s="45"/>
-      <c r="AB49" s="44"/>
-      <c r="AC49" s="49"/>
-      <c r="AD49" s="49"/>
-      <c r="AE49" s="49"/>
-      <c r="AF49" s="49"/>
-      <c r="AG49" s="49"/>
-      <c r="AH49" s="50"/>
+      <c r="F49" s="23">
+        <v>1</v>
+      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24"/>
+      <c r="AB49" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC49" s="74"/>
+      <c r="AD49" s="74"/>
+      <c r="AE49" s="74"/>
+      <c r="AF49" s="74"/>
+      <c r="AG49" s="74"/>
+      <c r="AH49" s="75"/>
     </row>
     <row r="50" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="15"/>
-      <c r="F50" s="23">
-        <v>1</v>
-      </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC50" s="52"/>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="52"/>
-      <c r="AH50" s="53"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="76"/>
+      <c r="AC50" s="77"/>
+      <c r="AD50" s="77"/>
+      <c r="AE50" s="77"/>
+      <c r="AF50" s="77"/>
+      <c r="AG50" s="77"/>
+      <c r="AH50" s="78"/>
     </row>
     <row r="51" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E51" s="15"/>
@@ -6997,13 +7020,13 @@
       <c r="Y51" s="27"/>
       <c r="Z51" s="27"/>
       <c r="AA51" s="27"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="55"/>
-      <c r="AD51" s="55"/>
-      <c r="AE51" s="55"/>
-      <c r="AF51" s="55"/>
-      <c r="AG51" s="55"/>
-      <c r="AH51" s="56"/>
+      <c r="AB51" s="76"/>
+      <c r="AC51" s="77"/>
+      <c r="AD51" s="77"/>
+      <c r="AE51" s="77"/>
+      <c r="AF51" s="77"/>
+      <c r="AG51" s="77"/>
+      <c r="AH51" s="78"/>
     </row>
     <row r="52" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" s="15"/>
@@ -7029,13 +7052,13 @@
       <c r="Y52" s="27"/>
       <c r="Z52" s="27"/>
       <c r="AA52" s="27"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="55"/>
-      <c r="AD52" s="55"/>
-      <c r="AE52" s="55"/>
-      <c r="AF52" s="55"/>
-      <c r="AG52" s="55"/>
-      <c r="AH52" s="56"/>
+      <c r="AB52" s="76"/>
+      <c r="AC52" s="77"/>
+      <c r="AD52" s="77"/>
+      <c r="AE52" s="77"/>
+      <c r="AF52" s="77"/>
+      <c r="AG52" s="77"/>
+      <c r="AH52" s="78"/>
     </row>
     <row r="53" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="15"/>
@@ -7061,13 +7084,13 @@
       <c r="Y53" s="27"/>
       <c r="Z53" s="27"/>
       <c r="AA53" s="27"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="55"/>
-      <c r="AD53" s="55"/>
-      <c r="AE53" s="55"/>
-      <c r="AF53" s="55"/>
-      <c r="AG53" s="55"/>
-      <c r="AH53" s="56"/>
+      <c r="AB53" s="76"/>
+      <c r="AC53" s="77"/>
+      <c r="AD53" s="77"/>
+      <c r="AE53" s="77"/>
+      <c r="AF53" s="77"/>
+      <c r="AG53" s="77"/>
+      <c r="AH53" s="78"/>
     </row>
     <row r="54" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" s="15"/>
@@ -7093,13 +7116,13 @@
       <c r="Y54" s="27"/>
       <c r="Z54" s="27"/>
       <c r="AA54" s="27"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="55"/>
-      <c r="AD54" s="55"/>
-      <c r="AE54" s="55"/>
-      <c r="AF54" s="55"/>
-      <c r="AG54" s="55"/>
-      <c r="AH54" s="56"/>
+      <c r="AB54" s="76"/>
+      <c r="AC54" s="77"/>
+      <c r="AD54" s="77"/>
+      <c r="AE54" s="77"/>
+      <c r="AF54" s="77"/>
+      <c r="AG54" s="77"/>
+      <c r="AH54" s="78"/>
     </row>
     <row r="55" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="15"/>
@@ -7125,13 +7148,13 @@
       <c r="Y55" s="27"/>
       <c r="Z55" s="27"/>
       <c r="AA55" s="27"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="55"/>
-      <c r="AD55" s="55"/>
-      <c r="AE55" s="55"/>
-      <c r="AF55" s="55"/>
-      <c r="AG55" s="55"/>
-      <c r="AH55" s="56"/>
+      <c r="AB55" s="76"/>
+      <c r="AC55" s="77"/>
+      <c r="AD55" s="77"/>
+      <c r="AE55" s="77"/>
+      <c r="AF55" s="77"/>
+      <c r="AG55" s="77"/>
+      <c r="AH55" s="78"/>
     </row>
     <row r="56" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
@@ -7157,113 +7180,113 @@
       <c r="Y56" s="27"/>
       <c r="Z56" s="27"/>
       <c r="AA56" s="27"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="55"/>
-      <c r="AE56" s="55"/>
-      <c r="AF56" s="55"/>
-      <c r="AG56" s="55"/>
-      <c r="AH56" s="56"/>
+      <c r="AB56" s="76"/>
+      <c r="AC56" s="77"/>
+      <c r="AD56" s="77"/>
+      <c r="AE56" s="77"/>
+      <c r="AF56" s="77"/>
+      <c r="AG56" s="77"/>
+      <c r="AH56" s="78"/>
     </row>
     <row r="57" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="27"/>
-      <c r="AA57" s="27"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="55"/>
-      <c r="AD57" s="55"/>
-      <c r="AE57" s="55"/>
-      <c r="AF57" s="55"/>
-      <c r="AG57" s="55"/>
-      <c r="AH57" s="56"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="31"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="79"/>
+      <c r="AC57" s="80"/>
+      <c r="AD57" s="80"/>
+      <c r="AE57" s="80"/>
+      <c r="AF57" s="80"/>
+      <c r="AG57" s="80"/>
+      <c r="AH57" s="81"/>
     </row>
     <row r="58" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30"/>
-      <c r="W58" s="31"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="30"/>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="57"/>
-      <c r="AC58" s="58"/>
-      <c r="AD58" s="58"/>
-      <c r="AE58" s="58"/>
-      <c r="AF58" s="58"/>
-      <c r="AG58" s="58"/>
-      <c r="AH58" s="59"/>
+      <c r="F58" s="23">
+        <v>2</v>
+      </c>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="24"/>
+      <c r="AA58" s="24"/>
+      <c r="AB58" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC58" s="74"/>
+      <c r="AD58" s="74"/>
+      <c r="AE58" s="74"/>
+      <c r="AF58" s="74"/>
+      <c r="AG58" s="74"/>
+      <c r="AH58" s="75"/>
     </row>
     <row r="59" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
-      <c r="F59" s="23">
-        <v>2</v>
-      </c>
-      <c r="G59" s="23"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="24"/>
-      <c r="V59" s="24"/>
-      <c r="W59" s="25"/>
-      <c r="X59" s="24"/>
-      <c r="Y59" s="24"/>
-      <c r="Z59" s="24"/>
-      <c r="AA59" s="24"/>
-      <c r="AB59" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC59" s="52"/>
-      <c r="AD59" s="52"/>
-      <c r="AE59" s="52"/>
-      <c r="AF59" s="52"/>
-      <c r="AG59" s="52"/>
-      <c r="AH59" s="53"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="76"/>
+      <c r="AC59" s="77"/>
+      <c r="AD59" s="77"/>
+      <c r="AE59" s="77"/>
+      <c r="AF59" s="77"/>
+      <c r="AG59" s="77"/>
+      <c r="AH59" s="78"/>
     </row>
     <row r="60" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
@@ -7289,13 +7312,13 @@
       <c r="Y60" s="27"/>
       <c r="Z60" s="27"/>
       <c r="AA60" s="27"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="55"/>
-      <c r="AD60" s="55"/>
-      <c r="AE60" s="55"/>
-      <c r="AF60" s="55"/>
-      <c r="AG60" s="55"/>
-      <c r="AH60" s="56"/>
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="77"/>
+      <c r="AD60" s="77"/>
+      <c r="AE60" s="77"/>
+      <c r="AF60" s="77"/>
+      <c r="AG60" s="77"/>
+      <c r="AH60" s="78"/>
     </row>
     <row r="61" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
@@ -7321,13 +7344,13 @@
       <c r="Y61" s="27"/>
       <c r="Z61" s="27"/>
       <c r="AA61" s="27"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="55"/>
-      <c r="AE61" s="55"/>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="55"/>
-      <c r="AH61" s="56"/>
+      <c r="AB61" s="76"/>
+      <c r="AC61" s="77"/>
+      <c r="AD61" s="77"/>
+      <c r="AE61" s="77"/>
+      <c r="AF61" s="77"/>
+      <c r="AG61" s="77"/>
+      <c r="AH61" s="78"/>
     </row>
     <row r="62" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
@@ -7353,13 +7376,13 @@
       <c r="Y62" s="27"/>
       <c r="Z62" s="27"/>
       <c r="AA62" s="27"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="55"/>
-      <c r="AE62" s="55"/>
-      <c r="AF62" s="55"/>
-      <c r="AG62" s="55"/>
-      <c r="AH62" s="56"/>
+      <c r="AB62" s="76"/>
+      <c r="AC62" s="77"/>
+      <c r="AD62" s="77"/>
+      <c r="AE62" s="77"/>
+      <c r="AF62" s="77"/>
+      <c r="AG62" s="77"/>
+      <c r="AH62" s="78"/>
     </row>
     <row r="63" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
@@ -7385,13 +7408,13 @@
       <c r="Y63" s="27"/>
       <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="55"/>
-      <c r="AD63" s="55"/>
-      <c r="AE63" s="55"/>
-      <c r="AF63" s="55"/>
-      <c r="AG63" s="55"/>
-      <c r="AH63" s="56"/>
+      <c r="AB63" s="76"/>
+      <c r="AC63" s="77"/>
+      <c r="AD63" s="77"/>
+      <c r="AE63" s="77"/>
+      <c r="AF63" s="77"/>
+      <c r="AG63" s="77"/>
+      <c r="AH63" s="78"/>
     </row>
     <row r="64" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="15"/>
@@ -7417,13 +7440,13 @@
       <c r="Y64" s="27"/>
       <c r="Z64" s="27"/>
       <c r="AA64" s="27"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="55"/>
-      <c r="AD64" s="55"/>
-      <c r="AE64" s="55"/>
-      <c r="AF64" s="55"/>
-      <c r="AG64" s="55"/>
-      <c r="AH64" s="56"/>
+      <c r="AB64" s="76"/>
+      <c r="AC64" s="77"/>
+      <c r="AD64" s="77"/>
+      <c r="AE64" s="77"/>
+      <c r="AF64" s="77"/>
+      <c r="AG64" s="77"/>
+      <c r="AH64" s="78"/>
     </row>
     <row r="65" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
@@ -7449,13 +7472,13 @@
       <c r="Y65" s="27"/>
       <c r="Z65" s="27"/>
       <c r="AA65" s="27"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="55"/>
-      <c r="AD65" s="55"/>
-      <c r="AE65" s="55"/>
-      <c r="AF65" s="55"/>
-      <c r="AG65" s="55"/>
-      <c r="AH65" s="56"/>
+      <c r="AB65" s="76"/>
+      <c r="AC65" s="77"/>
+      <c r="AD65" s="77"/>
+      <c r="AE65" s="77"/>
+      <c r="AF65" s="77"/>
+      <c r="AG65" s="77"/>
+      <c r="AH65" s="78"/>
     </row>
     <row r="66" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="15"/>
@@ -7481,13 +7504,13 @@
       <c r="Y66" s="27"/>
       <c r="Z66" s="27"/>
       <c r="AA66" s="27"/>
-      <c r="AB66" s="54"/>
-      <c r="AC66" s="55"/>
-      <c r="AD66" s="55"/>
-      <c r="AE66" s="55"/>
-      <c r="AF66" s="55"/>
-      <c r="AG66" s="55"/>
-      <c r="AH66" s="56"/>
+      <c r="AB66" s="76"/>
+      <c r="AC66" s="77"/>
+      <c r="AD66" s="77"/>
+      <c r="AE66" s="77"/>
+      <c r="AF66" s="77"/>
+      <c r="AG66" s="77"/>
+      <c r="AH66" s="78"/>
     </row>
     <row r="67" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="15"/>
@@ -7513,13 +7536,13 @@
       <c r="Y67" s="27"/>
       <c r="Z67" s="27"/>
       <c r="AA67" s="27"/>
-      <c r="AB67" s="54"/>
-      <c r="AC67" s="55"/>
-      <c r="AD67" s="55"/>
-      <c r="AE67" s="55"/>
-      <c r="AF67" s="55"/>
-      <c r="AG67" s="55"/>
-      <c r="AH67" s="56"/>
+      <c r="AB67" s="76"/>
+      <c r="AC67" s="77"/>
+      <c r="AD67" s="77"/>
+      <c r="AE67" s="77"/>
+      <c r="AF67" s="77"/>
+      <c r="AG67" s="77"/>
+      <c r="AH67" s="78"/>
     </row>
     <row r="68" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="15"/>
@@ -7545,113 +7568,113 @@
       <c r="Y68" s="27"/>
       <c r="Z68" s="27"/>
       <c r="AA68" s="27"/>
-      <c r="AB68" s="54"/>
-      <c r="AC68" s="55"/>
-      <c r="AD68" s="55"/>
-      <c r="AE68" s="55"/>
-      <c r="AF68" s="55"/>
-      <c r="AG68" s="55"/>
-      <c r="AH68" s="56"/>
+      <c r="AB68" s="76"/>
+      <c r="AC68" s="77"/>
+      <c r="AD68" s="77"/>
+      <c r="AE68" s="77"/>
+      <c r="AF68" s="77"/>
+      <c r="AG68" s="77"/>
+      <c r="AH68" s="78"/>
     </row>
     <row r="69" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="15"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="27"/>
-      <c r="V69" s="27"/>
-      <c r="W69" s="28"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="27"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="27"/>
-      <c r="AB69" s="54"/>
-      <c r="AC69" s="55"/>
-      <c r="AD69" s="55"/>
-      <c r="AE69" s="55"/>
-      <c r="AF69" s="55"/>
-      <c r="AG69" s="55"/>
-      <c r="AH69" s="56"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="30"/>
+      <c r="R69" s="30"/>
+      <c r="S69" s="30"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="30"/>
+      <c r="V69" s="30"/>
+      <c r="W69" s="31"/>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="30"/>
+      <c r="AA69" s="30"/>
+      <c r="AB69" s="79"/>
+      <c r="AC69" s="80"/>
+      <c r="AD69" s="80"/>
+      <c r="AE69" s="80"/>
+      <c r="AF69" s="80"/>
+      <c r="AG69" s="80"/>
+      <c r="AH69" s="81"/>
     </row>
     <row r="70" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="15"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="30"/>
-      <c r="W70" s="31"/>
-      <c r="X70" s="30"/>
-      <c r="Y70" s="30"/>
-      <c r="Z70" s="30"/>
-      <c r="AA70" s="30"/>
-      <c r="AB70" s="57"/>
-      <c r="AC70" s="58"/>
-      <c r="AD70" s="58"/>
-      <c r="AE70" s="58"/>
-      <c r="AF70" s="58"/>
-      <c r="AG70" s="58"/>
-      <c r="AH70" s="59"/>
+      <c r="F70" s="23">
+        <v>3</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="25"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="24"/>
+      <c r="AB70" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC70" s="74"/>
+      <c r="AD70" s="74"/>
+      <c r="AE70" s="74"/>
+      <c r="AF70" s="74"/>
+      <c r="AG70" s="74"/>
+      <c r="AH70" s="75"/>
     </row>
     <row r="71" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="15"/>
-      <c r="F71" s="23">
-        <v>3</v>
-      </c>
-      <c r="G71" s="23"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="24"/>
-      <c r="V71" s="24"/>
-      <c r="W71" s="25"/>
-      <c r="X71" s="24"/>
-      <c r="Y71" s="24"/>
-      <c r="Z71" s="24"/>
-      <c r="AA71" s="24"/>
-      <c r="AB71" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC71" s="52"/>
-      <c r="AD71" s="52"/>
-      <c r="AE71" s="52"/>
-      <c r="AF71" s="52"/>
-      <c r="AG71" s="52"/>
-      <c r="AH71" s="53"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="27"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="76"/>
+      <c r="AC71" s="77"/>
+      <c r="AD71" s="77"/>
+      <c r="AE71" s="77"/>
+      <c r="AF71" s="77"/>
+      <c r="AG71" s="77"/>
+      <c r="AH71" s="78"/>
     </row>
     <row r="72" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="15"/>
@@ -7677,13 +7700,13 @@
       <c r="Y72" s="27"/>
       <c r="Z72" s="27"/>
       <c r="AA72" s="27"/>
-      <c r="AB72" s="54"/>
-      <c r="AC72" s="55"/>
-      <c r="AD72" s="55"/>
-      <c r="AE72" s="55"/>
-      <c r="AF72" s="55"/>
-      <c r="AG72" s="55"/>
-      <c r="AH72" s="56"/>
+      <c r="AB72" s="76"/>
+      <c r="AC72" s="77"/>
+      <c r="AD72" s="77"/>
+      <c r="AE72" s="77"/>
+      <c r="AF72" s="77"/>
+      <c r="AG72" s="77"/>
+      <c r="AH72" s="78"/>
     </row>
     <row r="73" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="15"/>
@@ -7709,13 +7732,13 @@
       <c r="Y73" s="27"/>
       <c r="Z73" s="27"/>
       <c r="AA73" s="27"/>
-      <c r="AB73" s="54"/>
-      <c r="AC73" s="55"/>
-      <c r="AD73" s="55"/>
-      <c r="AE73" s="55"/>
-      <c r="AF73" s="55"/>
-      <c r="AG73" s="55"/>
-      <c r="AH73" s="56"/>
+      <c r="AB73" s="76"/>
+      <c r="AC73" s="77"/>
+      <c r="AD73" s="77"/>
+      <c r="AE73" s="77"/>
+      <c r="AF73" s="77"/>
+      <c r="AG73" s="77"/>
+      <c r="AH73" s="78"/>
     </row>
     <row r="74" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="15"/>
@@ -7741,13 +7764,13 @@
       <c r="Y74" s="27"/>
       <c r="Z74" s="27"/>
       <c r="AA74" s="27"/>
-      <c r="AB74" s="54"/>
-      <c r="AC74" s="55"/>
-      <c r="AD74" s="55"/>
-      <c r="AE74" s="55"/>
-      <c r="AF74" s="55"/>
-      <c r="AG74" s="55"/>
-      <c r="AH74" s="56"/>
+      <c r="AB74" s="76"/>
+      <c r="AC74" s="77"/>
+      <c r="AD74" s="77"/>
+      <c r="AE74" s="77"/>
+      <c r="AF74" s="77"/>
+      <c r="AG74" s="77"/>
+      <c r="AH74" s="78"/>
     </row>
     <row r="75" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="15"/>
@@ -7773,13 +7796,13 @@
       <c r="Y75" s="27"/>
       <c r="Z75" s="27"/>
       <c r="AA75" s="27"/>
-      <c r="AB75" s="54"/>
-      <c r="AC75" s="55"/>
-      <c r="AD75" s="55"/>
-      <c r="AE75" s="55"/>
-      <c r="AF75" s="55"/>
-      <c r="AG75" s="55"/>
-      <c r="AH75" s="56"/>
+      <c r="AB75" s="76"/>
+      <c r="AC75" s="77"/>
+      <c r="AD75" s="77"/>
+      <c r="AE75" s="77"/>
+      <c r="AF75" s="77"/>
+      <c r="AG75" s="77"/>
+      <c r="AH75" s="78"/>
     </row>
     <row r="76" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="15"/>
@@ -7805,13 +7828,13 @@
       <c r="Y76" s="27"/>
       <c r="Z76" s="27"/>
       <c r="AA76" s="27"/>
-      <c r="AB76" s="54"/>
-      <c r="AC76" s="55"/>
-      <c r="AD76" s="55"/>
-      <c r="AE76" s="55"/>
-      <c r="AF76" s="55"/>
-      <c r="AG76" s="55"/>
-      <c r="AH76" s="56"/>
+      <c r="AB76" s="76"/>
+      <c r="AC76" s="77"/>
+      <c r="AD76" s="77"/>
+      <c r="AE76" s="77"/>
+      <c r="AF76" s="77"/>
+      <c r="AG76" s="77"/>
+      <c r="AH76" s="78"/>
     </row>
     <row r="77" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="15"/>
@@ -7837,13 +7860,13 @@
       <c r="Y77" s="27"/>
       <c r="Z77" s="27"/>
       <c r="AA77" s="27"/>
-      <c r="AB77" s="54"/>
-      <c r="AC77" s="55"/>
-      <c r="AD77" s="55"/>
-      <c r="AE77" s="55"/>
-      <c r="AF77" s="55"/>
-      <c r="AG77" s="55"/>
-      <c r="AH77" s="56"/>
+      <c r="AB77" s="76"/>
+      <c r="AC77" s="77"/>
+      <c r="AD77" s="77"/>
+      <c r="AE77" s="77"/>
+      <c r="AF77" s="77"/>
+      <c r="AG77" s="77"/>
+      <c r="AH77" s="78"/>
     </row>
     <row r="78" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="15"/>
@@ -7869,13 +7892,13 @@
       <c r="Y78" s="27"/>
       <c r="Z78" s="27"/>
       <c r="AA78" s="27"/>
-      <c r="AB78" s="54"/>
-      <c r="AC78" s="55"/>
-      <c r="AD78" s="55"/>
-      <c r="AE78" s="55"/>
-      <c r="AF78" s="55"/>
-      <c r="AG78" s="55"/>
-      <c r="AH78" s="56"/>
+      <c r="AB78" s="76"/>
+      <c r="AC78" s="77"/>
+      <c r="AD78" s="77"/>
+      <c r="AE78" s="77"/>
+      <c r="AF78" s="77"/>
+      <c r="AG78" s="77"/>
+      <c r="AH78" s="78"/>
     </row>
     <row r="79" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="15"/>
@@ -7901,13 +7924,13 @@
       <c r="Y79" s="27"/>
       <c r="Z79" s="27"/>
       <c r="AA79" s="27"/>
-      <c r="AB79" s="54"/>
-      <c r="AC79" s="55"/>
-      <c r="AD79" s="55"/>
-      <c r="AE79" s="55"/>
-      <c r="AF79" s="55"/>
-      <c r="AG79" s="55"/>
-      <c r="AH79" s="56"/>
+      <c r="AB79" s="76"/>
+      <c r="AC79" s="77"/>
+      <c r="AD79" s="77"/>
+      <c r="AE79" s="77"/>
+      <c r="AF79" s="77"/>
+      <c r="AG79" s="77"/>
+      <c r="AH79" s="78"/>
     </row>
     <row r="80" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="15"/>
@@ -7933,13 +7956,13 @@
       <c r="Y80" s="27"/>
       <c r="Z80" s="27"/>
       <c r="AA80" s="27"/>
-      <c r="AB80" s="54"/>
-      <c r="AC80" s="55"/>
-      <c r="AD80" s="55"/>
-      <c r="AE80" s="55"/>
-      <c r="AF80" s="55"/>
-      <c r="AG80" s="55"/>
-      <c r="AH80" s="56"/>
+      <c r="AB80" s="76"/>
+      <c r="AC80" s="77"/>
+      <c r="AD80" s="77"/>
+      <c r="AE80" s="77"/>
+      <c r="AF80" s="77"/>
+      <c r="AG80" s="77"/>
+      <c r="AH80" s="78"/>
     </row>
     <row r="81" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E81" s="15"/>
@@ -7965,113 +7988,113 @@
       <c r="Y81" s="27"/>
       <c r="Z81" s="27"/>
       <c r="AA81" s="27"/>
-      <c r="AB81" s="54"/>
-      <c r="AC81" s="55"/>
-      <c r="AD81" s="55"/>
-      <c r="AE81" s="55"/>
-      <c r="AF81" s="55"/>
-      <c r="AG81" s="55"/>
-      <c r="AH81" s="56"/>
+      <c r="AB81" s="76"/>
+      <c r="AC81" s="77"/>
+      <c r="AD81" s="77"/>
+      <c r="AE81" s="77"/>
+      <c r="AF81" s="77"/>
+      <c r="AG81" s="77"/>
+      <c r="AH81" s="78"/>
     </row>
     <row r="82" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="15"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
-      <c r="T82" s="26"/>
-      <c r="U82" s="27"/>
-      <c r="V82" s="27"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-      <c r="Z82" s="27"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="54"/>
-      <c r="AC82" s="55"/>
-      <c r="AD82" s="55"/>
-      <c r="AE82" s="55"/>
-      <c r="AF82" s="55"/>
-      <c r="AG82" s="55"/>
-      <c r="AH82" s="56"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="30"/>
+      <c r="R82" s="30"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="29"/>
+      <c r="U82" s="30"/>
+      <c r="V82" s="30"/>
+      <c r="W82" s="31"/>
+      <c r="X82" s="30"/>
+      <c r="Y82" s="30"/>
+      <c r="Z82" s="30"/>
+      <c r="AA82" s="30"/>
+      <c r="AB82" s="79"/>
+      <c r="AC82" s="80"/>
+      <c r="AD82" s="80"/>
+      <c r="AE82" s="80"/>
+      <c r="AF82" s="80"/>
+      <c r="AG82" s="80"/>
+      <c r="AH82" s="81"/>
     </row>
     <row r="83" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="15"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="31"/>
-      <c r="Q83" s="30"/>
-      <c r="R83" s="30"/>
-      <c r="S83" s="30"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="30"/>
-      <c r="V83" s="30"/>
-      <c r="W83" s="31"/>
-      <c r="X83" s="30"/>
-      <c r="Y83" s="30"/>
-      <c r="Z83" s="30"/>
-      <c r="AA83" s="30"/>
-      <c r="AB83" s="57"/>
-      <c r="AC83" s="58"/>
-      <c r="AD83" s="58"/>
-      <c r="AE83" s="58"/>
-      <c r="AF83" s="58"/>
-      <c r="AG83" s="58"/>
-      <c r="AH83" s="59"/>
+      <c r="F83" s="23">
+        <v>4</v>
+      </c>
+      <c r="G83" s="23"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="24"/>
+      <c r="T83" s="23"/>
+      <c r="U83" s="24"/>
+      <c r="V83" s="24"/>
+      <c r="W83" s="25"/>
+      <c r="X83" s="24"/>
+      <c r="Y83" s="24"/>
+      <c r="Z83" s="24"/>
+      <c r="AA83" s="24"/>
+      <c r="AB83" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC83" s="82"/>
+      <c r="AD83" s="82"/>
+      <c r="AE83" s="82"/>
+      <c r="AF83" s="82"/>
+      <c r="AG83" s="82"/>
+      <c r="AH83" s="83"/>
     </row>
     <row r="84" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="15"/>
-      <c r="F84" s="23">
-        <v>4</v>
-      </c>
-      <c r="G84" s="23"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="24"/>
-      <c r="V84" s="24"/>
-      <c r="W84" s="25"/>
-      <c r="X84" s="24"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="24"/>
-      <c r="AA84" s="24"/>
-      <c r="AB84" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC84" s="63"/>
-      <c r="AD84" s="63"/>
-      <c r="AE84" s="63"/>
-      <c r="AF84" s="63"/>
-      <c r="AG84" s="63"/>
-      <c r="AH84" s="64"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="26"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="28"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="84"/>
+      <c r="AC84" s="85"/>
+      <c r="AD84" s="85"/>
+      <c r="AE84" s="85"/>
+      <c r="AF84" s="85"/>
+      <c r="AG84" s="85"/>
+      <c r="AH84" s="86"/>
     </row>
     <row r="85" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85" s="15"/>
@@ -8097,13 +8120,13 @@
       <c r="Y85" s="27"/>
       <c r="Z85" s="27"/>
       <c r="AA85" s="27"/>
-      <c r="AB85" s="65"/>
-      <c r="AC85" s="66"/>
-      <c r="AD85" s="66"/>
-      <c r="AE85" s="66"/>
-      <c r="AF85" s="66"/>
-      <c r="AG85" s="66"/>
-      <c r="AH85" s="67"/>
+      <c r="AB85" s="84"/>
+      <c r="AC85" s="85"/>
+      <c r="AD85" s="85"/>
+      <c r="AE85" s="85"/>
+      <c r="AF85" s="85"/>
+      <c r="AG85" s="85"/>
+      <c r="AH85" s="86"/>
     </row>
     <row r="86" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="15"/>
@@ -8129,13 +8152,13 @@
       <c r="Y86" s="27"/>
       <c r="Z86" s="27"/>
       <c r="AA86" s="27"/>
-      <c r="AB86" s="65"/>
-      <c r="AC86" s="66"/>
-      <c r="AD86" s="66"/>
-      <c r="AE86" s="66"/>
-      <c r="AF86" s="66"/>
-      <c r="AG86" s="66"/>
-      <c r="AH86" s="67"/>
+      <c r="AB86" s="84"/>
+      <c r="AC86" s="85"/>
+      <c r="AD86" s="85"/>
+      <c r="AE86" s="85"/>
+      <c r="AF86" s="85"/>
+      <c r="AG86" s="85"/>
+      <c r="AH86" s="86"/>
     </row>
     <row r="87" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87" s="15"/>
@@ -8161,13 +8184,13 @@
       <c r="Y87" s="27"/>
       <c r="Z87" s="27"/>
       <c r="AA87" s="27"/>
-      <c r="AB87" s="65"/>
-      <c r="AC87" s="66"/>
-      <c r="AD87" s="66"/>
-      <c r="AE87" s="66"/>
-      <c r="AF87" s="66"/>
-      <c r="AG87" s="66"/>
-      <c r="AH87" s="67"/>
+      <c r="AB87" s="84"/>
+      <c r="AC87" s="85"/>
+      <c r="AD87" s="85"/>
+      <c r="AE87" s="85"/>
+      <c r="AF87" s="85"/>
+      <c r="AG87" s="85"/>
+      <c r="AH87" s="86"/>
     </row>
     <row r="88" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="15"/>
@@ -8193,13 +8216,13 @@
       <c r="Y88" s="27"/>
       <c r="Z88" s="27"/>
       <c r="AA88" s="27"/>
-      <c r="AB88" s="65"/>
-      <c r="AC88" s="66"/>
-      <c r="AD88" s="66"/>
-      <c r="AE88" s="66"/>
-      <c r="AF88" s="66"/>
-      <c r="AG88" s="66"/>
-      <c r="AH88" s="67"/>
+      <c r="AB88" s="84"/>
+      <c r="AC88" s="85"/>
+      <c r="AD88" s="85"/>
+      <c r="AE88" s="85"/>
+      <c r="AF88" s="85"/>
+      <c r="AG88" s="85"/>
+      <c r="AH88" s="86"/>
     </row>
     <row r="89" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="15"/>
@@ -8225,13 +8248,13 @@
       <c r="Y89" s="27"/>
       <c r="Z89" s="27"/>
       <c r="AA89" s="27"/>
-      <c r="AB89" s="65"/>
-      <c r="AC89" s="66"/>
-      <c r="AD89" s="66"/>
-      <c r="AE89" s="66"/>
-      <c r="AF89" s="66"/>
-      <c r="AG89" s="66"/>
-      <c r="AH89" s="67"/>
+      <c r="AB89" s="84"/>
+      <c r="AC89" s="85"/>
+      <c r="AD89" s="85"/>
+      <c r="AE89" s="85"/>
+      <c r="AF89" s="85"/>
+      <c r="AG89" s="85"/>
+      <c r="AH89" s="86"/>
     </row>
     <row r="90" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E90" s="15"/>
@@ -8257,13 +8280,13 @@
       <c r="Y90" s="27"/>
       <c r="Z90" s="27"/>
       <c r="AA90" s="27"/>
-      <c r="AB90" s="65"/>
-      <c r="AC90" s="66"/>
-      <c r="AD90" s="66"/>
-      <c r="AE90" s="66"/>
-      <c r="AF90" s="66"/>
-      <c r="AG90" s="66"/>
-      <c r="AH90" s="67"/>
+      <c r="AB90" s="84"/>
+      <c r="AC90" s="85"/>
+      <c r="AD90" s="85"/>
+      <c r="AE90" s="85"/>
+      <c r="AF90" s="85"/>
+      <c r="AG90" s="85"/>
+      <c r="AH90" s="86"/>
     </row>
     <row r="91" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E91" s="15"/>
@@ -8289,113 +8312,113 @@
       <c r="Y91" s="27"/>
       <c r="Z91" s="27"/>
       <c r="AA91" s="27"/>
-      <c r="AB91" s="65"/>
-      <c r="AC91" s="66"/>
-      <c r="AD91" s="66"/>
-      <c r="AE91" s="66"/>
-      <c r="AF91" s="66"/>
-      <c r="AG91" s="66"/>
-      <c r="AH91" s="67"/>
+      <c r="AB91" s="84"/>
+      <c r="AC91" s="85"/>
+      <c r="AD91" s="85"/>
+      <c r="AE91" s="85"/>
+      <c r="AF91" s="85"/>
+      <c r="AG91" s="85"/>
+      <c r="AH91" s="86"/>
     </row>
     <row r="92" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="15"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="27"/>
-      <c r="P92" s="28"/>
-      <c r="Q92" s="27"/>
-      <c r="R92" s="27"/>
-      <c r="S92" s="27"/>
-      <c r="T92" s="26"/>
-      <c r="U92" s="27"/>
-      <c r="V92" s="27"/>
-      <c r="W92" s="28"/>
-      <c r="X92" s="27"/>
-      <c r="Y92" s="27"/>
-      <c r="Z92" s="27"/>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="65"/>
-      <c r="AC92" s="66"/>
-      <c r="AD92" s="66"/>
-      <c r="AE92" s="66"/>
-      <c r="AF92" s="66"/>
-      <c r="AG92" s="66"/>
-      <c r="AH92" s="67"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="30"/>
+      <c r="R92" s="30"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="30"/>
+      <c r="V92" s="30"/>
+      <c r="W92" s="31"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="30"/>
+      <c r="AA92" s="30"/>
+      <c r="AB92" s="87"/>
+      <c r="AC92" s="88"/>
+      <c r="AD92" s="88"/>
+      <c r="AE92" s="88"/>
+      <c r="AF92" s="88"/>
+      <c r="AG92" s="88"/>
+      <c r="AH92" s="89"/>
     </row>
     <row r="93" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E93" s="15"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="30"/>
-      <c r="N93" s="29"/>
-      <c r="O93" s="30"/>
-      <c r="P93" s="31"/>
-      <c r="Q93" s="30"/>
-      <c r="R93" s="30"/>
-      <c r="S93" s="30"/>
-      <c r="T93" s="29"/>
-      <c r="U93" s="30"/>
-      <c r="V93" s="30"/>
-      <c r="W93" s="31"/>
-      <c r="X93" s="30"/>
-      <c r="Y93" s="30"/>
-      <c r="Z93" s="30"/>
-      <c r="AA93" s="30"/>
-      <c r="AB93" s="68"/>
-      <c r="AC93" s="69"/>
-      <c r="AD93" s="69"/>
-      <c r="AE93" s="69"/>
-      <c r="AF93" s="69"/>
-      <c r="AG93" s="69"/>
-      <c r="AH93" s="70"/>
+      <c r="F93" s="23">
+        <v>5</v>
+      </c>
+      <c r="G93" s="23"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="24"/>
+      <c r="T93" s="23"/>
+      <c r="U93" s="24"/>
+      <c r="V93" s="24"/>
+      <c r="W93" s="25"/>
+      <c r="X93" s="24"/>
+      <c r="Y93" s="24"/>
+      <c r="Z93" s="24"/>
+      <c r="AA93" s="24"/>
+      <c r="AB93" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC93" s="74"/>
+      <c r="AD93" s="74"/>
+      <c r="AE93" s="74"/>
+      <c r="AF93" s="74"/>
+      <c r="AG93" s="74"/>
+      <c r="AH93" s="75"/>
     </row>
     <row r="94" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E94" s="15"/>
-      <c r="F94" s="23">
-        <v>5</v>
-      </c>
-      <c r="G94" s="23"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="23"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="25"/>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="24"/>
-      <c r="S94" s="24"/>
-      <c r="T94" s="23"/>
-      <c r="U94" s="24"/>
-      <c r="V94" s="24"/>
-      <c r="W94" s="25"/>
-      <c r="X94" s="24"/>
-      <c r="Y94" s="24"/>
-      <c r="Z94" s="24"/>
-      <c r="AA94" s="24"/>
-      <c r="AB94" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC94" s="52"/>
-      <c r="AD94" s="52"/>
-      <c r="AE94" s="52"/>
-      <c r="AF94" s="52"/>
-      <c r="AG94" s="52"/>
-      <c r="AH94" s="53"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="27"/>
+      <c r="M94" s="27"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="27"/>
+      <c r="S94" s="27"/>
+      <c r="T94" s="26"/>
+      <c r="U94" s="27"/>
+      <c r="V94" s="27"/>
+      <c r="W94" s="28"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="76"/>
+      <c r="AC94" s="77"/>
+      <c r="AD94" s="77"/>
+      <c r="AE94" s="77"/>
+      <c r="AF94" s="77"/>
+      <c r="AG94" s="77"/>
+      <c r="AH94" s="78"/>
     </row>
     <row r="95" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="15"/>
@@ -8421,13 +8444,13 @@
       <c r="Y95" s="27"/>
       <c r="Z95" s="27"/>
       <c r="AA95" s="27"/>
-      <c r="AB95" s="54"/>
-      <c r="AC95" s="55"/>
-      <c r="AD95" s="55"/>
-      <c r="AE95" s="55"/>
-      <c r="AF95" s="55"/>
-      <c r="AG95" s="55"/>
-      <c r="AH95" s="56"/>
+      <c r="AB95" s="76"/>
+      <c r="AC95" s="77"/>
+      <c r="AD95" s="77"/>
+      <c r="AE95" s="77"/>
+      <c r="AF95" s="77"/>
+      <c r="AG95" s="77"/>
+      <c r="AH95" s="78"/>
     </row>
     <row r="96" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E96" s="15"/>
@@ -8453,13 +8476,13 @@
       <c r="Y96" s="27"/>
       <c r="Z96" s="27"/>
       <c r="AA96" s="27"/>
-      <c r="AB96" s="54"/>
-      <c r="AC96" s="55"/>
-      <c r="AD96" s="55"/>
-      <c r="AE96" s="55"/>
-      <c r="AF96" s="55"/>
-      <c r="AG96" s="55"/>
-      <c r="AH96" s="56"/>
+      <c r="AB96" s="76"/>
+      <c r="AC96" s="77"/>
+      <c r="AD96" s="77"/>
+      <c r="AE96" s="77"/>
+      <c r="AF96" s="77"/>
+      <c r="AG96" s="77"/>
+      <c r="AH96" s="78"/>
     </row>
     <row r="97" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E97" s="15"/>
@@ -8485,13 +8508,13 @@
       <c r="Y97" s="27"/>
       <c r="Z97" s="27"/>
       <c r="AA97" s="27"/>
-      <c r="AB97" s="54"/>
-      <c r="AC97" s="55"/>
-      <c r="AD97" s="55"/>
-      <c r="AE97" s="55"/>
-      <c r="AF97" s="55"/>
-      <c r="AG97" s="55"/>
-      <c r="AH97" s="56"/>
+      <c r="AB97" s="76"/>
+      <c r="AC97" s="77"/>
+      <c r="AD97" s="77"/>
+      <c r="AE97" s="77"/>
+      <c r="AF97" s="77"/>
+      <c r="AG97" s="77"/>
+      <c r="AH97" s="78"/>
     </row>
     <row r="98" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E98" s="15"/>
@@ -8517,13 +8540,13 @@
       <c r="Y98" s="27"/>
       <c r="Z98" s="27"/>
       <c r="AA98" s="27"/>
-      <c r="AB98" s="54"/>
-      <c r="AC98" s="55"/>
-      <c r="AD98" s="55"/>
-      <c r="AE98" s="55"/>
-      <c r="AF98" s="55"/>
-      <c r="AG98" s="55"/>
-      <c r="AH98" s="56"/>
+      <c r="AB98" s="76"/>
+      <c r="AC98" s="77"/>
+      <c r="AD98" s="77"/>
+      <c r="AE98" s="77"/>
+      <c r="AF98" s="77"/>
+      <c r="AG98" s="77"/>
+      <c r="AH98" s="78"/>
     </row>
     <row r="99" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E99" s="15"/>
@@ -8549,13 +8572,13 @@
       <c r="Y99" s="27"/>
       <c r="Z99" s="27"/>
       <c r="AA99" s="27"/>
-      <c r="AB99" s="54"/>
-      <c r="AC99" s="55"/>
-      <c r="AD99" s="55"/>
-      <c r="AE99" s="55"/>
-      <c r="AF99" s="55"/>
-      <c r="AG99" s="55"/>
-      <c r="AH99" s="56"/>
+      <c r="AB99" s="76"/>
+      <c r="AC99" s="77"/>
+      <c r="AD99" s="77"/>
+      <c r="AE99" s="77"/>
+      <c r="AF99" s="77"/>
+      <c r="AG99" s="77"/>
+      <c r="AH99" s="78"/>
     </row>
     <row r="100" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E100" s="15"/>
@@ -8581,13 +8604,13 @@
       <c r="Y100" s="27"/>
       <c r="Z100" s="27"/>
       <c r="AA100" s="27"/>
-      <c r="AB100" s="54"/>
-      <c r="AC100" s="55"/>
-      <c r="AD100" s="55"/>
-      <c r="AE100" s="55"/>
-      <c r="AF100" s="55"/>
-      <c r="AG100" s="55"/>
-      <c r="AH100" s="56"/>
+      <c r="AB100" s="76"/>
+      <c r="AC100" s="77"/>
+      <c r="AD100" s="77"/>
+      <c r="AE100" s="77"/>
+      <c r="AF100" s="77"/>
+      <c r="AG100" s="77"/>
+      <c r="AH100" s="78"/>
     </row>
     <row r="101" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="15"/>
@@ -8613,13 +8636,13 @@
       <c r="Y101" s="27"/>
       <c r="Z101" s="27"/>
       <c r="AA101" s="27"/>
-      <c r="AB101" s="54"/>
-      <c r="AC101" s="55"/>
-      <c r="AD101" s="55"/>
-      <c r="AE101" s="55"/>
-      <c r="AF101" s="55"/>
-      <c r="AG101" s="55"/>
-      <c r="AH101" s="56"/>
+      <c r="AB101" s="76"/>
+      <c r="AC101" s="77"/>
+      <c r="AD101" s="77"/>
+      <c r="AE101" s="77"/>
+      <c r="AF101" s="77"/>
+      <c r="AG101" s="77"/>
+      <c r="AH101" s="78"/>
     </row>
     <row r="102" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E102" s="15"/>
@@ -8645,13 +8668,13 @@
       <c r="Y102" s="27"/>
       <c r="Z102" s="27"/>
       <c r="AA102" s="27"/>
-      <c r="AB102" s="54"/>
-      <c r="AC102" s="55"/>
-      <c r="AD102" s="55"/>
-      <c r="AE102" s="55"/>
-      <c r="AF102" s="55"/>
-      <c r="AG102" s="55"/>
-      <c r="AH102" s="56"/>
+      <c r="AB102" s="76"/>
+      <c r="AC102" s="77"/>
+      <c r="AD102" s="77"/>
+      <c r="AE102" s="77"/>
+      <c r="AF102" s="77"/>
+      <c r="AG102" s="77"/>
+      <c r="AH102" s="78"/>
     </row>
     <row r="103" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E103" s="15"/>
@@ -8677,13 +8700,13 @@
       <c r="Y103" s="27"/>
       <c r="Z103" s="27"/>
       <c r="AA103" s="27"/>
-      <c r="AB103" s="54"/>
-      <c r="AC103" s="55"/>
-      <c r="AD103" s="55"/>
-      <c r="AE103" s="55"/>
-      <c r="AF103" s="55"/>
-      <c r="AG103" s="55"/>
-      <c r="AH103" s="56"/>
+      <c r="AB103" s="76"/>
+      <c r="AC103" s="77"/>
+      <c r="AD103" s="77"/>
+      <c r="AE103" s="77"/>
+      <c r="AF103" s="77"/>
+      <c r="AG103" s="77"/>
+      <c r="AH103" s="78"/>
     </row>
     <row r="104" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="15"/>
@@ -8709,13 +8732,13 @@
       <c r="Y104" s="27"/>
       <c r="Z104" s="27"/>
       <c r="AA104" s="27"/>
-      <c r="AB104" s="54"/>
-      <c r="AC104" s="55"/>
-      <c r="AD104" s="55"/>
-      <c r="AE104" s="55"/>
-      <c r="AF104" s="55"/>
-      <c r="AG104" s="55"/>
-      <c r="AH104" s="56"/>
+      <c r="AB104" s="76"/>
+      <c r="AC104" s="77"/>
+      <c r="AD104" s="77"/>
+      <c r="AE104" s="77"/>
+      <c r="AF104" s="77"/>
+      <c r="AG104" s="77"/>
+      <c r="AH104" s="78"/>
     </row>
     <row r="105" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E105" s="15"/>
@@ -8741,81 +8764,81 @@
       <c r="Y105" s="27"/>
       <c r="Z105" s="27"/>
       <c r="AA105" s="27"/>
-      <c r="AB105" s="54"/>
-      <c r="AC105" s="55"/>
-      <c r="AD105" s="55"/>
-      <c r="AE105" s="55"/>
-      <c r="AF105" s="55"/>
-      <c r="AG105" s="55"/>
-      <c r="AH105" s="56"/>
+      <c r="AB105" s="76"/>
+      <c r="AC105" s="77"/>
+      <c r="AD105" s="77"/>
+      <c r="AE105" s="77"/>
+      <c r="AF105" s="77"/>
+      <c r="AG105" s="77"/>
+      <c r="AH105" s="78"/>
     </row>
     <row r="106" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E106" s="15"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="27"/>
-      <c r="N106" s="26"/>
-      <c r="O106" s="27"/>
-      <c r="P106" s="28"/>
-      <c r="Q106" s="27"/>
-      <c r="R106" s="27"/>
-      <c r="S106" s="27"/>
-      <c r="T106" s="26"/>
-      <c r="U106" s="27"/>
-      <c r="V106" s="27"/>
-      <c r="W106" s="28"/>
-      <c r="X106" s="27"/>
-      <c r="Y106" s="27"/>
-      <c r="Z106" s="27"/>
-      <c r="AA106" s="27"/>
-      <c r="AB106" s="54"/>
-      <c r="AC106" s="55"/>
-      <c r="AD106" s="55"/>
-      <c r="AE106" s="55"/>
-      <c r="AF106" s="55"/>
-      <c r="AG106" s="55"/>
-      <c r="AH106" s="56"/>
+      <c r="F106" s="23">
+        <v>6</v>
+      </c>
+      <c r="G106" s="23"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="23"/>
+      <c r="O106" s="24"/>
+      <c r="P106" s="25"/>
+      <c r="Q106" s="24"/>
+      <c r="R106" s="24"/>
+      <c r="S106" s="24"/>
+      <c r="T106" s="23"/>
+      <c r="U106" s="24"/>
+      <c r="V106" s="24"/>
+      <c r="W106" s="25"/>
+      <c r="X106" s="24"/>
+      <c r="Y106" s="24"/>
+      <c r="Z106" s="24"/>
+      <c r="AA106" s="24"/>
+      <c r="AB106" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC106" s="74"/>
+      <c r="AD106" s="74"/>
+      <c r="AE106" s="74"/>
+      <c r="AF106" s="74"/>
+      <c r="AG106" s="74"/>
+      <c r="AH106" s="75"/>
     </row>
     <row r="107" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E107" s="15"/>
-      <c r="F107" s="23">
-        <v>6</v>
-      </c>
-      <c r="G107" s="23"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="23"/>
-      <c r="O107" s="24"/>
-      <c r="P107" s="25"/>
-      <c r="Q107" s="24"/>
-      <c r="R107" s="24"/>
-      <c r="S107" s="24"/>
-      <c r="T107" s="23"/>
-      <c r="U107" s="24"/>
-      <c r="V107" s="24"/>
-      <c r="W107" s="25"/>
-      <c r="X107" s="24"/>
-      <c r="Y107" s="24"/>
-      <c r="Z107" s="24"/>
-      <c r="AA107" s="24"/>
-      <c r="AB107" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC107" s="52"/>
-      <c r="AD107" s="52"/>
-      <c r="AE107" s="52"/>
-      <c r="AF107" s="52"/>
-      <c r="AG107" s="52"/>
-      <c r="AH107" s="53"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="27"/>
+      <c r="R107" s="27"/>
+      <c r="S107" s="27"/>
+      <c r="T107" s="26"/>
+      <c r="U107" s="27"/>
+      <c r="V107" s="27"/>
+      <c r="W107" s="28"/>
+      <c r="X107" s="27"/>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="76"/>
+      <c r="AC107" s="77"/>
+      <c r="AD107" s="77"/>
+      <c r="AE107" s="77"/>
+      <c r="AF107" s="77"/>
+      <c r="AG107" s="77"/>
+      <c r="AH107" s="78"/>
     </row>
     <row r="108" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E108" s="15"/>
@@ -8841,13 +8864,13 @@
       <c r="Y108" s="27"/>
       <c r="Z108" s="27"/>
       <c r="AA108" s="27"/>
-      <c r="AB108" s="54"/>
-      <c r="AC108" s="55"/>
-      <c r="AD108" s="55"/>
-      <c r="AE108" s="55"/>
-      <c r="AF108" s="55"/>
-      <c r="AG108" s="55"/>
-      <c r="AH108" s="56"/>
+      <c r="AB108" s="76"/>
+      <c r="AC108" s="77"/>
+      <c r="AD108" s="77"/>
+      <c r="AE108" s="77"/>
+      <c r="AF108" s="77"/>
+      <c r="AG108" s="77"/>
+      <c r="AH108" s="78"/>
     </row>
     <row r="109" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E109" s="15"/>
@@ -8873,13 +8896,13 @@
       <c r="Y109" s="27"/>
       <c r="Z109" s="27"/>
       <c r="AA109" s="27"/>
-      <c r="AB109" s="54"/>
-      <c r="AC109" s="55"/>
-      <c r="AD109" s="55"/>
-      <c r="AE109" s="55"/>
-      <c r="AF109" s="55"/>
-      <c r="AG109" s="55"/>
-      <c r="AH109" s="56"/>
+      <c r="AB109" s="76"/>
+      <c r="AC109" s="77"/>
+      <c r="AD109" s="77"/>
+      <c r="AE109" s="77"/>
+      <c r="AF109" s="77"/>
+      <c r="AG109" s="77"/>
+      <c r="AH109" s="78"/>
     </row>
     <row r="110" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E110" s="15"/>
@@ -8905,13 +8928,13 @@
       <c r="Y110" s="27"/>
       <c r="Z110" s="27"/>
       <c r="AA110" s="27"/>
-      <c r="AB110" s="54"/>
-      <c r="AC110" s="55"/>
-      <c r="AD110" s="55"/>
-      <c r="AE110" s="55"/>
-      <c r="AF110" s="55"/>
-      <c r="AG110" s="55"/>
-      <c r="AH110" s="56"/>
+      <c r="AB110" s="76"/>
+      <c r="AC110" s="77"/>
+      <c r="AD110" s="77"/>
+      <c r="AE110" s="77"/>
+      <c r="AF110" s="77"/>
+      <c r="AG110" s="77"/>
+      <c r="AH110" s="78"/>
     </row>
     <row r="111" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E111" s="15"/>
@@ -8937,13 +8960,13 @@
       <c r="Y111" s="27"/>
       <c r="Z111" s="27"/>
       <c r="AA111" s="27"/>
-      <c r="AB111" s="54"/>
-      <c r="AC111" s="55"/>
-      <c r="AD111" s="55"/>
-      <c r="AE111" s="55"/>
-      <c r="AF111" s="55"/>
-      <c r="AG111" s="55"/>
-      <c r="AH111" s="56"/>
+      <c r="AB111" s="76"/>
+      <c r="AC111" s="77"/>
+      <c r="AD111" s="77"/>
+      <c r="AE111" s="77"/>
+      <c r="AF111" s="77"/>
+      <c r="AG111" s="77"/>
+      <c r="AH111" s="78"/>
     </row>
     <row r="112" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E112" s="15"/>
@@ -8969,13 +8992,13 @@
       <c r="Y112" s="27"/>
       <c r="Z112" s="27"/>
       <c r="AA112" s="27"/>
-      <c r="AB112" s="54"/>
-      <c r="AC112" s="55"/>
-      <c r="AD112" s="55"/>
-      <c r="AE112" s="55"/>
-      <c r="AF112" s="55"/>
-      <c r="AG112" s="55"/>
-      <c r="AH112" s="56"/>
+      <c r="AB112" s="76"/>
+      <c r="AC112" s="77"/>
+      <c r="AD112" s="77"/>
+      <c r="AE112" s="77"/>
+      <c r="AF112" s="77"/>
+      <c r="AG112" s="77"/>
+      <c r="AH112" s="78"/>
     </row>
     <row r="113" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E113" s="15"/>
@@ -9001,13 +9024,13 @@
       <c r="Y113" s="27"/>
       <c r="Z113" s="27"/>
       <c r="AA113" s="27"/>
-      <c r="AB113" s="54"/>
-      <c r="AC113" s="55"/>
-      <c r="AD113" s="55"/>
-      <c r="AE113" s="55"/>
-      <c r="AF113" s="55"/>
-      <c r="AG113" s="55"/>
-      <c r="AH113" s="56"/>
+      <c r="AB113" s="76"/>
+      <c r="AC113" s="77"/>
+      <c r="AD113" s="77"/>
+      <c r="AE113" s="77"/>
+      <c r="AF113" s="77"/>
+      <c r="AG113" s="77"/>
+      <c r="AH113" s="78"/>
     </row>
     <row r="114" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E114" s="15"/>
@@ -9033,13 +9056,13 @@
       <c r="Y114" s="27"/>
       <c r="Z114" s="27"/>
       <c r="AA114" s="27"/>
-      <c r="AB114" s="54"/>
-      <c r="AC114" s="55"/>
-      <c r="AD114" s="55"/>
-      <c r="AE114" s="55"/>
-      <c r="AF114" s="55"/>
-      <c r="AG114" s="55"/>
-      <c r="AH114" s="56"/>
+      <c r="AB114" s="76"/>
+      <c r="AC114" s="77"/>
+      <c r="AD114" s="77"/>
+      <c r="AE114" s="77"/>
+      <c r="AF114" s="77"/>
+      <c r="AG114" s="77"/>
+      <c r="AH114" s="78"/>
     </row>
     <row r="115" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E115" s="15"/>
@@ -9065,13 +9088,13 @@
       <c r="Y115" s="27"/>
       <c r="Z115" s="27"/>
       <c r="AA115" s="27"/>
-      <c r="AB115" s="54"/>
-      <c r="AC115" s="55"/>
-      <c r="AD115" s="55"/>
-      <c r="AE115" s="55"/>
-      <c r="AF115" s="55"/>
-      <c r="AG115" s="55"/>
-      <c r="AH115" s="56"/>
+      <c r="AB115" s="76"/>
+      <c r="AC115" s="77"/>
+      <c r="AD115" s="77"/>
+      <c r="AE115" s="77"/>
+      <c r="AF115" s="77"/>
+      <c r="AG115" s="77"/>
+      <c r="AH115" s="78"/>
     </row>
     <row r="116" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E116" s="15"/>
@@ -9097,113 +9120,113 @@
       <c r="Y116" s="27"/>
       <c r="Z116" s="27"/>
       <c r="AA116" s="27"/>
-      <c r="AB116" s="54"/>
-      <c r="AC116" s="55"/>
-      <c r="AD116" s="55"/>
-      <c r="AE116" s="55"/>
-      <c r="AF116" s="55"/>
-      <c r="AG116" s="55"/>
-      <c r="AH116" s="56"/>
+      <c r="AB116" s="76"/>
+      <c r="AC116" s="77"/>
+      <c r="AD116" s="77"/>
+      <c r="AE116" s="77"/>
+      <c r="AF116" s="77"/>
+      <c r="AG116" s="77"/>
+      <c r="AH116" s="78"/>
     </row>
     <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E117" s="15"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="28"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="27"/>
-      <c r="P117" s="28"/>
-      <c r="Q117" s="27"/>
-      <c r="R117" s="27"/>
-      <c r="S117" s="27"/>
-      <c r="T117" s="26"/>
-      <c r="U117" s="27"/>
-      <c r="V117" s="27"/>
-      <c r="W117" s="28"/>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="27"/>
-      <c r="Z117" s="27"/>
-      <c r="AA117" s="27"/>
-      <c r="AB117" s="54"/>
-      <c r="AC117" s="55"/>
-      <c r="AD117" s="55"/>
-      <c r="AE117" s="55"/>
-      <c r="AF117" s="55"/>
-      <c r="AG117" s="55"/>
-      <c r="AH117" s="56"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="31"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="30"/>
+      <c r="M117" s="30"/>
+      <c r="N117" s="29"/>
+      <c r="O117" s="30"/>
+      <c r="P117" s="31"/>
+      <c r="Q117" s="30"/>
+      <c r="R117" s="30"/>
+      <c r="S117" s="30"/>
+      <c r="T117" s="29"/>
+      <c r="U117" s="30"/>
+      <c r="V117" s="30"/>
+      <c r="W117" s="31"/>
+      <c r="X117" s="30"/>
+      <c r="Y117" s="30"/>
+      <c r="Z117" s="30"/>
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="79"/>
+      <c r="AC117" s="80"/>
+      <c r="AD117" s="80"/>
+      <c r="AE117" s="80"/>
+      <c r="AF117" s="80"/>
+      <c r="AG117" s="80"/>
+      <c r="AH117" s="81"/>
     </row>
     <row r="118" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E118" s="15"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="30"/>
-      <c r="I118" s="30"/>
-      <c r="J118" s="31"/>
-      <c r="K118" s="30"/>
-      <c r="L118" s="30"/>
-      <c r="M118" s="30"/>
-      <c r="N118" s="29"/>
-      <c r="O118" s="30"/>
-      <c r="P118" s="31"/>
-      <c r="Q118" s="30"/>
-      <c r="R118" s="30"/>
-      <c r="S118" s="30"/>
-      <c r="T118" s="29"/>
-      <c r="U118" s="30"/>
-      <c r="V118" s="30"/>
-      <c r="W118" s="31"/>
-      <c r="X118" s="30"/>
-      <c r="Y118" s="30"/>
-      <c r="Z118" s="30"/>
-      <c r="AA118" s="30"/>
-      <c r="AB118" s="57"/>
-      <c r="AC118" s="58"/>
-      <c r="AD118" s="58"/>
-      <c r="AE118" s="58"/>
-      <c r="AF118" s="58"/>
-      <c r="AG118" s="58"/>
-      <c r="AH118" s="59"/>
+      <c r="F118" s="23">
+        <v>7</v>
+      </c>
+      <c r="G118" s="23"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="23"/>
+      <c r="O118" s="24"/>
+      <c r="P118" s="25"/>
+      <c r="Q118" s="24"/>
+      <c r="R118" s="24"/>
+      <c r="S118" s="24"/>
+      <c r="T118" s="23"/>
+      <c r="U118" s="24"/>
+      <c r="V118" s="24"/>
+      <c r="W118" s="25"/>
+      <c r="X118" s="24"/>
+      <c r="Y118" s="24"/>
+      <c r="Z118" s="24"/>
+      <c r="AA118" s="24"/>
+      <c r="AB118" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC118" s="74"/>
+      <c r="AD118" s="74"/>
+      <c r="AE118" s="74"/>
+      <c r="AF118" s="74"/>
+      <c r="AG118" s="74"/>
+      <c r="AH118" s="75"/>
     </row>
     <row r="119" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E119" s="15"/>
-      <c r="F119" s="23">
-        <v>7</v>
-      </c>
-      <c r="G119" s="23"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
-      <c r="M119" s="24"/>
-      <c r="N119" s="23"/>
-      <c r="O119" s="24"/>
-      <c r="P119" s="25"/>
-      <c r="Q119" s="24"/>
-      <c r="R119" s="24"/>
-      <c r="S119" s="24"/>
-      <c r="T119" s="23"/>
-      <c r="U119" s="24"/>
-      <c r="V119" s="24"/>
-      <c r="W119" s="25"/>
-      <c r="X119" s="24"/>
-      <c r="Y119" s="24"/>
-      <c r="Z119" s="24"/>
-      <c r="AA119" s="24"/>
-      <c r="AB119" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC119" s="52"/>
-      <c r="AD119" s="52"/>
-      <c r="AE119" s="52"/>
-      <c r="AF119" s="52"/>
-      <c r="AG119" s="52"/>
-      <c r="AH119" s="53"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="26"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="28"/>
+      <c r="Q119" s="27"/>
+      <c r="R119" s="27"/>
+      <c r="S119" s="27"/>
+      <c r="T119" s="26"/>
+      <c r="U119" s="27"/>
+      <c r="V119" s="27"/>
+      <c r="W119" s="28"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
+      <c r="AA119" s="27"/>
+      <c r="AB119" s="76"/>
+      <c r="AC119" s="77"/>
+      <c r="AD119" s="77"/>
+      <c r="AE119" s="77"/>
+      <c r="AF119" s="77"/>
+      <c r="AG119" s="77"/>
+      <c r="AH119" s="78"/>
     </row>
     <row r="120" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E120" s="15"/>
@@ -9229,13 +9252,13 @@
       <c r="Y120" s="27"/>
       <c r="Z120" s="27"/>
       <c r="AA120" s="27"/>
-      <c r="AB120" s="54"/>
-      <c r="AC120" s="55"/>
-      <c r="AD120" s="55"/>
-      <c r="AE120" s="55"/>
-      <c r="AF120" s="55"/>
-      <c r="AG120" s="55"/>
-      <c r="AH120" s="56"/>
+      <c r="AB120" s="76"/>
+      <c r="AC120" s="77"/>
+      <c r="AD120" s="77"/>
+      <c r="AE120" s="77"/>
+      <c r="AF120" s="77"/>
+      <c r="AG120" s="77"/>
+      <c r="AH120" s="78"/>
     </row>
     <row r="121" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="15"/>
@@ -9261,13 +9284,13 @@
       <c r="Y121" s="27"/>
       <c r="Z121" s="27"/>
       <c r="AA121" s="27"/>
-      <c r="AB121" s="54"/>
-      <c r="AC121" s="55"/>
-      <c r="AD121" s="55"/>
-      <c r="AE121" s="55"/>
-      <c r="AF121" s="55"/>
-      <c r="AG121" s="55"/>
-      <c r="AH121" s="56"/>
+      <c r="AB121" s="76"/>
+      <c r="AC121" s="77"/>
+      <c r="AD121" s="77"/>
+      <c r="AE121" s="77"/>
+      <c r="AF121" s="77"/>
+      <c r="AG121" s="77"/>
+      <c r="AH121" s="78"/>
     </row>
     <row r="122" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="15"/>
@@ -9293,13 +9316,13 @@
       <c r="Y122" s="27"/>
       <c r="Z122" s="27"/>
       <c r="AA122" s="27"/>
-      <c r="AB122" s="54"/>
-      <c r="AC122" s="55"/>
-      <c r="AD122" s="55"/>
-      <c r="AE122" s="55"/>
-      <c r="AF122" s="55"/>
-      <c r="AG122" s="55"/>
-      <c r="AH122" s="56"/>
+      <c r="AB122" s="76"/>
+      <c r="AC122" s="77"/>
+      <c r="AD122" s="77"/>
+      <c r="AE122" s="77"/>
+      <c r="AF122" s="77"/>
+      <c r="AG122" s="77"/>
+      <c r="AH122" s="78"/>
     </row>
     <row r="123" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E123" s="15"/>
@@ -9325,13 +9348,13 @@
       <c r="Y123" s="27"/>
       <c r="Z123" s="27"/>
       <c r="AA123" s="27"/>
-      <c r="AB123" s="54"/>
-      <c r="AC123" s="55"/>
-      <c r="AD123" s="55"/>
-      <c r="AE123" s="55"/>
-      <c r="AF123" s="55"/>
-      <c r="AG123" s="55"/>
-      <c r="AH123" s="56"/>
+      <c r="AB123" s="76"/>
+      <c r="AC123" s="77"/>
+      <c r="AD123" s="77"/>
+      <c r="AE123" s="77"/>
+      <c r="AF123" s="77"/>
+      <c r="AG123" s="77"/>
+      <c r="AH123" s="78"/>
     </row>
     <row r="124" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E124" s="15"/>
@@ -9357,13 +9380,13 @@
       <c r="Y124" s="27"/>
       <c r="Z124" s="27"/>
       <c r="AA124" s="27"/>
-      <c r="AB124" s="54"/>
-      <c r="AC124" s="55"/>
-      <c r="AD124" s="55"/>
-      <c r="AE124" s="55"/>
-      <c r="AF124" s="55"/>
-      <c r="AG124" s="55"/>
-      <c r="AH124" s="56"/>
+      <c r="AB124" s="76"/>
+      <c r="AC124" s="77"/>
+      <c r="AD124" s="77"/>
+      <c r="AE124" s="77"/>
+      <c r="AF124" s="77"/>
+      <c r="AG124" s="77"/>
+      <c r="AH124" s="78"/>
     </row>
     <row r="125" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E125" s="15"/>
@@ -9389,147 +9412,147 @@
       <c r="Y125" s="27"/>
       <c r="Z125" s="27"/>
       <c r="AA125" s="27"/>
-      <c r="AB125" s="54"/>
-      <c r="AC125" s="55"/>
-      <c r="AD125" s="55"/>
-      <c r="AE125" s="55"/>
-      <c r="AF125" s="55"/>
-      <c r="AG125" s="55"/>
-      <c r="AH125" s="56"/>
+      <c r="AB125" s="76"/>
+      <c r="AC125" s="77"/>
+      <c r="AD125" s="77"/>
+      <c r="AE125" s="77"/>
+      <c r="AF125" s="77"/>
+      <c r="AG125" s="77"/>
+      <c r="AH125" s="78"/>
     </row>
     <row r="126" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E126" s="15"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="28"/>
-      <c r="K126" s="27"/>
-      <c r="L126" s="27"/>
-      <c r="M126" s="27"/>
-      <c r="N126" s="26"/>
-      <c r="O126" s="27"/>
-      <c r="P126" s="28"/>
-      <c r="Q126" s="27"/>
-      <c r="R126" s="27"/>
-      <c r="S126" s="27"/>
-      <c r="T126" s="26"/>
-      <c r="U126" s="27"/>
-      <c r="V126" s="27"/>
-      <c r="W126" s="28"/>
-      <c r="X126" s="27"/>
-      <c r="Y126" s="27"/>
-      <c r="Z126" s="27"/>
-      <c r="AA126" s="27"/>
-      <c r="AB126" s="54"/>
-      <c r="AC126" s="55"/>
-      <c r="AD126" s="55"/>
-      <c r="AE126" s="55"/>
-      <c r="AF126" s="55"/>
-      <c r="AG126" s="55"/>
-      <c r="AH126" s="56"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="31"/>
+      <c r="K126" s="30"/>
+      <c r="L126" s="30"/>
+      <c r="M126" s="30"/>
+      <c r="N126" s="29"/>
+      <c r="O126" s="30"/>
+      <c r="P126" s="31"/>
+      <c r="Q126" s="30"/>
+      <c r="R126" s="30"/>
+      <c r="S126" s="30"/>
+      <c r="T126" s="29"/>
+      <c r="U126" s="30"/>
+      <c r="V126" s="30"/>
+      <c r="W126" s="31"/>
+      <c r="X126" s="30"/>
+      <c r="Y126" s="30"/>
+      <c r="Z126" s="30"/>
+      <c r="AA126" s="30"/>
+      <c r="AB126" s="79"/>
+      <c r="AC126" s="80"/>
+      <c r="AD126" s="80"/>
+      <c r="AE126" s="80"/>
+      <c r="AF126" s="80"/>
+      <c r="AG126" s="80"/>
+      <c r="AH126" s="81"/>
     </row>
     <row r="127" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E127" s="15"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="30"/>
-      <c r="I127" s="30"/>
-      <c r="J127" s="31"/>
-      <c r="K127" s="30"/>
-      <c r="L127" s="30"/>
-      <c r="M127" s="30"/>
-      <c r="N127" s="29"/>
-      <c r="O127" s="30"/>
-      <c r="P127" s="31"/>
-      <c r="Q127" s="30"/>
-      <c r="R127" s="30"/>
-      <c r="S127" s="30"/>
-      <c r="T127" s="29"/>
-      <c r="U127" s="30"/>
-      <c r="V127" s="30"/>
-      <c r="W127" s="31"/>
-      <c r="X127" s="30"/>
-      <c r="Y127" s="30"/>
-      <c r="Z127" s="30"/>
-      <c r="AA127" s="30"/>
-      <c r="AB127" s="57"/>
-      <c r="AC127" s="58"/>
-      <c r="AD127" s="58"/>
-      <c r="AE127" s="58"/>
-      <c r="AF127" s="58"/>
-      <c r="AG127" s="58"/>
-      <c r="AH127" s="59"/>
+      <c r="F127" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="G127" s="91"/>
+      <c r="H127" s="91"/>
+      <c r="I127" s="91"/>
+      <c r="J127" s="91"/>
+      <c r="K127" s="91"/>
+      <c r="L127" s="91"/>
+      <c r="M127" s="91"/>
+      <c r="N127" s="91"/>
+      <c r="O127" s="91"/>
+      <c r="P127" s="91"/>
+      <c r="Q127" s="91"/>
+      <c r="R127" s="91"/>
+      <c r="S127" s="91"/>
+      <c r="T127" s="91"/>
+      <c r="U127" s="91"/>
+      <c r="V127" s="91"/>
+      <c r="W127" s="91"/>
+      <c r="X127" s="91"/>
+      <c r="Y127" s="91"/>
+      <c r="Z127" s="91"/>
+      <c r="AA127" s="91"/>
+      <c r="AB127" s="91"/>
+      <c r="AC127" s="91"/>
+      <c r="AD127" s="91"/>
+      <c r="AE127" s="91"/>
+      <c r="AF127" s="91"/>
+      <c r="AG127" s="91"/>
+      <c r="AH127" s="92"/>
     </row>
     <row r="128" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E128" s="15"/>
-      <c r="F128" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="G128" s="72"/>
-      <c r="H128" s="72"/>
-      <c r="I128" s="72"/>
-      <c r="J128" s="72"/>
-      <c r="K128" s="72"/>
-      <c r="L128" s="72"/>
-      <c r="M128" s="72"/>
-      <c r="N128" s="72"/>
-      <c r="O128" s="72"/>
-      <c r="P128" s="72"/>
-      <c r="Q128" s="72"/>
-      <c r="R128" s="72"/>
-      <c r="S128" s="72"/>
-      <c r="T128" s="72"/>
-      <c r="U128" s="72"/>
-      <c r="V128" s="72"/>
-      <c r="W128" s="72"/>
-      <c r="X128" s="72"/>
-      <c r="Y128" s="72"/>
-      <c r="Z128" s="72"/>
-      <c r="AA128" s="72"/>
-      <c r="AB128" s="72"/>
-      <c r="AC128" s="72"/>
-      <c r="AD128" s="72"/>
-      <c r="AE128" s="72"/>
-      <c r="AF128" s="72"/>
-      <c r="AG128" s="72"/>
-      <c r="AH128" s="73"/>
+      <c r="F128" s="23">
+        <v>8</v>
+      </c>
+      <c r="G128" s="23"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="23"/>
+      <c r="O128" s="24"/>
+      <c r="P128" s="25"/>
+      <c r="Q128" s="24"/>
+      <c r="R128" s="24"/>
+      <c r="S128" s="24"/>
+      <c r="T128" s="23"/>
+      <c r="U128" s="24"/>
+      <c r="V128" s="24"/>
+      <c r="W128" s="25"/>
+      <c r="X128" s="24"/>
+      <c r="Y128" s="24"/>
+      <c r="Z128" s="24"/>
+      <c r="AA128" s="25"/>
+      <c r="AB128" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC128" s="74"/>
+      <c r="AD128" s="74"/>
+      <c r="AE128" s="74"/>
+      <c r="AF128" s="74"/>
+      <c r="AG128" s="74"/>
+      <c r="AH128" s="75"/>
     </row>
     <row r="129" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E129" s="15"/>
-      <c r="F129" s="23">
-        <v>8</v>
-      </c>
-      <c r="G129" s="23"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="25"/>
-      <c r="K129" s="24"/>
-      <c r="L129" s="24"/>
-      <c r="M129" s="24"/>
-      <c r="N129" s="23"/>
-      <c r="O129" s="24"/>
-      <c r="P129" s="25"/>
-      <c r="Q129" s="24"/>
-      <c r="R129" s="24"/>
-      <c r="S129" s="24"/>
-      <c r="T129" s="23"/>
-      <c r="U129" s="24"/>
-      <c r="V129" s="24"/>
-      <c r="W129" s="25"/>
-      <c r="X129" s="24"/>
-      <c r="Y129" s="24"/>
-      <c r="Z129" s="24"/>
-      <c r="AA129" s="25"/>
-      <c r="AB129" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC129" s="52"/>
-      <c r="AD129" s="52"/>
-      <c r="AE129" s="52"/>
-      <c r="AF129" s="52"/>
-      <c r="AG129" s="52"/>
-      <c r="AH129" s="53"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="27"/>
+      <c r="M129" s="27"/>
+      <c r="N129" s="26"/>
+      <c r="O129" s="27"/>
+      <c r="P129" s="28"/>
+      <c r="Q129" s="27"/>
+      <c r="R129" s="27"/>
+      <c r="S129" s="27"/>
+      <c r="T129" s="26"/>
+      <c r="U129" s="27"/>
+      <c r="V129" s="27"/>
+      <c r="W129" s="28"/>
+      <c r="X129" s="27"/>
+      <c r="Y129" s="27"/>
+      <c r="Z129" s="27"/>
+      <c r="AA129" s="28"/>
+      <c r="AB129" s="76"/>
+      <c r="AC129" s="77"/>
+      <c r="AD129" s="77"/>
+      <c r="AE129" s="77"/>
+      <c r="AF129" s="77"/>
+      <c r="AG129" s="77"/>
+      <c r="AH129" s="78"/>
     </row>
     <row r="130" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E130" s="15"/>
@@ -9555,13 +9578,13 @@
       <c r="Y130" s="27"/>
       <c r="Z130" s="27"/>
       <c r="AA130" s="28"/>
-      <c r="AB130" s="54"/>
-      <c r="AC130" s="55"/>
-      <c r="AD130" s="55"/>
-      <c r="AE130" s="55"/>
-      <c r="AF130" s="55"/>
-      <c r="AG130" s="55"/>
-      <c r="AH130" s="56"/>
+      <c r="AB130" s="76"/>
+      <c r="AC130" s="77"/>
+      <c r="AD130" s="77"/>
+      <c r="AE130" s="77"/>
+      <c r="AF130" s="77"/>
+      <c r="AG130" s="77"/>
+      <c r="AH130" s="78"/>
     </row>
     <row r="131" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E131" s="15"/>
@@ -9586,14 +9609,14 @@
       <c r="X131" s="27"/>
       <c r="Y131" s="27"/>
       <c r="Z131" s="27"/>
-      <c r="AA131" s="28"/>
-      <c r="AB131" s="54"/>
-      <c r="AC131" s="55"/>
-      <c r="AD131" s="55"/>
-      <c r="AE131" s="55"/>
-      <c r="AF131" s="55"/>
-      <c r="AG131" s="55"/>
-      <c r="AH131" s="56"/>
+      <c r="AA131" s="27"/>
+      <c r="AB131" s="76"/>
+      <c r="AC131" s="77"/>
+      <c r="AD131" s="77"/>
+      <c r="AE131" s="77"/>
+      <c r="AF131" s="77"/>
+      <c r="AG131" s="77"/>
+      <c r="AH131" s="78"/>
     </row>
     <row r="132" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E132" s="15"/>
@@ -9619,13 +9642,13 @@
       <c r="Y132" s="27"/>
       <c r="Z132" s="27"/>
       <c r="AA132" s="27"/>
-      <c r="AB132" s="54"/>
-      <c r="AC132" s="55"/>
-      <c r="AD132" s="55"/>
-      <c r="AE132" s="55"/>
-      <c r="AF132" s="55"/>
-      <c r="AG132" s="55"/>
-      <c r="AH132" s="56"/>
+      <c r="AB132" s="76"/>
+      <c r="AC132" s="77"/>
+      <c r="AD132" s="77"/>
+      <c r="AE132" s="77"/>
+      <c r="AF132" s="77"/>
+      <c r="AG132" s="77"/>
+      <c r="AH132" s="78"/>
     </row>
     <row r="133" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E133" s="15"/>
@@ -9651,13 +9674,13 @@
       <c r="Y133" s="27"/>
       <c r="Z133" s="27"/>
       <c r="AA133" s="27"/>
-      <c r="AB133" s="54"/>
-      <c r="AC133" s="55"/>
-      <c r="AD133" s="55"/>
-      <c r="AE133" s="55"/>
-      <c r="AF133" s="55"/>
-      <c r="AG133" s="55"/>
-      <c r="AH133" s="56"/>
+      <c r="AB133" s="76"/>
+      <c r="AC133" s="77"/>
+      <c r="AD133" s="77"/>
+      <c r="AE133" s="77"/>
+      <c r="AF133" s="77"/>
+      <c r="AG133" s="77"/>
+      <c r="AH133" s="78"/>
     </row>
     <row r="134" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E134" s="15"/>
@@ -9683,13 +9706,13 @@
       <c r="Y134" s="27"/>
       <c r="Z134" s="27"/>
       <c r="AA134" s="27"/>
-      <c r="AB134" s="54"/>
-      <c r="AC134" s="55"/>
-      <c r="AD134" s="55"/>
-      <c r="AE134" s="55"/>
-      <c r="AF134" s="55"/>
-      <c r="AG134" s="55"/>
-      <c r="AH134" s="56"/>
+      <c r="AB134" s="76"/>
+      <c r="AC134" s="77"/>
+      <c r="AD134" s="77"/>
+      <c r="AE134" s="77"/>
+      <c r="AF134" s="77"/>
+      <c r="AG134" s="77"/>
+      <c r="AH134" s="78"/>
     </row>
     <row r="135" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E135" s="15"/>
@@ -9715,13 +9738,13 @@
       <c r="Y135" s="27"/>
       <c r="Z135" s="27"/>
       <c r="AA135" s="27"/>
-      <c r="AB135" s="54"/>
-      <c r="AC135" s="55"/>
-      <c r="AD135" s="55"/>
-      <c r="AE135" s="55"/>
-      <c r="AF135" s="55"/>
-      <c r="AG135" s="55"/>
-      <c r="AH135" s="56"/>
+      <c r="AB135" s="76"/>
+      <c r="AC135" s="77"/>
+      <c r="AD135" s="77"/>
+      <c r="AE135" s="77"/>
+      <c r="AF135" s="77"/>
+      <c r="AG135" s="77"/>
+      <c r="AH135" s="78"/>
     </row>
     <row r="136" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E136" s="15"/>
@@ -9747,13 +9770,13 @@
       <c r="Y136" s="27"/>
       <c r="Z136" s="27"/>
       <c r="AA136" s="27"/>
-      <c r="AB136" s="54"/>
-      <c r="AC136" s="55"/>
-      <c r="AD136" s="55"/>
-      <c r="AE136" s="55"/>
-      <c r="AF136" s="55"/>
-      <c r="AG136" s="55"/>
-      <c r="AH136" s="56"/>
+      <c r="AB136" s="76"/>
+      <c r="AC136" s="77"/>
+      <c r="AD136" s="77"/>
+      <c r="AE136" s="77"/>
+      <c r="AF136" s="77"/>
+      <c r="AG136" s="77"/>
+      <c r="AH136" s="78"/>
     </row>
     <row r="137" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E137" s="15"/>
@@ -9779,113 +9802,113 @@
       <c r="Y137" s="27"/>
       <c r="Z137" s="27"/>
       <c r="AA137" s="27"/>
-      <c r="AB137" s="54"/>
-      <c r="AC137" s="55"/>
-      <c r="AD137" s="55"/>
-      <c r="AE137" s="55"/>
-      <c r="AF137" s="55"/>
-      <c r="AG137" s="55"/>
-      <c r="AH137" s="56"/>
+      <c r="AB137" s="76"/>
+      <c r="AC137" s="77"/>
+      <c r="AD137" s="77"/>
+      <c r="AE137" s="77"/>
+      <c r="AF137" s="77"/>
+      <c r="AG137" s="77"/>
+      <c r="AH137" s="78"/>
     </row>
     <row r="138" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E138" s="15"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="28"/>
-      <c r="K138" s="27"/>
-      <c r="L138" s="27"/>
-      <c r="M138" s="27"/>
-      <c r="N138" s="26"/>
-      <c r="O138" s="27"/>
-      <c r="P138" s="28"/>
-      <c r="Q138" s="27"/>
-      <c r="R138" s="27"/>
-      <c r="S138" s="27"/>
-      <c r="T138" s="26"/>
-      <c r="U138" s="27"/>
-      <c r="V138" s="27"/>
-      <c r="W138" s="28"/>
-      <c r="X138" s="27"/>
-      <c r="Y138" s="27"/>
-      <c r="Z138" s="27"/>
-      <c r="AA138" s="27"/>
-      <c r="AB138" s="54"/>
-      <c r="AC138" s="55"/>
-      <c r="AD138" s="55"/>
-      <c r="AE138" s="55"/>
-      <c r="AF138" s="55"/>
-      <c r="AG138" s="55"/>
-      <c r="AH138" s="56"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="31"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="30"/>
+      <c r="M138" s="30"/>
+      <c r="N138" s="29"/>
+      <c r="O138" s="30"/>
+      <c r="P138" s="31"/>
+      <c r="Q138" s="30"/>
+      <c r="R138" s="30"/>
+      <c r="S138" s="30"/>
+      <c r="T138" s="29"/>
+      <c r="U138" s="30"/>
+      <c r="V138" s="30"/>
+      <c r="W138" s="31"/>
+      <c r="X138" s="30"/>
+      <c r="Y138" s="30"/>
+      <c r="Z138" s="30"/>
+      <c r="AA138" s="30"/>
+      <c r="AB138" s="79"/>
+      <c r="AC138" s="80"/>
+      <c r="AD138" s="80"/>
+      <c r="AE138" s="80"/>
+      <c r="AF138" s="80"/>
+      <c r="AG138" s="80"/>
+      <c r="AH138" s="81"/>
     </row>
     <row r="139" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E139" s="15"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="30"/>
-      <c r="J139" s="31"/>
-      <c r="K139" s="30"/>
-      <c r="L139" s="30"/>
-      <c r="M139" s="30"/>
-      <c r="N139" s="29"/>
-      <c r="O139" s="30"/>
-      <c r="P139" s="31"/>
-      <c r="Q139" s="30"/>
-      <c r="R139" s="30"/>
-      <c r="S139" s="30"/>
-      <c r="T139" s="29"/>
-      <c r="U139" s="30"/>
-      <c r="V139" s="30"/>
-      <c r="W139" s="31"/>
-      <c r="X139" s="30"/>
-      <c r="Y139" s="30"/>
-      <c r="Z139" s="30"/>
-      <c r="AA139" s="30"/>
-      <c r="AB139" s="57"/>
-      <c r="AC139" s="58"/>
-      <c r="AD139" s="58"/>
-      <c r="AE139" s="58"/>
-      <c r="AF139" s="58"/>
-      <c r="AG139" s="58"/>
-      <c r="AH139" s="59"/>
+      <c r="F139" s="23">
+        <v>9</v>
+      </c>
+      <c r="G139" s="23"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="24"/>
+      <c r="M139" s="24"/>
+      <c r="N139" s="23"/>
+      <c r="O139" s="24"/>
+      <c r="P139" s="25"/>
+      <c r="Q139" s="24"/>
+      <c r="R139" s="24"/>
+      <c r="S139" s="24"/>
+      <c r="T139" s="23"/>
+      <c r="U139" s="24"/>
+      <c r="V139" s="24"/>
+      <c r="W139" s="25"/>
+      <c r="X139" s="24"/>
+      <c r="Y139" s="24"/>
+      <c r="Z139" s="24"/>
+      <c r="AA139" s="25"/>
+      <c r="AB139" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC139" s="74"/>
+      <c r="AD139" s="74"/>
+      <c r="AE139" s="74"/>
+      <c r="AF139" s="74"/>
+      <c r="AG139" s="74"/>
+      <c r="AH139" s="75"/>
     </row>
     <row r="140" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E140" s="15"/>
-      <c r="F140" s="23">
-        <v>9</v>
-      </c>
-      <c r="G140" s="23"/>
-      <c r="H140" s="24"/>
-      <c r="I140" s="24"/>
-      <c r="J140" s="25"/>
-      <c r="K140" s="24"/>
-      <c r="L140" s="24"/>
-      <c r="M140" s="24"/>
-      <c r="N140" s="23"/>
-      <c r="O140" s="24"/>
-      <c r="P140" s="25"/>
-      <c r="Q140" s="24"/>
-      <c r="R140" s="24"/>
-      <c r="S140" s="24"/>
-      <c r="T140" s="23"/>
-      <c r="U140" s="24"/>
-      <c r="V140" s="24"/>
-      <c r="W140" s="25"/>
-      <c r="X140" s="24"/>
-      <c r="Y140" s="24"/>
-      <c r="Z140" s="24"/>
-      <c r="AA140" s="25"/>
-      <c r="AB140" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC140" s="52"/>
-      <c r="AD140" s="52"/>
-      <c r="AE140" s="52"/>
-      <c r="AF140" s="52"/>
-      <c r="AG140" s="52"/>
-      <c r="AH140" s="53"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="28"/>
+      <c r="K140" s="27"/>
+      <c r="L140" s="27"/>
+      <c r="M140" s="27"/>
+      <c r="N140" s="26"/>
+      <c r="O140" s="27"/>
+      <c r="P140" s="28"/>
+      <c r="Q140" s="27"/>
+      <c r="R140" s="27"/>
+      <c r="S140" s="27"/>
+      <c r="T140" s="26"/>
+      <c r="U140" s="27"/>
+      <c r="V140" s="27"/>
+      <c r="W140" s="28"/>
+      <c r="X140" s="27"/>
+      <c r="Y140" s="27"/>
+      <c r="Z140" s="27"/>
+      <c r="AA140" s="28"/>
+      <c r="AB140" s="76"/>
+      <c r="AC140" s="77"/>
+      <c r="AD140" s="77"/>
+      <c r="AE140" s="77"/>
+      <c r="AF140" s="77"/>
+      <c r="AG140" s="77"/>
+      <c r="AH140" s="78"/>
     </row>
     <row r="141" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E141" s="15"/>
@@ -9910,14 +9933,14 @@
       <c r="X141" s="27"/>
       <c r="Y141" s="27"/>
       <c r="Z141" s="27"/>
-      <c r="AA141" s="28"/>
-      <c r="AB141" s="54"/>
-      <c r="AC141" s="55"/>
-      <c r="AD141" s="55"/>
-      <c r="AE141" s="55"/>
-      <c r="AF141" s="55"/>
-      <c r="AG141" s="55"/>
-      <c r="AH141" s="56"/>
+      <c r="AA141" s="27"/>
+      <c r="AB141" s="76"/>
+      <c r="AC141" s="77"/>
+      <c r="AD141" s="77"/>
+      <c r="AE141" s="77"/>
+      <c r="AF141" s="77"/>
+      <c r="AG141" s="77"/>
+      <c r="AH141" s="78"/>
     </row>
     <row r="142" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E142" s="15"/>
@@ -9943,13 +9966,13 @@
       <c r="Y142" s="27"/>
       <c r="Z142" s="27"/>
       <c r="AA142" s="27"/>
-      <c r="AB142" s="54"/>
-      <c r="AC142" s="55"/>
-      <c r="AD142" s="55"/>
-      <c r="AE142" s="55"/>
-      <c r="AF142" s="55"/>
-      <c r="AG142" s="55"/>
-      <c r="AH142" s="56"/>
+      <c r="AB142" s="76"/>
+      <c r="AC142" s="77"/>
+      <c r="AD142" s="77"/>
+      <c r="AE142" s="77"/>
+      <c r="AF142" s="77"/>
+      <c r="AG142" s="77"/>
+      <c r="AH142" s="78"/>
     </row>
     <row r="143" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E143" s="15"/>
@@ -9975,13 +9998,13 @@
       <c r="Y143" s="27"/>
       <c r="Z143" s="27"/>
       <c r="AA143" s="27"/>
-      <c r="AB143" s="54"/>
-      <c r="AC143" s="55"/>
-      <c r="AD143" s="55"/>
-      <c r="AE143" s="55"/>
-      <c r="AF143" s="55"/>
-      <c r="AG143" s="55"/>
-      <c r="AH143" s="56"/>
+      <c r="AB143" s="76"/>
+      <c r="AC143" s="77"/>
+      <c r="AD143" s="77"/>
+      <c r="AE143" s="77"/>
+      <c r="AF143" s="77"/>
+      <c r="AG143" s="77"/>
+      <c r="AH143" s="78"/>
     </row>
     <row r="144" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E144" s="15"/>
@@ -10007,13 +10030,13 @@
       <c r="Y144" s="27"/>
       <c r="Z144" s="27"/>
       <c r="AA144" s="27"/>
-      <c r="AB144" s="54"/>
-      <c r="AC144" s="55"/>
-      <c r="AD144" s="55"/>
-      <c r="AE144" s="55"/>
-      <c r="AF144" s="55"/>
-      <c r="AG144" s="55"/>
-      <c r="AH144" s="56"/>
+      <c r="AB144" s="76"/>
+      <c r="AC144" s="77"/>
+      <c r="AD144" s="77"/>
+      <c r="AE144" s="77"/>
+      <c r="AF144" s="77"/>
+      <c r="AG144" s="77"/>
+      <c r="AH144" s="78"/>
     </row>
     <row r="145" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E145" s="15"/>
@@ -10039,13 +10062,13 @@
       <c r="Y145" s="27"/>
       <c r="Z145" s="27"/>
       <c r="AA145" s="27"/>
-      <c r="AB145" s="54"/>
-      <c r="AC145" s="55"/>
-      <c r="AD145" s="55"/>
-      <c r="AE145" s="55"/>
-      <c r="AF145" s="55"/>
-      <c r="AG145" s="55"/>
-      <c r="AH145" s="56"/>
+      <c r="AB145" s="76"/>
+      <c r="AC145" s="77"/>
+      <c r="AD145" s="77"/>
+      <c r="AE145" s="77"/>
+      <c r="AF145" s="77"/>
+      <c r="AG145" s="77"/>
+      <c r="AH145" s="78"/>
     </row>
     <row r="146" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E146" s="15"/>
@@ -10071,264 +10094,233 @@
       <c r="Y146" s="27"/>
       <c r="Z146" s="27"/>
       <c r="AA146" s="27"/>
-      <c r="AB146" s="54"/>
-      <c r="AC146" s="55"/>
-      <c r="AD146" s="55"/>
-      <c r="AE146" s="55"/>
-      <c r="AF146" s="55"/>
-      <c r="AG146" s="55"/>
-      <c r="AH146" s="56"/>
+      <c r="AB146" s="76"/>
+      <c r="AC146" s="77"/>
+      <c r="AD146" s="77"/>
+      <c r="AE146" s="77"/>
+      <c r="AF146" s="77"/>
+      <c r="AG146" s="77"/>
+      <c r="AH146" s="78"/>
     </row>
     <row r="147" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E147" s="15"/>
-      <c r="F147" s="26"/>
-      <c r="G147" s="26"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="28"/>
-      <c r="K147" s="27"/>
-      <c r="L147" s="27"/>
-      <c r="M147" s="27"/>
-      <c r="N147" s="26"/>
-      <c r="O147" s="27"/>
-      <c r="P147" s="28"/>
-      <c r="Q147" s="27"/>
-      <c r="R147" s="27"/>
-      <c r="S147" s="27"/>
-      <c r="T147" s="26"/>
-      <c r="U147" s="27"/>
-      <c r="V147" s="27"/>
-      <c r="W147" s="28"/>
-      <c r="X147" s="27"/>
-      <c r="Y147" s="27"/>
-      <c r="Z147" s="27"/>
-      <c r="AA147" s="27"/>
-      <c r="AB147" s="54"/>
-      <c r="AC147" s="55"/>
-      <c r="AD147" s="55"/>
-      <c r="AE147" s="55"/>
-      <c r="AF147" s="55"/>
-      <c r="AG147" s="55"/>
-      <c r="AH147" s="56"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="31"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="30"/>
+      <c r="M147" s="30"/>
+      <c r="N147" s="29"/>
+      <c r="O147" s="30"/>
+      <c r="P147" s="31"/>
+      <c r="Q147" s="30"/>
+      <c r="R147" s="30"/>
+      <c r="S147" s="30"/>
+      <c r="T147" s="29"/>
+      <c r="U147" s="30"/>
+      <c r="V147" s="30"/>
+      <c r="W147" s="31"/>
+      <c r="X147" s="30"/>
+      <c r="Y147" s="30"/>
+      <c r="Z147" s="30"/>
+      <c r="AA147" s="30"/>
+      <c r="AB147" s="79"/>
+      <c r="AC147" s="80"/>
+      <c r="AD147" s="80"/>
+      <c r="AE147" s="80"/>
+      <c r="AF147" s="80"/>
+      <c r="AG147" s="80"/>
+      <c r="AH147" s="81"/>
     </row>
     <row r="148" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E148" s="15"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="30"/>
-      <c r="I148" s="30"/>
-      <c r="J148" s="31"/>
-      <c r="K148" s="30"/>
-      <c r="L148" s="30"/>
-      <c r="M148" s="30"/>
-      <c r="N148" s="29"/>
-      <c r="O148" s="30"/>
-      <c r="P148" s="31"/>
-      <c r="Q148" s="30"/>
-      <c r="R148" s="30"/>
-      <c r="S148" s="30"/>
-      <c r="T148" s="29"/>
-      <c r="U148" s="30"/>
-      <c r="V148" s="30"/>
-      <c r="W148" s="31"/>
-      <c r="X148" s="30"/>
-      <c r="Y148" s="30"/>
-      <c r="Z148" s="30"/>
-      <c r="AA148" s="30"/>
-      <c r="AB148" s="57"/>
-      <c r="AC148" s="58"/>
-      <c r="AD148" s="58"/>
-      <c r="AE148" s="58"/>
-      <c r="AF148" s="58"/>
-      <c r="AG148" s="58"/>
-      <c r="AH148" s="59"/>
     </row>
     <row r="149" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E149" s="15"/>
+      <c r="F149" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="150" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E150" s="15"/>
-      <c r="F150" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="H150" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="151" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E151" s="15"/>
       <c r="H151" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="152" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E152" s="15"/>
-      <c r="H152" s="4" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="152" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D152" s="18"/>
+      <c r="H152" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D153" s="18"/>
-      <c r="H153" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="154" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="18"/>
-    </row>
-    <row r="155" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="156" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D156" s="15" t="str">
+    </row>
+    <row r="154" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="155" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D155" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.2.3.</v>
       </c>
+      <c r="E155" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="E156" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E157" s="16" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="157" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="158" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="159" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="160" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D160" s="15" t="str">
+    <row r="159" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D159" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.2.4.</v>
       </c>
+      <c r="E159" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E160" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E161" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-      <c r="I161" s="17"/>
-      <c r="J161" s="17"/>
-      <c r="K161" s="17"/>
-      <c r="L161" s="17"/>
-      <c r="M161" s="17"/>
-      <c r="N161" s="17"/>
-      <c r="O161" s="17"/>
-      <c r="P161" s="17"/>
-      <c r="Q161" s="17"/>
-      <c r="R161" s="17"/>
-      <c r="S161" s="17"/>
-      <c r="T161" s="17"/>
-      <c r="U161" s="17"/>
-      <c r="V161" s="17"/>
-      <c r="W161" s="17"/>
-      <c r="X161" s="17"/>
-      <c r="Y161" s="17"/>
-      <c r="Z161" s="17"/>
-      <c r="AA161" s="17"/>
-      <c r="AB161" s="17"/>
-      <c r="AC161" s="17"/>
-      <c r="AD161" s="17"/>
-      <c r="AE161" s="17"/>
-      <c r="AF161" s="17"/>
-      <c r="AG161" s="17"/>
-      <c r="AH161" s="17"/>
-    </row>
-    <row r="162" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D162" s="15"/>
-    </row>
-    <row r="163" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="164" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D164" s="15" t="str">
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="17"/>
+      <c r="M160" s="17"/>
+      <c r="N160" s="17"/>
+      <c r="O160" s="17"/>
+      <c r="P160" s="17"/>
+      <c r="Q160" s="17"/>
+      <c r="R160" s="17"/>
+      <c r="S160" s="17"/>
+      <c r="T160" s="17"/>
+      <c r="U160" s="17"/>
+      <c r="V160" s="17"/>
+      <c r="W160" s="17"/>
+      <c r="X160" s="17"/>
+      <c r="Y160" s="17"/>
+      <c r="Z160" s="17"/>
+      <c r="AA160" s="17"/>
+      <c r="AB160" s="17"/>
+      <c r="AC160" s="17"/>
+      <c r="AD160" s="17"/>
+      <c r="AE160" s="17"/>
+      <c r="AF160" s="17"/>
+      <c r="AG160" s="17"/>
+      <c r="AH160" s="17"/>
+    </row>
+    <row r="161" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D161" s="15"/>
+    </row>
+    <row r="162" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="163" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D163" s="15" t="str">
         <f>$C$7&amp;"5."</f>
         <v>6.2.5.</v>
       </c>
+      <c r="E163" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="E164" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="165" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="E165" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E166" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="168" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E168" s="18" t="s">
+    <row r="166" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="167" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E167" s="18" t="s">
         <v>25</v>
       </c>
+      <c r="F167" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F168" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="169" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F169" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F170" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D172" s="15" t="str">
+    <row r="170" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D171" s="15" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.2.6.</v>
       </c>
+      <c r="E171" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="E172" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="173" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E173" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="175" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E175" s="18" t="s">
+    <row r="173" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E174" s="18" t="s">
         <v>25</v>
       </c>
+      <c r="F174" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="175" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F175" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="176" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F176" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="177" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F177" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="179" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="180" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D180" s="16"/>
-    </row>
-    <row r="181" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" spans="4:4" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="178" spans="4:4" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="179" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D179" s="16"/>
+    </row>
+    <row r="180" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10747,9 +10739,19 @@
     <row r="608" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="609" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="610" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AB139:AH147"/>
+    <mergeCell ref="AB106:AH117"/>
+    <mergeCell ref="AB118:AH126"/>
+    <mergeCell ref="AB128:AH138"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB83:AH92"/>
+    <mergeCell ref="AB93:AH105"/>
+    <mergeCell ref="AB70:AH82"/>
+    <mergeCell ref="AB58:AH69"/>
+    <mergeCell ref="AB49:AH57"/>
+    <mergeCell ref="F127:AH127"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -10760,26 +10762,15 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AB140:AH148"/>
-    <mergeCell ref="AB107:AH118"/>
-    <mergeCell ref="AB119:AH127"/>
-    <mergeCell ref="AB129:AH139"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB84:AH93"/>
-    <mergeCell ref="AB94:AH106"/>
-    <mergeCell ref="AB71:AH83"/>
-    <mergeCell ref="AB59:AH70"/>
-    <mergeCell ref="AB50:AH58"/>
-    <mergeCell ref="F128:AH128"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="43" max="34" man="1"/>
-    <brk id="83" max="34" man="1"/>
-    <brk id="128" max="34" man="1"/>
-    <brk id="171" max="34" man="1"/>
+    <brk id="42" max="34" man="1"/>
+    <brk id="82" max="34" man="1"/>
+    <brk id="127" max="34" man="1"/>
+    <brk id="170" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952946DB-DFFC-4285-8BB3-A96FECC42225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69002BBE-01A4-4530-AD45-16AF9201E5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,10 +417,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>JAVA</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>HULFT/SFTP</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -468,26 +464,6 @@
     <t>配信</t>
     <rPh sb="0" eb="2">
       <t>ハイシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>配信用のファイルを作成する実行モジュールを起動する。
-1取引に複数の実行モジュールがある場合は、No.2のジョブは同じ数分用意する。
-(1ジョブ=1実行モジュールの呼び出し）
-※都度起動バッチが実行される想定。
-※JAVAアプリケーションである。</t>
-    <rPh sb="90" eb="92">
-      <t>ツド</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ソウテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -859,6 +835,30 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>配信用のファイルを作成する実行モジュールを起動する。
+1取引に複数の実行モジュールがある場合は、No.2のジョブは同じ数分用意する。
+(1ジョブ=1実行モジュールの呼び出し）
+※都度起動バッチが実行される想定。
+※Javaアプリケーションである。</t>
+    <rPh sb="90" eb="92">
+      <t>ツド</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ソウテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1256,72 +1256,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1348,6 +1282,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1381,6 +1324,63 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5796,39 +5796,39 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="76"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="56"/>
+      <c r="R1" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="79"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="59"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="82"/>
       <c r="AF1" s="60"/>
       <c r="AG1" s="61"/>
       <c r="AH1" s="61"/>
@@ -5841,39 +5841,39 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="65"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="85"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="66" t="s">
+      <c r="R2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="68"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="88"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="59"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="82"/>
       <c r="AF2" s="60"/>
       <c r="AG2" s="61"/>
       <c r="AH2" s="61"/>
@@ -5886,35 +5886,35 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="71"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="91"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="59"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="82"/>
       <c r="AF3" s="60"/>
       <c r="AG3" s="61"/>
       <c r="AH3" s="61"/>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="12" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F12" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6029,7 +6029,7 @@
     <row r="18" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
       <c r="F18" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
@@ -6133,7 +6133,7 @@
     <row r="21" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="19"/>
       <c r="F21" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
@@ -6173,7 +6173,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -6207,7 +6207,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
@@ -6237,7 +6237,7 @@
     <row r="24" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="19"/>
       <c r="F24" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
@@ -6277,7 +6277,7 @@
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="27"/>
@@ -6311,7 +6311,7 @@
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
@@ -6532,7 +6532,7 @@
       <c r="N33" s="30"/>
       <c r="O33" s="31"/>
       <c r="P33" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="30"/>
@@ -6561,7 +6561,7 @@
       <c r="H34" s="27"/>
       <c r="I34" s="28"/>
       <c r="J34" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F36" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -6804,7 +6804,7 @@
     <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="15"/>
       <c r="F44" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6869,13 +6869,13 @@
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
       <c r="T47" s="33" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="U47" s="34"/>
       <c r="V47" s="34"/>
       <c r="W47" s="35"/>
       <c r="X47" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y47" s="40"/>
       <c r="Z47" s="40"/>
@@ -6896,22 +6896,22 @@
       <c r="I48" s="45"/>
       <c r="J48" s="46"/>
       <c r="K48" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L48" s="45"/>
       <c r="M48" s="45"/>
       <c r="N48" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O48" s="36"/>
       <c r="P48" s="48"/>
       <c r="Q48" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R48" s="45"/>
       <c r="S48" s="45"/>
       <c r="T48" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U48" s="45"/>
       <c r="V48" s="45"/>
@@ -6954,15 +6954,15 @@
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
       <c r="AA49" s="24"/>
-      <c r="AB49" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC49" s="74"/>
-      <c r="AD49" s="74"/>
-      <c r="AE49" s="74"/>
-      <c r="AF49" s="74"/>
-      <c r="AG49" s="74"/>
-      <c r="AH49" s="75"/>
+      <c r="AB49" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="53"/>
     </row>
     <row r="50" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="15"/>
@@ -6988,13 +6988,13 @@
       <c r="Y50" s="27"/>
       <c r="Z50" s="27"/>
       <c r="AA50" s="27"/>
-      <c r="AB50" s="76"/>
-      <c r="AC50" s="77"/>
-      <c r="AD50" s="77"/>
-      <c r="AE50" s="77"/>
-      <c r="AF50" s="77"/>
-      <c r="AG50" s="77"/>
-      <c r="AH50" s="78"/>
+      <c r="AB50" s="54"/>
+      <c r="AC50" s="55"/>
+      <c r="AD50" s="55"/>
+      <c r="AE50" s="55"/>
+      <c r="AF50" s="55"/>
+      <c r="AG50" s="55"/>
+      <c r="AH50" s="56"/>
     </row>
     <row r="51" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E51" s="15"/>
@@ -7020,13 +7020,13 @@
       <c r="Y51" s="27"/>
       <c r="Z51" s="27"/>
       <c r="AA51" s="27"/>
-      <c r="AB51" s="76"/>
-      <c r="AC51" s="77"/>
-      <c r="AD51" s="77"/>
-      <c r="AE51" s="77"/>
-      <c r="AF51" s="77"/>
-      <c r="AG51" s="77"/>
-      <c r="AH51" s="78"/>
+      <c r="AB51" s="54"/>
+      <c r="AC51" s="55"/>
+      <c r="AD51" s="55"/>
+      <c r="AE51" s="55"/>
+      <c r="AF51" s="55"/>
+      <c r="AG51" s="55"/>
+      <c r="AH51" s="56"/>
     </row>
     <row r="52" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" s="15"/>
@@ -7052,13 +7052,13 @@
       <c r="Y52" s="27"/>
       <c r="Z52" s="27"/>
       <c r="AA52" s="27"/>
-      <c r="AB52" s="76"/>
-      <c r="AC52" s="77"/>
-      <c r="AD52" s="77"/>
-      <c r="AE52" s="77"/>
-      <c r="AF52" s="77"/>
-      <c r="AG52" s="77"/>
-      <c r="AH52" s="78"/>
+      <c r="AB52" s="54"/>
+      <c r="AC52" s="55"/>
+      <c r="AD52" s="55"/>
+      <c r="AE52" s="55"/>
+      <c r="AF52" s="55"/>
+      <c r="AG52" s="55"/>
+      <c r="AH52" s="56"/>
     </row>
     <row r="53" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="15"/>
@@ -7084,13 +7084,13 @@
       <c r="Y53" s="27"/>
       <c r="Z53" s="27"/>
       <c r="AA53" s="27"/>
-      <c r="AB53" s="76"/>
-      <c r="AC53" s="77"/>
-      <c r="AD53" s="77"/>
-      <c r="AE53" s="77"/>
-      <c r="AF53" s="77"/>
-      <c r="AG53" s="77"/>
-      <c r="AH53" s="78"/>
+      <c r="AB53" s="54"/>
+      <c r="AC53" s="55"/>
+      <c r="AD53" s="55"/>
+      <c r="AE53" s="55"/>
+      <c r="AF53" s="55"/>
+      <c r="AG53" s="55"/>
+      <c r="AH53" s="56"/>
     </row>
     <row r="54" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" s="15"/>
@@ -7116,13 +7116,13 @@
       <c r="Y54" s="27"/>
       <c r="Z54" s="27"/>
       <c r="AA54" s="27"/>
-      <c r="AB54" s="76"/>
-      <c r="AC54" s="77"/>
-      <c r="AD54" s="77"/>
-      <c r="AE54" s="77"/>
-      <c r="AF54" s="77"/>
-      <c r="AG54" s="77"/>
-      <c r="AH54" s="78"/>
+      <c r="AB54" s="54"/>
+      <c r="AC54" s="55"/>
+      <c r="AD54" s="55"/>
+      <c r="AE54" s="55"/>
+      <c r="AF54" s="55"/>
+      <c r="AG54" s="55"/>
+      <c r="AH54" s="56"/>
     </row>
     <row r="55" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="15"/>
@@ -7148,13 +7148,13 @@
       <c r="Y55" s="27"/>
       <c r="Z55" s="27"/>
       <c r="AA55" s="27"/>
-      <c r="AB55" s="76"/>
-      <c r="AC55" s="77"/>
-      <c r="AD55" s="77"/>
-      <c r="AE55" s="77"/>
-      <c r="AF55" s="77"/>
-      <c r="AG55" s="77"/>
-      <c r="AH55" s="78"/>
+      <c r="AB55" s="54"/>
+      <c r="AC55" s="55"/>
+      <c r="AD55" s="55"/>
+      <c r="AE55" s="55"/>
+      <c r="AF55" s="55"/>
+      <c r="AG55" s="55"/>
+      <c r="AH55" s="56"/>
     </row>
     <row r="56" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
@@ -7180,13 +7180,13 @@
       <c r="Y56" s="27"/>
       <c r="Z56" s="27"/>
       <c r="AA56" s="27"/>
-      <c r="AB56" s="76"/>
-      <c r="AC56" s="77"/>
-      <c r="AD56" s="77"/>
-      <c r="AE56" s="77"/>
-      <c r="AF56" s="77"/>
-      <c r="AG56" s="77"/>
-      <c r="AH56" s="78"/>
+      <c r="AB56" s="54"/>
+      <c r="AC56" s="55"/>
+      <c r="AD56" s="55"/>
+      <c r="AE56" s="55"/>
+      <c r="AF56" s="55"/>
+      <c r="AG56" s="55"/>
+      <c r="AH56" s="56"/>
     </row>
     <row r="57" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
@@ -7212,13 +7212,13 @@
       <c r="Y57" s="30"/>
       <c r="Z57" s="30"/>
       <c r="AA57" s="30"/>
-      <c r="AB57" s="79"/>
-      <c r="AC57" s="80"/>
-      <c r="AD57" s="80"/>
-      <c r="AE57" s="80"/>
-      <c r="AF57" s="80"/>
-      <c r="AG57" s="80"/>
-      <c r="AH57" s="81"/>
+      <c r="AB57" s="57"/>
+      <c r="AC57" s="58"/>
+      <c r="AD57" s="58"/>
+      <c r="AE57" s="58"/>
+      <c r="AF57" s="58"/>
+      <c r="AG57" s="58"/>
+      <c r="AH57" s="59"/>
     </row>
     <row r="58" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
@@ -7246,15 +7246,15 @@
       <c r="Y58" s="24"/>
       <c r="Z58" s="24"/>
       <c r="AA58" s="24"/>
-      <c r="AB58" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC58" s="74"/>
-      <c r="AD58" s="74"/>
-      <c r="AE58" s="74"/>
-      <c r="AF58" s="74"/>
-      <c r="AG58" s="74"/>
-      <c r="AH58" s="75"/>
+      <c r="AB58" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC58" s="52"/>
+      <c r="AD58" s="52"/>
+      <c r="AE58" s="52"/>
+      <c r="AF58" s="52"/>
+      <c r="AG58" s="52"/>
+      <c r="AH58" s="53"/>
     </row>
     <row r="59" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
@@ -7280,13 +7280,13 @@
       <c r="Y59" s="27"/>
       <c r="Z59" s="27"/>
       <c r="AA59" s="27"/>
-      <c r="AB59" s="76"/>
-      <c r="AC59" s="77"/>
-      <c r="AD59" s="77"/>
-      <c r="AE59" s="77"/>
-      <c r="AF59" s="77"/>
-      <c r="AG59" s="77"/>
-      <c r="AH59" s="78"/>
+      <c r="AB59" s="54"/>
+      <c r="AC59" s="55"/>
+      <c r="AD59" s="55"/>
+      <c r="AE59" s="55"/>
+      <c r="AF59" s="55"/>
+      <c r="AG59" s="55"/>
+      <c r="AH59" s="56"/>
     </row>
     <row r="60" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
@@ -7312,13 +7312,13 @@
       <c r="Y60" s="27"/>
       <c r="Z60" s="27"/>
       <c r="AA60" s="27"/>
-      <c r="AB60" s="76"/>
-      <c r="AC60" s="77"/>
-      <c r="AD60" s="77"/>
-      <c r="AE60" s="77"/>
-      <c r="AF60" s="77"/>
-      <c r="AG60" s="77"/>
-      <c r="AH60" s="78"/>
+      <c r="AB60" s="54"/>
+      <c r="AC60" s="55"/>
+      <c r="AD60" s="55"/>
+      <c r="AE60" s="55"/>
+      <c r="AF60" s="55"/>
+      <c r="AG60" s="55"/>
+      <c r="AH60" s="56"/>
     </row>
     <row r="61" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
@@ -7344,13 +7344,13 @@
       <c r="Y61" s="27"/>
       <c r="Z61" s="27"/>
       <c r="AA61" s="27"/>
-      <c r="AB61" s="76"/>
-      <c r="AC61" s="77"/>
-      <c r="AD61" s="77"/>
-      <c r="AE61" s="77"/>
-      <c r="AF61" s="77"/>
-      <c r="AG61" s="77"/>
-      <c r="AH61" s="78"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="55"/>
+      <c r="AD61" s="55"/>
+      <c r="AE61" s="55"/>
+      <c r="AF61" s="55"/>
+      <c r="AG61" s="55"/>
+      <c r="AH61" s="56"/>
     </row>
     <row r="62" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
@@ -7376,13 +7376,13 @@
       <c r="Y62" s="27"/>
       <c r="Z62" s="27"/>
       <c r="AA62" s="27"/>
-      <c r="AB62" s="76"/>
-      <c r="AC62" s="77"/>
-      <c r="AD62" s="77"/>
-      <c r="AE62" s="77"/>
-      <c r="AF62" s="77"/>
-      <c r="AG62" s="77"/>
-      <c r="AH62" s="78"/>
+      <c r="AB62" s="54"/>
+      <c r="AC62" s="55"/>
+      <c r="AD62" s="55"/>
+      <c r="AE62" s="55"/>
+      <c r="AF62" s="55"/>
+      <c r="AG62" s="55"/>
+      <c r="AH62" s="56"/>
     </row>
     <row r="63" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
@@ -7408,13 +7408,13 @@
       <c r="Y63" s="27"/>
       <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
-      <c r="AB63" s="76"/>
-      <c r="AC63" s="77"/>
-      <c r="AD63" s="77"/>
-      <c r="AE63" s="77"/>
-      <c r="AF63" s="77"/>
-      <c r="AG63" s="77"/>
-      <c r="AH63" s="78"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="55"/>
+      <c r="AD63" s="55"/>
+      <c r="AE63" s="55"/>
+      <c r="AF63" s="55"/>
+      <c r="AG63" s="55"/>
+      <c r="AH63" s="56"/>
     </row>
     <row r="64" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="15"/>
@@ -7440,13 +7440,13 @@
       <c r="Y64" s="27"/>
       <c r="Z64" s="27"/>
       <c r="AA64" s="27"/>
-      <c r="AB64" s="76"/>
-      <c r="AC64" s="77"/>
-      <c r="AD64" s="77"/>
-      <c r="AE64" s="77"/>
-      <c r="AF64" s="77"/>
-      <c r="AG64" s="77"/>
-      <c r="AH64" s="78"/>
+      <c r="AB64" s="54"/>
+      <c r="AC64" s="55"/>
+      <c r="AD64" s="55"/>
+      <c r="AE64" s="55"/>
+      <c r="AF64" s="55"/>
+      <c r="AG64" s="55"/>
+      <c r="AH64" s="56"/>
     </row>
     <row r="65" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
@@ -7472,13 +7472,13 @@
       <c r="Y65" s="27"/>
       <c r="Z65" s="27"/>
       <c r="AA65" s="27"/>
-      <c r="AB65" s="76"/>
-      <c r="AC65" s="77"/>
-      <c r="AD65" s="77"/>
-      <c r="AE65" s="77"/>
-      <c r="AF65" s="77"/>
-      <c r="AG65" s="77"/>
-      <c r="AH65" s="78"/>
+      <c r="AB65" s="54"/>
+      <c r="AC65" s="55"/>
+      <c r="AD65" s="55"/>
+      <c r="AE65" s="55"/>
+      <c r="AF65" s="55"/>
+      <c r="AG65" s="55"/>
+      <c r="AH65" s="56"/>
     </row>
     <row r="66" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="15"/>
@@ -7504,13 +7504,13 @@
       <c r="Y66" s="27"/>
       <c r="Z66" s="27"/>
       <c r="AA66" s="27"/>
-      <c r="AB66" s="76"/>
-      <c r="AC66" s="77"/>
-      <c r="AD66" s="77"/>
-      <c r="AE66" s="77"/>
-      <c r="AF66" s="77"/>
-      <c r="AG66" s="77"/>
-      <c r="AH66" s="78"/>
+      <c r="AB66" s="54"/>
+      <c r="AC66" s="55"/>
+      <c r="AD66" s="55"/>
+      <c r="AE66" s="55"/>
+      <c r="AF66" s="55"/>
+      <c r="AG66" s="55"/>
+      <c r="AH66" s="56"/>
     </row>
     <row r="67" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="15"/>
@@ -7536,13 +7536,13 @@
       <c r="Y67" s="27"/>
       <c r="Z67" s="27"/>
       <c r="AA67" s="27"/>
-      <c r="AB67" s="76"/>
-      <c r="AC67" s="77"/>
-      <c r="AD67" s="77"/>
-      <c r="AE67" s="77"/>
-      <c r="AF67" s="77"/>
-      <c r="AG67" s="77"/>
-      <c r="AH67" s="78"/>
+      <c r="AB67" s="54"/>
+      <c r="AC67" s="55"/>
+      <c r="AD67" s="55"/>
+      <c r="AE67" s="55"/>
+      <c r="AF67" s="55"/>
+      <c r="AG67" s="55"/>
+      <c r="AH67" s="56"/>
     </row>
     <row r="68" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="15"/>
@@ -7568,13 +7568,13 @@
       <c r="Y68" s="27"/>
       <c r="Z68" s="27"/>
       <c r="AA68" s="27"/>
-      <c r="AB68" s="76"/>
-      <c r="AC68" s="77"/>
-      <c r="AD68" s="77"/>
-      <c r="AE68" s="77"/>
-      <c r="AF68" s="77"/>
-      <c r="AG68" s="77"/>
-      <c r="AH68" s="78"/>
+      <c r="AB68" s="54"/>
+      <c r="AC68" s="55"/>
+      <c r="AD68" s="55"/>
+      <c r="AE68" s="55"/>
+      <c r="AF68" s="55"/>
+      <c r="AG68" s="55"/>
+      <c r="AH68" s="56"/>
     </row>
     <row r="69" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="15"/>
@@ -7600,13 +7600,13 @@
       <c r="Y69" s="30"/>
       <c r="Z69" s="30"/>
       <c r="AA69" s="30"/>
-      <c r="AB69" s="79"/>
-      <c r="AC69" s="80"/>
-      <c r="AD69" s="80"/>
-      <c r="AE69" s="80"/>
-      <c r="AF69" s="80"/>
-      <c r="AG69" s="80"/>
-      <c r="AH69" s="81"/>
+      <c r="AB69" s="57"/>
+      <c r="AC69" s="58"/>
+      <c r="AD69" s="58"/>
+      <c r="AE69" s="58"/>
+      <c r="AF69" s="58"/>
+      <c r="AG69" s="58"/>
+      <c r="AH69" s="59"/>
     </row>
     <row r="70" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="15"/>
@@ -7634,15 +7634,15 @@
       <c r="Y70" s="24"/>
       <c r="Z70" s="24"/>
       <c r="AA70" s="24"/>
-      <c r="AB70" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC70" s="74"/>
-      <c r="AD70" s="74"/>
-      <c r="AE70" s="74"/>
-      <c r="AF70" s="74"/>
-      <c r="AG70" s="74"/>
-      <c r="AH70" s="75"/>
+      <c r="AB70" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC70" s="52"/>
+      <c r="AD70" s="52"/>
+      <c r="AE70" s="52"/>
+      <c r="AF70" s="52"/>
+      <c r="AG70" s="52"/>
+      <c r="AH70" s="53"/>
     </row>
     <row r="71" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="15"/>
@@ -7668,13 +7668,13 @@
       <c r="Y71" s="27"/>
       <c r="Z71" s="27"/>
       <c r="AA71" s="27"/>
-      <c r="AB71" s="76"/>
-      <c r="AC71" s="77"/>
-      <c r="AD71" s="77"/>
-      <c r="AE71" s="77"/>
-      <c r="AF71" s="77"/>
-      <c r="AG71" s="77"/>
-      <c r="AH71" s="78"/>
+      <c r="AB71" s="54"/>
+      <c r="AC71" s="55"/>
+      <c r="AD71" s="55"/>
+      <c r="AE71" s="55"/>
+      <c r="AF71" s="55"/>
+      <c r="AG71" s="55"/>
+      <c r="AH71" s="56"/>
     </row>
     <row r="72" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="15"/>
@@ -7700,13 +7700,13 @@
       <c r="Y72" s="27"/>
       <c r="Z72" s="27"/>
       <c r="AA72" s="27"/>
-      <c r="AB72" s="76"/>
-      <c r="AC72" s="77"/>
-      <c r="AD72" s="77"/>
-      <c r="AE72" s="77"/>
-      <c r="AF72" s="77"/>
-      <c r="AG72" s="77"/>
-      <c r="AH72" s="78"/>
+      <c r="AB72" s="54"/>
+      <c r="AC72" s="55"/>
+      <c r="AD72" s="55"/>
+      <c r="AE72" s="55"/>
+      <c r="AF72" s="55"/>
+      <c r="AG72" s="55"/>
+      <c r="AH72" s="56"/>
     </row>
     <row r="73" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="15"/>
@@ -7732,13 +7732,13 @@
       <c r="Y73" s="27"/>
       <c r="Z73" s="27"/>
       <c r="AA73" s="27"/>
-      <c r="AB73" s="76"/>
-      <c r="AC73" s="77"/>
-      <c r="AD73" s="77"/>
-      <c r="AE73" s="77"/>
-      <c r="AF73" s="77"/>
-      <c r="AG73" s="77"/>
-      <c r="AH73" s="78"/>
+      <c r="AB73" s="54"/>
+      <c r="AC73" s="55"/>
+      <c r="AD73" s="55"/>
+      <c r="AE73" s="55"/>
+      <c r="AF73" s="55"/>
+      <c r="AG73" s="55"/>
+      <c r="AH73" s="56"/>
     </row>
     <row r="74" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="15"/>
@@ -7764,13 +7764,13 @@
       <c r="Y74" s="27"/>
       <c r="Z74" s="27"/>
       <c r="AA74" s="27"/>
-      <c r="AB74" s="76"/>
-      <c r="AC74" s="77"/>
-      <c r="AD74" s="77"/>
-      <c r="AE74" s="77"/>
-      <c r="AF74" s="77"/>
-      <c r="AG74" s="77"/>
-      <c r="AH74" s="78"/>
+      <c r="AB74" s="54"/>
+      <c r="AC74" s="55"/>
+      <c r="AD74" s="55"/>
+      <c r="AE74" s="55"/>
+      <c r="AF74" s="55"/>
+      <c r="AG74" s="55"/>
+      <c r="AH74" s="56"/>
     </row>
     <row r="75" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="15"/>
@@ -7796,13 +7796,13 @@
       <c r="Y75" s="27"/>
       <c r="Z75" s="27"/>
       <c r="AA75" s="27"/>
-      <c r="AB75" s="76"/>
-      <c r="AC75" s="77"/>
-      <c r="AD75" s="77"/>
-      <c r="AE75" s="77"/>
-      <c r="AF75" s="77"/>
-      <c r="AG75" s="77"/>
-      <c r="AH75" s="78"/>
+      <c r="AB75" s="54"/>
+      <c r="AC75" s="55"/>
+      <c r="AD75" s="55"/>
+      <c r="AE75" s="55"/>
+      <c r="AF75" s="55"/>
+      <c r="AG75" s="55"/>
+      <c r="AH75" s="56"/>
     </row>
     <row r="76" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="15"/>
@@ -7828,13 +7828,13 @@
       <c r="Y76" s="27"/>
       <c r="Z76" s="27"/>
       <c r="AA76" s="27"/>
-      <c r="AB76" s="76"/>
-      <c r="AC76" s="77"/>
-      <c r="AD76" s="77"/>
-      <c r="AE76" s="77"/>
-      <c r="AF76" s="77"/>
-      <c r="AG76" s="77"/>
-      <c r="AH76" s="78"/>
+      <c r="AB76" s="54"/>
+      <c r="AC76" s="55"/>
+      <c r="AD76" s="55"/>
+      <c r="AE76" s="55"/>
+      <c r="AF76" s="55"/>
+      <c r="AG76" s="55"/>
+      <c r="AH76" s="56"/>
     </row>
     <row r="77" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="15"/>
@@ -7860,13 +7860,13 @@
       <c r="Y77" s="27"/>
       <c r="Z77" s="27"/>
       <c r="AA77" s="27"/>
-      <c r="AB77" s="76"/>
-      <c r="AC77" s="77"/>
-      <c r="AD77" s="77"/>
-      <c r="AE77" s="77"/>
-      <c r="AF77" s="77"/>
-      <c r="AG77" s="77"/>
-      <c r="AH77" s="78"/>
+      <c r="AB77" s="54"/>
+      <c r="AC77" s="55"/>
+      <c r="AD77" s="55"/>
+      <c r="AE77" s="55"/>
+      <c r="AF77" s="55"/>
+      <c r="AG77" s="55"/>
+      <c r="AH77" s="56"/>
     </row>
     <row r="78" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="15"/>
@@ -7892,13 +7892,13 @@
       <c r="Y78" s="27"/>
       <c r="Z78" s="27"/>
       <c r="AA78" s="27"/>
-      <c r="AB78" s="76"/>
-      <c r="AC78" s="77"/>
-      <c r="AD78" s="77"/>
-      <c r="AE78" s="77"/>
-      <c r="AF78" s="77"/>
-      <c r="AG78" s="77"/>
-      <c r="AH78" s="78"/>
+      <c r="AB78" s="54"/>
+      <c r="AC78" s="55"/>
+      <c r="AD78" s="55"/>
+      <c r="AE78" s="55"/>
+      <c r="AF78" s="55"/>
+      <c r="AG78" s="55"/>
+      <c r="AH78" s="56"/>
     </row>
     <row r="79" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="15"/>
@@ -7924,13 +7924,13 @@
       <c r="Y79" s="27"/>
       <c r="Z79" s="27"/>
       <c r="AA79" s="27"/>
-      <c r="AB79" s="76"/>
-      <c r="AC79" s="77"/>
-      <c r="AD79" s="77"/>
-      <c r="AE79" s="77"/>
-      <c r="AF79" s="77"/>
-      <c r="AG79" s="77"/>
-      <c r="AH79" s="78"/>
+      <c r="AB79" s="54"/>
+      <c r="AC79" s="55"/>
+      <c r="AD79" s="55"/>
+      <c r="AE79" s="55"/>
+      <c r="AF79" s="55"/>
+      <c r="AG79" s="55"/>
+      <c r="AH79" s="56"/>
     </row>
     <row r="80" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="15"/>
@@ -7956,13 +7956,13 @@
       <c r="Y80" s="27"/>
       <c r="Z80" s="27"/>
       <c r="AA80" s="27"/>
-      <c r="AB80" s="76"/>
-      <c r="AC80" s="77"/>
-      <c r="AD80" s="77"/>
-      <c r="AE80" s="77"/>
-      <c r="AF80" s="77"/>
-      <c r="AG80" s="77"/>
-      <c r="AH80" s="78"/>
+      <c r="AB80" s="54"/>
+      <c r="AC80" s="55"/>
+      <c r="AD80" s="55"/>
+      <c r="AE80" s="55"/>
+      <c r="AF80" s="55"/>
+      <c r="AG80" s="55"/>
+      <c r="AH80" s="56"/>
     </row>
     <row r="81" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E81" s="15"/>
@@ -7988,13 +7988,13 @@
       <c r="Y81" s="27"/>
       <c r="Z81" s="27"/>
       <c r="AA81" s="27"/>
-      <c r="AB81" s="76"/>
-      <c r="AC81" s="77"/>
-      <c r="AD81" s="77"/>
-      <c r="AE81" s="77"/>
-      <c r="AF81" s="77"/>
-      <c r="AG81" s="77"/>
-      <c r="AH81" s="78"/>
+      <c r="AB81" s="54"/>
+      <c r="AC81" s="55"/>
+      <c r="AD81" s="55"/>
+      <c r="AE81" s="55"/>
+      <c r="AF81" s="55"/>
+      <c r="AG81" s="55"/>
+      <c r="AH81" s="56"/>
     </row>
     <row r="82" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="15"/>
@@ -8020,13 +8020,13 @@
       <c r="Y82" s="30"/>
       <c r="Z82" s="30"/>
       <c r="AA82" s="30"/>
-      <c r="AB82" s="79"/>
-      <c r="AC82" s="80"/>
-      <c r="AD82" s="80"/>
-      <c r="AE82" s="80"/>
-      <c r="AF82" s="80"/>
-      <c r="AG82" s="80"/>
-      <c r="AH82" s="81"/>
+      <c r="AB82" s="57"/>
+      <c r="AC82" s="58"/>
+      <c r="AD82" s="58"/>
+      <c r="AE82" s="58"/>
+      <c r="AF82" s="58"/>
+      <c r="AG82" s="58"/>
+      <c r="AH82" s="59"/>
     </row>
     <row r="83" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="15"/>
@@ -8054,15 +8054,15 @@
       <c r="Y83" s="24"/>
       <c r="Z83" s="24"/>
       <c r="AA83" s="24"/>
-      <c r="AB83" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC83" s="82"/>
-      <c r="AD83" s="82"/>
-      <c r="AE83" s="82"/>
-      <c r="AF83" s="82"/>
-      <c r="AG83" s="82"/>
-      <c r="AH83" s="83"/>
+      <c r="AB83" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC83" s="63"/>
+      <c r="AD83" s="63"/>
+      <c r="AE83" s="63"/>
+      <c r="AF83" s="63"/>
+      <c r="AG83" s="63"/>
+      <c r="AH83" s="64"/>
     </row>
     <row r="84" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="15"/>
@@ -8088,13 +8088,13 @@
       <c r="Y84" s="27"/>
       <c r="Z84" s="27"/>
       <c r="AA84" s="27"/>
-      <c r="AB84" s="84"/>
-      <c r="AC84" s="85"/>
-      <c r="AD84" s="85"/>
-      <c r="AE84" s="85"/>
-      <c r="AF84" s="85"/>
-      <c r="AG84" s="85"/>
-      <c r="AH84" s="86"/>
+      <c r="AB84" s="65"/>
+      <c r="AC84" s="66"/>
+      <c r="AD84" s="66"/>
+      <c r="AE84" s="66"/>
+      <c r="AF84" s="66"/>
+      <c r="AG84" s="66"/>
+      <c r="AH84" s="67"/>
     </row>
     <row r="85" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85" s="15"/>
@@ -8120,13 +8120,13 @@
       <c r="Y85" s="27"/>
       <c r="Z85" s="27"/>
       <c r="AA85" s="27"/>
-      <c r="AB85" s="84"/>
-      <c r="AC85" s="85"/>
-      <c r="AD85" s="85"/>
-      <c r="AE85" s="85"/>
-      <c r="AF85" s="85"/>
-      <c r="AG85" s="85"/>
-      <c r="AH85" s="86"/>
+      <c r="AB85" s="65"/>
+      <c r="AC85" s="66"/>
+      <c r="AD85" s="66"/>
+      <c r="AE85" s="66"/>
+      <c r="AF85" s="66"/>
+      <c r="AG85" s="66"/>
+      <c r="AH85" s="67"/>
     </row>
     <row r="86" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="15"/>
@@ -8152,13 +8152,13 @@
       <c r="Y86" s="27"/>
       <c r="Z86" s="27"/>
       <c r="AA86" s="27"/>
-      <c r="AB86" s="84"/>
-      <c r="AC86" s="85"/>
-      <c r="AD86" s="85"/>
-      <c r="AE86" s="85"/>
-      <c r="AF86" s="85"/>
-      <c r="AG86" s="85"/>
-      <c r="AH86" s="86"/>
+      <c r="AB86" s="65"/>
+      <c r="AC86" s="66"/>
+      <c r="AD86" s="66"/>
+      <c r="AE86" s="66"/>
+      <c r="AF86" s="66"/>
+      <c r="AG86" s="66"/>
+      <c r="AH86" s="67"/>
     </row>
     <row r="87" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87" s="15"/>
@@ -8184,13 +8184,13 @@
       <c r="Y87" s="27"/>
       <c r="Z87" s="27"/>
       <c r="AA87" s="27"/>
-      <c r="AB87" s="84"/>
-      <c r="AC87" s="85"/>
-      <c r="AD87" s="85"/>
-      <c r="AE87" s="85"/>
-      <c r="AF87" s="85"/>
-      <c r="AG87" s="85"/>
-      <c r="AH87" s="86"/>
+      <c r="AB87" s="65"/>
+      <c r="AC87" s="66"/>
+      <c r="AD87" s="66"/>
+      <c r="AE87" s="66"/>
+      <c r="AF87" s="66"/>
+      <c r="AG87" s="66"/>
+      <c r="AH87" s="67"/>
     </row>
     <row r="88" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="15"/>
@@ -8216,13 +8216,13 @@
       <c r="Y88" s="27"/>
       <c r="Z88" s="27"/>
       <c r="AA88" s="27"/>
-      <c r="AB88" s="84"/>
-      <c r="AC88" s="85"/>
-      <c r="AD88" s="85"/>
-      <c r="AE88" s="85"/>
-      <c r="AF88" s="85"/>
-      <c r="AG88" s="85"/>
-      <c r="AH88" s="86"/>
+      <c r="AB88" s="65"/>
+      <c r="AC88" s="66"/>
+      <c r="AD88" s="66"/>
+      <c r="AE88" s="66"/>
+      <c r="AF88" s="66"/>
+      <c r="AG88" s="66"/>
+      <c r="AH88" s="67"/>
     </row>
     <row r="89" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="15"/>
@@ -8248,13 +8248,13 @@
       <c r="Y89" s="27"/>
       <c r="Z89" s="27"/>
       <c r="AA89" s="27"/>
-      <c r="AB89" s="84"/>
-      <c r="AC89" s="85"/>
-      <c r="AD89" s="85"/>
-      <c r="AE89" s="85"/>
-      <c r="AF89" s="85"/>
-      <c r="AG89" s="85"/>
-      <c r="AH89" s="86"/>
+      <c r="AB89" s="65"/>
+      <c r="AC89" s="66"/>
+      <c r="AD89" s="66"/>
+      <c r="AE89" s="66"/>
+      <c r="AF89" s="66"/>
+      <c r="AG89" s="66"/>
+      <c r="AH89" s="67"/>
     </row>
     <row r="90" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E90" s="15"/>
@@ -8280,13 +8280,13 @@
       <c r="Y90" s="27"/>
       <c r="Z90" s="27"/>
       <c r="AA90" s="27"/>
-      <c r="AB90" s="84"/>
-      <c r="AC90" s="85"/>
-      <c r="AD90" s="85"/>
-      <c r="AE90" s="85"/>
-      <c r="AF90" s="85"/>
-      <c r="AG90" s="85"/>
-      <c r="AH90" s="86"/>
+      <c r="AB90" s="65"/>
+      <c r="AC90" s="66"/>
+      <c r="AD90" s="66"/>
+      <c r="AE90" s="66"/>
+      <c r="AF90" s="66"/>
+      <c r="AG90" s="66"/>
+      <c r="AH90" s="67"/>
     </row>
     <row r="91" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E91" s="15"/>
@@ -8312,13 +8312,13 @@
       <c r="Y91" s="27"/>
       <c r="Z91" s="27"/>
       <c r="AA91" s="27"/>
-      <c r="AB91" s="84"/>
-      <c r="AC91" s="85"/>
-      <c r="AD91" s="85"/>
-      <c r="AE91" s="85"/>
-      <c r="AF91" s="85"/>
-      <c r="AG91" s="85"/>
-      <c r="AH91" s="86"/>
+      <c r="AB91" s="65"/>
+      <c r="AC91" s="66"/>
+      <c r="AD91" s="66"/>
+      <c r="AE91" s="66"/>
+      <c r="AF91" s="66"/>
+      <c r="AG91" s="66"/>
+      <c r="AH91" s="67"/>
     </row>
     <row r="92" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="15"/>
@@ -8344,13 +8344,13 @@
       <c r="Y92" s="30"/>
       <c r="Z92" s="30"/>
       <c r="AA92" s="30"/>
-      <c r="AB92" s="87"/>
-      <c r="AC92" s="88"/>
-      <c r="AD92" s="88"/>
-      <c r="AE92" s="88"/>
-      <c r="AF92" s="88"/>
-      <c r="AG92" s="88"/>
-      <c r="AH92" s="89"/>
+      <c r="AB92" s="68"/>
+      <c r="AC92" s="69"/>
+      <c r="AD92" s="69"/>
+      <c r="AE92" s="69"/>
+      <c r="AF92" s="69"/>
+      <c r="AG92" s="69"/>
+      <c r="AH92" s="70"/>
     </row>
     <row r="93" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E93" s="15"/>
@@ -8378,15 +8378,15 @@
       <c r="Y93" s="24"/>
       <c r="Z93" s="24"/>
       <c r="AA93" s="24"/>
-      <c r="AB93" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC93" s="74"/>
-      <c r="AD93" s="74"/>
-      <c r="AE93" s="74"/>
-      <c r="AF93" s="74"/>
-      <c r="AG93" s="74"/>
-      <c r="AH93" s="75"/>
+      <c r="AB93" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC93" s="52"/>
+      <c r="AD93" s="52"/>
+      <c r="AE93" s="52"/>
+      <c r="AF93" s="52"/>
+      <c r="AG93" s="52"/>
+      <c r="AH93" s="53"/>
     </row>
     <row r="94" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E94" s="15"/>
@@ -8412,13 +8412,13 @@
       <c r="Y94" s="27"/>
       <c r="Z94" s="27"/>
       <c r="AA94" s="27"/>
-      <c r="AB94" s="76"/>
-      <c r="AC94" s="77"/>
-      <c r="AD94" s="77"/>
-      <c r="AE94" s="77"/>
-      <c r="AF94" s="77"/>
-      <c r="AG94" s="77"/>
-      <c r="AH94" s="78"/>
+      <c r="AB94" s="54"/>
+      <c r="AC94" s="55"/>
+      <c r="AD94" s="55"/>
+      <c r="AE94" s="55"/>
+      <c r="AF94" s="55"/>
+      <c r="AG94" s="55"/>
+      <c r="AH94" s="56"/>
     </row>
     <row r="95" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="15"/>
@@ -8444,13 +8444,13 @@
       <c r="Y95" s="27"/>
       <c r="Z95" s="27"/>
       <c r="AA95" s="27"/>
-      <c r="AB95" s="76"/>
-      <c r="AC95" s="77"/>
-      <c r="AD95" s="77"/>
-      <c r="AE95" s="77"/>
-      <c r="AF95" s="77"/>
-      <c r="AG95" s="77"/>
-      <c r="AH95" s="78"/>
+      <c r="AB95" s="54"/>
+      <c r="AC95" s="55"/>
+      <c r="AD95" s="55"/>
+      <c r="AE95" s="55"/>
+      <c r="AF95" s="55"/>
+      <c r="AG95" s="55"/>
+      <c r="AH95" s="56"/>
     </row>
     <row r="96" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E96" s="15"/>
@@ -8476,13 +8476,13 @@
       <c r="Y96" s="27"/>
       <c r="Z96" s="27"/>
       <c r="AA96" s="27"/>
-      <c r="AB96" s="76"/>
-      <c r="AC96" s="77"/>
-      <c r="AD96" s="77"/>
-      <c r="AE96" s="77"/>
-      <c r="AF96" s="77"/>
-      <c r="AG96" s="77"/>
-      <c r="AH96" s="78"/>
+      <c r="AB96" s="54"/>
+      <c r="AC96" s="55"/>
+      <c r="AD96" s="55"/>
+      <c r="AE96" s="55"/>
+      <c r="AF96" s="55"/>
+      <c r="AG96" s="55"/>
+      <c r="AH96" s="56"/>
     </row>
     <row r="97" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E97" s="15"/>
@@ -8508,13 +8508,13 @@
       <c r="Y97" s="27"/>
       <c r="Z97" s="27"/>
       <c r="AA97" s="27"/>
-      <c r="AB97" s="76"/>
-      <c r="AC97" s="77"/>
-      <c r="AD97" s="77"/>
-      <c r="AE97" s="77"/>
-      <c r="AF97" s="77"/>
-      <c r="AG97" s="77"/>
-      <c r="AH97" s="78"/>
+      <c r="AB97" s="54"/>
+      <c r="AC97" s="55"/>
+      <c r="AD97" s="55"/>
+      <c r="AE97" s="55"/>
+      <c r="AF97" s="55"/>
+      <c r="AG97" s="55"/>
+      <c r="AH97" s="56"/>
     </row>
     <row r="98" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E98" s="15"/>
@@ -8540,13 +8540,13 @@
       <c r="Y98" s="27"/>
       <c r="Z98" s="27"/>
       <c r="AA98" s="27"/>
-      <c r="AB98" s="76"/>
-      <c r="AC98" s="77"/>
-      <c r="AD98" s="77"/>
-      <c r="AE98" s="77"/>
-      <c r="AF98" s="77"/>
-      <c r="AG98" s="77"/>
-      <c r="AH98" s="78"/>
+      <c r="AB98" s="54"/>
+      <c r="AC98" s="55"/>
+      <c r="AD98" s="55"/>
+      <c r="AE98" s="55"/>
+      <c r="AF98" s="55"/>
+      <c r="AG98" s="55"/>
+      <c r="AH98" s="56"/>
     </row>
     <row r="99" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E99" s="15"/>
@@ -8572,13 +8572,13 @@
       <c r="Y99" s="27"/>
       <c r="Z99" s="27"/>
       <c r="AA99" s="27"/>
-      <c r="AB99" s="76"/>
-      <c r="AC99" s="77"/>
-      <c r="AD99" s="77"/>
-      <c r="AE99" s="77"/>
-      <c r="AF99" s="77"/>
-      <c r="AG99" s="77"/>
-      <c r="AH99" s="78"/>
+      <c r="AB99" s="54"/>
+      <c r="AC99" s="55"/>
+      <c r="AD99" s="55"/>
+      <c r="AE99" s="55"/>
+      <c r="AF99" s="55"/>
+      <c r="AG99" s="55"/>
+      <c r="AH99" s="56"/>
     </row>
     <row r="100" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E100" s="15"/>
@@ -8604,13 +8604,13 @@
       <c r="Y100" s="27"/>
       <c r="Z100" s="27"/>
       <c r="AA100" s="27"/>
-      <c r="AB100" s="76"/>
-      <c r="AC100" s="77"/>
-      <c r="AD100" s="77"/>
-      <c r="AE100" s="77"/>
-      <c r="AF100" s="77"/>
-      <c r="AG100" s="77"/>
-      <c r="AH100" s="78"/>
+      <c r="AB100" s="54"/>
+      <c r="AC100" s="55"/>
+      <c r="AD100" s="55"/>
+      <c r="AE100" s="55"/>
+      <c r="AF100" s="55"/>
+      <c r="AG100" s="55"/>
+      <c r="AH100" s="56"/>
     </row>
     <row r="101" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="15"/>
@@ -8636,13 +8636,13 @@
       <c r="Y101" s="27"/>
       <c r="Z101" s="27"/>
       <c r="AA101" s="27"/>
-      <c r="AB101" s="76"/>
-      <c r="AC101" s="77"/>
-      <c r="AD101" s="77"/>
-      <c r="AE101" s="77"/>
-      <c r="AF101" s="77"/>
-      <c r="AG101" s="77"/>
-      <c r="AH101" s="78"/>
+      <c r="AB101" s="54"/>
+      <c r="AC101" s="55"/>
+      <c r="AD101" s="55"/>
+      <c r="AE101" s="55"/>
+      <c r="AF101" s="55"/>
+      <c r="AG101" s="55"/>
+      <c r="AH101" s="56"/>
     </row>
     <row r="102" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E102" s="15"/>
@@ -8668,13 +8668,13 @@
       <c r="Y102" s="27"/>
       <c r="Z102" s="27"/>
       <c r="AA102" s="27"/>
-      <c r="AB102" s="76"/>
-      <c r="AC102" s="77"/>
-      <c r="AD102" s="77"/>
-      <c r="AE102" s="77"/>
-      <c r="AF102" s="77"/>
-      <c r="AG102" s="77"/>
-      <c r="AH102" s="78"/>
+      <c r="AB102" s="54"/>
+      <c r="AC102" s="55"/>
+      <c r="AD102" s="55"/>
+      <c r="AE102" s="55"/>
+      <c r="AF102" s="55"/>
+      <c r="AG102" s="55"/>
+      <c r="AH102" s="56"/>
     </row>
     <row r="103" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E103" s="15"/>
@@ -8700,13 +8700,13 @@
       <c r="Y103" s="27"/>
       <c r="Z103" s="27"/>
       <c r="AA103" s="27"/>
-      <c r="AB103" s="76"/>
-      <c r="AC103" s="77"/>
-      <c r="AD103" s="77"/>
-      <c r="AE103" s="77"/>
-      <c r="AF103" s="77"/>
-      <c r="AG103" s="77"/>
-      <c r="AH103" s="78"/>
+      <c r="AB103" s="54"/>
+      <c r="AC103" s="55"/>
+      <c r="AD103" s="55"/>
+      <c r="AE103" s="55"/>
+      <c r="AF103" s="55"/>
+      <c r="AG103" s="55"/>
+      <c r="AH103" s="56"/>
     </row>
     <row r="104" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="15"/>
@@ -8732,13 +8732,13 @@
       <c r="Y104" s="27"/>
       <c r="Z104" s="27"/>
       <c r="AA104" s="27"/>
-      <c r="AB104" s="76"/>
-      <c r="AC104" s="77"/>
-      <c r="AD104" s="77"/>
-      <c r="AE104" s="77"/>
-      <c r="AF104" s="77"/>
-      <c r="AG104" s="77"/>
-      <c r="AH104" s="78"/>
+      <c r="AB104" s="54"/>
+      <c r="AC104" s="55"/>
+      <c r="AD104" s="55"/>
+      <c r="AE104" s="55"/>
+      <c r="AF104" s="55"/>
+      <c r="AG104" s="55"/>
+      <c r="AH104" s="56"/>
     </row>
     <row r="105" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E105" s="15"/>
@@ -8764,13 +8764,13 @@
       <c r="Y105" s="27"/>
       <c r="Z105" s="27"/>
       <c r="AA105" s="27"/>
-      <c r="AB105" s="76"/>
-      <c r="AC105" s="77"/>
-      <c r="AD105" s="77"/>
-      <c r="AE105" s="77"/>
-      <c r="AF105" s="77"/>
-      <c r="AG105" s="77"/>
-      <c r="AH105" s="78"/>
+      <c r="AB105" s="54"/>
+      <c r="AC105" s="55"/>
+      <c r="AD105" s="55"/>
+      <c r="AE105" s="55"/>
+      <c r="AF105" s="55"/>
+      <c r="AG105" s="55"/>
+      <c r="AH105" s="56"/>
     </row>
     <row r="106" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E106" s="15"/>
@@ -8798,15 +8798,15 @@
       <c r="Y106" s="24"/>
       <c r="Z106" s="24"/>
       <c r="AA106" s="24"/>
-      <c r="AB106" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC106" s="74"/>
-      <c r="AD106" s="74"/>
-      <c r="AE106" s="74"/>
-      <c r="AF106" s="74"/>
-      <c r="AG106" s="74"/>
-      <c r="AH106" s="75"/>
+      <c r="AB106" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC106" s="52"/>
+      <c r="AD106" s="52"/>
+      <c r="AE106" s="52"/>
+      <c r="AF106" s="52"/>
+      <c r="AG106" s="52"/>
+      <c r="AH106" s="53"/>
     </row>
     <row r="107" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E107" s="15"/>
@@ -8832,13 +8832,13 @@
       <c r="Y107" s="27"/>
       <c r="Z107" s="27"/>
       <c r="AA107" s="27"/>
-      <c r="AB107" s="76"/>
-      <c r="AC107" s="77"/>
-      <c r="AD107" s="77"/>
-      <c r="AE107" s="77"/>
-      <c r="AF107" s="77"/>
-      <c r="AG107" s="77"/>
-      <c r="AH107" s="78"/>
+      <c r="AB107" s="54"/>
+      <c r="AC107" s="55"/>
+      <c r="AD107" s="55"/>
+      <c r="AE107" s="55"/>
+      <c r="AF107" s="55"/>
+      <c r="AG107" s="55"/>
+      <c r="AH107" s="56"/>
     </row>
     <row r="108" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E108" s="15"/>
@@ -8864,13 +8864,13 @@
       <c r="Y108" s="27"/>
       <c r="Z108" s="27"/>
       <c r="AA108" s="27"/>
-      <c r="AB108" s="76"/>
-      <c r="AC108" s="77"/>
-      <c r="AD108" s="77"/>
-      <c r="AE108" s="77"/>
-      <c r="AF108" s="77"/>
-      <c r="AG108" s="77"/>
-      <c r="AH108" s="78"/>
+      <c r="AB108" s="54"/>
+      <c r="AC108" s="55"/>
+      <c r="AD108" s="55"/>
+      <c r="AE108" s="55"/>
+      <c r="AF108" s="55"/>
+      <c r="AG108" s="55"/>
+      <c r="AH108" s="56"/>
     </row>
     <row r="109" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E109" s="15"/>
@@ -8896,13 +8896,13 @@
       <c r="Y109" s="27"/>
       <c r="Z109" s="27"/>
       <c r="AA109" s="27"/>
-      <c r="AB109" s="76"/>
-      <c r="AC109" s="77"/>
-      <c r="AD109" s="77"/>
-      <c r="AE109" s="77"/>
-      <c r="AF109" s="77"/>
-      <c r="AG109" s="77"/>
-      <c r="AH109" s="78"/>
+      <c r="AB109" s="54"/>
+      <c r="AC109" s="55"/>
+      <c r="AD109" s="55"/>
+      <c r="AE109" s="55"/>
+      <c r="AF109" s="55"/>
+      <c r="AG109" s="55"/>
+      <c r="AH109" s="56"/>
     </row>
     <row r="110" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E110" s="15"/>
@@ -8928,13 +8928,13 @@
       <c r="Y110" s="27"/>
       <c r="Z110" s="27"/>
       <c r="AA110" s="27"/>
-      <c r="AB110" s="76"/>
-      <c r="AC110" s="77"/>
-      <c r="AD110" s="77"/>
-      <c r="AE110" s="77"/>
-      <c r="AF110" s="77"/>
-      <c r="AG110" s="77"/>
-      <c r="AH110" s="78"/>
+      <c r="AB110" s="54"/>
+      <c r="AC110" s="55"/>
+      <c r="AD110" s="55"/>
+      <c r="AE110" s="55"/>
+      <c r="AF110" s="55"/>
+      <c r="AG110" s="55"/>
+      <c r="AH110" s="56"/>
     </row>
     <row r="111" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E111" s="15"/>
@@ -8960,13 +8960,13 @@
       <c r="Y111" s="27"/>
       <c r="Z111" s="27"/>
       <c r="AA111" s="27"/>
-      <c r="AB111" s="76"/>
-      <c r="AC111" s="77"/>
-      <c r="AD111" s="77"/>
-      <c r="AE111" s="77"/>
-      <c r="AF111" s="77"/>
-      <c r="AG111" s="77"/>
-      <c r="AH111" s="78"/>
+      <c r="AB111" s="54"/>
+      <c r="AC111" s="55"/>
+      <c r="AD111" s="55"/>
+      <c r="AE111" s="55"/>
+      <c r="AF111" s="55"/>
+      <c r="AG111" s="55"/>
+      <c r="AH111" s="56"/>
     </row>
     <row r="112" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E112" s="15"/>
@@ -8992,13 +8992,13 @@
       <c r="Y112" s="27"/>
       <c r="Z112" s="27"/>
       <c r="AA112" s="27"/>
-      <c r="AB112" s="76"/>
-      <c r="AC112" s="77"/>
-      <c r="AD112" s="77"/>
-      <c r="AE112" s="77"/>
-      <c r="AF112" s="77"/>
-      <c r="AG112" s="77"/>
-      <c r="AH112" s="78"/>
+      <c r="AB112" s="54"/>
+      <c r="AC112" s="55"/>
+      <c r="AD112" s="55"/>
+      <c r="AE112" s="55"/>
+      <c r="AF112" s="55"/>
+      <c r="AG112" s="55"/>
+      <c r="AH112" s="56"/>
     </row>
     <row r="113" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E113" s="15"/>
@@ -9024,13 +9024,13 @@
       <c r="Y113" s="27"/>
       <c r="Z113" s="27"/>
       <c r="AA113" s="27"/>
-      <c r="AB113" s="76"/>
-      <c r="AC113" s="77"/>
-      <c r="AD113" s="77"/>
-      <c r="AE113" s="77"/>
-      <c r="AF113" s="77"/>
-      <c r="AG113" s="77"/>
-      <c r="AH113" s="78"/>
+      <c r="AB113" s="54"/>
+      <c r="AC113" s="55"/>
+      <c r="AD113" s="55"/>
+      <c r="AE113" s="55"/>
+      <c r="AF113" s="55"/>
+      <c r="AG113" s="55"/>
+      <c r="AH113" s="56"/>
     </row>
     <row r="114" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E114" s="15"/>
@@ -9056,13 +9056,13 @@
       <c r="Y114" s="27"/>
       <c r="Z114" s="27"/>
       <c r="AA114" s="27"/>
-      <c r="AB114" s="76"/>
-      <c r="AC114" s="77"/>
-      <c r="AD114" s="77"/>
-      <c r="AE114" s="77"/>
-      <c r="AF114" s="77"/>
-      <c r="AG114" s="77"/>
-      <c r="AH114" s="78"/>
+      <c r="AB114" s="54"/>
+      <c r="AC114" s="55"/>
+      <c r="AD114" s="55"/>
+      <c r="AE114" s="55"/>
+      <c r="AF114" s="55"/>
+      <c r="AG114" s="55"/>
+      <c r="AH114" s="56"/>
     </row>
     <row r="115" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E115" s="15"/>
@@ -9088,13 +9088,13 @@
       <c r="Y115" s="27"/>
       <c r="Z115" s="27"/>
       <c r="AA115" s="27"/>
-      <c r="AB115" s="76"/>
-      <c r="AC115" s="77"/>
-      <c r="AD115" s="77"/>
-      <c r="AE115" s="77"/>
-      <c r="AF115" s="77"/>
-      <c r="AG115" s="77"/>
-      <c r="AH115" s="78"/>
+      <c r="AB115" s="54"/>
+      <c r="AC115" s="55"/>
+      <c r="AD115" s="55"/>
+      <c r="AE115" s="55"/>
+      <c r="AF115" s="55"/>
+      <c r="AG115" s="55"/>
+      <c r="AH115" s="56"/>
     </row>
     <row r="116" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E116" s="15"/>
@@ -9120,13 +9120,13 @@
       <c r="Y116" s="27"/>
       <c r="Z116" s="27"/>
       <c r="AA116" s="27"/>
-      <c r="AB116" s="76"/>
-      <c r="AC116" s="77"/>
-      <c r="AD116" s="77"/>
-      <c r="AE116" s="77"/>
-      <c r="AF116" s="77"/>
-      <c r="AG116" s="77"/>
-      <c r="AH116" s="78"/>
+      <c r="AB116" s="54"/>
+      <c r="AC116" s="55"/>
+      <c r="AD116" s="55"/>
+      <c r="AE116" s="55"/>
+      <c r="AF116" s="55"/>
+      <c r="AG116" s="55"/>
+      <c r="AH116" s="56"/>
     </row>
     <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E117" s="15"/>
@@ -9152,13 +9152,13 @@
       <c r="Y117" s="30"/>
       <c r="Z117" s="30"/>
       <c r="AA117" s="30"/>
-      <c r="AB117" s="79"/>
-      <c r="AC117" s="80"/>
-      <c r="AD117" s="80"/>
-      <c r="AE117" s="80"/>
-      <c r="AF117" s="80"/>
-      <c r="AG117" s="80"/>
-      <c r="AH117" s="81"/>
+      <c r="AB117" s="57"/>
+      <c r="AC117" s="58"/>
+      <c r="AD117" s="58"/>
+      <c r="AE117" s="58"/>
+      <c r="AF117" s="58"/>
+      <c r="AG117" s="58"/>
+      <c r="AH117" s="59"/>
     </row>
     <row r="118" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E118" s="15"/>
@@ -9186,15 +9186,15 @@
       <c r="Y118" s="24"/>
       <c r="Z118" s="24"/>
       <c r="AA118" s="24"/>
-      <c r="AB118" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC118" s="74"/>
-      <c r="AD118" s="74"/>
-      <c r="AE118" s="74"/>
-      <c r="AF118" s="74"/>
-      <c r="AG118" s="74"/>
-      <c r="AH118" s="75"/>
+      <c r="AB118" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC118" s="52"/>
+      <c r="AD118" s="52"/>
+      <c r="AE118" s="52"/>
+      <c r="AF118" s="52"/>
+      <c r="AG118" s="52"/>
+      <c r="AH118" s="53"/>
     </row>
     <row r="119" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E119" s="15"/>
@@ -9220,13 +9220,13 @@
       <c r="Y119" s="27"/>
       <c r="Z119" s="27"/>
       <c r="AA119" s="27"/>
-      <c r="AB119" s="76"/>
-      <c r="AC119" s="77"/>
-      <c r="AD119" s="77"/>
-      <c r="AE119" s="77"/>
-      <c r="AF119" s="77"/>
-      <c r="AG119" s="77"/>
-      <c r="AH119" s="78"/>
+      <c r="AB119" s="54"/>
+      <c r="AC119" s="55"/>
+      <c r="AD119" s="55"/>
+      <c r="AE119" s="55"/>
+      <c r="AF119" s="55"/>
+      <c r="AG119" s="55"/>
+      <c r="AH119" s="56"/>
     </row>
     <row r="120" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E120" s="15"/>
@@ -9252,13 +9252,13 @@
       <c r="Y120" s="27"/>
       <c r="Z120" s="27"/>
       <c r="AA120" s="27"/>
-      <c r="AB120" s="76"/>
-      <c r="AC120" s="77"/>
-      <c r="AD120" s="77"/>
-      <c r="AE120" s="77"/>
-      <c r="AF120" s="77"/>
-      <c r="AG120" s="77"/>
-      <c r="AH120" s="78"/>
+      <c r="AB120" s="54"/>
+      <c r="AC120" s="55"/>
+      <c r="AD120" s="55"/>
+      <c r="AE120" s="55"/>
+      <c r="AF120" s="55"/>
+      <c r="AG120" s="55"/>
+      <c r="AH120" s="56"/>
     </row>
     <row r="121" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="15"/>
@@ -9284,13 +9284,13 @@
       <c r="Y121" s="27"/>
       <c r="Z121" s="27"/>
       <c r="AA121" s="27"/>
-      <c r="AB121" s="76"/>
-      <c r="AC121" s="77"/>
-      <c r="AD121" s="77"/>
-      <c r="AE121" s="77"/>
-      <c r="AF121" s="77"/>
-      <c r="AG121" s="77"/>
-      <c r="AH121" s="78"/>
+      <c r="AB121" s="54"/>
+      <c r="AC121" s="55"/>
+      <c r="AD121" s="55"/>
+      <c r="AE121" s="55"/>
+      <c r="AF121" s="55"/>
+      <c r="AG121" s="55"/>
+      <c r="AH121" s="56"/>
     </row>
     <row r="122" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="15"/>
@@ -9316,13 +9316,13 @@
       <c r="Y122" s="27"/>
       <c r="Z122" s="27"/>
       <c r="AA122" s="27"/>
-      <c r="AB122" s="76"/>
-      <c r="AC122" s="77"/>
-      <c r="AD122" s="77"/>
-      <c r="AE122" s="77"/>
-      <c r="AF122" s="77"/>
-      <c r="AG122" s="77"/>
-      <c r="AH122" s="78"/>
+      <c r="AB122" s="54"/>
+      <c r="AC122" s="55"/>
+      <c r="AD122" s="55"/>
+      <c r="AE122" s="55"/>
+      <c r="AF122" s="55"/>
+      <c r="AG122" s="55"/>
+      <c r="AH122" s="56"/>
     </row>
     <row r="123" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E123" s="15"/>
@@ -9348,13 +9348,13 @@
       <c r="Y123" s="27"/>
       <c r="Z123" s="27"/>
       <c r="AA123" s="27"/>
-      <c r="AB123" s="76"/>
-      <c r="AC123" s="77"/>
-      <c r="AD123" s="77"/>
-      <c r="AE123" s="77"/>
-      <c r="AF123" s="77"/>
-      <c r="AG123" s="77"/>
-      <c r="AH123" s="78"/>
+      <c r="AB123" s="54"/>
+      <c r="AC123" s="55"/>
+      <c r="AD123" s="55"/>
+      <c r="AE123" s="55"/>
+      <c r="AF123" s="55"/>
+      <c r="AG123" s="55"/>
+      <c r="AH123" s="56"/>
     </row>
     <row r="124" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E124" s="15"/>
@@ -9380,13 +9380,13 @@
       <c r="Y124" s="27"/>
       <c r="Z124" s="27"/>
       <c r="AA124" s="27"/>
-      <c r="AB124" s="76"/>
-      <c r="AC124" s="77"/>
-      <c r="AD124" s="77"/>
-      <c r="AE124" s="77"/>
-      <c r="AF124" s="77"/>
-      <c r="AG124" s="77"/>
-      <c r="AH124" s="78"/>
+      <c r="AB124" s="54"/>
+      <c r="AC124" s="55"/>
+      <c r="AD124" s="55"/>
+      <c r="AE124" s="55"/>
+      <c r="AF124" s="55"/>
+      <c r="AG124" s="55"/>
+      <c r="AH124" s="56"/>
     </row>
     <row r="125" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E125" s="15"/>
@@ -9412,13 +9412,13 @@
       <c r="Y125" s="27"/>
       <c r="Z125" s="27"/>
       <c r="AA125" s="27"/>
-      <c r="AB125" s="76"/>
-      <c r="AC125" s="77"/>
-      <c r="AD125" s="77"/>
-      <c r="AE125" s="77"/>
-      <c r="AF125" s="77"/>
-      <c r="AG125" s="77"/>
-      <c r="AH125" s="78"/>
+      <c r="AB125" s="54"/>
+      <c r="AC125" s="55"/>
+      <c r="AD125" s="55"/>
+      <c r="AE125" s="55"/>
+      <c r="AF125" s="55"/>
+      <c r="AG125" s="55"/>
+      <c r="AH125" s="56"/>
     </row>
     <row r="126" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E126" s="15"/>
@@ -9444,47 +9444,47 @@
       <c r="Y126" s="30"/>
       <c r="Z126" s="30"/>
       <c r="AA126" s="30"/>
-      <c r="AB126" s="79"/>
-      <c r="AC126" s="80"/>
-      <c r="AD126" s="80"/>
-      <c r="AE126" s="80"/>
-      <c r="AF126" s="80"/>
-      <c r="AG126" s="80"/>
-      <c r="AH126" s="81"/>
+      <c r="AB126" s="57"/>
+      <c r="AC126" s="58"/>
+      <c r="AD126" s="58"/>
+      <c r="AE126" s="58"/>
+      <c r="AF126" s="58"/>
+      <c r="AG126" s="58"/>
+      <c r="AH126" s="59"/>
     </row>
     <row r="127" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E127" s="15"/>
-      <c r="F127" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="G127" s="91"/>
-      <c r="H127" s="91"/>
-      <c r="I127" s="91"/>
-      <c r="J127" s="91"/>
-      <c r="K127" s="91"/>
-      <c r="L127" s="91"/>
-      <c r="M127" s="91"/>
-      <c r="N127" s="91"/>
-      <c r="O127" s="91"/>
-      <c r="P127" s="91"/>
-      <c r="Q127" s="91"/>
-      <c r="R127" s="91"/>
-      <c r="S127" s="91"/>
-      <c r="T127" s="91"/>
-      <c r="U127" s="91"/>
-      <c r="V127" s="91"/>
-      <c r="W127" s="91"/>
-      <c r="X127" s="91"/>
-      <c r="Y127" s="91"/>
-      <c r="Z127" s="91"/>
-      <c r="AA127" s="91"/>
-      <c r="AB127" s="91"/>
-      <c r="AC127" s="91"/>
-      <c r="AD127" s="91"/>
-      <c r="AE127" s="91"/>
-      <c r="AF127" s="91"/>
-      <c r="AG127" s="91"/>
-      <c r="AH127" s="92"/>
+      <c r="F127" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="G127" s="72"/>
+      <c r="H127" s="72"/>
+      <c r="I127" s="72"/>
+      <c r="J127" s="72"/>
+      <c r="K127" s="72"/>
+      <c r="L127" s="72"/>
+      <c r="M127" s="72"/>
+      <c r="N127" s="72"/>
+      <c r="O127" s="72"/>
+      <c r="P127" s="72"/>
+      <c r="Q127" s="72"/>
+      <c r="R127" s="72"/>
+      <c r="S127" s="72"/>
+      <c r="T127" s="72"/>
+      <c r="U127" s="72"/>
+      <c r="V127" s="72"/>
+      <c r="W127" s="72"/>
+      <c r="X127" s="72"/>
+      <c r="Y127" s="72"/>
+      <c r="Z127" s="72"/>
+      <c r="AA127" s="72"/>
+      <c r="AB127" s="72"/>
+      <c r="AC127" s="72"/>
+      <c r="AD127" s="72"/>
+      <c r="AE127" s="72"/>
+      <c r="AF127" s="72"/>
+      <c r="AG127" s="72"/>
+      <c r="AH127" s="73"/>
     </row>
     <row r="128" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E128" s="15"/>
@@ -9512,15 +9512,15 @@
       <c r="Y128" s="24"/>
       <c r="Z128" s="24"/>
       <c r="AA128" s="25"/>
-      <c r="AB128" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC128" s="74"/>
-      <c r="AD128" s="74"/>
-      <c r="AE128" s="74"/>
-      <c r="AF128" s="74"/>
-      <c r="AG128" s="74"/>
-      <c r="AH128" s="75"/>
+      <c r="AB128" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC128" s="52"/>
+      <c r="AD128" s="52"/>
+      <c r="AE128" s="52"/>
+      <c r="AF128" s="52"/>
+      <c r="AG128" s="52"/>
+      <c r="AH128" s="53"/>
     </row>
     <row r="129" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E129" s="15"/>
@@ -9546,13 +9546,13 @@
       <c r="Y129" s="27"/>
       <c r="Z129" s="27"/>
       <c r="AA129" s="28"/>
-      <c r="AB129" s="76"/>
-      <c r="AC129" s="77"/>
-      <c r="AD129" s="77"/>
-      <c r="AE129" s="77"/>
-      <c r="AF129" s="77"/>
-      <c r="AG129" s="77"/>
-      <c r="AH129" s="78"/>
+      <c r="AB129" s="54"/>
+      <c r="AC129" s="55"/>
+      <c r="AD129" s="55"/>
+      <c r="AE129" s="55"/>
+      <c r="AF129" s="55"/>
+      <c r="AG129" s="55"/>
+      <c r="AH129" s="56"/>
     </row>
     <row r="130" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E130" s="15"/>
@@ -9578,13 +9578,13 @@
       <c r="Y130" s="27"/>
       <c r="Z130" s="27"/>
       <c r="AA130" s="28"/>
-      <c r="AB130" s="76"/>
-      <c r="AC130" s="77"/>
-      <c r="AD130" s="77"/>
-      <c r="AE130" s="77"/>
-      <c r="AF130" s="77"/>
-      <c r="AG130" s="77"/>
-      <c r="AH130" s="78"/>
+      <c r="AB130" s="54"/>
+      <c r="AC130" s="55"/>
+      <c r="AD130" s="55"/>
+      <c r="AE130" s="55"/>
+      <c r="AF130" s="55"/>
+      <c r="AG130" s="55"/>
+      <c r="AH130" s="56"/>
     </row>
     <row r="131" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E131" s="15"/>
@@ -9610,13 +9610,13 @@
       <c r="Y131" s="27"/>
       <c r="Z131" s="27"/>
       <c r="AA131" s="27"/>
-      <c r="AB131" s="76"/>
-      <c r="AC131" s="77"/>
-      <c r="AD131" s="77"/>
-      <c r="AE131" s="77"/>
-      <c r="AF131" s="77"/>
-      <c r="AG131" s="77"/>
-      <c r="AH131" s="78"/>
+      <c r="AB131" s="54"/>
+      <c r="AC131" s="55"/>
+      <c r="AD131" s="55"/>
+      <c r="AE131" s="55"/>
+      <c r="AF131" s="55"/>
+      <c r="AG131" s="55"/>
+      <c r="AH131" s="56"/>
     </row>
     <row r="132" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E132" s="15"/>
@@ -9642,13 +9642,13 @@
       <c r="Y132" s="27"/>
       <c r="Z132" s="27"/>
       <c r="AA132" s="27"/>
-      <c r="AB132" s="76"/>
-      <c r="AC132" s="77"/>
-      <c r="AD132" s="77"/>
-      <c r="AE132" s="77"/>
-      <c r="AF132" s="77"/>
-      <c r="AG132" s="77"/>
-      <c r="AH132" s="78"/>
+      <c r="AB132" s="54"/>
+      <c r="AC132" s="55"/>
+      <c r="AD132" s="55"/>
+      <c r="AE132" s="55"/>
+      <c r="AF132" s="55"/>
+      <c r="AG132" s="55"/>
+      <c r="AH132" s="56"/>
     </row>
     <row r="133" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E133" s="15"/>
@@ -9674,13 +9674,13 @@
       <c r="Y133" s="27"/>
       <c r="Z133" s="27"/>
       <c r="AA133" s="27"/>
-      <c r="AB133" s="76"/>
-      <c r="AC133" s="77"/>
-      <c r="AD133" s="77"/>
-      <c r="AE133" s="77"/>
-      <c r="AF133" s="77"/>
-      <c r="AG133" s="77"/>
-      <c r="AH133" s="78"/>
+      <c r="AB133" s="54"/>
+      <c r="AC133" s="55"/>
+      <c r="AD133" s="55"/>
+      <c r="AE133" s="55"/>
+      <c r="AF133" s="55"/>
+      <c r="AG133" s="55"/>
+      <c r="AH133" s="56"/>
     </row>
     <row r="134" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E134" s="15"/>
@@ -9706,13 +9706,13 @@
       <c r="Y134" s="27"/>
       <c r="Z134" s="27"/>
       <c r="AA134" s="27"/>
-      <c r="AB134" s="76"/>
-      <c r="AC134" s="77"/>
-      <c r="AD134" s="77"/>
-      <c r="AE134" s="77"/>
-      <c r="AF134" s="77"/>
-      <c r="AG134" s="77"/>
-      <c r="AH134" s="78"/>
+      <c r="AB134" s="54"/>
+      <c r="AC134" s="55"/>
+      <c r="AD134" s="55"/>
+      <c r="AE134" s="55"/>
+      <c r="AF134" s="55"/>
+      <c r="AG134" s="55"/>
+      <c r="AH134" s="56"/>
     </row>
     <row r="135" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E135" s="15"/>
@@ -9738,13 +9738,13 @@
       <c r="Y135" s="27"/>
       <c r="Z135" s="27"/>
       <c r="AA135" s="27"/>
-      <c r="AB135" s="76"/>
-      <c r="AC135" s="77"/>
-      <c r="AD135" s="77"/>
-      <c r="AE135" s="77"/>
-      <c r="AF135" s="77"/>
-      <c r="AG135" s="77"/>
-      <c r="AH135" s="78"/>
+      <c r="AB135" s="54"/>
+      <c r="AC135" s="55"/>
+      <c r="AD135" s="55"/>
+      <c r="AE135" s="55"/>
+      <c r="AF135" s="55"/>
+      <c r="AG135" s="55"/>
+      <c r="AH135" s="56"/>
     </row>
     <row r="136" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E136" s="15"/>
@@ -9770,13 +9770,13 @@
       <c r="Y136" s="27"/>
       <c r="Z136" s="27"/>
       <c r="AA136" s="27"/>
-      <c r="AB136" s="76"/>
-      <c r="AC136" s="77"/>
-      <c r="AD136" s="77"/>
-      <c r="AE136" s="77"/>
-      <c r="AF136" s="77"/>
-      <c r="AG136" s="77"/>
-      <c r="AH136" s="78"/>
+      <c r="AB136" s="54"/>
+      <c r="AC136" s="55"/>
+      <c r="AD136" s="55"/>
+      <c r="AE136" s="55"/>
+      <c r="AF136" s="55"/>
+      <c r="AG136" s="55"/>
+      <c r="AH136" s="56"/>
     </row>
     <row r="137" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E137" s="15"/>
@@ -9802,13 +9802,13 @@
       <c r="Y137" s="27"/>
       <c r="Z137" s="27"/>
       <c r="AA137" s="27"/>
-      <c r="AB137" s="76"/>
-      <c r="AC137" s="77"/>
-      <c r="AD137" s="77"/>
-      <c r="AE137" s="77"/>
-      <c r="AF137" s="77"/>
-      <c r="AG137" s="77"/>
-      <c r="AH137" s="78"/>
+      <c r="AB137" s="54"/>
+      <c r="AC137" s="55"/>
+      <c r="AD137" s="55"/>
+      <c r="AE137" s="55"/>
+      <c r="AF137" s="55"/>
+      <c r="AG137" s="55"/>
+      <c r="AH137" s="56"/>
     </row>
     <row r="138" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E138" s="15"/>
@@ -9834,13 +9834,13 @@
       <c r="Y138" s="30"/>
       <c r="Z138" s="30"/>
       <c r="AA138" s="30"/>
-      <c r="AB138" s="79"/>
-      <c r="AC138" s="80"/>
-      <c r="AD138" s="80"/>
-      <c r="AE138" s="80"/>
-      <c r="AF138" s="80"/>
-      <c r="AG138" s="80"/>
-      <c r="AH138" s="81"/>
+      <c r="AB138" s="57"/>
+      <c r="AC138" s="58"/>
+      <c r="AD138" s="58"/>
+      <c r="AE138" s="58"/>
+      <c r="AF138" s="58"/>
+      <c r="AG138" s="58"/>
+      <c r="AH138" s="59"/>
     </row>
     <row r="139" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E139" s="15"/>
@@ -9868,15 +9868,15 @@
       <c r="Y139" s="24"/>
       <c r="Z139" s="24"/>
       <c r="AA139" s="25"/>
-      <c r="AB139" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC139" s="74"/>
-      <c r="AD139" s="74"/>
-      <c r="AE139" s="74"/>
-      <c r="AF139" s="74"/>
-      <c r="AG139" s="74"/>
-      <c r="AH139" s="75"/>
+      <c r="AB139" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC139" s="52"/>
+      <c r="AD139" s="52"/>
+      <c r="AE139" s="52"/>
+      <c r="AF139" s="52"/>
+      <c r="AG139" s="52"/>
+      <c r="AH139" s="53"/>
     </row>
     <row r="140" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E140" s="15"/>
@@ -9902,13 +9902,13 @@
       <c r="Y140" s="27"/>
       <c r="Z140" s="27"/>
       <c r="AA140" s="28"/>
-      <c r="AB140" s="76"/>
-      <c r="AC140" s="77"/>
-      <c r="AD140" s="77"/>
-      <c r="AE140" s="77"/>
-      <c r="AF140" s="77"/>
-      <c r="AG140" s="77"/>
-      <c r="AH140" s="78"/>
+      <c r="AB140" s="54"/>
+      <c r="AC140" s="55"/>
+      <c r="AD140" s="55"/>
+      <c r="AE140" s="55"/>
+      <c r="AF140" s="55"/>
+      <c r="AG140" s="55"/>
+      <c r="AH140" s="56"/>
     </row>
     <row r="141" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E141" s="15"/>
@@ -9934,13 +9934,13 @@
       <c r="Y141" s="27"/>
       <c r="Z141" s="27"/>
       <c r="AA141" s="27"/>
-      <c r="AB141" s="76"/>
-      <c r="AC141" s="77"/>
-      <c r="AD141" s="77"/>
-      <c r="AE141" s="77"/>
-      <c r="AF141" s="77"/>
-      <c r="AG141" s="77"/>
-      <c r="AH141" s="78"/>
+      <c r="AB141" s="54"/>
+      <c r="AC141" s="55"/>
+      <c r="AD141" s="55"/>
+      <c r="AE141" s="55"/>
+      <c r="AF141" s="55"/>
+      <c r="AG141" s="55"/>
+      <c r="AH141" s="56"/>
     </row>
     <row r="142" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E142" s="15"/>
@@ -9966,13 +9966,13 @@
       <c r="Y142" s="27"/>
       <c r="Z142" s="27"/>
       <c r="AA142" s="27"/>
-      <c r="AB142" s="76"/>
-      <c r="AC142" s="77"/>
-      <c r="AD142" s="77"/>
-      <c r="AE142" s="77"/>
-      <c r="AF142" s="77"/>
-      <c r="AG142" s="77"/>
-      <c r="AH142" s="78"/>
+      <c r="AB142" s="54"/>
+      <c r="AC142" s="55"/>
+      <c r="AD142" s="55"/>
+      <c r="AE142" s="55"/>
+      <c r="AF142" s="55"/>
+      <c r="AG142" s="55"/>
+      <c r="AH142" s="56"/>
     </row>
     <row r="143" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E143" s="15"/>
@@ -9998,13 +9998,13 @@
       <c r="Y143" s="27"/>
       <c r="Z143" s="27"/>
       <c r="AA143" s="27"/>
-      <c r="AB143" s="76"/>
-      <c r="AC143" s="77"/>
-      <c r="AD143" s="77"/>
-      <c r="AE143" s="77"/>
-      <c r="AF143" s="77"/>
-      <c r="AG143" s="77"/>
-      <c r="AH143" s="78"/>
+      <c r="AB143" s="54"/>
+      <c r="AC143" s="55"/>
+      <c r="AD143" s="55"/>
+      <c r="AE143" s="55"/>
+      <c r="AF143" s="55"/>
+      <c r="AG143" s="55"/>
+      <c r="AH143" s="56"/>
     </row>
     <row r="144" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E144" s="15"/>
@@ -10030,13 +10030,13 @@
       <c r="Y144" s="27"/>
       <c r="Z144" s="27"/>
       <c r="AA144" s="27"/>
-      <c r="AB144" s="76"/>
-      <c r="AC144" s="77"/>
-      <c r="AD144" s="77"/>
-      <c r="AE144" s="77"/>
-      <c r="AF144" s="77"/>
-      <c r="AG144" s="77"/>
-      <c r="AH144" s="78"/>
+      <c r="AB144" s="54"/>
+      <c r="AC144" s="55"/>
+      <c r="AD144" s="55"/>
+      <c r="AE144" s="55"/>
+      <c r="AF144" s="55"/>
+      <c r="AG144" s="55"/>
+      <c r="AH144" s="56"/>
     </row>
     <row r="145" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E145" s="15"/>
@@ -10062,13 +10062,13 @@
       <c r="Y145" s="27"/>
       <c r="Z145" s="27"/>
       <c r="AA145" s="27"/>
-      <c r="AB145" s="76"/>
-      <c r="AC145" s="77"/>
-      <c r="AD145" s="77"/>
-      <c r="AE145" s="77"/>
-      <c r="AF145" s="77"/>
-      <c r="AG145" s="77"/>
-      <c r="AH145" s="78"/>
+      <c r="AB145" s="54"/>
+      <c r="AC145" s="55"/>
+      <c r="AD145" s="55"/>
+      <c r="AE145" s="55"/>
+      <c r="AF145" s="55"/>
+      <c r="AG145" s="55"/>
+      <c r="AH145" s="56"/>
     </row>
     <row r="146" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E146" s="15"/>
@@ -10094,13 +10094,13 @@
       <c r="Y146" s="27"/>
       <c r="Z146" s="27"/>
       <c r="AA146" s="27"/>
-      <c r="AB146" s="76"/>
-      <c r="AC146" s="77"/>
-      <c r="AD146" s="77"/>
-      <c r="AE146" s="77"/>
-      <c r="AF146" s="77"/>
-      <c r="AG146" s="77"/>
-      <c r="AH146" s="78"/>
+      <c r="AB146" s="54"/>
+      <c r="AC146" s="55"/>
+      <c r="AD146" s="55"/>
+      <c r="AE146" s="55"/>
+      <c r="AF146" s="55"/>
+      <c r="AG146" s="55"/>
+      <c r="AH146" s="56"/>
     </row>
     <row r="147" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E147" s="15"/>
@@ -10126,13 +10126,13 @@
       <c r="Y147" s="30"/>
       <c r="Z147" s="30"/>
       <c r="AA147" s="30"/>
-      <c r="AB147" s="79"/>
-      <c r="AC147" s="80"/>
-      <c r="AD147" s="80"/>
-      <c r="AE147" s="80"/>
-      <c r="AF147" s="80"/>
-      <c r="AG147" s="80"/>
-      <c r="AH147" s="81"/>
+      <c r="AB147" s="57"/>
+      <c r="AC147" s="58"/>
+      <c r="AD147" s="58"/>
+      <c r="AE147" s="58"/>
+      <c r="AF147" s="58"/>
+      <c r="AG147" s="58"/>
+      <c r="AH147" s="59"/>
     </row>
     <row r="148" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E148" s="15"/>
@@ -10140,28 +10140,28 @@
     <row r="149" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E149" s="15"/>
       <c r="F149" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="150" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E150" s="15"/>
       <c r="H150" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="151" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E151" s="15"/>
       <c r="H151" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="152" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D152" s="18"/>
       <c r="H152" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10195,7 +10195,7 @@
     </row>
     <row r="160" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E160" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F160" s="17"/>
       <c r="G160" s="17"/>
@@ -10290,7 +10290,7 @@
         <v>25</v>
       </c>
       <c r="F174" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="175" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
@@ -10741,6 +10741,16 @@
     <row r="610" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AB139:AH147"/>
     <mergeCell ref="AB106:AH117"/>
     <mergeCell ref="AB118:AH126"/>
@@ -10752,16 +10762,6 @@
     <mergeCell ref="AB58:AH69"/>
     <mergeCell ref="AB49:AH57"/>
     <mergeCell ref="F127:AH127"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69002BBE-01A4-4530-AD45-16AF9201E5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.2.ファイル転送（配信）" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -307,13 +319,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ファイル転送方式（配信）は、ファイルの生成からファイルの配信に至るまでの処理についての方式設計を行う。</t>
-    <rPh sb="9" eb="11">
-      <t>ハイシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>外部IFの要件に基づき、FTPによるファイル転送（配信）を使用しない。</t>
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
@@ -409,10 +414,6 @@
   </si>
   <si>
     <t>ディレクトリ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>JAVA</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -463,26 +464,6 @@
     <t>配信</t>
     <rPh sb="0" eb="2">
       <t>ハイシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>配信用のファイルを作成する実行モジュールを起動する。
-1取引に複数の実行モジュールがある場合は、No.2のジョブは同じ数分用意する。
-(1ジョブ=1実行モジュールの呼び出し）
-※都度起動バッチが実行される想定。
-※JAVAアプリケーションである。</t>
-    <rPh sb="90" eb="92">
-      <t>ツド</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ソウテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -857,11 +838,35 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>配信用のファイルを作成する実行モジュールを起動する。
+1取引に複数の実行モジュールがある場合は、No.2のジョブは同じ数分用意する。
+(1ジョブ=1実行モジュールの呼び出し）
+※都度起動バッチが実行される想定。
+※Javaアプリケーションである。</t>
+    <rPh sb="90" eb="92">
+      <t>ツド</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1380,16 +1385,19 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1401,18 +1409,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1457,18 +1471,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1526,16 +1546,6 @@
             </a:rPr>
             <a:t>ファイルコピー</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
@@ -1564,18 +1574,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="フローチャート : 記憶データ 84"/>
+        <xdr:cNvPr id="85" name="フローチャート : 記憶データ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1626,18 +1642,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+        <xdr:cNvPr id="87" name="正方形/長方形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1695,16 +1717,6 @@
             </a:rPr>
             <a:t>ファイルコピー</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
@@ -1733,18 +1745,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="フローチャート : 記憶データ 87"/>
+        <xdr:cNvPr id="88" name="フローチャート : 記憶データ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1795,18 +1813,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="フローチャート : 記憶データ 88"/>
+        <xdr:cNvPr id="89" name="フローチャート : 記憶データ 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1857,18 +1881,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="フローチャート : 記憶データ 89"/>
+        <xdr:cNvPr id="90" name="フローチャート : 記憶データ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1919,18 +1949,24 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="カギ線コネクタ 90"/>
+        <xdr:cNvPr id="91" name="カギ線コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="90" idx="2"/>
           <a:endCxn id="88" idx="3"/>
@@ -1973,18 +2009,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直線矢印コネクタ 91"/>
+        <xdr:cNvPr id="92" name="直線矢印コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="83" idx="3"/>
           <a:endCxn id="130" idx="1"/>
@@ -2027,18 +2069,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="直線矢印コネクタ 93"/>
+        <xdr:cNvPr id="94" name="直線矢印コネクタ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="87" idx="3"/>
           <a:endCxn id="90" idx="1"/>
@@ -2081,18 +2129,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+        <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2159,18 +2213,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="フローチャート : 記憶データ 96"/>
+        <xdr:cNvPr id="97" name="フローチャート : 記憶データ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2221,18 +2281,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="3"/>
           <a:endCxn id="97" idx="1"/>
@@ -2275,18 +2341,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="フローチャート : 記憶データ 98"/>
+        <xdr:cNvPr id="99" name="フローチャート : 記憶データ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2337,18 +2409,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="直線矢印コネクタ 99"/>
+        <xdr:cNvPr id="100" name="直線矢印コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="97" idx="2"/>
           <a:endCxn id="99" idx="0"/>
@@ -2391,18 +2469,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="フローチャート : 記憶データ 101"/>
+        <xdr:cNvPr id="102" name="フローチャート : 記憶データ 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2453,18 +2537,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2561,18 +2651,24 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2639,18 +2735,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="直線矢印コネクタ 104"/>
+        <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="103" idx="3"/>
           <a:endCxn id="104" idx="1"/>
@@ -2692,18 +2794,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>261939</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="106" name="カギ線コネクタ 105"/>
+        <xdr:cNvPr id="106" name="カギ線コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="104" idx="2"/>
           <a:endCxn id="102" idx="0"/>
@@ -2748,18 +2856,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2826,18 +2940,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="フローチャート : 記憶データ 108"/>
+        <xdr:cNvPr id="109" name="フローチャート : 記憶データ 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2888,18 +3008,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直線矢印コネクタ 109"/>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="107" idx="3"/>
           <a:endCxn id="109" idx="1"/>
@@ -2942,18 +3068,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="乗算記号 110"/>
+        <xdr:cNvPr id="111" name="乗算記号 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2994,18 +3126,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="直線矢印コネクタ 113"/>
+        <xdr:cNvPr id="114" name="直線矢印コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="155" idx="2"/>
           <a:endCxn id="125" idx="0"/>
@@ -3047,18 +3185,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="直線矢印コネクタ 114"/>
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="83" idx="2"/>
           <a:endCxn id="87" idx="0"/>
@@ -3100,18 +3244,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="直線矢印コネクタ 115"/>
+        <xdr:cNvPr id="116" name="直線矢印コネクタ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="87" idx="2"/>
           <a:endCxn id="141" idx="0"/>
@@ -3153,18 +3303,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直線矢印コネクタ 116"/>
+        <xdr:cNvPr id="117" name="直線矢印コネクタ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="2"/>
           <a:endCxn id="83" idx="0"/>
@@ -3206,18 +3362,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="直線矢印コネクタ 117"/>
+        <xdr:cNvPr id="118" name="直線矢印コネクタ 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="103" idx="2"/>
           <a:endCxn id="95" idx="0"/>
@@ -3259,18 +3421,24 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="テキスト ボックス 122"/>
+        <xdr:cNvPr id="123" name="テキスト ボックス 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3318,18 +3486,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="直線矢印コネクタ 123"/>
+        <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="123" idx="1"/>
           <a:endCxn id="125" idx="3"/>
@@ -3372,18 +3546,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+        <xdr:cNvPr id="125" name="正方形/長方形 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3450,18 +3630,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="直線矢印コネクタ 127"/>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="107" idx="2"/>
           <a:endCxn id="103" idx="0"/>
@@ -3503,18 +3689,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="フローチャート : 記憶データ 129"/>
+        <xdr:cNvPr id="130" name="フローチャート : 記憶データ 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3565,18 +3757,24 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>22226</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="カギ線コネクタ 132"/>
+        <xdr:cNvPr id="133" name="カギ線コネクタ 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="130" idx="2"/>
           <a:endCxn id="85" idx="3"/>
@@ -3619,18 +3817,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="正方形/長方形 140"/>
+        <xdr:cNvPr id="141" name="正方形/長方形 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3697,18 +3901,24 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="正方形/長方形 141"/>
+        <xdr:cNvPr id="142" name="正方形/長方形 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3795,18 +4005,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="143" name="直線矢印コネクタ 142"/>
+        <xdr:cNvPr id="143" name="直線矢印コネクタ 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="141" idx="3"/>
           <a:endCxn id="142" idx="1"/>
@@ -3848,18 +4064,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="フローチャート : 記憶データ 143"/>
+        <xdr:cNvPr id="144" name="フローチャート : 記憶データ 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3910,18 +4132,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="145" name="カギ線コネクタ 144"/>
+        <xdr:cNvPr id="145" name="カギ線コネクタ 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="142" idx="2"/>
           <a:endCxn id="144" idx="0"/>
@@ -3964,18 +4192,24 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="テキスト ボックス 145"/>
+        <xdr:cNvPr id="146" name="テキスト ボックス 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4023,18 +4257,24 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="147" name="直線矢印コネクタ 146"/>
+        <xdr:cNvPr id="147" name="直線矢印コネクタ 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="144" idx="3"/>
           <a:endCxn id="146" idx="1"/>
@@ -4077,18 +4317,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="148" name="直線矢印コネクタ 147"/>
+        <xdr:cNvPr id="148" name="直線矢印コネクタ 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="141" idx="2"/>
           <a:endCxn id="155" idx="0"/>
@@ -4130,18 +4376,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="フローチャート : 記憶データ 152"/>
+        <xdr:cNvPr id="153" name="フローチャート : 記憶データ 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4192,18 +4444,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="フローチャート : 記憶データ 153"/>
+        <xdr:cNvPr id="154" name="フローチャート : 記憶データ 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4254,18 +4512,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="正方形/長方形 154"/>
+        <xdr:cNvPr id="155" name="正方形/長方形 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4332,18 +4596,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="157" name="直線矢印コネクタ 156"/>
+        <xdr:cNvPr id="157" name="直線矢印コネクタ 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="155" idx="3"/>
           <a:endCxn id="160" idx="1"/>
@@ -4386,18 +4656,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="フローチャート : 記憶データ 159"/>
+        <xdr:cNvPr id="160" name="フローチャート : 記憶データ 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4448,18 +4724,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="乗算記号 162"/>
+        <xdr:cNvPr id="163" name="乗算記号 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4500,18 +4782,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="フローチャート : 記憶データ 163"/>
+        <xdr:cNvPr id="164" name="フローチャート : 記憶データ 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4562,18 +4850,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="フローチャート : 記憶データ 164"/>
+        <xdr:cNvPr id="165" name="フローチャート : 記憶データ 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4624,18 +4918,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="フローチャート : 記憶データ 178"/>
+        <xdr:cNvPr id="179" name="フローチャート : 記憶データ 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4686,18 +4986,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="フローチャート : 記憶データ 179"/>
+        <xdr:cNvPr id="180" name="フローチャート : 記憶データ 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4748,18 +5054,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4810,18 +5122,24 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="テキスト ボックス 128"/>
+        <xdr:cNvPr id="129" name="テキスト ボックス 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4868,18 +5186,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="テキスト ボックス 130"/>
+        <xdr:cNvPr id="131" name="テキスト ボックス 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4926,18 +5250,24 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="テキスト ボックス 133"/>
+        <xdr:cNvPr id="134" name="テキスト ボックス 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4984,18 +5314,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5062,18 +5398,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線矢印コネクタ 69"/>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="125" idx="2"/>
           <a:endCxn id="67" idx="0"/>
@@ -5115,7 +5457,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5157,7 +5499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5190,9 +5532,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5225,6 +5584,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5400,11 +5776,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI611"/>
+  <dimension ref="A1:AI610"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -5436,7 +5812,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="77" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S1" s="78"/>
       <c r="T1" s="78"/>
@@ -5588,108 +5964,137 @@
     </row>
     <row r="11" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F11" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F12" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F13" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="15" t="str">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="15" t="str">
         <f>$D$9&amp;"2."</f>
         <v>6.2.1.2.</v>
       </c>
-      <c r="F15" s="4" t="str">
+      <c r="F14" s="4" t="str">
         <f>D7&amp;"方法"</f>
         <v>ファイル転送（配信）方法</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="4" t="str">
-        <f>D6&amp;"を行う機能には、以下の方法がある。"</f>
-        <v>を行う機能には、以下の方法がある。</v>
-      </c>
-    </row>
-    <row r="17" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="4" t="str">
+        <f>D7&amp;"を行う機能には、以下の方法がある。"</f>
+        <v>ファイル転送（配信）を行う機能には、以下の方法がある。</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="19"/>
+      <c r="F17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="22"/>
+    </row>
     <row r="18" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
-      <c r="F18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="22"/>
+      <c r="F18" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="25"/>
     </row>
     <row r="19" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="19"/>
-      <c r="F19" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="28"/>
     </row>
     <row r="20" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="19"/>
@@ -5698,7 +6103,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="26" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -5727,73 +6132,73 @@
     </row>
     <row r="21" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="19"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="28"/>
+      <c r="F21" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="25"/>
     </row>
     <row r="22" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="19"/>
-      <c r="F22" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="28"/>
     </row>
     <row r="23" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="19"/>
@@ -5802,7 +6207,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
@@ -5831,627 +6236,629 @@
     </row>
     <row r="24" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="19"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="28"/>
+      <c r="F24" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="25"/>
     </row>
     <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="19"/>
-      <c r="F25" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="28"/>
     </row>
     <row r="26" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="31"/>
     </row>
     <row r="27" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="19"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="31"/>
+      <c r="F27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="25"/>
     </row>
     <row r="28" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="19"/>
-      <c r="F28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="25"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="31"/>
     </row>
     <row r="29" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="19"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="31"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
     </row>
     <row r="30" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="19"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="27"/>
+      <c r="F30" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="19"/>
-      <c r="F31" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="F31" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="22"/>
     </row>
     <row r="32" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F32" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="22"/>
+      <c r="F32" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="28"/>
     </row>
     <row r="33" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="31"/>
     </row>
     <row r="34" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="31"/>
+      <c r="F34" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="28"/>
     </row>
     <row r="35" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="32" t="s">
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="31"/>
+    </row>
+    <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="27"/>
-      <c r="AH35" s="28"/>
-    </row>
-    <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="31"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="28"/>
     </row>
     <row r="37" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="27" t="s">
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="31"/>
+    </row>
+    <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="27"/>
-      <c r="AH37" s="28"/>
-    </row>
-    <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="30"/>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="30"/>
-      <c r="AH38" s="31"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="27"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="27"/>
+      <c r="AH38" s="28"/>
     </row>
     <row r="39" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="28"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="30"/>
+      <c r="AG39" s="30"/>
+      <c r="AH39" s="31"/>
     </row>
     <row r="40" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30"/>
-      <c r="AF40" s="30"/>
-      <c r="AG40" s="30"/>
-      <c r="AH40" s="31"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="27"/>
+      <c r="AH40" s="27"/>
     </row>
     <row r="41" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="27"/>
-    </row>
-    <row r="42" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="15" t="str">
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>6.2.2.</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E43" s="16" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="15"/>
+      <c r="F44" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="15"/>
-      <c r="F45" s="4" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="46" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="15"/>
+      <c r="F46" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="38"/>
     </row>
     <row r="47" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" s="15"/>
-      <c r="F47" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="41"/>
       <c r="K47" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
@@ -6461,137 +6868,133 @@
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="37"/>
-      <c r="AE47" s="37"/>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="38"/>
+      <c r="T47" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
+      <c r="AE47" s="42"/>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="42"/>
+      <c r="AH47" s="43"/>
     </row>
     <row r="48" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E48" s="15"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="47" t="s">
+        <v>54</v>
+      </c>
       <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="40" t="s">
+      <c r="P48" s="48"/>
+      <c r="Q48" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
-      <c r="AA48" s="40"/>
-      <c r="AB48" s="39"/>
-      <c r="AC48" s="42"/>
-      <c r="AD48" s="42"/>
-      <c r="AE48" s="42"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="43"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="49"/>
+      <c r="AD48" s="49"/>
+      <c r="AE48" s="49"/>
+      <c r="AF48" s="49"/>
+      <c r="AG48" s="49"/>
+      <c r="AH48" s="50"/>
     </row>
     <row r="49" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="15"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
-      <c r="AA49" s="45"/>
-      <c r="AB49" s="44"/>
-      <c r="AC49" s="49"/>
-      <c r="AD49" s="49"/>
-      <c r="AE49" s="49"/>
-      <c r="AF49" s="49"/>
-      <c r="AG49" s="49"/>
-      <c r="AH49" s="50"/>
+      <c r="F49" s="23">
+        <v>1</v>
+      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24"/>
+      <c r="AB49" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="53"/>
     </row>
     <row r="50" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="15"/>
-      <c r="F50" s="23">
-        <v>1</v>
-      </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC50" s="52"/>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="52"/>
-      <c r="AH50" s="53"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="54"/>
+      <c r="AC50" s="55"/>
+      <c r="AD50" s="55"/>
+      <c r="AE50" s="55"/>
+      <c r="AF50" s="55"/>
+      <c r="AG50" s="55"/>
+      <c r="AH50" s="56"/>
     </row>
     <row r="51" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E51" s="15"/>
@@ -6787,103 +7190,103 @@
     </row>
     <row r="57" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="27"/>
-      <c r="AA57" s="27"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="55"/>
-      <c r="AD57" s="55"/>
-      <c r="AE57" s="55"/>
-      <c r="AF57" s="55"/>
-      <c r="AG57" s="55"/>
-      <c r="AH57" s="56"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="31"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="57"/>
+      <c r="AC57" s="58"/>
+      <c r="AD57" s="58"/>
+      <c r="AE57" s="58"/>
+      <c r="AF57" s="58"/>
+      <c r="AG57" s="58"/>
+      <c r="AH57" s="59"/>
     </row>
     <row r="58" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30"/>
-      <c r="W58" s="31"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="30"/>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="57"/>
-      <c r="AC58" s="58"/>
-      <c r="AD58" s="58"/>
-      <c r="AE58" s="58"/>
-      <c r="AF58" s="58"/>
-      <c r="AG58" s="58"/>
-      <c r="AH58" s="59"/>
+      <c r="F58" s="23">
+        <v>2</v>
+      </c>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="24"/>
+      <c r="AA58" s="24"/>
+      <c r="AB58" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC58" s="52"/>
+      <c r="AD58" s="52"/>
+      <c r="AE58" s="52"/>
+      <c r="AF58" s="52"/>
+      <c r="AG58" s="52"/>
+      <c r="AH58" s="53"/>
     </row>
     <row r="59" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
-      <c r="F59" s="23">
-        <v>2</v>
-      </c>
-      <c r="G59" s="23"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="24"/>
-      <c r="V59" s="24"/>
-      <c r="W59" s="25"/>
-      <c r="X59" s="24"/>
-      <c r="Y59" s="24"/>
-      <c r="Z59" s="24"/>
-      <c r="AA59" s="24"/>
-      <c r="AB59" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC59" s="52"/>
-      <c r="AD59" s="52"/>
-      <c r="AE59" s="52"/>
-      <c r="AF59" s="52"/>
-      <c r="AG59" s="52"/>
-      <c r="AH59" s="53"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="54"/>
+      <c r="AC59" s="55"/>
+      <c r="AD59" s="55"/>
+      <c r="AE59" s="55"/>
+      <c r="AF59" s="55"/>
+      <c r="AG59" s="55"/>
+      <c r="AH59" s="56"/>
     </row>
     <row r="60" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
@@ -7175,103 +7578,103 @@
     </row>
     <row r="69" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="15"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="27"/>
-      <c r="V69" s="27"/>
-      <c r="W69" s="28"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="27"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="27"/>
-      <c r="AB69" s="54"/>
-      <c r="AC69" s="55"/>
-      <c r="AD69" s="55"/>
-      <c r="AE69" s="55"/>
-      <c r="AF69" s="55"/>
-      <c r="AG69" s="55"/>
-      <c r="AH69" s="56"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="30"/>
+      <c r="R69" s="30"/>
+      <c r="S69" s="30"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="30"/>
+      <c r="V69" s="30"/>
+      <c r="W69" s="31"/>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="30"/>
+      <c r="AA69" s="30"/>
+      <c r="AB69" s="57"/>
+      <c r="AC69" s="58"/>
+      <c r="AD69" s="58"/>
+      <c r="AE69" s="58"/>
+      <c r="AF69" s="58"/>
+      <c r="AG69" s="58"/>
+      <c r="AH69" s="59"/>
     </row>
     <row r="70" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="15"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="30"/>
-      <c r="W70" s="31"/>
-      <c r="X70" s="30"/>
-      <c r="Y70" s="30"/>
-      <c r="Z70" s="30"/>
-      <c r="AA70" s="30"/>
-      <c r="AB70" s="57"/>
-      <c r="AC70" s="58"/>
-      <c r="AD70" s="58"/>
-      <c r="AE70" s="58"/>
-      <c r="AF70" s="58"/>
-      <c r="AG70" s="58"/>
-      <c r="AH70" s="59"/>
+      <c r="F70" s="23">
+        <v>3</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="25"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="24"/>
+      <c r="AB70" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC70" s="52"/>
+      <c r="AD70" s="52"/>
+      <c r="AE70" s="52"/>
+      <c r="AF70" s="52"/>
+      <c r="AG70" s="52"/>
+      <c r="AH70" s="53"/>
     </row>
     <row r="71" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="15"/>
-      <c r="F71" s="23">
-        <v>3</v>
-      </c>
-      <c r="G71" s="23"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="24"/>
-      <c r="V71" s="24"/>
-      <c r="W71" s="25"/>
-      <c r="X71" s="24"/>
-      <c r="Y71" s="24"/>
-      <c r="Z71" s="24"/>
-      <c r="AA71" s="24"/>
-      <c r="AB71" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC71" s="52"/>
-      <c r="AD71" s="52"/>
-      <c r="AE71" s="52"/>
-      <c r="AF71" s="52"/>
-      <c r="AG71" s="52"/>
-      <c r="AH71" s="53"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="27"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="54"/>
+      <c r="AC71" s="55"/>
+      <c r="AD71" s="55"/>
+      <c r="AE71" s="55"/>
+      <c r="AF71" s="55"/>
+      <c r="AG71" s="55"/>
+      <c r="AH71" s="56"/>
     </row>
     <row r="72" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="15"/>
@@ -7595,103 +7998,103 @@
     </row>
     <row r="82" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="15"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
-      <c r="T82" s="26"/>
-      <c r="U82" s="27"/>
-      <c r="V82" s="27"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-      <c r="Z82" s="27"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="54"/>
-      <c r="AC82" s="55"/>
-      <c r="AD82" s="55"/>
-      <c r="AE82" s="55"/>
-      <c r="AF82" s="55"/>
-      <c r="AG82" s="55"/>
-      <c r="AH82" s="56"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="30"/>
+      <c r="R82" s="30"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="29"/>
+      <c r="U82" s="30"/>
+      <c r="V82" s="30"/>
+      <c r="W82" s="31"/>
+      <c r="X82" s="30"/>
+      <c r="Y82" s="30"/>
+      <c r="Z82" s="30"/>
+      <c r="AA82" s="30"/>
+      <c r="AB82" s="57"/>
+      <c r="AC82" s="58"/>
+      <c r="AD82" s="58"/>
+      <c r="AE82" s="58"/>
+      <c r="AF82" s="58"/>
+      <c r="AG82" s="58"/>
+      <c r="AH82" s="59"/>
     </row>
     <row r="83" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="15"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="31"/>
-      <c r="Q83" s="30"/>
-      <c r="R83" s="30"/>
-      <c r="S83" s="30"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="30"/>
-      <c r="V83" s="30"/>
-      <c r="W83" s="31"/>
-      <c r="X83" s="30"/>
-      <c r="Y83" s="30"/>
-      <c r="Z83" s="30"/>
-      <c r="AA83" s="30"/>
-      <c r="AB83" s="57"/>
-      <c r="AC83" s="58"/>
-      <c r="AD83" s="58"/>
-      <c r="AE83" s="58"/>
-      <c r="AF83" s="58"/>
-      <c r="AG83" s="58"/>
-      <c r="AH83" s="59"/>
+      <c r="F83" s="23">
+        <v>4</v>
+      </c>
+      <c r="G83" s="23"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="24"/>
+      <c r="T83" s="23"/>
+      <c r="U83" s="24"/>
+      <c r="V83" s="24"/>
+      <c r="W83" s="25"/>
+      <c r="X83" s="24"/>
+      <c r="Y83" s="24"/>
+      <c r="Z83" s="24"/>
+      <c r="AA83" s="24"/>
+      <c r="AB83" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC83" s="63"/>
+      <c r="AD83" s="63"/>
+      <c r="AE83" s="63"/>
+      <c r="AF83" s="63"/>
+      <c r="AG83" s="63"/>
+      <c r="AH83" s="64"/>
     </row>
     <row r="84" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="15"/>
-      <c r="F84" s="23">
-        <v>4</v>
-      </c>
-      <c r="G84" s="23"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="24"/>
-      <c r="V84" s="24"/>
-      <c r="W84" s="25"/>
-      <c r="X84" s="24"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="24"/>
-      <c r="AA84" s="24"/>
-      <c r="AB84" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC84" s="63"/>
-      <c r="AD84" s="63"/>
-      <c r="AE84" s="63"/>
-      <c r="AF84" s="63"/>
-      <c r="AG84" s="63"/>
-      <c r="AH84" s="64"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="26"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="28"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="65"/>
+      <c r="AC84" s="66"/>
+      <c r="AD84" s="66"/>
+      <c r="AE84" s="66"/>
+      <c r="AF84" s="66"/>
+      <c r="AG84" s="66"/>
+      <c r="AH84" s="67"/>
     </row>
     <row r="85" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85" s="15"/>
@@ -7919,103 +8322,103 @@
     </row>
     <row r="92" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="15"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="27"/>
-      <c r="P92" s="28"/>
-      <c r="Q92" s="27"/>
-      <c r="R92" s="27"/>
-      <c r="S92" s="27"/>
-      <c r="T92" s="26"/>
-      <c r="U92" s="27"/>
-      <c r="V92" s="27"/>
-      <c r="W92" s="28"/>
-      <c r="X92" s="27"/>
-      <c r="Y92" s="27"/>
-      <c r="Z92" s="27"/>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="65"/>
-      <c r="AC92" s="66"/>
-      <c r="AD92" s="66"/>
-      <c r="AE92" s="66"/>
-      <c r="AF92" s="66"/>
-      <c r="AG92" s="66"/>
-      <c r="AH92" s="67"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="30"/>
+      <c r="R92" s="30"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="30"/>
+      <c r="V92" s="30"/>
+      <c r="W92" s="31"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="30"/>
+      <c r="AA92" s="30"/>
+      <c r="AB92" s="68"/>
+      <c r="AC92" s="69"/>
+      <c r="AD92" s="69"/>
+      <c r="AE92" s="69"/>
+      <c r="AF92" s="69"/>
+      <c r="AG92" s="69"/>
+      <c r="AH92" s="70"/>
     </row>
     <row r="93" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E93" s="15"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="30"/>
-      <c r="N93" s="29"/>
-      <c r="O93" s="30"/>
-      <c r="P93" s="31"/>
-      <c r="Q93" s="30"/>
-      <c r="R93" s="30"/>
-      <c r="S93" s="30"/>
-      <c r="T93" s="29"/>
-      <c r="U93" s="30"/>
-      <c r="V93" s="30"/>
-      <c r="W93" s="31"/>
-      <c r="X93" s="30"/>
-      <c r="Y93" s="30"/>
-      <c r="Z93" s="30"/>
-      <c r="AA93" s="30"/>
-      <c r="AB93" s="68"/>
-      <c r="AC93" s="69"/>
-      <c r="AD93" s="69"/>
-      <c r="AE93" s="69"/>
-      <c r="AF93" s="69"/>
-      <c r="AG93" s="69"/>
-      <c r="AH93" s="70"/>
+      <c r="F93" s="23">
+        <v>5</v>
+      </c>
+      <c r="G93" s="23"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="24"/>
+      <c r="T93" s="23"/>
+      <c r="U93" s="24"/>
+      <c r="V93" s="24"/>
+      <c r="W93" s="25"/>
+      <c r="X93" s="24"/>
+      <c r="Y93" s="24"/>
+      <c r="Z93" s="24"/>
+      <c r="AA93" s="24"/>
+      <c r="AB93" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC93" s="52"/>
+      <c r="AD93" s="52"/>
+      <c r="AE93" s="52"/>
+      <c r="AF93" s="52"/>
+      <c r="AG93" s="52"/>
+      <c r="AH93" s="53"/>
     </row>
     <row r="94" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E94" s="15"/>
-      <c r="F94" s="23">
-        <v>5</v>
-      </c>
-      <c r="G94" s="23"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="23"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="25"/>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="24"/>
-      <c r="S94" s="24"/>
-      <c r="T94" s="23"/>
-      <c r="U94" s="24"/>
-      <c r="V94" s="24"/>
-      <c r="W94" s="25"/>
-      <c r="X94" s="24"/>
-      <c r="Y94" s="24"/>
-      <c r="Z94" s="24"/>
-      <c r="AA94" s="24"/>
-      <c r="AB94" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC94" s="52"/>
-      <c r="AD94" s="52"/>
-      <c r="AE94" s="52"/>
-      <c r="AF94" s="52"/>
-      <c r="AG94" s="52"/>
-      <c r="AH94" s="53"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="27"/>
+      <c r="M94" s="27"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="27"/>
+      <c r="S94" s="27"/>
+      <c r="T94" s="26"/>
+      <c r="U94" s="27"/>
+      <c r="V94" s="27"/>
+      <c r="W94" s="28"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="54"/>
+      <c r="AC94" s="55"/>
+      <c r="AD94" s="55"/>
+      <c r="AE94" s="55"/>
+      <c r="AF94" s="55"/>
+      <c r="AG94" s="55"/>
+      <c r="AH94" s="56"/>
     </row>
     <row r="95" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="15"/>
@@ -8371,71 +8774,71 @@
     </row>
     <row r="106" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E106" s="15"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="27"/>
-      <c r="N106" s="26"/>
-      <c r="O106" s="27"/>
-      <c r="P106" s="28"/>
-      <c r="Q106" s="27"/>
-      <c r="R106" s="27"/>
-      <c r="S106" s="27"/>
-      <c r="T106" s="26"/>
-      <c r="U106" s="27"/>
-      <c r="V106" s="27"/>
-      <c r="W106" s="28"/>
-      <c r="X106" s="27"/>
-      <c r="Y106" s="27"/>
-      <c r="Z106" s="27"/>
-      <c r="AA106" s="27"/>
-      <c r="AB106" s="54"/>
-      <c r="AC106" s="55"/>
-      <c r="AD106" s="55"/>
-      <c r="AE106" s="55"/>
-      <c r="AF106" s="55"/>
-      <c r="AG106" s="55"/>
-      <c r="AH106" s="56"/>
+      <c r="F106" s="23">
+        <v>6</v>
+      </c>
+      <c r="G106" s="23"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="23"/>
+      <c r="O106" s="24"/>
+      <c r="P106" s="25"/>
+      <c r="Q106" s="24"/>
+      <c r="R106" s="24"/>
+      <c r="S106" s="24"/>
+      <c r="T106" s="23"/>
+      <c r="U106" s="24"/>
+      <c r="V106" s="24"/>
+      <c r="W106" s="25"/>
+      <c r="X106" s="24"/>
+      <c r="Y106" s="24"/>
+      <c r="Z106" s="24"/>
+      <c r="AA106" s="24"/>
+      <c r="AB106" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC106" s="52"/>
+      <c r="AD106" s="52"/>
+      <c r="AE106" s="52"/>
+      <c r="AF106" s="52"/>
+      <c r="AG106" s="52"/>
+      <c r="AH106" s="53"/>
     </row>
     <row r="107" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E107" s="15"/>
-      <c r="F107" s="23">
-        <v>6</v>
-      </c>
-      <c r="G107" s="23"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="23"/>
-      <c r="O107" s="24"/>
-      <c r="P107" s="25"/>
-      <c r="Q107" s="24"/>
-      <c r="R107" s="24"/>
-      <c r="S107" s="24"/>
-      <c r="T107" s="23"/>
-      <c r="U107" s="24"/>
-      <c r="V107" s="24"/>
-      <c r="W107" s="25"/>
-      <c r="X107" s="24"/>
-      <c r="Y107" s="24"/>
-      <c r="Z107" s="24"/>
-      <c r="AA107" s="24"/>
-      <c r="AB107" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC107" s="52"/>
-      <c r="AD107" s="52"/>
-      <c r="AE107" s="52"/>
-      <c r="AF107" s="52"/>
-      <c r="AG107" s="52"/>
-      <c r="AH107" s="53"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="27"/>
+      <c r="R107" s="27"/>
+      <c r="S107" s="27"/>
+      <c r="T107" s="26"/>
+      <c r="U107" s="27"/>
+      <c r="V107" s="27"/>
+      <c r="W107" s="28"/>
+      <c r="X107" s="27"/>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="54"/>
+      <c r="AC107" s="55"/>
+      <c r="AD107" s="55"/>
+      <c r="AE107" s="55"/>
+      <c r="AF107" s="55"/>
+      <c r="AG107" s="55"/>
+      <c r="AH107" s="56"/>
     </row>
     <row r="108" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E108" s="15"/>
@@ -8727,103 +9130,103 @@
     </row>
     <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E117" s="15"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="28"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="27"/>
-      <c r="P117" s="28"/>
-      <c r="Q117" s="27"/>
-      <c r="R117" s="27"/>
-      <c r="S117" s="27"/>
-      <c r="T117" s="26"/>
-      <c r="U117" s="27"/>
-      <c r="V117" s="27"/>
-      <c r="W117" s="28"/>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="27"/>
-      <c r="Z117" s="27"/>
-      <c r="AA117" s="27"/>
-      <c r="AB117" s="54"/>
-      <c r="AC117" s="55"/>
-      <c r="AD117" s="55"/>
-      <c r="AE117" s="55"/>
-      <c r="AF117" s="55"/>
-      <c r="AG117" s="55"/>
-      <c r="AH117" s="56"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="31"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="30"/>
+      <c r="M117" s="30"/>
+      <c r="N117" s="29"/>
+      <c r="O117" s="30"/>
+      <c r="P117" s="31"/>
+      <c r="Q117" s="30"/>
+      <c r="R117" s="30"/>
+      <c r="S117" s="30"/>
+      <c r="T117" s="29"/>
+      <c r="U117" s="30"/>
+      <c r="V117" s="30"/>
+      <c r="W117" s="31"/>
+      <c r="X117" s="30"/>
+      <c r="Y117" s="30"/>
+      <c r="Z117" s="30"/>
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="57"/>
+      <c r="AC117" s="58"/>
+      <c r="AD117" s="58"/>
+      <c r="AE117" s="58"/>
+      <c r="AF117" s="58"/>
+      <c r="AG117" s="58"/>
+      <c r="AH117" s="59"/>
     </row>
     <row r="118" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E118" s="15"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="30"/>
-      <c r="I118" s="30"/>
-      <c r="J118" s="31"/>
-      <c r="K118" s="30"/>
-      <c r="L118" s="30"/>
-      <c r="M118" s="30"/>
-      <c r="N118" s="29"/>
-      <c r="O118" s="30"/>
-      <c r="P118" s="31"/>
-      <c r="Q118" s="30"/>
-      <c r="R118" s="30"/>
-      <c r="S118" s="30"/>
-      <c r="T118" s="29"/>
-      <c r="U118" s="30"/>
-      <c r="V118" s="30"/>
-      <c r="W118" s="31"/>
-      <c r="X118" s="30"/>
-      <c r="Y118" s="30"/>
-      <c r="Z118" s="30"/>
-      <c r="AA118" s="30"/>
-      <c r="AB118" s="57"/>
-      <c r="AC118" s="58"/>
-      <c r="AD118" s="58"/>
-      <c r="AE118" s="58"/>
-      <c r="AF118" s="58"/>
-      <c r="AG118" s="58"/>
-      <c r="AH118" s="59"/>
+      <c r="F118" s="23">
+        <v>7</v>
+      </c>
+      <c r="G118" s="23"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="23"/>
+      <c r="O118" s="24"/>
+      <c r="P118" s="25"/>
+      <c r="Q118" s="24"/>
+      <c r="R118" s="24"/>
+      <c r="S118" s="24"/>
+      <c r="T118" s="23"/>
+      <c r="U118" s="24"/>
+      <c r="V118" s="24"/>
+      <c r="W118" s="25"/>
+      <c r="X118" s="24"/>
+      <c r="Y118" s="24"/>
+      <c r="Z118" s="24"/>
+      <c r="AA118" s="24"/>
+      <c r="AB118" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC118" s="52"/>
+      <c r="AD118" s="52"/>
+      <c r="AE118" s="52"/>
+      <c r="AF118" s="52"/>
+      <c r="AG118" s="52"/>
+      <c r="AH118" s="53"/>
     </row>
     <row r="119" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E119" s="15"/>
-      <c r="F119" s="23">
-        <v>7</v>
-      </c>
-      <c r="G119" s="23"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
-      <c r="M119" s="24"/>
-      <c r="N119" s="23"/>
-      <c r="O119" s="24"/>
-      <c r="P119" s="25"/>
-      <c r="Q119" s="24"/>
-      <c r="R119" s="24"/>
-      <c r="S119" s="24"/>
-      <c r="T119" s="23"/>
-      <c r="U119" s="24"/>
-      <c r="V119" s="24"/>
-      <c r="W119" s="25"/>
-      <c r="X119" s="24"/>
-      <c r="Y119" s="24"/>
-      <c r="Z119" s="24"/>
-      <c r="AA119" s="24"/>
-      <c r="AB119" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC119" s="52"/>
-      <c r="AD119" s="52"/>
-      <c r="AE119" s="52"/>
-      <c r="AF119" s="52"/>
-      <c r="AG119" s="52"/>
-      <c r="AH119" s="53"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="26"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="28"/>
+      <c r="Q119" s="27"/>
+      <c r="R119" s="27"/>
+      <c r="S119" s="27"/>
+      <c r="T119" s="26"/>
+      <c r="U119" s="27"/>
+      <c r="V119" s="27"/>
+      <c r="W119" s="28"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
+      <c r="AA119" s="27"/>
+      <c r="AB119" s="54"/>
+      <c r="AC119" s="55"/>
+      <c r="AD119" s="55"/>
+      <c r="AE119" s="55"/>
+      <c r="AF119" s="55"/>
+      <c r="AG119" s="55"/>
+      <c r="AH119" s="56"/>
     </row>
     <row r="120" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E120" s="15"/>
@@ -9019,137 +9422,137 @@
     </row>
     <row r="126" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E126" s="15"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="28"/>
-      <c r="K126" s="27"/>
-      <c r="L126" s="27"/>
-      <c r="M126" s="27"/>
-      <c r="N126" s="26"/>
-      <c r="O126" s="27"/>
-      <c r="P126" s="28"/>
-      <c r="Q126" s="27"/>
-      <c r="R126" s="27"/>
-      <c r="S126" s="27"/>
-      <c r="T126" s="26"/>
-      <c r="U126" s="27"/>
-      <c r="V126" s="27"/>
-      <c r="W126" s="28"/>
-      <c r="X126" s="27"/>
-      <c r="Y126" s="27"/>
-      <c r="Z126" s="27"/>
-      <c r="AA126" s="27"/>
-      <c r="AB126" s="54"/>
-      <c r="AC126" s="55"/>
-      <c r="AD126" s="55"/>
-      <c r="AE126" s="55"/>
-      <c r="AF126" s="55"/>
-      <c r="AG126" s="55"/>
-      <c r="AH126" s="56"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="31"/>
+      <c r="K126" s="30"/>
+      <c r="L126" s="30"/>
+      <c r="M126" s="30"/>
+      <c r="N126" s="29"/>
+      <c r="O126" s="30"/>
+      <c r="P126" s="31"/>
+      <c r="Q126" s="30"/>
+      <c r="R126" s="30"/>
+      <c r="S126" s="30"/>
+      <c r="T126" s="29"/>
+      <c r="U126" s="30"/>
+      <c r="V126" s="30"/>
+      <c r="W126" s="31"/>
+      <c r="X126" s="30"/>
+      <c r="Y126" s="30"/>
+      <c r="Z126" s="30"/>
+      <c r="AA126" s="30"/>
+      <c r="AB126" s="57"/>
+      <c r="AC126" s="58"/>
+      <c r="AD126" s="58"/>
+      <c r="AE126" s="58"/>
+      <c r="AF126" s="58"/>
+      <c r="AG126" s="58"/>
+      <c r="AH126" s="59"/>
     </row>
     <row r="127" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E127" s="15"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="30"/>
-      <c r="I127" s="30"/>
-      <c r="J127" s="31"/>
-      <c r="K127" s="30"/>
-      <c r="L127" s="30"/>
-      <c r="M127" s="30"/>
-      <c r="N127" s="29"/>
-      <c r="O127" s="30"/>
-      <c r="P127" s="31"/>
-      <c r="Q127" s="30"/>
-      <c r="R127" s="30"/>
-      <c r="S127" s="30"/>
-      <c r="T127" s="29"/>
-      <c r="U127" s="30"/>
-      <c r="V127" s="30"/>
-      <c r="W127" s="31"/>
-      <c r="X127" s="30"/>
-      <c r="Y127" s="30"/>
-      <c r="Z127" s="30"/>
-      <c r="AA127" s="30"/>
-      <c r="AB127" s="57"/>
-      <c r="AC127" s="58"/>
-      <c r="AD127" s="58"/>
-      <c r="AE127" s="58"/>
-      <c r="AF127" s="58"/>
-      <c r="AG127" s="58"/>
-      <c r="AH127" s="59"/>
+      <c r="F127" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="G127" s="72"/>
+      <c r="H127" s="72"/>
+      <c r="I127" s="72"/>
+      <c r="J127" s="72"/>
+      <c r="K127" s="72"/>
+      <c r="L127" s="72"/>
+      <c r="M127" s="72"/>
+      <c r="N127" s="72"/>
+      <c r="O127" s="72"/>
+      <c r="P127" s="72"/>
+      <c r="Q127" s="72"/>
+      <c r="R127" s="72"/>
+      <c r="S127" s="72"/>
+      <c r="T127" s="72"/>
+      <c r="U127" s="72"/>
+      <c r="V127" s="72"/>
+      <c r="W127" s="72"/>
+      <c r="X127" s="72"/>
+      <c r="Y127" s="72"/>
+      <c r="Z127" s="72"/>
+      <c r="AA127" s="72"/>
+      <c r="AB127" s="72"/>
+      <c r="AC127" s="72"/>
+      <c r="AD127" s="72"/>
+      <c r="AE127" s="72"/>
+      <c r="AF127" s="72"/>
+      <c r="AG127" s="72"/>
+      <c r="AH127" s="73"/>
     </row>
     <row r="128" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E128" s="15"/>
-      <c r="F128" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="G128" s="72"/>
-      <c r="H128" s="72"/>
-      <c r="I128" s="72"/>
-      <c r="J128" s="72"/>
-      <c r="K128" s="72"/>
-      <c r="L128" s="72"/>
-      <c r="M128" s="72"/>
-      <c r="N128" s="72"/>
-      <c r="O128" s="72"/>
-      <c r="P128" s="72"/>
-      <c r="Q128" s="72"/>
-      <c r="R128" s="72"/>
-      <c r="S128" s="72"/>
-      <c r="T128" s="72"/>
-      <c r="U128" s="72"/>
-      <c r="V128" s="72"/>
-      <c r="W128" s="72"/>
-      <c r="X128" s="72"/>
-      <c r="Y128" s="72"/>
-      <c r="Z128" s="72"/>
-      <c r="AA128" s="72"/>
-      <c r="AB128" s="72"/>
-      <c r="AC128" s="72"/>
-      <c r="AD128" s="72"/>
-      <c r="AE128" s="72"/>
-      <c r="AF128" s="72"/>
-      <c r="AG128" s="72"/>
-      <c r="AH128" s="73"/>
+      <c r="F128" s="23">
+        <v>8</v>
+      </c>
+      <c r="G128" s="23"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="23"/>
+      <c r="O128" s="24"/>
+      <c r="P128" s="25"/>
+      <c r="Q128" s="24"/>
+      <c r="R128" s="24"/>
+      <c r="S128" s="24"/>
+      <c r="T128" s="23"/>
+      <c r="U128" s="24"/>
+      <c r="V128" s="24"/>
+      <c r="W128" s="25"/>
+      <c r="X128" s="24"/>
+      <c r="Y128" s="24"/>
+      <c r="Z128" s="24"/>
+      <c r="AA128" s="25"/>
+      <c r="AB128" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC128" s="52"/>
+      <c r="AD128" s="52"/>
+      <c r="AE128" s="52"/>
+      <c r="AF128" s="52"/>
+      <c r="AG128" s="52"/>
+      <c r="AH128" s="53"/>
     </row>
     <row r="129" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E129" s="15"/>
-      <c r="F129" s="23">
-        <v>8</v>
-      </c>
-      <c r="G129" s="23"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="25"/>
-      <c r="K129" s="24"/>
-      <c r="L129" s="24"/>
-      <c r="M129" s="24"/>
-      <c r="N129" s="23"/>
-      <c r="O129" s="24"/>
-      <c r="P129" s="25"/>
-      <c r="Q129" s="24"/>
-      <c r="R129" s="24"/>
-      <c r="S129" s="24"/>
-      <c r="T129" s="23"/>
-      <c r="U129" s="24"/>
-      <c r="V129" s="24"/>
-      <c r="W129" s="25"/>
-      <c r="X129" s="24"/>
-      <c r="Y129" s="24"/>
-      <c r="Z129" s="24"/>
-      <c r="AA129" s="25"/>
-      <c r="AB129" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC129" s="52"/>
-      <c r="AD129" s="52"/>
-      <c r="AE129" s="52"/>
-      <c r="AF129" s="52"/>
-      <c r="AG129" s="52"/>
-      <c r="AH129" s="53"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="27"/>
+      <c r="M129" s="27"/>
+      <c r="N129" s="26"/>
+      <c r="O129" s="27"/>
+      <c r="P129" s="28"/>
+      <c r="Q129" s="27"/>
+      <c r="R129" s="27"/>
+      <c r="S129" s="27"/>
+      <c r="T129" s="26"/>
+      <c r="U129" s="27"/>
+      <c r="V129" s="27"/>
+      <c r="W129" s="28"/>
+      <c r="X129" s="27"/>
+      <c r="Y129" s="27"/>
+      <c r="Z129" s="27"/>
+      <c r="AA129" s="28"/>
+      <c r="AB129" s="54"/>
+      <c r="AC129" s="55"/>
+      <c r="AD129" s="55"/>
+      <c r="AE129" s="55"/>
+      <c r="AF129" s="55"/>
+      <c r="AG129" s="55"/>
+      <c r="AH129" s="56"/>
     </row>
     <row r="130" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E130" s="15"/>
@@ -9206,7 +9609,7 @@
       <c r="X131" s="27"/>
       <c r="Y131" s="27"/>
       <c r="Z131" s="27"/>
-      <c r="AA131" s="28"/>
+      <c r="AA131" s="27"/>
       <c r="AB131" s="54"/>
       <c r="AC131" s="55"/>
       <c r="AD131" s="55"/>
@@ -9409,103 +9812,103 @@
     </row>
     <row r="138" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E138" s="15"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="28"/>
-      <c r="K138" s="27"/>
-      <c r="L138" s="27"/>
-      <c r="M138" s="27"/>
-      <c r="N138" s="26"/>
-      <c r="O138" s="27"/>
-      <c r="P138" s="28"/>
-      <c r="Q138" s="27"/>
-      <c r="R138" s="27"/>
-      <c r="S138" s="27"/>
-      <c r="T138" s="26"/>
-      <c r="U138" s="27"/>
-      <c r="V138" s="27"/>
-      <c r="W138" s="28"/>
-      <c r="X138" s="27"/>
-      <c r="Y138" s="27"/>
-      <c r="Z138" s="27"/>
-      <c r="AA138" s="27"/>
-      <c r="AB138" s="54"/>
-      <c r="AC138" s="55"/>
-      <c r="AD138" s="55"/>
-      <c r="AE138" s="55"/>
-      <c r="AF138" s="55"/>
-      <c r="AG138" s="55"/>
-      <c r="AH138" s="56"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="31"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="30"/>
+      <c r="M138" s="30"/>
+      <c r="N138" s="29"/>
+      <c r="O138" s="30"/>
+      <c r="P138" s="31"/>
+      <c r="Q138" s="30"/>
+      <c r="R138" s="30"/>
+      <c r="S138" s="30"/>
+      <c r="T138" s="29"/>
+      <c r="U138" s="30"/>
+      <c r="V138" s="30"/>
+      <c r="W138" s="31"/>
+      <c r="X138" s="30"/>
+      <c r="Y138" s="30"/>
+      <c r="Z138" s="30"/>
+      <c r="AA138" s="30"/>
+      <c r="AB138" s="57"/>
+      <c r="AC138" s="58"/>
+      <c r="AD138" s="58"/>
+      <c r="AE138" s="58"/>
+      <c r="AF138" s="58"/>
+      <c r="AG138" s="58"/>
+      <c r="AH138" s="59"/>
     </row>
     <row r="139" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E139" s="15"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="30"/>
-      <c r="J139" s="31"/>
-      <c r="K139" s="30"/>
-      <c r="L139" s="30"/>
-      <c r="M139" s="30"/>
-      <c r="N139" s="29"/>
-      <c r="O139" s="30"/>
-      <c r="P139" s="31"/>
-      <c r="Q139" s="30"/>
-      <c r="R139" s="30"/>
-      <c r="S139" s="30"/>
-      <c r="T139" s="29"/>
-      <c r="U139" s="30"/>
-      <c r="V139" s="30"/>
-      <c r="W139" s="31"/>
-      <c r="X139" s="30"/>
-      <c r="Y139" s="30"/>
-      <c r="Z139" s="30"/>
-      <c r="AA139" s="30"/>
-      <c r="AB139" s="57"/>
-      <c r="AC139" s="58"/>
-      <c r="AD139" s="58"/>
-      <c r="AE139" s="58"/>
-      <c r="AF139" s="58"/>
-      <c r="AG139" s="58"/>
-      <c r="AH139" s="59"/>
+      <c r="F139" s="23">
+        <v>9</v>
+      </c>
+      <c r="G139" s="23"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="24"/>
+      <c r="M139" s="24"/>
+      <c r="N139" s="23"/>
+      <c r="O139" s="24"/>
+      <c r="P139" s="25"/>
+      <c r="Q139" s="24"/>
+      <c r="R139" s="24"/>
+      <c r="S139" s="24"/>
+      <c r="T139" s="23"/>
+      <c r="U139" s="24"/>
+      <c r="V139" s="24"/>
+      <c r="W139" s="25"/>
+      <c r="X139" s="24"/>
+      <c r="Y139" s="24"/>
+      <c r="Z139" s="24"/>
+      <c r="AA139" s="25"/>
+      <c r="AB139" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC139" s="52"/>
+      <c r="AD139" s="52"/>
+      <c r="AE139" s="52"/>
+      <c r="AF139" s="52"/>
+      <c r="AG139" s="52"/>
+      <c r="AH139" s="53"/>
     </row>
     <row r="140" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E140" s="15"/>
-      <c r="F140" s="23">
-        <v>9</v>
-      </c>
-      <c r="G140" s="23"/>
-      <c r="H140" s="24"/>
-      <c r="I140" s="24"/>
-      <c r="J140" s="25"/>
-      <c r="K140" s="24"/>
-      <c r="L140" s="24"/>
-      <c r="M140" s="24"/>
-      <c r="N140" s="23"/>
-      <c r="O140" s="24"/>
-      <c r="P140" s="25"/>
-      <c r="Q140" s="24"/>
-      <c r="R140" s="24"/>
-      <c r="S140" s="24"/>
-      <c r="T140" s="23"/>
-      <c r="U140" s="24"/>
-      <c r="V140" s="24"/>
-      <c r="W140" s="25"/>
-      <c r="X140" s="24"/>
-      <c r="Y140" s="24"/>
-      <c r="Z140" s="24"/>
-      <c r="AA140" s="25"/>
-      <c r="AB140" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC140" s="52"/>
-      <c r="AD140" s="52"/>
-      <c r="AE140" s="52"/>
-      <c r="AF140" s="52"/>
-      <c r="AG140" s="52"/>
-      <c r="AH140" s="53"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="28"/>
+      <c r="K140" s="27"/>
+      <c r="L140" s="27"/>
+      <c r="M140" s="27"/>
+      <c r="N140" s="26"/>
+      <c r="O140" s="27"/>
+      <c r="P140" s="28"/>
+      <c r="Q140" s="27"/>
+      <c r="R140" s="27"/>
+      <c r="S140" s="27"/>
+      <c r="T140" s="26"/>
+      <c r="U140" s="27"/>
+      <c r="V140" s="27"/>
+      <c r="W140" s="28"/>
+      <c r="X140" s="27"/>
+      <c r="Y140" s="27"/>
+      <c r="Z140" s="27"/>
+      <c r="AA140" s="28"/>
+      <c r="AB140" s="54"/>
+      <c r="AC140" s="55"/>
+      <c r="AD140" s="55"/>
+      <c r="AE140" s="55"/>
+      <c r="AF140" s="55"/>
+      <c r="AG140" s="55"/>
+      <c r="AH140" s="56"/>
     </row>
     <row r="141" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E141" s="15"/>
@@ -9530,7 +9933,7 @@
       <c r="X141" s="27"/>
       <c r="Y141" s="27"/>
       <c r="Z141" s="27"/>
-      <c r="AA141" s="28"/>
+      <c r="AA141" s="27"/>
       <c r="AB141" s="54"/>
       <c r="AC141" s="55"/>
       <c r="AD141" s="55"/>
@@ -9701,254 +10104,223 @@
     </row>
     <row r="147" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E147" s="15"/>
-      <c r="F147" s="26"/>
-      <c r="G147" s="26"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="28"/>
-      <c r="K147" s="27"/>
-      <c r="L147" s="27"/>
-      <c r="M147" s="27"/>
-      <c r="N147" s="26"/>
-      <c r="O147" s="27"/>
-      <c r="P147" s="28"/>
-      <c r="Q147" s="27"/>
-      <c r="R147" s="27"/>
-      <c r="S147" s="27"/>
-      <c r="T147" s="26"/>
-      <c r="U147" s="27"/>
-      <c r="V147" s="27"/>
-      <c r="W147" s="28"/>
-      <c r="X147" s="27"/>
-      <c r="Y147" s="27"/>
-      <c r="Z147" s="27"/>
-      <c r="AA147" s="27"/>
-      <c r="AB147" s="54"/>
-      <c r="AC147" s="55"/>
-      <c r="AD147" s="55"/>
-      <c r="AE147" s="55"/>
-      <c r="AF147" s="55"/>
-      <c r="AG147" s="55"/>
-      <c r="AH147" s="56"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="31"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="30"/>
+      <c r="M147" s="30"/>
+      <c r="N147" s="29"/>
+      <c r="O147" s="30"/>
+      <c r="P147" s="31"/>
+      <c r="Q147" s="30"/>
+      <c r="R147" s="30"/>
+      <c r="S147" s="30"/>
+      <c r="T147" s="29"/>
+      <c r="U147" s="30"/>
+      <c r="V147" s="30"/>
+      <c r="W147" s="31"/>
+      <c r="X147" s="30"/>
+      <c r="Y147" s="30"/>
+      <c r="Z147" s="30"/>
+      <c r="AA147" s="30"/>
+      <c r="AB147" s="57"/>
+      <c r="AC147" s="58"/>
+      <c r="AD147" s="58"/>
+      <c r="AE147" s="58"/>
+      <c r="AF147" s="58"/>
+      <c r="AG147" s="58"/>
+      <c r="AH147" s="59"/>
     </row>
     <row r="148" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E148" s="15"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="30"/>
-      <c r="I148" s="30"/>
-      <c r="J148" s="31"/>
-      <c r="K148" s="30"/>
-      <c r="L148" s="30"/>
-      <c r="M148" s="30"/>
-      <c r="N148" s="29"/>
-      <c r="O148" s="30"/>
-      <c r="P148" s="31"/>
-      <c r="Q148" s="30"/>
-      <c r="R148" s="30"/>
-      <c r="S148" s="30"/>
-      <c r="T148" s="29"/>
-      <c r="U148" s="30"/>
-      <c r="V148" s="30"/>
-      <c r="W148" s="31"/>
-      <c r="X148" s="30"/>
-      <c r="Y148" s="30"/>
-      <c r="Z148" s="30"/>
-      <c r="AA148" s="30"/>
-      <c r="AB148" s="57"/>
-      <c r="AC148" s="58"/>
-      <c r="AD148" s="58"/>
-      <c r="AE148" s="58"/>
-      <c r="AF148" s="58"/>
-      <c r="AG148" s="58"/>
-      <c r="AH148" s="59"/>
     </row>
     <row r="149" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E149" s="15"/>
+      <c r="F149" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="150" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E150" s="15"/>
-      <c r="F150" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="H150" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="151" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E151" s="15"/>
       <c r="H151" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="152" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E152" s="15"/>
-      <c r="H152" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D152" s="18"/>
+      <c r="H152" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D153" s="18"/>
-      <c r="H153" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="154" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="18"/>
-    </row>
-    <row r="155" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="156" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D156" s="15" t="str">
+    </row>
+    <row r="154" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="155" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D155" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.2.3.</v>
       </c>
+      <c r="E155" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="E156" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E157" s="16" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="157" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="158" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="159" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="160" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D160" s="15" t="str">
+    <row r="159" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D159" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.2.4.</v>
       </c>
+      <c r="E159" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E160" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E161" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-      <c r="I161" s="17"/>
-      <c r="J161" s="17"/>
-      <c r="K161" s="17"/>
-      <c r="L161" s="17"/>
-      <c r="M161" s="17"/>
-      <c r="N161" s="17"/>
-      <c r="O161" s="17"/>
-      <c r="P161" s="17"/>
-      <c r="Q161" s="17"/>
-      <c r="R161" s="17"/>
-      <c r="S161" s="17"/>
-      <c r="T161" s="17"/>
-      <c r="U161" s="17"/>
-      <c r="V161" s="17"/>
-      <c r="W161" s="17"/>
-      <c r="X161" s="17"/>
-      <c r="Y161" s="17"/>
-      <c r="Z161" s="17"/>
-      <c r="AA161" s="17"/>
-      <c r="AB161" s="17"/>
-      <c r="AC161" s="17"/>
-      <c r="AD161" s="17"/>
-      <c r="AE161" s="17"/>
-      <c r="AF161" s="17"/>
-      <c r="AG161" s="17"/>
-      <c r="AH161" s="17"/>
-    </row>
-    <row r="162" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D162" s="15"/>
-    </row>
-    <row r="163" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="164" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D164" s="15" t="str">
+        <v>73</v>
+      </c>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="17"/>
+      <c r="M160" s="17"/>
+      <c r="N160" s="17"/>
+      <c r="O160" s="17"/>
+      <c r="P160" s="17"/>
+      <c r="Q160" s="17"/>
+      <c r="R160" s="17"/>
+      <c r="S160" s="17"/>
+      <c r="T160" s="17"/>
+      <c r="U160" s="17"/>
+      <c r="V160" s="17"/>
+      <c r="W160" s="17"/>
+      <c r="X160" s="17"/>
+      <c r="Y160" s="17"/>
+      <c r="Z160" s="17"/>
+      <c r="AA160" s="17"/>
+      <c r="AB160" s="17"/>
+      <c r="AC160" s="17"/>
+      <c r="AD160" s="17"/>
+      <c r="AE160" s="17"/>
+      <c r="AF160" s="17"/>
+      <c r="AG160" s="17"/>
+      <c r="AH160" s="17"/>
+    </row>
+    <row r="161" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D161" s="15"/>
+    </row>
+    <row r="162" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="163" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D163" s="15" t="str">
         <f>$C$7&amp;"5."</f>
         <v>6.2.5.</v>
       </c>
+      <c r="E163" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="E164" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="165" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="E165" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E166" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="168" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E168" s="18" t="s">
+    <row r="166" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="167" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E167" s="18" t="s">
         <v>25</v>
       </c>
+      <c r="F167" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F168" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="169" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F169" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F170" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D172" s="15" t="str">
+    <row r="170" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D171" s="15" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.2.6.</v>
       </c>
+      <c r="E171" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="E172" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="173" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E173" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="175" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E175" s="18" t="s">
+    <row r="173" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E174" s="18" t="s">
         <v>25</v>
       </c>
+      <c r="F174" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="175" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F175" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="176" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F176" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="177" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F177" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="179" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="180" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D180" s="16"/>
-    </row>
-    <row r="181" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" spans="4:4" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="178" spans="4:4" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="179" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D179" s="16"/>
+    </row>
+    <row r="180" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10367,7 +10739,6 @@
     <row r="608" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="609" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="610" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="E1:O1"/>
@@ -10380,26 +10751,26 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AB140:AH148"/>
-    <mergeCell ref="AB107:AH118"/>
-    <mergeCell ref="AB119:AH127"/>
-    <mergeCell ref="AB129:AH139"/>
+    <mergeCell ref="AB139:AH147"/>
+    <mergeCell ref="AB106:AH117"/>
+    <mergeCell ref="AB118:AH126"/>
+    <mergeCell ref="AB128:AH138"/>
     <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB84:AH93"/>
-    <mergeCell ref="AB94:AH106"/>
-    <mergeCell ref="AB71:AH83"/>
-    <mergeCell ref="AB59:AH70"/>
-    <mergeCell ref="AB50:AH58"/>
-    <mergeCell ref="F128:AH128"/>
+    <mergeCell ref="AB83:AH92"/>
+    <mergeCell ref="AB93:AH105"/>
+    <mergeCell ref="AB70:AH82"/>
+    <mergeCell ref="AB58:AH69"/>
+    <mergeCell ref="AB49:AH57"/>
+    <mergeCell ref="F127:AH127"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="43" max="34" man="1"/>
-    <brk id="83" max="34" man="1"/>
-    <brk id="128" max="34" man="1"/>
-    <brk id="171" max="34" man="1"/>
+    <brk id="42" max="34" man="1"/>
+    <brk id="82" max="34" man="1"/>
+    <brk id="127" max="34" man="1"/>
+    <brk id="170" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69002BBE-01A4-4530-AD45-16AF9201E5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252E066-9738-4BEE-AB03-C8CEDE173730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="6.2.ファイル転送（配信）" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.2.ファイル転送（配信）'!$A$1:$AI$162</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$162</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$162</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$162</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$162</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -186,75 +186,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HULFTと比べると、追加のミドルウェアをインストールすることなく運用することが可能である。</t>
-    <rPh sb="6" eb="7">
-      <t>クラ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>方針</t>
-  </si>
-  <si>
-    <t>理由</t>
-    <rPh sb="0" eb="2">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HULFT</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用する</t>
-  </si>
-  <si>
-    <t>外部IFの要件に基づき、HULFT通信を使用する。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FTP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用しない</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SFTP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>処理方式概要</t>
-  </si>
-  <si>
-    <t>上記の特徴を踏まえ、本システムでの選択基準を以下に示す。</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>本項では、ファイルの出力からファイルの配信に至るまでの処理について方式設計を行う。</t>
@@ -315,72 +247,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外部IFの要件に基づき、FTPによるファイル転送（配信）を使用しない。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハイシン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外部IFの要件に基づき、SFTPによるファイル転送（配信）を使用する。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハイシン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外部IFの要件に基づき、SCPによるファイル転送（配信）を使用しない。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハイシン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -589,26 +455,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>※HULFT独自の暗号化通信を行う。</t>
-    <rPh sb="6" eb="8">
-      <t>ドクジ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SCP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>≪HULFT配信の場合は以降を実施≫　　　　　　HULFTのジョブ連携機能を利用</t>
     <rPh sb="6" eb="8">
       <t>ハイシン</t>
@@ -714,35 +560,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>SCP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SFTPと比較すると、高速にファイルを転送することができるが、転送を中断した場合に再開ができない。</t>
-    <rPh sb="5" eb="7">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウソク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>チュウダン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サイカイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>上記１，２に関しては【7.11.暗号化・ハッシュ化】および【7.2.文字コード】を参照。</t>
     <rPh sb="0" eb="2">
       <t>ジョウキ</t>
@@ -803,26 +620,6 @@
     <rPh sb="73" eb="75">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SFTPと同じく、SSHによる暗号化によってセキュリティ対策が施されている。</t>
-    <rPh sb="5" eb="6">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ホドコ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用する</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -859,6 +656,28 @@
     </rPh>
     <rPh sb="103" eb="105">
       <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本システムでは、ファイル転送（配信）に以下の方法を使用する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1104,7 +923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1199,9 +1018,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1256,6 +1072,72 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1282,15 +1164,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1325,63 +1198,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1409,13 +1225,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1471,13 +1287,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1574,13 +1390,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1642,13 +1458,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1745,13 +1561,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1813,13 +1629,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1881,13 +1697,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1949,13 +1765,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2009,13 +1825,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2069,13 +1885,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2129,13 +1945,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2213,13 +2029,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2281,13 +2097,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2341,13 +2157,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2409,13 +2225,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2469,13 +2285,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2537,13 +2353,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2651,13 +2467,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2735,13 +2551,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2794,13 +2610,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>261939</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2856,13 +2672,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2940,13 +2756,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3008,13 +2824,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3068,13 +2884,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3126,13 +2942,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3185,13 +3001,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3244,13 +3060,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3303,13 +3119,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3362,13 +3178,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3421,13 +3237,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3486,13 +3302,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3546,13 +3362,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3630,13 +3446,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3689,13 +3505,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3757,13 +3573,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>22226</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3817,13 +3633,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3901,13 +3717,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4005,13 +3821,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4064,13 +3880,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4132,13 +3948,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4192,13 +4008,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4257,13 +4073,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4317,13 +4133,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4376,13 +4192,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4444,13 +4260,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4512,13 +4328,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4596,13 +4412,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4656,13 +4472,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4724,13 +4540,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4782,13 +4598,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4850,13 +4666,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4918,13 +4734,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4986,13 +4802,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5054,13 +4870,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5122,13 +4938,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5186,13 +5002,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5250,13 +5066,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5314,13 +5130,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5398,13 +5214,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5780,7 +5596,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI610"/>
+  <dimension ref="A1:AI593"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -5796,43 +5612,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="77" t="s">
-        <v>72</v>
+      <c r="R1" s="53" t="s">
+        <v>57</v>
       </c>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="79"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="55"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="62"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="61"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -5841,43 +5657,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="85"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="88"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="62"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="61"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -5886,39 +5702,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="91"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="70"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="62"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="61"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5948,7 +5764,7 @@
         <v>6.2.1.</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5964,12 +5780,12 @@
     </row>
     <row r="11" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F11" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F12" s="16" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5984,16 +5800,15 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="4" t="str">
-        <f>D7&amp;"を行う機能には、以下の方法がある。"</f>
-        <v>ファイル転送（配信）を行う機能には、以下の方法がある。</v>
+      <c r="F15" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="19"/>
       <c r="F17" s="20" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -6029,13 +5844,13 @@
     <row r="18" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
       <c r="F18" s="23" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="23" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -6069,7 +5884,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="26" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -6133,13 +5948,13 @@
     <row r="21" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="19"/>
       <c r="F21" s="23" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="23" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
@@ -6173,7 +5988,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="26" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -6202,767 +6017,761 @@
     </row>
     <row r="23" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="19"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="26" t="s">
-        <v>77</v>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="29" t="s">
+        <v>62</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="28"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="31"/>
     </row>
     <row r="24" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="19"/>
-      <c r="F24" s="23" t="s">
-        <v>78</v>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="15" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>6.2.2.</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="23" t="s">
+      <c r="E26" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="15"/>
+      <c r="F27" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="15"/>
+      <c r="F29" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="37"/>
+    </row>
+    <row r="30" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="15"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="42"/>
+    </row>
+    <row r="31" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="15"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="35"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="25"/>
-    </row>
-    <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="19"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="26" t="s">
-        <v>84</v>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="49"/>
+    </row>
+    <row r="32" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="15"/>
+      <c r="F32" s="23">
+        <v>1</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="28"/>
-    </row>
-    <row r="26" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="19"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="29" t="s">
-        <v>79</v>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="72" t="s">
+        <v>65</v>
       </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="31"/>
-    </row>
-    <row r="27" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="19"/>
-      <c r="F27" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="25"/>
-    </row>
-    <row r="28" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="19"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="31"/>
-    </row>
-    <row r="29" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="19"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
-    </row>
-    <row r="30" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="19"/>
-      <c r="F30" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F31" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="22"/>
-    </row>
-    <row r="32" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F32" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="28"/>
-    </row>
-    <row r="33" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="31"/>
-    </row>
-    <row r="34" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="27"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="73"/>
+      <c r="AF32" s="73"/>
+      <c r="AG32" s="73"/>
+      <c r="AH32" s="74"/>
+    </row>
+    <row r="33" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="15"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="76"/>
+      <c r="AD33" s="76"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="76"/>
+      <c r="AG33" s="76"/>
+      <c r="AH33" s="77"/>
+    </row>
+    <row r="34" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="15"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="27" t="s">
-        <v>85</v>
-      </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="32" t="s">
-        <v>46</v>
-      </c>
+      <c r="N34" s="26"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="28"/>
       <c r="Q34" s="27"/>
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
+      <c r="T34" s="26"/>
       <c r="U34" s="27"/>
       <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
+      <c r="W34" s="28"/>
       <c r="X34" s="27"/>
       <c r="Y34" s="27"/>
       <c r="Z34" s="27"/>
       <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="28"/>
-    </row>
-    <row r="35" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="31"/>
-    </row>
-    <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="27"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="76"/>
+      <c r="AD34" s="76"/>
+      <c r="AE34" s="76"/>
+      <c r="AF34" s="76"/>
+      <c r="AG34" s="76"/>
+      <c r="AH34" s="77"/>
+    </row>
+    <row r="35" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="15"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="76"/>
+      <c r="AD35" s="76"/>
+      <c r="AE35" s="76"/>
+      <c r="AF35" s="76"/>
+      <c r="AG35" s="76"/>
+      <c r="AH35" s="77"/>
+    </row>
+    <row r="36" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="15"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
       <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="32" t="s">
-        <v>47</v>
-      </c>
+      <c r="N36" s="26"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="28"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
+      <c r="T36" s="26"/>
       <c r="U36" s="27"/>
       <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
+      <c r="W36" s="28"/>
       <c r="X36" s="27"/>
       <c r="Y36" s="27"/>
       <c r="Z36" s="27"/>
       <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="28"/>
-    </row>
-    <row r="37" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="31"/>
-    </row>
-    <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="27"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="77"/>
+    </row>
+    <row r="37" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="15"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="75"/>
+      <c r="AC37" s="76"/>
+      <c r="AD37" s="76"/>
+      <c r="AE37" s="76"/>
+      <c r="AF37" s="76"/>
+      <c r="AG37" s="76"/>
+      <c r="AH37" s="77"/>
+    </row>
+    <row r="38" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="15"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="I38" s="27"/>
+      <c r="J38" s="28"/>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="32" t="s">
-        <v>45</v>
-      </c>
+      <c r="N38" s="26"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="28"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
+      <c r="T38" s="26"/>
       <c r="U38" s="27"/>
       <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
+      <c r="W38" s="28"/>
       <c r="X38" s="27"/>
       <c r="Y38" s="27"/>
       <c r="Z38" s="27"/>
       <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="28"/>
-    </row>
-    <row r="39" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="30"/>
-      <c r="AE39" s="30"/>
-      <c r="AF39" s="30"/>
-      <c r="AG39" s="30"/>
-      <c r="AH39" s="31"/>
-    </row>
-    <row r="40" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-      <c r="AF40" s="27"/>
-      <c r="AG40" s="27"/>
-      <c r="AH40" s="27"/>
-    </row>
-    <row r="41" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="15" t="str">
-        <f>$C$7&amp;"2."</f>
-        <v>6.2.2.</v>
+      <c r="AB38" s="75"/>
+      <c r="AC38" s="76"/>
+      <c r="AD38" s="76"/>
+      <c r="AE38" s="76"/>
+      <c r="AF38" s="76"/>
+      <c r="AG38" s="76"/>
+      <c r="AH38" s="77"/>
+    </row>
+    <row r="39" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="15"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="75"/>
+      <c r="AC39" s="76"/>
+      <c r="AD39" s="76"/>
+      <c r="AE39" s="76"/>
+      <c r="AF39" s="76"/>
+      <c r="AG39" s="76"/>
+      <c r="AH39" s="77"/>
+    </row>
+    <row r="40" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="15"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="78"/>
+      <c r="AC40" s="79"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="79"/>
+      <c r="AF40" s="79"/>
+      <c r="AG40" s="79"/>
+      <c r="AH40" s="80"/>
+    </row>
+    <row r="41" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="15"/>
+      <c r="F41" s="23">
+        <v>2</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>12</v>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="72" t="s">
+        <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="74"/>
+    </row>
+    <row r="42" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="15"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="75"/>
+      <c r="AC42" s="76"/>
+      <c r="AD42" s="76"/>
+      <c r="AE42" s="76"/>
+      <c r="AF42" s="76"/>
+      <c r="AG42" s="76"/>
+      <c r="AH42" s="77"/>
+    </row>
+    <row r="43" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="15"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="75"/>
+      <c r="AC43" s="76"/>
+      <c r="AD43" s="76"/>
+      <c r="AE43" s="76"/>
+      <c r="AF43" s="76"/>
+      <c r="AG43" s="76"/>
+      <c r="AH43" s="77"/>
+    </row>
+    <row r="44" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="15"/>
-      <c r="F44" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="75"/>
+      <c r="AC44" s="76"/>
+      <c r="AD44" s="76"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="76"/>
+      <c r="AG44" s="76"/>
+      <c r="AH44" s="77"/>
+    </row>
+    <row r="45" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="75"/>
+      <c r="AC45" s="76"/>
+      <c r="AD45" s="76"/>
+      <c r="AE45" s="76"/>
+      <c r="AF45" s="76"/>
+      <c r="AG45" s="76"/>
+      <c r="AH45" s="77"/>
+    </row>
+    <row r="46" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="15"/>
-      <c r="F46" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="37"/>
-      <c r="AE46" s="37"/>
-      <c r="AF46" s="37"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" s="38"/>
-    </row>
-    <row r="47" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="75"/>
+      <c r="AC46" s="76"/>
+      <c r="AD46" s="76"/>
+      <c r="AE46" s="76"/>
+      <c r="AF46" s="76"/>
+      <c r="AG46" s="76"/>
+      <c r="AH46" s="77"/>
+    </row>
+    <row r="47" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" s="15"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="42"/>
-      <c r="AD47" s="42"/>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="43"/>
-    </row>
-    <row r="48" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="75"/>
+      <c r="AC47" s="76"/>
+      <c r="AD47" s="76"/>
+      <c r="AE47" s="76"/>
+      <c r="AF47" s="76"/>
+      <c r="AG47" s="76"/>
+      <c r="AH47" s="77"/>
+    </row>
+    <row r="48" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E48" s="15"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="O48" s="36"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="U48" s="45"/>
-      <c r="V48" s="45"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="45"/>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AE48" s="49"/>
-      <c r="AF48" s="49"/>
-      <c r="AG48" s="49"/>
-      <c r="AH48" s="50"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="75"/>
+      <c r="AC48" s="76"/>
+      <c r="AD48" s="76"/>
+      <c r="AE48" s="76"/>
+      <c r="AF48" s="76"/>
+      <c r="AG48" s="76"/>
+      <c r="AH48" s="77"/>
     </row>
     <row r="49" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="15"/>
-      <c r="F49" s="23">
-        <v>1</v>
-      </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC49" s="52"/>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="52"/>
-      <c r="AG49" s="52"/>
-      <c r="AH49" s="53"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="75"/>
+      <c r="AC49" s="76"/>
+      <c r="AD49" s="76"/>
+      <c r="AE49" s="76"/>
+      <c r="AF49" s="76"/>
+      <c r="AG49" s="76"/>
+      <c r="AH49" s="77"/>
     </row>
     <row r="50" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="15"/>
@@ -6988,13 +6797,13 @@
       <c r="Y50" s="27"/>
       <c r="Z50" s="27"/>
       <c r="AA50" s="27"/>
-      <c r="AB50" s="54"/>
-      <c r="AC50" s="55"/>
-      <c r="AD50" s="55"/>
-      <c r="AE50" s="55"/>
-      <c r="AF50" s="55"/>
-      <c r="AG50" s="55"/>
-      <c r="AH50" s="56"/>
+      <c r="AB50" s="75"/>
+      <c r="AC50" s="76"/>
+      <c r="AD50" s="76"/>
+      <c r="AE50" s="76"/>
+      <c r="AF50" s="76"/>
+      <c r="AG50" s="76"/>
+      <c r="AH50" s="77"/>
     </row>
     <row r="51" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E51" s="15"/>
@@ -7020,77 +6829,81 @@
       <c r="Y51" s="27"/>
       <c r="Z51" s="27"/>
       <c r="AA51" s="27"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="55"/>
-      <c r="AD51" s="55"/>
-      <c r="AE51" s="55"/>
-      <c r="AF51" s="55"/>
-      <c r="AG51" s="55"/>
-      <c r="AH51" s="56"/>
+      <c r="AB51" s="75"/>
+      <c r="AC51" s="76"/>
+      <c r="AD51" s="76"/>
+      <c r="AE51" s="76"/>
+      <c r="AF51" s="76"/>
+      <c r="AG51" s="76"/>
+      <c r="AH51" s="77"/>
     </row>
     <row r="52" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" s="15"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="55"/>
-      <c r="AD52" s="55"/>
-      <c r="AE52" s="55"/>
-      <c r="AF52" s="55"/>
-      <c r="AG52" s="55"/>
-      <c r="AH52" s="56"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="78"/>
+      <c r="AC52" s="79"/>
+      <c r="AD52" s="79"/>
+      <c r="AE52" s="79"/>
+      <c r="AF52" s="79"/>
+      <c r="AG52" s="79"/>
+      <c r="AH52" s="80"/>
     </row>
     <row r="53" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="15"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="55"/>
-      <c r="AD53" s="55"/>
-      <c r="AE53" s="55"/>
-      <c r="AF53" s="55"/>
-      <c r="AG53" s="55"/>
-      <c r="AH53" s="56"/>
+      <c r="F53" s="23">
+        <v>3</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="24"/>
+      <c r="AB53" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC53" s="73"/>
+      <c r="AD53" s="73"/>
+      <c r="AE53" s="73"/>
+      <c r="AF53" s="73"/>
+      <c r="AG53" s="73"/>
+      <c r="AH53" s="74"/>
     </row>
     <row r="54" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" s="15"/>
@@ -7116,13 +6929,13 @@
       <c r="Y54" s="27"/>
       <c r="Z54" s="27"/>
       <c r="AA54" s="27"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="55"/>
-      <c r="AD54" s="55"/>
-      <c r="AE54" s="55"/>
-      <c r="AF54" s="55"/>
-      <c r="AG54" s="55"/>
-      <c r="AH54" s="56"/>
+      <c r="AB54" s="75"/>
+      <c r="AC54" s="76"/>
+      <c r="AD54" s="76"/>
+      <c r="AE54" s="76"/>
+      <c r="AF54" s="76"/>
+      <c r="AG54" s="76"/>
+      <c r="AH54" s="77"/>
     </row>
     <row r="55" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="15"/>
@@ -7148,13 +6961,13 @@
       <c r="Y55" s="27"/>
       <c r="Z55" s="27"/>
       <c r="AA55" s="27"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="55"/>
-      <c r="AD55" s="55"/>
-      <c r="AE55" s="55"/>
-      <c r="AF55" s="55"/>
-      <c r="AG55" s="55"/>
-      <c r="AH55" s="56"/>
+      <c r="AB55" s="75"/>
+      <c r="AC55" s="76"/>
+      <c r="AD55" s="76"/>
+      <c r="AE55" s="76"/>
+      <c r="AF55" s="76"/>
+      <c r="AG55" s="76"/>
+      <c r="AH55" s="77"/>
     </row>
     <row r="56" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
@@ -7180,81 +6993,77 @@
       <c r="Y56" s="27"/>
       <c r="Z56" s="27"/>
       <c r="AA56" s="27"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="55"/>
-      <c r="AE56" s="55"/>
-      <c r="AF56" s="55"/>
-      <c r="AG56" s="55"/>
-      <c r="AH56" s="56"/>
+      <c r="AB56" s="75"/>
+      <c r="AC56" s="76"/>
+      <c r="AD56" s="76"/>
+      <c r="AE56" s="76"/>
+      <c r="AF56" s="76"/>
+      <c r="AG56" s="76"/>
+      <c r="AH56" s="77"/>
     </row>
     <row r="57" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30"/>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="57"/>
-      <c r="AC57" s="58"/>
-      <c r="AD57" s="58"/>
-      <c r="AE57" s="58"/>
-      <c r="AF57" s="58"/>
-      <c r="AG57" s="58"/>
-      <c r="AH57" s="59"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="75"/>
+      <c r="AC57" s="76"/>
+      <c r="AD57" s="76"/>
+      <c r="AE57" s="76"/>
+      <c r="AF57" s="76"/>
+      <c r="AG57" s="76"/>
+      <c r="AH57" s="77"/>
     </row>
     <row r="58" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
-      <c r="F58" s="23">
-        <v>2</v>
-      </c>
-      <c r="G58" s="23"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="24"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="25"/>
-      <c r="X58" s="24"/>
-      <c r="Y58" s="24"/>
-      <c r="Z58" s="24"/>
-      <c r="AA58" s="24"/>
-      <c r="AB58" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC58" s="52"/>
-      <c r="AD58" s="52"/>
-      <c r="AE58" s="52"/>
-      <c r="AF58" s="52"/>
-      <c r="AG58" s="52"/>
-      <c r="AH58" s="53"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="75"/>
+      <c r="AC58" s="76"/>
+      <c r="AD58" s="76"/>
+      <c r="AE58" s="76"/>
+      <c r="AF58" s="76"/>
+      <c r="AG58" s="76"/>
+      <c r="AH58" s="77"/>
     </row>
     <row r="59" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
@@ -7280,13 +7089,13 @@
       <c r="Y59" s="27"/>
       <c r="Z59" s="27"/>
       <c r="AA59" s="27"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="55"/>
-      <c r="AD59" s="55"/>
-      <c r="AE59" s="55"/>
-      <c r="AF59" s="55"/>
-      <c r="AG59" s="55"/>
-      <c r="AH59" s="56"/>
+      <c r="AB59" s="75"/>
+      <c r="AC59" s="76"/>
+      <c r="AD59" s="76"/>
+      <c r="AE59" s="76"/>
+      <c r="AF59" s="76"/>
+      <c r="AG59" s="76"/>
+      <c r="AH59" s="77"/>
     </row>
     <row r="60" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
@@ -7312,13 +7121,13 @@
       <c r="Y60" s="27"/>
       <c r="Z60" s="27"/>
       <c r="AA60" s="27"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="55"/>
-      <c r="AD60" s="55"/>
-      <c r="AE60" s="55"/>
-      <c r="AF60" s="55"/>
-      <c r="AG60" s="55"/>
-      <c r="AH60" s="56"/>
+      <c r="AB60" s="75"/>
+      <c r="AC60" s="76"/>
+      <c r="AD60" s="76"/>
+      <c r="AE60" s="76"/>
+      <c r="AF60" s="76"/>
+      <c r="AG60" s="76"/>
+      <c r="AH60" s="77"/>
     </row>
     <row r="61" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
@@ -7344,13 +7153,13 @@
       <c r="Y61" s="27"/>
       <c r="Z61" s="27"/>
       <c r="AA61" s="27"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="55"/>
-      <c r="AE61" s="55"/>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="55"/>
-      <c r="AH61" s="56"/>
+      <c r="AB61" s="75"/>
+      <c r="AC61" s="76"/>
+      <c r="AD61" s="76"/>
+      <c r="AE61" s="76"/>
+      <c r="AF61" s="76"/>
+      <c r="AG61" s="76"/>
+      <c r="AH61" s="77"/>
     </row>
     <row r="62" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
@@ -7376,13 +7185,13 @@
       <c r="Y62" s="27"/>
       <c r="Z62" s="27"/>
       <c r="AA62" s="27"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="55"/>
-      <c r="AE62" s="55"/>
-      <c r="AF62" s="55"/>
-      <c r="AG62" s="55"/>
-      <c r="AH62" s="56"/>
+      <c r="AB62" s="75"/>
+      <c r="AC62" s="76"/>
+      <c r="AD62" s="76"/>
+      <c r="AE62" s="76"/>
+      <c r="AF62" s="76"/>
+      <c r="AG62" s="76"/>
+      <c r="AH62" s="77"/>
     </row>
     <row r="63" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
@@ -7408,13 +7217,13 @@
       <c r="Y63" s="27"/>
       <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="55"/>
-      <c r="AD63" s="55"/>
-      <c r="AE63" s="55"/>
-      <c r="AF63" s="55"/>
-      <c r="AG63" s="55"/>
-      <c r="AH63" s="56"/>
+      <c r="AB63" s="75"/>
+      <c r="AC63" s="76"/>
+      <c r="AD63" s="76"/>
+      <c r="AE63" s="76"/>
+      <c r="AF63" s="76"/>
+      <c r="AG63" s="76"/>
+      <c r="AH63" s="77"/>
     </row>
     <row r="64" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="15"/>
@@ -7440,77 +7249,81 @@
       <c r="Y64" s="27"/>
       <c r="Z64" s="27"/>
       <c r="AA64" s="27"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="55"/>
-      <c r="AD64" s="55"/>
-      <c r="AE64" s="55"/>
-      <c r="AF64" s="55"/>
-      <c r="AG64" s="55"/>
-      <c r="AH64" s="56"/>
+      <c r="AB64" s="75"/>
+      <c r="AC64" s="76"/>
+      <c r="AD64" s="76"/>
+      <c r="AE64" s="76"/>
+      <c r="AF64" s="76"/>
+      <c r="AG64" s="76"/>
+      <c r="AH64" s="77"/>
     </row>
     <row r="65" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="26"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="27"/>
-      <c r="Z65" s="27"/>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="55"/>
-      <c r="AD65" s="55"/>
-      <c r="AE65" s="55"/>
-      <c r="AF65" s="55"/>
-      <c r="AG65" s="55"/>
-      <c r="AH65" s="56"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="31"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="30"/>
+      <c r="AB65" s="78"/>
+      <c r="AC65" s="79"/>
+      <c r="AD65" s="79"/>
+      <c r="AE65" s="79"/>
+      <c r="AF65" s="79"/>
+      <c r="AG65" s="79"/>
+      <c r="AH65" s="80"/>
     </row>
     <row r="66" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="15"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="26"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="27"/>
-      <c r="Z66" s="27"/>
-      <c r="AA66" s="27"/>
-      <c r="AB66" s="54"/>
-      <c r="AC66" s="55"/>
-      <c r="AD66" s="55"/>
-      <c r="AE66" s="55"/>
-      <c r="AF66" s="55"/>
-      <c r="AG66" s="55"/>
-      <c r="AH66" s="56"/>
+      <c r="F66" s="23">
+        <v>4</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="25"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC66" s="81"/>
+      <c r="AD66" s="81"/>
+      <c r="AE66" s="81"/>
+      <c r="AF66" s="81"/>
+      <c r="AG66" s="81"/>
+      <c r="AH66" s="82"/>
     </row>
     <row r="67" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="15"/>
@@ -7536,13 +7349,13 @@
       <c r="Y67" s="27"/>
       <c r="Z67" s="27"/>
       <c r="AA67" s="27"/>
-      <c r="AB67" s="54"/>
-      <c r="AC67" s="55"/>
-      <c r="AD67" s="55"/>
-      <c r="AE67" s="55"/>
-      <c r="AF67" s="55"/>
-      <c r="AG67" s="55"/>
-      <c r="AH67" s="56"/>
+      <c r="AB67" s="83"/>
+      <c r="AC67" s="84"/>
+      <c r="AD67" s="84"/>
+      <c r="AE67" s="84"/>
+      <c r="AF67" s="84"/>
+      <c r="AG67" s="84"/>
+      <c r="AH67" s="85"/>
     </row>
     <row r="68" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="15"/>
@@ -7568,81 +7381,77 @@
       <c r="Y68" s="27"/>
       <c r="Z68" s="27"/>
       <c r="AA68" s="27"/>
-      <c r="AB68" s="54"/>
-      <c r="AC68" s="55"/>
-      <c r="AD68" s="55"/>
-      <c r="AE68" s="55"/>
-      <c r="AF68" s="55"/>
-      <c r="AG68" s="55"/>
-      <c r="AH68" s="56"/>
+      <c r="AB68" s="83"/>
+      <c r="AC68" s="84"/>
+      <c r="AD68" s="84"/>
+      <c r="AE68" s="84"/>
+      <c r="AF68" s="84"/>
+      <c r="AG68" s="84"/>
+      <c r="AH68" s="85"/>
     </row>
     <row r="69" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="15"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="30"/>
-      <c r="W69" s="31"/>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="30"/>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="57"/>
-      <c r="AC69" s="58"/>
-      <c r="AD69" s="58"/>
-      <c r="AE69" s="58"/>
-      <c r="AF69" s="58"/>
-      <c r="AG69" s="58"/>
-      <c r="AH69" s="59"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="27"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="83"/>
+      <c r="AC69" s="84"/>
+      <c r="AD69" s="84"/>
+      <c r="AE69" s="84"/>
+      <c r="AF69" s="84"/>
+      <c r="AG69" s="84"/>
+      <c r="AH69" s="85"/>
     </row>
     <row r="70" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="15"/>
-      <c r="F70" s="23">
-        <v>3</v>
-      </c>
-      <c r="G70" s="23"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="24"/>
-      <c r="T70" s="23"/>
-      <c r="U70" s="24"/>
-      <c r="V70" s="24"/>
-      <c r="W70" s="25"/>
-      <c r="X70" s="24"/>
-      <c r="Y70" s="24"/>
-      <c r="Z70" s="24"/>
-      <c r="AA70" s="24"/>
-      <c r="AB70" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC70" s="52"/>
-      <c r="AD70" s="52"/>
-      <c r="AE70" s="52"/>
-      <c r="AF70" s="52"/>
-      <c r="AG70" s="52"/>
-      <c r="AH70" s="53"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="27"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="83"/>
+      <c r="AC70" s="84"/>
+      <c r="AD70" s="84"/>
+      <c r="AE70" s="84"/>
+      <c r="AF70" s="84"/>
+      <c r="AG70" s="84"/>
+      <c r="AH70" s="85"/>
     </row>
     <row r="71" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="15"/>
@@ -7668,13 +7477,13 @@
       <c r="Y71" s="27"/>
       <c r="Z71" s="27"/>
       <c r="AA71" s="27"/>
-      <c r="AB71" s="54"/>
-      <c r="AC71" s="55"/>
-      <c r="AD71" s="55"/>
-      <c r="AE71" s="55"/>
-      <c r="AF71" s="55"/>
-      <c r="AG71" s="55"/>
-      <c r="AH71" s="56"/>
+      <c r="AB71" s="83"/>
+      <c r="AC71" s="84"/>
+      <c r="AD71" s="84"/>
+      <c r="AE71" s="84"/>
+      <c r="AF71" s="84"/>
+      <c r="AG71" s="84"/>
+      <c r="AH71" s="85"/>
     </row>
     <row r="72" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="15"/>
@@ -7700,13 +7509,13 @@
       <c r="Y72" s="27"/>
       <c r="Z72" s="27"/>
       <c r="AA72" s="27"/>
-      <c r="AB72" s="54"/>
-      <c r="AC72" s="55"/>
-      <c r="AD72" s="55"/>
-      <c r="AE72" s="55"/>
-      <c r="AF72" s="55"/>
-      <c r="AG72" s="55"/>
-      <c r="AH72" s="56"/>
+      <c r="AB72" s="83"/>
+      <c r="AC72" s="84"/>
+      <c r="AD72" s="84"/>
+      <c r="AE72" s="84"/>
+      <c r="AF72" s="84"/>
+      <c r="AG72" s="84"/>
+      <c r="AH72" s="85"/>
     </row>
     <row r="73" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="15"/>
@@ -7732,13 +7541,13 @@
       <c r="Y73" s="27"/>
       <c r="Z73" s="27"/>
       <c r="AA73" s="27"/>
-      <c r="AB73" s="54"/>
-      <c r="AC73" s="55"/>
-      <c r="AD73" s="55"/>
-      <c r="AE73" s="55"/>
-      <c r="AF73" s="55"/>
-      <c r="AG73" s="55"/>
-      <c r="AH73" s="56"/>
+      <c r="AB73" s="83"/>
+      <c r="AC73" s="84"/>
+      <c r="AD73" s="84"/>
+      <c r="AE73" s="84"/>
+      <c r="AF73" s="84"/>
+      <c r="AG73" s="84"/>
+      <c r="AH73" s="85"/>
     </row>
     <row r="74" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="15"/>
@@ -7764,77 +7573,81 @@
       <c r="Y74" s="27"/>
       <c r="Z74" s="27"/>
       <c r="AA74" s="27"/>
-      <c r="AB74" s="54"/>
-      <c r="AC74" s="55"/>
-      <c r="AD74" s="55"/>
-      <c r="AE74" s="55"/>
-      <c r="AF74" s="55"/>
-      <c r="AG74" s="55"/>
-      <c r="AH74" s="56"/>
+      <c r="AB74" s="83"/>
+      <c r="AC74" s="84"/>
+      <c r="AD74" s="84"/>
+      <c r="AE74" s="84"/>
+      <c r="AF74" s="84"/>
+      <c r="AG74" s="84"/>
+      <c r="AH74" s="85"/>
     </row>
     <row r="75" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="15"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="27"/>
-      <c r="N75" s="26"/>
-      <c r="O75" s="27"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="27"/>
-      <c r="R75" s="27"/>
-      <c r="S75" s="27"/>
-      <c r="T75" s="26"/>
-      <c r="U75" s="27"/>
-      <c r="V75" s="27"/>
-      <c r="W75" s="28"/>
-      <c r="X75" s="27"/>
-      <c r="Y75" s="27"/>
-      <c r="Z75" s="27"/>
-      <c r="AA75" s="27"/>
-      <c r="AB75" s="54"/>
-      <c r="AC75" s="55"/>
-      <c r="AD75" s="55"/>
-      <c r="AE75" s="55"/>
-      <c r="AF75" s="55"/>
-      <c r="AG75" s="55"/>
-      <c r="AH75" s="56"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="30"/>
+      <c r="R75" s="30"/>
+      <c r="S75" s="30"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="30"/>
+      <c r="V75" s="30"/>
+      <c r="W75" s="31"/>
+      <c r="X75" s="30"/>
+      <c r="Y75" s="30"/>
+      <c r="Z75" s="30"/>
+      <c r="AA75" s="30"/>
+      <c r="AB75" s="86"/>
+      <c r="AC75" s="87"/>
+      <c r="AD75" s="87"/>
+      <c r="AE75" s="87"/>
+      <c r="AF75" s="87"/>
+      <c r="AG75" s="87"/>
+      <c r="AH75" s="88"/>
     </row>
     <row r="76" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="15"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="27"/>
-      <c r="R76" s="27"/>
-      <c r="S76" s="27"/>
-      <c r="T76" s="26"/>
-      <c r="U76" s="27"/>
-      <c r="V76" s="27"/>
-      <c r="W76" s="28"/>
-      <c r="X76" s="27"/>
-      <c r="Y76" s="27"/>
-      <c r="Z76" s="27"/>
-      <c r="AA76" s="27"/>
-      <c r="AB76" s="54"/>
-      <c r="AC76" s="55"/>
-      <c r="AD76" s="55"/>
-      <c r="AE76" s="55"/>
-      <c r="AF76" s="55"/>
-      <c r="AG76" s="55"/>
-      <c r="AH76" s="56"/>
+      <c r="F76" s="23">
+        <v>5</v>
+      </c>
+      <c r="G76" s="23"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="23"/>
+      <c r="U76" s="24"/>
+      <c r="V76" s="24"/>
+      <c r="W76" s="25"/>
+      <c r="X76" s="24"/>
+      <c r="Y76" s="24"/>
+      <c r="Z76" s="24"/>
+      <c r="AA76" s="24"/>
+      <c r="AB76" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC76" s="73"/>
+      <c r="AD76" s="73"/>
+      <c r="AE76" s="73"/>
+      <c r="AF76" s="73"/>
+      <c r="AG76" s="73"/>
+      <c r="AH76" s="74"/>
     </row>
     <row r="77" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="15"/>
@@ -7860,13 +7673,13 @@
       <c r="Y77" s="27"/>
       <c r="Z77" s="27"/>
       <c r="AA77" s="27"/>
-      <c r="AB77" s="54"/>
-      <c r="AC77" s="55"/>
-      <c r="AD77" s="55"/>
-      <c r="AE77" s="55"/>
-      <c r="AF77" s="55"/>
-      <c r="AG77" s="55"/>
-      <c r="AH77" s="56"/>
+      <c r="AB77" s="75"/>
+      <c r="AC77" s="76"/>
+      <c r="AD77" s="76"/>
+      <c r="AE77" s="76"/>
+      <c r="AF77" s="76"/>
+      <c r="AG77" s="76"/>
+      <c r="AH77" s="77"/>
     </row>
     <row r="78" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="15"/>
@@ -7892,13 +7705,13 @@
       <c r="Y78" s="27"/>
       <c r="Z78" s="27"/>
       <c r="AA78" s="27"/>
-      <c r="AB78" s="54"/>
-      <c r="AC78" s="55"/>
-      <c r="AD78" s="55"/>
-      <c r="AE78" s="55"/>
-      <c r="AF78" s="55"/>
-      <c r="AG78" s="55"/>
-      <c r="AH78" s="56"/>
+      <c r="AB78" s="75"/>
+      <c r="AC78" s="76"/>
+      <c r="AD78" s="76"/>
+      <c r="AE78" s="76"/>
+      <c r="AF78" s="76"/>
+      <c r="AG78" s="76"/>
+      <c r="AH78" s="77"/>
     </row>
     <row r="79" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="15"/>
@@ -7924,13 +7737,13 @@
       <c r="Y79" s="27"/>
       <c r="Z79" s="27"/>
       <c r="AA79" s="27"/>
-      <c r="AB79" s="54"/>
-      <c r="AC79" s="55"/>
-      <c r="AD79" s="55"/>
-      <c r="AE79" s="55"/>
-      <c r="AF79" s="55"/>
-      <c r="AG79" s="55"/>
-      <c r="AH79" s="56"/>
+      <c r="AB79" s="75"/>
+      <c r="AC79" s="76"/>
+      <c r="AD79" s="76"/>
+      <c r="AE79" s="76"/>
+      <c r="AF79" s="76"/>
+      <c r="AG79" s="76"/>
+      <c r="AH79" s="77"/>
     </row>
     <row r="80" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="15"/>
@@ -7956,13 +7769,13 @@
       <c r="Y80" s="27"/>
       <c r="Z80" s="27"/>
       <c r="AA80" s="27"/>
-      <c r="AB80" s="54"/>
-      <c r="AC80" s="55"/>
-      <c r="AD80" s="55"/>
-      <c r="AE80" s="55"/>
-      <c r="AF80" s="55"/>
-      <c r="AG80" s="55"/>
-      <c r="AH80" s="56"/>
+      <c r="AB80" s="75"/>
+      <c r="AC80" s="76"/>
+      <c r="AD80" s="76"/>
+      <c r="AE80" s="76"/>
+      <c r="AF80" s="76"/>
+      <c r="AG80" s="76"/>
+      <c r="AH80" s="77"/>
     </row>
     <row r="81" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E81" s="15"/>
@@ -7988,81 +7801,77 @@
       <c r="Y81" s="27"/>
       <c r="Z81" s="27"/>
       <c r="AA81" s="27"/>
-      <c r="AB81" s="54"/>
-      <c r="AC81" s="55"/>
-      <c r="AD81" s="55"/>
-      <c r="AE81" s="55"/>
-      <c r="AF81" s="55"/>
-      <c r="AG81" s="55"/>
-      <c r="AH81" s="56"/>
+      <c r="AB81" s="75"/>
+      <c r="AC81" s="76"/>
+      <c r="AD81" s="76"/>
+      <c r="AE81" s="76"/>
+      <c r="AF81" s="76"/>
+      <c r="AG81" s="76"/>
+      <c r="AH81" s="77"/>
     </row>
     <row r="82" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="15"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="30"/>
-      <c r="S82" s="30"/>
-      <c r="T82" s="29"/>
-      <c r="U82" s="30"/>
-      <c r="V82" s="30"/>
-      <c r="W82" s="31"/>
-      <c r="X82" s="30"/>
-      <c r="Y82" s="30"/>
-      <c r="Z82" s="30"/>
-      <c r="AA82" s="30"/>
-      <c r="AB82" s="57"/>
-      <c r="AC82" s="58"/>
-      <c r="AD82" s="58"/>
-      <c r="AE82" s="58"/>
-      <c r="AF82" s="58"/>
-      <c r="AG82" s="58"/>
-      <c r="AH82" s="59"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="26"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="28"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="75"/>
+      <c r="AC82" s="76"/>
+      <c r="AD82" s="76"/>
+      <c r="AE82" s="76"/>
+      <c r="AF82" s="76"/>
+      <c r="AG82" s="76"/>
+      <c r="AH82" s="77"/>
     </row>
     <row r="83" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="15"/>
-      <c r="F83" s="23">
-        <v>4</v>
-      </c>
-      <c r="G83" s="23"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="23"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="24"/>
-      <c r="T83" s="23"/>
-      <c r="U83" s="24"/>
-      <c r="V83" s="24"/>
-      <c r="W83" s="25"/>
-      <c r="X83" s="24"/>
-      <c r="Y83" s="24"/>
-      <c r="Z83" s="24"/>
-      <c r="AA83" s="24"/>
-      <c r="AB83" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC83" s="63"/>
-      <c r="AD83" s="63"/>
-      <c r="AE83" s="63"/>
-      <c r="AF83" s="63"/>
-      <c r="AG83" s="63"/>
-      <c r="AH83" s="64"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="26"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="28"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="75"/>
+      <c r="AC83" s="76"/>
+      <c r="AD83" s="76"/>
+      <c r="AE83" s="76"/>
+      <c r="AF83" s="76"/>
+      <c r="AG83" s="76"/>
+      <c r="AH83" s="77"/>
     </row>
     <row r="84" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="15"/>
@@ -8088,13 +7897,13 @@
       <c r="Y84" s="27"/>
       <c r="Z84" s="27"/>
       <c r="AA84" s="27"/>
-      <c r="AB84" s="65"/>
-      <c r="AC84" s="66"/>
-      <c r="AD84" s="66"/>
-      <c r="AE84" s="66"/>
-      <c r="AF84" s="66"/>
-      <c r="AG84" s="66"/>
-      <c r="AH84" s="67"/>
+      <c r="AB84" s="75"/>
+      <c r="AC84" s="76"/>
+      <c r="AD84" s="76"/>
+      <c r="AE84" s="76"/>
+      <c r="AF84" s="76"/>
+      <c r="AG84" s="76"/>
+      <c r="AH84" s="77"/>
     </row>
     <row r="85" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85" s="15"/>
@@ -8120,13 +7929,13 @@
       <c r="Y85" s="27"/>
       <c r="Z85" s="27"/>
       <c r="AA85" s="27"/>
-      <c r="AB85" s="65"/>
-      <c r="AC85" s="66"/>
-      <c r="AD85" s="66"/>
-      <c r="AE85" s="66"/>
-      <c r="AF85" s="66"/>
-      <c r="AG85" s="66"/>
-      <c r="AH85" s="67"/>
+      <c r="AB85" s="75"/>
+      <c r="AC85" s="76"/>
+      <c r="AD85" s="76"/>
+      <c r="AE85" s="76"/>
+      <c r="AF85" s="76"/>
+      <c r="AG85" s="76"/>
+      <c r="AH85" s="77"/>
     </row>
     <row r="86" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="15"/>
@@ -8152,13 +7961,13 @@
       <c r="Y86" s="27"/>
       <c r="Z86" s="27"/>
       <c r="AA86" s="27"/>
-      <c r="AB86" s="65"/>
-      <c r="AC86" s="66"/>
-      <c r="AD86" s="66"/>
-      <c r="AE86" s="66"/>
-      <c r="AF86" s="66"/>
-      <c r="AG86" s="66"/>
-      <c r="AH86" s="67"/>
+      <c r="AB86" s="75"/>
+      <c r="AC86" s="76"/>
+      <c r="AD86" s="76"/>
+      <c r="AE86" s="76"/>
+      <c r="AF86" s="76"/>
+      <c r="AG86" s="76"/>
+      <c r="AH86" s="77"/>
     </row>
     <row r="87" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87" s="15"/>
@@ -8184,13 +7993,13 @@
       <c r="Y87" s="27"/>
       <c r="Z87" s="27"/>
       <c r="AA87" s="27"/>
-      <c r="AB87" s="65"/>
-      <c r="AC87" s="66"/>
-      <c r="AD87" s="66"/>
-      <c r="AE87" s="66"/>
-      <c r="AF87" s="66"/>
-      <c r="AG87" s="66"/>
-      <c r="AH87" s="67"/>
+      <c r="AB87" s="75"/>
+      <c r="AC87" s="76"/>
+      <c r="AD87" s="76"/>
+      <c r="AE87" s="76"/>
+      <c r="AF87" s="76"/>
+      <c r="AG87" s="76"/>
+      <c r="AH87" s="77"/>
     </row>
     <row r="88" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="15"/>
@@ -8216,45 +8025,49 @@
       <c r="Y88" s="27"/>
       <c r="Z88" s="27"/>
       <c r="AA88" s="27"/>
-      <c r="AB88" s="65"/>
-      <c r="AC88" s="66"/>
-      <c r="AD88" s="66"/>
-      <c r="AE88" s="66"/>
-      <c r="AF88" s="66"/>
-      <c r="AG88" s="66"/>
-      <c r="AH88" s="67"/>
+      <c r="AB88" s="75"/>
+      <c r="AC88" s="76"/>
+      <c r="AD88" s="76"/>
+      <c r="AE88" s="76"/>
+      <c r="AF88" s="76"/>
+      <c r="AG88" s="76"/>
+      <c r="AH88" s="77"/>
     </row>
     <row r="89" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="15"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="26"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="28"/>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="27"/>
-      <c r="T89" s="26"/>
-      <c r="U89" s="27"/>
-      <c r="V89" s="27"/>
-      <c r="W89" s="28"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="27"/>
-      <c r="Z89" s="27"/>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="65"/>
-      <c r="AC89" s="66"/>
-      <c r="AD89" s="66"/>
-      <c r="AE89" s="66"/>
-      <c r="AF89" s="66"/>
-      <c r="AG89" s="66"/>
-      <c r="AH89" s="67"/>
+      <c r="F89" s="23">
+        <v>6</v>
+      </c>
+      <c r="G89" s="23"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="23"/>
+      <c r="U89" s="24"/>
+      <c r="V89" s="24"/>
+      <c r="W89" s="25"/>
+      <c r="X89" s="24"/>
+      <c r="Y89" s="24"/>
+      <c r="Z89" s="24"/>
+      <c r="AA89" s="24"/>
+      <c r="AB89" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC89" s="73"/>
+      <c r="AD89" s="73"/>
+      <c r="AE89" s="73"/>
+      <c r="AF89" s="73"/>
+      <c r="AG89" s="73"/>
+      <c r="AH89" s="74"/>
     </row>
     <row r="90" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E90" s="15"/>
@@ -8280,13 +8093,13 @@
       <c r="Y90" s="27"/>
       <c r="Z90" s="27"/>
       <c r="AA90" s="27"/>
-      <c r="AB90" s="65"/>
-      <c r="AC90" s="66"/>
-      <c r="AD90" s="66"/>
-      <c r="AE90" s="66"/>
-      <c r="AF90" s="66"/>
-      <c r="AG90" s="66"/>
-      <c r="AH90" s="67"/>
+      <c r="AB90" s="75"/>
+      <c r="AC90" s="76"/>
+      <c r="AD90" s="76"/>
+      <c r="AE90" s="76"/>
+      <c r="AF90" s="76"/>
+      <c r="AG90" s="76"/>
+      <c r="AH90" s="77"/>
     </row>
     <row r="91" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E91" s="15"/>
@@ -8312,81 +8125,77 @@
       <c r="Y91" s="27"/>
       <c r="Z91" s="27"/>
       <c r="AA91" s="27"/>
-      <c r="AB91" s="65"/>
-      <c r="AC91" s="66"/>
-      <c r="AD91" s="66"/>
-      <c r="AE91" s="66"/>
-      <c r="AF91" s="66"/>
-      <c r="AG91" s="66"/>
-      <c r="AH91" s="67"/>
+      <c r="AB91" s="75"/>
+      <c r="AC91" s="76"/>
+      <c r="AD91" s="76"/>
+      <c r="AE91" s="76"/>
+      <c r="AF91" s="76"/>
+      <c r="AG91" s="76"/>
+      <c r="AH91" s="77"/>
     </row>
     <row r="92" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="15"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="30"/>
-      <c r="L92" s="30"/>
-      <c r="M92" s="30"/>
-      <c r="N92" s="29"/>
-      <c r="O92" s="30"/>
-      <c r="P92" s="31"/>
-      <c r="Q92" s="30"/>
-      <c r="R92" s="30"/>
-      <c r="S92" s="30"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="30"/>
-      <c r="V92" s="30"/>
-      <c r="W92" s="31"/>
-      <c r="X92" s="30"/>
-      <c r="Y92" s="30"/>
-      <c r="Z92" s="30"/>
-      <c r="AA92" s="30"/>
-      <c r="AB92" s="68"/>
-      <c r="AC92" s="69"/>
-      <c r="AD92" s="69"/>
-      <c r="AE92" s="69"/>
-      <c r="AF92" s="69"/>
-      <c r="AG92" s="69"/>
-      <c r="AH92" s="70"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="28"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="27"/>
+      <c r="S92" s="27"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="27"/>
+      <c r="V92" s="27"/>
+      <c r="W92" s="28"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="27"/>
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="75"/>
+      <c r="AC92" s="76"/>
+      <c r="AD92" s="76"/>
+      <c r="AE92" s="76"/>
+      <c r="AF92" s="76"/>
+      <c r="AG92" s="76"/>
+      <c r="AH92" s="77"/>
     </row>
     <row r="93" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E93" s="15"/>
-      <c r="F93" s="23">
-        <v>5</v>
-      </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="23"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="25"/>
-      <c r="Q93" s="24"/>
-      <c r="R93" s="24"/>
-      <c r="S93" s="24"/>
-      <c r="T93" s="23"/>
-      <c r="U93" s="24"/>
-      <c r="V93" s="24"/>
-      <c r="W93" s="25"/>
-      <c r="X93" s="24"/>
-      <c r="Y93" s="24"/>
-      <c r="Z93" s="24"/>
-      <c r="AA93" s="24"/>
-      <c r="AB93" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC93" s="52"/>
-      <c r="AD93" s="52"/>
-      <c r="AE93" s="52"/>
-      <c r="AF93" s="52"/>
-      <c r="AG93" s="52"/>
-      <c r="AH93" s="53"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="28"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="27"/>
+      <c r="V93" s="27"/>
+      <c r="W93" s="28"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="75"/>
+      <c r="AC93" s="76"/>
+      <c r="AD93" s="76"/>
+      <c r="AE93" s="76"/>
+      <c r="AF93" s="76"/>
+      <c r="AG93" s="76"/>
+      <c r="AH93" s="77"/>
     </row>
     <row r="94" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E94" s="15"/>
@@ -8412,13 +8221,13 @@
       <c r="Y94" s="27"/>
       <c r="Z94" s="27"/>
       <c r="AA94" s="27"/>
-      <c r="AB94" s="54"/>
-      <c r="AC94" s="55"/>
-      <c r="AD94" s="55"/>
-      <c r="AE94" s="55"/>
-      <c r="AF94" s="55"/>
-      <c r="AG94" s="55"/>
-      <c r="AH94" s="56"/>
+      <c r="AB94" s="75"/>
+      <c r="AC94" s="76"/>
+      <c r="AD94" s="76"/>
+      <c r="AE94" s="76"/>
+      <c r="AF94" s="76"/>
+      <c r="AG94" s="76"/>
+      <c r="AH94" s="77"/>
     </row>
     <row r="95" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="15"/>
@@ -8444,13 +8253,13 @@
       <c r="Y95" s="27"/>
       <c r="Z95" s="27"/>
       <c r="AA95" s="27"/>
-      <c r="AB95" s="54"/>
-      <c r="AC95" s="55"/>
-      <c r="AD95" s="55"/>
-      <c r="AE95" s="55"/>
-      <c r="AF95" s="55"/>
-      <c r="AG95" s="55"/>
-      <c r="AH95" s="56"/>
+      <c r="AB95" s="75"/>
+      <c r="AC95" s="76"/>
+      <c r="AD95" s="76"/>
+      <c r="AE95" s="76"/>
+      <c r="AF95" s="76"/>
+      <c r="AG95" s="76"/>
+      <c r="AH95" s="77"/>
     </row>
     <row r="96" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E96" s="15"/>
@@ -8476,13 +8285,13 @@
       <c r="Y96" s="27"/>
       <c r="Z96" s="27"/>
       <c r="AA96" s="27"/>
-      <c r="AB96" s="54"/>
-      <c r="AC96" s="55"/>
-      <c r="AD96" s="55"/>
-      <c r="AE96" s="55"/>
-      <c r="AF96" s="55"/>
-      <c r="AG96" s="55"/>
-      <c r="AH96" s="56"/>
+      <c r="AB96" s="75"/>
+      <c r="AC96" s="76"/>
+      <c r="AD96" s="76"/>
+      <c r="AE96" s="76"/>
+      <c r="AF96" s="76"/>
+      <c r="AG96" s="76"/>
+      <c r="AH96" s="77"/>
     </row>
     <row r="97" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E97" s="15"/>
@@ -8508,13 +8317,13 @@
       <c r="Y97" s="27"/>
       <c r="Z97" s="27"/>
       <c r="AA97" s="27"/>
-      <c r="AB97" s="54"/>
-      <c r="AC97" s="55"/>
-      <c r="AD97" s="55"/>
-      <c r="AE97" s="55"/>
-      <c r="AF97" s="55"/>
-      <c r="AG97" s="55"/>
-      <c r="AH97" s="56"/>
+      <c r="AB97" s="75"/>
+      <c r="AC97" s="76"/>
+      <c r="AD97" s="76"/>
+      <c r="AE97" s="76"/>
+      <c r="AF97" s="76"/>
+      <c r="AG97" s="76"/>
+      <c r="AH97" s="77"/>
     </row>
     <row r="98" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E98" s="15"/>
@@ -8540,13 +8349,13 @@
       <c r="Y98" s="27"/>
       <c r="Z98" s="27"/>
       <c r="AA98" s="27"/>
-      <c r="AB98" s="54"/>
-      <c r="AC98" s="55"/>
-      <c r="AD98" s="55"/>
-      <c r="AE98" s="55"/>
-      <c r="AF98" s="55"/>
-      <c r="AG98" s="55"/>
-      <c r="AH98" s="56"/>
+      <c r="AB98" s="75"/>
+      <c r="AC98" s="76"/>
+      <c r="AD98" s="76"/>
+      <c r="AE98" s="76"/>
+      <c r="AF98" s="76"/>
+      <c r="AG98" s="76"/>
+      <c r="AH98" s="77"/>
     </row>
     <row r="99" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E99" s="15"/>
@@ -8572,77 +8381,81 @@
       <c r="Y99" s="27"/>
       <c r="Z99" s="27"/>
       <c r="AA99" s="27"/>
-      <c r="AB99" s="54"/>
-      <c r="AC99" s="55"/>
-      <c r="AD99" s="55"/>
-      <c r="AE99" s="55"/>
-      <c r="AF99" s="55"/>
-      <c r="AG99" s="55"/>
-      <c r="AH99" s="56"/>
+      <c r="AB99" s="75"/>
+      <c r="AC99" s="76"/>
+      <c r="AD99" s="76"/>
+      <c r="AE99" s="76"/>
+      <c r="AF99" s="76"/>
+      <c r="AG99" s="76"/>
+      <c r="AH99" s="77"/>
     </row>
     <row r="100" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E100" s="15"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="27"/>
-      <c r="N100" s="26"/>
-      <c r="O100" s="27"/>
-      <c r="P100" s="28"/>
-      <c r="Q100" s="27"/>
-      <c r="R100" s="27"/>
-      <c r="S100" s="27"/>
-      <c r="T100" s="26"/>
-      <c r="U100" s="27"/>
-      <c r="V100" s="27"/>
-      <c r="W100" s="28"/>
-      <c r="X100" s="27"/>
-      <c r="Y100" s="27"/>
-      <c r="Z100" s="27"/>
-      <c r="AA100" s="27"/>
-      <c r="AB100" s="54"/>
-      <c r="AC100" s="55"/>
-      <c r="AD100" s="55"/>
-      <c r="AE100" s="55"/>
-      <c r="AF100" s="55"/>
-      <c r="AG100" s="55"/>
-      <c r="AH100" s="56"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="30"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="31"/>
+      <c r="Q100" s="30"/>
+      <c r="R100" s="30"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="29"/>
+      <c r="U100" s="30"/>
+      <c r="V100" s="30"/>
+      <c r="W100" s="31"/>
+      <c r="X100" s="30"/>
+      <c r="Y100" s="30"/>
+      <c r="Z100" s="30"/>
+      <c r="AA100" s="30"/>
+      <c r="AB100" s="78"/>
+      <c r="AC100" s="79"/>
+      <c r="AD100" s="79"/>
+      <c r="AE100" s="79"/>
+      <c r="AF100" s="79"/>
+      <c r="AG100" s="79"/>
+      <c r="AH100" s="80"/>
     </row>
     <row r="101" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="15"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
-      <c r="M101" s="27"/>
-      <c r="N101" s="26"/>
-      <c r="O101" s="27"/>
-      <c r="P101" s="28"/>
-      <c r="Q101" s="27"/>
-      <c r="R101" s="27"/>
-      <c r="S101" s="27"/>
-      <c r="T101" s="26"/>
-      <c r="U101" s="27"/>
-      <c r="V101" s="27"/>
-      <c r="W101" s="28"/>
-      <c r="X101" s="27"/>
-      <c r="Y101" s="27"/>
-      <c r="Z101" s="27"/>
-      <c r="AA101" s="27"/>
-      <c r="AB101" s="54"/>
-      <c r="AC101" s="55"/>
-      <c r="AD101" s="55"/>
-      <c r="AE101" s="55"/>
-      <c r="AF101" s="55"/>
-      <c r="AG101" s="55"/>
-      <c r="AH101" s="56"/>
+      <c r="F101" s="23">
+        <v>7</v>
+      </c>
+      <c r="G101" s="23"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="23"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="24"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="24"/>
+      <c r="T101" s="23"/>
+      <c r="U101" s="24"/>
+      <c r="V101" s="24"/>
+      <c r="W101" s="25"/>
+      <c r="X101" s="24"/>
+      <c r="Y101" s="24"/>
+      <c r="Z101" s="24"/>
+      <c r="AA101" s="24"/>
+      <c r="AB101" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC101" s="73"/>
+      <c r="AD101" s="73"/>
+      <c r="AE101" s="73"/>
+      <c r="AF101" s="73"/>
+      <c r="AG101" s="73"/>
+      <c r="AH101" s="74"/>
     </row>
     <row r="102" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E102" s="15"/>
@@ -8668,13 +8481,13 @@
       <c r="Y102" s="27"/>
       <c r="Z102" s="27"/>
       <c r="AA102" s="27"/>
-      <c r="AB102" s="54"/>
-      <c r="AC102" s="55"/>
-      <c r="AD102" s="55"/>
-      <c r="AE102" s="55"/>
-      <c r="AF102" s="55"/>
-      <c r="AG102" s="55"/>
-      <c r="AH102" s="56"/>
+      <c r="AB102" s="75"/>
+      <c r="AC102" s="76"/>
+      <c r="AD102" s="76"/>
+      <c r="AE102" s="76"/>
+      <c r="AF102" s="76"/>
+      <c r="AG102" s="76"/>
+      <c r="AH102" s="77"/>
     </row>
     <row r="103" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E103" s="15"/>
@@ -8700,13 +8513,13 @@
       <c r="Y103" s="27"/>
       <c r="Z103" s="27"/>
       <c r="AA103" s="27"/>
-      <c r="AB103" s="54"/>
-      <c r="AC103" s="55"/>
-      <c r="AD103" s="55"/>
-      <c r="AE103" s="55"/>
-      <c r="AF103" s="55"/>
-      <c r="AG103" s="55"/>
-      <c r="AH103" s="56"/>
+      <c r="AB103" s="75"/>
+      <c r="AC103" s="76"/>
+      <c r="AD103" s="76"/>
+      <c r="AE103" s="76"/>
+      <c r="AF103" s="76"/>
+      <c r="AG103" s="76"/>
+      <c r="AH103" s="77"/>
     </row>
     <row r="104" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="15"/>
@@ -8732,13 +8545,13 @@
       <c r="Y104" s="27"/>
       <c r="Z104" s="27"/>
       <c r="AA104" s="27"/>
-      <c r="AB104" s="54"/>
-      <c r="AC104" s="55"/>
-      <c r="AD104" s="55"/>
-      <c r="AE104" s="55"/>
-      <c r="AF104" s="55"/>
-      <c r="AG104" s="55"/>
-      <c r="AH104" s="56"/>
+      <c r="AB104" s="75"/>
+      <c r="AC104" s="76"/>
+      <c r="AD104" s="76"/>
+      <c r="AE104" s="76"/>
+      <c r="AF104" s="76"/>
+      <c r="AG104" s="76"/>
+      <c r="AH104" s="77"/>
     </row>
     <row r="105" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E105" s="15"/>
@@ -8764,49 +8577,45 @@
       <c r="Y105" s="27"/>
       <c r="Z105" s="27"/>
       <c r="AA105" s="27"/>
-      <c r="AB105" s="54"/>
-      <c r="AC105" s="55"/>
-      <c r="AD105" s="55"/>
-      <c r="AE105" s="55"/>
-      <c r="AF105" s="55"/>
-      <c r="AG105" s="55"/>
-      <c r="AH105" s="56"/>
+      <c r="AB105" s="75"/>
+      <c r="AC105" s="76"/>
+      <c r="AD105" s="76"/>
+      <c r="AE105" s="76"/>
+      <c r="AF105" s="76"/>
+      <c r="AG105" s="76"/>
+      <c r="AH105" s="77"/>
     </row>
     <row r="106" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E106" s="15"/>
-      <c r="F106" s="23">
-        <v>6</v>
-      </c>
-      <c r="G106" s="23"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="25"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="24"/>
-      <c r="N106" s="23"/>
-      <c r="O106" s="24"/>
-      <c r="P106" s="25"/>
-      <c r="Q106" s="24"/>
-      <c r="R106" s="24"/>
-      <c r="S106" s="24"/>
-      <c r="T106" s="23"/>
-      <c r="U106" s="24"/>
-      <c r="V106" s="24"/>
-      <c r="W106" s="25"/>
-      <c r="X106" s="24"/>
-      <c r="Y106" s="24"/>
-      <c r="Z106" s="24"/>
-      <c r="AA106" s="24"/>
-      <c r="AB106" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC106" s="52"/>
-      <c r="AD106" s="52"/>
-      <c r="AE106" s="52"/>
-      <c r="AF106" s="52"/>
-      <c r="AG106" s="52"/>
-      <c r="AH106" s="53"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="28"/>
+      <c r="Q106" s="27"/>
+      <c r="R106" s="27"/>
+      <c r="S106" s="27"/>
+      <c r="T106" s="26"/>
+      <c r="U106" s="27"/>
+      <c r="V106" s="27"/>
+      <c r="W106" s="28"/>
+      <c r="X106" s="27"/>
+      <c r="Y106" s="27"/>
+      <c r="Z106" s="27"/>
+      <c r="AA106" s="27"/>
+      <c r="AB106" s="75"/>
+      <c r="AC106" s="76"/>
+      <c r="AD106" s="76"/>
+      <c r="AE106" s="76"/>
+      <c r="AF106" s="76"/>
+      <c r="AG106" s="76"/>
+      <c r="AH106" s="77"/>
     </row>
     <row r="107" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E107" s="15"/>
@@ -8832,13 +8641,13 @@
       <c r="Y107" s="27"/>
       <c r="Z107" s="27"/>
       <c r="AA107" s="27"/>
-      <c r="AB107" s="54"/>
-      <c r="AC107" s="55"/>
-      <c r="AD107" s="55"/>
-      <c r="AE107" s="55"/>
-      <c r="AF107" s="55"/>
-      <c r="AG107" s="55"/>
-      <c r="AH107" s="56"/>
+      <c r="AB107" s="75"/>
+      <c r="AC107" s="76"/>
+      <c r="AD107" s="76"/>
+      <c r="AE107" s="76"/>
+      <c r="AF107" s="76"/>
+      <c r="AG107" s="76"/>
+      <c r="AH107" s="77"/>
     </row>
     <row r="108" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E108" s="15"/>
@@ -8864,109 +8673,115 @@
       <c r="Y108" s="27"/>
       <c r="Z108" s="27"/>
       <c r="AA108" s="27"/>
-      <c r="AB108" s="54"/>
-      <c r="AC108" s="55"/>
-      <c r="AD108" s="55"/>
-      <c r="AE108" s="55"/>
-      <c r="AF108" s="55"/>
-      <c r="AG108" s="55"/>
-      <c r="AH108" s="56"/>
+      <c r="AB108" s="75"/>
+      <c r="AC108" s="76"/>
+      <c r="AD108" s="76"/>
+      <c r="AE108" s="76"/>
+      <c r="AF108" s="76"/>
+      <c r="AG108" s="76"/>
+      <c r="AH108" s="77"/>
     </row>
     <row r="109" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E109" s="15"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="27"/>
-      <c r="P109" s="28"/>
-      <c r="Q109" s="27"/>
-      <c r="R109" s="27"/>
-      <c r="S109" s="27"/>
-      <c r="T109" s="26"/>
-      <c r="U109" s="27"/>
-      <c r="V109" s="27"/>
-      <c r="W109" s="28"/>
-      <c r="X109" s="27"/>
-      <c r="Y109" s="27"/>
-      <c r="Z109" s="27"/>
-      <c r="AA109" s="27"/>
-      <c r="AB109" s="54"/>
-      <c r="AC109" s="55"/>
-      <c r="AD109" s="55"/>
-      <c r="AE109" s="55"/>
-      <c r="AF109" s="55"/>
-      <c r="AG109" s="55"/>
-      <c r="AH109" s="56"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="31"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="30"/>
+      <c r="M109" s="30"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="30"/>
+      <c r="P109" s="31"/>
+      <c r="Q109" s="30"/>
+      <c r="R109" s="30"/>
+      <c r="S109" s="30"/>
+      <c r="T109" s="29"/>
+      <c r="U109" s="30"/>
+      <c r="V109" s="30"/>
+      <c r="W109" s="31"/>
+      <c r="X109" s="30"/>
+      <c r="Y109" s="30"/>
+      <c r="Z109" s="30"/>
+      <c r="AA109" s="30"/>
+      <c r="AB109" s="78"/>
+      <c r="AC109" s="79"/>
+      <c r="AD109" s="79"/>
+      <c r="AE109" s="79"/>
+      <c r="AF109" s="79"/>
+      <c r="AG109" s="79"/>
+      <c r="AH109" s="80"/>
     </row>
     <row r="110" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E110" s="15"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="28"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="27"/>
-      <c r="M110" s="27"/>
-      <c r="N110" s="26"/>
-      <c r="O110" s="27"/>
-      <c r="P110" s="28"/>
-      <c r="Q110" s="27"/>
-      <c r="R110" s="27"/>
-      <c r="S110" s="27"/>
-      <c r="T110" s="26"/>
-      <c r="U110" s="27"/>
-      <c r="V110" s="27"/>
-      <c r="W110" s="28"/>
-      <c r="X110" s="27"/>
-      <c r="Y110" s="27"/>
-      <c r="Z110" s="27"/>
-      <c r="AA110" s="27"/>
-      <c r="AB110" s="54"/>
-      <c r="AC110" s="55"/>
-      <c r="AD110" s="55"/>
-      <c r="AE110" s="55"/>
-      <c r="AF110" s="55"/>
-      <c r="AG110" s="55"/>
-      <c r="AH110" s="56"/>
+      <c r="F110" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="G110" s="90"/>
+      <c r="H110" s="90"/>
+      <c r="I110" s="90"/>
+      <c r="J110" s="90"/>
+      <c r="K110" s="90"/>
+      <c r="L110" s="90"/>
+      <c r="M110" s="90"/>
+      <c r="N110" s="90"/>
+      <c r="O110" s="90"/>
+      <c r="P110" s="90"/>
+      <c r="Q110" s="90"/>
+      <c r="R110" s="90"/>
+      <c r="S110" s="90"/>
+      <c r="T110" s="90"/>
+      <c r="U110" s="90"/>
+      <c r="V110" s="90"/>
+      <c r="W110" s="90"/>
+      <c r="X110" s="90"/>
+      <c r="Y110" s="90"/>
+      <c r="Z110" s="90"/>
+      <c r="AA110" s="90"/>
+      <c r="AB110" s="90"/>
+      <c r="AC110" s="90"/>
+      <c r="AD110" s="90"/>
+      <c r="AE110" s="90"/>
+      <c r="AF110" s="90"/>
+      <c r="AG110" s="90"/>
+      <c r="AH110" s="91"/>
     </row>
     <row r="111" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E111" s="15"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="27"/>
-      <c r="M111" s="27"/>
-      <c r="N111" s="26"/>
-      <c r="O111" s="27"/>
-      <c r="P111" s="28"/>
-      <c r="Q111" s="27"/>
-      <c r="R111" s="27"/>
-      <c r="S111" s="27"/>
-      <c r="T111" s="26"/>
-      <c r="U111" s="27"/>
-      <c r="V111" s="27"/>
-      <c r="W111" s="28"/>
-      <c r="X111" s="27"/>
-      <c r="Y111" s="27"/>
-      <c r="Z111" s="27"/>
-      <c r="AA111" s="27"/>
-      <c r="AB111" s="54"/>
-      <c r="AC111" s="55"/>
-      <c r="AD111" s="55"/>
-      <c r="AE111" s="55"/>
-      <c r="AF111" s="55"/>
-      <c r="AG111" s="55"/>
-      <c r="AH111" s="56"/>
+      <c r="F111" s="23">
+        <v>8</v>
+      </c>
+      <c r="G111" s="23"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="23"/>
+      <c r="O111" s="24"/>
+      <c r="P111" s="25"/>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="24"/>
+      <c r="T111" s="23"/>
+      <c r="U111" s="24"/>
+      <c r="V111" s="24"/>
+      <c r="W111" s="25"/>
+      <c r="X111" s="24"/>
+      <c r="Y111" s="24"/>
+      <c r="Z111" s="24"/>
+      <c r="AA111" s="25"/>
+      <c r="AB111" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC111" s="73"/>
+      <c r="AD111" s="73"/>
+      <c r="AE111" s="73"/>
+      <c r="AF111" s="73"/>
+      <c r="AG111" s="73"/>
+      <c r="AH111" s="74"/>
     </row>
     <row r="112" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E112" s="15"/>
@@ -8991,14 +8806,14 @@
       <c r="X112" s="27"/>
       <c r="Y112" s="27"/>
       <c r="Z112" s="27"/>
-      <c r="AA112" s="27"/>
-      <c r="AB112" s="54"/>
-      <c r="AC112" s="55"/>
-      <c r="AD112" s="55"/>
-      <c r="AE112" s="55"/>
-      <c r="AF112" s="55"/>
-      <c r="AG112" s="55"/>
-      <c r="AH112" s="56"/>
+      <c r="AA112" s="28"/>
+      <c r="AB112" s="75"/>
+      <c r="AC112" s="76"/>
+      <c r="AD112" s="76"/>
+      <c r="AE112" s="76"/>
+      <c r="AF112" s="76"/>
+      <c r="AG112" s="76"/>
+      <c r="AH112" s="77"/>
     </row>
     <row r="113" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E113" s="15"/>
@@ -9023,14 +8838,14 @@
       <c r="X113" s="27"/>
       <c r="Y113" s="27"/>
       <c r="Z113" s="27"/>
-      <c r="AA113" s="27"/>
-      <c r="AB113" s="54"/>
-      <c r="AC113" s="55"/>
-      <c r="AD113" s="55"/>
-      <c r="AE113" s="55"/>
-      <c r="AF113" s="55"/>
-      <c r="AG113" s="55"/>
-      <c r="AH113" s="56"/>
+      <c r="AA113" s="28"/>
+      <c r="AB113" s="75"/>
+      <c r="AC113" s="76"/>
+      <c r="AD113" s="76"/>
+      <c r="AE113" s="76"/>
+      <c r="AF113" s="76"/>
+      <c r="AG113" s="76"/>
+      <c r="AH113" s="77"/>
     </row>
     <row r="114" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E114" s="15"/>
@@ -9056,13 +8871,13 @@
       <c r="Y114" s="27"/>
       <c r="Z114" s="27"/>
       <c r="AA114" s="27"/>
-      <c r="AB114" s="54"/>
-      <c r="AC114" s="55"/>
-      <c r="AD114" s="55"/>
-      <c r="AE114" s="55"/>
-      <c r="AF114" s="55"/>
-      <c r="AG114" s="55"/>
-      <c r="AH114" s="56"/>
+      <c r="AB114" s="75"/>
+      <c r="AC114" s="76"/>
+      <c r="AD114" s="76"/>
+      <c r="AE114" s="76"/>
+      <c r="AF114" s="76"/>
+      <c r="AG114" s="76"/>
+      <c r="AH114" s="77"/>
     </row>
     <row r="115" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E115" s="15"/>
@@ -9088,13 +8903,13 @@
       <c r="Y115" s="27"/>
       <c r="Z115" s="27"/>
       <c r="AA115" s="27"/>
-      <c r="AB115" s="54"/>
-      <c r="AC115" s="55"/>
-      <c r="AD115" s="55"/>
-      <c r="AE115" s="55"/>
-      <c r="AF115" s="55"/>
-      <c r="AG115" s="55"/>
-      <c r="AH115" s="56"/>
+      <c r="AB115" s="75"/>
+      <c r="AC115" s="76"/>
+      <c r="AD115" s="76"/>
+      <c r="AE115" s="76"/>
+      <c r="AF115" s="76"/>
+      <c r="AG115" s="76"/>
+      <c r="AH115" s="77"/>
     </row>
     <row r="116" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E116" s="15"/>
@@ -9120,81 +8935,77 @@
       <c r="Y116" s="27"/>
       <c r="Z116" s="27"/>
       <c r="AA116" s="27"/>
-      <c r="AB116" s="54"/>
-      <c r="AC116" s="55"/>
-      <c r="AD116" s="55"/>
-      <c r="AE116" s="55"/>
-      <c r="AF116" s="55"/>
-      <c r="AG116" s="55"/>
-      <c r="AH116" s="56"/>
+      <c r="AB116" s="75"/>
+      <c r="AC116" s="76"/>
+      <c r="AD116" s="76"/>
+      <c r="AE116" s="76"/>
+      <c r="AF116" s="76"/>
+      <c r="AG116" s="76"/>
+      <c r="AH116" s="77"/>
     </row>
     <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E117" s="15"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="30"/>
-      <c r="I117" s="30"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="30"/>
-      <c r="L117" s="30"/>
-      <c r="M117" s="30"/>
-      <c r="N117" s="29"/>
-      <c r="O117" s="30"/>
-      <c r="P117" s="31"/>
-      <c r="Q117" s="30"/>
-      <c r="R117" s="30"/>
-      <c r="S117" s="30"/>
-      <c r="T117" s="29"/>
-      <c r="U117" s="30"/>
-      <c r="V117" s="30"/>
-      <c r="W117" s="31"/>
-      <c r="X117" s="30"/>
-      <c r="Y117" s="30"/>
-      <c r="Z117" s="30"/>
-      <c r="AA117" s="30"/>
-      <c r="AB117" s="57"/>
-      <c r="AC117" s="58"/>
-      <c r="AD117" s="58"/>
-      <c r="AE117" s="58"/>
-      <c r="AF117" s="58"/>
-      <c r="AG117" s="58"/>
-      <c r="AH117" s="59"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="26"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="28"/>
+      <c r="Q117" s="27"/>
+      <c r="R117" s="27"/>
+      <c r="S117" s="27"/>
+      <c r="T117" s="26"/>
+      <c r="U117" s="27"/>
+      <c r="V117" s="27"/>
+      <c r="W117" s="28"/>
+      <c r="X117" s="27"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="27"/>
+      <c r="AA117" s="27"/>
+      <c r="AB117" s="75"/>
+      <c r="AC117" s="76"/>
+      <c r="AD117" s="76"/>
+      <c r="AE117" s="76"/>
+      <c r="AF117" s="76"/>
+      <c r="AG117" s="76"/>
+      <c r="AH117" s="77"/>
     </row>
     <row r="118" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E118" s="15"/>
-      <c r="F118" s="23">
-        <v>7</v>
-      </c>
-      <c r="G118" s="23"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="24"/>
-      <c r="L118" s="24"/>
-      <c r="M118" s="24"/>
-      <c r="N118" s="23"/>
-      <c r="O118" s="24"/>
-      <c r="P118" s="25"/>
-      <c r="Q118" s="24"/>
-      <c r="R118" s="24"/>
-      <c r="S118" s="24"/>
-      <c r="T118" s="23"/>
-      <c r="U118" s="24"/>
-      <c r="V118" s="24"/>
-      <c r="W118" s="25"/>
-      <c r="X118" s="24"/>
-      <c r="Y118" s="24"/>
-      <c r="Z118" s="24"/>
-      <c r="AA118" s="24"/>
-      <c r="AB118" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC118" s="52"/>
-      <c r="AD118" s="52"/>
-      <c r="AE118" s="52"/>
-      <c r="AF118" s="52"/>
-      <c r="AG118" s="52"/>
-      <c r="AH118" s="53"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="27"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="27"/>
+      <c r="P118" s="28"/>
+      <c r="Q118" s="27"/>
+      <c r="R118" s="27"/>
+      <c r="S118" s="27"/>
+      <c r="T118" s="26"/>
+      <c r="U118" s="27"/>
+      <c r="V118" s="27"/>
+      <c r="W118" s="28"/>
+      <c r="X118" s="27"/>
+      <c r="Y118" s="27"/>
+      <c r="Z118" s="27"/>
+      <c r="AA118" s="27"/>
+      <c r="AB118" s="75"/>
+      <c r="AC118" s="76"/>
+      <c r="AD118" s="76"/>
+      <c r="AE118" s="76"/>
+      <c r="AF118" s="76"/>
+      <c r="AG118" s="76"/>
+      <c r="AH118" s="77"/>
     </row>
     <row r="119" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E119" s="15"/>
@@ -9220,13 +9031,13 @@
       <c r="Y119" s="27"/>
       <c r="Z119" s="27"/>
       <c r="AA119" s="27"/>
-      <c r="AB119" s="54"/>
-      <c r="AC119" s="55"/>
-      <c r="AD119" s="55"/>
-      <c r="AE119" s="55"/>
-      <c r="AF119" s="55"/>
-      <c r="AG119" s="55"/>
-      <c r="AH119" s="56"/>
+      <c r="AB119" s="75"/>
+      <c r="AC119" s="76"/>
+      <c r="AD119" s="76"/>
+      <c r="AE119" s="76"/>
+      <c r="AF119" s="76"/>
+      <c r="AG119" s="76"/>
+      <c r="AH119" s="77"/>
     </row>
     <row r="120" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E120" s="15"/>
@@ -9252,77 +9063,81 @@
       <c r="Y120" s="27"/>
       <c r="Z120" s="27"/>
       <c r="AA120" s="27"/>
-      <c r="AB120" s="54"/>
-      <c r="AC120" s="55"/>
-      <c r="AD120" s="55"/>
-      <c r="AE120" s="55"/>
-      <c r="AF120" s="55"/>
-      <c r="AG120" s="55"/>
-      <c r="AH120" s="56"/>
+      <c r="AB120" s="75"/>
+      <c r="AC120" s="76"/>
+      <c r="AD120" s="76"/>
+      <c r="AE120" s="76"/>
+      <c r="AF120" s="76"/>
+      <c r="AG120" s="76"/>
+      <c r="AH120" s="77"/>
     </row>
     <row r="121" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="15"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="27"/>
-      <c r="M121" s="27"/>
-      <c r="N121" s="26"/>
-      <c r="O121" s="27"/>
-      <c r="P121" s="28"/>
-      <c r="Q121" s="27"/>
-      <c r="R121" s="27"/>
-      <c r="S121" s="27"/>
-      <c r="T121" s="26"/>
-      <c r="U121" s="27"/>
-      <c r="V121" s="27"/>
-      <c r="W121" s="28"/>
-      <c r="X121" s="27"/>
-      <c r="Y121" s="27"/>
-      <c r="Z121" s="27"/>
-      <c r="AA121" s="27"/>
-      <c r="AB121" s="54"/>
-      <c r="AC121" s="55"/>
-      <c r="AD121" s="55"/>
-      <c r="AE121" s="55"/>
-      <c r="AF121" s="55"/>
-      <c r="AG121" s="55"/>
-      <c r="AH121" s="56"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="31"/>
+      <c r="K121" s="30"/>
+      <c r="L121" s="30"/>
+      <c r="M121" s="30"/>
+      <c r="N121" s="29"/>
+      <c r="O121" s="30"/>
+      <c r="P121" s="31"/>
+      <c r="Q121" s="30"/>
+      <c r="R121" s="30"/>
+      <c r="S121" s="30"/>
+      <c r="T121" s="29"/>
+      <c r="U121" s="30"/>
+      <c r="V121" s="30"/>
+      <c r="W121" s="31"/>
+      <c r="X121" s="30"/>
+      <c r="Y121" s="30"/>
+      <c r="Z121" s="30"/>
+      <c r="AA121" s="30"/>
+      <c r="AB121" s="78"/>
+      <c r="AC121" s="79"/>
+      <c r="AD121" s="79"/>
+      <c r="AE121" s="79"/>
+      <c r="AF121" s="79"/>
+      <c r="AG121" s="79"/>
+      <c r="AH121" s="80"/>
     </row>
     <row r="122" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="15"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="26"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="28"/>
-      <c r="K122" s="27"/>
-      <c r="L122" s="27"/>
-      <c r="M122" s="27"/>
-      <c r="N122" s="26"/>
-      <c r="O122" s="27"/>
-      <c r="P122" s="28"/>
-      <c r="Q122" s="27"/>
-      <c r="R122" s="27"/>
-      <c r="S122" s="27"/>
-      <c r="T122" s="26"/>
-      <c r="U122" s="27"/>
-      <c r="V122" s="27"/>
-      <c r="W122" s="28"/>
-      <c r="X122" s="27"/>
-      <c r="Y122" s="27"/>
-      <c r="Z122" s="27"/>
-      <c r="AA122" s="27"/>
-      <c r="AB122" s="54"/>
-      <c r="AC122" s="55"/>
-      <c r="AD122" s="55"/>
-      <c r="AE122" s="55"/>
-      <c r="AF122" s="55"/>
-      <c r="AG122" s="55"/>
-      <c r="AH122" s="56"/>
+      <c r="F122" s="23">
+        <v>9</v>
+      </c>
+      <c r="G122" s="23"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="23"/>
+      <c r="O122" s="24"/>
+      <c r="P122" s="25"/>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="24"/>
+      <c r="S122" s="24"/>
+      <c r="T122" s="23"/>
+      <c r="U122" s="24"/>
+      <c r="V122" s="24"/>
+      <c r="W122" s="25"/>
+      <c r="X122" s="24"/>
+      <c r="Y122" s="24"/>
+      <c r="Z122" s="24"/>
+      <c r="AA122" s="25"/>
+      <c r="AB122" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC122" s="73"/>
+      <c r="AD122" s="73"/>
+      <c r="AE122" s="73"/>
+      <c r="AF122" s="73"/>
+      <c r="AG122" s="73"/>
+      <c r="AH122" s="74"/>
     </row>
     <row r="123" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E123" s="15"/>
@@ -9347,14 +9162,14 @@
       <c r="X123" s="27"/>
       <c r="Y123" s="27"/>
       <c r="Z123" s="27"/>
-      <c r="AA123" s="27"/>
-      <c r="AB123" s="54"/>
-      <c r="AC123" s="55"/>
-      <c r="AD123" s="55"/>
-      <c r="AE123" s="55"/>
-      <c r="AF123" s="55"/>
-      <c r="AG123" s="55"/>
-      <c r="AH123" s="56"/>
+      <c r="AA123" s="28"/>
+      <c r="AB123" s="75"/>
+      <c r="AC123" s="76"/>
+      <c r="AD123" s="76"/>
+      <c r="AE123" s="76"/>
+      <c r="AF123" s="76"/>
+      <c r="AG123" s="76"/>
+      <c r="AH123" s="77"/>
     </row>
     <row r="124" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E124" s="15"/>
@@ -9380,13 +9195,13 @@
       <c r="Y124" s="27"/>
       <c r="Z124" s="27"/>
       <c r="AA124" s="27"/>
-      <c r="AB124" s="54"/>
-      <c r="AC124" s="55"/>
-      <c r="AD124" s="55"/>
-      <c r="AE124" s="55"/>
-      <c r="AF124" s="55"/>
-      <c r="AG124" s="55"/>
-      <c r="AH124" s="56"/>
+      <c r="AB124" s="75"/>
+      <c r="AC124" s="76"/>
+      <c r="AD124" s="76"/>
+      <c r="AE124" s="76"/>
+      <c r="AF124" s="76"/>
+      <c r="AG124" s="76"/>
+      <c r="AH124" s="77"/>
     </row>
     <row r="125" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E125" s="15"/>
@@ -9412,117 +9227,111 @@
       <c r="Y125" s="27"/>
       <c r="Z125" s="27"/>
       <c r="AA125" s="27"/>
-      <c r="AB125" s="54"/>
-      <c r="AC125" s="55"/>
-      <c r="AD125" s="55"/>
-      <c r="AE125" s="55"/>
-      <c r="AF125" s="55"/>
-      <c r="AG125" s="55"/>
-      <c r="AH125" s="56"/>
+      <c r="AB125" s="75"/>
+      <c r="AC125" s="76"/>
+      <c r="AD125" s="76"/>
+      <c r="AE125" s="76"/>
+      <c r="AF125" s="76"/>
+      <c r="AG125" s="76"/>
+      <c r="AH125" s="77"/>
     </row>
     <row r="126" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E126" s="15"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="30"/>
-      <c r="I126" s="30"/>
-      <c r="J126" s="31"/>
-      <c r="K126" s="30"/>
-      <c r="L126" s="30"/>
-      <c r="M126" s="30"/>
-      <c r="N126" s="29"/>
-      <c r="O126" s="30"/>
-      <c r="P126" s="31"/>
-      <c r="Q126" s="30"/>
-      <c r="R126" s="30"/>
-      <c r="S126" s="30"/>
-      <c r="T126" s="29"/>
-      <c r="U126" s="30"/>
-      <c r="V126" s="30"/>
-      <c r="W126" s="31"/>
-      <c r="X126" s="30"/>
-      <c r="Y126" s="30"/>
-      <c r="Z126" s="30"/>
-      <c r="AA126" s="30"/>
-      <c r="AB126" s="57"/>
-      <c r="AC126" s="58"/>
-      <c r="AD126" s="58"/>
-      <c r="AE126" s="58"/>
-      <c r="AF126" s="58"/>
-      <c r="AG126" s="58"/>
-      <c r="AH126" s="59"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="27"/>
+      <c r="N126" s="26"/>
+      <c r="O126" s="27"/>
+      <c r="P126" s="28"/>
+      <c r="Q126" s="27"/>
+      <c r="R126" s="27"/>
+      <c r="S126" s="27"/>
+      <c r="T126" s="26"/>
+      <c r="U126" s="27"/>
+      <c r="V126" s="27"/>
+      <c r="W126" s="28"/>
+      <c r="X126" s="27"/>
+      <c r="Y126" s="27"/>
+      <c r="Z126" s="27"/>
+      <c r="AA126" s="27"/>
+      <c r="AB126" s="75"/>
+      <c r="AC126" s="76"/>
+      <c r="AD126" s="76"/>
+      <c r="AE126" s="76"/>
+      <c r="AF126" s="76"/>
+      <c r="AG126" s="76"/>
+      <c r="AH126" s="77"/>
     </row>
     <row r="127" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E127" s="15"/>
-      <c r="F127" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="G127" s="72"/>
-      <c r="H127" s="72"/>
-      <c r="I127" s="72"/>
-      <c r="J127" s="72"/>
-      <c r="K127" s="72"/>
-      <c r="L127" s="72"/>
-      <c r="M127" s="72"/>
-      <c r="N127" s="72"/>
-      <c r="O127" s="72"/>
-      <c r="P127" s="72"/>
-      <c r="Q127" s="72"/>
-      <c r="R127" s="72"/>
-      <c r="S127" s="72"/>
-      <c r="T127" s="72"/>
-      <c r="U127" s="72"/>
-      <c r="V127" s="72"/>
-      <c r="W127" s="72"/>
-      <c r="X127" s="72"/>
-      <c r="Y127" s="72"/>
-      <c r="Z127" s="72"/>
-      <c r="AA127" s="72"/>
-      <c r="AB127" s="72"/>
-      <c r="AC127" s="72"/>
-      <c r="AD127" s="72"/>
-      <c r="AE127" s="72"/>
-      <c r="AF127" s="72"/>
-      <c r="AG127" s="72"/>
-      <c r="AH127" s="73"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="27"/>
+      <c r="N127" s="26"/>
+      <c r="O127" s="27"/>
+      <c r="P127" s="28"/>
+      <c r="Q127" s="27"/>
+      <c r="R127" s="27"/>
+      <c r="S127" s="27"/>
+      <c r="T127" s="26"/>
+      <c r="U127" s="27"/>
+      <c r="V127" s="27"/>
+      <c r="W127" s="28"/>
+      <c r="X127" s="27"/>
+      <c r="Y127" s="27"/>
+      <c r="Z127" s="27"/>
+      <c r="AA127" s="27"/>
+      <c r="AB127" s="75"/>
+      <c r="AC127" s="76"/>
+      <c r="AD127" s="76"/>
+      <c r="AE127" s="76"/>
+      <c r="AF127" s="76"/>
+      <c r="AG127" s="76"/>
+      <c r="AH127" s="77"/>
     </row>
     <row r="128" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E128" s="15"/>
-      <c r="F128" s="23">
-        <v>8</v>
-      </c>
-      <c r="G128" s="23"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="25"/>
-      <c r="K128" s="24"/>
-      <c r="L128" s="24"/>
-      <c r="M128" s="24"/>
-      <c r="N128" s="23"/>
-      <c r="O128" s="24"/>
-      <c r="P128" s="25"/>
-      <c r="Q128" s="24"/>
-      <c r="R128" s="24"/>
-      <c r="S128" s="24"/>
-      <c r="T128" s="23"/>
-      <c r="U128" s="24"/>
-      <c r="V128" s="24"/>
-      <c r="W128" s="25"/>
-      <c r="X128" s="24"/>
-      <c r="Y128" s="24"/>
-      <c r="Z128" s="24"/>
-      <c r="AA128" s="25"/>
-      <c r="AB128" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC128" s="52"/>
-      <c r="AD128" s="52"/>
-      <c r="AE128" s="52"/>
-      <c r="AF128" s="52"/>
-      <c r="AG128" s="52"/>
-      <c r="AH128" s="53"/>
-    </row>
-    <row r="129" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="28"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="26"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="28"/>
+      <c r="Q128" s="27"/>
+      <c r="R128" s="27"/>
+      <c r="S128" s="27"/>
+      <c r="T128" s="26"/>
+      <c r="U128" s="27"/>
+      <c r="V128" s="27"/>
+      <c r="W128" s="28"/>
+      <c r="X128" s="27"/>
+      <c r="Y128" s="27"/>
+      <c r="Z128" s="27"/>
+      <c r="AA128" s="27"/>
+      <c r="AB128" s="75"/>
+      <c r="AC128" s="76"/>
+      <c r="AD128" s="76"/>
+      <c r="AE128" s="76"/>
+      <c r="AF128" s="76"/>
+      <c r="AG128" s="76"/>
+      <c r="AH128" s="77"/>
+    </row>
+    <row r="129" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E129" s="15"/>
       <c r="F129" s="26"/>
       <c r="G129" s="26"/>
@@ -9545,782 +9354,251 @@
       <c r="X129" s="27"/>
       <c r="Y129" s="27"/>
       <c r="Z129" s="27"/>
-      <c r="AA129" s="28"/>
-      <c r="AB129" s="54"/>
-      <c r="AC129" s="55"/>
-      <c r="AD129" s="55"/>
-      <c r="AE129" s="55"/>
-      <c r="AF129" s="55"/>
-      <c r="AG129" s="55"/>
-      <c r="AH129" s="56"/>
-    </row>
-    <row r="130" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA129" s="27"/>
+      <c r="AB129" s="75"/>
+      <c r="AC129" s="76"/>
+      <c r="AD129" s="76"/>
+      <c r="AE129" s="76"/>
+      <c r="AF129" s="76"/>
+      <c r="AG129" s="76"/>
+      <c r="AH129" s="77"/>
+    </row>
+    <row r="130" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E130" s="15"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="26"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="28"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="26"/>
-      <c r="O130" s="27"/>
-      <c r="P130" s="28"/>
-      <c r="Q130" s="27"/>
-      <c r="R130" s="27"/>
-      <c r="S130" s="27"/>
-      <c r="T130" s="26"/>
-      <c r="U130" s="27"/>
-      <c r="V130" s="27"/>
-      <c r="W130" s="28"/>
-      <c r="X130" s="27"/>
-      <c r="Y130" s="27"/>
-      <c r="Z130" s="27"/>
-      <c r="AA130" s="28"/>
-      <c r="AB130" s="54"/>
-      <c r="AC130" s="55"/>
-      <c r="AD130" s="55"/>
-      <c r="AE130" s="55"/>
-      <c r="AF130" s="55"/>
-      <c r="AG130" s="55"/>
-      <c r="AH130" s="56"/>
-    </row>
-    <row r="131" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="31"/>
+      <c r="K130" s="30"/>
+      <c r="L130" s="30"/>
+      <c r="M130" s="30"/>
+      <c r="N130" s="29"/>
+      <c r="O130" s="30"/>
+      <c r="P130" s="31"/>
+      <c r="Q130" s="30"/>
+      <c r="R130" s="30"/>
+      <c r="S130" s="30"/>
+      <c r="T130" s="29"/>
+      <c r="U130" s="30"/>
+      <c r="V130" s="30"/>
+      <c r="W130" s="31"/>
+      <c r="X130" s="30"/>
+      <c r="Y130" s="30"/>
+      <c r="Z130" s="30"/>
+      <c r="AA130" s="30"/>
+      <c r="AB130" s="78"/>
+      <c r="AC130" s="79"/>
+      <c r="AD130" s="79"/>
+      <c r="AE130" s="79"/>
+      <c r="AF130" s="79"/>
+      <c r="AG130" s="79"/>
+      <c r="AH130" s="80"/>
+    </row>
+    <row r="131" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E131" s="15"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="28"/>
-      <c r="K131" s="27"/>
-      <c r="L131" s="27"/>
-      <c r="M131" s="27"/>
-      <c r="N131" s="26"/>
-      <c r="O131" s="27"/>
-      <c r="P131" s="28"/>
-      <c r="Q131" s="27"/>
-      <c r="R131" s="27"/>
-      <c r="S131" s="27"/>
-      <c r="T131" s="26"/>
-      <c r="U131" s="27"/>
-      <c r="V131" s="27"/>
-      <c r="W131" s="28"/>
-      <c r="X131" s="27"/>
-      <c r="Y131" s="27"/>
-      <c r="Z131" s="27"/>
-      <c r="AA131" s="27"/>
-      <c r="AB131" s="54"/>
-      <c r="AC131" s="55"/>
-      <c r="AD131" s="55"/>
-      <c r="AE131" s="55"/>
-      <c r="AF131" s="55"/>
-      <c r="AG131" s="55"/>
-      <c r="AH131" s="56"/>
-    </row>
-    <row r="132" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E132" s="15"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="28"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="26"/>
-      <c r="O132" s="27"/>
-      <c r="P132" s="28"/>
-      <c r="Q132" s="27"/>
-      <c r="R132" s="27"/>
-      <c r="S132" s="27"/>
-      <c r="T132" s="26"/>
-      <c r="U132" s="27"/>
-      <c r="V132" s="27"/>
-      <c r="W132" s="28"/>
-      <c r="X132" s="27"/>
-      <c r="Y132" s="27"/>
-      <c r="Z132" s="27"/>
-      <c r="AA132" s="27"/>
-      <c r="AB132" s="54"/>
-      <c r="AC132" s="55"/>
-      <c r="AD132" s="55"/>
-      <c r="AE132" s="55"/>
-      <c r="AF132" s="55"/>
-      <c r="AG132" s="55"/>
-      <c r="AH132" s="56"/>
-    </row>
-    <row r="133" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F132" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E133" s="15"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="27"/>
-      <c r="L133" s="27"/>
-      <c r="M133" s="27"/>
-      <c r="N133" s="26"/>
-      <c r="O133" s="27"/>
-      <c r="P133" s="28"/>
-      <c r="Q133" s="27"/>
-      <c r="R133" s="27"/>
-      <c r="S133" s="27"/>
-      <c r="T133" s="26"/>
-      <c r="U133" s="27"/>
-      <c r="V133" s="27"/>
-      <c r="W133" s="28"/>
-      <c r="X133" s="27"/>
-      <c r="Y133" s="27"/>
-      <c r="Z133" s="27"/>
-      <c r="AA133" s="27"/>
-      <c r="AB133" s="54"/>
-      <c r="AC133" s="55"/>
-      <c r="AD133" s="55"/>
-      <c r="AE133" s="55"/>
-      <c r="AF133" s="55"/>
-      <c r="AG133" s="55"/>
-      <c r="AH133" s="56"/>
-    </row>
-    <row r="134" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H133" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E134" s="15"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="28"/>
-      <c r="K134" s="27"/>
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="26"/>
-      <c r="O134" s="27"/>
-      <c r="P134" s="28"/>
-      <c r="Q134" s="27"/>
-      <c r="R134" s="27"/>
-      <c r="S134" s="27"/>
-      <c r="T134" s="26"/>
-      <c r="U134" s="27"/>
-      <c r="V134" s="27"/>
-      <c r="W134" s="28"/>
-      <c r="X134" s="27"/>
-      <c r="Y134" s="27"/>
-      <c r="Z134" s="27"/>
-      <c r="AA134" s="27"/>
-      <c r="AB134" s="54"/>
-      <c r="AC134" s="55"/>
-      <c r="AD134" s="55"/>
-      <c r="AE134" s="55"/>
-      <c r="AF134" s="55"/>
-      <c r="AG134" s="55"/>
-      <c r="AH134" s="56"/>
-    </row>
-    <row r="135" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E135" s="15"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="28"/>
-      <c r="K135" s="27"/>
-      <c r="L135" s="27"/>
-      <c r="M135" s="27"/>
-      <c r="N135" s="26"/>
-      <c r="O135" s="27"/>
-      <c r="P135" s="28"/>
-      <c r="Q135" s="27"/>
-      <c r="R135" s="27"/>
-      <c r="S135" s="27"/>
-      <c r="T135" s="26"/>
-      <c r="U135" s="27"/>
-      <c r="V135" s="27"/>
-      <c r="W135" s="28"/>
-      <c r="X135" s="27"/>
-      <c r="Y135" s="27"/>
-      <c r="Z135" s="27"/>
-      <c r="AA135" s="27"/>
-      <c r="AB135" s="54"/>
-      <c r="AC135" s="55"/>
-      <c r="AD135" s="55"/>
-      <c r="AE135" s="55"/>
-      <c r="AF135" s="55"/>
-      <c r="AG135" s="55"/>
-      <c r="AH135" s="56"/>
-    </row>
-    <row r="136" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E136" s="15"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="28"/>
-      <c r="K136" s="27"/>
-      <c r="L136" s="27"/>
-      <c r="M136" s="27"/>
-      <c r="N136" s="26"/>
-      <c r="O136" s="27"/>
-      <c r="P136" s="28"/>
-      <c r="Q136" s="27"/>
-      <c r="R136" s="27"/>
-      <c r="S136" s="27"/>
-      <c r="T136" s="26"/>
-      <c r="U136" s="27"/>
-      <c r="V136" s="27"/>
-      <c r="W136" s="28"/>
-      <c r="X136" s="27"/>
-      <c r="Y136" s="27"/>
-      <c r="Z136" s="27"/>
-      <c r="AA136" s="27"/>
-      <c r="AB136" s="54"/>
-      <c r="AC136" s="55"/>
-      <c r="AD136" s="55"/>
-      <c r="AE136" s="55"/>
-      <c r="AF136" s="55"/>
-      <c r="AG136" s="55"/>
-      <c r="AH136" s="56"/>
-    </row>
-    <row r="137" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E137" s="15"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="28"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="27"/>
-      <c r="M137" s="27"/>
-      <c r="N137" s="26"/>
-      <c r="O137" s="27"/>
-      <c r="P137" s="28"/>
-      <c r="Q137" s="27"/>
-      <c r="R137" s="27"/>
-      <c r="S137" s="27"/>
-      <c r="T137" s="26"/>
-      <c r="U137" s="27"/>
-      <c r="V137" s="27"/>
-      <c r="W137" s="28"/>
-      <c r="X137" s="27"/>
-      <c r="Y137" s="27"/>
-      <c r="Z137" s="27"/>
-      <c r="AA137" s="27"/>
-      <c r="AB137" s="54"/>
-      <c r="AC137" s="55"/>
-      <c r="AD137" s="55"/>
-      <c r="AE137" s="55"/>
-      <c r="AF137" s="55"/>
-      <c r="AG137" s="55"/>
-      <c r="AH137" s="56"/>
-    </row>
-    <row r="138" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E138" s="15"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="30"/>
-      <c r="I138" s="30"/>
-      <c r="J138" s="31"/>
-      <c r="K138" s="30"/>
-      <c r="L138" s="30"/>
-      <c r="M138" s="30"/>
-      <c r="N138" s="29"/>
-      <c r="O138" s="30"/>
-      <c r="P138" s="31"/>
-      <c r="Q138" s="30"/>
-      <c r="R138" s="30"/>
-      <c r="S138" s="30"/>
-      <c r="T138" s="29"/>
-      <c r="U138" s="30"/>
-      <c r="V138" s="30"/>
-      <c r="W138" s="31"/>
-      <c r="X138" s="30"/>
-      <c r="Y138" s="30"/>
-      <c r="Z138" s="30"/>
-      <c r="AA138" s="30"/>
-      <c r="AB138" s="57"/>
-      <c r="AC138" s="58"/>
-      <c r="AD138" s="58"/>
-      <c r="AE138" s="58"/>
-      <c r="AF138" s="58"/>
-      <c r="AG138" s="58"/>
-      <c r="AH138" s="59"/>
-    </row>
-    <row r="139" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E139" s="15"/>
-      <c r="F139" s="23">
-        <v>9</v>
+      <c r="H134" s="4" t="s">
+        <v>51</v>
       </c>
-      <c r="G139" s="23"/>
-      <c r="H139" s="24"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="25"/>
-      <c r="K139" s="24"/>
-      <c r="L139" s="24"/>
-      <c r="M139" s="24"/>
-      <c r="N139" s="23"/>
-      <c r="O139" s="24"/>
-      <c r="P139" s="25"/>
-      <c r="Q139" s="24"/>
-      <c r="R139" s="24"/>
-      <c r="S139" s="24"/>
-      <c r="T139" s="23"/>
-      <c r="U139" s="24"/>
-      <c r="V139" s="24"/>
-      <c r="W139" s="25"/>
-      <c r="X139" s="24"/>
-      <c r="Y139" s="24"/>
-      <c r="Z139" s="24"/>
-      <c r="AA139" s="25"/>
-      <c r="AB139" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC139" s="52"/>
-      <c r="AD139" s="52"/>
-      <c r="AE139" s="52"/>
-      <c r="AF139" s="52"/>
-      <c r="AG139" s="52"/>
-      <c r="AH139" s="53"/>
-    </row>
-    <row r="140" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E140" s="15"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="28"/>
-      <c r="K140" s="27"/>
-      <c r="L140" s="27"/>
-      <c r="M140" s="27"/>
-      <c r="N140" s="26"/>
-      <c r="O140" s="27"/>
-      <c r="P140" s="28"/>
-      <c r="Q140" s="27"/>
-      <c r="R140" s="27"/>
-      <c r="S140" s="27"/>
-      <c r="T140" s="26"/>
-      <c r="U140" s="27"/>
-      <c r="V140" s="27"/>
-      <c r="W140" s="28"/>
-      <c r="X140" s="27"/>
-      <c r="Y140" s="27"/>
-      <c r="Z140" s="27"/>
-      <c r="AA140" s="28"/>
-      <c r="AB140" s="54"/>
-      <c r="AC140" s="55"/>
-      <c r="AD140" s="55"/>
-      <c r="AE140" s="55"/>
-      <c r="AF140" s="55"/>
-      <c r="AG140" s="55"/>
-      <c r="AH140" s="56"/>
-    </row>
-    <row r="141" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E141" s="15"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="28"/>
-      <c r="K141" s="27"/>
-      <c r="L141" s="27"/>
-      <c r="M141" s="27"/>
-      <c r="N141" s="26"/>
-      <c r="O141" s="27"/>
-      <c r="P141" s="28"/>
-      <c r="Q141" s="27"/>
-      <c r="R141" s="27"/>
-      <c r="S141" s="27"/>
-      <c r="T141" s="26"/>
-      <c r="U141" s="27"/>
-      <c r="V141" s="27"/>
-      <c r="W141" s="28"/>
-      <c r="X141" s="27"/>
-      <c r="Y141" s="27"/>
-      <c r="Z141" s="27"/>
-      <c r="AA141" s="27"/>
-      <c r="AB141" s="54"/>
-      <c r="AC141" s="55"/>
-      <c r="AD141" s="55"/>
-      <c r="AE141" s="55"/>
-      <c r="AF141" s="55"/>
-      <c r="AG141" s="55"/>
-      <c r="AH141" s="56"/>
-    </row>
-    <row r="142" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E142" s="15"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="28"/>
-      <c r="K142" s="27"/>
-      <c r="L142" s="27"/>
-      <c r="M142" s="27"/>
-      <c r="N142" s="26"/>
-      <c r="O142" s="27"/>
-      <c r="P142" s="28"/>
-      <c r="Q142" s="27"/>
-      <c r="R142" s="27"/>
-      <c r="S142" s="27"/>
-      <c r="T142" s="26"/>
-      <c r="U142" s="27"/>
-      <c r="V142" s="27"/>
-      <c r="W142" s="28"/>
-      <c r="X142" s="27"/>
-      <c r="Y142" s="27"/>
-      <c r="Z142" s="27"/>
-      <c r="AA142" s="27"/>
-      <c r="AB142" s="54"/>
-      <c r="AC142" s="55"/>
-      <c r="AD142" s="55"/>
-      <c r="AE142" s="55"/>
-      <c r="AF142" s="55"/>
-      <c r="AG142" s="55"/>
-      <c r="AH142" s="56"/>
-    </row>
-    <row r="143" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E143" s="15"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="28"/>
-      <c r="K143" s="27"/>
-      <c r="L143" s="27"/>
-      <c r="M143" s="27"/>
-      <c r="N143" s="26"/>
-      <c r="O143" s="27"/>
-      <c r="P143" s="28"/>
-      <c r="Q143" s="27"/>
-      <c r="R143" s="27"/>
-      <c r="S143" s="27"/>
-      <c r="T143" s="26"/>
-      <c r="U143" s="27"/>
-      <c r="V143" s="27"/>
-      <c r="W143" s="28"/>
-      <c r="X143" s="27"/>
-      <c r="Y143" s="27"/>
-      <c r="Z143" s="27"/>
-      <c r="AA143" s="27"/>
-      <c r="AB143" s="54"/>
-      <c r="AC143" s="55"/>
-      <c r="AD143" s="55"/>
-      <c r="AE143" s="55"/>
-      <c r="AF143" s="55"/>
-      <c r="AG143" s="55"/>
-      <c r="AH143" s="56"/>
-    </row>
-    <row r="144" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E144" s="15"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="26"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="28"/>
-      <c r="K144" s="27"/>
-      <c r="L144" s="27"/>
-      <c r="M144" s="27"/>
-      <c r="N144" s="26"/>
-      <c r="O144" s="27"/>
-      <c r="P144" s="28"/>
-      <c r="Q144" s="27"/>
-      <c r="R144" s="27"/>
-      <c r="S144" s="27"/>
-      <c r="T144" s="26"/>
-      <c r="U144" s="27"/>
-      <c r="V144" s="27"/>
-      <c r="W144" s="28"/>
-      <c r="X144" s="27"/>
-      <c r="Y144" s="27"/>
-      <c r="Z144" s="27"/>
-      <c r="AA144" s="27"/>
-      <c r="AB144" s="54"/>
-      <c r="AC144" s="55"/>
-      <c r="AD144" s="55"/>
-      <c r="AE144" s="55"/>
-      <c r="AF144" s="55"/>
-      <c r="AG144" s="55"/>
-      <c r="AH144" s="56"/>
-    </row>
-    <row r="145" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E145" s="15"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="28"/>
-      <c r="K145" s="27"/>
-      <c r="L145" s="27"/>
-      <c r="M145" s="27"/>
-      <c r="N145" s="26"/>
-      <c r="O145" s="27"/>
-      <c r="P145" s="28"/>
-      <c r="Q145" s="27"/>
-      <c r="R145" s="27"/>
-      <c r="S145" s="27"/>
-      <c r="T145" s="26"/>
-      <c r="U145" s="27"/>
-      <c r="V145" s="27"/>
-      <c r="W145" s="28"/>
-      <c r="X145" s="27"/>
-      <c r="Y145" s="27"/>
-      <c r="Z145" s="27"/>
-      <c r="AA145" s="27"/>
-      <c r="AB145" s="54"/>
-      <c r="AC145" s="55"/>
-      <c r="AD145" s="55"/>
-      <c r="AE145" s="55"/>
-      <c r="AF145" s="55"/>
-      <c r="AG145" s="55"/>
-      <c r="AH145" s="56"/>
-    </row>
-    <row r="146" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E146" s="15"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="26"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
-      <c r="J146" s="28"/>
-      <c r="K146" s="27"/>
-      <c r="L146" s="27"/>
-      <c r="M146" s="27"/>
-      <c r="N146" s="26"/>
-      <c r="O146" s="27"/>
-      <c r="P146" s="28"/>
-      <c r="Q146" s="27"/>
-      <c r="R146" s="27"/>
-      <c r="S146" s="27"/>
-      <c r="T146" s="26"/>
-      <c r="U146" s="27"/>
-      <c r="V146" s="27"/>
-      <c r="W146" s="28"/>
-      <c r="X146" s="27"/>
-      <c r="Y146" s="27"/>
-      <c r="Z146" s="27"/>
-      <c r="AA146" s="27"/>
-      <c r="AB146" s="54"/>
-      <c r="AC146" s="55"/>
-      <c r="AD146" s="55"/>
-      <c r="AE146" s="55"/>
-      <c r="AF146" s="55"/>
-      <c r="AG146" s="55"/>
-      <c r="AH146" s="56"/>
-    </row>
-    <row r="147" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E147" s="15"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="30"/>
-      <c r="I147" s="30"/>
-      <c r="J147" s="31"/>
-      <c r="K147" s="30"/>
-      <c r="L147" s="30"/>
-      <c r="M147" s="30"/>
-      <c r="N147" s="29"/>
-      <c r="O147" s="30"/>
-      <c r="P147" s="31"/>
-      <c r="Q147" s="30"/>
-      <c r="R147" s="30"/>
-      <c r="S147" s="30"/>
-      <c r="T147" s="29"/>
-      <c r="U147" s="30"/>
-      <c r="V147" s="30"/>
-      <c r="W147" s="31"/>
-      <c r="X147" s="30"/>
-      <c r="Y147" s="30"/>
-      <c r="Z147" s="30"/>
-      <c r="AA147" s="30"/>
-      <c r="AB147" s="57"/>
-      <c r="AC147" s="58"/>
-      <c r="AD147" s="58"/>
-      <c r="AE147" s="58"/>
-      <c r="AF147" s="58"/>
-      <c r="AG147" s="58"/>
-      <c r="AH147" s="59"/>
-    </row>
-    <row r="148" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E148" s="15"/>
-    </row>
-    <row r="149" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E149" s="15"/>
-      <c r="F149" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="150" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E150" s="15"/>
-      <c r="H150" s="4" t="s">
+    </row>
+    <row r="135" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D135" s="18"/>
+      <c r="H135" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E151" s="15"/>
-      <c r="H151" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="152" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="18"/>
-      <c r="H152" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="153" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="18"/>
-    </row>
-    <row r="154" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="155" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D155" s="15" t="str">
+    <row r="136" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D136" s="18"/>
+    </row>
+    <row r="137" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="138" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D138" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.2.3.</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E138" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E156" s="16" t="s">
+    <row r="139" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E139" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="158" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="159" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D159" s="15" t="str">
+    <row r="140" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="141" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="142" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D142" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.2.4.</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E142" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E160" s="16" t="s">
-        <v>73</v>
+    <row r="143" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E143" s="16" t="s">
+        <v>58</v>
       </c>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="17"/>
-      <c r="K160" s="17"/>
-      <c r="L160" s="17"/>
-      <c r="M160" s="17"/>
-      <c r="N160" s="17"/>
-      <c r="O160" s="17"/>
-      <c r="P160" s="17"/>
-      <c r="Q160" s="17"/>
-      <c r="R160" s="17"/>
-      <c r="S160" s="17"/>
-      <c r="T160" s="17"/>
-      <c r="U160" s="17"/>
-      <c r="V160" s="17"/>
-      <c r="W160" s="17"/>
-      <c r="X160" s="17"/>
-      <c r="Y160" s="17"/>
-      <c r="Z160" s="17"/>
-      <c r="AA160" s="17"/>
-      <c r="AB160" s="17"/>
-      <c r="AC160" s="17"/>
-      <c r="AD160" s="17"/>
-      <c r="AE160" s="17"/>
-      <c r="AF160" s="17"/>
-      <c r="AG160" s="17"/>
-      <c r="AH160" s="17"/>
-    </row>
-    <row r="161" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D161" s="15"/>
-    </row>
-    <row r="162" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="163" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D163" s="15" t="str">
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
+      <c r="R143" s="17"/>
+      <c r="S143" s="17"/>
+      <c r="T143" s="17"/>
+      <c r="U143" s="17"/>
+      <c r="V143" s="17"/>
+      <c r="W143" s="17"/>
+      <c r="X143" s="17"/>
+      <c r="Y143" s="17"/>
+      <c r="Z143" s="17"/>
+      <c r="AA143" s="17"/>
+      <c r="AB143" s="17"/>
+      <c r="AC143" s="17"/>
+      <c r="AD143" s="17"/>
+      <c r="AE143" s="17"/>
+      <c r="AF143" s="17"/>
+      <c r="AG143" s="17"/>
+      <c r="AH143" s="17"/>
+    </row>
+    <row r="144" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D144" s="15"/>
+    </row>
+    <row r="145" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="146" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D146" s="15" t="str">
         <f>$C$7&amp;"5."</f>
         <v>6.2.5.</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E146" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E164" s="16" t="s">
+    <row r="147" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E147" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E165" s="16" t="s">
+    <row r="148" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E148" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="167" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E167" s="18" t="s">
+    <row r="149" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="150" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E150" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F167" s="16" t="s">
+      <c r="F150" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F168" s="16" t="s">
+    <row r="151" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F151" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F169" s="16" t="s">
+    <row r="152" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F152" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="171" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D171" s="15" t="str">
+    <row r="153" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="154" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D154" s="15" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.2.6.</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E154" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E172" s="16" t="s">
+    <row r="155" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E155" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="174" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E174" s="18" t="s">
+    <row r="156" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="157" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E157" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F174" s="16" t="s">
-        <v>86</v>
+      <c r="F157" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="175" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F175" s="16" t="s">
+    <row r="158" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F158" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F176" s="16" t="s">
+    <row r="159" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F159" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="4:4" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="178" spans="4:4" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="179" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D179" s="16"/>
-    </row>
-    <row r="180" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="161" spans="4:4" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="162" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D162" s="16"/>
+    </row>
+    <row r="163" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10722,25 +10000,19 @@
     <row r="591" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="592" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="593" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AB122:AH130"/>
+    <mergeCell ref="AB89:AH100"/>
+    <mergeCell ref="AB101:AH109"/>
+    <mergeCell ref="AB111:AH121"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB66:AH75"/>
+    <mergeCell ref="AB76:AH88"/>
+    <mergeCell ref="AB53:AH65"/>
+    <mergeCell ref="AB41:AH52"/>
+    <mergeCell ref="AB32:AH40"/>
+    <mergeCell ref="F110:AH110"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -10751,26 +10023,15 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AB139:AH147"/>
-    <mergeCell ref="AB106:AH117"/>
-    <mergeCell ref="AB118:AH126"/>
-    <mergeCell ref="AB128:AH138"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB83:AH92"/>
-    <mergeCell ref="AB93:AH105"/>
-    <mergeCell ref="AB70:AH82"/>
-    <mergeCell ref="AB58:AH69"/>
-    <mergeCell ref="AB49:AH57"/>
-    <mergeCell ref="F127:AH127"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="42" max="34" man="1"/>
-    <brk id="82" max="34" man="1"/>
-    <brk id="127" max="34" man="1"/>
-    <brk id="170" max="34" man="1"/>
+    <brk id="25" max="34" man="1"/>
+    <brk id="65" max="34" man="1"/>
+    <brk id="110" max="34" man="1"/>
+    <brk id="153" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252E066-9738-4BEE-AB03-C8CEDE173730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E647B14B-AA1B-440E-A050-50BAC119C8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="6.2.ファイル転送（配信）" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.2.ファイル転送（配信）'!$A$1:$AI$162</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$162</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$162</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$162</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$162</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$162</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -678,6 +678,23 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SFTPクライアントの方式概要</t>
+    <rPh sb="11" eb="13">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【5.1.1.3.SFTPクライアントの方式概要】参照。</t>
+    <rPh sb="25" eb="27">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -923,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1072,72 +1089,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1164,6 +1115,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1198,6 +1158,66 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1225,13 +1245,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1287,13 +1307,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1390,13 +1410,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1458,13 +1478,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1561,13 +1581,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1629,13 +1649,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1697,13 +1717,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1765,13 +1785,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1825,13 +1845,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1885,13 +1905,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1945,13 +1965,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2029,13 +2049,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2097,13 +2117,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2157,13 +2177,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2225,13 +2245,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2285,13 +2305,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2353,13 +2373,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2467,13 +2487,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2551,13 +2571,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2610,13 +2630,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>261939</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2672,13 +2692,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2756,13 +2776,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2824,13 +2844,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2884,13 +2904,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2942,13 +2962,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3001,13 +3021,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3060,13 +3080,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3119,13 +3139,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3178,13 +3198,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3237,13 +3257,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3302,13 +3322,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3362,13 +3382,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3446,13 +3466,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3505,13 +3525,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3573,13 +3593,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>22226</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3633,13 +3653,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3717,13 +3737,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3821,13 +3841,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3880,13 +3900,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3948,13 +3968,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4008,13 +4028,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4073,13 +4093,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4133,13 +4153,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4192,13 +4212,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4260,13 +4280,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4328,13 +4348,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4412,13 +4432,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4472,13 +4492,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4540,13 +4560,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4598,13 +4618,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4666,13 +4686,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4734,13 +4754,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4802,13 +4822,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4870,13 +4890,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4938,13 +4958,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5002,13 +5022,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5066,13 +5086,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5130,13 +5150,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5214,13 +5234,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5596,7 +5616,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI593"/>
+  <dimension ref="A1:AI595"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -5612,39 +5632,39 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="55"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="78"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="58"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="81"/>
       <c r="AF1" s="59"/>
       <c r="AG1" s="60"/>
       <c r="AH1" s="60"/>
@@ -5657,39 +5677,39 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="67"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="87"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="58"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="81"/>
       <c r="AF2" s="59"/>
       <c r="AG2" s="60"/>
       <c r="AH2" s="60"/>
@@ -5702,35 +5722,35 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="70"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="90"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="58"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="81"/>
       <c r="AF3" s="59"/>
       <c r="AG3" s="60"/>
       <c r="AH3" s="60"/>
@@ -6049,245 +6069,199 @@
       <c r="AG23" s="30"/>
       <c r="AH23" s="31"/>
     </row>
-    <row r="24" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="2:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="18"/>
+      <c r="E24" s="92"/>
+    </row>
+    <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="15" t="str">
+        <f>$D$9&amp;"3."</f>
+        <v>6.2.1.3.</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="26" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="15" t="str">
+      <c r="E26" s="15"/>
+      <c r="F26" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>6.2.2.</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E28" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="15"/>
-      <c r="F27" s="4" t="s">
+    <row r="29" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="15"/>
+      <c r="F29" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="15"/>
-      <c r="F29" s="32" t="s">
+    <row r="30" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="15"/>
+      <c r="F31" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G31" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35" t="s">
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="32" t="s">
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="37"/>
-    </row>
-    <row r="30" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="15"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="35" t="s">
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="37"/>
+    </row>
+    <row r="32" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="15"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="32" t="s">
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="39" t="s">
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="41"/>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="42"/>
-    </row>
-    <row r="31" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="15"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="44" t="s">
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="42"/>
+    </row>
+    <row r="33" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="15"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="46" t="s">
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="44" t="s">
+      <c r="O33" s="35"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="43" t="s">
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="43"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="49"/>
-    </row>
-    <row r="32" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="15"/>
-      <c r="F32" s="23">
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="48"/>
+      <c r="AE33" s="48"/>
+      <c r="AF33" s="48"/>
+      <c r="AG33" s="48"/>
+      <c r="AH33" s="49"/>
+    </row>
+    <row r="34" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="15"/>
+      <c r="F34" s="23">
         <v>1</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="72" t="s">
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="73"/>
-      <c r="AG32" s="73"/>
-      <c r="AH32" s="74"/>
-    </row>
-    <row r="33" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="15"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="76"/>
-      <c r="AD33" s="76"/>
-      <c r="AE33" s="76"/>
-      <c r="AF33" s="76"/>
-      <c r="AG33" s="76"/>
-      <c r="AH33" s="77"/>
-    </row>
-    <row r="34" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="15"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="76"/>
-      <c r="AD34" s="76"/>
-      <c r="AE34" s="76"/>
-      <c r="AF34" s="76"/>
-      <c r="AG34" s="76"/>
-      <c r="AH34" s="77"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="52"/>
     </row>
     <row r="35" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="15"/>
@@ -6313,13 +6287,13 @@
       <c r="Y35" s="27"/>
       <c r="Z35" s="27"/>
       <c r="AA35" s="27"/>
-      <c r="AB35" s="75"/>
-      <c r="AC35" s="76"/>
-      <c r="AD35" s="76"/>
-      <c r="AE35" s="76"/>
-      <c r="AF35" s="76"/>
-      <c r="AG35" s="76"/>
-      <c r="AH35" s="77"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="54"/>
+      <c r="AH35" s="55"/>
     </row>
     <row r="36" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E36" s="15"/>
@@ -6345,13 +6319,13 @@
       <c r="Y36" s="27"/>
       <c r="Z36" s="27"/>
       <c r="AA36" s="27"/>
-      <c r="AB36" s="75"/>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76"/>
-      <c r="AG36" s="76"/>
-      <c r="AH36" s="77"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="54"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="55"/>
     </row>
     <row r="37" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="15"/>
@@ -6377,13 +6351,13 @@
       <c r="Y37" s="27"/>
       <c r="Z37" s="27"/>
       <c r="AA37" s="27"/>
-      <c r="AB37" s="75"/>
-      <c r="AC37" s="76"/>
-      <c r="AD37" s="76"/>
-      <c r="AE37" s="76"/>
-      <c r="AF37" s="76"/>
-      <c r="AG37" s="76"/>
-      <c r="AH37" s="77"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="54"/>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="54"/>
+      <c r="AG37" s="54"/>
+      <c r="AH37" s="55"/>
     </row>
     <row r="38" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E38" s="15"/>
@@ -6409,13 +6383,13 @@
       <c r="Y38" s="27"/>
       <c r="Z38" s="27"/>
       <c r="AA38" s="27"/>
-      <c r="AB38" s="75"/>
-      <c r="AC38" s="76"/>
-      <c r="AD38" s="76"/>
-      <c r="AE38" s="76"/>
-      <c r="AF38" s="76"/>
-      <c r="AG38" s="76"/>
-      <c r="AH38" s="77"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
+      <c r="AG38" s="54"/>
+      <c r="AH38" s="55"/>
     </row>
     <row r="39" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E39" s="15"/>
@@ -6441,145 +6415,145 @@
       <c r="Y39" s="27"/>
       <c r="Z39" s="27"/>
       <c r="AA39" s="27"/>
-      <c r="AB39" s="75"/>
-      <c r="AC39" s="76"/>
-      <c r="AD39" s="76"/>
-      <c r="AE39" s="76"/>
-      <c r="AF39" s="76"/>
-      <c r="AG39" s="76"/>
-      <c r="AH39" s="77"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="54"/>
+      <c r="AH39" s="55"/>
     </row>
     <row r="40" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E40" s="15"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="78"/>
-      <c r="AC40" s="79"/>
-      <c r="AD40" s="79"/>
-      <c r="AE40" s="79"/>
-      <c r="AF40" s="79"/>
-      <c r="AG40" s="79"/>
-      <c r="AH40" s="80"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="54"/>
+      <c r="AE40" s="54"/>
+      <c r="AF40" s="54"/>
+      <c r="AG40" s="54"/>
+      <c r="AH40" s="55"/>
     </row>
     <row r="41" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E41" s="15"/>
-      <c r="F41" s="23">
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="54"/>
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="55"/>
+    </row>
+    <row r="42" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="15"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="56"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="57"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57"/>
+      <c r="AH42" s="58"/>
+    </row>
+    <row r="43" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="15"/>
+      <c r="F43" s="23">
         <v>2</v>
       </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="24"/>
-      <c r="AB41" s="72" t="s">
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="AC41" s="73"/>
-      <c r="AD41" s="73"/>
-      <c r="AE41" s="73"/>
-      <c r="AF41" s="73"/>
-      <c r="AG41" s="73"/>
-      <c r="AH41" s="74"/>
-    </row>
-    <row r="42" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="15"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="75"/>
-      <c r="AC42" s="76"/>
-      <c r="AD42" s="76"/>
-      <c r="AE42" s="76"/>
-      <c r="AF42" s="76"/>
-      <c r="AG42" s="76"/>
-      <c r="AH42" s="77"/>
-    </row>
-    <row r="43" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="15"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="75"/>
-      <c r="AC43" s="76"/>
-      <c r="AD43" s="76"/>
-      <c r="AE43" s="76"/>
-      <c r="AF43" s="76"/>
-      <c r="AG43" s="76"/>
-      <c r="AH43" s="77"/>
+      <c r="AC43" s="51"/>
+      <c r="AD43" s="51"/>
+      <c r="AE43" s="51"/>
+      <c r="AF43" s="51"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="52"/>
     </row>
     <row r="44" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="15"/>
@@ -6605,13 +6579,13 @@
       <c r="Y44" s="27"/>
       <c r="Z44" s="27"/>
       <c r="AA44" s="27"/>
-      <c r="AB44" s="75"/>
-      <c r="AC44" s="76"/>
-      <c r="AD44" s="76"/>
-      <c r="AE44" s="76"/>
-      <c r="AF44" s="76"/>
-      <c r="AG44" s="76"/>
-      <c r="AH44" s="77"/>
+      <c r="AB44" s="53"/>
+      <c r="AC44" s="54"/>
+      <c r="AD44" s="54"/>
+      <c r="AE44" s="54"/>
+      <c r="AF44" s="54"/>
+      <c r="AG44" s="54"/>
+      <c r="AH44" s="55"/>
     </row>
     <row r="45" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="15"/>
@@ -6637,13 +6611,13 @@
       <c r="Y45" s="27"/>
       <c r="Z45" s="27"/>
       <c r="AA45" s="27"/>
-      <c r="AB45" s="75"/>
-      <c r="AC45" s="76"/>
-      <c r="AD45" s="76"/>
-      <c r="AE45" s="76"/>
-      <c r="AF45" s="76"/>
-      <c r="AG45" s="76"/>
-      <c r="AH45" s="77"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="54"/>
+      <c r="AD45" s="54"/>
+      <c r="AE45" s="54"/>
+      <c r="AF45" s="54"/>
+      <c r="AG45" s="54"/>
+      <c r="AH45" s="55"/>
     </row>
     <row r="46" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="15"/>
@@ -6669,13 +6643,13 @@
       <c r="Y46" s="27"/>
       <c r="Z46" s="27"/>
       <c r="AA46" s="27"/>
-      <c r="AB46" s="75"/>
-      <c r="AC46" s="76"/>
-      <c r="AD46" s="76"/>
-      <c r="AE46" s="76"/>
-      <c r="AF46" s="76"/>
-      <c r="AG46" s="76"/>
-      <c r="AH46" s="77"/>
+      <c r="AB46" s="53"/>
+      <c r="AC46" s="54"/>
+      <c r="AD46" s="54"/>
+      <c r="AE46" s="54"/>
+      <c r="AF46" s="54"/>
+      <c r="AG46" s="54"/>
+      <c r="AH46" s="55"/>
     </row>
     <row r="47" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" s="15"/>
@@ -6701,13 +6675,13 @@
       <c r="Y47" s="27"/>
       <c r="Z47" s="27"/>
       <c r="AA47" s="27"/>
-      <c r="AB47" s="75"/>
-      <c r="AC47" s="76"/>
-      <c r="AD47" s="76"/>
-      <c r="AE47" s="76"/>
-      <c r="AF47" s="76"/>
-      <c r="AG47" s="76"/>
-      <c r="AH47" s="77"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="54"/>
+      <c r="AD47" s="54"/>
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="54"/>
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="55"/>
     </row>
     <row r="48" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E48" s="15"/>
@@ -6733,13 +6707,13 @@
       <c r="Y48" s="27"/>
       <c r="Z48" s="27"/>
       <c r="AA48" s="27"/>
-      <c r="AB48" s="75"/>
-      <c r="AC48" s="76"/>
-      <c r="AD48" s="76"/>
-      <c r="AE48" s="76"/>
-      <c r="AF48" s="76"/>
-      <c r="AG48" s="76"/>
-      <c r="AH48" s="77"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="54"/>
+      <c r="AD48" s="54"/>
+      <c r="AE48" s="54"/>
+      <c r="AF48" s="54"/>
+      <c r="AG48" s="54"/>
+      <c r="AH48" s="55"/>
     </row>
     <row r="49" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="15"/>
@@ -6765,13 +6739,13 @@
       <c r="Y49" s="27"/>
       <c r="Z49" s="27"/>
       <c r="AA49" s="27"/>
-      <c r="AB49" s="75"/>
-      <c r="AC49" s="76"/>
-      <c r="AD49" s="76"/>
-      <c r="AE49" s="76"/>
-      <c r="AF49" s="76"/>
-      <c r="AG49" s="76"/>
-      <c r="AH49" s="77"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="54"/>
+      <c r="AD49" s="54"/>
+      <c r="AE49" s="54"/>
+      <c r="AF49" s="54"/>
+      <c r="AG49" s="54"/>
+      <c r="AH49" s="55"/>
     </row>
     <row r="50" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="15"/>
@@ -6797,13 +6771,13 @@
       <c r="Y50" s="27"/>
       <c r="Z50" s="27"/>
       <c r="AA50" s="27"/>
-      <c r="AB50" s="75"/>
-      <c r="AC50" s="76"/>
-      <c r="AD50" s="76"/>
-      <c r="AE50" s="76"/>
-      <c r="AF50" s="76"/>
-      <c r="AG50" s="76"/>
-      <c r="AH50" s="77"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="54"/>
+      <c r="AD50" s="54"/>
+      <c r="AE50" s="54"/>
+      <c r="AF50" s="54"/>
+      <c r="AG50" s="54"/>
+      <c r="AH50" s="55"/>
     </row>
     <row r="51" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E51" s="15"/>
@@ -6829,145 +6803,145 @@
       <c r="Y51" s="27"/>
       <c r="Z51" s="27"/>
       <c r="AA51" s="27"/>
-      <c r="AB51" s="75"/>
-      <c r="AC51" s="76"/>
-      <c r="AD51" s="76"/>
-      <c r="AE51" s="76"/>
-      <c r="AF51" s="76"/>
-      <c r="AG51" s="76"/>
-      <c r="AH51" s="77"/>
+      <c r="AB51" s="53"/>
+      <c r="AC51" s="54"/>
+      <c r="AD51" s="54"/>
+      <c r="AE51" s="54"/>
+      <c r="AF51" s="54"/>
+      <c r="AG51" s="54"/>
+      <c r="AH51" s="55"/>
     </row>
     <row r="52" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" s="15"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="31"/>
-      <c r="X52" s="30"/>
-      <c r="Y52" s="30"/>
-      <c r="Z52" s="30"/>
-      <c r="AA52" s="30"/>
-      <c r="AB52" s="78"/>
-      <c r="AC52" s="79"/>
-      <c r="AD52" s="79"/>
-      <c r="AE52" s="79"/>
-      <c r="AF52" s="79"/>
-      <c r="AG52" s="79"/>
-      <c r="AH52" s="80"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="53"/>
+      <c r="AC52" s="54"/>
+      <c r="AD52" s="54"/>
+      <c r="AE52" s="54"/>
+      <c r="AF52" s="54"/>
+      <c r="AG52" s="54"/>
+      <c r="AH52" s="55"/>
     </row>
     <row r="53" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="15"/>
-      <c r="F53" s="23">
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="53"/>
+      <c r="AC53" s="54"/>
+      <c r="AD53" s="54"/>
+      <c r="AE53" s="54"/>
+      <c r="AF53" s="54"/>
+      <c r="AG53" s="54"/>
+      <c r="AH53" s="55"/>
+    </row>
+    <row r="54" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E54" s="15"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="56"/>
+      <c r="AC54" s="57"/>
+      <c r="AD54" s="57"/>
+      <c r="AE54" s="57"/>
+      <c r="AF54" s="57"/>
+      <c r="AG54" s="57"/>
+      <c r="AH54" s="58"/>
+    </row>
+    <row r="55" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E55" s="15"/>
+      <c r="F55" s="23">
         <v>3</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="24"/>
-      <c r="W53" s="25"/>
-      <c r="X53" s="24"/>
-      <c r="Y53" s="24"/>
-      <c r="Z53" s="24"/>
-      <c r="AA53" s="24"/>
-      <c r="AB53" s="72" t="s">
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="24"/>
+      <c r="AA55" s="24"/>
+      <c r="AB55" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="AC53" s="73"/>
-      <c r="AD53" s="73"/>
-      <c r="AE53" s="73"/>
-      <c r="AF53" s="73"/>
-      <c r="AG53" s="73"/>
-      <c r="AH53" s="74"/>
-    </row>
-    <row r="54" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="15"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="75"/>
-      <c r="AC54" s="76"/>
-      <c r="AD54" s="76"/>
-      <c r="AE54" s="76"/>
-      <c r="AF54" s="76"/>
-      <c r="AG54" s="76"/>
-      <c r="AH54" s="77"/>
-    </row>
-    <row r="55" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="15"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="75"/>
-      <c r="AC55" s="76"/>
-      <c r="AD55" s="76"/>
-      <c r="AE55" s="76"/>
-      <c r="AF55" s="76"/>
-      <c r="AG55" s="76"/>
-      <c r="AH55" s="77"/>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="52"/>
     </row>
     <row r="56" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
@@ -6993,13 +6967,13 @@
       <c r="Y56" s="27"/>
       <c r="Z56" s="27"/>
       <c r="AA56" s="27"/>
-      <c r="AB56" s="75"/>
-      <c r="AC56" s="76"/>
-      <c r="AD56" s="76"/>
-      <c r="AE56" s="76"/>
-      <c r="AF56" s="76"/>
-      <c r="AG56" s="76"/>
-      <c r="AH56" s="77"/>
+      <c r="AB56" s="53"/>
+      <c r="AC56" s="54"/>
+      <c r="AD56" s="54"/>
+      <c r="AE56" s="54"/>
+      <c r="AF56" s="54"/>
+      <c r="AG56" s="54"/>
+      <c r="AH56" s="55"/>
     </row>
     <row r="57" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
@@ -7025,13 +6999,13 @@
       <c r="Y57" s="27"/>
       <c r="Z57" s="27"/>
       <c r="AA57" s="27"/>
-      <c r="AB57" s="75"/>
-      <c r="AC57" s="76"/>
-      <c r="AD57" s="76"/>
-      <c r="AE57" s="76"/>
-      <c r="AF57" s="76"/>
-      <c r="AG57" s="76"/>
-      <c r="AH57" s="77"/>
+      <c r="AB57" s="53"/>
+      <c r="AC57" s="54"/>
+      <c r="AD57" s="54"/>
+      <c r="AE57" s="54"/>
+      <c r="AF57" s="54"/>
+      <c r="AG57" s="54"/>
+      <c r="AH57" s="55"/>
     </row>
     <row r="58" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
@@ -7057,13 +7031,13 @@
       <c r="Y58" s="27"/>
       <c r="Z58" s="27"/>
       <c r="AA58" s="27"/>
-      <c r="AB58" s="75"/>
-      <c r="AC58" s="76"/>
-      <c r="AD58" s="76"/>
-      <c r="AE58" s="76"/>
-      <c r="AF58" s="76"/>
-      <c r="AG58" s="76"/>
-      <c r="AH58" s="77"/>
+      <c r="AB58" s="53"/>
+      <c r="AC58" s="54"/>
+      <c r="AD58" s="54"/>
+      <c r="AE58" s="54"/>
+      <c r="AF58" s="54"/>
+      <c r="AG58" s="54"/>
+      <c r="AH58" s="55"/>
     </row>
     <row r="59" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
@@ -7089,13 +7063,13 @@
       <c r="Y59" s="27"/>
       <c r="Z59" s="27"/>
       <c r="AA59" s="27"/>
-      <c r="AB59" s="75"/>
-      <c r="AC59" s="76"/>
-      <c r="AD59" s="76"/>
-      <c r="AE59" s="76"/>
-      <c r="AF59" s="76"/>
-      <c r="AG59" s="76"/>
-      <c r="AH59" s="77"/>
+      <c r="AB59" s="53"/>
+      <c r="AC59" s="54"/>
+      <c r="AD59" s="54"/>
+      <c r="AE59" s="54"/>
+      <c r="AF59" s="54"/>
+      <c r="AG59" s="54"/>
+      <c r="AH59" s="55"/>
     </row>
     <row r="60" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
@@ -7121,13 +7095,13 @@
       <c r="Y60" s="27"/>
       <c r="Z60" s="27"/>
       <c r="AA60" s="27"/>
-      <c r="AB60" s="75"/>
-      <c r="AC60" s="76"/>
-      <c r="AD60" s="76"/>
-      <c r="AE60" s="76"/>
-      <c r="AF60" s="76"/>
-      <c r="AG60" s="76"/>
-      <c r="AH60" s="77"/>
+      <c r="AB60" s="53"/>
+      <c r="AC60" s="54"/>
+      <c r="AD60" s="54"/>
+      <c r="AE60" s="54"/>
+      <c r="AF60" s="54"/>
+      <c r="AG60" s="54"/>
+      <c r="AH60" s="55"/>
     </row>
     <row r="61" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
@@ -7153,13 +7127,13 @@
       <c r="Y61" s="27"/>
       <c r="Z61" s="27"/>
       <c r="AA61" s="27"/>
-      <c r="AB61" s="75"/>
-      <c r="AC61" s="76"/>
-      <c r="AD61" s="76"/>
-      <c r="AE61" s="76"/>
-      <c r="AF61" s="76"/>
-      <c r="AG61" s="76"/>
-      <c r="AH61" s="77"/>
+      <c r="AB61" s="53"/>
+      <c r="AC61" s="54"/>
+      <c r="AD61" s="54"/>
+      <c r="AE61" s="54"/>
+      <c r="AF61" s="54"/>
+      <c r="AG61" s="54"/>
+      <c r="AH61" s="55"/>
     </row>
     <row r="62" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
@@ -7185,13 +7159,13 @@
       <c r="Y62" s="27"/>
       <c r="Z62" s="27"/>
       <c r="AA62" s="27"/>
-      <c r="AB62" s="75"/>
-      <c r="AC62" s="76"/>
-      <c r="AD62" s="76"/>
-      <c r="AE62" s="76"/>
-      <c r="AF62" s="76"/>
-      <c r="AG62" s="76"/>
-      <c r="AH62" s="77"/>
+      <c r="AB62" s="53"/>
+      <c r="AC62" s="54"/>
+      <c r="AD62" s="54"/>
+      <c r="AE62" s="54"/>
+      <c r="AF62" s="54"/>
+      <c r="AG62" s="54"/>
+      <c r="AH62" s="55"/>
     </row>
     <row r="63" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
@@ -7217,13 +7191,13 @@
       <c r="Y63" s="27"/>
       <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
-      <c r="AB63" s="75"/>
-      <c r="AC63" s="76"/>
-      <c r="AD63" s="76"/>
-      <c r="AE63" s="76"/>
-      <c r="AF63" s="76"/>
-      <c r="AG63" s="76"/>
-      <c r="AH63" s="77"/>
+      <c r="AB63" s="53"/>
+      <c r="AC63" s="54"/>
+      <c r="AD63" s="54"/>
+      <c r="AE63" s="54"/>
+      <c r="AF63" s="54"/>
+      <c r="AG63" s="54"/>
+      <c r="AH63" s="55"/>
     </row>
     <row r="64" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="15"/>
@@ -7249,145 +7223,145 @@
       <c r="Y64" s="27"/>
       <c r="Z64" s="27"/>
       <c r="AA64" s="27"/>
-      <c r="AB64" s="75"/>
-      <c r="AC64" s="76"/>
-      <c r="AD64" s="76"/>
-      <c r="AE64" s="76"/>
-      <c r="AF64" s="76"/>
-      <c r="AG64" s="76"/>
-      <c r="AH64" s="77"/>
+      <c r="AB64" s="53"/>
+      <c r="AC64" s="54"/>
+      <c r="AD64" s="54"/>
+      <c r="AE64" s="54"/>
+      <c r="AF64" s="54"/>
+      <c r="AG64" s="54"/>
+      <c r="AH64" s="55"/>
     </row>
     <row r="65" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="31"/>
-      <c r="X65" s="30"/>
-      <c r="Y65" s="30"/>
-      <c r="Z65" s="30"/>
-      <c r="AA65" s="30"/>
-      <c r="AB65" s="78"/>
-      <c r="AC65" s="79"/>
-      <c r="AD65" s="79"/>
-      <c r="AE65" s="79"/>
-      <c r="AF65" s="79"/>
-      <c r="AG65" s="79"/>
-      <c r="AH65" s="80"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="26"/>
+      <c r="U65" s="27"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="53"/>
+      <c r="AC65" s="54"/>
+      <c r="AD65" s="54"/>
+      <c r="AE65" s="54"/>
+      <c r="AF65" s="54"/>
+      <c r="AG65" s="54"/>
+      <c r="AH65" s="55"/>
     </row>
     <row r="66" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="15"/>
-      <c r="F66" s="23">
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="26"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="53"/>
+      <c r="AC66" s="54"/>
+      <c r="AD66" s="54"/>
+      <c r="AE66" s="54"/>
+      <c r="AF66" s="54"/>
+      <c r="AG66" s="54"/>
+      <c r="AH66" s="55"/>
+    </row>
+    <row r="67" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E67" s="15"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="31"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="56"/>
+      <c r="AC67" s="57"/>
+      <c r="AD67" s="57"/>
+      <c r="AE67" s="57"/>
+      <c r="AF67" s="57"/>
+      <c r="AG67" s="57"/>
+      <c r="AH67" s="58"/>
+    </row>
+    <row r="68" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E68" s="15"/>
+      <c r="F68" s="23">
         <v>4</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="24"/>
-      <c r="W66" s="25"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="24"/>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="72" t="s">
+      <c r="G68" s="23"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="25"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AC66" s="81"/>
-      <c r="AD66" s="81"/>
-      <c r="AE66" s="81"/>
-      <c r="AF66" s="81"/>
-      <c r="AG66" s="81"/>
-      <c r="AH66" s="82"/>
-    </row>
-    <row r="67" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E67" s="15"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="26"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="27"/>
-      <c r="Z67" s="27"/>
-      <c r="AA67" s="27"/>
-      <c r="AB67" s="83"/>
-      <c r="AC67" s="84"/>
-      <c r="AD67" s="84"/>
-      <c r="AE67" s="84"/>
-      <c r="AF67" s="84"/>
-      <c r="AG67" s="84"/>
-      <c r="AH67" s="85"/>
-    </row>
-    <row r="68" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E68" s="15"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="26"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="27"/>
-      <c r="Z68" s="27"/>
-      <c r="AA68" s="27"/>
-      <c r="AB68" s="83"/>
-      <c r="AC68" s="84"/>
-      <c r="AD68" s="84"/>
-      <c r="AE68" s="84"/>
-      <c r="AF68" s="84"/>
-      <c r="AG68" s="84"/>
-      <c r="AH68" s="85"/>
+      <c r="AC68" s="62"/>
+      <c r="AD68" s="62"/>
+      <c r="AE68" s="62"/>
+      <c r="AF68" s="62"/>
+      <c r="AG68" s="62"/>
+      <c r="AH68" s="63"/>
     </row>
     <row r="69" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="15"/>
@@ -7413,13 +7387,13 @@
       <c r="Y69" s="27"/>
       <c r="Z69" s="27"/>
       <c r="AA69" s="27"/>
-      <c r="AB69" s="83"/>
-      <c r="AC69" s="84"/>
-      <c r="AD69" s="84"/>
-      <c r="AE69" s="84"/>
-      <c r="AF69" s="84"/>
-      <c r="AG69" s="84"/>
-      <c r="AH69" s="85"/>
+      <c r="AB69" s="64"/>
+      <c r="AC69" s="65"/>
+      <c r="AD69" s="65"/>
+      <c r="AE69" s="65"/>
+      <c r="AF69" s="65"/>
+      <c r="AG69" s="65"/>
+      <c r="AH69" s="66"/>
     </row>
     <row r="70" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="15"/>
@@ -7445,13 +7419,13 @@
       <c r="Y70" s="27"/>
       <c r="Z70" s="27"/>
       <c r="AA70" s="27"/>
-      <c r="AB70" s="83"/>
-      <c r="AC70" s="84"/>
-      <c r="AD70" s="84"/>
-      <c r="AE70" s="84"/>
-      <c r="AF70" s="84"/>
-      <c r="AG70" s="84"/>
-      <c r="AH70" s="85"/>
+      <c r="AB70" s="64"/>
+      <c r="AC70" s="65"/>
+      <c r="AD70" s="65"/>
+      <c r="AE70" s="65"/>
+      <c r="AF70" s="65"/>
+      <c r="AG70" s="65"/>
+      <c r="AH70" s="66"/>
     </row>
     <row r="71" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="15"/>
@@ -7477,13 +7451,13 @@
       <c r="Y71" s="27"/>
       <c r="Z71" s="27"/>
       <c r="AA71" s="27"/>
-      <c r="AB71" s="83"/>
-      <c r="AC71" s="84"/>
-      <c r="AD71" s="84"/>
-      <c r="AE71" s="84"/>
-      <c r="AF71" s="84"/>
-      <c r="AG71" s="84"/>
-      <c r="AH71" s="85"/>
+      <c r="AB71" s="64"/>
+      <c r="AC71" s="65"/>
+      <c r="AD71" s="65"/>
+      <c r="AE71" s="65"/>
+      <c r="AF71" s="65"/>
+      <c r="AG71" s="65"/>
+      <c r="AH71" s="66"/>
     </row>
     <row r="72" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="15"/>
@@ -7509,13 +7483,13 @@
       <c r="Y72" s="27"/>
       <c r="Z72" s="27"/>
       <c r="AA72" s="27"/>
-      <c r="AB72" s="83"/>
-      <c r="AC72" s="84"/>
-      <c r="AD72" s="84"/>
-      <c r="AE72" s="84"/>
-      <c r="AF72" s="84"/>
-      <c r="AG72" s="84"/>
-      <c r="AH72" s="85"/>
+      <c r="AB72" s="64"/>
+      <c r="AC72" s="65"/>
+      <c r="AD72" s="65"/>
+      <c r="AE72" s="65"/>
+      <c r="AF72" s="65"/>
+      <c r="AG72" s="65"/>
+      <c r="AH72" s="66"/>
     </row>
     <row r="73" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="15"/>
@@ -7541,13 +7515,13 @@
       <c r="Y73" s="27"/>
       <c r="Z73" s="27"/>
       <c r="AA73" s="27"/>
-      <c r="AB73" s="83"/>
-      <c r="AC73" s="84"/>
-      <c r="AD73" s="84"/>
-      <c r="AE73" s="84"/>
-      <c r="AF73" s="84"/>
-      <c r="AG73" s="84"/>
-      <c r="AH73" s="85"/>
+      <c r="AB73" s="64"/>
+      <c r="AC73" s="65"/>
+      <c r="AD73" s="65"/>
+      <c r="AE73" s="65"/>
+      <c r="AF73" s="65"/>
+      <c r="AG73" s="65"/>
+      <c r="AH73" s="66"/>
     </row>
     <row r="74" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="15"/>
@@ -7573,145 +7547,145 @@
       <c r="Y74" s="27"/>
       <c r="Z74" s="27"/>
       <c r="AA74" s="27"/>
-      <c r="AB74" s="83"/>
-      <c r="AC74" s="84"/>
-      <c r="AD74" s="84"/>
-      <c r="AE74" s="84"/>
-      <c r="AF74" s="84"/>
-      <c r="AG74" s="84"/>
-      <c r="AH74" s="85"/>
+      <c r="AB74" s="64"/>
+      <c r="AC74" s="65"/>
+      <c r="AD74" s="65"/>
+      <c r="AE74" s="65"/>
+      <c r="AF74" s="65"/>
+      <c r="AG74" s="65"/>
+      <c r="AH74" s="66"/>
     </row>
     <row r="75" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="15"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="31"/>
-      <c r="Q75" s="30"/>
-      <c r="R75" s="30"/>
-      <c r="S75" s="30"/>
-      <c r="T75" s="29"/>
-      <c r="U75" s="30"/>
-      <c r="V75" s="30"/>
-      <c r="W75" s="31"/>
-      <c r="X75" s="30"/>
-      <c r="Y75" s="30"/>
-      <c r="Z75" s="30"/>
-      <c r="AA75" s="30"/>
-      <c r="AB75" s="86"/>
-      <c r="AC75" s="87"/>
-      <c r="AD75" s="87"/>
-      <c r="AE75" s="87"/>
-      <c r="AF75" s="87"/>
-      <c r="AG75" s="87"/>
-      <c r="AH75" s="88"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="26"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27"/>
+      <c r="AB75" s="64"/>
+      <c r="AC75" s="65"/>
+      <c r="AD75" s="65"/>
+      <c r="AE75" s="65"/>
+      <c r="AF75" s="65"/>
+      <c r="AG75" s="65"/>
+      <c r="AH75" s="66"/>
     </row>
     <row r="76" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="15"/>
-      <c r="F76" s="23">
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="26"/>
+      <c r="U76" s="27"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27"/>
+      <c r="AB76" s="64"/>
+      <c r="AC76" s="65"/>
+      <c r="AD76" s="65"/>
+      <c r="AE76" s="65"/>
+      <c r="AF76" s="65"/>
+      <c r="AG76" s="65"/>
+      <c r="AH76" s="66"/>
+    </row>
+    <row r="77" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E77" s="15"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="30"/>
+      <c r="V77" s="30"/>
+      <c r="W77" s="31"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
+      <c r="AA77" s="30"/>
+      <c r="AB77" s="67"/>
+      <c r="AC77" s="68"/>
+      <c r="AD77" s="68"/>
+      <c r="AE77" s="68"/>
+      <c r="AF77" s="68"/>
+      <c r="AG77" s="68"/>
+      <c r="AH77" s="69"/>
+    </row>
+    <row r="78" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E78" s="15"/>
+      <c r="F78" s="23">
         <v>5</v>
       </c>
-      <c r="G76" s="23"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="24"/>
-      <c r="T76" s="23"/>
-      <c r="U76" s="24"/>
-      <c r="V76" s="24"/>
-      <c r="W76" s="25"/>
-      <c r="X76" s="24"/>
-      <c r="Y76" s="24"/>
-      <c r="Z76" s="24"/>
-      <c r="AA76" s="24"/>
-      <c r="AB76" s="72" t="s">
+      <c r="G78" s="23"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="25"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="24"/>
+      <c r="AA78" s="24"/>
+      <c r="AB78" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AC76" s="73"/>
-      <c r="AD76" s="73"/>
-      <c r="AE76" s="73"/>
-      <c r="AF76" s="73"/>
-      <c r="AG76" s="73"/>
-      <c r="AH76" s="74"/>
-    </row>
-    <row r="77" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E77" s="15"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27"/>
-      <c r="T77" s="26"/>
-      <c r="U77" s="27"/>
-      <c r="V77" s="27"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="27"/>
-      <c r="Z77" s="27"/>
-      <c r="AA77" s="27"/>
-      <c r="AB77" s="75"/>
-      <c r="AC77" s="76"/>
-      <c r="AD77" s="76"/>
-      <c r="AE77" s="76"/>
-      <c r="AF77" s="76"/>
-      <c r="AG77" s="76"/>
-      <c r="AH77" s="77"/>
-    </row>
-    <row r="78" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E78" s="15"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="27"/>
-      <c r="R78" s="27"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="26"/>
-      <c r="U78" s="27"/>
-      <c r="V78" s="27"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="27"/>
-      <c r="Z78" s="27"/>
-      <c r="AA78" s="27"/>
-      <c r="AB78" s="75"/>
-      <c r="AC78" s="76"/>
-      <c r="AD78" s="76"/>
-      <c r="AE78" s="76"/>
-      <c r="AF78" s="76"/>
-      <c r="AG78" s="76"/>
-      <c r="AH78" s="77"/>
+      <c r="AC78" s="51"/>
+      <c r="AD78" s="51"/>
+      <c r="AE78" s="51"/>
+      <c r="AF78" s="51"/>
+      <c r="AG78" s="51"/>
+      <c r="AH78" s="52"/>
     </row>
     <row r="79" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="15"/>
@@ -7737,13 +7711,13 @@
       <c r="Y79" s="27"/>
       <c r="Z79" s="27"/>
       <c r="AA79" s="27"/>
-      <c r="AB79" s="75"/>
-      <c r="AC79" s="76"/>
-      <c r="AD79" s="76"/>
-      <c r="AE79" s="76"/>
-      <c r="AF79" s="76"/>
-      <c r="AG79" s="76"/>
-      <c r="AH79" s="77"/>
+      <c r="AB79" s="53"/>
+      <c r="AC79" s="54"/>
+      <c r="AD79" s="54"/>
+      <c r="AE79" s="54"/>
+      <c r="AF79" s="54"/>
+      <c r="AG79" s="54"/>
+      <c r="AH79" s="55"/>
     </row>
     <row r="80" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="15"/>
@@ -7769,13 +7743,13 @@
       <c r="Y80" s="27"/>
       <c r="Z80" s="27"/>
       <c r="AA80" s="27"/>
-      <c r="AB80" s="75"/>
-      <c r="AC80" s="76"/>
-      <c r="AD80" s="76"/>
-      <c r="AE80" s="76"/>
-      <c r="AF80" s="76"/>
-      <c r="AG80" s="76"/>
-      <c r="AH80" s="77"/>
+      <c r="AB80" s="53"/>
+      <c r="AC80" s="54"/>
+      <c r="AD80" s="54"/>
+      <c r="AE80" s="54"/>
+      <c r="AF80" s="54"/>
+      <c r="AG80" s="54"/>
+      <c r="AH80" s="55"/>
     </row>
     <row r="81" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E81" s="15"/>
@@ -7801,13 +7775,13 @@
       <c r="Y81" s="27"/>
       <c r="Z81" s="27"/>
       <c r="AA81" s="27"/>
-      <c r="AB81" s="75"/>
-      <c r="AC81" s="76"/>
-      <c r="AD81" s="76"/>
-      <c r="AE81" s="76"/>
-      <c r="AF81" s="76"/>
-      <c r="AG81" s="76"/>
-      <c r="AH81" s="77"/>
+      <c r="AB81" s="53"/>
+      <c r="AC81" s="54"/>
+      <c r="AD81" s="54"/>
+      <c r="AE81" s="54"/>
+      <c r="AF81" s="54"/>
+      <c r="AG81" s="54"/>
+      <c r="AH81" s="55"/>
     </row>
     <row r="82" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="15"/>
@@ -7833,13 +7807,13 @@
       <c r="Y82" s="27"/>
       <c r="Z82" s="27"/>
       <c r="AA82" s="27"/>
-      <c r="AB82" s="75"/>
-      <c r="AC82" s="76"/>
-      <c r="AD82" s="76"/>
-      <c r="AE82" s="76"/>
-      <c r="AF82" s="76"/>
-      <c r="AG82" s="76"/>
-      <c r="AH82" s="77"/>
+      <c r="AB82" s="53"/>
+      <c r="AC82" s="54"/>
+      <c r="AD82" s="54"/>
+      <c r="AE82" s="54"/>
+      <c r="AF82" s="54"/>
+      <c r="AG82" s="54"/>
+      <c r="AH82" s="55"/>
     </row>
     <row r="83" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="15"/>
@@ -7865,13 +7839,13 @@
       <c r="Y83" s="27"/>
       <c r="Z83" s="27"/>
       <c r="AA83" s="27"/>
-      <c r="AB83" s="75"/>
-      <c r="AC83" s="76"/>
-      <c r="AD83" s="76"/>
-      <c r="AE83" s="76"/>
-      <c r="AF83" s="76"/>
-      <c r="AG83" s="76"/>
-      <c r="AH83" s="77"/>
+      <c r="AB83" s="53"/>
+      <c r="AC83" s="54"/>
+      <c r="AD83" s="54"/>
+      <c r="AE83" s="54"/>
+      <c r="AF83" s="54"/>
+      <c r="AG83" s="54"/>
+      <c r="AH83" s="55"/>
     </row>
     <row r="84" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="15"/>
@@ -7897,13 +7871,13 @@
       <c r="Y84" s="27"/>
       <c r="Z84" s="27"/>
       <c r="AA84" s="27"/>
-      <c r="AB84" s="75"/>
-      <c r="AC84" s="76"/>
-      <c r="AD84" s="76"/>
-      <c r="AE84" s="76"/>
-      <c r="AF84" s="76"/>
-      <c r="AG84" s="76"/>
-      <c r="AH84" s="77"/>
+      <c r="AB84" s="53"/>
+      <c r="AC84" s="54"/>
+      <c r="AD84" s="54"/>
+      <c r="AE84" s="54"/>
+      <c r="AF84" s="54"/>
+      <c r="AG84" s="54"/>
+      <c r="AH84" s="55"/>
     </row>
     <row r="85" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85" s="15"/>
@@ -7929,13 +7903,13 @@
       <c r="Y85" s="27"/>
       <c r="Z85" s="27"/>
       <c r="AA85" s="27"/>
-      <c r="AB85" s="75"/>
-      <c r="AC85" s="76"/>
-      <c r="AD85" s="76"/>
-      <c r="AE85" s="76"/>
-      <c r="AF85" s="76"/>
-      <c r="AG85" s="76"/>
-      <c r="AH85" s="77"/>
+      <c r="AB85" s="53"/>
+      <c r="AC85" s="54"/>
+      <c r="AD85" s="54"/>
+      <c r="AE85" s="54"/>
+      <c r="AF85" s="54"/>
+      <c r="AG85" s="54"/>
+      <c r="AH85" s="55"/>
     </row>
     <row r="86" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="15"/>
@@ -7961,13 +7935,13 @@
       <c r="Y86" s="27"/>
       <c r="Z86" s="27"/>
       <c r="AA86" s="27"/>
-      <c r="AB86" s="75"/>
-      <c r="AC86" s="76"/>
-      <c r="AD86" s="76"/>
-      <c r="AE86" s="76"/>
-      <c r="AF86" s="76"/>
-      <c r="AG86" s="76"/>
-      <c r="AH86" s="77"/>
+      <c r="AB86" s="53"/>
+      <c r="AC86" s="54"/>
+      <c r="AD86" s="54"/>
+      <c r="AE86" s="54"/>
+      <c r="AF86" s="54"/>
+      <c r="AG86" s="54"/>
+      <c r="AH86" s="55"/>
     </row>
     <row r="87" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87" s="15"/>
@@ -7993,13 +7967,13 @@
       <c r="Y87" s="27"/>
       <c r="Z87" s="27"/>
       <c r="AA87" s="27"/>
-      <c r="AB87" s="75"/>
-      <c r="AC87" s="76"/>
-      <c r="AD87" s="76"/>
-      <c r="AE87" s="76"/>
-      <c r="AF87" s="76"/>
-      <c r="AG87" s="76"/>
-      <c r="AH87" s="77"/>
+      <c r="AB87" s="53"/>
+      <c r="AC87" s="54"/>
+      <c r="AD87" s="54"/>
+      <c r="AE87" s="54"/>
+      <c r="AF87" s="54"/>
+      <c r="AG87" s="54"/>
+      <c r="AH87" s="55"/>
     </row>
     <row r="88" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="15"/>
@@ -8025,49 +7999,45 @@
       <c r="Y88" s="27"/>
       <c r="Z88" s="27"/>
       <c r="AA88" s="27"/>
-      <c r="AB88" s="75"/>
-      <c r="AC88" s="76"/>
-      <c r="AD88" s="76"/>
-      <c r="AE88" s="76"/>
-      <c r="AF88" s="76"/>
-      <c r="AG88" s="76"/>
-      <c r="AH88" s="77"/>
+      <c r="AB88" s="53"/>
+      <c r="AC88" s="54"/>
+      <c r="AD88" s="54"/>
+      <c r="AE88" s="54"/>
+      <c r="AF88" s="54"/>
+      <c r="AG88" s="54"/>
+      <c r="AH88" s="55"/>
     </row>
     <row r="89" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="15"/>
-      <c r="F89" s="23">
-        <v>6</v>
-      </c>
-      <c r="G89" s="23"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="25"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-      <c r="S89" s="24"/>
-      <c r="T89" s="23"/>
-      <c r="U89" s="24"/>
-      <c r="V89" s="24"/>
-      <c r="W89" s="25"/>
-      <c r="X89" s="24"/>
-      <c r="Y89" s="24"/>
-      <c r="Z89" s="24"/>
-      <c r="AA89" s="24"/>
-      <c r="AB89" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC89" s="73"/>
-      <c r="AD89" s="73"/>
-      <c r="AE89" s="73"/>
-      <c r="AF89" s="73"/>
-      <c r="AG89" s="73"/>
-      <c r="AH89" s="74"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27"/>
+      <c r="S89" s="27"/>
+      <c r="T89" s="26"/>
+      <c r="U89" s="27"/>
+      <c r="V89" s="27"/>
+      <c r="W89" s="28"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="53"/>
+      <c r="AC89" s="54"/>
+      <c r="AD89" s="54"/>
+      <c r="AE89" s="54"/>
+      <c r="AF89" s="54"/>
+      <c r="AG89" s="54"/>
+      <c r="AH89" s="55"/>
     </row>
     <row r="90" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E90" s="15"/>
@@ -8093,45 +8063,49 @@
       <c r="Y90" s="27"/>
       <c r="Z90" s="27"/>
       <c r="AA90" s="27"/>
-      <c r="AB90" s="75"/>
-      <c r="AC90" s="76"/>
-      <c r="AD90" s="76"/>
-      <c r="AE90" s="76"/>
-      <c r="AF90" s="76"/>
-      <c r="AG90" s="76"/>
-      <c r="AH90" s="77"/>
+      <c r="AB90" s="53"/>
+      <c r="AC90" s="54"/>
+      <c r="AD90" s="54"/>
+      <c r="AE90" s="54"/>
+      <c r="AF90" s="54"/>
+      <c r="AG90" s="54"/>
+      <c r="AH90" s="55"/>
     </row>
     <row r="91" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E91" s="15"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="27"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="28"/>
-      <c r="Q91" s="27"/>
-      <c r="R91" s="27"/>
-      <c r="S91" s="27"/>
-      <c r="T91" s="26"/>
-      <c r="U91" s="27"/>
-      <c r="V91" s="27"/>
-      <c r="W91" s="28"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="75"/>
-      <c r="AC91" s="76"/>
-      <c r="AD91" s="76"/>
-      <c r="AE91" s="76"/>
-      <c r="AF91" s="76"/>
-      <c r="AG91" s="76"/>
-      <c r="AH91" s="77"/>
+      <c r="F91" s="23">
+        <v>6</v>
+      </c>
+      <c r="G91" s="23"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="24"/>
+      <c r="V91" s="24"/>
+      <c r="W91" s="25"/>
+      <c r="X91" s="24"/>
+      <c r="Y91" s="24"/>
+      <c r="Z91" s="24"/>
+      <c r="AA91" s="24"/>
+      <c r="AB91" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC91" s="51"/>
+      <c r="AD91" s="51"/>
+      <c r="AE91" s="51"/>
+      <c r="AF91" s="51"/>
+      <c r="AG91" s="51"/>
+      <c r="AH91" s="52"/>
     </row>
     <row r="92" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="15"/>
@@ -8157,13 +8131,13 @@
       <c r="Y92" s="27"/>
       <c r="Z92" s="27"/>
       <c r="AA92" s="27"/>
-      <c r="AB92" s="75"/>
-      <c r="AC92" s="76"/>
-      <c r="AD92" s="76"/>
-      <c r="AE92" s="76"/>
-      <c r="AF92" s="76"/>
-      <c r="AG92" s="76"/>
-      <c r="AH92" s="77"/>
+      <c r="AB92" s="53"/>
+      <c r="AC92" s="54"/>
+      <c r="AD92" s="54"/>
+      <c r="AE92" s="54"/>
+      <c r="AF92" s="54"/>
+      <c r="AG92" s="54"/>
+      <c r="AH92" s="55"/>
     </row>
     <row r="93" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E93" s="15"/>
@@ -8189,13 +8163,13 @@
       <c r="Y93" s="27"/>
       <c r="Z93" s="27"/>
       <c r="AA93" s="27"/>
-      <c r="AB93" s="75"/>
-      <c r="AC93" s="76"/>
-      <c r="AD93" s="76"/>
-      <c r="AE93" s="76"/>
-      <c r="AF93" s="76"/>
-      <c r="AG93" s="76"/>
-      <c r="AH93" s="77"/>
+      <c r="AB93" s="53"/>
+      <c r="AC93" s="54"/>
+      <c r="AD93" s="54"/>
+      <c r="AE93" s="54"/>
+      <c r="AF93" s="54"/>
+      <c r="AG93" s="54"/>
+      <c r="AH93" s="55"/>
     </row>
     <row r="94" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E94" s="15"/>
@@ -8221,13 +8195,13 @@
       <c r="Y94" s="27"/>
       <c r="Z94" s="27"/>
       <c r="AA94" s="27"/>
-      <c r="AB94" s="75"/>
-      <c r="AC94" s="76"/>
-      <c r="AD94" s="76"/>
-      <c r="AE94" s="76"/>
-      <c r="AF94" s="76"/>
-      <c r="AG94" s="76"/>
-      <c r="AH94" s="77"/>
+      <c r="AB94" s="53"/>
+      <c r="AC94" s="54"/>
+      <c r="AD94" s="54"/>
+      <c r="AE94" s="54"/>
+      <c r="AF94" s="54"/>
+      <c r="AG94" s="54"/>
+      <c r="AH94" s="55"/>
     </row>
     <row r="95" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="15"/>
@@ -8253,13 +8227,13 @@
       <c r="Y95" s="27"/>
       <c r="Z95" s="27"/>
       <c r="AA95" s="27"/>
-      <c r="AB95" s="75"/>
-      <c r="AC95" s="76"/>
-      <c r="AD95" s="76"/>
-      <c r="AE95" s="76"/>
-      <c r="AF95" s="76"/>
-      <c r="AG95" s="76"/>
-      <c r="AH95" s="77"/>
+      <c r="AB95" s="53"/>
+      <c r="AC95" s="54"/>
+      <c r="AD95" s="54"/>
+      <c r="AE95" s="54"/>
+      <c r="AF95" s="54"/>
+      <c r="AG95" s="54"/>
+      <c r="AH95" s="55"/>
     </row>
     <row r="96" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E96" s="15"/>
@@ -8285,13 +8259,13 @@
       <c r="Y96" s="27"/>
       <c r="Z96" s="27"/>
       <c r="AA96" s="27"/>
-      <c r="AB96" s="75"/>
-      <c r="AC96" s="76"/>
-      <c r="AD96" s="76"/>
-      <c r="AE96" s="76"/>
-      <c r="AF96" s="76"/>
-      <c r="AG96" s="76"/>
-      <c r="AH96" s="77"/>
+      <c r="AB96" s="53"/>
+      <c r="AC96" s="54"/>
+      <c r="AD96" s="54"/>
+      <c r="AE96" s="54"/>
+      <c r="AF96" s="54"/>
+      <c r="AG96" s="54"/>
+      <c r="AH96" s="55"/>
     </row>
     <row r="97" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E97" s="15"/>
@@ -8317,13 +8291,13 @@
       <c r="Y97" s="27"/>
       <c r="Z97" s="27"/>
       <c r="AA97" s="27"/>
-      <c r="AB97" s="75"/>
-      <c r="AC97" s="76"/>
-      <c r="AD97" s="76"/>
-      <c r="AE97" s="76"/>
-      <c r="AF97" s="76"/>
-      <c r="AG97" s="76"/>
-      <c r="AH97" s="77"/>
+      <c r="AB97" s="53"/>
+      <c r="AC97" s="54"/>
+      <c r="AD97" s="54"/>
+      <c r="AE97" s="54"/>
+      <c r="AF97" s="54"/>
+      <c r="AG97" s="54"/>
+      <c r="AH97" s="55"/>
     </row>
     <row r="98" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E98" s="15"/>
@@ -8349,13 +8323,13 @@
       <c r="Y98" s="27"/>
       <c r="Z98" s="27"/>
       <c r="AA98" s="27"/>
-      <c r="AB98" s="75"/>
-      <c r="AC98" s="76"/>
-      <c r="AD98" s="76"/>
-      <c r="AE98" s="76"/>
-      <c r="AF98" s="76"/>
-      <c r="AG98" s="76"/>
-      <c r="AH98" s="77"/>
+      <c r="AB98" s="53"/>
+      <c r="AC98" s="54"/>
+      <c r="AD98" s="54"/>
+      <c r="AE98" s="54"/>
+      <c r="AF98" s="54"/>
+      <c r="AG98" s="54"/>
+      <c r="AH98" s="55"/>
     </row>
     <row r="99" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E99" s="15"/>
@@ -8381,145 +8355,145 @@
       <c r="Y99" s="27"/>
       <c r="Z99" s="27"/>
       <c r="AA99" s="27"/>
-      <c r="AB99" s="75"/>
-      <c r="AC99" s="76"/>
-      <c r="AD99" s="76"/>
-      <c r="AE99" s="76"/>
-      <c r="AF99" s="76"/>
-      <c r="AG99" s="76"/>
-      <c r="AH99" s="77"/>
+      <c r="AB99" s="53"/>
+      <c r="AC99" s="54"/>
+      <c r="AD99" s="54"/>
+      <c r="AE99" s="54"/>
+      <c r="AF99" s="54"/>
+      <c r="AG99" s="54"/>
+      <c r="AH99" s="55"/>
     </row>
     <row r="100" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E100" s="15"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="31"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="30"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="30"/>
-      <c r="P100" s="31"/>
-      <c r="Q100" s="30"/>
-      <c r="R100" s="30"/>
-      <c r="S100" s="30"/>
-      <c r="T100" s="29"/>
-      <c r="U100" s="30"/>
-      <c r="V100" s="30"/>
-      <c r="W100" s="31"/>
-      <c r="X100" s="30"/>
-      <c r="Y100" s="30"/>
-      <c r="Z100" s="30"/>
-      <c r="AA100" s="30"/>
-      <c r="AB100" s="78"/>
-      <c r="AC100" s="79"/>
-      <c r="AD100" s="79"/>
-      <c r="AE100" s="79"/>
-      <c r="AF100" s="79"/>
-      <c r="AG100" s="79"/>
-      <c r="AH100" s="80"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="28"/>
+      <c r="Q100" s="27"/>
+      <c r="R100" s="27"/>
+      <c r="S100" s="27"/>
+      <c r="T100" s="26"/>
+      <c r="U100" s="27"/>
+      <c r="V100" s="27"/>
+      <c r="W100" s="28"/>
+      <c r="X100" s="27"/>
+      <c r="Y100" s="27"/>
+      <c r="Z100" s="27"/>
+      <c r="AA100" s="27"/>
+      <c r="AB100" s="53"/>
+      <c r="AC100" s="54"/>
+      <c r="AD100" s="54"/>
+      <c r="AE100" s="54"/>
+      <c r="AF100" s="54"/>
+      <c r="AG100" s="54"/>
+      <c r="AH100" s="55"/>
     </row>
     <row r="101" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="15"/>
-      <c r="F101" s="23">
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="27"/>
+      <c r="N101" s="26"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="28"/>
+      <c r="Q101" s="27"/>
+      <c r="R101" s="27"/>
+      <c r="S101" s="27"/>
+      <c r="T101" s="26"/>
+      <c r="U101" s="27"/>
+      <c r="V101" s="27"/>
+      <c r="W101" s="28"/>
+      <c r="X101" s="27"/>
+      <c r="Y101" s="27"/>
+      <c r="Z101" s="27"/>
+      <c r="AA101" s="27"/>
+      <c r="AB101" s="53"/>
+      <c r="AC101" s="54"/>
+      <c r="AD101" s="54"/>
+      <c r="AE101" s="54"/>
+      <c r="AF101" s="54"/>
+      <c r="AG101" s="54"/>
+      <c r="AH101" s="55"/>
+    </row>
+    <row r="102" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E102" s="15"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="30"/>
+      <c r="M102" s="30"/>
+      <c r="N102" s="29"/>
+      <c r="O102" s="30"/>
+      <c r="P102" s="31"/>
+      <c r="Q102" s="30"/>
+      <c r="R102" s="30"/>
+      <c r="S102" s="30"/>
+      <c r="T102" s="29"/>
+      <c r="U102" s="30"/>
+      <c r="V102" s="30"/>
+      <c r="W102" s="31"/>
+      <c r="X102" s="30"/>
+      <c r="Y102" s="30"/>
+      <c r="Z102" s="30"/>
+      <c r="AA102" s="30"/>
+      <c r="AB102" s="56"/>
+      <c r="AC102" s="57"/>
+      <c r="AD102" s="57"/>
+      <c r="AE102" s="57"/>
+      <c r="AF102" s="57"/>
+      <c r="AG102" s="57"/>
+      <c r="AH102" s="58"/>
+    </row>
+    <row r="103" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E103" s="15"/>
+      <c r="F103" s="23">
         <v>7</v>
       </c>
-      <c r="G101" s="23"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="25"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="23"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="25"/>
-      <c r="Q101" s="24"/>
-      <c r="R101" s="24"/>
-      <c r="S101" s="24"/>
-      <c r="T101" s="23"/>
-      <c r="U101" s="24"/>
-      <c r="V101" s="24"/>
-      <c r="W101" s="25"/>
-      <c r="X101" s="24"/>
-      <c r="Y101" s="24"/>
-      <c r="Z101" s="24"/>
-      <c r="AA101" s="24"/>
-      <c r="AB101" s="72" t="s">
+      <c r="G103" s="23"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="24"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="24"/>
+      <c r="S103" s="24"/>
+      <c r="T103" s="23"/>
+      <c r="U103" s="24"/>
+      <c r="V103" s="24"/>
+      <c r="W103" s="25"/>
+      <c r="X103" s="24"/>
+      <c r="Y103" s="24"/>
+      <c r="Z103" s="24"/>
+      <c r="AA103" s="24"/>
+      <c r="AB103" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AC101" s="73"/>
-      <c r="AD101" s="73"/>
-      <c r="AE101" s="73"/>
-      <c r="AF101" s="73"/>
-      <c r="AG101" s="73"/>
-      <c r="AH101" s="74"/>
-    </row>
-    <row r="102" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E102" s="15"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="27"/>
-      <c r="P102" s="28"/>
-      <c r="Q102" s="27"/>
-      <c r="R102" s="27"/>
-      <c r="S102" s="27"/>
-      <c r="T102" s="26"/>
-      <c r="U102" s="27"/>
-      <c r="V102" s="27"/>
-      <c r="W102" s="28"/>
-      <c r="X102" s="27"/>
-      <c r="Y102" s="27"/>
-      <c r="Z102" s="27"/>
-      <c r="AA102" s="27"/>
-      <c r="AB102" s="75"/>
-      <c r="AC102" s="76"/>
-      <c r="AD102" s="76"/>
-      <c r="AE102" s="76"/>
-      <c r="AF102" s="76"/>
-      <c r="AG102" s="76"/>
-      <c r="AH102" s="77"/>
-    </row>
-    <row r="103" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E103" s="15"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="28"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="26"/>
-      <c r="O103" s="27"/>
-      <c r="P103" s="28"/>
-      <c r="Q103" s="27"/>
-      <c r="R103" s="27"/>
-      <c r="S103" s="27"/>
-      <c r="T103" s="26"/>
-      <c r="U103" s="27"/>
-      <c r="V103" s="27"/>
-      <c r="W103" s="28"/>
-      <c r="X103" s="27"/>
-      <c r="Y103" s="27"/>
-      <c r="Z103" s="27"/>
-      <c r="AA103" s="27"/>
-      <c r="AB103" s="75"/>
-      <c r="AC103" s="76"/>
-      <c r="AD103" s="76"/>
-      <c r="AE103" s="76"/>
-      <c r="AF103" s="76"/>
-      <c r="AG103" s="76"/>
-      <c r="AH103" s="77"/>
+      <c r="AC103" s="51"/>
+      <c r="AD103" s="51"/>
+      <c r="AE103" s="51"/>
+      <c r="AF103" s="51"/>
+      <c r="AG103" s="51"/>
+      <c r="AH103" s="52"/>
     </row>
     <row r="104" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="15"/>
@@ -8545,13 +8519,13 @@
       <c r="Y104" s="27"/>
       <c r="Z104" s="27"/>
       <c r="AA104" s="27"/>
-      <c r="AB104" s="75"/>
-      <c r="AC104" s="76"/>
-      <c r="AD104" s="76"/>
-      <c r="AE104" s="76"/>
-      <c r="AF104" s="76"/>
-      <c r="AG104" s="76"/>
-      <c r="AH104" s="77"/>
+      <c r="AB104" s="53"/>
+      <c r="AC104" s="54"/>
+      <c r="AD104" s="54"/>
+      <c r="AE104" s="54"/>
+      <c r="AF104" s="54"/>
+      <c r="AG104" s="54"/>
+      <c r="AH104" s="55"/>
     </row>
     <row r="105" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E105" s="15"/>
@@ -8577,13 +8551,13 @@
       <c r="Y105" s="27"/>
       <c r="Z105" s="27"/>
       <c r="AA105" s="27"/>
-      <c r="AB105" s="75"/>
-      <c r="AC105" s="76"/>
-      <c r="AD105" s="76"/>
-      <c r="AE105" s="76"/>
-      <c r="AF105" s="76"/>
-      <c r="AG105" s="76"/>
-      <c r="AH105" s="77"/>
+      <c r="AB105" s="53"/>
+      <c r="AC105" s="54"/>
+      <c r="AD105" s="54"/>
+      <c r="AE105" s="54"/>
+      <c r="AF105" s="54"/>
+      <c r="AG105" s="54"/>
+      <c r="AH105" s="55"/>
     </row>
     <row r="106" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E106" s="15"/>
@@ -8609,13 +8583,13 @@
       <c r="Y106" s="27"/>
       <c r="Z106" s="27"/>
       <c r="AA106" s="27"/>
-      <c r="AB106" s="75"/>
-      <c r="AC106" s="76"/>
-      <c r="AD106" s="76"/>
-      <c r="AE106" s="76"/>
-      <c r="AF106" s="76"/>
-      <c r="AG106" s="76"/>
-      <c r="AH106" s="77"/>
+      <c r="AB106" s="53"/>
+      <c r="AC106" s="54"/>
+      <c r="AD106" s="54"/>
+      <c r="AE106" s="54"/>
+      <c r="AF106" s="54"/>
+      <c r="AG106" s="54"/>
+      <c r="AH106" s="55"/>
     </row>
     <row r="107" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E107" s="15"/>
@@ -8641,13 +8615,13 @@
       <c r="Y107" s="27"/>
       <c r="Z107" s="27"/>
       <c r="AA107" s="27"/>
-      <c r="AB107" s="75"/>
-      <c r="AC107" s="76"/>
-      <c r="AD107" s="76"/>
-      <c r="AE107" s="76"/>
-      <c r="AF107" s="76"/>
-      <c r="AG107" s="76"/>
-      <c r="AH107" s="77"/>
+      <c r="AB107" s="53"/>
+      <c r="AC107" s="54"/>
+      <c r="AD107" s="54"/>
+      <c r="AE107" s="54"/>
+      <c r="AF107" s="54"/>
+      <c r="AG107" s="54"/>
+      <c r="AH107" s="55"/>
     </row>
     <row r="108" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E108" s="15"/>
@@ -8673,179 +8647,179 @@
       <c r="Y108" s="27"/>
       <c r="Z108" s="27"/>
       <c r="AA108" s="27"/>
-      <c r="AB108" s="75"/>
-      <c r="AC108" s="76"/>
-      <c r="AD108" s="76"/>
-      <c r="AE108" s="76"/>
-      <c r="AF108" s="76"/>
-      <c r="AG108" s="76"/>
-      <c r="AH108" s="77"/>
+      <c r="AB108" s="53"/>
+      <c r="AC108" s="54"/>
+      <c r="AD108" s="54"/>
+      <c r="AE108" s="54"/>
+      <c r="AF108" s="54"/>
+      <c r="AG108" s="54"/>
+      <c r="AH108" s="55"/>
     </row>
     <row r="109" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E109" s="15"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="31"/>
-      <c r="K109" s="30"/>
-      <c r="L109" s="30"/>
-      <c r="M109" s="30"/>
-      <c r="N109" s="29"/>
-      <c r="O109" s="30"/>
-      <c r="P109" s="31"/>
-      <c r="Q109" s="30"/>
-      <c r="R109" s="30"/>
-      <c r="S109" s="30"/>
-      <c r="T109" s="29"/>
-      <c r="U109" s="30"/>
-      <c r="V109" s="30"/>
-      <c r="W109" s="31"/>
-      <c r="X109" s="30"/>
-      <c r="Y109" s="30"/>
-      <c r="Z109" s="30"/>
-      <c r="AA109" s="30"/>
-      <c r="AB109" s="78"/>
-      <c r="AC109" s="79"/>
-      <c r="AD109" s="79"/>
-      <c r="AE109" s="79"/>
-      <c r="AF109" s="79"/>
-      <c r="AG109" s="79"/>
-      <c r="AH109" s="80"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="27"/>
+      <c r="N109" s="26"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="28"/>
+      <c r="Q109" s="27"/>
+      <c r="R109" s="27"/>
+      <c r="S109" s="27"/>
+      <c r="T109" s="26"/>
+      <c r="U109" s="27"/>
+      <c r="V109" s="27"/>
+      <c r="W109" s="28"/>
+      <c r="X109" s="27"/>
+      <c r="Y109" s="27"/>
+      <c r="Z109" s="27"/>
+      <c r="AA109" s="27"/>
+      <c r="AB109" s="53"/>
+      <c r="AC109" s="54"/>
+      <c r="AD109" s="54"/>
+      <c r="AE109" s="54"/>
+      <c r="AF109" s="54"/>
+      <c r="AG109" s="54"/>
+      <c r="AH109" s="55"/>
     </row>
     <row r="110" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E110" s="15"/>
-      <c r="F110" s="89" t="s">
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="27"/>
+      <c r="N110" s="26"/>
+      <c r="O110" s="27"/>
+      <c r="P110" s="28"/>
+      <c r="Q110" s="27"/>
+      <c r="R110" s="27"/>
+      <c r="S110" s="27"/>
+      <c r="T110" s="26"/>
+      <c r="U110" s="27"/>
+      <c r="V110" s="27"/>
+      <c r="W110" s="28"/>
+      <c r="X110" s="27"/>
+      <c r="Y110" s="27"/>
+      <c r="Z110" s="27"/>
+      <c r="AA110" s="27"/>
+      <c r="AB110" s="53"/>
+      <c r="AC110" s="54"/>
+      <c r="AD110" s="54"/>
+      <c r="AE110" s="54"/>
+      <c r="AF110" s="54"/>
+      <c r="AG110" s="54"/>
+      <c r="AH110" s="55"/>
+    </row>
+    <row r="111" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E111" s="15"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="30"/>
+      <c r="M111" s="30"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="30"/>
+      <c r="P111" s="31"/>
+      <c r="Q111" s="30"/>
+      <c r="R111" s="30"/>
+      <c r="S111" s="30"/>
+      <c r="T111" s="29"/>
+      <c r="U111" s="30"/>
+      <c r="V111" s="30"/>
+      <c r="W111" s="31"/>
+      <c r="X111" s="30"/>
+      <c r="Y111" s="30"/>
+      <c r="Z111" s="30"/>
+      <c r="AA111" s="30"/>
+      <c r="AB111" s="56"/>
+      <c r="AC111" s="57"/>
+      <c r="AD111" s="57"/>
+      <c r="AE111" s="57"/>
+      <c r="AF111" s="57"/>
+      <c r="AG111" s="57"/>
+      <c r="AH111" s="58"/>
+    </row>
+    <row r="112" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E112" s="15"/>
+      <c r="F112" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G110" s="90"/>
-      <c r="H110" s="90"/>
-      <c r="I110" s="90"/>
-      <c r="J110" s="90"/>
-      <c r="K110" s="90"/>
-      <c r="L110" s="90"/>
-      <c r="M110" s="90"/>
-      <c r="N110" s="90"/>
-      <c r="O110" s="90"/>
-      <c r="P110" s="90"/>
-      <c r="Q110" s="90"/>
-      <c r="R110" s="90"/>
-      <c r="S110" s="90"/>
-      <c r="T110" s="90"/>
-      <c r="U110" s="90"/>
-      <c r="V110" s="90"/>
-      <c r="W110" s="90"/>
-      <c r="X110" s="90"/>
-      <c r="Y110" s="90"/>
-      <c r="Z110" s="90"/>
-      <c r="AA110" s="90"/>
-      <c r="AB110" s="90"/>
-      <c r="AC110" s="90"/>
-      <c r="AD110" s="90"/>
-      <c r="AE110" s="90"/>
-      <c r="AF110" s="90"/>
-      <c r="AG110" s="90"/>
-      <c r="AH110" s="91"/>
-    </row>
-    <row r="111" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E111" s="15"/>
-      <c r="F111" s="23">
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="71"/>
+      <c r="J112" s="71"/>
+      <c r="K112" s="71"/>
+      <c r="L112" s="71"/>
+      <c r="M112" s="71"/>
+      <c r="N112" s="71"/>
+      <c r="O112" s="71"/>
+      <c r="P112" s="71"/>
+      <c r="Q112" s="71"/>
+      <c r="R112" s="71"/>
+      <c r="S112" s="71"/>
+      <c r="T112" s="71"/>
+      <c r="U112" s="71"/>
+      <c r="V112" s="71"/>
+      <c r="W112" s="71"/>
+      <c r="X112" s="71"/>
+      <c r="Y112" s="71"/>
+      <c r="Z112" s="71"/>
+      <c r="AA112" s="71"/>
+      <c r="AB112" s="71"/>
+      <c r="AC112" s="71"/>
+      <c r="AD112" s="71"/>
+      <c r="AE112" s="71"/>
+      <c r="AF112" s="71"/>
+      <c r="AG112" s="71"/>
+      <c r="AH112" s="72"/>
+    </row>
+    <row r="113" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E113" s="15"/>
+      <c r="F113" s="23">
         <v>8</v>
       </c>
-      <c r="G111" s="23"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="24"/>
-      <c r="J111" s="25"/>
-      <c r="K111" s="24"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="24"/>
-      <c r="N111" s="23"/>
-      <c r="O111" s="24"/>
-      <c r="P111" s="25"/>
-      <c r="Q111" s="24"/>
-      <c r="R111" s="24"/>
-      <c r="S111" s="24"/>
-      <c r="T111" s="23"/>
-      <c r="U111" s="24"/>
-      <c r="V111" s="24"/>
-      <c r="W111" s="25"/>
-      <c r="X111" s="24"/>
-      <c r="Y111" s="24"/>
-      <c r="Z111" s="24"/>
-      <c r="AA111" s="25"/>
-      <c r="AB111" s="72" t="s">
+      <c r="G113" s="23"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="23"/>
+      <c r="O113" s="24"/>
+      <c r="P113" s="25"/>
+      <c r="Q113" s="24"/>
+      <c r="R113" s="24"/>
+      <c r="S113" s="24"/>
+      <c r="T113" s="23"/>
+      <c r="U113" s="24"/>
+      <c r="V113" s="24"/>
+      <c r="W113" s="25"/>
+      <c r="X113" s="24"/>
+      <c r="Y113" s="24"/>
+      <c r="Z113" s="24"/>
+      <c r="AA113" s="25"/>
+      <c r="AB113" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="AC111" s="73"/>
-      <c r="AD111" s="73"/>
-      <c r="AE111" s="73"/>
-      <c r="AF111" s="73"/>
-      <c r="AG111" s="73"/>
-      <c r="AH111" s="74"/>
-    </row>
-    <row r="112" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E112" s="15"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="27"/>
-      <c r="N112" s="26"/>
-      <c r="O112" s="27"/>
-      <c r="P112" s="28"/>
-      <c r="Q112" s="27"/>
-      <c r="R112" s="27"/>
-      <c r="S112" s="27"/>
-      <c r="T112" s="26"/>
-      <c r="U112" s="27"/>
-      <c r="V112" s="27"/>
-      <c r="W112" s="28"/>
-      <c r="X112" s="27"/>
-      <c r="Y112" s="27"/>
-      <c r="Z112" s="27"/>
-      <c r="AA112" s="28"/>
-      <c r="AB112" s="75"/>
-      <c r="AC112" s="76"/>
-      <c r="AD112" s="76"/>
-      <c r="AE112" s="76"/>
-      <c r="AF112" s="76"/>
-      <c r="AG112" s="76"/>
-      <c r="AH112" s="77"/>
-    </row>
-    <row r="113" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E113" s="15"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="27"/>
-      <c r="N113" s="26"/>
-      <c r="O113" s="27"/>
-      <c r="P113" s="28"/>
-      <c r="Q113" s="27"/>
-      <c r="R113" s="27"/>
-      <c r="S113" s="27"/>
-      <c r="T113" s="26"/>
-      <c r="U113" s="27"/>
-      <c r="V113" s="27"/>
-      <c r="W113" s="28"/>
-      <c r="X113" s="27"/>
-      <c r="Y113" s="27"/>
-      <c r="Z113" s="27"/>
-      <c r="AA113" s="28"/>
-      <c r="AB113" s="75"/>
-      <c r="AC113" s="76"/>
-      <c r="AD113" s="76"/>
-      <c r="AE113" s="76"/>
-      <c r="AF113" s="76"/>
-      <c r="AG113" s="76"/>
-      <c r="AH113" s="77"/>
+      <c r="AC113" s="51"/>
+      <c r="AD113" s="51"/>
+      <c r="AE113" s="51"/>
+      <c r="AF113" s="51"/>
+      <c r="AG113" s="51"/>
+      <c r="AH113" s="52"/>
     </row>
     <row r="114" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E114" s="15"/>
@@ -8870,14 +8844,14 @@
       <c r="X114" s="27"/>
       <c r="Y114" s="27"/>
       <c r="Z114" s="27"/>
-      <c r="AA114" s="27"/>
-      <c r="AB114" s="75"/>
-      <c r="AC114" s="76"/>
-      <c r="AD114" s="76"/>
-      <c r="AE114" s="76"/>
-      <c r="AF114" s="76"/>
-      <c r="AG114" s="76"/>
-      <c r="AH114" s="77"/>
+      <c r="AA114" s="28"/>
+      <c r="AB114" s="53"/>
+      <c r="AC114" s="54"/>
+      <c r="AD114" s="54"/>
+      <c r="AE114" s="54"/>
+      <c r="AF114" s="54"/>
+      <c r="AG114" s="54"/>
+      <c r="AH114" s="55"/>
     </row>
     <row r="115" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E115" s="15"/>
@@ -8902,14 +8876,14 @@
       <c r="X115" s="27"/>
       <c r="Y115" s="27"/>
       <c r="Z115" s="27"/>
-      <c r="AA115" s="27"/>
-      <c r="AB115" s="75"/>
-      <c r="AC115" s="76"/>
-      <c r="AD115" s="76"/>
-      <c r="AE115" s="76"/>
-      <c r="AF115" s="76"/>
-      <c r="AG115" s="76"/>
-      <c r="AH115" s="77"/>
+      <c r="AA115" s="28"/>
+      <c r="AB115" s="53"/>
+      <c r="AC115" s="54"/>
+      <c r="AD115" s="54"/>
+      <c r="AE115" s="54"/>
+      <c r="AF115" s="54"/>
+      <c r="AG115" s="54"/>
+      <c r="AH115" s="55"/>
     </row>
     <row r="116" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E116" s="15"/>
@@ -8935,13 +8909,13 @@
       <c r="Y116" s="27"/>
       <c r="Z116" s="27"/>
       <c r="AA116" s="27"/>
-      <c r="AB116" s="75"/>
-      <c r="AC116" s="76"/>
-      <c r="AD116" s="76"/>
-      <c r="AE116" s="76"/>
-      <c r="AF116" s="76"/>
-      <c r="AG116" s="76"/>
-      <c r="AH116" s="77"/>
+      <c r="AB116" s="53"/>
+      <c r="AC116" s="54"/>
+      <c r="AD116" s="54"/>
+      <c r="AE116" s="54"/>
+      <c r="AF116" s="54"/>
+      <c r="AG116" s="54"/>
+      <c r="AH116" s="55"/>
     </row>
     <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E117" s="15"/>
@@ -8967,13 +8941,13 @@
       <c r="Y117" s="27"/>
       <c r="Z117" s="27"/>
       <c r="AA117" s="27"/>
-      <c r="AB117" s="75"/>
-      <c r="AC117" s="76"/>
-      <c r="AD117" s="76"/>
-      <c r="AE117" s="76"/>
-      <c r="AF117" s="76"/>
-      <c r="AG117" s="76"/>
-      <c r="AH117" s="77"/>
+      <c r="AB117" s="53"/>
+      <c r="AC117" s="54"/>
+      <c r="AD117" s="54"/>
+      <c r="AE117" s="54"/>
+      <c r="AF117" s="54"/>
+      <c r="AG117" s="54"/>
+      <c r="AH117" s="55"/>
     </row>
     <row r="118" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E118" s="15"/>
@@ -8999,13 +8973,13 @@
       <c r="Y118" s="27"/>
       <c r="Z118" s="27"/>
       <c r="AA118" s="27"/>
-      <c r="AB118" s="75"/>
-      <c r="AC118" s="76"/>
-      <c r="AD118" s="76"/>
-      <c r="AE118" s="76"/>
-      <c r="AF118" s="76"/>
-      <c r="AG118" s="76"/>
-      <c r="AH118" s="77"/>
+      <c r="AB118" s="53"/>
+      <c r="AC118" s="54"/>
+      <c r="AD118" s="54"/>
+      <c r="AE118" s="54"/>
+      <c r="AF118" s="54"/>
+      <c r="AG118" s="54"/>
+      <c r="AH118" s="55"/>
     </row>
     <row r="119" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E119" s="15"/>
@@ -9031,13 +9005,13 @@
       <c r="Y119" s="27"/>
       <c r="Z119" s="27"/>
       <c r="AA119" s="27"/>
-      <c r="AB119" s="75"/>
-      <c r="AC119" s="76"/>
-      <c r="AD119" s="76"/>
-      <c r="AE119" s="76"/>
-      <c r="AF119" s="76"/>
-      <c r="AG119" s="76"/>
-      <c r="AH119" s="77"/>
+      <c r="AB119" s="53"/>
+      <c r="AC119" s="54"/>
+      <c r="AD119" s="54"/>
+      <c r="AE119" s="54"/>
+      <c r="AF119" s="54"/>
+      <c r="AG119" s="54"/>
+      <c r="AH119" s="55"/>
     </row>
     <row r="120" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E120" s="15"/>
@@ -9063,145 +9037,145 @@
       <c r="Y120" s="27"/>
       <c r="Z120" s="27"/>
       <c r="AA120" s="27"/>
-      <c r="AB120" s="75"/>
-      <c r="AC120" s="76"/>
-      <c r="AD120" s="76"/>
-      <c r="AE120" s="76"/>
-      <c r="AF120" s="76"/>
-      <c r="AG120" s="76"/>
-      <c r="AH120" s="77"/>
+      <c r="AB120" s="53"/>
+      <c r="AC120" s="54"/>
+      <c r="AD120" s="54"/>
+      <c r="AE120" s="54"/>
+      <c r="AF120" s="54"/>
+      <c r="AG120" s="54"/>
+      <c r="AH120" s="55"/>
     </row>
     <row r="121" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="15"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="30"/>
-      <c r="I121" s="30"/>
-      <c r="J121" s="31"/>
-      <c r="K121" s="30"/>
-      <c r="L121" s="30"/>
-      <c r="M121" s="30"/>
-      <c r="N121" s="29"/>
-      <c r="O121" s="30"/>
-      <c r="P121" s="31"/>
-      <c r="Q121" s="30"/>
-      <c r="R121" s="30"/>
-      <c r="S121" s="30"/>
-      <c r="T121" s="29"/>
-      <c r="U121" s="30"/>
-      <c r="V121" s="30"/>
-      <c r="W121" s="31"/>
-      <c r="X121" s="30"/>
-      <c r="Y121" s="30"/>
-      <c r="Z121" s="30"/>
-      <c r="AA121" s="30"/>
-      <c r="AB121" s="78"/>
-      <c r="AC121" s="79"/>
-      <c r="AD121" s="79"/>
-      <c r="AE121" s="79"/>
-      <c r="AF121" s="79"/>
-      <c r="AG121" s="79"/>
-      <c r="AH121" s="80"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="27"/>
+      <c r="M121" s="27"/>
+      <c r="N121" s="26"/>
+      <c r="O121" s="27"/>
+      <c r="P121" s="28"/>
+      <c r="Q121" s="27"/>
+      <c r="R121" s="27"/>
+      <c r="S121" s="27"/>
+      <c r="T121" s="26"/>
+      <c r="U121" s="27"/>
+      <c r="V121" s="27"/>
+      <c r="W121" s="28"/>
+      <c r="X121" s="27"/>
+      <c r="Y121" s="27"/>
+      <c r="Z121" s="27"/>
+      <c r="AA121" s="27"/>
+      <c r="AB121" s="53"/>
+      <c r="AC121" s="54"/>
+      <c r="AD121" s="54"/>
+      <c r="AE121" s="54"/>
+      <c r="AF121" s="54"/>
+      <c r="AG121" s="54"/>
+      <c r="AH121" s="55"/>
     </row>
     <row r="122" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="15"/>
-      <c r="F122" s="23">
+      <c r="F122" s="26"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="27"/>
+      <c r="N122" s="26"/>
+      <c r="O122" s="27"/>
+      <c r="P122" s="28"/>
+      <c r="Q122" s="27"/>
+      <c r="R122" s="27"/>
+      <c r="S122" s="27"/>
+      <c r="T122" s="26"/>
+      <c r="U122" s="27"/>
+      <c r="V122" s="27"/>
+      <c r="W122" s="28"/>
+      <c r="X122" s="27"/>
+      <c r="Y122" s="27"/>
+      <c r="Z122" s="27"/>
+      <c r="AA122" s="27"/>
+      <c r="AB122" s="53"/>
+      <c r="AC122" s="54"/>
+      <c r="AD122" s="54"/>
+      <c r="AE122" s="54"/>
+      <c r="AF122" s="54"/>
+      <c r="AG122" s="54"/>
+      <c r="AH122" s="55"/>
+    </row>
+    <row r="123" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E123" s="15"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="31"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="30"/>
+      <c r="M123" s="30"/>
+      <c r="N123" s="29"/>
+      <c r="O123" s="30"/>
+      <c r="P123" s="31"/>
+      <c r="Q123" s="30"/>
+      <c r="R123" s="30"/>
+      <c r="S123" s="30"/>
+      <c r="T123" s="29"/>
+      <c r="U123" s="30"/>
+      <c r="V123" s="30"/>
+      <c r="W123" s="31"/>
+      <c r="X123" s="30"/>
+      <c r="Y123" s="30"/>
+      <c r="Z123" s="30"/>
+      <c r="AA123" s="30"/>
+      <c r="AB123" s="56"/>
+      <c r="AC123" s="57"/>
+      <c r="AD123" s="57"/>
+      <c r="AE123" s="57"/>
+      <c r="AF123" s="57"/>
+      <c r="AG123" s="57"/>
+      <c r="AH123" s="58"/>
+    </row>
+    <row r="124" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E124" s="15"/>
+      <c r="F124" s="23">
         <v>9</v>
       </c>
-      <c r="G122" s="23"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="25"/>
-      <c r="K122" s="24"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="24"/>
-      <c r="N122" s="23"/>
-      <c r="O122" s="24"/>
-      <c r="P122" s="25"/>
-      <c r="Q122" s="24"/>
-      <c r="R122" s="24"/>
-      <c r="S122" s="24"/>
-      <c r="T122" s="23"/>
-      <c r="U122" s="24"/>
-      <c r="V122" s="24"/>
-      <c r="W122" s="25"/>
-      <c r="X122" s="24"/>
-      <c r="Y122" s="24"/>
-      <c r="Z122" s="24"/>
-      <c r="AA122" s="25"/>
-      <c r="AB122" s="72" t="s">
+      <c r="G124" s="23"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="23"/>
+      <c r="O124" s="24"/>
+      <c r="P124" s="25"/>
+      <c r="Q124" s="24"/>
+      <c r="R124" s="24"/>
+      <c r="S124" s="24"/>
+      <c r="T124" s="23"/>
+      <c r="U124" s="24"/>
+      <c r="V124" s="24"/>
+      <c r="W124" s="25"/>
+      <c r="X124" s="24"/>
+      <c r="Y124" s="24"/>
+      <c r="Z124" s="24"/>
+      <c r="AA124" s="25"/>
+      <c r="AB124" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="AC122" s="73"/>
-      <c r="AD122" s="73"/>
-      <c r="AE122" s="73"/>
-      <c r="AF122" s="73"/>
-      <c r="AG122" s="73"/>
-      <c r="AH122" s="74"/>
-    </row>
-    <row r="123" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E123" s="15"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="28"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="27"/>
-      <c r="M123" s="27"/>
-      <c r="N123" s="26"/>
-      <c r="O123" s="27"/>
-      <c r="P123" s="28"/>
-      <c r="Q123" s="27"/>
-      <c r="R123" s="27"/>
-      <c r="S123" s="27"/>
-      <c r="T123" s="26"/>
-      <c r="U123" s="27"/>
-      <c r="V123" s="27"/>
-      <c r="W123" s="28"/>
-      <c r="X123" s="27"/>
-      <c r="Y123" s="27"/>
-      <c r="Z123" s="27"/>
-      <c r="AA123" s="28"/>
-      <c r="AB123" s="75"/>
-      <c r="AC123" s="76"/>
-      <c r="AD123" s="76"/>
-      <c r="AE123" s="76"/>
-      <c r="AF123" s="76"/>
-      <c r="AG123" s="76"/>
-      <c r="AH123" s="77"/>
-    </row>
-    <row r="124" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E124" s="15"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="28"/>
-      <c r="K124" s="27"/>
-      <c r="L124" s="27"/>
-      <c r="M124" s="27"/>
-      <c r="N124" s="26"/>
-      <c r="O124" s="27"/>
-      <c r="P124" s="28"/>
-      <c r="Q124" s="27"/>
-      <c r="R124" s="27"/>
-      <c r="S124" s="27"/>
-      <c r="T124" s="26"/>
-      <c r="U124" s="27"/>
-      <c r="V124" s="27"/>
-      <c r="W124" s="28"/>
-      <c r="X124" s="27"/>
-      <c r="Y124" s="27"/>
-      <c r="Z124" s="27"/>
-      <c r="AA124" s="27"/>
-      <c r="AB124" s="75"/>
-      <c r="AC124" s="76"/>
-      <c r="AD124" s="76"/>
-      <c r="AE124" s="76"/>
-      <c r="AF124" s="76"/>
-      <c r="AG124" s="76"/>
-      <c r="AH124" s="77"/>
+      <c r="AC124" s="51"/>
+      <c r="AD124" s="51"/>
+      <c r="AE124" s="51"/>
+      <c r="AF124" s="51"/>
+      <c r="AG124" s="51"/>
+      <c r="AH124" s="52"/>
     </row>
     <row r="125" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E125" s="15"/>
@@ -9226,14 +9200,14 @@
       <c r="X125" s="27"/>
       <c r="Y125" s="27"/>
       <c r="Z125" s="27"/>
-      <c r="AA125" s="27"/>
-      <c r="AB125" s="75"/>
-      <c r="AC125" s="76"/>
-      <c r="AD125" s="76"/>
-      <c r="AE125" s="76"/>
-      <c r="AF125" s="76"/>
-      <c r="AG125" s="76"/>
-      <c r="AH125" s="77"/>
+      <c r="AA125" s="28"/>
+      <c r="AB125" s="53"/>
+      <c r="AC125" s="54"/>
+      <c r="AD125" s="54"/>
+      <c r="AE125" s="54"/>
+      <c r="AF125" s="54"/>
+      <c r="AG125" s="54"/>
+      <c r="AH125" s="55"/>
     </row>
     <row r="126" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E126" s="15"/>
@@ -9259,13 +9233,13 @@
       <c r="Y126" s="27"/>
       <c r="Z126" s="27"/>
       <c r="AA126" s="27"/>
-      <c r="AB126" s="75"/>
-      <c r="AC126" s="76"/>
-      <c r="AD126" s="76"/>
-      <c r="AE126" s="76"/>
-      <c r="AF126" s="76"/>
-      <c r="AG126" s="76"/>
-      <c r="AH126" s="77"/>
+      <c r="AB126" s="53"/>
+      <c r="AC126" s="54"/>
+      <c r="AD126" s="54"/>
+      <c r="AE126" s="54"/>
+      <c r="AF126" s="54"/>
+      <c r="AG126" s="54"/>
+      <c r="AH126" s="55"/>
     </row>
     <row r="127" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E127" s="15"/>
@@ -9291,13 +9265,13 @@
       <c r="Y127" s="27"/>
       <c r="Z127" s="27"/>
       <c r="AA127" s="27"/>
-      <c r="AB127" s="75"/>
-      <c r="AC127" s="76"/>
-      <c r="AD127" s="76"/>
-      <c r="AE127" s="76"/>
-      <c r="AF127" s="76"/>
-      <c r="AG127" s="76"/>
-      <c r="AH127" s="77"/>
+      <c r="AB127" s="53"/>
+      <c r="AC127" s="54"/>
+      <c r="AD127" s="54"/>
+      <c r="AE127" s="54"/>
+      <c r="AF127" s="54"/>
+      <c r="AG127" s="54"/>
+      <c r="AH127" s="55"/>
     </row>
     <row r="128" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E128" s="15"/>
@@ -9323,13 +9297,13 @@
       <c r="Y128" s="27"/>
       <c r="Z128" s="27"/>
       <c r="AA128" s="27"/>
-      <c r="AB128" s="75"/>
-      <c r="AC128" s="76"/>
-      <c r="AD128" s="76"/>
-      <c r="AE128" s="76"/>
-      <c r="AF128" s="76"/>
-      <c r="AG128" s="76"/>
-      <c r="AH128" s="77"/>
+      <c r="AB128" s="53"/>
+      <c r="AC128" s="54"/>
+      <c r="AD128" s="54"/>
+      <c r="AE128" s="54"/>
+      <c r="AF128" s="54"/>
+      <c r="AG128" s="54"/>
+      <c r="AH128" s="55"/>
     </row>
     <row r="129" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E129" s="15"/>
@@ -9355,234 +9329,296 @@
       <c r="Y129" s="27"/>
       <c r="Z129" s="27"/>
       <c r="AA129" s="27"/>
-      <c r="AB129" s="75"/>
-      <c r="AC129" s="76"/>
-      <c r="AD129" s="76"/>
-      <c r="AE129" s="76"/>
-      <c r="AF129" s="76"/>
-      <c r="AG129" s="76"/>
-      <c r="AH129" s="77"/>
+      <c r="AB129" s="53"/>
+      <c r="AC129" s="54"/>
+      <c r="AD129" s="54"/>
+      <c r="AE129" s="54"/>
+      <c r="AF129" s="54"/>
+      <c r="AG129" s="54"/>
+      <c r="AH129" s="55"/>
     </row>
     <row r="130" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E130" s="15"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
-      <c r="H130" s="30"/>
-      <c r="I130" s="30"/>
-      <c r="J130" s="31"/>
-      <c r="K130" s="30"/>
-      <c r="L130" s="30"/>
-      <c r="M130" s="30"/>
-      <c r="N130" s="29"/>
-      <c r="O130" s="30"/>
-      <c r="P130" s="31"/>
-      <c r="Q130" s="30"/>
-      <c r="R130" s="30"/>
-      <c r="S130" s="30"/>
-      <c r="T130" s="29"/>
-      <c r="U130" s="30"/>
-      <c r="V130" s="30"/>
-      <c r="W130" s="31"/>
-      <c r="X130" s="30"/>
-      <c r="Y130" s="30"/>
-      <c r="Z130" s="30"/>
-      <c r="AA130" s="30"/>
-      <c r="AB130" s="78"/>
-      <c r="AC130" s="79"/>
-      <c r="AD130" s="79"/>
-      <c r="AE130" s="79"/>
-      <c r="AF130" s="79"/>
-      <c r="AG130" s="79"/>
-      <c r="AH130" s="80"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="27"/>
+      <c r="M130" s="27"/>
+      <c r="N130" s="26"/>
+      <c r="O130" s="27"/>
+      <c r="P130" s="28"/>
+      <c r="Q130" s="27"/>
+      <c r="R130" s="27"/>
+      <c r="S130" s="27"/>
+      <c r="T130" s="26"/>
+      <c r="U130" s="27"/>
+      <c r="V130" s="27"/>
+      <c r="W130" s="28"/>
+      <c r="X130" s="27"/>
+      <c r="Y130" s="27"/>
+      <c r="Z130" s="27"/>
+      <c r="AA130" s="27"/>
+      <c r="AB130" s="53"/>
+      <c r="AC130" s="54"/>
+      <c r="AD130" s="54"/>
+      <c r="AE130" s="54"/>
+      <c r="AF130" s="54"/>
+      <c r="AG130" s="54"/>
+      <c r="AH130" s="55"/>
     </row>
     <row r="131" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E131" s="15"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="27"/>
+      <c r="M131" s="27"/>
+      <c r="N131" s="26"/>
+      <c r="O131" s="27"/>
+      <c r="P131" s="28"/>
+      <c r="Q131" s="27"/>
+      <c r="R131" s="27"/>
+      <c r="S131" s="27"/>
+      <c r="T131" s="26"/>
+      <c r="U131" s="27"/>
+      <c r="V131" s="27"/>
+      <c r="W131" s="28"/>
+      <c r="X131" s="27"/>
+      <c r="Y131" s="27"/>
+      <c r="Z131" s="27"/>
+      <c r="AA131" s="27"/>
+      <c r="AB131" s="53"/>
+      <c r="AC131" s="54"/>
+      <c r="AD131" s="54"/>
+      <c r="AE131" s="54"/>
+      <c r="AF131" s="54"/>
+      <c r="AG131" s="54"/>
+      <c r="AH131" s="55"/>
     </row>
     <row r="132" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E132" s="15"/>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="31"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="30"/>
+      <c r="M132" s="30"/>
+      <c r="N132" s="29"/>
+      <c r="O132" s="30"/>
+      <c r="P132" s="31"/>
+      <c r="Q132" s="30"/>
+      <c r="R132" s="30"/>
+      <c r="S132" s="30"/>
+      <c r="T132" s="29"/>
+      <c r="U132" s="30"/>
+      <c r="V132" s="30"/>
+      <c r="W132" s="31"/>
+      <c r="X132" s="30"/>
+      <c r="Y132" s="30"/>
+      <c r="Z132" s="30"/>
+      <c r="AA132" s="30"/>
+      <c r="AB132" s="56"/>
+      <c r="AC132" s="57"/>
+      <c r="AD132" s="57"/>
+      <c r="AE132" s="57"/>
+      <c r="AF132" s="57"/>
+      <c r="AG132" s="57"/>
+      <c r="AH132" s="58"/>
+    </row>
+    <row r="133" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E133" s="15"/>
+    </row>
+    <row r="134" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E134" s="15"/>
+      <c r="F134" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H132" s="4" t="s">
+      <c r="H134" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E133" s="15"/>
-      <c r="H133" s="4" t="s">
+    <row r="135" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E135" s="15"/>
+      <c r="H135" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E134" s="15"/>
-      <c r="H134" s="4" t="s">
+    <row r="136" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E136" s="15"/>
+      <c r="H136" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D135" s="18"/>
-      <c r="H135" s="16" t="s">
+    <row r="137" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="18"/>
+      <c r="H137" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="136" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D136" s="18"/>
-    </row>
-    <row r="137" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="138" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D138" s="15" t="str">
+    <row r="138" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D138" s="18"/>
+    </row>
+    <row r="139" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D140" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.2.3.</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E140" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E139" s="16" t="s">
+    <row r="141" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E141" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="141" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="142" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D142" s="15" t="str">
+    <row r="142" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D144" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.2.4.</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E144" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E143" s="16" t="s">
+    <row r="145" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E145" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="17"/>
-      <c r="K143" s="17"/>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
-      <c r="R143" s="17"/>
-      <c r="S143" s="17"/>
-      <c r="T143" s="17"/>
-      <c r="U143" s="17"/>
-      <c r="V143" s="17"/>
-      <c r="W143" s="17"/>
-      <c r="X143" s="17"/>
-      <c r="Y143" s="17"/>
-      <c r="Z143" s="17"/>
-      <c r="AA143" s="17"/>
-      <c r="AB143" s="17"/>
-      <c r="AC143" s="17"/>
-      <c r="AD143" s="17"/>
-      <c r="AE143" s="17"/>
-      <c r="AF143" s="17"/>
-      <c r="AG143" s="17"/>
-      <c r="AH143" s="17"/>
-    </row>
-    <row r="144" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D144" s="15"/>
-    </row>
-    <row r="145" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="146" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D146" s="15" t="str">
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
+      <c r="R145" s="17"/>
+      <c r="S145" s="17"/>
+      <c r="T145" s="17"/>
+      <c r="U145" s="17"/>
+      <c r="V145" s="17"/>
+      <c r="W145" s="17"/>
+      <c r="X145" s="17"/>
+      <c r="Y145" s="17"/>
+      <c r="Z145" s="17"/>
+      <c r="AA145" s="17"/>
+      <c r="AB145" s="17"/>
+      <c r="AC145" s="17"/>
+      <c r="AD145" s="17"/>
+      <c r="AE145" s="17"/>
+      <c r="AF145" s="17"/>
+      <c r="AG145" s="17"/>
+      <c r="AH145" s="17"/>
+    </row>
+    <row r="146" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D146" s="15"/>
+    </row>
+    <row r="147" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="148" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D148" s="15" t="str">
         <f>$C$7&amp;"5."</f>
         <v>6.2.5.</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E148" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E147" s="16" t="s">
+    <row r="149" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E149" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E148" s="16" t="s">
+    <row r="150" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E150" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="150" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E150" s="18" t="s">
+    <row r="151" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="152" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E152" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F150" s="16" t="s">
+      <c r="F152" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F151" s="16" t="s">
+    <row r="153" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F153" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F152" s="16" t="s">
+    <row r="154" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F154" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="154" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D154" s="15" t="str">
+    <row r="155" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="156" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D156" s="15" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.2.6.</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E156" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E155" s="16" t="s">
+    <row r="157" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E157" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="157" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E157" s="18" t="s">
+    <row r="158" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E159" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F157" s="16" t="s">
+      <c r="F159" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="158" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F158" s="16" t="s">
+    <row r="160" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F160" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F159" s="16" t="s">
+    <row r="161" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F161" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="161" spans="4:4" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="162" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D162" s="16"/>
-    </row>
-    <row r="163" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="163" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="164" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D164" s="16"/>
+    </row>
+    <row r="165" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="177" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="178" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10000,19 +10036,10 @@
     <row r="591" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="592" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="593" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AB122:AH130"/>
-    <mergeCell ref="AB89:AH100"/>
-    <mergeCell ref="AB101:AH109"/>
-    <mergeCell ref="AB111:AH121"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB66:AH75"/>
-    <mergeCell ref="AB76:AH88"/>
-    <mergeCell ref="AB53:AH65"/>
-    <mergeCell ref="AB41:AH52"/>
-    <mergeCell ref="AB32:AH40"/>
-    <mergeCell ref="F110:AH110"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -10023,15 +10050,26 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AB124:AH132"/>
+    <mergeCell ref="AB91:AH102"/>
+    <mergeCell ref="AB103:AH111"/>
+    <mergeCell ref="AB113:AH123"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB68:AH77"/>
+    <mergeCell ref="AB78:AH90"/>
+    <mergeCell ref="AB55:AH67"/>
+    <mergeCell ref="AB43:AH54"/>
+    <mergeCell ref="AB34:AH42"/>
+    <mergeCell ref="F112:AH112"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="25" max="34" man="1"/>
-    <brk id="65" max="34" man="1"/>
-    <brk id="110" max="34" man="1"/>
-    <brk id="153" max="34" man="1"/>
+    <brk id="27" max="34" man="1"/>
+    <brk id="67" max="34" man="1"/>
+    <brk id="112" max="34" man="1"/>
+    <brk id="155" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69002BBE-01A4-4530-AD45-16AF9201E5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E647B14B-AA1B-440E-A050-50BAC119C8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="6.2.ファイル転送（配信）" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$179</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -186,75 +186,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HULFTと比べると、追加のミドルウェアをインストールすることなく運用することが可能である。</t>
-    <rPh sb="6" eb="7">
-      <t>クラ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>方針</t>
-  </si>
-  <si>
-    <t>理由</t>
-    <rPh sb="0" eb="2">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HULFT</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用する</t>
-  </si>
-  <si>
-    <t>外部IFの要件に基づき、HULFT通信を使用する。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FTP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用しない</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SFTP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>処理方式概要</t>
-  </si>
-  <si>
-    <t>上記の特徴を踏まえ、本システムでの選択基準を以下に示す。</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>本項では、ファイルの出力からファイルの配信に至るまでの処理について方式設計を行う。</t>
@@ -315,72 +247,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外部IFの要件に基づき、FTPによるファイル転送（配信）を使用しない。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハイシン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外部IFの要件に基づき、SFTPによるファイル転送（配信）を使用する。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハイシン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外部IFの要件に基づき、SCPによるファイル転送（配信）を使用しない。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハイシン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -589,26 +455,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>※HULFT独自の暗号化通信を行う。</t>
-    <rPh sb="6" eb="8">
-      <t>ドクジ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SCP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>≪HULFT配信の場合は以降を実施≫　　　　　　HULFTのジョブ連携機能を利用</t>
     <rPh sb="6" eb="8">
       <t>ハイシン</t>
@@ -714,35 +560,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>SCP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SFTPと比較すると、高速にファイルを転送することができるが、転送を中断した場合に再開ができない。</t>
-    <rPh sb="5" eb="7">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウソク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>チュウダン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サイカイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>上記１，２に関しては【7.11.暗号化・ハッシュ化】および【7.2.文字コード】を参照。</t>
     <rPh sb="0" eb="2">
       <t>ジョウキ</t>
@@ -803,26 +620,6 @@
     <rPh sb="73" eb="75">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SFTPと同じく、SSHによる暗号化によってセキュリティ対策が施されている。</t>
-    <rPh sb="5" eb="6">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ホドコ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用する</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -859,6 +656,45 @@
     </rPh>
     <rPh sb="103" eb="105">
       <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本システムでは、ファイル転送（配信）に以下の方法を使用する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SFTPクライアントの方式概要</t>
+    <rPh sb="11" eb="13">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【5.1.1.3.SFTPクライアントの方式概要】参照。</t>
+    <rPh sb="25" eb="27">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1199,9 +1035,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1382,6 +1215,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1409,13 +1245,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1471,13 +1307,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1574,13 +1410,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1642,13 +1478,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1745,13 +1581,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1813,13 +1649,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1881,13 +1717,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1949,13 +1785,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2009,13 +1845,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2069,13 +1905,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2129,13 +1965,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2213,13 +2049,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2281,13 +2117,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2341,13 +2177,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2409,13 +2245,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2469,13 +2305,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2537,13 +2373,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2651,13 +2487,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2735,13 +2571,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2794,13 +2630,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>261939</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2856,13 +2692,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2940,13 +2776,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3008,13 +2844,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3068,13 +2904,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3126,13 +2962,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3185,13 +3021,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3244,13 +3080,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3303,13 +3139,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3362,13 +3198,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3421,13 +3257,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3486,13 +3322,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3546,13 +3382,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3630,13 +3466,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3689,13 +3525,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3757,13 +3593,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>22226</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3817,13 +3653,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3901,13 +3737,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4005,13 +3841,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4064,13 +3900,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4132,13 +3968,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4192,13 +4028,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4257,13 +4093,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4317,13 +4153,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4376,13 +4212,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4444,13 +4280,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4512,13 +4348,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4596,13 +4432,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4656,13 +4492,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4724,13 +4560,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4782,13 +4618,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4850,13 +4686,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4918,13 +4754,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4986,13 +4822,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5054,13 +4890,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5122,13 +4958,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5186,13 +5022,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5250,13 +5086,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5314,13 +5150,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5398,13 +5234,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5780,7 +5616,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI610"/>
+  <dimension ref="A1:AI595"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -5796,43 +5632,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="77" t="s">
-        <v>72</v>
+      <c r="R1" s="76" t="s">
+        <v>57</v>
       </c>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="79"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="78"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="62"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="61"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -5841,43 +5677,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="85"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="88"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="87"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="62"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="61"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -5886,39 +5722,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="91"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="90"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="62"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="61"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5948,7 +5784,7 @@
         <v>6.2.1.</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5964,12 +5800,12 @@
     </row>
     <row r="11" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F11" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F12" s="16" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5984,16 +5820,15 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="4" t="str">
-        <f>D7&amp;"を行う機能には、以下の方法がある。"</f>
-        <v>ファイル転送（配信）を行う機能には、以下の方法がある。</v>
+      <c r="F15" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="19"/>
       <c r="F17" s="20" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -6029,13 +5864,13 @@
     <row r="18" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
       <c r="F18" s="23" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="23" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -6069,7 +5904,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="26" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -6133,13 +5968,13 @@
     <row r="21" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="19"/>
       <c r="F21" s="23" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="23" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
@@ -6173,7 +6008,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="26" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -6202,767 +6037,715 @@
     </row>
     <row r="23" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="19"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="26" t="s">
-        <v>77</v>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="29" t="s">
+        <v>62</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="28"/>
-    </row>
-    <row r="24" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="19"/>
-      <c r="F24" s="23" t="s">
-        <v>78</v>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="31"/>
+    </row>
+    <row r="24" spans="2:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="18"/>
+      <c r="E24" s="92"/>
+    </row>
+    <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="15" t="str">
+        <f>$D$9&amp;"3."</f>
+        <v>6.2.1.3.</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="23" t="s">
+      <c r="F25" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="15"/>
+      <c r="F26" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="15" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>6.2.2.</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="15"/>
+      <c r="F29" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="15"/>
+      <c r="F31" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="37"/>
+    </row>
+    <row r="32" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="15"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="42"/>
+    </row>
+    <row r="33" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="15"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="35"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="25"/>
-    </row>
-    <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="19"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="26" t="s">
-        <v>84</v>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="48"/>
+      <c r="AE33" s="48"/>
+      <c r="AF33" s="48"/>
+      <c r="AG33" s="48"/>
+      <c r="AH33" s="49"/>
+    </row>
+    <row r="34" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="15"/>
+      <c r="F34" s="23">
+        <v>1</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="28"/>
-    </row>
-    <row r="26" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="19"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="29" t="s">
-        <v>79</v>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="50" t="s">
+        <v>65</v>
       </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="31"/>
-    </row>
-    <row r="27" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="19"/>
-      <c r="F27" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="25"/>
-    </row>
-    <row r="28" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="19"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="31"/>
-    </row>
-    <row r="29" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="19"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
-    </row>
-    <row r="30" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="19"/>
-      <c r="F30" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F31" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="22"/>
-    </row>
-    <row r="32" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F32" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="28"/>
-    </row>
-    <row r="33" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="31"/>
-    </row>
-    <row r="34" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="28"/>
-    </row>
-    <row r="35" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="31"/>
-    </row>
-    <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="27"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="52"/>
+    </row>
+    <row r="35" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="15"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="54"/>
+      <c r="AH35" s="55"/>
+    </row>
+    <row r="36" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="15"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
       <c r="K36" s="27"/>
       <c r="L36" s="27"/>
       <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="32" t="s">
-        <v>47</v>
-      </c>
+      <c r="N36" s="26"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="28"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
+      <c r="T36" s="26"/>
       <c r="U36" s="27"/>
       <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
+      <c r="W36" s="28"/>
       <c r="X36" s="27"/>
       <c r="Y36" s="27"/>
       <c r="Z36" s="27"/>
       <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="28"/>
-    </row>
-    <row r="37" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="31"/>
-    </row>
-    <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="27"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="54"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="55"/>
+    </row>
+    <row r="37" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="15"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="54"/>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="54"/>
+      <c r="AG37" s="54"/>
+      <c r="AH37" s="55"/>
+    </row>
+    <row r="38" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="15"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="I38" s="27"/>
+      <c r="J38" s="28"/>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="32" t="s">
-        <v>45</v>
-      </c>
+      <c r="N38" s="26"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="28"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
+      <c r="T38" s="26"/>
       <c r="U38" s="27"/>
       <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
+      <c r="W38" s="28"/>
       <c r="X38" s="27"/>
       <c r="Y38" s="27"/>
       <c r="Z38" s="27"/>
       <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="28"/>
-    </row>
-    <row r="39" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="30"/>
-      <c r="AE39" s="30"/>
-      <c r="AF39" s="30"/>
-      <c r="AG39" s="30"/>
-      <c r="AH39" s="31"/>
-    </row>
-    <row r="40" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
+      <c r="AG38" s="54"/>
+      <c r="AH38" s="55"/>
+    </row>
+    <row r="39" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="15"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="54"/>
+      <c r="AH39" s="55"/>
+    </row>
+    <row r="40" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="15"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
+      <c r="J40" s="28"/>
       <c r="K40" s="27"/>
       <c r="L40" s="27"/>
       <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
+      <c r="N40" s="26"/>
       <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
+      <c r="P40" s="28"/>
       <c r="Q40" s="27"/>
       <c r="R40" s="27"/>
       <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
+      <c r="T40" s="26"/>
       <c r="U40" s="27"/>
       <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
+      <c r="W40" s="28"/>
       <c r="X40" s="27"/>
       <c r="Y40" s="27"/>
       <c r="Z40" s="27"/>
       <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-      <c r="AF40" s="27"/>
-      <c r="AG40" s="27"/>
-      <c r="AH40" s="27"/>
-    </row>
-    <row r="41" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="15" t="str">
-        <f>$C$7&amp;"2."</f>
-        <v>6.2.2.</v>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="54"/>
+      <c r="AE40" s="54"/>
+      <c r="AF40" s="54"/>
+      <c r="AG40" s="54"/>
+      <c r="AH40" s="55"/>
+    </row>
+    <row r="41" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="15"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="54"/>
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="55"/>
+    </row>
+    <row r="42" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="15"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="56"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="57"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57"/>
+      <c r="AH42" s="58"/>
+    </row>
+    <row r="43" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="15"/>
+      <c r="F43" s="23">
+        <v>2</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>12</v>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="50" t="s">
+        <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC43" s="51"/>
+      <c r="AD43" s="51"/>
+      <c r="AE43" s="51"/>
+      <c r="AF43" s="51"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="52"/>
+    </row>
+    <row r="44" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="15"/>
-      <c r="F44" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="53"/>
+      <c r="AC44" s="54"/>
+      <c r="AD44" s="54"/>
+      <c r="AE44" s="54"/>
+      <c r="AF44" s="54"/>
+      <c r="AG44" s="54"/>
+      <c r="AH44" s="55"/>
+    </row>
+    <row r="45" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="54"/>
+      <c r="AD45" s="54"/>
+      <c r="AE45" s="54"/>
+      <c r="AF45" s="54"/>
+      <c r="AG45" s="54"/>
+      <c r="AH45" s="55"/>
+    </row>
+    <row r="46" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="15"/>
-      <c r="F46" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="37"/>
-      <c r="AE46" s="37"/>
-      <c r="AF46" s="37"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" s="38"/>
-    </row>
-    <row r="47" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="53"/>
+      <c r="AC46" s="54"/>
+      <c r="AD46" s="54"/>
+      <c r="AE46" s="54"/>
+      <c r="AF46" s="54"/>
+      <c r="AG46" s="54"/>
+      <c r="AH46" s="55"/>
+    </row>
+    <row r="47" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" s="15"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="42"/>
-      <c r="AD47" s="42"/>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="43"/>
-    </row>
-    <row r="48" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="54"/>
+      <c r="AD47" s="54"/>
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="54"/>
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="55"/>
+    </row>
+    <row r="48" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E48" s="15"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="O48" s="36"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="U48" s="45"/>
-      <c r="V48" s="45"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="45"/>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AE48" s="49"/>
-      <c r="AF48" s="49"/>
-      <c r="AG48" s="49"/>
-      <c r="AH48" s="50"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="54"/>
+      <c r="AD48" s="54"/>
+      <c r="AE48" s="54"/>
+      <c r="AF48" s="54"/>
+      <c r="AG48" s="54"/>
+      <c r="AH48" s="55"/>
     </row>
     <row r="49" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="15"/>
-      <c r="F49" s="23">
-        <v>1</v>
-      </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC49" s="52"/>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="52"/>
-      <c r="AG49" s="52"/>
-      <c r="AH49" s="53"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="54"/>
+      <c r="AD49" s="54"/>
+      <c r="AE49" s="54"/>
+      <c r="AF49" s="54"/>
+      <c r="AG49" s="54"/>
+      <c r="AH49" s="55"/>
     </row>
     <row r="50" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="15"/>
@@ -6988,13 +6771,13 @@
       <c r="Y50" s="27"/>
       <c r="Z50" s="27"/>
       <c r="AA50" s="27"/>
-      <c r="AB50" s="54"/>
-      <c r="AC50" s="55"/>
-      <c r="AD50" s="55"/>
-      <c r="AE50" s="55"/>
-      <c r="AF50" s="55"/>
-      <c r="AG50" s="55"/>
-      <c r="AH50" s="56"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="54"/>
+      <c r="AD50" s="54"/>
+      <c r="AE50" s="54"/>
+      <c r="AF50" s="54"/>
+      <c r="AG50" s="54"/>
+      <c r="AH50" s="55"/>
     </row>
     <row r="51" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E51" s="15"/>
@@ -7020,13 +6803,13 @@
       <c r="Y51" s="27"/>
       <c r="Z51" s="27"/>
       <c r="AA51" s="27"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="55"/>
-      <c r="AD51" s="55"/>
-      <c r="AE51" s="55"/>
-      <c r="AF51" s="55"/>
-      <c r="AG51" s="55"/>
-      <c r="AH51" s="56"/>
+      <c r="AB51" s="53"/>
+      <c r="AC51" s="54"/>
+      <c r="AD51" s="54"/>
+      <c r="AE51" s="54"/>
+      <c r="AF51" s="54"/>
+      <c r="AG51" s="54"/>
+      <c r="AH51" s="55"/>
     </row>
     <row r="52" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" s="15"/>
@@ -7052,13 +6835,13 @@
       <c r="Y52" s="27"/>
       <c r="Z52" s="27"/>
       <c r="AA52" s="27"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="55"/>
-      <c r="AD52" s="55"/>
-      <c r="AE52" s="55"/>
-      <c r="AF52" s="55"/>
-      <c r="AG52" s="55"/>
-      <c r="AH52" s="56"/>
+      <c r="AB52" s="53"/>
+      <c r="AC52" s="54"/>
+      <c r="AD52" s="54"/>
+      <c r="AE52" s="54"/>
+      <c r="AF52" s="54"/>
+      <c r="AG52" s="54"/>
+      <c r="AH52" s="55"/>
     </row>
     <row r="53" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="15"/>
@@ -7084,77 +6867,81 @@
       <c r="Y53" s="27"/>
       <c r="Z53" s="27"/>
       <c r="AA53" s="27"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="55"/>
-      <c r="AD53" s="55"/>
-      <c r="AE53" s="55"/>
-      <c r="AF53" s="55"/>
-      <c r="AG53" s="55"/>
-      <c r="AH53" s="56"/>
+      <c r="AB53" s="53"/>
+      <c r="AC53" s="54"/>
+      <c r="AD53" s="54"/>
+      <c r="AE53" s="54"/>
+      <c r="AF53" s="54"/>
+      <c r="AG53" s="54"/>
+      <c r="AH53" s="55"/>
     </row>
     <row r="54" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" s="15"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="55"/>
-      <c r="AD54" s="55"/>
-      <c r="AE54" s="55"/>
-      <c r="AF54" s="55"/>
-      <c r="AG54" s="55"/>
-      <c r="AH54" s="56"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="56"/>
+      <c r="AC54" s="57"/>
+      <c r="AD54" s="57"/>
+      <c r="AE54" s="57"/>
+      <c r="AF54" s="57"/>
+      <c r="AG54" s="57"/>
+      <c r="AH54" s="58"/>
     </row>
     <row r="55" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="15"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="55"/>
-      <c r="AD55" s="55"/>
-      <c r="AE55" s="55"/>
-      <c r="AF55" s="55"/>
-      <c r="AG55" s="55"/>
-      <c r="AH55" s="56"/>
+      <c r="F55" s="23">
+        <v>3</v>
+      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="24"/>
+      <c r="AA55" s="24"/>
+      <c r="AB55" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="52"/>
     </row>
     <row r="56" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
@@ -7180,81 +6967,77 @@
       <c r="Y56" s="27"/>
       <c r="Z56" s="27"/>
       <c r="AA56" s="27"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="55"/>
-      <c r="AE56" s="55"/>
-      <c r="AF56" s="55"/>
-      <c r="AG56" s="55"/>
-      <c r="AH56" s="56"/>
+      <c r="AB56" s="53"/>
+      <c r="AC56" s="54"/>
+      <c r="AD56" s="54"/>
+      <c r="AE56" s="54"/>
+      <c r="AF56" s="54"/>
+      <c r="AG56" s="54"/>
+      <c r="AH56" s="55"/>
     </row>
     <row r="57" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30"/>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="57"/>
-      <c r="AC57" s="58"/>
-      <c r="AD57" s="58"/>
-      <c r="AE57" s="58"/>
-      <c r="AF57" s="58"/>
-      <c r="AG57" s="58"/>
-      <c r="AH57" s="59"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="53"/>
+      <c r="AC57" s="54"/>
+      <c r="AD57" s="54"/>
+      <c r="AE57" s="54"/>
+      <c r="AF57" s="54"/>
+      <c r="AG57" s="54"/>
+      <c r="AH57" s="55"/>
     </row>
     <row r="58" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
-      <c r="F58" s="23">
-        <v>2</v>
-      </c>
-      <c r="G58" s="23"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="24"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="25"/>
-      <c r="X58" s="24"/>
-      <c r="Y58" s="24"/>
-      <c r="Z58" s="24"/>
-      <c r="AA58" s="24"/>
-      <c r="AB58" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC58" s="52"/>
-      <c r="AD58" s="52"/>
-      <c r="AE58" s="52"/>
-      <c r="AF58" s="52"/>
-      <c r="AG58" s="52"/>
-      <c r="AH58" s="53"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="53"/>
+      <c r="AC58" s="54"/>
+      <c r="AD58" s="54"/>
+      <c r="AE58" s="54"/>
+      <c r="AF58" s="54"/>
+      <c r="AG58" s="54"/>
+      <c r="AH58" s="55"/>
     </row>
     <row r="59" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
@@ -7280,13 +7063,13 @@
       <c r="Y59" s="27"/>
       <c r="Z59" s="27"/>
       <c r="AA59" s="27"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="55"/>
-      <c r="AD59" s="55"/>
-      <c r="AE59" s="55"/>
-      <c r="AF59" s="55"/>
-      <c r="AG59" s="55"/>
-      <c r="AH59" s="56"/>
+      <c r="AB59" s="53"/>
+      <c r="AC59" s="54"/>
+      <c r="AD59" s="54"/>
+      <c r="AE59" s="54"/>
+      <c r="AF59" s="54"/>
+      <c r="AG59" s="54"/>
+      <c r="AH59" s="55"/>
     </row>
     <row r="60" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
@@ -7312,13 +7095,13 @@
       <c r="Y60" s="27"/>
       <c r="Z60" s="27"/>
       <c r="AA60" s="27"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="55"/>
-      <c r="AD60" s="55"/>
-      <c r="AE60" s="55"/>
-      <c r="AF60" s="55"/>
-      <c r="AG60" s="55"/>
-      <c r="AH60" s="56"/>
+      <c r="AB60" s="53"/>
+      <c r="AC60" s="54"/>
+      <c r="AD60" s="54"/>
+      <c r="AE60" s="54"/>
+      <c r="AF60" s="54"/>
+      <c r="AG60" s="54"/>
+      <c r="AH60" s="55"/>
     </row>
     <row r="61" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
@@ -7344,13 +7127,13 @@
       <c r="Y61" s="27"/>
       <c r="Z61" s="27"/>
       <c r="AA61" s="27"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="55"/>
-      <c r="AE61" s="55"/>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="55"/>
-      <c r="AH61" s="56"/>
+      <c r="AB61" s="53"/>
+      <c r="AC61" s="54"/>
+      <c r="AD61" s="54"/>
+      <c r="AE61" s="54"/>
+      <c r="AF61" s="54"/>
+      <c r="AG61" s="54"/>
+      <c r="AH61" s="55"/>
     </row>
     <row r="62" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
@@ -7376,13 +7159,13 @@
       <c r="Y62" s="27"/>
       <c r="Z62" s="27"/>
       <c r="AA62" s="27"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="55"/>
-      <c r="AE62" s="55"/>
-      <c r="AF62" s="55"/>
-      <c r="AG62" s="55"/>
-      <c r="AH62" s="56"/>
+      <c r="AB62" s="53"/>
+      <c r="AC62" s="54"/>
+      <c r="AD62" s="54"/>
+      <c r="AE62" s="54"/>
+      <c r="AF62" s="54"/>
+      <c r="AG62" s="54"/>
+      <c r="AH62" s="55"/>
     </row>
     <row r="63" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
@@ -7408,13 +7191,13 @@
       <c r="Y63" s="27"/>
       <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="55"/>
-      <c r="AD63" s="55"/>
-      <c r="AE63" s="55"/>
-      <c r="AF63" s="55"/>
-      <c r="AG63" s="55"/>
-      <c r="AH63" s="56"/>
+      <c r="AB63" s="53"/>
+      <c r="AC63" s="54"/>
+      <c r="AD63" s="54"/>
+      <c r="AE63" s="54"/>
+      <c r="AF63" s="54"/>
+      <c r="AG63" s="54"/>
+      <c r="AH63" s="55"/>
     </row>
     <row r="64" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="15"/>
@@ -7440,13 +7223,13 @@
       <c r="Y64" s="27"/>
       <c r="Z64" s="27"/>
       <c r="AA64" s="27"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="55"/>
-      <c r="AD64" s="55"/>
-      <c r="AE64" s="55"/>
-      <c r="AF64" s="55"/>
-      <c r="AG64" s="55"/>
-      <c r="AH64" s="56"/>
+      <c r="AB64" s="53"/>
+      <c r="AC64" s="54"/>
+      <c r="AD64" s="54"/>
+      <c r="AE64" s="54"/>
+      <c r="AF64" s="54"/>
+      <c r="AG64" s="54"/>
+      <c r="AH64" s="55"/>
     </row>
     <row r="65" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
@@ -7472,13 +7255,13 @@
       <c r="Y65" s="27"/>
       <c r="Z65" s="27"/>
       <c r="AA65" s="27"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="55"/>
-      <c r="AD65" s="55"/>
-      <c r="AE65" s="55"/>
-      <c r="AF65" s="55"/>
-      <c r="AG65" s="55"/>
-      <c r="AH65" s="56"/>
+      <c r="AB65" s="53"/>
+      <c r="AC65" s="54"/>
+      <c r="AD65" s="54"/>
+      <c r="AE65" s="54"/>
+      <c r="AF65" s="54"/>
+      <c r="AG65" s="54"/>
+      <c r="AH65" s="55"/>
     </row>
     <row r="66" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="15"/>
@@ -7504,145 +7287,145 @@
       <c r="Y66" s="27"/>
       <c r="Z66" s="27"/>
       <c r="AA66" s="27"/>
-      <c r="AB66" s="54"/>
-      <c r="AC66" s="55"/>
-      <c r="AD66" s="55"/>
-      <c r="AE66" s="55"/>
-      <c r="AF66" s="55"/>
-      <c r="AG66" s="55"/>
-      <c r="AH66" s="56"/>
+      <c r="AB66" s="53"/>
+      <c r="AC66" s="54"/>
+      <c r="AD66" s="54"/>
+      <c r="AE66" s="54"/>
+      <c r="AF66" s="54"/>
+      <c r="AG66" s="54"/>
+      <c r="AH66" s="55"/>
     </row>
     <row r="67" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="15"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="26"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="27"/>
-      <c r="Z67" s="27"/>
-      <c r="AA67" s="27"/>
-      <c r="AB67" s="54"/>
-      <c r="AC67" s="55"/>
-      <c r="AD67" s="55"/>
-      <c r="AE67" s="55"/>
-      <c r="AF67" s="55"/>
-      <c r="AG67" s="55"/>
-      <c r="AH67" s="56"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="31"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="56"/>
+      <c r="AC67" s="57"/>
+      <c r="AD67" s="57"/>
+      <c r="AE67" s="57"/>
+      <c r="AF67" s="57"/>
+      <c r="AG67" s="57"/>
+      <c r="AH67" s="58"/>
     </row>
     <row r="68" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="15"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="26"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="27"/>
-      <c r="Z68" s="27"/>
-      <c r="AA68" s="27"/>
-      <c r="AB68" s="54"/>
-      <c r="AC68" s="55"/>
-      <c r="AD68" s="55"/>
-      <c r="AE68" s="55"/>
-      <c r="AF68" s="55"/>
-      <c r="AG68" s="55"/>
-      <c r="AH68" s="56"/>
+      <c r="F68" s="23">
+        <v>4</v>
+      </c>
+      <c r="G68" s="23"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="25"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC68" s="62"/>
+      <c r="AD68" s="62"/>
+      <c r="AE68" s="62"/>
+      <c r="AF68" s="62"/>
+      <c r="AG68" s="62"/>
+      <c r="AH68" s="63"/>
     </row>
     <row r="69" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="15"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="30"/>
-      <c r="W69" s="31"/>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="30"/>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="57"/>
-      <c r="AC69" s="58"/>
-      <c r="AD69" s="58"/>
-      <c r="AE69" s="58"/>
-      <c r="AF69" s="58"/>
-      <c r="AG69" s="58"/>
-      <c r="AH69" s="59"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="27"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="64"/>
+      <c r="AC69" s="65"/>
+      <c r="AD69" s="65"/>
+      <c r="AE69" s="65"/>
+      <c r="AF69" s="65"/>
+      <c r="AG69" s="65"/>
+      <c r="AH69" s="66"/>
     </row>
     <row r="70" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="15"/>
-      <c r="F70" s="23">
-        <v>3</v>
-      </c>
-      <c r="G70" s="23"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="24"/>
-      <c r="T70" s="23"/>
-      <c r="U70" s="24"/>
-      <c r="V70" s="24"/>
-      <c r="W70" s="25"/>
-      <c r="X70" s="24"/>
-      <c r="Y70" s="24"/>
-      <c r="Z70" s="24"/>
-      <c r="AA70" s="24"/>
-      <c r="AB70" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC70" s="52"/>
-      <c r="AD70" s="52"/>
-      <c r="AE70" s="52"/>
-      <c r="AF70" s="52"/>
-      <c r="AG70" s="52"/>
-      <c r="AH70" s="53"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="27"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="64"/>
+      <c r="AC70" s="65"/>
+      <c r="AD70" s="65"/>
+      <c r="AE70" s="65"/>
+      <c r="AF70" s="65"/>
+      <c r="AG70" s="65"/>
+      <c r="AH70" s="66"/>
     </row>
     <row r="71" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="15"/>
@@ -7668,13 +7451,13 @@
       <c r="Y71" s="27"/>
       <c r="Z71" s="27"/>
       <c r="AA71" s="27"/>
-      <c r="AB71" s="54"/>
-      <c r="AC71" s="55"/>
-      <c r="AD71" s="55"/>
-      <c r="AE71" s="55"/>
-      <c r="AF71" s="55"/>
-      <c r="AG71" s="55"/>
-      <c r="AH71" s="56"/>
+      <c r="AB71" s="64"/>
+      <c r="AC71" s="65"/>
+      <c r="AD71" s="65"/>
+      <c r="AE71" s="65"/>
+      <c r="AF71" s="65"/>
+      <c r="AG71" s="65"/>
+      <c r="AH71" s="66"/>
     </row>
     <row r="72" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="15"/>
@@ -7700,13 +7483,13 @@
       <c r="Y72" s="27"/>
       <c r="Z72" s="27"/>
       <c r="AA72" s="27"/>
-      <c r="AB72" s="54"/>
-      <c r="AC72" s="55"/>
-      <c r="AD72" s="55"/>
-      <c r="AE72" s="55"/>
-      <c r="AF72" s="55"/>
-      <c r="AG72" s="55"/>
-      <c r="AH72" s="56"/>
+      <c r="AB72" s="64"/>
+      <c r="AC72" s="65"/>
+      <c r="AD72" s="65"/>
+      <c r="AE72" s="65"/>
+      <c r="AF72" s="65"/>
+      <c r="AG72" s="65"/>
+      <c r="AH72" s="66"/>
     </row>
     <row r="73" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="15"/>
@@ -7732,13 +7515,13 @@
       <c r="Y73" s="27"/>
       <c r="Z73" s="27"/>
       <c r="AA73" s="27"/>
-      <c r="AB73" s="54"/>
-      <c r="AC73" s="55"/>
-      <c r="AD73" s="55"/>
-      <c r="AE73" s="55"/>
-      <c r="AF73" s="55"/>
-      <c r="AG73" s="55"/>
-      <c r="AH73" s="56"/>
+      <c r="AB73" s="64"/>
+      <c r="AC73" s="65"/>
+      <c r="AD73" s="65"/>
+      <c r="AE73" s="65"/>
+      <c r="AF73" s="65"/>
+      <c r="AG73" s="65"/>
+      <c r="AH73" s="66"/>
     </row>
     <row r="74" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="15"/>
@@ -7764,13 +7547,13 @@
       <c r="Y74" s="27"/>
       <c r="Z74" s="27"/>
       <c r="AA74" s="27"/>
-      <c r="AB74" s="54"/>
-      <c r="AC74" s="55"/>
-      <c r="AD74" s="55"/>
-      <c r="AE74" s="55"/>
-      <c r="AF74" s="55"/>
-      <c r="AG74" s="55"/>
-      <c r="AH74" s="56"/>
+      <c r="AB74" s="64"/>
+      <c r="AC74" s="65"/>
+      <c r="AD74" s="65"/>
+      <c r="AE74" s="65"/>
+      <c r="AF74" s="65"/>
+      <c r="AG74" s="65"/>
+      <c r="AH74" s="66"/>
     </row>
     <row r="75" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="15"/>
@@ -7796,13 +7579,13 @@
       <c r="Y75" s="27"/>
       <c r="Z75" s="27"/>
       <c r="AA75" s="27"/>
-      <c r="AB75" s="54"/>
-      <c r="AC75" s="55"/>
-      <c r="AD75" s="55"/>
-      <c r="AE75" s="55"/>
-      <c r="AF75" s="55"/>
-      <c r="AG75" s="55"/>
-      <c r="AH75" s="56"/>
+      <c r="AB75" s="64"/>
+      <c r="AC75" s="65"/>
+      <c r="AD75" s="65"/>
+      <c r="AE75" s="65"/>
+      <c r="AF75" s="65"/>
+      <c r="AG75" s="65"/>
+      <c r="AH75" s="66"/>
     </row>
     <row r="76" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="15"/>
@@ -7828,77 +7611,81 @@
       <c r="Y76" s="27"/>
       <c r="Z76" s="27"/>
       <c r="AA76" s="27"/>
-      <c r="AB76" s="54"/>
-      <c r="AC76" s="55"/>
-      <c r="AD76" s="55"/>
-      <c r="AE76" s="55"/>
-      <c r="AF76" s="55"/>
-      <c r="AG76" s="55"/>
-      <c r="AH76" s="56"/>
+      <c r="AB76" s="64"/>
+      <c r="AC76" s="65"/>
+      <c r="AD76" s="65"/>
+      <c r="AE76" s="65"/>
+      <c r="AF76" s="65"/>
+      <c r="AG76" s="65"/>
+      <c r="AH76" s="66"/>
     </row>
     <row r="77" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="15"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27"/>
-      <c r="T77" s="26"/>
-      <c r="U77" s="27"/>
-      <c r="V77" s="27"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="27"/>
-      <c r="Z77" s="27"/>
-      <c r="AA77" s="27"/>
-      <c r="AB77" s="54"/>
-      <c r="AC77" s="55"/>
-      <c r="AD77" s="55"/>
-      <c r="AE77" s="55"/>
-      <c r="AF77" s="55"/>
-      <c r="AG77" s="55"/>
-      <c r="AH77" s="56"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="30"/>
+      <c r="V77" s="30"/>
+      <c r="W77" s="31"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
+      <c r="AA77" s="30"/>
+      <c r="AB77" s="67"/>
+      <c r="AC77" s="68"/>
+      <c r="AD77" s="68"/>
+      <c r="AE77" s="68"/>
+      <c r="AF77" s="68"/>
+      <c r="AG77" s="68"/>
+      <c r="AH77" s="69"/>
     </row>
     <row r="78" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="15"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="27"/>
-      <c r="R78" s="27"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="26"/>
-      <c r="U78" s="27"/>
-      <c r="V78" s="27"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="27"/>
-      <c r="Z78" s="27"/>
-      <c r="AA78" s="27"/>
-      <c r="AB78" s="54"/>
-      <c r="AC78" s="55"/>
-      <c r="AD78" s="55"/>
-      <c r="AE78" s="55"/>
-      <c r="AF78" s="55"/>
-      <c r="AG78" s="55"/>
-      <c r="AH78" s="56"/>
+      <c r="F78" s="23">
+        <v>5</v>
+      </c>
+      <c r="G78" s="23"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="25"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="24"/>
+      <c r="AA78" s="24"/>
+      <c r="AB78" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC78" s="51"/>
+      <c r="AD78" s="51"/>
+      <c r="AE78" s="51"/>
+      <c r="AF78" s="51"/>
+      <c r="AG78" s="51"/>
+      <c r="AH78" s="52"/>
     </row>
     <row r="79" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="15"/>
@@ -7924,13 +7711,13 @@
       <c r="Y79" s="27"/>
       <c r="Z79" s="27"/>
       <c r="AA79" s="27"/>
-      <c r="AB79" s="54"/>
-      <c r="AC79" s="55"/>
-      <c r="AD79" s="55"/>
-      <c r="AE79" s="55"/>
-      <c r="AF79" s="55"/>
-      <c r="AG79" s="55"/>
-      <c r="AH79" s="56"/>
+      <c r="AB79" s="53"/>
+      <c r="AC79" s="54"/>
+      <c r="AD79" s="54"/>
+      <c r="AE79" s="54"/>
+      <c r="AF79" s="54"/>
+      <c r="AG79" s="54"/>
+      <c r="AH79" s="55"/>
     </row>
     <row r="80" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="15"/>
@@ -7956,13 +7743,13 @@
       <c r="Y80" s="27"/>
       <c r="Z80" s="27"/>
       <c r="AA80" s="27"/>
-      <c r="AB80" s="54"/>
-      <c r="AC80" s="55"/>
-      <c r="AD80" s="55"/>
-      <c r="AE80" s="55"/>
-      <c r="AF80" s="55"/>
-      <c r="AG80" s="55"/>
-      <c r="AH80" s="56"/>
+      <c r="AB80" s="53"/>
+      <c r="AC80" s="54"/>
+      <c r="AD80" s="54"/>
+      <c r="AE80" s="54"/>
+      <c r="AF80" s="54"/>
+      <c r="AG80" s="54"/>
+      <c r="AH80" s="55"/>
     </row>
     <row r="81" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E81" s="15"/>
@@ -7988,81 +7775,77 @@
       <c r="Y81" s="27"/>
       <c r="Z81" s="27"/>
       <c r="AA81" s="27"/>
-      <c r="AB81" s="54"/>
-      <c r="AC81" s="55"/>
-      <c r="AD81" s="55"/>
-      <c r="AE81" s="55"/>
-      <c r="AF81" s="55"/>
-      <c r="AG81" s="55"/>
-      <c r="AH81" s="56"/>
+      <c r="AB81" s="53"/>
+      <c r="AC81" s="54"/>
+      <c r="AD81" s="54"/>
+      <c r="AE81" s="54"/>
+      <c r="AF81" s="54"/>
+      <c r="AG81" s="54"/>
+      <c r="AH81" s="55"/>
     </row>
     <row r="82" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="15"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="30"/>
-      <c r="S82" s="30"/>
-      <c r="T82" s="29"/>
-      <c r="U82" s="30"/>
-      <c r="V82" s="30"/>
-      <c r="W82" s="31"/>
-      <c r="X82" s="30"/>
-      <c r="Y82" s="30"/>
-      <c r="Z82" s="30"/>
-      <c r="AA82" s="30"/>
-      <c r="AB82" s="57"/>
-      <c r="AC82" s="58"/>
-      <c r="AD82" s="58"/>
-      <c r="AE82" s="58"/>
-      <c r="AF82" s="58"/>
-      <c r="AG82" s="58"/>
-      <c r="AH82" s="59"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="26"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="28"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="53"/>
+      <c r="AC82" s="54"/>
+      <c r="AD82" s="54"/>
+      <c r="AE82" s="54"/>
+      <c r="AF82" s="54"/>
+      <c r="AG82" s="54"/>
+      <c r="AH82" s="55"/>
     </row>
     <row r="83" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="15"/>
-      <c r="F83" s="23">
-        <v>4</v>
-      </c>
-      <c r="G83" s="23"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="23"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="24"/>
-      <c r="T83" s="23"/>
-      <c r="U83" s="24"/>
-      <c r="V83" s="24"/>
-      <c r="W83" s="25"/>
-      <c r="X83" s="24"/>
-      <c r="Y83" s="24"/>
-      <c r="Z83" s="24"/>
-      <c r="AA83" s="24"/>
-      <c r="AB83" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC83" s="63"/>
-      <c r="AD83" s="63"/>
-      <c r="AE83" s="63"/>
-      <c r="AF83" s="63"/>
-      <c r="AG83" s="63"/>
-      <c r="AH83" s="64"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="26"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="28"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="53"/>
+      <c r="AC83" s="54"/>
+      <c r="AD83" s="54"/>
+      <c r="AE83" s="54"/>
+      <c r="AF83" s="54"/>
+      <c r="AG83" s="54"/>
+      <c r="AH83" s="55"/>
     </row>
     <row r="84" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="15"/>
@@ -8088,13 +7871,13 @@
       <c r="Y84" s="27"/>
       <c r="Z84" s="27"/>
       <c r="AA84" s="27"/>
-      <c r="AB84" s="65"/>
-      <c r="AC84" s="66"/>
-      <c r="AD84" s="66"/>
-      <c r="AE84" s="66"/>
-      <c r="AF84" s="66"/>
-      <c r="AG84" s="66"/>
-      <c r="AH84" s="67"/>
+      <c r="AB84" s="53"/>
+      <c r="AC84" s="54"/>
+      <c r="AD84" s="54"/>
+      <c r="AE84" s="54"/>
+      <c r="AF84" s="54"/>
+      <c r="AG84" s="54"/>
+      <c r="AH84" s="55"/>
     </row>
     <row r="85" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85" s="15"/>
@@ -8120,13 +7903,13 @@
       <c r="Y85" s="27"/>
       <c r="Z85" s="27"/>
       <c r="AA85" s="27"/>
-      <c r="AB85" s="65"/>
-      <c r="AC85" s="66"/>
-      <c r="AD85" s="66"/>
-      <c r="AE85" s="66"/>
-      <c r="AF85" s="66"/>
-      <c r="AG85" s="66"/>
-      <c r="AH85" s="67"/>
+      <c r="AB85" s="53"/>
+      <c r="AC85" s="54"/>
+      <c r="AD85" s="54"/>
+      <c r="AE85" s="54"/>
+      <c r="AF85" s="54"/>
+      <c r="AG85" s="54"/>
+      <c r="AH85" s="55"/>
     </row>
     <row r="86" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="15"/>
@@ -8152,13 +7935,13 @@
       <c r="Y86" s="27"/>
       <c r="Z86" s="27"/>
       <c r="AA86" s="27"/>
-      <c r="AB86" s="65"/>
-      <c r="AC86" s="66"/>
-      <c r="AD86" s="66"/>
-      <c r="AE86" s="66"/>
-      <c r="AF86" s="66"/>
-      <c r="AG86" s="66"/>
-      <c r="AH86" s="67"/>
+      <c r="AB86" s="53"/>
+      <c r="AC86" s="54"/>
+      <c r="AD86" s="54"/>
+      <c r="AE86" s="54"/>
+      <c r="AF86" s="54"/>
+      <c r="AG86" s="54"/>
+      <c r="AH86" s="55"/>
     </row>
     <row r="87" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87" s="15"/>
@@ -8184,13 +7967,13 @@
       <c r="Y87" s="27"/>
       <c r="Z87" s="27"/>
       <c r="AA87" s="27"/>
-      <c r="AB87" s="65"/>
-      <c r="AC87" s="66"/>
-      <c r="AD87" s="66"/>
-      <c r="AE87" s="66"/>
-      <c r="AF87" s="66"/>
-      <c r="AG87" s="66"/>
-      <c r="AH87" s="67"/>
+      <c r="AB87" s="53"/>
+      <c r="AC87" s="54"/>
+      <c r="AD87" s="54"/>
+      <c r="AE87" s="54"/>
+      <c r="AF87" s="54"/>
+      <c r="AG87" s="54"/>
+      <c r="AH87" s="55"/>
     </row>
     <row r="88" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="15"/>
@@ -8216,13 +7999,13 @@
       <c r="Y88" s="27"/>
       <c r="Z88" s="27"/>
       <c r="AA88" s="27"/>
-      <c r="AB88" s="65"/>
-      <c r="AC88" s="66"/>
-      <c r="AD88" s="66"/>
-      <c r="AE88" s="66"/>
-      <c r="AF88" s="66"/>
-      <c r="AG88" s="66"/>
-      <c r="AH88" s="67"/>
+      <c r="AB88" s="53"/>
+      <c r="AC88" s="54"/>
+      <c r="AD88" s="54"/>
+      <c r="AE88" s="54"/>
+      <c r="AF88" s="54"/>
+      <c r="AG88" s="54"/>
+      <c r="AH88" s="55"/>
     </row>
     <row r="89" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="15"/>
@@ -8248,13 +8031,13 @@
       <c r="Y89" s="27"/>
       <c r="Z89" s="27"/>
       <c r="AA89" s="27"/>
-      <c r="AB89" s="65"/>
-      <c r="AC89" s="66"/>
-      <c r="AD89" s="66"/>
-      <c r="AE89" s="66"/>
-      <c r="AF89" s="66"/>
-      <c r="AG89" s="66"/>
-      <c r="AH89" s="67"/>
+      <c r="AB89" s="53"/>
+      <c r="AC89" s="54"/>
+      <c r="AD89" s="54"/>
+      <c r="AE89" s="54"/>
+      <c r="AF89" s="54"/>
+      <c r="AG89" s="54"/>
+      <c r="AH89" s="55"/>
     </row>
     <row r="90" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E90" s="15"/>
@@ -8280,113 +8063,113 @@
       <c r="Y90" s="27"/>
       <c r="Z90" s="27"/>
       <c r="AA90" s="27"/>
-      <c r="AB90" s="65"/>
-      <c r="AC90" s="66"/>
-      <c r="AD90" s="66"/>
-      <c r="AE90" s="66"/>
-      <c r="AF90" s="66"/>
-      <c r="AG90" s="66"/>
-      <c r="AH90" s="67"/>
+      <c r="AB90" s="53"/>
+      <c r="AC90" s="54"/>
+      <c r="AD90" s="54"/>
+      <c r="AE90" s="54"/>
+      <c r="AF90" s="54"/>
+      <c r="AG90" s="54"/>
+      <c r="AH90" s="55"/>
     </row>
     <row r="91" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E91" s="15"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="27"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="28"/>
-      <c r="Q91" s="27"/>
-      <c r="R91" s="27"/>
-      <c r="S91" s="27"/>
-      <c r="T91" s="26"/>
-      <c r="U91" s="27"/>
-      <c r="V91" s="27"/>
-      <c r="W91" s="28"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="65"/>
-      <c r="AC91" s="66"/>
-      <c r="AD91" s="66"/>
-      <c r="AE91" s="66"/>
-      <c r="AF91" s="66"/>
-      <c r="AG91" s="66"/>
-      <c r="AH91" s="67"/>
+      <c r="F91" s="23">
+        <v>6</v>
+      </c>
+      <c r="G91" s="23"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="24"/>
+      <c r="V91" s="24"/>
+      <c r="W91" s="25"/>
+      <c r="X91" s="24"/>
+      <c r="Y91" s="24"/>
+      <c r="Z91" s="24"/>
+      <c r="AA91" s="24"/>
+      <c r="AB91" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC91" s="51"/>
+      <c r="AD91" s="51"/>
+      <c r="AE91" s="51"/>
+      <c r="AF91" s="51"/>
+      <c r="AG91" s="51"/>
+      <c r="AH91" s="52"/>
     </row>
     <row r="92" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="15"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="30"/>
-      <c r="L92" s="30"/>
-      <c r="M92" s="30"/>
-      <c r="N92" s="29"/>
-      <c r="O92" s="30"/>
-      <c r="P92" s="31"/>
-      <c r="Q92" s="30"/>
-      <c r="R92" s="30"/>
-      <c r="S92" s="30"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="30"/>
-      <c r="V92" s="30"/>
-      <c r="W92" s="31"/>
-      <c r="X92" s="30"/>
-      <c r="Y92" s="30"/>
-      <c r="Z92" s="30"/>
-      <c r="AA92" s="30"/>
-      <c r="AB92" s="68"/>
-      <c r="AC92" s="69"/>
-      <c r="AD92" s="69"/>
-      <c r="AE92" s="69"/>
-      <c r="AF92" s="69"/>
-      <c r="AG92" s="69"/>
-      <c r="AH92" s="70"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="28"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="27"/>
+      <c r="S92" s="27"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="27"/>
+      <c r="V92" s="27"/>
+      <c r="W92" s="28"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="27"/>
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="53"/>
+      <c r="AC92" s="54"/>
+      <c r="AD92" s="54"/>
+      <c r="AE92" s="54"/>
+      <c r="AF92" s="54"/>
+      <c r="AG92" s="54"/>
+      <c r="AH92" s="55"/>
     </row>
     <row r="93" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E93" s="15"/>
-      <c r="F93" s="23">
-        <v>5</v>
-      </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="23"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="25"/>
-      <c r="Q93" s="24"/>
-      <c r="R93" s="24"/>
-      <c r="S93" s="24"/>
-      <c r="T93" s="23"/>
-      <c r="U93" s="24"/>
-      <c r="V93" s="24"/>
-      <c r="W93" s="25"/>
-      <c r="X93" s="24"/>
-      <c r="Y93" s="24"/>
-      <c r="Z93" s="24"/>
-      <c r="AA93" s="24"/>
-      <c r="AB93" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC93" s="52"/>
-      <c r="AD93" s="52"/>
-      <c r="AE93" s="52"/>
-      <c r="AF93" s="52"/>
-      <c r="AG93" s="52"/>
-      <c r="AH93" s="53"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="28"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="27"/>
+      <c r="V93" s="27"/>
+      <c r="W93" s="28"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="53"/>
+      <c r="AC93" s="54"/>
+      <c r="AD93" s="54"/>
+      <c r="AE93" s="54"/>
+      <c r="AF93" s="54"/>
+      <c r="AG93" s="54"/>
+      <c r="AH93" s="55"/>
     </row>
     <row r="94" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E94" s="15"/>
@@ -8412,13 +8195,13 @@
       <c r="Y94" s="27"/>
       <c r="Z94" s="27"/>
       <c r="AA94" s="27"/>
-      <c r="AB94" s="54"/>
-      <c r="AC94" s="55"/>
-      <c r="AD94" s="55"/>
-      <c r="AE94" s="55"/>
-      <c r="AF94" s="55"/>
-      <c r="AG94" s="55"/>
-      <c r="AH94" s="56"/>
+      <c r="AB94" s="53"/>
+      <c r="AC94" s="54"/>
+      <c r="AD94" s="54"/>
+      <c r="AE94" s="54"/>
+      <c r="AF94" s="54"/>
+      <c r="AG94" s="54"/>
+      <c r="AH94" s="55"/>
     </row>
     <row r="95" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="15"/>
@@ -8444,13 +8227,13 @@
       <c r="Y95" s="27"/>
       <c r="Z95" s="27"/>
       <c r="AA95" s="27"/>
-      <c r="AB95" s="54"/>
-      <c r="AC95" s="55"/>
-      <c r="AD95" s="55"/>
-      <c r="AE95" s="55"/>
-      <c r="AF95" s="55"/>
-      <c r="AG95" s="55"/>
-      <c r="AH95" s="56"/>
+      <c r="AB95" s="53"/>
+      <c r="AC95" s="54"/>
+      <c r="AD95" s="54"/>
+      <c r="AE95" s="54"/>
+      <c r="AF95" s="54"/>
+      <c r="AG95" s="54"/>
+      <c r="AH95" s="55"/>
     </row>
     <row r="96" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E96" s="15"/>
@@ -8476,13 +8259,13 @@
       <c r="Y96" s="27"/>
       <c r="Z96" s="27"/>
       <c r="AA96" s="27"/>
-      <c r="AB96" s="54"/>
-      <c r="AC96" s="55"/>
-      <c r="AD96" s="55"/>
-      <c r="AE96" s="55"/>
-      <c r="AF96" s="55"/>
-      <c r="AG96" s="55"/>
-      <c r="AH96" s="56"/>
+      <c r="AB96" s="53"/>
+      <c r="AC96" s="54"/>
+      <c r="AD96" s="54"/>
+      <c r="AE96" s="54"/>
+      <c r="AF96" s="54"/>
+      <c r="AG96" s="54"/>
+      <c r="AH96" s="55"/>
     </row>
     <row r="97" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E97" s="15"/>
@@ -8508,13 +8291,13 @@
       <c r="Y97" s="27"/>
       <c r="Z97" s="27"/>
       <c r="AA97" s="27"/>
-      <c r="AB97" s="54"/>
-      <c r="AC97" s="55"/>
-      <c r="AD97" s="55"/>
-      <c r="AE97" s="55"/>
-      <c r="AF97" s="55"/>
-      <c r="AG97" s="55"/>
-      <c r="AH97" s="56"/>
+      <c r="AB97" s="53"/>
+      <c r="AC97" s="54"/>
+      <c r="AD97" s="54"/>
+      <c r="AE97" s="54"/>
+      <c r="AF97" s="54"/>
+      <c r="AG97" s="54"/>
+      <c r="AH97" s="55"/>
     </row>
     <row r="98" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E98" s="15"/>
@@ -8540,13 +8323,13 @@
       <c r="Y98" s="27"/>
       <c r="Z98" s="27"/>
       <c r="AA98" s="27"/>
-      <c r="AB98" s="54"/>
-      <c r="AC98" s="55"/>
-      <c r="AD98" s="55"/>
-      <c r="AE98" s="55"/>
-      <c r="AF98" s="55"/>
-      <c r="AG98" s="55"/>
-      <c r="AH98" s="56"/>
+      <c r="AB98" s="53"/>
+      <c r="AC98" s="54"/>
+      <c r="AD98" s="54"/>
+      <c r="AE98" s="54"/>
+      <c r="AF98" s="54"/>
+      <c r="AG98" s="54"/>
+      <c r="AH98" s="55"/>
     </row>
     <row r="99" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E99" s="15"/>
@@ -8572,13 +8355,13 @@
       <c r="Y99" s="27"/>
       <c r="Z99" s="27"/>
       <c r="AA99" s="27"/>
-      <c r="AB99" s="54"/>
-      <c r="AC99" s="55"/>
-      <c r="AD99" s="55"/>
-      <c r="AE99" s="55"/>
-      <c r="AF99" s="55"/>
-      <c r="AG99" s="55"/>
-      <c r="AH99" s="56"/>
+      <c r="AB99" s="53"/>
+      <c r="AC99" s="54"/>
+      <c r="AD99" s="54"/>
+      <c r="AE99" s="54"/>
+      <c r="AF99" s="54"/>
+      <c r="AG99" s="54"/>
+      <c r="AH99" s="55"/>
     </row>
     <row r="100" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E100" s="15"/>
@@ -8604,13 +8387,13 @@
       <c r="Y100" s="27"/>
       <c r="Z100" s="27"/>
       <c r="AA100" s="27"/>
-      <c r="AB100" s="54"/>
-      <c r="AC100" s="55"/>
-      <c r="AD100" s="55"/>
-      <c r="AE100" s="55"/>
-      <c r="AF100" s="55"/>
-      <c r="AG100" s="55"/>
-      <c r="AH100" s="56"/>
+      <c r="AB100" s="53"/>
+      <c r="AC100" s="54"/>
+      <c r="AD100" s="54"/>
+      <c r="AE100" s="54"/>
+      <c r="AF100" s="54"/>
+      <c r="AG100" s="54"/>
+      <c r="AH100" s="55"/>
     </row>
     <row r="101" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="15"/>
@@ -8636,77 +8419,81 @@
       <c r="Y101" s="27"/>
       <c r="Z101" s="27"/>
       <c r="AA101" s="27"/>
-      <c r="AB101" s="54"/>
-      <c r="AC101" s="55"/>
-      <c r="AD101" s="55"/>
-      <c r="AE101" s="55"/>
-      <c r="AF101" s="55"/>
-      <c r="AG101" s="55"/>
-      <c r="AH101" s="56"/>
+      <c r="AB101" s="53"/>
+      <c r="AC101" s="54"/>
+      <c r="AD101" s="54"/>
+      <c r="AE101" s="54"/>
+      <c r="AF101" s="54"/>
+      <c r="AG101" s="54"/>
+      <c r="AH101" s="55"/>
     </row>
     <row r="102" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E102" s="15"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="27"/>
-      <c r="P102" s="28"/>
-      <c r="Q102" s="27"/>
-      <c r="R102" s="27"/>
-      <c r="S102" s="27"/>
-      <c r="T102" s="26"/>
-      <c r="U102" s="27"/>
-      <c r="V102" s="27"/>
-      <c r="W102" s="28"/>
-      <c r="X102" s="27"/>
-      <c r="Y102" s="27"/>
-      <c r="Z102" s="27"/>
-      <c r="AA102" s="27"/>
-      <c r="AB102" s="54"/>
-      <c r="AC102" s="55"/>
-      <c r="AD102" s="55"/>
-      <c r="AE102" s="55"/>
-      <c r="AF102" s="55"/>
-      <c r="AG102" s="55"/>
-      <c r="AH102" s="56"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="30"/>
+      <c r="M102" s="30"/>
+      <c r="N102" s="29"/>
+      <c r="O102" s="30"/>
+      <c r="P102" s="31"/>
+      <c r="Q102" s="30"/>
+      <c r="R102" s="30"/>
+      <c r="S102" s="30"/>
+      <c r="T102" s="29"/>
+      <c r="U102" s="30"/>
+      <c r="V102" s="30"/>
+      <c r="W102" s="31"/>
+      <c r="X102" s="30"/>
+      <c r="Y102" s="30"/>
+      <c r="Z102" s="30"/>
+      <c r="AA102" s="30"/>
+      <c r="AB102" s="56"/>
+      <c r="AC102" s="57"/>
+      <c r="AD102" s="57"/>
+      <c r="AE102" s="57"/>
+      <c r="AF102" s="57"/>
+      <c r="AG102" s="57"/>
+      <c r="AH102" s="58"/>
     </row>
     <row r="103" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E103" s="15"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="28"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="26"/>
-      <c r="O103" s="27"/>
-      <c r="P103" s="28"/>
-      <c r="Q103" s="27"/>
-      <c r="R103" s="27"/>
-      <c r="S103" s="27"/>
-      <c r="T103" s="26"/>
-      <c r="U103" s="27"/>
-      <c r="V103" s="27"/>
-      <c r="W103" s="28"/>
-      <c r="X103" s="27"/>
-      <c r="Y103" s="27"/>
-      <c r="Z103" s="27"/>
-      <c r="AA103" s="27"/>
-      <c r="AB103" s="54"/>
-      <c r="AC103" s="55"/>
-      <c r="AD103" s="55"/>
-      <c r="AE103" s="55"/>
-      <c r="AF103" s="55"/>
-      <c r="AG103" s="55"/>
-      <c r="AH103" s="56"/>
+      <c r="F103" s="23">
+        <v>7</v>
+      </c>
+      <c r="G103" s="23"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="24"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="24"/>
+      <c r="S103" s="24"/>
+      <c r="T103" s="23"/>
+      <c r="U103" s="24"/>
+      <c r="V103" s="24"/>
+      <c r="W103" s="25"/>
+      <c r="X103" s="24"/>
+      <c r="Y103" s="24"/>
+      <c r="Z103" s="24"/>
+      <c r="AA103" s="24"/>
+      <c r="AB103" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC103" s="51"/>
+      <c r="AD103" s="51"/>
+      <c r="AE103" s="51"/>
+      <c r="AF103" s="51"/>
+      <c r="AG103" s="51"/>
+      <c r="AH103" s="52"/>
     </row>
     <row r="104" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="15"/>
@@ -8732,13 +8519,13 @@
       <c r="Y104" s="27"/>
       <c r="Z104" s="27"/>
       <c r="AA104" s="27"/>
-      <c r="AB104" s="54"/>
-      <c r="AC104" s="55"/>
-      <c r="AD104" s="55"/>
-      <c r="AE104" s="55"/>
-      <c r="AF104" s="55"/>
-      <c r="AG104" s="55"/>
-      <c r="AH104" s="56"/>
+      <c r="AB104" s="53"/>
+      <c r="AC104" s="54"/>
+      <c r="AD104" s="54"/>
+      <c r="AE104" s="54"/>
+      <c r="AF104" s="54"/>
+      <c r="AG104" s="54"/>
+      <c r="AH104" s="55"/>
     </row>
     <row r="105" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E105" s="15"/>
@@ -8764,49 +8551,45 @@
       <c r="Y105" s="27"/>
       <c r="Z105" s="27"/>
       <c r="AA105" s="27"/>
-      <c r="AB105" s="54"/>
-      <c r="AC105" s="55"/>
-      <c r="AD105" s="55"/>
-      <c r="AE105" s="55"/>
-      <c r="AF105" s="55"/>
-      <c r="AG105" s="55"/>
-      <c r="AH105" s="56"/>
+      <c r="AB105" s="53"/>
+      <c r="AC105" s="54"/>
+      <c r="AD105" s="54"/>
+      <c r="AE105" s="54"/>
+      <c r="AF105" s="54"/>
+      <c r="AG105" s="54"/>
+      <c r="AH105" s="55"/>
     </row>
     <row r="106" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E106" s="15"/>
-      <c r="F106" s="23">
-        <v>6</v>
-      </c>
-      <c r="G106" s="23"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="25"/>
-      <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="24"/>
-      <c r="N106" s="23"/>
-      <c r="O106" s="24"/>
-      <c r="P106" s="25"/>
-      <c r="Q106" s="24"/>
-      <c r="R106" s="24"/>
-      <c r="S106" s="24"/>
-      <c r="T106" s="23"/>
-      <c r="U106" s="24"/>
-      <c r="V106" s="24"/>
-      <c r="W106" s="25"/>
-      <c r="X106" s="24"/>
-      <c r="Y106" s="24"/>
-      <c r="Z106" s="24"/>
-      <c r="AA106" s="24"/>
-      <c r="AB106" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC106" s="52"/>
-      <c r="AD106" s="52"/>
-      <c r="AE106" s="52"/>
-      <c r="AF106" s="52"/>
-      <c r="AG106" s="52"/>
-      <c r="AH106" s="53"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="28"/>
+      <c r="Q106" s="27"/>
+      <c r="R106" s="27"/>
+      <c r="S106" s="27"/>
+      <c r="T106" s="26"/>
+      <c r="U106" s="27"/>
+      <c r="V106" s="27"/>
+      <c r="W106" s="28"/>
+      <c r="X106" s="27"/>
+      <c r="Y106" s="27"/>
+      <c r="Z106" s="27"/>
+      <c r="AA106" s="27"/>
+      <c r="AB106" s="53"/>
+      <c r="AC106" s="54"/>
+      <c r="AD106" s="54"/>
+      <c r="AE106" s="54"/>
+      <c r="AF106" s="54"/>
+      <c r="AG106" s="54"/>
+      <c r="AH106" s="55"/>
     </row>
     <row r="107" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E107" s="15"/>
@@ -8832,13 +8615,13 @@
       <c r="Y107" s="27"/>
       <c r="Z107" s="27"/>
       <c r="AA107" s="27"/>
-      <c r="AB107" s="54"/>
-      <c r="AC107" s="55"/>
-      <c r="AD107" s="55"/>
-      <c r="AE107" s="55"/>
-      <c r="AF107" s="55"/>
-      <c r="AG107" s="55"/>
-      <c r="AH107" s="56"/>
+      <c r="AB107" s="53"/>
+      <c r="AC107" s="54"/>
+      <c r="AD107" s="54"/>
+      <c r="AE107" s="54"/>
+      <c r="AF107" s="54"/>
+      <c r="AG107" s="54"/>
+      <c r="AH107" s="55"/>
     </row>
     <row r="108" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E108" s="15"/>
@@ -8864,13 +8647,13 @@
       <c r="Y108" s="27"/>
       <c r="Z108" s="27"/>
       <c r="AA108" s="27"/>
-      <c r="AB108" s="54"/>
-      <c r="AC108" s="55"/>
-      <c r="AD108" s="55"/>
-      <c r="AE108" s="55"/>
-      <c r="AF108" s="55"/>
-      <c r="AG108" s="55"/>
-      <c r="AH108" s="56"/>
+      <c r="AB108" s="53"/>
+      <c r="AC108" s="54"/>
+      <c r="AD108" s="54"/>
+      <c r="AE108" s="54"/>
+      <c r="AF108" s="54"/>
+      <c r="AG108" s="54"/>
+      <c r="AH108" s="55"/>
     </row>
     <row r="109" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E109" s="15"/>
@@ -8896,13 +8679,13 @@
       <c r="Y109" s="27"/>
       <c r="Z109" s="27"/>
       <c r="AA109" s="27"/>
-      <c r="AB109" s="54"/>
-      <c r="AC109" s="55"/>
-      <c r="AD109" s="55"/>
-      <c r="AE109" s="55"/>
-      <c r="AF109" s="55"/>
-      <c r="AG109" s="55"/>
-      <c r="AH109" s="56"/>
+      <c r="AB109" s="53"/>
+      <c r="AC109" s="54"/>
+      <c r="AD109" s="54"/>
+      <c r="AE109" s="54"/>
+      <c r="AF109" s="54"/>
+      <c r="AG109" s="54"/>
+      <c r="AH109" s="55"/>
     </row>
     <row r="110" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E110" s="15"/>
@@ -8928,109 +8711,115 @@
       <c r="Y110" s="27"/>
       <c r="Z110" s="27"/>
       <c r="AA110" s="27"/>
-      <c r="AB110" s="54"/>
-      <c r="AC110" s="55"/>
-      <c r="AD110" s="55"/>
-      <c r="AE110" s="55"/>
-      <c r="AF110" s="55"/>
-      <c r="AG110" s="55"/>
-      <c r="AH110" s="56"/>
+      <c r="AB110" s="53"/>
+      <c r="AC110" s="54"/>
+      <c r="AD110" s="54"/>
+      <c r="AE110" s="54"/>
+      <c r="AF110" s="54"/>
+      <c r="AG110" s="54"/>
+      <c r="AH110" s="55"/>
     </row>
     <row r="111" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E111" s="15"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="27"/>
-      <c r="M111" s="27"/>
-      <c r="N111" s="26"/>
-      <c r="O111" s="27"/>
-      <c r="P111" s="28"/>
-      <c r="Q111" s="27"/>
-      <c r="R111" s="27"/>
-      <c r="S111" s="27"/>
-      <c r="T111" s="26"/>
-      <c r="U111" s="27"/>
-      <c r="V111" s="27"/>
-      <c r="W111" s="28"/>
-      <c r="X111" s="27"/>
-      <c r="Y111" s="27"/>
-      <c r="Z111" s="27"/>
-      <c r="AA111" s="27"/>
-      <c r="AB111" s="54"/>
-      <c r="AC111" s="55"/>
-      <c r="AD111" s="55"/>
-      <c r="AE111" s="55"/>
-      <c r="AF111" s="55"/>
-      <c r="AG111" s="55"/>
-      <c r="AH111" s="56"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="30"/>
+      <c r="M111" s="30"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="30"/>
+      <c r="P111" s="31"/>
+      <c r="Q111" s="30"/>
+      <c r="R111" s="30"/>
+      <c r="S111" s="30"/>
+      <c r="T111" s="29"/>
+      <c r="U111" s="30"/>
+      <c r="V111" s="30"/>
+      <c r="W111" s="31"/>
+      <c r="X111" s="30"/>
+      <c r="Y111" s="30"/>
+      <c r="Z111" s="30"/>
+      <c r="AA111" s="30"/>
+      <c r="AB111" s="56"/>
+      <c r="AC111" s="57"/>
+      <c r="AD111" s="57"/>
+      <c r="AE111" s="57"/>
+      <c r="AF111" s="57"/>
+      <c r="AG111" s="57"/>
+      <c r="AH111" s="58"/>
     </row>
     <row r="112" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E112" s="15"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="27"/>
-      <c r="N112" s="26"/>
-      <c r="O112" s="27"/>
-      <c r="P112" s="28"/>
-      <c r="Q112" s="27"/>
-      <c r="R112" s="27"/>
-      <c r="S112" s="27"/>
-      <c r="T112" s="26"/>
-      <c r="U112" s="27"/>
-      <c r="V112" s="27"/>
-      <c r="W112" s="28"/>
-      <c r="X112" s="27"/>
-      <c r="Y112" s="27"/>
-      <c r="Z112" s="27"/>
-      <c r="AA112" s="27"/>
-      <c r="AB112" s="54"/>
-      <c r="AC112" s="55"/>
-      <c r="AD112" s="55"/>
-      <c r="AE112" s="55"/>
-      <c r="AF112" s="55"/>
-      <c r="AG112" s="55"/>
-      <c r="AH112" s="56"/>
+      <c r="F112" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="71"/>
+      <c r="J112" s="71"/>
+      <c r="K112" s="71"/>
+      <c r="L112" s="71"/>
+      <c r="M112" s="71"/>
+      <c r="N112" s="71"/>
+      <c r="O112" s="71"/>
+      <c r="P112" s="71"/>
+      <c r="Q112" s="71"/>
+      <c r="R112" s="71"/>
+      <c r="S112" s="71"/>
+      <c r="T112" s="71"/>
+      <c r="U112" s="71"/>
+      <c r="V112" s="71"/>
+      <c r="W112" s="71"/>
+      <c r="X112" s="71"/>
+      <c r="Y112" s="71"/>
+      <c r="Z112" s="71"/>
+      <c r="AA112" s="71"/>
+      <c r="AB112" s="71"/>
+      <c r="AC112" s="71"/>
+      <c r="AD112" s="71"/>
+      <c r="AE112" s="71"/>
+      <c r="AF112" s="71"/>
+      <c r="AG112" s="71"/>
+      <c r="AH112" s="72"/>
     </row>
     <row r="113" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E113" s="15"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="27"/>
-      <c r="N113" s="26"/>
-      <c r="O113" s="27"/>
-      <c r="P113" s="28"/>
-      <c r="Q113" s="27"/>
-      <c r="R113" s="27"/>
-      <c r="S113" s="27"/>
-      <c r="T113" s="26"/>
-      <c r="U113" s="27"/>
-      <c r="V113" s="27"/>
-      <c r="W113" s="28"/>
-      <c r="X113" s="27"/>
-      <c r="Y113" s="27"/>
-      <c r="Z113" s="27"/>
-      <c r="AA113" s="27"/>
-      <c r="AB113" s="54"/>
-      <c r="AC113" s="55"/>
-      <c r="AD113" s="55"/>
-      <c r="AE113" s="55"/>
-      <c r="AF113" s="55"/>
-      <c r="AG113" s="55"/>
-      <c r="AH113" s="56"/>
+      <c r="F113" s="23">
+        <v>8</v>
+      </c>
+      <c r="G113" s="23"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="23"/>
+      <c r="O113" s="24"/>
+      <c r="P113" s="25"/>
+      <c r="Q113" s="24"/>
+      <c r="R113" s="24"/>
+      <c r="S113" s="24"/>
+      <c r="T113" s="23"/>
+      <c r="U113" s="24"/>
+      <c r="V113" s="24"/>
+      <c r="W113" s="25"/>
+      <c r="X113" s="24"/>
+      <c r="Y113" s="24"/>
+      <c r="Z113" s="24"/>
+      <c r="AA113" s="25"/>
+      <c r="AB113" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC113" s="51"/>
+      <c r="AD113" s="51"/>
+      <c r="AE113" s="51"/>
+      <c r="AF113" s="51"/>
+      <c r="AG113" s="51"/>
+      <c r="AH113" s="52"/>
     </row>
     <row r="114" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E114" s="15"/>
@@ -9055,14 +8844,14 @@
       <c r="X114" s="27"/>
       <c r="Y114" s="27"/>
       <c r="Z114" s="27"/>
-      <c r="AA114" s="27"/>
-      <c r="AB114" s="54"/>
-      <c r="AC114" s="55"/>
-      <c r="AD114" s="55"/>
-      <c r="AE114" s="55"/>
-      <c r="AF114" s="55"/>
-      <c r="AG114" s="55"/>
-      <c r="AH114" s="56"/>
+      <c r="AA114" s="28"/>
+      <c r="AB114" s="53"/>
+      <c r="AC114" s="54"/>
+      <c r="AD114" s="54"/>
+      <c r="AE114" s="54"/>
+      <c r="AF114" s="54"/>
+      <c r="AG114" s="54"/>
+      <c r="AH114" s="55"/>
     </row>
     <row r="115" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E115" s="15"/>
@@ -9087,14 +8876,14 @@
       <c r="X115" s="27"/>
       <c r="Y115" s="27"/>
       <c r="Z115" s="27"/>
-      <c r="AA115" s="27"/>
-      <c r="AB115" s="54"/>
-      <c r="AC115" s="55"/>
-      <c r="AD115" s="55"/>
-      <c r="AE115" s="55"/>
-      <c r="AF115" s="55"/>
-      <c r="AG115" s="55"/>
-      <c r="AH115" s="56"/>
+      <c r="AA115" s="28"/>
+      <c r="AB115" s="53"/>
+      <c r="AC115" s="54"/>
+      <c r="AD115" s="54"/>
+      <c r="AE115" s="54"/>
+      <c r="AF115" s="54"/>
+      <c r="AG115" s="54"/>
+      <c r="AH115" s="55"/>
     </row>
     <row r="116" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E116" s="15"/>
@@ -9120,81 +8909,77 @@
       <c r="Y116" s="27"/>
       <c r="Z116" s="27"/>
       <c r="AA116" s="27"/>
-      <c r="AB116" s="54"/>
-      <c r="AC116" s="55"/>
-      <c r="AD116" s="55"/>
-      <c r="AE116" s="55"/>
-      <c r="AF116" s="55"/>
-      <c r="AG116" s="55"/>
-      <c r="AH116" s="56"/>
+      <c r="AB116" s="53"/>
+      <c r="AC116" s="54"/>
+      <c r="AD116" s="54"/>
+      <c r="AE116" s="54"/>
+      <c r="AF116" s="54"/>
+      <c r="AG116" s="54"/>
+      <c r="AH116" s="55"/>
     </row>
     <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E117" s="15"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="30"/>
-      <c r="I117" s="30"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="30"/>
-      <c r="L117" s="30"/>
-      <c r="M117" s="30"/>
-      <c r="N117" s="29"/>
-      <c r="O117" s="30"/>
-      <c r="P117" s="31"/>
-      <c r="Q117" s="30"/>
-      <c r="R117" s="30"/>
-      <c r="S117" s="30"/>
-      <c r="T117" s="29"/>
-      <c r="U117" s="30"/>
-      <c r="V117" s="30"/>
-      <c r="W117" s="31"/>
-      <c r="X117" s="30"/>
-      <c r="Y117" s="30"/>
-      <c r="Z117" s="30"/>
-      <c r="AA117" s="30"/>
-      <c r="AB117" s="57"/>
-      <c r="AC117" s="58"/>
-      <c r="AD117" s="58"/>
-      <c r="AE117" s="58"/>
-      <c r="AF117" s="58"/>
-      <c r="AG117" s="58"/>
-      <c r="AH117" s="59"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="26"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="28"/>
+      <c r="Q117" s="27"/>
+      <c r="R117" s="27"/>
+      <c r="S117" s="27"/>
+      <c r="T117" s="26"/>
+      <c r="U117" s="27"/>
+      <c r="V117" s="27"/>
+      <c r="W117" s="28"/>
+      <c r="X117" s="27"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="27"/>
+      <c r="AA117" s="27"/>
+      <c r="AB117" s="53"/>
+      <c r="AC117" s="54"/>
+      <c r="AD117" s="54"/>
+      <c r="AE117" s="54"/>
+      <c r="AF117" s="54"/>
+      <c r="AG117" s="54"/>
+      <c r="AH117" s="55"/>
     </row>
     <row r="118" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E118" s="15"/>
-      <c r="F118" s="23">
-        <v>7</v>
-      </c>
-      <c r="G118" s="23"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="24"/>
-      <c r="L118" s="24"/>
-      <c r="M118" s="24"/>
-      <c r="N118" s="23"/>
-      <c r="O118" s="24"/>
-      <c r="P118" s="25"/>
-      <c r="Q118" s="24"/>
-      <c r="R118" s="24"/>
-      <c r="S118" s="24"/>
-      <c r="T118" s="23"/>
-      <c r="U118" s="24"/>
-      <c r="V118" s="24"/>
-      <c r="W118" s="25"/>
-      <c r="X118" s="24"/>
-      <c r="Y118" s="24"/>
-      <c r="Z118" s="24"/>
-      <c r="AA118" s="24"/>
-      <c r="AB118" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC118" s="52"/>
-      <c r="AD118" s="52"/>
-      <c r="AE118" s="52"/>
-      <c r="AF118" s="52"/>
-      <c r="AG118" s="52"/>
-      <c r="AH118" s="53"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="27"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="27"/>
+      <c r="P118" s="28"/>
+      <c r="Q118" s="27"/>
+      <c r="R118" s="27"/>
+      <c r="S118" s="27"/>
+      <c r="T118" s="26"/>
+      <c r="U118" s="27"/>
+      <c r="V118" s="27"/>
+      <c r="W118" s="28"/>
+      <c r="X118" s="27"/>
+      <c r="Y118" s="27"/>
+      <c r="Z118" s="27"/>
+      <c r="AA118" s="27"/>
+      <c r="AB118" s="53"/>
+      <c r="AC118" s="54"/>
+      <c r="AD118" s="54"/>
+      <c r="AE118" s="54"/>
+      <c r="AF118" s="54"/>
+      <c r="AG118" s="54"/>
+      <c r="AH118" s="55"/>
     </row>
     <row r="119" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E119" s="15"/>
@@ -9220,13 +9005,13 @@
       <c r="Y119" s="27"/>
       <c r="Z119" s="27"/>
       <c r="AA119" s="27"/>
-      <c r="AB119" s="54"/>
-      <c r="AC119" s="55"/>
-      <c r="AD119" s="55"/>
-      <c r="AE119" s="55"/>
-      <c r="AF119" s="55"/>
-      <c r="AG119" s="55"/>
-      <c r="AH119" s="56"/>
+      <c r="AB119" s="53"/>
+      <c r="AC119" s="54"/>
+      <c r="AD119" s="54"/>
+      <c r="AE119" s="54"/>
+      <c r="AF119" s="54"/>
+      <c r="AG119" s="54"/>
+      <c r="AH119" s="55"/>
     </row>
     <row r="120" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E120" s="15"/>
@@ -9252,13 +9037,13 @@
       <c r="Y120" s="27"/>
       <c r="Z120" s="27"/>
       <c r="AA120" s="27"/>
-      <c r="AB120" s="54"/>
-      <c r="AC120" s="55"/>
-      <c r="AD120" s="55"/>
-      <c r="AE120" s="55"/>
-      <c r="AF120" s="55"/>
-      <c r="AG120" s="55"/>
-      <c r="AH120" s="56"/>
+      <c r="AB120" s="53"/>
+      <c r="AC120" s="54"/>
+      <c r="AD120" s="54"/>
+      <c r="AE120" s="54"/>
+      <c r="AF120" s="54"/>
+      <c r="AG120" s="54"/>
+      <c r="AH120" s="55"/>
     </row>
     <row r="121" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="15"/>
@@ -9284,13 +9069,13 @@
       <c r="Y121" s="27"/>
       <c r="Z121" s="27"/>
       <c r="AA121" s="27"/>
-      <c r="AB121" s="54"/>
-      <c r="AC121" s="55"/>
-      <c r="AD121" s="55"/>
-      <c r="AE121" s="55"/>
-      <c r="AF121" s="55"/>
-      <c r="AG121" s="55"/>
-      <c r="AH121" s="56"/>
+      <c r="AB121" s="53"/>
+      <c r="AC121" s="54"/>
+      <c r="AD121" s="54"/>
+      <c r="AE121" s="54"/>
+      <c r="AF121" s="54"/>
+      <c r="AG121" s="54"/>
+      <c r="AH121" s="55"/>
     </row>
     <row r="122" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="15"/>
@@ -9316,77 +9101,81 @@
       <c r="Y122" s="27"/>
       <c r="Z122" s="27"/>
       <c r="AA122" s="27"/>
-      <c r="AB122" s="54"/>
-      <c r="AC122" s="55"/>
-      <c r="AD122" s="55"/>
-      <c r="AE122" s="55"/>
-      <c r="AF122" s="55"/>
-      <c r="AG122" s="55"/>
-      <c r="AH122" s="56"/>
+      <c r="AB122" s="53"/>
+      <c r="AC122" s="54"/>
+      <c r="AD122" s="54"/>
+      <c r="AE122" s="54"/>
+      <c r="AF122" s="54"/>
+      <c r="AG122" s="54"/>
+      <c r="AH122" s="55"/>
     </row>
     <row r="123" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E123" s="15"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="28"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="27"/>
-      <c r="M123" s="27"/>
-      <c r="N123" s="26"/>
-      <c r="O123" s="27"/>
-      <c r="P123" s="28"/>
-      <c r="Q123" s="27"/>
-      <c r="R123" s="27"/>
-      <c r="S123" s="27"/>
-      <c r="T123" s="26"/>
-      <c r="U123" s="27"/>
-      <c r="V123" s="27"/>
-      <c r="W123" s="28"/>
-      <c r="X123" s="27"/>
-      <c r="Y123" s="27"/>
-      <c r="Z123" s="27"/>
-      <c r="AA123" s="27"/>
-      <c r="AB123" s="54"/>
-      <c r="AC123" s="55"/>
-      <c r="AD123" s="55"/>
-      <c r="AE123" s="55"/>
-      <c r="AF123" s="55"/>
-      <c r="AG123" s="55"/>
-      <c r="AH123" s="56"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="31"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="30"/>
+      <c r="M123" s="30"/>
+      <c r="N123" s="29"/>
+      <c r="O123" s="30"/>
+      <c r="P123" s="31"/>
+      <c r="Q123" s="30"/>
+      <c r="R123" s="30"/>
+      <c r="S123" s="30"/>
+      <c r="T123" s="29"/>
+      <c r="U123" s="30"/>
+      <c r="V123" s="30"/>
+      <c r="W123" s="31"/>
+      <c r="X123" s="30"/>
+      <c r="Y123" s="30"/>
+      <c r="Z123" s="30"/>
+      <c r="AA123" s="30"/>
+      <c r="AB123" s="56"/>
+      <c r="AC123" s="57"/>
+      <c r="AD123" s="57"/>
+      <c r="AE123" s="57"/>
+      <c r="AF123" s="57"/>
+      <c r="AG123" s="57"/>
+      <c r="AH123" s="58"/>
     </row>
     <row r="124" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E124" s="15"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="28"/>
-      <c r="K124" s="27"/>
-      <c r="L124" s="27"/>
-      <c r="M124" s="27"/>
-      <c r="N124" s="26"/>
-      <c r="O124" s="27"/>
-      <c r="P124" s="28"/>
-      <c r="Q124" s="27"/>
-      <c r="R124" s="27"/>
-      <c r="S124" s="27"/>
-      <c r="T124" s="26"/>
-      <c r="U124" s="27"/>
-      <c r="V124" s="27"/>
-      <c r="W124" s="28"/>
-      <c r="X124" s="27"/>
-      <c r="Y124" s="27"/>
-      <c r="Z124" s="27"/>
-      <c r="AA124" s="27"/>
-      <c r="AB124" s="54"/>
-      <c r="AC124" s="55"/>
-      <c r="AD124" s="55"/>
-      <c r="AE124" s="55"/>
-      <c r="AF124" s="55"/>
-      <c r="AG124" s="55"/>
-      <c r="AH124" s="56"/>
+      <c r="F124" s="23">
+        <v>9</v>
+      </c>
+      <c r="G124" s="23"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="23"/>
+      <c r="O124" s="24"/>
+      <c r="P124" s="25"/>
+      <c r="Q124" s="24"/>
+      <c r="R124" s="24"/>
+      <c r="S124" s="24"/>
+      <c r="T124" s="23"/>
+      <c r="U124" s="24"/>
+      <c r="V124" s="24"/>
+      <c r="W124" s="25"/>
+      <c r="X124" s="24"/>
+      <c r="Y124" s="24"/>
+      <c r="Z124" s="24"/>
+      <c r="AA124" s="25"/>
+      <c r="AB124" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC124" s="51"/>
+      <c r="AD124" s="51"/>
+      <c r="AE124" s="51"/>
+      <c r="AF124" s="51"/>
+      <c r="AG124" s="51"/>
+      <c r="AH124" s="52"/>
     </row>
     <row r="125" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E125" s="15"/>
@@ -9411,118 +9200,112 @@
       <c r="X125" s="27"/>
       <c r="Y125" s="27"/>
       <c r="Z125" s="27"/>
-      <c r="AA125" s="27"/>
-      <c r="AB125" s="54"/>
-      <c r="AC125" s="55"/>
-      <c r="AD125" s="55"/>
-      <c r="AE125" s="55"/>
-      <c r="AF125" s="55"/>
-      <c r="AG125" s="55"/>
-      <c r="AH125" s="56"/>
+      <c r="AA125" s="28"/>
+      <c r="AB125" s="53"/>
+      <c r="AC125" s="54"/>
+      <c r="AD125" s="54"/>
+      <c r="AE125" s="54"/>
+      <c r="AF125" s="54"/>
+      <c r="AG125" s="54"/>
+      <c r="AH125" s="55"/>
     </row>
     <row r="126" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E126" s="15"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="30"/>
-      <c r="I126" s="30"/>
-      <c r="J126" s="31"/>
-      <c r="K126" s="30"/>
-      <c r="L126" s="30"/>
-      <c r="M126" s="30"/>
-      <c r="N126" s="29"/>
-      <c r="O126" s="30"/>
-      <c r="P126" s="31"/>
-      <c r="Q126" s="30"/>
-      <c r="R126" s="30"/>
-      <c r="S126" s="30"/>
-      <c r="T126" s="29"/>
-      <c r="U126" s="30"/>
-      <c r="V126" s="30"/>
-      <c r="W126" s="31"/>
-      <c r="X126" s="30"/>
-      <c r="Y126" s="30"/>
-      <c r="Z126" s="30"/>
-      <c r="AA126" s="30"/>
-      <c r="AB126" s="57"/>
-      <c r="AC126" s="58"/>
-      <c r="AD126" s="58"/>
-      <c r="AE126" s="58"/>
-      <c r="AF126" s="58"/>
-      <c r="AG126" s="58"/>
-      <c r="AH126" s="59"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="27"/>
+      <c r="N126" s="26"/>
+      <c r="O126" s="27"/>
+      <c r="P126" s="28"/>
+      <c r="Q126" s="27"/>
+      <c r="R126" s="27"/>
+      <c r="S126" s="27"/>
+      <c r="T126" s="26"/>
+      <c r="U126" s="27"/>
+      <c r="V126" s="27"/>
+      <c r="W126" s="28"/>
+      <c r="X126" s="27"/>
+      <c r="Y126" s="27"/>
+      <c r="Z126" s="27"/>
+      <c r="AA126" s="27"/>
+      <c r="AB126" s="53"/>
+      <c r="AC126" s="54"/>
+      <c r="AD126" s="54"/>
+      <c r="AE126" s="54"/>
+      <c r="AF126" s="54"/>
+      <c r="AG126" s="54"/>
+      <c r="AH126" s="55"/>
     </row>
     <row r="127" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E127" s="15"/>
-      <c r="F127" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="G127" s="72"/>
-      <c r="H127" s="72"/>
-      <c r="I127" s="72"/>
-      <c r="J127" s="72"/>
-      <c r="K127" s="72"/>
-      <c r="L127" s="72"/>
-      <c r="M127" s="72"/>
-      <c r="N127" s="72"/>
-      <c r="O127" s="72"/>
-      <c r="P127" s="72"/>
-      <c r="Q127" s="72"/>
-      <c r="R127" s="72"/>
-      <c r="S127" s="72"/>
-      <c r="T127" s="72"/>
-      <c r="U127" s="72"/>
-      <c r="V127" s="72"/>
-      <c r="W127" s="72"/>
-      <c r="X127" s="72"/>
-      <c r="Y127" s="72"/>
-      <c r="Z127" s="72"/>
-      <c r="AA127" s="72"/>
-      <c r="AB127" s="72"/>
-      <c r="AC127" s="72"/>
-      <c r="AD127" s="72"/>
-      <c r="AE127" s="72"/>
-      <c r="AF127" s="72"/>
-      <c r="AG127" s="72"/>
-      <c r="AH127" s="73"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="27"/>
+      <c r="N127" s="26"/>
+      <c r="O127" s="27"/>
+      <c r="P127" s="28"/>
+      <c r="Q127" s="27"/>
+      <c r="R127" s="27"/>
+      <c r="S127" s="27"/>
+      <c r="T127" s="26"/>
+      <c r="U127" s="27"/>
+      <c r="V127" s="27"/>
+      <c r="W127" s="28"/>
+      <c r="X127" s="27"/>
+      <c r="Y127" s="27"/>
+      <c r="Z127" s="27"/>
+      <c r="AA127" s="27"/>
+      <c r="AB127" s="53"/>
+      <c r="AC127" s="54"/>
+      <c r="AD127" s="54"/>
+      <c r="AE127" s="54"/>
+      <c r="AF127" s="54"/>
+      <c r="AG127" s="54"/>
+      <c r="AH127" s="55"/>
     </row>
     <row r="128" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E128" s="15"/>
-      <c r="F128" s="23">
-        <v>8</v>
-      </c>
-      <c r="G128" s="23"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="25"/>
-      <c r="K128" s="24"/>
-      <c r="L128" s="24"/>
-      <c r="M128" s="24"/>
-      <c r="N128" s="23"/>
-      <c r="O128" s="24"/>
-      <c r="P128" s="25"/>
-      <c r="Q128" s="24"/>
-      <c r="R128" s="24"/>
-      <c r="S128" s="24"/>
-      <c r="T128" s="23"/>
-      <c r="U128" s="24"/>
-      <c r="V128" s="24"/>
-      <c r="W128" s="25"/>
-      <c r="X128" s="24"/>
-      <c r="Y128" s="24"/>
-      <c r="Z128" s="24"/>
-      <c r="AA128" s="25"/>
-      <c r="AB128" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC128" s="52"/>
-      <c r="AD128" s="52"/>
-      <c r="AE128" s="52"/>
-      <c r="AF128" s="52"/>
-      <c r="AG128" s="52"/>
-      <c r="AH128" s="53"/>
-    </row>
-    <row r="129" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="28"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="26"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="28"/>
+      <c r="Q128" s="27"/>
+      <c r="R128" s="27"/>
+      <c r="S128" s="27"/>
+      <c r="T128" s="26"/>
+      <c r="U128" s="27"/>
+      <c r="V128" s="27"/>
+      <c r="W128" s="28"/>
+      <c r="X128" s="27"/>
+      <c r="Y128" s="27"/>
+      <c r="Z128" s="27"/>
+      <c r="AA128" s="27"/>
+      <c r="AB128" s="53"/>
+      <c r="AC128" s="54"/>
+      <c r="AD128" s="54"/>
+      <c r="AE128" s="54"/>
+      <c r="AF128" s="54"/>
+      <c r="AG128" s="54"/>
+      <c r="AH128" s="55"/>
+    </row>
+    <row r="129" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E129" s="15"/>
       <c r="F129" s="26"/>
       <c r="G129" s="26"/>
@@ -9545,16 +9328,16 @@
       <c r="X129" s="27"/>
       <c r="Y129" s="27"/>
       <c r="Z129" s="27"/>
-      <c r="AA129" s="28"/>
-      <c r="AB129" s="54"/>
-      <c r="AC129" s="55"/>
-      <c r="AD129" s="55"/>
-      <c r="AE129" s="55"/>
-      <c r="AF129" s="55"/>
-      <c r="AG129" s="55"/>
-      <c r="AH129" s="56"/>
-    </row>
-    <row r="130" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA129" s="27"/>
+      <c r="AB129" s="53"/>
+      <c r="AC129" s="54"/>
+      <c r="AD129" s="54"/>
+      <c r="AE129" s="54"/>
+      <c r="AF129" s="54"/>
+      <c r="AG129" s="54"/>
+      <c r="AH129" s="55"/>
+    </row>
+    <row r="130" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E130" s="15"/>
       <c r="F130" s="26"/>
       <c r="G130" s="26"/>
@@ -9577,16 +9360,16 @@
       <c r="X130" s="27"/>
       <c r="Y130" s="27"/>
       <c r="Z130" s="27"/>
-      <c r="AA130" s="28"/>
-      <c r="AB130" s="54"/>
-      <c r="AC130" s="55"/>
-      <c r="AD130" s="55"/>
-      <c r="AE130" s="55"/>
-      <c r="AF130" s="55"/>
-      <c r="AG130" s="55"/>
-      <c r="AH130" s="56"/>
-    </row>
-    <row r="131" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA130" s="27"/>
+      <c r="AB130" s="53"/>
+      <c r="AC130" s="54"/>
+      <c r="AD130" s="54"/>
+      <c r="AE130" s="54"/>
+      <c r="AF130" s="54"/>
+      <c r="AG130" s="54"/>
+      <c r="AH130" s="55"/>
+    </row>
+    <row r="131" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E131" s="15"/>
       <c r="F131" s="26"/>
       <c r="G131" s="26"/>
@@ -9610,717 +9393,248 @@
       <c r="Y131" s="27"/>
       <c r="Z131" s="27"/>
       <c r="AA131" s="27"/>
-      <c r="AB131" s="54"/>
-      <c r="AC131" s="55"/>
-      <c r="AD131" s="55"/>
-      <c r="AE131" s="55"/>
-      <c r="AF131" s="55"/>
-      <c r="AG131" s="55"/>
-      <c r="AH131" s="56"/>
-    </row>
-    <row r="132" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB131" s="53"/>
+      <c r="AC131" s="54"/>
+      <c r="AD131" s="54"/>
+      <c r="AE131" s="54"/>
+      <c r="AF131" s="54"/>
+      <c r="AG131" s="54"/>
+      <c r="AH131" s="55"/>
+    </row>
+    <row r="132" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E132" s="15"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="28"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="26"/>
-      <c r="O132" s="27"/>
-      <c r="P132" s="28"/>
-      <c r="Q132" s="27"/>
-      <c r="R132" s="27"/>
-      <c r="S132" s="27"/>
-      <c r="T132" s="26"/>
-      <c r="U132" s="27"/>
-      <c r="V132" s="27"/>
-      <c r="W132" s="28"/>
-      <c r="X132" s="27"/>
-      <c r="Y132" s="27"/>
-      <c r="Z132" s="27"/>
-      <c r="AA132" s="27"/>
-      <c r="AB132" s="54"/>
-      <c r="AC132" s="55"/>
-      <c r="AD132" s="55"/>
-      <c r="AE132" s="55"/>
-      <c r="AF132" s="55"/>
-      <c r="AG132" s="55"/>
-      <c r="AH132" s="56"/>
-    </row>
-    <row r="133" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="31"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="30"/>
+      <c r="M132" s="30"/>
+      <c r="N132" s="29"/>
+      <c r="O132" s="30"/>
+      <c r="P132" s="31"/>
+      <c r="Q132" s="30"/>
+      <c r="R132" s="30"/>
+      <c r="S132" s="30"/>
+      <c r="T132" s="29"/>
+      <c r="U132" s="30"/>
+      <c r="V132" s="30"/>
+      <c r="W132" s="31"/>
+      <c r="X132" s="30"/>
+      <c r="Y132" s="30"/>
+      <c r="Z132" s="30"/>
+      <c r="AA132" s="30"/>
+      <c r="AB132" s="56"/>
+      <c r="AC132" s="57"/>
+      <c r="AD132" s="57"/>
+      <c r="AE132" s="57"/>
+      <c r="AF132" s="57"/>
+      <c r="AG132" s="57"/>
+      <c r="AH132" s="58"/>
+    </row>
+    <row r="133" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E133" s="15"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="27"/>
-      <c r="L133" s="27"/>
-      <c r="M133" s="27"/>
-      <c r="N133" s="26"/>
-      <c r="O133" s="27"/>
-      <c r="P133" s="28"/>
-      <c r="Q133" s="27"/>
-      <c r="R133" s="27"/>
-      <c r="S133" s="27"/>
-      <c r="T133" s="26"/>
-      <c r="U133" s="27"/>
-      <c r="V133" s="27"/>
-      <c r="W133" s="28"/>
-      <c r="X133" s="27"/>
-      <c r="Y133" s="27"/>
-      <c r="Z133" s="27"/>
-      <c r="AA133" s="27"/>
-      <c r="AB133" s="54"/>
-      <c r="AC133" s="55"/>
-      <c r="AD133" s="55"/>
-      <c r="AE133" s="55"/>
-      <c r="AF133" s="55"/>
-      <c r="AG133" s="55"/>
-      <c r="AH133" s="56"/>
-    </row>
-    <row r="134" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="134" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E134" s="15"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="28"/>
-      <c r="K134" s="27"/>
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="26"/>
-      <c r="O134" s="27"/>
-      <c r="P134" s="28"/>
-      <c r="Q134" s="27"/>
-      <c r="R134" s="27"/>
-      <c r="S134" s="27"/>
-      <c r="T134" s="26"/>
-      <c r="U134" s="27"/>
-      <c r="V134" s="27"/>
-      <c r="W134" s="28"/>
-      <c r="X134" s="27"/>
-      <c r="Y134" s="27"/>
-      <c r="Z134" s="27"/>
-      <c r="AA134" s="27"/>
-      <c r="AB134" s="54"/>
-      <c r="AC134" s="55"/>
-      <c r="AD134" s="55"/>
-      <c r="AE134" s="55"/>
-      <c r="AF134" s="55"/>
-      <c r="AG134" s="55"/>
-      <c r="AH134" s="56"/>
-    </row>
-    <row r="135" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F134" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E135" s="15"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="28"/>
-      <c r="K135" s="27"/>
-      <c r="L135" s="27"/>
-      <c r="M135" s="27"/>
-      <c r="N135" s="26"/>
-      <c r="O135" s="27"/>
-      <c r="P135" s="28"/>
-      <c r="Q135" s="27"/>
-      <c r="R135" s="27"/>
-      <c r="S135" s="27"/>
-      <c r="T135" s="26"/>
-      <c r="U135" s="27"/>
-      <c r="V135" s="27"/>
-      <c r="W135" s="28"/>
-      <c r="X135" s="27"/>
-      <c r="Y135" s="27"/>
-      <c r="Z135" s="27"/>
-      <c r="AA135" s="27"/>
-      <c r="AB135" s="54"/>
-      <c r="AC135" s="55"/>
-      <c r="AD135" s="55"/>
-      <c r="AE135" s="55"/>
-      <c r="AF135" s="55"/>
-      <c r="AG135" s="55"/>
-      <c r="AH135" s="56"/>
-    </row>
-    <row r="136" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H135" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E136" s="15"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="28"/>
-      <c r="K136" s="27"/>
-      <c r="L136" s="27"/>
-      <c r="M136" s="27"/>
-      <c r="N136" s="26"/>
-      <c r="O136" s="27"/>
-      <c r="P136" s="28"/>
-      <c r="Q136" s="27"/>
-      <c r="R136" s="27"/>
-      <c r="S136" s="27"/>
-      <c r="T136" s="26"/>
-      <c r="U136" s="27"/>
-      <c r="V136" s="27"/>
-      <c r="W136" s="28"/>
-      <c r="X136" s="27"/>
-      <c r="Y136" s="27"/>
-      <c r="Z136" s="27"/>
-      <c r="AA136" s="27"/>
-      <c r="AB136" s="54"/>
-      <c r="AC136" s="55"/>
-      <c r="AD136" s="55"/>
-      <c r="AE136" s="55"/>
-      <c r="AF136" s="55"/>
-      <c r="AG136" s="55"/>
-      <c r="AH136" s="56"/>
-    </row>
-    <row r="137" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E137" s="15"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="28"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="27"/>
-      <c r="M137" s="27"/>
-      <c r="N137" s="26"/>
-      <c r="O137" s="27"/>
-      <c r="P137" s="28"/>
-      <c r="Q137" s="27"/>
-      <c r="R137" s="27"/>
-      <c r="S137" s="27"/>
-      <c r="T137" s="26"/>
-      <c r="U137" s="27"/>
-      <c r="V137" s="27"/>
-      <c r="W137" s="28"/>
-      <c r="X137" s="27"/>
-      <c r="Y137" s="27"/>
-      <c r="Z137" s="27"/>
-      <c r="AA137" s="27"/>
-      <c r="AB137" s="54"/>
-      <c r="AC137" s="55"/>
-      <c r="AD137" s="55"/>
-      <c r="AE137" s="55"/>
-      <c r="AF137" s="55"/>
-      <c r="AG137" s="55"/>
-      <c r="AH137" s="56"/>
-    </row>
-    <row r="138" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E138" s="15"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="30"/>
-      <c r="I138" s="30"/>
-      <c r="J138" s="31"/>
-      <c r="K138" s="30"/>
-      <c r="L138" s="30"/>
-      <c r="M138" s="30"/>
-      <c r="N138" s="29"/>
-      <c r="O138" s="30"/>
-      <c r="P138" s="31"/>
-      <c r="Q138" s="30"/>
-      <c r="R138" s="30"/>
-      <c r="S138" s="30"/>
-      <c r="T138" s="29"/>
-      <c r="U138" s="30"/>
-      <c r="V138" s="30"/>
-      <c r="W138" s="31"/>
-      <c r="X138" s="30"/>
-      <c r="Y138" s="30"/>
-      <c r="Z138" s="30"/>
-      <c r="AA138" s="30"/>
-      <c r="AB138" s="57"/>
-      <c r="AC138" s="58"/>
-      <c r="AD138" s="58"/>
-      <c r="AE138" s="58"/>
-      <c r="AF138" s="58"/>
-      <c r="AG138" s="58"/>
-      <c r="AH138" s="59"/>
-    </row>
-    <row r="139" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E139" s="15"/>
-      <c r="F139" s="23">
-        <v>9</v>
+      <c r="H136" s="4" t="s">
+        <v>51</v>
       </c>
-      <c r="G139" s="23"/>
-      <c r="H139" s="24"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="25"/>
-      <c r="K139" s="24"/>
-      <c r="L139" s="24"/>
-      <c r="M139" s="24"/>
-      <c r="N139" s="23"/>
-      <c r="O139" s="24"/>
-      <c r="P139" s="25"/>
-      <c r="Q139" s="24"/>
-      <c r="R139" s="24"/>
-      <c r="S139" s="24"/>
-      <c r="T139" s="23"/>
-      <c r="U139" s="24"/>
-      <c r="V139" s="24"/>
-      <c r="W139" s="25"/>
-      <c r="X139" s="24"/>
-      <c r="Y139" s="24"/>
-      <c r="Z139" s="24"/>
-      <c r="AA139" s="25"/>
-      <c r="AB139" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC139" s="52"/>
-      <c r="AD139" s="52"/>
-      <c r="AE139" s="52"/>
-      <c r="AF139" s="52"/>
-      <c r="AG139" s="52"/>
-      <c r="AH139" s="53"/>
-    </row>
-    <row r="140" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E140" s="15"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="28"/>
-      <c r="K140" s="27"/>
-      <c r="L140" s="27"/>
-      <c r="M140" s="27"/>
-      <c r="N140" s="26"/>
-      <c r="O140" s="27"/>
-      <c r="P140" s="28"/>
-      <c r="Q140" s="27"/>
-      <c r="R140" s="27"/>
-      <c r="S140" s="27"/>
-      <c r="T140" s="26"/>
-      <c r="U140" s="27"/>
-      <c r="V140" s="27"/>
-      <c r="W140" s="28"/>
-      <c r="X140" s="27"/>
-      <c r="Y140" s="27"/>
-      <c r="Z140" s="27"/>
-      <c r="AA140" s="28"/>
-      <c r="AB140" s="54"/>
-      <c r="AC140" s="55"/>
-      <c r="AD140" s="55"/>
-      <c r="AE140" s="55"/>
-      <c r="AF140" s="55"/>
-      <c r="AG140" s="55"/>
-      <c r="AH140" s="56"/>
-    </row>
-    <row r="141" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E141" s="15"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="28"/>
-      <c r="K141" s="27"/>
-      <c r="L141" s="27"/>
-      <c r="M141" s="27"/>
-      <c r="N141" s="26"/>
-      <c r="O141" s="27"/>
-      <c r="P141" s="28"/>
-      <c r="Q141" s="27"/>
-      <c r="R141" s="27"/>
-      <c r="S141" s="27"/>
-      <c r="T141" s="26"/>
-      <c r="U141" s="27"/>
-      <c r="V141" s="27"/>
-      <c r="W141" s="28"/>
-      <c r="X141" s="27"/>
-      <c r="Y141" s="27"/>
-      <c r="Z141" s="27"/>
-      <c r="AA141" s="27"/>
-      <c r="AB141" s="54"/>
-      <c r="AC141" s="55"/>
-      <c r="AD141" s="55"/>
-      <c r="AE141" s="55"/>
-      <c r="AF141" s="55"/>
-      <c r="AG141" s="55"/>
-      <c r="AH141" s="56"/>
-    </row>
-    <row r="142" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E142" s="15"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="28"/>
-      <c r="K142" s="27"/>
-      <c r="L142" s="27"/>
-      <c r="M142" s="27"/>
-      <c r="N142" s="26"/>
-      <c r="O142" s="27"/>
-      <c r="P142" s="28"/>
-      <c r="Q142" s="27"/>
-      <c r="R142" s="27"/>
-      <c r="S142" s="27"/>
-      <c r="T142" s="26"/>
-      <c r="U142" s="27"/>
-      <c r="V142" s="27"/>
-      <c r="W142" s="28"/>
-      <c r="X142" s="27"/>
-      <c r="Y142" s="27"/>
-      <c r="Z142" s="27"/>
-      <c r="AA142" s="27"/>
-      <c r="AB142" s="54"/>
-      <c r="AC142" s="55"/>
-      <c r="AD142" s="55"/>
-      <c r="AE142" s="55"/>
-      <c r="AF142" s="55"/>
-      <c r="AG142" s="55"/>
-      <c r="AH142" s="56"/>
-    </row>
-    <row r="143" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E143" s="15"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="28"/>
-      <c r="K143" s="27"/>
-      <c r="L143" s="27"/>
-      <c r="M143" s="27"/>
-      <c r="N143" s="26"/>
-      <c r="O143" s="27"/>
-      <c r="P143" s="28"/>
-      <c r="Q143" s="27"/>
-      <c r="R143" s="27"/>
-      <c r="S143" s="27"/>
-      <c r="T143" s="26"/>
-      <c r="U143" s="27"/>
-      <c r="V143" s="27"/>
-      <c r="W143" s="28"/>
-      <c r="X143" s="27"/>
-      <c r="Y143" s="27"/>
-      <c r="Z143" s="27"/>
-      <c r="AA143" s="27"/>
-      <c r="AB143" s="54"/>
-      <c r="AC143" s="55"/>
-      <c r="AD143" s="55"/>
-      <c r="AE143" s="55"/>
-      <c r="AF143" s="55"/>
-      <c r="AG143" s="55"/>
-      <c r="AH143" s="56"/>
-    </row>
-    <row r="144" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E144" s="15"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="26"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="28"/>
-      <c r="K144" s="27"/>
-      <c r="L144" s="27"/>
-      <c r="M144" s="27"/>
-      <c r="N144" s="26"/>
-      <c r="O144" s="27"/>
-      <c r="P144" s="28"/>
-      <c r="Q144" s="27"/>
-      <c r="R144" s="27"/>
-      <c r="S144" s="27"/>
-      <c r="T144" s="26"/>
-      <c r="U144" s="27"/>
-      <c r="V144" s="27"/>
-      <c r="W144" s="28"/>
-      <c r="X144" s="27"/>
-      <c r="Y144" s="27"/>
-      <c r="Z144" s="27"/>
-      <c r="AA144" s="27"/>
-      <c r="AB144" s="54"/>
-      <c r="AC144" s="55"/>
-      <c r="AD144" s="55"/>
-      <c r="AE144" s="55"/>
-      <c r="AF144" s="55"/>
-      <c r="AG144" s="55"/>
-      <c r="AH144" s="56"/>
-    </row>
-    <row r="145" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E145" s="15"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="28"/>
-      <c r="K145" s="27"/>
-      <c r="L145" s="27"/>
-      <c r="M145" s="27"/>
-      <c r="N145" s="26"/>
-      <c r="O145" s="27"/>
-      <c r="P145" s="28"/>
-      <c r="Q145" s="27"/>
-      <c r="R145" s="27"/>
-      <c r="S145" s="27"/>
-      <c r="T145" s="26"/>
-      <c r="U145" s="27"/>
-      <c r="V145" s="27"/>
-      <c r="W145" s="28"/>
-      <c r="X145" s="27"/>
-      <c r="Y145" s="27"/>
-      <c r="Z145" s="27"/>
-      <c r="AA145" s="27"/>
-      <c r="AB145" s="54"/>
-      <c r="AC145" s="55"/>
-      <c r="AD145" s="55"/>
-      <c r="AE145" s="55"/>
-      <c r="AF145" s="55"/>
-      <c r="AG145" s="55"/>
-      <c r="AH145" s="56"/>
-    </row>
-    <row r="146" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E146" s="15"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="26"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
-      <c r="J146" s="28"/>
-      <c r="K146" s="27"/>
-      <c r="L146" s="27"/>
-      <c r="M146" s="27"/>
-      <c r="N146" s="26"/>
-      <c r="O146" s="27"/>
-      <c r="P146" s="28"/>
-      <c r="Q146" s="27"/>
-      <c r="R146" s="27"/>
-      <c r="S146" s="27"/>
-      <c r="T146" s="26"/>
-      <c r="U146" s="27"/>
-      <c r="V146" s="27"/>
-      <c r="W146" s="28"/>
-      <c r="X146" s="27"/>
-      <c r="Y146" s="27"/>
-      <c r="Z146" s="27"/>
-      <c r="AA146" s="27"/>
-      <c r="AB146" s="54"/>
-      <c r="AC146" s="55"/>
-      <c r="AD146" s="55"/>
-      <c r="AE146" s="55"/>
-      <c r="AF146" s="55"/>
-      <c r="AG146" s="55"/>
-      <c r="AH146" s="56"/>
-    </row>
-    <row r="147" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E147" s="15"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="30"/>
-      <c r="I147" s="30"/>
-      <c r="J147" s="31"/>
-      <c r="K147" s="30"/>
-      <c r="L147" s="30"/>
-      <c r="M147" s="30"/>
-      <c r="N147" s="29"/>
-      <c r="O147" s="30"/>
-      <c r="P147" s="31"/>
-      <c r="Q147" s="30"/>
-      <c r="R147" s="30"/>
-      <c r="S147" s="30"/>
-      <c r="T147" s="29"/>
-      <c r="U147" s="30"/>
-      <c r="V147" s="30"/>
-      <c r="W147" s="31"/>
-      <c r="X147" s="30"/>
-      <c r="Y147" s="30"/>
-      <c r="Z147" s="30"/>
-      <c r="AA147" s="30"/>
-      <c r="AB147" s="57"/>
-      <c r="AC147" s="58"/>
-      <c r="AD147" s="58"/>
-      <c r="AE147" s="58"/>
-      <c r="AF147" s="58"/>
-      <c r="AG147" s="58"/>
-      <c r="AH147" s="59"/>
-    </row>
-    <row r="148" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E148" s="15"/>
-    </row>
-    <row r="149" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E149" s="15"/>
-      <c r="F149" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="150" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E150" s="15"/>
-      <c r="H150" s="4" t="s">
+    </row>
+    <row r="137" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="18"/>
+      <c r="H137" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E151" s="15"/>
-      <c r="H151" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="152" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="18"/>
-      <c r="H152" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="153" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="18"/>
-    </row>
-    <row r="154" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="155" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D155" s="15" t="str">
+    <row r="138" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D138" s="18"/>
+    </row>
+    <row r="139" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D140" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.2.3.</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E140" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E156" s="16" t="s">
+    <row r="141" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E141" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="158" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="159" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D159" s="15" t="str">
+    <row r="142" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D144" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.2.4.</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E144" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E160" s="16" t="s">
-        <v>73</v>
+    <row r="145" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E145" s="16" t="s">
+        <v>58</v>
       </c>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="17"/>
-      <c r="K160" s="17"/>
-      <c r="L160" s="17"/>
-      <c r="M160" s="17"/>
-      <c r="N160" s="17"/>
-      <c r="O160" s="17"/>
-      <c r="P160" s="17"/>
-      <c r="Q160" s="17"/>
-      <c r="R160" s="17"/>
-      <c r="S160" s="17"/>
-      <c r="T160" s="17"/>
-      <c r="U160" s="17"/>
-      <c r="V160" s="17"/>
-      <c r="W160" s="17"/>
-      <c r="X160" s="17"/>
-      <c r="Y160" s="17"/>
-      <c r="Z160" s="17"/>
-      <c r="AA160" s="17"/>
-      <c r="AB160" s="17"/>
-      <c r="AC160" s="17"/>
-      <c r="AD160" s="17"/>
-      <c r="AE160" s="17"/>
-      <c r="AF160" s="17"/>
-      <c r="AG160" s="17"/>
-      <c r="AH160" s="17"/>
-    </row>
-    <row r="161" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D161" s="15"/>
-    </row>
-    <row r="162" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="163" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D163" s="15" t="str">
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
+      <c r="R145" s="17"/>
+      <c r="S145" s="17"/>
+      <c r="T145" s="17"/>
+      <c r="U145" s="17"/>
+      <c r="V145" s="17"/>
+      <c r="W145" s="17"/>
+      <c r="X145" s="17"/>
+      <c r="Y145" s="17"/>
+      <c r="Z145" s="17"/>
+      <c r="AA145" s="17"/>
+      <c r="AB145" s="17"/>
+      <c r="AC145" s="17"/>
+      <c r="AD145" s="17"/>
+      <c r="AE145" s="17"/>
+      <c r="AF145" s="17"/>
+      <c r="AG145" s="17"/>
+      <c r="AH145" s="17"/>
+    </row>
+    <row r="146" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D146" s="15"/>
+    </row>
+    <row r="147" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="148" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D148" s="15" t="str">
         <f>$C$7&amp;"5."</f>
         <v>6.2.5.</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E148" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E164" s="16" t="s">
+    <row r="149" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E149" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E165" s="16" t="s">
+    <row r="150" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E150" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="167" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E167" s="18" t="s">
+    <row r="151" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="152" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E152" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F167" s="16" t="s">
+      <c r="F152" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F168" s="16" t="s">
+    <row r="153" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F153" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F169" s="16" t="s">
+    <row r="154" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F154" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="171" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D171" s="15" t="str">
+    <row r="155" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="156" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D156" s="15" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.2.6.</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E156" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E172" s="16" t="s">
+    <row r="157" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E157" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="174" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E174" s="18" t="s">
+    <row r="158" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E159" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F174" s="16" t="s">
-        <v>86</v>
+      <c r="F159" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="175" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F175" s="16" t="s">
+    <row r="160" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F160" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F176" s="16" t="s">
+    <row r="161" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F161" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="4:4" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="178" spans="4:4" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="179" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D179" s="16"/>
-    </row>
-    <row r="180" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="163" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="164" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D164" s="16"/>
+    </row>
+    <row r="165" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10724,21 +10038,6 @@
     <row r="593" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="594" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="595" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="E1:O1"/>
@@ -10751,26 +10050,26 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AB139:AH147"/>
-    <mergeCell ref="AB106:AH117"/>
-    <mergeCell ref="AB118:AH126"/>
-    <mergeCell ref="AB128:AH138"/>
+    <mergeCell ref="AB124:AH132"/>
+    <mergeCell ref="AB91:AH102"/>
+    <mergeCell ref="AB103:AH111"/>
+    <mergeCell ref="AB113:AH123"/>
     <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB83:AH92"/>
-    <mergeCell ref="AB93:AH105"/>
-    <mergeCell ref="AB70:AH82"/>
-    <mergeCell ref="AB58:AH69"/>
-    <mergeCell ref="AB49:AH57"/>
-    <mergeCell ref="F127:AH127"/>
+    <mergeCell ref="AB68:AH77"/>
+    <mergeCell ref="AB78:AH90"/>
+    <mergeCell ref="AB55:AH67"/>
+    <mergeCell ref="AB43:AH54"/>
+    <mergeCell ref="AB34:AH42"/>
+    <mergeCell ref="F112:AH112"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="42" max="34" man="1"/>
-    <brk id="82" max="34" man="1"/>
-    <brk id="127" max="34" man="1"/>
-    <brk id="170" max="34" man="1"/>
+    <brk id="27" max="34" man="1"/>
+    <brk id="67" max="34" man="1"/>
+    <brk id="112" max="34" man="1"/>
+    <brk id="155" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E647B14B-AA1B-440E-A050-50BAC119C8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.2.ファイル転送（配信）" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$180</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'6.2.ファイル転送（配信）'!$A$1:$AI$164</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -174,75 +186,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HULFTと比べると、追加のミドルウェアをインストールすることなく運用することが可能である。</t>
-    <rPh sb="6" eb="7">
-      <t>クラ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>方針</t>
-  </si>
-  <si>
-    <t>理由</t>
-    <rPh sb="0" eb="2">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HULFT</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用する</t>
-  </si>
-  <si>
-    <t>外部IFの要件に基づき、HULFT通信を使用する。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FTP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用しない</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SFTP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>処理方式概要</t>
-  </si>
-  <si>
-    <t>上記の特徴を踏まえ、本システムでの選択基準を以下に示す。</t>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>本項では、ファイルの出力からファイルの配信に至るまでの処理について方式設計を行う。</t>
@@ -303,79 +247,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ファイル転送方式（配信）は、ファイルの生成からファイルの配信に至るまでの処理についての方式設計を行う。</t>
-    <rPh sb="9" eb="11">
-      <t>ハイシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外部IFの要件に基づき、FTPによるファイル転送（配信）を使用しない。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハイシン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外部IFの要件に基づき、SFTPによるファイル転送（配信）を使用する。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハイシン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外部IFの要件に基づき、SCPによるファイル転送（配信）を使用しない。</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハイシン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -409,10 +280,6 @@
   </si>
   <si>
     <t>ディレクトリ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>JAVA</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -463,26 +330,6 @@
     <t>配信</t>
     <rPh sb="0" eb="2">
       <t>ハイシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>配信用のファイルを作成する実行モジュールを起動する。
-1取引に複数の実行モジュールがある場合は、No.2のジョブは同じ数分用意する。
-(1ジョブ=1実行モジュールの呼び出し）
-※都度起動バッチが実行される想定。
-※JAVAアプリケーションである。</t>
-    <rPh sb="90" eb="92">
-      <t>ツド</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ソウテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -608,26 +455,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>※HULFT独自の暗号化通信を行う。</t>
-    <rPh sb="6" eb="8">
-      <t>ドクジ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SCP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>≪HULFT配信の場合は以降を実施≫　　　　　　HULFTのジョブ連携機能を利用</t>
     <rPh sb="6" eb="8">
       <t>ハイシン</t>
@@ -733,35 +560,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>SCP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SFTPと比較すると、高速にファイルを転送することができるが、転送を中断した場合に再開ができない。</t>
-    <rPh sb="5" eb="7">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウソク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>チュウダン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サイカイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>上記１，２に関しては【7.11.暗号化・ハッシュ化】および【7.2.文字コード】を参照。</t>
     <rPh sb="0" eb="2">
       <t>ジョウキ</t>
@@ -825,35 +623,78 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>SFTPと同じく、SSHによる暗号化によってセキュリティ対策が施されている。</t>
-    <rPh sb="5" eb="6">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ホドコ</t>
+    <t>ファイル配信障害のリカバリ方法</t>
+    <rPh sb="4" eb="6">
+      <t>ハイシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>使用する</t>
+    <t>Java</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ファイル配信障害のリカバリ方法</t>
-    <rPh sb="4" eb="6">
+    <t>配信用のファイルを作成する実行モジュールを起動する。
+1取引に複数の実行モジュールがある場合は、No.2のジョブは同じ数分用意する。
+(1ジョブ=1実行モジュールの呼び出し）
+※都度起動バッチが実行される想定。
+※Javaアプリケーションである。</t>
+    <rPh sb="90" eb="92">
+      <t>ツド</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本システムでは、ファイル転送（配信）に以下の方法を使用する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>ハイシン</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショウガイ</t>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SFTPクライアントの方式概要</t>
+    <rPh sb="11" eb="13">
+      <t>ホウシキ</t>
     </rPh>
     <rPh sb="13" eb="15">
-      <t>ホウホウ</t>
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【5.1.1.3.SFTPクライアントの方式概要】参照。</t>
+    <rPh sb="25" eb="27">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -861,7 +702,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1194,9 +1035,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1377,19 +1215,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1401,18 +1245,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1457,18 +1307,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1526,16 +1382,6 @@
             </a:rPr>
             <a:t>ファイルコピー</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
@@ -1564,18 +1410,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="フローチャート : 記憶データ 84"/>
+        <xdr:cNvPr id="85" name="フローチャート : 記憶データ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1626,18 +1478,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+        <xdr:cNvPr id="87" name="正方形/長方形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1695,16 +1553,6 @@
             </a:rPr>
             <a:t>ファイルコピー</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐ明朝" panose="02020600040205080304" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
@@ -1733,18 +1581,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="フローチャート : 記憶データ 87"/>
+        <xdr:cNvPr id="88" name="フローチャート : 記憶データ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1795,18 +1649,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="フローチャート : 記憶データ 88"/>
+        <xdr:cNvPr id="89" name="フローチャート : 記憶データ 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1857,18 +1717,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="フローチャート : 記憶データ 89"/>
+        <xdr:cNvPr id="90" name="フローチャート : 記憶データ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1919,18 +1785,24 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="カギ線コネクタ 90"/>
+        <xdr:cNvPr id="91" name="カギ線コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="90" idx="2"/>
           <a:endCxn id="88" idx="3"/>
@@ -1973,18 +1845,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直線矢印コネクタ 91"/>
+        <xdr:cNvPr id="92" name="直線矢印コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="83" idx="3"/>
           <a:endCxn id="130" idx="1"/>
@@ -2027,18 +1905,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="直線矢印コネクタ 93"/>
+        <xdr:cNvPr id="94" name="直線矢印コネクタ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="87" idx="3"/>
           <a:endCxn id="90" idx="1"/>
@@ -2081,18 +1965,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+        <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2159,18 +2049,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="フローチャート : 記憶データ 96"/>
+        <xdr:cNvPr id="97" name="フローチャート : 記憶データ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2221,18 +2117,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="3"/>
           <a:endCxn id="97" idx="1"/>
@@ -2275,18 +2177,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="フローチャート : 記憶データ 98"/>
+        <xdr:cNvPr id="99" name="フローチャート : 記憶データ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2337,18 +2245,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="直線矢印コネクタ 99"/>
+        <xdr:cNvPr id="100" name="直線矢印コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="97" idx="2"/>
           <a:endCxn id="99" idx="0"/>
@@ -2391,18 +2305,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="フローチャート : 記憶データ 101"/>
+        <xdr:cNvPr id="102" name="フローチャート : 記憶データ 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2453,18 +2373,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2561,18 +2487,24 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2639,18 +2571,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="直線矢印コネクタ 104"/>
+        <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="103" idx="3"/>
           <a:endCxn id="104" idx="1"/>
@@ -2692,18 +2630,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>261939</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="106" name="カギ線コネクタ 105"/>
+        <xdr:cNvPr id="106" name="カギ線コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="104" idx="2"/>
           <a:endCxn id="102" idx="0"/>
@@ -2748,18 +2692,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2826,18 +2776,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="フローチャート : 記憶データ 108"/>
+        <xdr:cNvPr id="109" name="フローチャート : 記憶データ 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2888,18 +2844,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直線矢印コネクタ 109"/>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="107" idx="3"/>
           <a:endCxn id="109" idx="1"/>
@@ -2942,18 +2904,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="乗算記号 110"/>
+        <xdr:cNvPr id="111" name="乗算記号 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2994,18 +2962,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="直線矢印コネクタ 113"/>
+        <xdr:cNvPr id="114" name="直線矢印コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="155" idx="2"/>
           <a:endCxn id="125" idx="0"/>
@@ -3047,18 +3021,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="直線矢印コネクタ 114"/>
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="83" idx="2"/>
           <a:endCxn id="87" idx="0"/>
@@ -3100,18 +3080,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="直線矢印コネクタ 115"/>
+        <xdr:cNvPr id="116" name="直線矢印コネクタ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="87" idx="2"/>
           <a:endCxn id="141" idx="0"/>
@@ -3153,18 +3139,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直線矢印コネクタ 116"/>
+        <xdr:cNvPr id="117" name="直線矢印コネクタ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="2"/>
           <a:endCxn id="83" idx="0"/>
@@ -3206,18 +3198,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="直線矢印コネクタ 117"/>
+        <xdr:cNvPr id="118" name="直線矢印コネクタ 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="103" idx="2"/>
           <a:endCxn id="95" idx="0"/>
@@ -3259,18 +3257,24 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="テキスト ボックス 122"/>
+        <xdr:cNvPr id="123" name="テキスト ボックス 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3318,18 +3322,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="直線矢印コネクタ 123"/>
+        <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="123" idx="1"/>
           <a:endCxn id="125" idx="3"/>
@@ -3372,18 +3382,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+        <xdr:cNvPr id="125" name="正方形/長方形 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3450,18 +3466,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="直線矢印コネクタ 127"/>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="107" idx="2"/>
           <a:endCxn id="103" idx="0"/>
@@ -3503,18 +3525,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="フローチャート : 記憶データ 129"/>
+        <xdr:cNvPr id="130" name="フローチャート : 記憶データ 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3565,18 +3593,24 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>22226</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="カギ線コネクタ 132"/>
+        <xdr:cNvPr id="133" name="カギ線コネクタ 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="130" idx="2"/>
           <a:endCxn id="85" idx="3"/>
@@ -3619,18 +3653,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="正方形/長方形 140"/>
+        <xdr:cNvPr id="141" name="正方形/長方形 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3697,18 +3737,24 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="正方形/長方形 141"/>
+        <xdr:cNvPr id="142" name="正方形/長方形 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3795,18 +3841,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="143" name="直線矢印コネクタ 142"/>
+        <xdr:cNvPr id="143" name="直線矢印コネクタ 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="141" idx="3"/>
           <a:endCxn id="142" idx="1"/>
@@ -3848,18 +3900,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="フローチャート : 記憶データ 143"/>
+        <xdr:cNvPr id="144" name="フローチャート : 記憶データ 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3910,18 +3968,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="145" name="カギ線コネクタ 144"/>
+        <xdr:cNvPr id="145" name="カギ線コネクタ 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="142" idx="2"/>
           <a:endCxn id="144" idx="0"/>
@@ -3964,18 +4028,24 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="テキスト ボックス 145"/>
+        <xdr:cNvPr id="146" name="テキスト ボックス 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4023,18 +4093,24 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="147" name="直線矢印コネクタ 146"/>
+        <xdr:cNvPr id="147" name="直線矢印コネクタ 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="144" idx="3"/>
           <a:endCxn id="146" idx="1"/>
@@ -4077,18 +4153,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="148" name="直線矢印コネクタ 147"/>
+        <xdr:cNvPr id="148" name="直線矢印コネクタ 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="141" idx="2"/>
           <a:endCxn id="155" idx="0"/>
@@ -4130,18 +4212,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="フローチャート : 記憶データ 152"/>
+        <xdr:cNvPr id="153" name="フローチャート : 記憶データ 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4192,18 +4280,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="フローチャート : 記憶データ 153"/>
+        <xdr:cNvPr id="154" name="フローチャート : 記憶データ 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4254,18 +4348,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="正方形/長方形 154"/>
+        <xdr:cNvPr id="155" name="正方形/長方形 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4332,18 +4432,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="157" name="直線矢印コネクタ 156"/>
+        <xdr:cNvPr id="157" name="直線矢印コネクタ 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="155" idx="3"/>
           <a:endCxn id="160" idx="1"/>
@@ -4386,18 +4492,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="フローチャート : 記憶データ 159"/>
+        <xdr:cNvPr id="160" name="フローチャート : 記憶データ 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4448,18 +4560,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="乗算記号 162"/>
+        <xdr:cNvPr id="163" name="乗算記号 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4500,18 +4618,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="フローチャート : 記憶データ 163"/>
+        <xdr:cNvPr id="164" name="フローチャート : 記憶データ 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4562,18 +4686,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="フローチャート : 記憶データ 164"/>
+        <xdr:cNvPr id="165" name="フローチャート : 記憶データ 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4624,18 +4754,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="フローチャート : 記憶データ 178"/>
+        <xdr:cNvPr id="179" name="フローチャート : 記憶データ 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4686,18 +4822,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="フローチャート : 記憶データ 179"/>
+        <xdr:cNvPr id="180" name="フローチャート : 記憶データ 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4748,18 +4890,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4810,18 +4958,24 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="テキスト ボックス 128"/>
+        <xdr:cNvPr id="129" name="テキスト ボックス 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4868,18 +5022,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="テキスト ボックス 130"/>
+        <xdr:cNvPr id="131" name="テキスト ボックス 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4926,18 +5086,24 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="テキスト ボックス 133"/>
+        <xdr:cNvPr id="134" name="テキスト ボックス 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4984,18 +5150,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5062,18 +5234,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線矢印コネクタ 69"/>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="125" idx="2"/>
           <a:endCxn id="67" idx="0"/>
@@ -5115,7 +5293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5157,7 +5335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5190,9 +5368,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5225,6 +5420,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5400,11 +5612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI611"/>
+  <dimension ref="A1:AI595"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -5420,43 +5632,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="77" t="s">
-        <v>75</v>
+      <c r="R1" s="76" t="s">
+        <v>57</v>
       </c>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="79"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="78"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="62"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="61"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -5465,43 +5677,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="85"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="88"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="87"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="62"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="61"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -5510,39 +5722,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="91"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="90"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="62"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="61"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5572,7 +5784,7 @@
         <v>6.2.1.</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5588,108 +5800,136 @@
     </row>
     <row r="11" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F11" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="F12" s="16" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F13" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="15" t="str">
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="15" t="str">
         <f>$D$9&amp;"2."</f>
         <v>6.2.1.2.</v>
       </c>
-      <c r="F15" s="4" t="str">
+      <c r="F14" s="4" t="str">
         <f>D7&amp;"方法"</f>
         <v>ファイル転送（配信）方法</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="4" t="str">
-        <f>D6&amp;"を行う機能には、以下の方法がある。"</f>
-        <v>を行う機能には、以下の方法がある。</v>
+    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="19"/>
+      <c r="F17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="22"/>
+    </row>
     <row r="18" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
-      <c r="F18" s="20" t="s">
-        <v>44</v>
+      <c r="F18" s="23" t="s">
+        <v>59</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="21" t="s">
-        <v>27</v>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="23" t="s">
+        <v>31</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="22"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="25"/>
     </row>
     <row r="19" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="19"/>
-      <c r="F19" s="23" t="s">
-        <v>77</v>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26" t="s">
+        <v>32</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="25"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="28"/>
     </row>
     <row r="20" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="19"/>
@@ -5698,7 +5938,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="26" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
@@ -5727,871 +5967,817 @@
     </row>
     <row r="21" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="19"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="26" t="s">
-        <v>28</v>
+      <c r="F21" s="23" t="s">
+        <v>60</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="28"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="25"/>
     </row>
     <row r="22" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="19"/>
-      <c r="F22" s="23" t="s">
-        <v>78</v>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="26" t="s">
+        <v>61</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="23" t="s">
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="28"/>
+    </row>
+    <row r="23" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="19"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="31"/>
+    </row>
+    <row r="24" spans="2:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="18"/>
+      <c r="E24" s="92"/>
+    </row>
+    <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="15" t="str">
+        <f>$D$9&amp;"3."</f>
+        <v>6.2.1.3.</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="15"/>
+      <c r="F26" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="15" t="str">
+        <f>$C$7&amp;"2."</f>
+        <v>6.2.2.</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="15"/>
+      <c r="F29" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="15"/>
+      <c r="F31" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="37"/>
+    </row>
+    <row r="32" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="15"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="42"/>
+    </row>
+    <row r="33" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="15"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="35"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="25"/>
-    </row>
-    <row r="23" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="19"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="26" t="s">
-        <v>79</v>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="48"/>
+      <c r="AE33" s="48"/>
+      <c r="AF33" s="48"/>
+      <c r="AG33" s="48"/>
+      <c r="AH33" s="49"/>
+    </row>
+    <row r="34" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="15"/>
+      <c r="F34" s="23">
+        <v>1</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="28"/>
-    </row>
-    <row r="24" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="19"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="26" t="s">
-        <v>80</v>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="50" t="s">
+        <v>65</v>
       </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="28"/>
-    </row>
-    <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="19"/>
-      <c r="F25" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="25"/>
-    </row>
-    <row r="26" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="19"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="28"/>
-    </row>
-    <row r="27" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="19"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="31"/>
-    </row>
-    <row r="28" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="19"/>
-      <c r="F28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="25"/>
-    </row>
-    <row r="29" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="19"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="31"/>
-    </row>
-    <row r="30" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="19"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="27"/>
-    </row>
-    <row r="31" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="19"/>
-      <c r="F31" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F32" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="22"/>
-    </row>
-    <row r="33" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="28"/>
-    </row>
-    <row r="34" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="31"/>
-    </row>
-    <row r="35" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="27"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="52"/>
+    </row>
+    <row r="35" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="15"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="27" t="s">
-        <v>88</v>
-      </c>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
       <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="32" t="s">
-        <v>47</v>
-      </c>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="28"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
+      <c r="T35" s="26"/>
       <c r="U35" s="27"/>
       <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
+      <c r="W35" s="28"/>
       <c r="X35" s="27"/>
       <c r="Y35" s="27"/>
       <c r="Z35" s="27"/>
       <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="27"/>
-      <c r="AH35" s="28"/>
-    </row>
-    <row r="36" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="31"/>
-    </row>
-    <row r="37" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="27"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="54"/>
+      <c r="AH35" s="55"/>
+    </row>
+    <row r="36" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="15"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="54"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="54"/>
+      <c r="AH36" s="55"/>
+    </row>
+    <row r="37" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="15"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
       <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="32" t="s">
-        <v>48</v>
-      </c>
+      <c r="N37" s="26"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="28"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
       <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
+      <c r="T37" s="26"/>
       <c r="U37" s="27"/>
       <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
+      <c r="W37" s="28"/>
       <c r="X37" s="27"/>
       <c r="Y37" s="27"/>
       <c r="Z37" s="27"/>
       <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="27"/>
-      <c r="AH37" s="28"/>
-    </row>
-    <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="30"/>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="30"/>
-      <c r="AH38" s="31"/>
-    </row>
-    <row r="39" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="27"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="54"/>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="54"/>
+      <c r="AG37" s="54"/>
+      <c r="AH37" s="55"/>
+    </row>
+    <row r="38" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="15"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
+      <c r="AG38" s="54"/>
+      <c r="AH38" s="55"/>
+    </row>
+    <row r="39" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="15"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="32" t="s">
-        <v>46</v>
-      </c>
+      <c r="N39" s="26"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="28"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
+      <c r="T39" s="26"/>
       <c r="U39" s="27"/>
       <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
+      <c r="W39" s="28"/>
       <c r="X39" s="27"/>
       <c r="Y39" s="27"/>
       <c r="Z39" s="27"/>
       <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="28"/>
-    </row>
-    <row r="40" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30"/>
-      <c r="AF40" s="30"/>
-      <c r="AG40" s="30"/>
-      <c r="AH40" s="31"/>
-    </row>
-    <row r="41" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="54"/>
+      <c r="AH39" s="55"/>
+    </row>
+    <row r="40" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="15"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="54"/>
+      <c r="AE40" s="54"/>
+      <c r="AF40" s="54"/>
+      <c r="AG40" s="54"/>
+      <c r="AH40" s="55"/>
+    </row>
+    <row r="41" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="15"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
+      <c r="J41" s="28"/>
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
+      <c r="N41" s="26"/>
       <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
+      <c r="P41" s="28"/>
       <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
       <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
+      <c r="T41" s="26"/>
       <c r="U41" s="27"/>
       <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
+      <c r="W41" s="28"/>
       <c r="X41" s="27"/>
       <c r="Y41" s="27"/>
       <c r="Z41" s="27"/>
       <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="27"/>
-    </row>
-    <row r="42" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="15" t="str">
-        <f>$C$7&amp;"2."</f>
-        <v>6.2.2.</v>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="54"/>
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="55"/>
+    </row>
+    <row r="42" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="15"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="56"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="57"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57"/>
+      <c r="AH42" s="58"/>
+    </row>
+    <row r="43" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="15"/>
+      <c r="F43" s="23">
+        <v>2</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>12</v>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="50" t="s">
+        <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC43" s="51"/>
+      <c r="AD43" s="51"/>
+      <c r="AE43" s="51"/>
+      <c r="AF43" s="51"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="52"/>
+    </row>
+    <row r="44" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="15"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="53"/>
+      <c r="AC44" s="54"/>
+      <c r="AD44" s="54"/>
+      <c r="AE44" s="54"/>
+      <c r="AF44" s="54"/>
+      <c r="AG44" s="54"/>
+      <c r="AH44" s="55"/>
+    </row>
+    <row r="45" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="15"/>
-      <c r="F45" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="54"/>
+      <c r="AD45" s="54"/>
+      <c r="AE45" s="54"/>
+      <c r="AF45" s="54"/>
+      <c r="AG45" s="54"/>
+      <c r="AH45" s="55"/>
+    </row>
+    <row r="46" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="53"/>
+      <c r="AC46" s="54"/>
+      <c r="AD46" s="54"/>
+      <c r="AE46" s="54"/>
+      <c r="AF46" s="54"/>
+      <c r="AG46" s="54"/>
+      <c r="AH46" s="55"/>
+    </row>
+    <row r="47" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E47" s="15"/>
-      <c r="F47" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="37"/>
-      <c r="AE47" s="37"/>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="38"/>
-    </row>
-    <row r="48" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="53"/>
+      <c r="AC47" s="54"/>
+      <c r="AD47" s="54"/>
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="54"/>
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="55"/>
+    </row>
+    <row r="48" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E48" s="15"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
-      <c r="AA48" s="40"/>
-      <c r="AB48" s="39"/>
-      <c r="AC48" s="42"/>
-      <c r="AD48" s="42"/>
-      <c r="AE48" s="42"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="43"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="54"/>
+      <c r="AD48" s="54"/>
+      <c r="AE48" s="54"/>
+      <c r="AF48" s="54"/>
+      <c r="AG48" s="54"/>
+      <c r="AH48" s="55"/>
     </row>
     <row r="49" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="15"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
-      <c r="AA49" s="45"/>
-      <c r="AB49" s="44"/>
-      <c r="AC49" s="49"/>
-      <c r="AD49" s="49"/>
-      <c r="AE49" s="49"/>
-      <c r="AF49" s="49"/>
-      <c r="AG49" s="49"/>
-      <c r="AH49" s="50"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="54"/>
+      <c r="AD49" s="54"/>
+      <c r="AE49" s="54"/>
+      <c r="AF49" s="54"/>
+      <c r="AG49" s="54"/>
+      <c r="AH49" s="55"/>
     </row>
     <row r="50" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="15"/>
-      <c r="F50" s="23">
-        <v>1</v>
-      </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC50" s="52"/>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="52"/>
-      <c r="AH50" s="53"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="54"/>
+      <c r="AD50" s="54"/>
+      <c r="AE50" s="54"/>
+      <c r="AF50" s="54"/>
+      <c r="AG50" s="54"/>
+      <c r="AH50" s="55"/>
     </row>
     <row r="51" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E51" s="15"/>
@@ -6617,13 +6803,13 @@
       <c r="Y51" s="27"/>
       <c r="Z51" s="27"/>
       <c r="AA51" s="27"/>
-      <c r="AB51" s="54"/>
-      <c r="AC51" s="55"/>
-      <c r="AD51" s="55"/>
-      <c r="AE51" s="55"/>
-      <c r="AF51" s="55"/>
-      <c r="AG51" s="55"/>
-      <c r="AH51" s="56"/>
+      <c r="AB51" s="53"/>
+      <c r="AC51" s="54"/>
+      <c r="AD51" s="54"/>
+      <c r="AE51" s="54"/>
+      <c r="AF51" s="54"/>
+      <c r="AG51" s="54"/>
+      <c r="AH51" s="55"/>
     </row>
     <row r="52" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E52" s="15"/>
@@ -6649,13 +6835,13 @@
       <c r="Y52" s="27"/>
       <c r="Z52" s="27"/>
       <c r="AA52" s="27"/>
-      <c r="AB52" s="54"/>
-      <c r="AC52" s="55"/>
-      <c r="AD52" s="55"/>
-      <c r="AE52" s="55"/>
-      <c r="AF52" s="55"/>
-      <c r="AG52" s="55"/>
-      <c r="AH52" s="56"/>
+      <c r="AB52" s="53"/>
+      <c r="AC52" s="54"/>
+      <c r="AD52" s="54"/>
+      <c r="AE52" s="54"/>
+      <c r="AF52" s="54"/>
+      <c r="AG52" s="54"/>
+      <c r="AH52" s="55"/>
     </row>
     <row r="53" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E53" s="15"/>
@@ -6681,77 +6867,81 @@
       <c r="Y53" s="27"/>
       <c r="Z53" s="27"/>
       <c r="AA53" s="27"/>
-      <c r="AB53" s="54"/>
-      <c r="AC53" s="55"/>
-      <c r="AD53" s="55"/>
-      <c r="AE53" s="55"/>
-      <c r="AF53" s="55"/>
-      <c r="AG53" s="55"/>
-      <c r="AH53" s="56"/>
+      <c r="AB53" s="53"/>
+      <c r="AC53" s="54"/>
+      <c r="AD53" s="54"/>
+      <c r="AE53" s="54"/>
+      <c r="AF53" s="54"/>
+      <c r="AG53" s="54"/>
+      <c r="AH53" s="55"/>
     </row>
     <row r="54" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E54" s="15"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="55"/>
-      <c r="AD54" s="55"/>
-      <c r="AE54" s="55"/>
-      <c r="AF54" s="55"/>
-      <c r="AG54" s="55"/>
-      <c r="AH54" s="56"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="56"/>
+      <c r="AC54" s="57"/>
+      <c r="AD54" s="57"/>
+      <c r="AE54" s="57"/>
+      <c r="AF54" s="57"/>
+      <c r="AG54" s="57"/>
+      <c r="AH54" s="58"/>
     </row>
     <row r="55" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E55" s="15"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="55"/>
-      <c r="AD55" s="55"/>
-      <c r="AE55" s="55"/>
-      <c r="AF55" s="55"/>
-      <c r="AG55" s="55"/>
-      <c r="AH55" s="56"/>
+      <c r="F55" s="23">
+        <v>3</v>
+      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="24"/>
+      <c r="AA55" s="24"/>
+      <c r="AB55" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="52"/>
     </row>
     <row r="56" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E56" s="15"/>
@@ -6777,13 +6967,13 @@
       <c r="Y56" s="27"/>
       <c r="Z56" s="27"/>
       <c r="AA56" s="27"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="55"/>
-      <c r="AE56" s="55"/>
-      <c r="AF56" s="55"/>
-      <c r="AG56" s="55"/>
-      <c r="AH56" s="56"/>
+      <c r="AB56" s="53"/>
+      <c r="AC56" s="54"/>
+      <c r="AD56" s="54"/>
+      <c r="AE56" s="54"/>
+      <c r="AF56" s="54"/>
+      <c r="AG56" s="54"/>
+      <c r="AH56" s="55"/>
     </row>
     <row r="57" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E57" s="15"/>
@@ -6809,81 +6999,77 @@
       <c r="Y57" s="27"/>
       <c r="Z57" s="27"/>
       <c r="AA57" s="27"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="55"/>
-      <c r="AD57" s="55"/>
-      <c r="AE57" s="55"/>
-      <c r="AF57" s="55"/>
-      <c r="AG57" s="55"/>
-      <c r="AH57" s="56"/>
+      <c r="AB57" s="53"/>
+      <c r="AC57" s="54"/>
+      <c r="AD57" s="54"/>
+      <c r="AE57" s="54"/>
+      <c r="AF57" s="54"/>
+      <c r="AG57" s="54"/>
+      <c r="AH57" s="55"/>
     </row>
     <row r="58" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E58" s="15"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30"/>
-      <c r="W58" s="31"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="30"/>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="57"/>
-      <c r="AC58" s="58"/>
-      <c r="AD58" s="58"/>
-      <c r="AE58" s="58"/>
-      <c r="AF58" s="58"/>
-      <c r="AG58" s="58"/>
-      <c r="AH58" s="59"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="53"/>
+      <c r="AC58" s="54"/>
+      <c r="AD58" s="54"/>
+      <c r="AE58" s="54"/>
+      <c r="AF58" s="54"/>
+      <c r="AG58" s="54"/>
+      <c r="AH58" s="55"/>
     </row>
     <row r="59" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E59" s="15"/>
-      <c r="F59" s="23">
-        <v>2</v>
-      </c>
-      <c r="G59" s="23"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="24"/>
-      <c r="V59" s="24"/>
-      <c r="W59" s="25"/>
-      <c r="X59" s="24"/>
-      <c r="Y59" s="24"/>
-      <c r="Z59" s="24"/>
-      <c r="AA59" s="24"/>
-      <c r="AB59" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC59" s="52"/>
-      <c r="AD59" s="52"/>
-      <c r="AE59" s="52"/>
-      <c r="AF59" s="52"/>
-      <c r="AG59" s="52"/>
-      <c r="AH59" s="53"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="53"/>
+      <c r="AC59" s="54"/>
+      <c r="AD59" s="54"/>
+      <c r="AE59" s="54"/>
+      <c r="AF59" s="54"/>
+      <c r="AG59" s="54"/>
+      <c r="AH59" s="55"/>
     </row>
     <row r="60" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E60" s="15"/>
@@ -6909,13 +7095,13 @@
       <c r="Y60" s="27"/>
       <c r="Z60" s="27"/>
       <c r="AA60" s="27"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="55"/>
-      <c r="AD60" s="55"/>
-      <c r="AE60" s="55"/>
-      <c r="AF60" s="55"/>
-      <c r="AG60" s="55"/>
-      <c r="AH60" s="56"/>
+      <c r="AB60" s="53"/>
+      <c r="AC60" s="54"/>
+      <c r="AD60" s="54"/>
+      <c r="AE60" s="54"/>
+      <c r="AF60" s="54"/>
+      <c r="AG60" s="54"/>
+      <c r="AH60" s="55"/>
     </row>
     <row r="61" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E61" s="15"/>
@@ -6941,13 +7127,13 @@
       <c r="Y61" s="27"/>
       <c r="Z61" s="27"/>
       <c r="AA61" s="27"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="55"/>
-      <c r="AE61" s="55"/>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="55"/>
-      <c r="AH61" s="56"/>
+      <c r="AB61" s="53"/>
+      <c r="AC61" s="54"/>
+      <c r="AD61" s="54"/>
+      <c r="AE61" s="54"/>
+      <c r="AF61" s="54"/>
+      <c r="AG61" s="54"/>
+      <c r="AH61" s="55"/>
     </row>
     <row r="62" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E62" s="15"/>
@@ -6973,13 +7159,13 @@
       <c r="Y62" s="27"/>
       <c r="Z62" s="27"/>
       <c r="AA62" s="27"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="55"/>
-      <c r="AE62" s="55"/>
-      <c r="AF62" s="55"/>
-      <c r="AG62" s="55"/>
-      <c r="AH62" s="56"/>
+      <c r="AB62" s="53"/>
+      <c r="AC62" s="54"/>
+      <c r="AD62" s="54"/>
+      <c r="AE62" s="54"/>
+      <c r="AF62" s="54"/>
+      <c r="AG62" s="54"/>
+      <c r="AH62" s="55"/>
     </row>
     <row r="63" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E63" s="15"/>
@@ -7005,13 +7191,13 @@
       <c r="Y63" s="27"/>
       <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="55"/>
-      <c r="AD63" s="55"/>
-      <c r="AE63" s="55"/>
-      <c r="AF63" s="55"/>
-      <c r="AG63" s="55"/>
-      <c r="AH63" s="56"/>
+      <c r="AB63" s="53"/>
+      <c r="AC63" s="54"/>
+      <c r="AD63" s="54"/>
+      <c r="AE63" s="54"/>
+      <c r="AF63" s="54"/>
+      <c r="AG63" s="54"/>
+      <c r="AH63" s="55"/>
     </row>
     <row r="64" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E64" s="15"/>
@@ -7037,13 +7223,13 @@
       <c r="Y64" s="27"/>
       <c r="Z64" s="27"/>
       <c r="AA64" s="27"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="55"/>
-      <c r="AD64" s="55"/>
-      <c r="AE64" s="55"/>
-      <c r="AF64" s="55"/>
-      <c r="AG64" s="55"/>
-      <c r="AH64" s="56"/>
+      <c r="AB64" s="53"/>
+      <c r="AC64" s="54"/>
+      <c r="AD64" s="54"/>
+      <c r="AE64" s="54"/>
+      <c r="AF64" s="54"/>
+      <c r="AG64" s="54"/>
+      <c r="AH64" s="55"/>
     </row>
     <row r="65" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E65" s="15"/>
@@ -7069,13 +7255,13 @@
       <c r="Y65" s="27"/>
       <c r="Z65" s="27"/>
       <c r="AA65" s="27"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="55"/>
-      <c r="AD65" s="55"/>
-      <c r="AE65" s="55"/>
-      <c r="AF65" s="55"/>
-      <c r="AG65" s="55"/>
-      <c r="AH65" s="56"/>
+      <c r="AB65" s="53"/>
+      <c r="AC65" s="54"/>
+      <c r="AD65" s="54"/>
+      <c r="AE65" s="54"/>
+      <c r="AF65" s="54"/>
+      <c r="AG65" s="54"/>
+      <c r="AH65" s="55"/>
     </row>
     <row r="66" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E66" s="15"/>
@@ -7101,77 +7287,81 @@
       <c r="Y66" s="27"/>
       <c r="Z66" s="27"/>
       <c r="AA66" s="27"/>
-      <c r="AB66" s="54"/>
-      <c r="AC66" s="55"/>
-      <c r="AD66" s="55"/>
-      <c r="AE66" s="55"/>
-      <c r="AF66" s="55"/>
-      <c r="AG66" s="55"/>
-      <c r="AH66" s="56"/>
+      <c r="AB66" s="53"/>
+      <c r="AC66" s="54"/>
+      <c r="AD66" s="54"/>
+      <c r="AE66" s="54"/>
+      <c r="AF66" s="54"/>
+      <c r="AG66" s="54"/>
+      <c r="AH66" s="55"/>
     </row>
     <row r="67" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E67" s="15"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="26"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="27"/>
-      <c r="Z67" s="27"/>
-      <c r="AA67" s="27"/>
-      <c r="AB67" s="54"/>
-      <c r="AC67" s="55"/>
-      <c r="AD67" s="55"/>
-      <c r="AE67" s="55"/>
-      <c r="AF67" s="55"/>
-      <c r="AG67" s="55"/>
-      <c r="AH67" s="56"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="31"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="56"/>
+      <c r="AC67" s="57"/>
+      <c r="AD67" s="57"/>
+      <c r="AE67" s="57"/>
+      <c r="AF67" s="57"/>
+      <c r="AG67" s="57"/>
+      <c r="AH67" s="58"/>
     </row>
     <row r="68" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E68" s="15"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="26"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="27"/>
-      <c r="Z68" s="27"/>
-      <c r="AA68" s="27"/>
-      <c r="AB68" s="54"/>
-      <c r="AC68" s="55"/>
-      <c r="AD68" s="55"/>
-      <c r="AE68" s="55"/>
-      <c r="AF68" s="55"/>
-      <c r="AG68" s="55"/>
-      <c r="AH68" s="56"/>
+      <c r="F68" s="23">
+        <v>4</v>
+      </c>
+      <c r="G68" s="23"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="25"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC68" s="62"/>
+      <c r="AD68" s="62"/>
+      <c r="AE68" s="62"/>
+      <c r="AF68" s="62"/>
+      <c r="AG68" s="62"/>
+      <c r="AH68" s="63"/>
     </row>
     <row r="69" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="15"/>
@@ -7197,81 +7387,77 @@
       <c r="Y69" s="27"/>
       <c r="Z69" s="27"/>
       <c r="AA69" s="27"/>
-      <c r="AB69" s="54"/>
-      <c r="AC69" s="55"/>
-      <c r="AD69" s="55"/>
-      <c r="AE69" s="55"/>
-      <c r="AF69" s="55"/>
-      <c r="AG69" s="55"/>
-      <c r="AH69" s="56"/>
+      <c r="AB69" s="64"/>
+      <c r="AC69" s="65"/>
+      <c r="AD69" s="65"/>
+      <c r="AE69" s="65"/>
+      <c r="AF69" s="65"/>
+      <c r="AG69" s="65"/>
+      <c r="AH69" s="66"/>
     </row>
     <row r="70" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E70" s="15"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="30"/>
-      <c r="W70" s="31"/>
-      <c r="X70" s="30"/>
-      <c r="Y70" s="30"/>
-      <c r="Z70" s="30"/>
-      <c r="AA70" s="30"/>
-      <c r="AB70" s="57"/>
-      <c r="AC70" s="58"/>
-      <c r="AD70" s="58"/>
-      <c r="AE70" s="58"/>
-      <c r="AF70" s="58"/>
-      <c r="AG70" s="58"/>
-      <c r="AH70" s="59"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="27"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="64"/>
+      <c r="AC70" s="65"/>
+      <c r="AD70" s="65"/>
+      <c r="AE70" s="65"/>
+      <c r="AF70" s="65"/>
+      <c r="AG70" s="65"/>
+      <c r="AH70" s="66"/>
     </row>
     <row r="71" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E71" s="15"/>
-      <c r="F71" s="23">
-        <v>3</v>
-      </c>
-      <c r="G71" s="23"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="24"/>
-      <c r="V71" s="24"/>
-      <c r="W71" s="25"/>
-      <c r="X71" s="24"/>
-      <c r="Y71" s="24"/>
-      <c r="Z71" s="24"/>
-      <c r="AA71" s="24"/>
-      <c r="AB71" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC71" s="52"/>
-      <c r="AD71" s="52"/>
-      <c r="AE71" s="52"/>
-      <c r="AF71" s="52"/>
-      <c r="AG71" s="52"/>
-      <c r="AH71" s="53"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="27"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="64"/>
+      <c r="AC71" s="65"/>
+      <c r="AD71" s="65"/>
+      <c r="AE71" s="65"/>
+      <c r="AF71" s="65"/>
+      <c r="AG71" s="65"/>
+      <c r="AH71" s="66"/>
     </row>
     <row r="72" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E72" s="15"/>
@@ -7297,13 +7483,13 @@
       <c r="Y72" s="27"/>
       <c r="Z72" s="27"/>
       <c r="AA72" s="27"/>
-      <c r="AB72" s="54"/>
-      <c r="AC72" s="55"/>
-      <c r="AD72" s="55"/>
-      <c r="AE72" s="55"/>
-      <c r="AF72" s="55"/>
-      <c r="AG72" s="55"/>
-      <c r="AH72" s="56"/>
+      <c r="AB72" s="64"/>
+      <c r="AC72" s="65"/>
+      <c r="AD72" s="65"/>
+      <c r="AE72" s="65"/>
+      <c r="AF72" s="65"/>
+      <c r="AG72" s="65"/>
+      <c r="AH72" s="66"/>
     </row>
     <row r="73" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E73" s="15"/>
@@ -7329,13 +7515,13 @@
       <c r="Y73" s="27"/>
       <c r="Z73" s="27"/>
       <c r="AA73" s="27"/>
-      <c r="AB73" s="54"/>
-      <c r="AC73" s="55"/>
-      <c r="AD73" s="55"/>
-      <c r="AE73" s="55"/>
-      <c r="AF73" s="55"/>
-      <c r="AG73" s="55"/>
-      <c r="AH73" s="56"/>
+      <c r="AB73" s="64"/>
+      <c r="AC73" s="65"/>
+      <c r="AD73" s="65"/>
+      <c r="AE73" s="65"/>
+      <c r="AF73" s="65"/>
+      <c r="AG73" s="65"/>
+      <c r="AH73" s="66"/>
     </row>
     <row r="74" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="15"/>
@@ -7361,13 +7547,13 @@
       <c r="Y74" s="27"/>
       <c r="Z74" s="27"/>
       <c r="AA74" s="27"/>
-      <c r="AB74" s="54"/>
-      <c r="AC74" s="55"/>
-      <c r="AD74" s="55"/>
-      <c r="AE74" s="55"/>
-      <c r="AF74" s="55"/>
-      <c r="AG74" s="55"/>
-      <c r="AH74" s="56"/>
+      <c r="AB74" s="64"/>
+      <c r="AC74" s="65"/>
+      <c r="AD74" s="65"/>
+      <c r="AE74" s="65"/>
+      <c r="AF74" s="65"/>
+      <c r="AG74" s="65"/>
+      <c r="AH74" s="66"/>
     </row>
     <row r="75" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E75" s="15"/>
@@ -7393,13 +7579,13 @@
       <c r="Y75" s="27"/>
       <c r="Z75" s="27"/>
       <c r="AA75" s="27"/>
-      <c r="AB75" s="54"/>
-      <c r="AC75" s="55"/>
-      <c r="AD75" s="55"/>
-      <c r="AE75" s="55"/>
-      <c r="AF75" s="55"/>
-      <c r="AG75" s="55"/>
-      <c r="AH75" s="56"/>
+      <c r="AB75" s="64"/>
+      <c r="AC75" s="65"/>
+      <c r="AD75" s="65"/>
+      <c r="AE75" s="65"/>
+      <c r="AF75" s="65"/>
+      <c r="AG75" s="65"/>
+      <c r="AH75" s="66"/>
     </row>
     <row r="76" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E76" s="15"/>
@@ -7425,77 +7611,81 @@
       <c r="Y76" s="27"/>
       <c r="Z76" s="27"/>
       <c r="AA76" s="27"/>
-      <c r="AB76" s="54"/>
-      <c r="AC76" s="55"/>
-      <c r="AD76" s="55"/>
-      <c r="AE76" s="55"/>
-      <c r="AF76" s="55"/>
-      <c r="AG76" s="55"/>
-      <c r="AH76" s="56"/>
+      <c r="AB76" s="64"/>
+      <c r="AC76" s="65"/>
+      <c r="AD76" s="65"/>
+      <c r="AE76" s="65"/>
+      <c r="AF76" s="65"/>
+      <c r="AG76" s="65"/>
+      <c r="AH76" s="66"/>
     </row>
     <row r="77" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E77" s="15"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27"/>
-      <c r="T77" s="26"/>
-      <c r="U77" s="27"/>
-      <c r="V77" s="27"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="27"/>
-      <c r="Z77" s="27"/>
-      <c r="AA77" s="27"/>
-      <c r="AB77" s="54"/>
-      <c r="AC77" s="55"/>
-      <c r="AD77" s="55"/>
-      <c r="AE77" s="55"/>
-      <c r="AF77" s="55"/>
-      <c r="AG77" s="55"/>
-      <c r="AH77" s="56"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="30"/>
+      <c r="V77" s="30"/>
+      <c r="W77" s="31"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
+      <c r="AA77" s="30"/>
+      <c r="AB77" s="67"/>
+      <c r="AC77" s="68"/>
+      <c r="AD77" s="68"/>
+      <c r="AE77" s="68"/>
+      <c r="AF77" s="68"/>
+      <c r="AG77" s="68"/>
+      <c r="AH77" s="69"/>
     </row>
     <row r="78" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E78" s="15"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="27"/>
-      <c r="R78" s="27"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="26"/>
-      <c r="U78" s="27"/>
-      <c r="V78" s="27"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="27"/>
-      <c r="Z78" s="27"/>
-      <c r="AA78" s="27"/>
-      <c r="AB78" s="54"/>
-      <c r="AC78" s="55"/>
-      <c r="AD78" s="55"/>
-      <c r="AE78" s="55"/>
-      <c r="AF78" s="55"/>
-      <c r="AG78" s="55"/>
-      <c r="AH78" s="56"/>
+      <c r="F78" s="23">
+        <v>5</v>
+      </c>
+      <c r="G78" s="23"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="23"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="25"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="24"/>
+      <c r="AA78" s="24"/>
+      <c r="AB78" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC78" s="51"/>
+      <c r="AD78" s="51"/>
+      <c r="AE78" s="51"/>
+      <c r="AF78" s="51"/>
+      <c r="AG78" s="51"/>
+      <c r="AH78" s="52"/>
     </row>
     <row r="79" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E79" s="15"/>
@@ -7521,13 +7711,13 @@
       <c r="Y79" s="27"/>
       <c r="Z79" s="27"/>
       <c r="AA79" s="27"/>
-      <c r="AB79" s="54"/>
-      <c r="AC79" s="55"/>
-      <c r="AD79" s="55"/>
-      <c r="AE79" s="55"/>
-      <c r="AF79" s="55"/>
-      <c r="AG79" s="55"/>
-      <c r="AH79" s="56"/>
+      <c r="AB79" s="53"/>
+      <c r="AC79" s="54"/>
+      <c r="AD79" s="54"/>
+      <c r="AE79" s="54"/>
+      <c r="AF79" s="54"/>
+      <c r="AG79" s="54"/>
+      <c r="AH79" s="55"/>
     </row>
     <row r="80" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E80" s="15"/>
@@ -7553,13 +7743,13 @@
       <c r="Y80" s="27"/>
       <c r="Z80" s="27"/>
       <c r="AA80" s="27"/>
-      <c r="AB80" s="54"/>
-      <c r="AC80" s="55"/>
-      <c r="AD80" s="55"/>
-      <c r="AE80" s="55"/>
-      <c r="AF80" s="55"/>
-      <c r="AG80" s="55"/>
-      <c r="AH80" s="56"/>
+      <c r="AB80" s="53"/>
+      <c r="AC80" s="54"/>
+      <c r="AD80" s="54"/>
+      <c r="AE80" s="54"/>
+      <c r="AF80" s="54"/>
+      <c r="AG80" s="54"/>
+      <c r="AH80" s="55"/>
     </row>
     <row r="81" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E81" s="15"/>
@@ -7585,13 +7775,13 @@
       <c r="Y81" s="27"/>
       <c r="Z81" s="27"/>
       <c r="AA81" s="27"/>
-      <c r="AB81" s="54"/>
-      <c r="AC81" s="55"/>
-      <c r="AD81" s="55"/>
-      <c r="AE81" s="55"/>
-      <c r="AF81" s="55"/>
-      <c r="AG81" s="55"/>
-      <c r="AH81" s="56"/>
+      <c r="AB81" s="53"/>
+      <c r="AC81" s="54"/>
+      <c r="AD81" s="54"/>
+      <c r="AE81" s="54"/>
+      <c r="AF81" s="54"/>
+      <c r="AG81" s="54"/>
+      <c r="AH81" s="55"/>
     </row>
     <row r="82" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E82" s="15"/>
@@ -7617,81 +7807,77 @@
       <c r="Y82" s="27"/>
       <c r="Z82" s="27"/>
       <c r="AA82" s="27"/>
-      <c r="AB82" s="54"/>
-      <c r="AC82" s="55"/>
-      <c r="AD82" s="55"/>
-      <c r="AE82" s="55"/>
-      <c r="AF82" s="55"/>
-      <c r="AG82" s="55"/>
-      <c r="AH82" s="56"/>
+      <c r="AB82" s="53"/>
+      <c r="AC82" s="54"/>
+      <c r="AD82" s="54"/>
+      <c r="AE82" s="54"/>
+      <c r="AF82" s="54"/>
+      <c r="AG82" s="54"/>
+      <c r="AH82" s="55"/>
     </row>
     <row r="83" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E83" s="15"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="31"/>
-      <c r="Q83" s="30"/>
-      <c r="R83" s="30"/>
-      <c r="S83" s="30"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="30"/>
-      <c r="V83" s="30"/>
-      <c r="W83" s="31"/>
-      <c r="X83" s="30"/>
-      <c r="Y83" s="30"/>
-      <c r="Z83" s="30"/>
-      <c r="AA83" s="30"/>
-      <c r="AB83" s="57"/>
-      <c r="AC83" s="58"/>
-      <c r="AD83" s="58"/>
-      <c r="AE83" s="58"/>
-      <c r="AF83" s="58"/>
-      <c r="AG83" s="58"/>
-      <c r="AH83" s="59"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="26"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="28"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="53"/>
+      <c r="AC83" s="54"/>
+      <c r="AD83" s="54"/>
+      <c r="AE83" s="54"/>
+      <c r="AF83" s="54"/>
+      <c r="AG83" s="54"/>
+      <c r="AH83" s="55"/>
     </row>
     <row r="84" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E84" s="15"/>
-      <c r="F84" s="23">
-        <v>4</v>
-      </c>
-      <c r="G84" s="23"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="24"/>
-      <c r="V84" s="24"/>
-      <c r="W84" s="25"/>
-      <c r="X84" s="24"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="24"/>
-      <c r="AA84" s="24"/>
-      <c r="AB84" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC84" s="63"/>
-      <c r="AD84" s="63"/>
-      <c r="AE84" s="63"/>
-      <c r="AF84" s="63"/>
-      <c r="AG84" s="63"/>
-      <c r="AH84" s="64"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="26"/>
+      <c r="U84" s="27"/>
+      <c r="V84" s="27"/>
+      <c r="W84" s="28"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="53"/>
+      <c r="AC84" s="54"/>
+      <c r="AD84" s="54"/>
+      <c r="AE84" s="54"/>
+      <c r="AF84" s="54"/>
+      <c r="AG84" s="54"/>
+      <c r="AH84" s="55"/>
     </row>
     <row r="85" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E85" s="15"/>
@@ -7717,13 +7903,13 @@
       <c r="Y85" s="27"/>
       <c r="Z85" s="27"/>
       <c r="AA85" s="27"/>
-      <c r="AB85" s="65"/>
-      <c r="AC85" s="66"/>
-      <c r="AD85" s="66"/>
-      <c r="AE85" s="66"/>
-      <c r="AF85" s="66"/>
-      <c r="AG85" s="66"/>
-      <c r="AH85" s="67"/>
+      <c r="AB85" s="53"/>
+      <c r="AC85" s="54"/>
+      <c r="AD85" s="54"/>
+      <c r="AE85" s="54"/>
+      <c r="AF85" s="54"/>
+      <c r="AG85" s="54"/>
+      <c r="AH85" s="55"/>
     </row>
     <row r="86" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E86" s="15"/>
@@ -7749,13 +7935,13 @@
       <c r="Y86" s="27"/>
       <c r="Z86" s="27"/>
       <c r="AA86" s="27"/>
-      <c r="AB86" s="65"/>
-      <c r="AC86" s="66"/>
-      <c r="AD86" s="66"/>
-      <c r="AE86" s="66"/>
-      <c r="AF86" s="66"/>
-      <c r="AG86" s="66"/>
-      <c r="AH86" s="67"/>
+      <c r="AB86" s="53"/>
+      <c r="AC86" s="54"/>
+      <c r="AD86" s="54"/>
+      <c r="AE86" s="54"/>
+      <c r="AF86" s="54"/>
+      <c r="AG86" s="54"/>
+      <c r="AH86" s="55"/>
     </row>
     <row r="87" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E87" s="15"/>
@@ -7781,13 +7967,13 @@
       <c r="Y87" s="27"/>
       <c r="Z87" s="27"/>
       <c r="AA87" s="27"/>
-      <c r="AB87" s="65"/>
-      <c r="AC87" s="66"/>
-      <c r="AD87" s="66"/>
-      <c r="AE87" s="66"/>
-      <c r="AF87" s="66"/>
-      <c r="AG87" s="66"/>
-      <c r="AH87" s="67"/>
+      <c r="AB87" s="53"/>
+      <c r="AC87" s="54"/>
+      <c r="AD87" s="54"/>
+      <c r="AE87" s="54"/>
+      <c r="AF87" s="54"/>
+      <c r="AG87" s="54"/>
+      <c r="AH87" s="55"/>
     </row>
     <row r="88" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E88" s="15"/>
@@ -7813,13 +7999,13 @@
       <c r="Y88" s="27"/>
       <c r="Z88" s="27"/>
       <c r="AA88" s="27"/>
-      <c r="AB88" s="65"/>
-      <c r="AC88" s="66"/>
-      <c r="AD88" s="66"/>
-      <c r="AE88" s="66"/>
-      <c r="AF88" s="66"/>
-      <c r="AG88" s="66"/>
-      <c r="AH88" s="67"/>
+      <c r="AB88" s="53"/>
+      <c r="AC88" s="54"/>
+      <c r="AD88" s="54"/>
+      <c r="AE88" s="54"/>
+      <c r="AF88" s="54"/>
+      <c r="AG88" s="54"/>
+      <c r="AH88" s="55"/>
     </row>
     <row r="89" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E89" s="15"/>
@@ -7845,13 +8031,13 @@
       <c r="Y89" s="27"/>
       <c r="Z89" s="27"/>
       <c r="AA89" s="27"/>
-      <c r="AB89" s="65"/>
-      <c r="AC89" s="66"/>
-      <c r="AD89" s="66"/>
-      <c r="AE89" s="66"/>
-      <c r="AF89" s="66"/>
-      <c r="AG89" s="66"/>
-      <c r="AH89" s="67"/>
+      <c r="AB89" s="53"/>
+      <c r="AC89" s="54"/>
+      <c r="AD89" s="54"/>
+      <c r="AE89" s="54"/>
+      <c r="AF89" s="54"/>
+      <c r="AG89" s="54"/>
+      <c r="AH89" s="55"/>
     </row>
     <row r="90" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E90" s="15"/>
@@ -7877,45 +8063,49 @@
       <c r="Y90" s="27"/>
       <c r="Z90" s="27"/>
       <c r="AA90" s="27"/>
-      <c r="AB90" s="65"/>
-      <c r="AC90" s="66"/>
-      <c r="AD90" s="66"/>
-      <c r="AE90" s="66"/>
-      <c r="AF90" s="66"/>
-      <c r="AG90" s="66"/>
-      <c r="AH90" s="67"/>
+      <c r="AB90" s="53"/>
+      <c r="AC90" s="54"/>
+      <c r="AD90" s="54"/>
+      <c r="AE90" s="54"/>
+      <c r="AF90" s="54"/>
+      <c r="AG90" s="54"/>
+      <c r="AH90" s="55"/>
     </row>
     <row r="91" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E91" s="15"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="27"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="28"/>
-      <c r="Q91" s="27"/>
-      <c r="R91" s="27"/>
-      <c r="S91" s="27"/>
-      <c r="T91" s="26"/>
-      <c r="U91" s="27"/>
-      <c r="V91" s="27"/>
-      <c r="W91" s="28"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="65"/>
-      <c r="AC91" s="66"/>
-      <c r="AD91" s="66"/>
-      <c r="AE91" s="66"/>
-      <c r="AF91" s="66"/>
-      <c r="AG91" s="66"/>
-      <c r="AH91" s="67"/>
+      <c r="F91" s="23">
+        <v>6</v>
+      </c>
+      <c r="G91" s="23"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="24"/>
+      <c r="V91" s="24"/>
+      <c r="W91" s="25"/>
+      <c r="X91" s="24"/>
+      <c r="Y91" s="24"/>
+      <c r="Z91" s="24"/>
+      <c r="AA91" s="24"/>
+      <c r="AB91" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC91" s="51"/>
+      <c r="AD91" s="51"/>
+      <c r="AE91" s="51"/>
+      <c r="AF91" s="51"/>
+      <c r="AG91" s="51"/>
+      <c r="AH91" s="52"/>
     </row>
     <row r="92" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E92" s="15"/>
@@ -7941,81 +8131,77 @@
       <c r="Y92" s="27"/>
       <c r="Z92" s="27"/>
       <c r="AA92" s="27"/>
-      <c r="AB92" s="65"/>
-      <c r="AC92" s="66"/>
-      <c r="AD92" s="66"/>
-      <c r="AE92" s="66"/>
-      <c r="AF92" s="66"/>
-      <c r="AG92" s="66"/>
-      <c r="AH92" s="67"/>
+      <c r="AB92" s="53"/>
+      <c r="AC92" s="54"/>
+      <c r="AD92" s="54"/>
+      <c r="AE92" s="54"/>
+      <c r="AF92" s="54"/>
+      <c r="AG92" s="54"/>
+      <c r="AH92" s="55"/>
     </row>
     <row r="93" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E93" s="15"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="30"/>
-      <c r="N93" s="29"/>
-      <c r="O93" s="30"/>
-      <c r="P93" s="31"/>
-      <c r="Q93" s="30"/>
-      <c r="R93" s="30"/>
-      <c r="S93" s="30"/>
-      <c r="T93" s="29"/>
-      <c r="U93" s="30"/>
-      <c r="V93" s="30"/>
-      <c r="W93" s="31"/>
-      <c r="X93" s="30"/>
-      <c r="Y93" s="30"/>
-      <c r="Z93" s="30"/>
-      <c r="AA93" s="30"/>
-      <c r="AB93" s="68"/>
-      <c r="AC93" s="69"/>
-      <c r="AD93" s="69"/>
-      <c r="AE93" s="69"/>
-      <c r="AF93" s="69"/>
-      <c r="AG93" s="69"/>
-      <c r="AH93" s="70"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="28"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="27"/>
+      <c r="V93" s="27"/>
+      <c r="W93" s="28"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="53"/>
+      <c r="AC93" s="54"/>
+      <c r="AD93" s="54"/>
+      <c r="AE93" s="54"/>
+      <c r="AF93" s="54"/>
+      <c r="AG93" s="54"/>
+      <c r="AH93" s="55"/>
     </row>
     <row r="94" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E94" s="15"/>
-      <c r="F94" s="23">
-        <v>5</v>
-      </c>
-      <c r="G94" s="23"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="23"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="25"/>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="24"/>
-      <c r="S94" s="24"/>
-      <c r="T94" s="23"/>
-      <c r="U94" s="24"/>
-      <c r="V94" s="24"/>
-      <c r="W94" s="25"/>
-      <c r="X94" s="24"/>
-      <c r="Y94" s="24"/>
-      <c r="Z94" s="24"/>
-      <c r="AA94" s="24"/>
-      <c r="AB94" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC94" s="52"/>
-      <c r="AD94" s="52"/>
-      <c r="AE94" s="52"/>
-      <c r="AF94" s="52"/>
-      <c r="AG94" s="52"/>
-      <c r="AH94" s="53"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="27"/>
+      <c r="M94" s="27"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="27"/>
+      <c r="S94" s="27"/>
+      <c r="T94" s="26"/>
+      <c r="U94" s="27"/>
+      <c r="V94" s="27"/>
+      <c r="W94" s="28"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="53"/>
+      <c r="AC94" s="54"/>
+      <c r="AD94" s="54"/>
+      <c r="AE94" s="54"/>
+      <c r="AF94" s="54"/>
+      <c r="AG94" s="54"/>
+      <c r="AH94" s="55"/>
     </row>
     <row r="95" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="15"/>
@@ -8041,13 +8227,13 @@
       <c r="Y95" s="27"/>
       <c r="Z95" s="27"/>
       <c r="AA95" s="27"/>
-      <c r="AB95" s="54"/>
-      <c r="AC95" s="55"/>
-      <c r="AD95" s="55"/>
-      <c r="AE95" s="55"/>
-      <c r="AF95" s="55"/>
-      <c r="AG95" s="55"/>
-      <c r="AH95" s="56"/>
+      <c r="AB95" s="53"/>
+      <c r="AC95" s="54"/>
+      <c r="AD95" s="54"/>
+      <c r="AE95" s="54"/>
+      <c r="AF95" s="54"/>
+      <c r="AG95" s="54"/>
+      <c r="AH95" s="55"/>
     </row>
     <row r="96" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E96" s="15"/>
@@ -8073,13 +8259,13 @@
       <c r="Y96" s="27"/>
       <c r="Z96" s="27"/>
       <c r="AA96" s="27"/>
-      <c r="AB96" s="54"/>
-      <c r="AC96" s="55"/>
-      <c r="AD96" s="55"/>
-      <c r="AE96" s="55"/>
-      <c r="AF96" s="55"/>
-      <c r="AG96" s="55"/>
-      <c r="AH96" s="56"/>
+      <c r="AB96" s="53"/>
+      <c r="AC96" s="54"/>
+      <c r="AD96" s="54"/>
+      <c r="AE96" s="54"/>
+      <c r="AF96" s="54"/>
+      <c r="AG96" s="54"/>
+      <c r="AH96" s="55"/>
     </row>
     <row r="97" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E97" s="15"/>
@@ -8105,13 +8291,13 @@
       <c r="Y97" s="27"/>
       <c r="Z97" s="27"/>
       <c r="AA97" s="27"/>
-      <c r="AB97" s="54"/>
-      <c r="AC97" s="55"/>
-      <c r="AD97" s="55"/>
-      <c r="AE97" s="55"/>
-      <c r="AF97" s="55"/>
-      <c r="AG97" s="55"/>
-      <c r="AH97" s="56"/>
+      <c r="AB97" s="53"/>
+      <c r="AC97" s="54"/>
+      <c r="AD97" s="54"/>
+      <c r="AE97" s="54"/>
+      <c r="AF97" s="54"/>
+      <c r="AG97" s="54"/>
+      <c r="AH97" s="55"/>
     </row>
     <row r="98" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E98" s="15"/>
@@ -8137,13 +8323,13 @@
       <c r="Y98" s="27"/>
       <c r="Z98" s="27"/>
       <c r="AA98" s="27"/>
-      <c r="AB98" s="54"/>
-      <c r="AC98" s="55"/>
-      <c r="AD98" s="55"/>
-      <c r="AE98" s="55"/>
-      <c r="AF98" s="55"/>
-      <c r="AG98" s="55"/>
-      <c r="AH98" s="56"/>
+      <c r="AB98" s="53"/>
+      <c r="AC98" s="54"/>
+      <c r="AD98" s="54"/>
+      <c r="AE98" s="54"/>
+      <c r="AF98" s="54"/>
+      <c r="AG98" s="54"/>
+      <c r="AH98" s="55"/>
     </row>
     <row r="99" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E99" s="15"/>
@@ -8169,13 +8355,13 @@
       <c r="Y99" s="27"/>
       <c r="Z99" s="27"/>
       <c r="AA99" s="27"/>
-      <c r="AB99" s="54"/>
-      <c r="AC99" s="55"/>
-      <c r="AD99" s="55"/>
-      <c r="AE99" s="55"/>
-      <c r="AF99" s="55"/>
-      <c r="AG99" s="55"/>
-      <c r="AH99" s="56"/>
+      <c r="AB99" s="53"/>
+      <c r="AC99" s="54"/>
+      <c r="AD99" s="54"/>
+      <c r="AE99" s="54"/>
+      <c r="AF99" s="54"/>
+      <c r="AG99" s="54"/>
+      <c r="AH99" s="55"/>
     </row>
     <row r="100" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E100" s="15"/>
@@ -8201,13 +8387,13 @@
       <c r="Y100" s="27"/>
       <c r="Z100" s="27"/>
       <c r="AA100" s="27"/>
-      <c r="AB100" s="54"/>
-      <c r="AC100" s="55"/>
-      <c r="AD100" s="55"/>
-      <c r="AE100" s="55"/>
-      <c r="AF100" s="55"/>
-      <c r="AG100" s="55"/>
-      <c r="AH100" s="56"/>
+      <c r="AB100" s="53"/>
+      <c r="AC100" s="54"/>
+      <c r="AD100" s="54"/>
+      <c r="AE100" s="54"/>
+      <c r="AF100" s="54"/>
+      <c r="AG100" s="54"/>
+      <c r="AH100" s="55"/>
     </row>
     <row r="101" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E101" s="15"/>
@@ -8233,77 +8419,81 @@
       <c r="Y101" s="27"/>
       <c r="Z101" s="27"/>
       <c r="AA101" s="27"/>
-      <c r="AB101" s="54"/>
-      <c r="AC101" s="55"/>
-      <c r="AD101" s="55"/>
-      <c r="AE101" s="55"/>
-      <c r="AF101" s="55"/>
-      <c r="AG101" s="55"/>
-      <c r="AH101" s="56"/>
+      <c r="AB101" s="53"/>
+      <c r="AC101" s="54"/>
+      <c r="AD101" s="54"/>
+      <c r="AE101" s="54"/>
+      <c r="AF101" s="54"/>
+      <c r="AG101" s="54"/>
+      <c r="AH101" s="55"/>
     </row>
     <row r="102" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E102" s="15"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="27"/>
-      <c r="P102" s="28"/>
-      <c r="Q102" s="27"/>
-      <c r="R102" s="27"/>
-      <c r="S102" s="27"/>
-      <c r="T102" s="26"/>
-      <c r="U102" s="27"/>
-      <c r="V102" s="27"/>
-      <c r="W102" s="28"/>
-      <c r="X102" s="27"/>
-      <c r="Y102" s="27"/>
-      <c r="Z102" s="27"/>
-      <c r="AA102" s="27"/>
-      <c r="AB102" s="54"/>
-      <c r="AC102" s="55"/>
-      <c r="AD102" s="55"/>
-      <c r="AE102" s="55"/>
-      <c r="AF102" s="55"/>
-      <c r="AG102" s="55"/>
-      <c r="AH102" s="56"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="30"/>
+      <c r="M102" s="30"/>
+      <c r="N102" s="29"/>
+      <c r="O102" s="30"/>
+      <c r="P102" s="31"/>
+      <c r="Q102" s="30"/>
+      <c r="R102" s="30"/>
+      <c r="S102" s="30"/>
+      <c r="T102" s="29"/>
+      <c r="U102" s="30"/>
+      <c r="V102" s="30"/>
+      <c r="W102" s="31"/>
+      <c r="X102" s="30"/>
+      <c r="Y102" s="30"/>
+      <c r="Z102" s="30"/>
+      <c r="AA102" s="30"/>
+      <c r="AB102" s="56"/>
+      <c r="AC102" s="57"/>
+      <c r="AD102" s="57"/>
+      <c r="AE102" s="57"/>
+      <c r="AF102" s="57"/>
+      <c r="AG102" s="57"/>
+      <c r="AH102" s="58"/>
     </row>
     <row r="103" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E103" s="15"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="28"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="26"/>
-      <c r="O103" s="27"/>
-      <c r="P103" s="28"/>
-      <c r="Q103" s="27"/>
-      <c r="R103" s="27"/>
-      <c r="S103" s="27"/>
-      <c r="T103" s="26"/>
-      <c r="U103" s="27"/>
-      <c r="V103" s="27"/>
-      <c r="W103" s="28"/>
-      <c r="X103" s="27"/>
-      <c r="Y103" s="27"/>
-      <c r="Z103" s="27"/>
-      <c r="AA103" s="27"/>
-      <c r="AB103" s="54"/>
-      <c r="AC103" s="55"/>
-      <c r="AD103" s="55"/>
-      <c r="AE103" s="55"/>
-      <c r="AF103" s="55"/>
-      <c r="AG103" s="55"/>
-      <c r="AH103" s="56"/>
+      <c r="F103" s="23">
+        <v>7</v>
+      </c>
+      <c r="G103" s="23"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="24"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="24"/>
+      <c r="S103" s="24"/>
+      <c r="T103" s="23"/>
+      <c r="U103" s="24"/>
+      <c r="V103" s="24"/>
+      <c r="W103" s="25"/>
+      <c r="X103" s="24"/>
+      <c r="Y103" s="24"/>
+      <c r="Z103" s="24"/>
+      <c r="AA103" s="24"/>
+      <c r="AB103" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC103" s="51"/>
+      <c r="AD103" s="51"/>
+      <c r="AE103" s="51"/>
+      <c r="AF103" s="51"/>
+      <c r="AG103" s="51"/>
+      <c r="AH103" s="52"/>
     </row>
     <row r="104" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E104" s="15"/>
@@ -8329,13 +8519,13 @@
       <c r="Y104" s="27"/>
       <c r="Z104" s="27"/>
       <c r="AA104" s="27"/>
-      <c r="AB104" s="54"/>
-      <c r="AC104" s="55"/>
-      <c r="AD104" s="55"/>
-      <c r="AE104" s="55"/>
-      <c r="AF104" s="55"/>
-      <c r="AG104" s="55"/>
-      <c r="AH104" s="56"/>
+      <c r="AB104" s="53"/>
+      <c r="AC104" s="54"/>
+      <c r="AD104" s="54"/>
+      <c r="AE104" s="54"/>
+      <c r="AF104" s="54"/>
+      <c r="AG104" s="54"/>
+      <c r="AH104" s="55"/>
     </row>
     <row r="105" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E105" s="15"/>
@@ -8361,13 +8551,13 @@
       <c r="Y105" s="27"/>
       <c r="Z105" s="27"/>
       <c r="AA105" s="27"/>
-      <c r="AB105" s="54"/>
-      <c r="AC105" s="55"/>
-      <c r="AD105" s="55"/>
-      <c r="AE105" s="55"/>
-      <c r="AF105" s="55"/>
-      <c r="AG105" s="55"/>
-      <c r="AH105" s="56"/>
+      <c r="AB105" s="53"/>
+      <c r="AC105" s="54"/>
+      <c r="AD105" s="54"/>
+      <c r="AE105" s="54"/>
+      <c r="AF105" s="54"/>
+      <c r="AG105" s="54"/>
+      <c r="AH105" s="55"/>
     </row>
     <row r="106" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E106" s="15"/>
@@ -8393,49 +8583,45 @@
       <c r="Y106" s="27"/>
       <c r="Z106" s="27"/>
       <c r="AA106" s="27"/>
-      <c r="AB106" s="54"/>
-      <c r="AC106" s="55"/>
-      <c r="AD106" s="55"/>
-      <c r="AE106" s="55"/>
-      <c r="AF106" s="55"/>
-      <c r="AG106" s="55"/>
-      <c r="AH106" s="56"/>
+      <c r="AB106" s="53"/>
+      <c r="AC106" s="54"/>
+      <c r="AD106" s="54"/>
+      <c r="AE106" s="54"/>
+      <c r="AF106" s="54"/>
+      <c r="AG106" s="54"/>
+      <c r="AH106" s="55"/>
     </row>
     <row r="107" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E107" s="15"/>
-      <c r="F107" s="23">
-        <v>6</v>
-      </c>
-      <c r="G107" s="23"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="23"/>
-      <c r="O107" s="24"/>
-      <c r="P107" s="25"/>
-      <c r="Q107" s="24"/>
-      <c r="R107" s="24"/>
-      <c r="S107" s="24"/>
-      <c r="T107" s="23"/>
-      <c r="U107" s="24"/>
-      <c r="V107" s="24"/>
-      <c r="W107" s="25"/>
-      <c r="X107" s="24"/>
-      <c r="Y107" s="24"/>
-      <c r="Z107" s="24"/>
-      <c r="AA107" s="24"/>
-      <c r="AB107" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC107" s="52"/>
-      <c r="AD107" s="52"/>
-      <c r="AE107" s="52"/>
-      <c r="AF107" s="52"/>
-      <c r="AG107" s="52"/>
-      <c r="AH107" s="53"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="27"/>
+      <c r="R107" s="27"/>
+      <c r="S107" s="27"/>
+      <c r="T107" s="26"/>
+      <c r="U107" s="27"/>
+      <c r="V107" s="27"/>
+      <c r="W107" s="28"/>
+      <c r="X107" s="27"/>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="53"/>
+      <c r="AC107" s="54"/>
+      <c r="AD107" s="54"/>
+      <c r="AE107" s="54"/>
+      <c r="AF107" s="54"/>
+      <c r="AG107" s="54"/>
+      <c r="AH107" s="55"/>
     </row>
     <row r="108" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E108" s="15"/>
@@ -8461,13 +8647,13 @@
       <c r="Y108" s="27"/>
       <c r="Z108" s="27"/>
       <c r="AA108" s="27"/>
-      <c r="AB108" s="54"/>
-      <c r="AC108" s="55"/>
-      <c r="AD108" s="55"/>
-      <c r="AE108" s="55"/>
-      <c r="AF108" s="55"/>
-      <c r="AG108" s="55"/>
-      <c r="AH108" s="56"/>
+      <c r="AB108" s="53"/>
+      <c r="AC108" s="54"/>
+      <c r="AD108" s="54"/>
+      <c r="AE108" s="54"/>
+      <c r="AF108" s="54"/>
+      <c r="AG108" s="54"/>
+      <c r="AH108" s="55"/>
     </row>
     <row r="109" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E109" s="15"/>
@@ -8493,13 +8679,13 @@
       <c r="Y109" s="27"/>
       <c r="Z109" s="27"/>
       <c r="AA109" s="27"/>
-      <c r="AB109" s="54"/>
-      <c r="AC109" s="55"/>
-      <c r="AD109" s="55"/>
-      <c r="AE109" s="55"/>
-      <c r="AF109" s="55"/>
-      <c r="AG109" s="55"/>
-      <c r="AH109" s="56"/>
+      <c r="AB109" s="53"/>
+      <c r="AC109" s="54"/>
+      <c r="AD109" s="54"/>
+      <c r="AE109" s="54"/>
+      <c r="AF109" s="54"/>
+      <c r="AG109" s="54"/>
+      <c r="AH109" s="55"/>
     </row>
     <row r="110" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E110" s="15"/>
@@ -8525,109 +8711,115 @@
       <c r="Y110" s="27"/>
       <c r="Z110" s="27"/>
       <c r="AA110" s="27"/>
-      <c r="AB110" s="54"/>
-      <c r="AC110" s="55"/>
-      <c r="AD110" s="55"/>
-      <c r="AE110" s="55"/>
-      <c r="AF110" s="55"/>
-      <c r="AG110" s="55"/>
-      <c r="AH110" s="56"/>
+      <c r="AB110" s="53"/>
+      <c r="AC110" s="54"/>
+      <c r="AD110" s="54"/>
+      <c r="AE110" s="54"/>
+      <c r="AF110" s="54"/>
+      <c r="AG110" s="54"/>
+      <c r="AH110" s="55"/>
     </row>
     <row r="111" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E111" s="15"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="27"/>
-      <c r="M111" s="27"/>
-      <c r="N111" s="26"/>
-      <c r="O111" s="27"/>
-      <c r="P111" s="28"/>
-      <c r="Q111" s="27"/>
-      <c r="R111" s="27"/>
-      <c r="S111" s="27"/>
-      <c r="T111" s="26"/>
-      <c r="U111" s="27"/>
-      <c r="V111" s="27"/>
-      <c r="W111" s="28"/>
-      <c r="X111" s="27"/>
-      <c r="Y111" s="27"/>
-      <c r="Z111" s="27"/>
-      <c r="AA111" s="27"/>
-      <c r="AB111" s="54"/>
-      <c r="AC111" s="55"/>
-      <c r="AD111" s="55"/>
-      <c r="AE111" s="55"/>
-      <c r="AF111" s="55"/>
-      <c r="AG111" s="55"/>
-      <c r="AH111" s="56"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="30"/>
+      <c r="M111" s="30"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="30"/>
+      <c r="P111" s="31"/>
+      <c r="Q111" s="30"/>
+      <c r="R111" s="30"/>
+      <c r="S111" s="30"/>
+      <c r="T111" s="29"/>
+      <c r="U111" s="30"/>
+      <c r="V111" s="30"/>
+      <c r="W111" s="31"/>
+      <c r="X111" s="30"/>
+      <c r="Y111" s="30"/>
+      <c r="Z111" s="30"/>
+      <c r="AA111" s="30"/>
+      <c r="AB111" s="56"/>
+      <c r="AC111" s="57"/>
+      <c r="AD111" s="57"/>
+      <c r="AE111" s="57"/>
+      <c r="AF111" s="57"/>
+      <c r="AG111" s="57"/>
+      <c r="AH111" s="58"/>
     </row>
     <row r="112" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E112" s="15"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="28"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="27"/>
-      <c r="N112" s="26"/>
-      <c r="O112" s="27"/>
-      <c r="P112" s="28"/>
-      <c r="Q112" s="27"/>
-      <c r="R112" s="27"/>
-      <c r="S112" s="27"/>
-      <c r="T112" s="26"/>
-      <c r="U112" s="27"/>
-      <c r="V112" s="27"/>
-      <c r="W112" s="28"/>
-      <c r="X112" s="27"/>
-      <c r="Y112" s="27"/>
-      <c r="Z112" s="27"/>
-      <c r="AA112" s="27"/>
-      <c r="AB112" s="54"/>
-      <c r="AC112" s="55"/>
-      <c r="AD112" s="55"/>
-      <c r="AE112" s="55"/>
-      <c r="AF112" s="55"/>
-      <c r="AG112" s="55"/>
-      <c r="AH112" s="56"/>
+      <c r="F112" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
+      <c r="I112" s="71"/>
+      <c r="J112" s="71"/>
+      <c r="K112" s="71"/>
+      <c r="L112" s="71"/>
+      <c r="M112" s="71"/>
+      <c r="N112" s="71"/>
+      <c r="O112" s="71"/>
+      <c r="P112" s="71"/>
+      <c r="Q112" s="71"/>
+      <c r="R112" s="71"/>
+      <c r="S112" s="71"/>
+      <c r="T112" s="71"/>
+      <c r="U112" s="71"/>
+      <c r="V112" s="71"/>
+      <c r="W112" s="71"/>
+      <c r="X112" s="71"/>
+      <c r="Y112" s="71"/>
+      <c r="Z112" s="71"/>
+      <c r="AA112" s="71"/>
+      <c r="AB112" s="71"/>
+      <c r="AC112" s="71"/>
+      <c r="AD112" s="71"/>
+      <c r="AE112" s="71"/>
+      <c r="AF112" s="71"/>
+      <c r="AG112" s="71"/>
+      <c r="AH112" s="72"/>
     </row>
     <row r="113" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E113" s="15"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="27"/>
-      <c r="N113" s="26"/>
-      <c r="O113" s="27"/>
-      <c r="P113" s="28"/>
-      <c r="Q113" s="27"/>
-      <c r="R113" s="27"/>
-      <c r="S113" s="27"/>
-      <c r="T113" s="26"/>
-      <c r="U113" s="27"/>
-      <c r="V113" s="27"/>
-      <c r="W113" s="28"/>
-      <c r="X113" s="27"/>
-      <c r="Y113" s="27"/>
-      <c r="Z113" s="27"/>
-      <c r="AA113" s="27"/>
-      <c r="AB113" s="54"/>
-      <c r="AC113" s="55"/>
-      <c r="AD113" s="55"/>
-      <c r="AE113" s="55"/>
-      <c r="AF113" s="55"/>
-      <c r="AG113" s="55"/>
-      <c r="AH113" s="56"/>
+      <c r="F113" s="23">
+        <v>8</v>
+      </c>
+      <c r="G113" s="23"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="23"/>
+      <c r="O113" s="24"/>
+      <c r="P113" s="25"/>
+      <c r="Q113" s="24"/>
+      <c r="R113" s="24"/>
+      <c r="S113" s="24"/>
+      <c r="T113" s="23"/>
+      <c r="U113" s="24"/>
+      <c r="V113" s="24"/>
+      <c r="W113" s="25"/>
+      <c r="X113" s="24"/>
+      <c r="Y113" s="24"/>
+      <c r="Z113" s="24"/>
+      <c r="AA113" s="25"/>
+      <c r="AB113" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC113" s="51"/>
+      <c r="AD113" s="51"/>
+      <c r="AE113" s="51"/>
+      <c r="AF113" s="51"/>
+      <c r="AG113" s="51"/>
+      <c r="AH113" s="52"/>
     </row>
     <row r="114" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E114" s="15"/>
@@ -8652,14 +8844,14 @@
       <c r="X114" s="27"/>
       <c r="Y114" s="27"/>
       <c r="Z114" s="27"/>
-      <c r="AA114" s="27"/>
-      <c r="AB114" s="54"/>
-      <c r="AC114" s="55"/>
-      <c r="AD114" s="55"/>
-      <c r="AE114" s="55"/>
-      <c r="AF114" s="55"/>
-      <c r="AG114" s="55"/>
-      <c r="AH114" s="56"/>
+      <c r="AA114" s="28"/>
+      <c r="AB114" s="53"/>
+      <c r="AC114" s="54"/>
+      <c r="AD114" s="54"/>
+      <c r="AE114" s="54"/>
+      <c r="AF114" s="54"/>
+      <c r="AG114" s="54"/>
+      <c r="AH114" s="55"/>
     </row>
     <row r="115" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E115" s="15"/>
@@ -8684,14 +8876,14 @@
       <c r="X115" s="27"/>
       <c r="Y115" s="27"/>
       <c r="Z115" s="27"/>
-      <c r="AA115" s="27"/>
-      <c r="AB115" s="54"/>
-      <c r="AC115" s="55"/>
-      <c r="AD115" s="55"/>
-      <c r="AE115" s="55"/>
-      <c r="AF115" s="55"/>
-      <c r="AG115" s="55"/>
-      <c r="AH115" s="56"/>
+      <c r="AA115" s="28"/>
+      <c r="AB115" s="53"/>
+      <c r="AC115" s="54"/>
+      <c r="AD115" s="54"/>
+      <c r="AE115" s="54"/>
+      <c r="AF115" s="54"/>
+      <c r="AG115" s="54"/>
+      <c r="AH115" s="55"/>
     </row>
     <row r="116" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E116" s="15"/>
@@ -8717,13 +8909,13 @@
       <c r="Y116" s="27"/>
       <c r="Z116" s="27"/>
       <c r="AA116" s="27"/>
-      <c r="AB116" s="54"/>
-      <c r="AC116" s="55"/>
-      <c r="AD116" s="55"/>
-      <c r="AE116" s="55"/>
-      <c r="AF116" s="55"/>
-      <c r="AG116" s="55"/>
-      <c r="AH116" s="56"/>
+      <c r="AB116" s="53"/>
+      <c r="AC116" s="54"/>
+      <c r="AD116" s="54"/>
+      <c r="AE116" s="54"/>
+      <c r="AF116" s="54"/>
+      <c r="AG116" s="54"/>
+      <c r="AH116" s="55"/>
     </row>
     <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E117" s="15"/>
@@ -8749,81 +8941,77 @@
       <c r="Y117" s="27"/>
       <c r="Z117" s="27"/>
       <c r="AA117" s="27"/>
-      <c r="AB117" s="54"/>
-      <c r="AC117" s="55"/>
-      <c r="AD117" s="55"/>
-      <c r="AE117" s="55"/>
-      <c r="AF117" s="55"/>
-      <c r="AG117" s="55"/>
-      <c r="AH117" s="56"/>
+      <c r="AB117" s="53"/>
+      <c r="AC117" s="54"/>
+      <c r="AD117" s="54"/>
+      <c r="AE117" s="54"/>
+      <c r="AF117" s="54"/>
+      <c r="AG117" s="54"/>
+      <c r="AH117" s="55"/>
     </row>
     <row r="118" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E118" s="15"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="30"/>
-      <c r="I118" s="30"/>
-      <c r="J118" s="31"/>
-      <c r="K118" s="30"/>
-      <c r="L118" s="30"/>
-      <c r="M118" s="30"/>
-      <c r="N118" s="29"/>
-      <c r="O118" s="30"/>
-      <c r="P118" s="31"/>
-      <c r="Q118" s="30"/>
-      <c r="R118" s="30"/>
-      <c r="S118" s="30"/>
-      <c r="T118" s="29"/>
-      <c r="U118" s="30"/>
-      <c r="V118" s="30"/>
-      <c r="W118" s="31"/>
-      <c r="X118" s="30"/>
-      <c r="Y118" s="30"/>
-      <c r="Z118" s="30"/>
-      <c r="AA118" s="30"/>
-      <c r="AB118" s="57"/>
-      <c r="AC118" s="58"/>
-      <c r="AD118" s="58"/>
-      <c r="AE118" s="58"/>
-      <c r="AF118" s="58"/>
-      <c r="AG118" s="58"/>
-      <c r="AH118" s="59"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="27"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="27"/>
+      <c r="P118" s="28"/>
+      <c r="Q118" s="27"/>
+      <c r="R118" s="27"/>
+      <c r="S118" s="27"/>
+      <c r="T118" s="26"/>
+      <c r="U118" s="27"/>
+      <c r="V118" s="27"/>
+      <c r="W118" s="28"/>
+      <c r="X118" s="27"/>
+      <c r="Y118" s="27"/>
+      <c r="Z118" s="27"/>
+      <c r="AA118" s="27"/>
+      <c r="AB118" s="53"/>
+      <c r="AC118" s="54"/>
+      <c r="AD118" s="54"/>
+      <c r="AE118" s="54"/>
+      <c r="AF118" s="54"/>
+      <c r="AG118" s="54"/>
+      <c r="AH118" s="55"/>
     </row>
     <row r="119" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E119" s="15"/>
-      <c r="F119" s="23">
-        <v>7</v>
-      </c>
-      <c r="G119" s="23"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
-      <c r="M119" s="24"/>
-      <c r="N119" s="23"/>
-      <c r="O119" s="24"/>
-      <c r="P119" s="25"/>
-      <c r="Q119" s="24"/>
-      <c r="R119" s="24"/>
-      <c r="S119" s="24"/>
-      <c r="T119" s="23"/>
-      <c r="U119" s="24"/>
-      <c r="V119" s="24"/>
-      <c r="W119" s="25"/>
-      <c r="X119" s="24"/>
-      <c r="Y119" s="24"/>
-      <c r="Z119" s="24"/>
-      <c r="AA119" s="24"/>
-      <c r="AB119" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC119" s="52"/>
-      <c r="AD119" s="52"/>
-      <c r="AE119" s="52"/>
-      <c r="AF119" s="52"/>
-      <c r="AG119" s="52"/>
-      <c r="AH119" s="53"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="26"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="28"/>
+      <c r="Q119" s="27"/>
+      <c r="R119" s="27"/>
+      <c r="S119" s="27"/>
+      <c r="T119" s="26"/>
+      <c r="U119" s="27"/>
+      <c r="V119" s="27"/>
+      <c r="W119" s="28"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
+      <c r="AA119" s="27"/>
+      <c r="AB119" s="53"/>
+      <c r="AC119" s="54"/>
+      <c r="AD119" s="54"/>
+      <c r="AE119" s="54"/>
+      <c r="AF119" s="54"/>
+      <c r="AG119" s="54"/>
+      <c r="AH119" s="55"/>
     </row>
     <row r="120" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E120" s="15"/>
@@ -8849,13 +9037,13 @@
       <c r="Y120" s="27"/>
       <c r="Z120" s="27"/>
       <c r="AA120" s="27"/>
-      <c r="AB120" s="54"/>
-      <c r="AC120" s="55"/>
-      <c r="AD120" s="55"/>
-      <c r="AE120" s="55"/>
-      <c r="AF120" s="55"/>
-      <c r="AG120" s="55"/>
-      <c r="AH120" s="56"/>
+      <c r="AB120" s="53"/>
+      <c r="AC120" s="54"/>
+      <c r="AD120" s="54"/>
+      <c r="AE120" s="54"/>
+      <c r="AF120" s="54"/>
+      <c r="AG120" s="54"/>
+      <c r="AH120" s="55"/>
     </row>
     <row r="121" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="15"/>
@@ -8881,13 +9069,13 @@
       <c r="Y121" s="27"/>
       <c r="Z121" s="27"/>
       <c r="AA121" s="27"/>
-      <c r="AB121" s="54"/>
-      <c r="AC121" s="55"/>
-      <c r="AD121" s="55"/>
-      <c r="AE121" s="55"/>
-      <c r="AF121" s="55"/>
-      <c r="AG121" s="55"/>
-      <c r="AH121" s="56"/>
+      <c r="AB121" s="53"/>
+      <c r="AC121" s="54"/>
+      <c r="AD121" s="54"/>
+      <c r="AE121" s="54"/>
+      <c r="AF121" s="54"/>
+      <c r="AG121" s="54"/>
+      <c r="AH121" s="55"/>
     </row>
     <row r="122" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="15"/>
@@ -8913,77 +9101,81 @@
       <c r="Y122" s="27"/>
       <c r="Z122" s="27"/>
       <c r="AA122" s="27"/>
-      <c r="AB122" s="54"/>
-      <c r="AC122" s="55"/>
-      <c r="AD122" s="55"/>
-      <c r="AE122" s="55"/>
-      <c r="AF122" s="55"/>
-      <c r="AG122" s="55"/>
-      <c r="AH122" s="56"/>
+      <c r="AB122" s="53"/>
+      <c r="AC122" s="54"/>
+      <c r="AD122" s="54"/>
+      <c r="AE122" s="54"/>
+      <c r="AF122" s="54"/>
+      <c r="AG122" s="54"/>
+      <c r="AH122" s="55"/>
     </row>
     <row r="123" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E123" s="15"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="28"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="27"/>
-      <c r="M123" s="27"/>
-      <c r="N123" s="26"/>
-      <c r="O123" s="27"/>
-      <c r="P123" s="28"/>
-      <c r="Q123" s="27"/>
-      <c r="R123" s="27"/>
-      <c r="S123" s="27"/>
-      <c r="T123" s="26"/>
-      <c r="U123" s="27"/>
-      <c r="V123" s="27"/>
-      <c r="W123" s="28"/>
-      <c r="X123" s="27"/>
-      <c r="Y123" s="27"/>
-      <c r="Z123" s="27"/>
-      <c r="AA123" s="27"/>
-      <c r="AB123" s="54"/>
-      <c r="AC123" s="55"/>
-      <c r="AD123" s="55"/>
-      <c r="AE123" s="55"/>
-      <c r="AF123" s="55"/>
-      <c r="AG123" s="55"/>
-      <c r="AH123" s="56"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="31"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="30"/>
+      <c r="M123" s="30"/>
+      <c r="N123" s="29"/>
+      <c r="O123" s="30"/>
+      <c r="P123" s="31"/>
+      <c r="Q123" s="30"/>
+      <c r="R123" s="30"/>
+      <c r="S123" s="30"/>
+      <c r="T123" s="29"/>
+      <c r="U123" s="30"/>
+      <c r="V123" s="30"/>
+      <c r="W123" s="31"/>
+      <c r="X123" s="30"/>
+      <c r="Y123" s="30"/>
+      <c r="Z123" s="30"/>
+      <c r="AA123" s="30"/>
+      <c r="AB123" s="56"/>
+      <c r="AC123" s="57"/>
+      <c r="AD123" s="57"/>
+      <c r="AE123" s="57"/>
+      <c r="AF123" s="57"/>
+      <c r="AG123" s="57"/>
+      <c r="AH123" s="58"/>
     </row>
     <row r="124" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E124" s="15"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="28"/>
-      <c r="K124" s="27"/>
-      <c r="L124" s="27"/>
-      <c r="M124" s="27"/>
-      <c r="N124" s="26"/>
-      <c r="O124" s="27"/>
-      <c r="P124" s="28"/>
-      <c r="Q124" s="27"/>
-      <c r="R124" s="27"/>
-      <c r="S124" s="27"/>
-      <c r="T124" s="26"/>
-      <c r="U124" s="27"/>
-      <c r="V124" s="27"/>
-      <c r="W124" s="28"/>
-      <c r="X124" s="27"/>
-      <c r="Y124" s="27"/>
-      <c r="Z124" s="27"/>
-      <c r="AA124" s="27"/>
-      <c r="AB124" s="54"/>
-      <c r="AC124" s="55"/>
-      <c r="AD124" s="55"/>
-      <c r="AE124" s="55"/>
-      <c r="AF124" s="55"/>
-      <c r="AG124" s="55"/>
-      <c r="AH124" s="56"/>
+      <c r="F124" s="23">
+        <v>9</v>
+      </c>
+      <c r="G124" s="23"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="23"/>
+      <c r="O124" s="24"/>
+      <c r="P124" s="25"/>
+      <c r="Q124" s="24"/>
+      <c r="R124" s="24"/>
+      <c r="S124" s="24"/>
+      <c r="T124" s="23"/>
+      <c r="U124" s="24"/>
+      <c r="V124" s="24"/>
+      <c r="W124" s="25"/>
+      <c r="X124" s="24"/>
+      <c r="Y124" s="24"/>
+      <c r="Z124" s="24"/>
+      <c r="AA124" s="25"/>
+      <c r="AB124" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC124" s="51"/>
+      <c r="AD124" s="51"/>
+      <c r="AE124" s="51"/>
+      <c r="AF124" s="51"/>
+      <c r="AG124" s="51"/>
+      <c r="AH124" s="52"/>
     </row>
     <row r="125" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E125" s="15"/>
@@ -9008,14 +9200,14 @@
       <c r="X125" s="27"/>
       <c r="Y125" s="27"/>
       <c r="Z125" s="27"/>
-      <c r="AA125" s="27"/>
-      <c r="AB125" s="54"/>
-      <c r="AC125" s="55"/>
-      <c r="AD125" s="55"/>
-      <c r="AE125" s="55"/>
-      <c r="AF125" s="55"/>
-      <c r="AG125" s="55"/>
-      <c r="AH125" s="56"/>
+      <c r="AA125" s="28"/>
+      <c r="AB125" s="53"/>
+      <c r="AC125" s="54"/>
+      <c r="AD125" s="54"/>
+      <c r="AE125" s="54"/>
+      <c r="AF125" s="54"/>
+      <c r="AG125" s="54"/>
+      <c r="AH125" s="55"/>
     </row>
     <row r="126" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E126" s="15"/>
@@ -9041,117 +9233,111 @@
       <c r="Y126" s="27"/>
       <c r="Z126" s="27"/>
       <c r="AA126" s="27"/>
-      <c r="AB126" s="54"/>
-      <c r="AC126" s="55"/>
-      <c r="AD126" s="55"/>
-      <c r="AE126" s="55"/>
-      <c r="AF126" s="55"/>
-      <c r="AG126" s="55"/>
-      <c r="AH126" s="56"/>
+      <c r="AB126" s="53"/>
+      <c r="AC126" s="54"/>
+      <c r="AD126" s="54"/>
+      <c r="AE126" s="54"/>
+      <c r="AF126" s="54"/>
+      <c r="AG126" s="54"/>
+      <c r="AH126" s="55"/>
     </row>
     <row r="127" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E127" s="15"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="30"/>
-      <c r="I127" s="30"/>
-      <c r="J127" s="31"/>
-      <c r="K127" s="30"/>
-      <c r="L127" s="30"/>
-      <c r="M127" s="30"/>
-      <c r="N127" s="29"/>
-      <c r="O127" s="30"/>
-      <c r="P127" s="31"/>
-      <c r="Q127" s="30"/>
-      <c r="R127" s="30"/>
-      <c r="S127" s="30"/>
-      <c r="T127" s="29"/>
-      <c r="U127" s="30"/>
-      <c r="V127" s="30"/>
-      <c r="W127" s="31"/>
-      <c r="X127" s="30"/>
-      <c r="Y127" s="30"/>
-      <c r="Z127" s="30"/>
-      <c r="AA127" s="30"/>
-      <c r="AB127" s="57"/>
-      <c r="AC127" s="58"/>
-      <c r="AD127" s="58"/>
-      <c r="AE127" s="58"/>
-      <c r="AF127" s="58"/>
-      <c r="AG127" s="58"/>
-      <c r="AH127" s="59"/>
+      <c r="F127" s="26"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="27"/>
+      <c r="N127" s="26"/>
+      <c r="O127" s="27"/>
+      <c r="P127" s="28"/>
+      <c r="Q127" s="27"/>
+      <c r="R127" s="27"/>
+      <c r="S127" s="27"/>
+      <c r="T127" s="26"/>
+      <c r="U127" s="27"/>
+      <c r="V127" s="27"/>
+      <c r="W127" s="28"/>
+      <c r="X127" s="27"/>
+      <c r="Y127" s="27"/>
+      <c r="Z127" s="27"/>
+      <c r="AA127" s="27"/>
+      <c r="AB127" s="53"/>
+      <c r="AC127" s="54"/>
+      <c r="AD127" s="54"/>
+      <c r="AE127" s="54"/>
+      <c r="AF127" s="54"/>
+      <c r="AG127" s="54"/>
+      <c r="AH127" s="55"/>
     </row>
     <row r="128" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E128" s="15"/>
-      <c r="F128" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="G128" s="72"/>
-      <c r="H128" s="72"/>
-      <c r="I128" s="72"/>
-      <c r="J128" s="72"/>
-      <c r="K128" s="72"/>
-      <c r="L128" s="72"/>
-      <c r="M128" s="72"/>
-      <c r="N128" s="72"/>
-      <c r="O128" s="72"/>
-      <c r="P128" s="72"/>
-      <c r="Q128" s="72"/>
-      <c r="R128" s="72"/>
-      <c r="S128" s="72"/>
-      <c r="T128" s="72"/>
-      <c r="U128" s="72"/>
-      <c r="V128" s="72"/>
-      <c r="W128" s="72"/>
-      <c r="X128" s="72"/>
-      <c r="Y128" s="72"/>
-      <c r="Z128" s="72"/>
-      <c r="AA128" s="72"/>
-      <c r="AB128" s="72"/>
-      <c r="AC128" s="72"/>
-      <c r="AD128" s="72"/>
-      <c r="AE128" s="72"/>
-      <c r="AF128" s="72"/>
-      <c r="AG128" s="72"/>
-      <c r="AH128" s="73"/>
-    </row>
-    <row r="129" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="28"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="26"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="28"/>
+      <c r="Q128" s="27"/>
+      <c r="R128" s="27"/>
+      <c r="S128" s="27"/>
+      <c r="T128" s="26"/>
+      <c r="U128" s="27"/>
+      <c r="V128" s="27"/>
+      <c r="W128" s="28"/>
+      <c r="X128" s="27"/>
+      <c r="Y128" s="27"/>
+      <c r="Z128" s="27"/>
+      <c r="AA128" s="27"/>
+      <c r="AB128" s="53"/>
+      <c r="AC128" s="54"/>
+      <c r="AD128" s="54"/>
+      <c r="AE128" s="54"/>
+      <c r="AF128" s="54"/>
+      <c r="AG128" s="54"/>
+      <c r="AH128" s="55"/>
+    </row>
+    <row r="129" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E129" s="15"/>
-      <c r="F129" s="23">
-        <v>8</v>
-      </c>
-      <c r="G129" s="23"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="25"/>
-      <c r="K129" s="24"/>
-      <c r="L129" s="24"/>
-      <c r="M129" s="24"/>
-      <c r="N129" s="23"/>
-      <c r="O129" s="24"/>
-      <c r="P129" s="25"/>
-      <c r="Q129" s="24"/>
-      <c r="R129" s="24"/>
-      <c r="S129" s="24"/>
-      <c r="T129" s="23"/>
-      <c r="U129" s="24"/>
-      <c r="V129" s="24"/>
-      <c r="W129" s="25"/>
-      <c r="X129" s="24"/>
-      <c r="Y129" s="24"/>
-      <c r="Z129" s="24"/>
-      <c r="AA129" s="25"/>
-      <c r="AB129" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC129" s="52"/>
-      <c r="AD129" s="52"/>
-      <c r="AE129" s="52"/>
-      <c r="AF129" s="52"/>
-      <c r="AG129" s="52"/>
-      <c r="AH129" s="53"/>
-    </row>
-    <row r="130" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="27"/>
+      <c r="M129" s="27"/>
+      <c r="N129" s="26"/>
+      <c r="O129" s="27"/>
+      <c r="P129" s="28"/>
+      <c r="Q129" s="27"/>
+      <c r="R129" s="27"/>
+      <c r="S129" s="27"/>
+      <c r="T129" s="26"/>
+      <c r="U129" s="27"/>
+      <c r="V129" s="27"/>
+      <c r="W129" s="28"/>
+      <c r="X129" s="27"/>
+      <c r="Y129" s="27"/>
+      <c r="Z129" s="27"/>
+      <c r="AA129" s="27"/>
+      <c r="AB129" s="53"/>
+      <c r="AC129" s="54"/>
+      <c r="AD129" s="54"/>
+      <c r="AE129" s="54"/>
+      <c r="AF129" s="54"/>
+      <c r="AG129" s="54"/>
+      <c r="AH129" s="55"/>
+    </row>
+    <row r="130" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E130" s="15"/>
       <c r="F130" s="26"/>
       <c r="G130" s="26"/>
@@ -9174,16 +9360,16 @@
       <c r="X130" s="27"/>
       <c r="Y130" s="27"/>
       <c r="Z130" s="27"/>
-      <c r="AA130" s="28"/>
-      <c r="AB130" s="54"/>
-      <c r="AC130" s="55"/>
-      <c r="AD130" s="55"/>
-      <c r="AE130" s="55"/>
-      <c r="AF130" s="55"/>
-      <c r="AG130" s="55"/>
-      <c r="AH130" s="56"/>
-    </row>
-    <row r="131" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA130" s="27"/>
+      <c r="AB130" s="53"/>
+      <c r="AC130" s="54"/>
+      <c r="AD130" s="54"/>
+      <c r="AE130" s="54"/>
+      <c r="AF130" s="54"/>
+      <c r="AG130" s="54"/>
+      <c r="AH130" s="55"/>
+    </row>
+    <row r="131" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E131" s="15"/>
       <c r="F131" s="26"/>
       <c r="G131" s="26"/>
@@ -9206,749 +9392,249 @@
       <c r="X131" s="27"/>
       <c r="Y131" s="27"/>
       <c r="Z131" s="27"/>
-      <c r="AA131" s="28"/>
-      <c r="AB131" s="54"/>
-      <c r="AC131" s="55"/>
-      <c r="AD131" s="55"/>
-      <c r="AE131" s="55"/>
-      <c r="AF131" s="55"/>
-      <c r="AG131" s="55"/>
-      <c r="AH131" s="56"/>
-    </row>
-    <row r="132" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA131" s="27"/>
+      <c r="AB131" s="53"/>
+      <c r="AC131" s="54"/>
+      <c r="AD131" s="54"/>
+      <c r="AE131" s="54"/>
+      <c r="AF131" s="54"/>
+      <c r="AG131" s="54"/>
+      <c r="AH131" s="55"/>
+    </row>
+    <row r="132" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E132" s="15"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="28"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="26"/>
-      <c r="O132" s="27"/>
-      <c r="P132" s="28"/>
-      <c r="Q132" s="27"/>
-      <c r="R132" s="27"/>
-      <c r="S132" s="27"/>
-      <c r="T132" s="26"/>
-      <c r="U132" s="27"/>
-      <c r="V132" s="27"/>
-      <c r="W132" s="28"/>
-      <c r="X132" s="27"/>
-      <c r="Y132" s="27"/>
-      <c r="Z132" s="27"/>
-      <c r="AA132" s="27"/>
-      <c r="AB132" s="54"/>
-      <c r="AC132" s="55"/>
-      <c r="AD132" s="55"/>
-      <c r="AE132" s="55"/>
-      <c r="AF132" s="55"/>
-      <c r="AG132" s="55"/>
-      <c r="AH132" s="56"/>
-    </row>
-    <row r="133" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="31"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="30"/>
+      <c r="M132" s="30"/>
+      <c r="N132" s="29"/>
+      <c r="O132" s="30"/>
+      <c r="P132" s="31"/>
+      <c r="Q132" s="30"/>
+      <c r="R132" s="30"/>
+      <c r="S132" s="30"/>
+      <c r="T132" s="29"/>
+      <c r="U132" s="30"/>
+      <c r="V132" s="30"/>
+      <c r="W132" s="31"/>
+      <c r="X132" s="30"/>
+      <c r="Y132" s="30"/>
+      <c r="Z132" s="30"/>
+      <c r="AA132" s="30"/>
+      <c r="AB132" s="56"/>
+      <c r="AC132" s="57"/>
+      <c r="AD132" s="57"/>
+      <c r="AE132" s="57"/>
+      <c r="AF132" s="57"/>
+      <c r="AG132" s="57"/>
+      <c r="AH132" s="58"/>
+    </row>
+    <row r="133" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E133" s="15"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="27"/>
-      <c r="L133" s="27"/>
-      <c r="M133" s="27"/>
-      <c r="N133" s="26"/>
-      <c r="O133" s="27"/>
-      <c r="P133" s="28"/>
-      <c r="Q133" s="27"/>
-      <c r="R133" s="27"/>
-      <c r="S133" s="27"/>
-      <c r="T133" s="26"/>
-      <c r="U133" s="27"/>
-      <c r="V133" s="27"/>
-      <c r="W133" s="28"/>
-      <c r="X133" s="27"/>
-      <c r="Y133" s="27"/>
-      <c r="Z133" s="27"/>
-      <c r="AA133" s="27"/>
-      <c r="AB133" s="54"/>
-      <c r="AC133" s="55"/>
-      <c r="AD133" s="55"/>
-      <c r="AE133" s="55"/>
-      <c r="AF133" s="55"/>
-      <c r="AG133" s="55"/>
-      <c r="AH133" s="56"/>
-    </row>
-    <row r="134" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="134" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E134" s="15"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="28"/>
-      <c r="K134" s="27"/>
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="26"/>
-      <c r="O134" s="27"/>
-      <c r="P134" s="28"/>
-      <c r="Q134" s="27"/>
-      <c r="R134" s="27"/>
-      <c r="S134" s="27"/>
-      <c r="T134" s="26"/>
-      <c r="U134" s="27"/>
-      <c r="V134" s="27"/>
-      <c r="W134" s="28"/>
-      <c r="X134" s="27"/>
-      <c r="Y134" s="27"/>
-      <c r="Z134" s="27"/>
-      <c r="AA134" s="27"/>
-      <c r="AB134" s="54"/>
-      <c r="AC134" s="55"/>
-      <c r="AD134" s="55"/>
-      <c r="AE134" s="55"/>
-      <c r="AF134" s="55"/>
-      <c r="AG134" s="55"/>
-      <c r="AH134" s="56"/>
-    </row>
-    <row r="135" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F134" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E135" s="15"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="28"/>
-      <c r="K135" s="27"/>
-      <c r="L135" s="27"/>
-      <c r="M135" s="27"/>
-      <c r="N135" s="26"/>
-      <c r="O135" s="27"/>
-      <c r="P135" s="28"/>
-      <c r="Q135" s="27"/>
-      <c r="R135" s="27"/>
-      <c r="S135" s="27"/>
-      <c r="T135" s="26"/>
-      <c r="U135" s="27"/>
-      <c r="V135" s="27"/>
-      <c r="W135" s="28"/>
-      <c r="X135" s="27"/>
-      <c r="Y135" s="27"/>
-      <c r="Z135" s="27"/>
-      <c r="AA135" s="27"/>
-      <c r="AB135" s="54"/>
-      <c r="AC135" s="55"/>
-      <c r="AD135" s="55"/>
-      <c r="AE135" s="55"/>
-      <c r="AF135" s="55"/>
-      <c r="AG135" s="55"/>
-      <c r="AH135" s="56"/>
-    </row>
-    <row r="136" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H135" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E136" s="15"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="28"/>
-      <c r="K136" s="27"/>
-      <c r="L136" s="27"/>
-      <c r="M136" s="27"/>
-      <c r="N136" s="26"/>
-      <c r="O136" s="27"/>
-      <c r="P136" s="28"/>
-      <c r="Q136" s="27"/>
-      <c r="R136" s="27"/>
-      <c r="S136" s="27"/>
-      <c r="T136" s="26"/>
-      <c r="U136" s="27"/>
-      <c r="V136" s="27"/>
-      <c r="W136" s="28"/>
-      <c r="X136" s="27"/>
-      <c r="Y136" s="27"/>
-      <c r="Z136" s="27"/>
-      <c r="AA136" s="27"/>
-      <c r="AB136" s="54"/>
-      <c r="AC136" s="55"/>
-      <c r="AD136" s="55"/>
-      <c r="AE136" s="55"/>
-      <c r="AF136" s="55"/>
-      <c r="AG136" s="55"/>
-      <c r="AH136" s="56"/>
-    </row>
-    <row r="137" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E137" s="15"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="28"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="27"/>
-      <c r="M137" s="27"/>
-      <c r="N137" s="26"/>
-      <c r="O137" s="27"/>
-      <c r="P137" s="28"/>
-      <c r="Q137" s="27"/>
-      <c r="R137" s="27"/>
-      <c r="S137" s="27"/>
-      <c r="T137" s="26"/>
-      <c r="U137" s="27"/>
-      <c r="V137" s="27"/>
-      <c r="W137" s="28"/>
-      <c r="X137" s="27"/>
-      <c r="Y137" s="27"/>
-      <c r="Z137" s="27"/>
-      <c r="AA137" s="27"/>
-      <c r="AB137" s="54"/>
-      <c r="AC137" s="55"/>
-      <c r="AD137" s="55"/>
-      <c r="AE137" s="55"/>
-      <c r="AF137" s="55"/>
-      <c r="AG137" s="55"/>
-      <c r="AH137" s="56"/>
-    </row>
-    <row r="138" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E138" s="15"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="28"/>
-      <c r="K138" s="27"/>
-      <c r="L138" s="27"/>
-      <c r="M138" s="27"/>
-      <c r="N138" s="26"/>
-      <c r="O138" s="27"/>
-      <c r="P138" s="28"/>
-      <c r="Q138" s="27"/>
-      <c r="R138" s="27"/>
-      <c r="S138" s="27"/>
-      <c r="T138" s="26"/>
-      <c r="U138" s="27"/>
-      <c r="V138" s="27"/>
-      <c r="W138" s="28"/>
-      <c r="X138" s="27"/>
-      <c r="Y138" s="27"/>
-      <c r="Z138" s="27"/>
-      <c r="AA138" s="27"/>
-      <c r="AB138" s="54"/>
-      <c r="AC138" s="55"/>
-      <c r="AD138" s="55"/>
-      <c r="AE138" s="55"/>
-      <c r="AF138" s="55"/>
-      <c r="AG138" s="55"/>
-      <c r="AH138" s="56"/>
-    </row>
-    <row r="139" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E139" s="15"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="30"/>
-      <c r="J139" s="31"/>
-      <c r="K139" s="30"/>
-      <c r="L139" s="30"/>
-      <c r="M139" s="30"/>
-      <c r="N139" s="29"/>
-      <c r="O139" s="30"/>
-      <c r="P139" s="31"/>
-      <c r="Q139" s="30"/>
-      <c r="R139" s="30"/>
-      <c r="S139" s="30"/>
-      <c r="T139" s="29"/>
-      <c r="U139" s="30"/>
-      <c r="V139" s="30"/>
-      <c r="W139" s="31"/>
-      <c r="X139" s="30"/>
-      <c r="Y139" s="30"/>
-      <c r="Z139" s="30"/>
-      <c r="AA139" s="30"/>
-      <c r="AB139" s="57"/>
-      <c r="AC139" s="58"/>
-      <c r="AD139" s="58"/>
-      <c r="AE139" s="58"/>
-      <c r="AF139" s="58"/>
-      <c r="AG139" s="58"/>
-      <c r="AH139" s="59"/>
-    </row>
-    <row r="140" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E140" s="15"/>
-      <c r="F140" s="23">
-        <v>9</v>
+      <c r="H136" s="4" t="s">
+        <v>51</v>
       </c>
-      <c r="G140" s="23"/>
-      <c r="H140" s="24"/>
-      <c r="I140" s="24"/>
-      <c r="J140" s="25"/>
-      <c r="K140" s="24"/>
-      <c r="L140" s="24"/>
-      <c r="M140" s="24"/>
-      <c r="N140" s="23"/>
-      <c r="O140" s="24"/>
-      <c r="P140" s="25"/>
-      <c r="Q140" s="24"/>
-      <c r="R140" s="24"/>
-      <c r="S140" s="24"/>
-      <c r="T140" s="23"/>
-      <c r="U140" s="24"/>
-      <c r="V140" s="24"/>
-      <c r="W140" s="25"/>
-      <c r="X140" s="24"/>
-      <c r="Y140" s="24"/>
-      <c r="Z140" s="24"/>
-      <c r="AA140" s="25"/>
-      <c r="AB140" s="51" t="s">
-        <v>74</v>
+    </row>
+    <row r="137" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="18"/>
+      <c r="H137" s="16" t="s">
+        <v>63</v>
       </c>
-      <c r="AC140" s="52"/>
-      <c r="AD140" s="52"/>
-      <c r="AE140" s="52"/>
-      <c r="AF140" s="52"/>
-      <c r="AG140" s="52"/>
-      <c r="AH140" s="53"/>
-    </row>
-    <row r="141" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E141" s="15"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="28"/>
-      <c r="K141" s="27"/>
-      <c r="L141" s="27"/>
-      <c r="M141" s="27"/>
-      <c r="N141" s="26"/>
-      <c r="O141" s="27"/>
-      <c r="P141" s="28"/>
-      <c r="Q141" s="27"/>
-      <c r="R141" s="27"/>
-      <c r="S141" s="27"/>
-      <c r="T141" s="26"/>
-      <c r="U141" s="27"/>
-      <c r="V141" s="27"/>
-      <c r="W141" s="28"/>
-      <c r="X141" s="27"/>
-      <c r="Y141" s="27"/>
-      <c r="Z141" s="27"/>
-      <c r="AA141" s="28"/>
-      <c r="AB141" s="54"/>
-      <c r="AC141" s="55"/>
-      <c r="AD141" s="55"/>
-      <c r="AE141" s="55"/>
-      <c r="AF141" s="55"/>
-      <c r="AG141" s="55"/>
-      <c r="AH141" s="56"/>
-    </row>
-    <row r="142" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E142" s="15"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="28"/>
-      <c r="K142" s="27"/>
-      <c r="L142" s="27"/>
-      <c r="M142" s="27"/>
-      <c r="N142" s="26"/>
-      <c r="O142" s="27"/>
-      <c r="P142" s="28"/>
-      <c r="Q142" s="27"/>
-      <c r="R142" s="27"/>
-      <c r="S142" s="27"/>
-      <c r="T142" s="26"/>
-      <c r="U142" s="27"/>
-      <c r="V142" s="27"/>
-      <c r="W142" s="28"/>
-      <c r="X142" s="27"/>
-      <c r="Y142" s="27"/>
-      <c r="Z142" s="27"/>
-      <c r="AA142" s="27"/>
-      <c r="AB142" s="54"/>
-      <c r="AC142" s="55"/>
-      <c r="AD142" s="55"/>
-      <c r="AE142" s="55"/>
-      <c r="AF142" s="55"/>
-      <c r="AG142" s="55"/>
-      <c r="AH142" s="56"/>
-    </row>
-    <row r="143" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E143" s="15"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="28"/>
-      <c r="K143" s="27"/>
-      <c r="L143" s="27"/>
-      <c r="M143" s="27"/>
-      <c r="N143" s="26"/>
-      <c r="O143" s="27"/>
-      <c r="P143" s="28"/>
-      <c r="Q143" s="27"/>
-      <c r="R143" s="27"/>
-      <c r="S143" s="27"/>
-      <c r="T143" s="26"/>
-      <c r="U143" s="27"/>
-      <c r="V143" s="27"/>
-      <c r="W143" s="28"/>
-      <c r="X143" s="27"/>
-      <c r="Y143" s="27"/>
-      <c r="Z143" s="27"/>
-      <c r="AA143" s="27"/>
-      <c r="AB143" s="54"/>
-      <c r="AC143" s="55"/>
-      <c r="AD143" s="55"/>
-      <c r="AE143" s="55"/>
-      <c r="AF143" s="55"/>
-      <c r="AG143" s="55"/>
-      <c r="AH143" s="56"/>
-    </row>
-    <row r="144" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E144" s="15"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="26"/>
-      <c r="H144" s="27"/>
-      <c r="I144" s="27"/>
-      <c r="J144" s="28"/>
-      <c r="K144" s="27"/>
-      <c r="L144" s="27"/>
-      <c r="M144" s="27"/>
-      <c r="N144" s="26"/>
-      <c r="O144" s="27"/>
-      <c r="P144" s="28"/>
-      <c r="Q144" s="27"/>
-      <c r="R144" s="27"/>
-      <c r="S144" s="27"/>
-      <c r="T144" s="26"/>
-      <c r="U144" s="27"/>
-      <c r="V144" s="27"/>
-      <c r="W144" s="28"/>
-      <c r="X144" s="27"/>
-      <c r="Y144" s="27"/>
-      <c r="Z144" s="27"/>
-      <c r="AA144" s="27"/>
-      <c r="AB144" s="54"/>
-      <c r="AC144" s="55"/>
-      <c r="AD144" s="55"/>
-      <c r="AE144" s="55"/>
-      <c r="AF144" s="55"/>
-      <c r="AG144" s="55"/>
-      <c r="AH144" s="56"/>
-    </row>
-    <row r="145" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E145" s="15"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="28"/>
-      <c r="K145" s="27"/>
-      <c r="L145" s="27"/>
-      <c r="M145" s="27"/>
-      <c r="N145" s="26"/>
-      <c r="O145" s="27"/>
-      <c r="P145" s="28"/>
-      <c r="Q145" s="27"/>
-      <c r="R145" s="27"/>
-      <c r="S145" s="27"/>
-      <c r="T145" s="26"/>
-      <c r="U145" s="27"/>
-      <c r="V145" s="27"/>
-      <c r="W145" s="28"/>
-      <c r="X145" s="27"/>
-      <c r="Y145" s="27"/>
-      <c r="Z145" s="27"/>
-      <c r="AA145" s="27"/>
-      <c r="AB145" s="54"/>
-      <c r="AC145" s="55"/>
-      <c r="AD145" s="55"/>
-      <c r="AE145" s="55"/>
-      <c r="AF145" s="55"/>
-      <c r="AG145" s="55"/>
-      <c r="AH145" s="56"/>
-    </row>
-    <row r="146" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E146" s="15"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="26"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
-      <c r="J146" s="28"/>
-      <c r="K146" s="27"/>
-      <c r="L146" s="27"/>
-      <c r="M146" s="27"/>
-      <c r="N146" s="26"/>
-      <c r="O146" s="27"/>
-      <c r="P146" s="28"/>
-      <c r="Q146" s="27"/>
-      <c r="R146" s="27"/>
-      <c r="S146" s="27"/>
-      <c r="T146" s="26"/>
-      <c r="U146" s="27"/>
-      <c r="V146" s="27"/>
-      <c r="W146" s="28"/>
-      <c r="X146" s="27"/>
-      <c r="Y146" s="27"/>
-      <c r="Z146" s="27"/>
-      <c r="AA146" s="27"/>
-      <c r="AB146" s="54"/>
-      <c r="AC146" s="55"/>
-      <c r="AD146" s="55"/>
-      <c r="AE146" s="55"/>
-      <c r="AF146" s="55"/>
-      <c r="AG146" s="55"/>
-      <c r="AH146" s="56"/>
-    </row>
-    <row r="147" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E147" s="15"/>
-      <c r="F147" s="26"/>
-      <c r="G147" s="26"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="28"/>
-      <c r="K147" s="27"/>
-      <c r="L147" s="27"/>
-      <c r="M147" s="27"/>
-      <c r="N147" s="26"/>
-      <c r="O147" s="27"/>
-      <c r="P147" s="28"/>
-      <c r="Q147" s="27"/>
-      <c r="R147" s="27"/>
-      <c r="S147" s="27"/>
-      <c r="T147" s="26"/>
-      <c r="U147" s="27"/>
-      <c r="V147" s="27"/>
-      <c r="W147" s="28"/>
-      <c r="X147" s="27"/>
-      <c r="Y147" s="27"/>
-      <c r="Z147" s="27"/>
-      <c r="AA147" s="27"/>
-      <c r="AB147" s="54"/>
-      <c r="AC147" s="55"/>
-      <c r="AD147" s="55"/>
-      <c r="AE147" s="55"/>
-      <c r="AF147" s="55"/>
-      <c r="AG147" s="55"/>
-      <c r="AH147" s="56"/>
-    </row>
-    <row r="148" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E148" s="15"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="30"/>
-      <c r="I148" s="30"/>
-      <c r="J148" s="31"/>
-      <c r="K148" s="30"/>
-      <c r="L148" s="30"/>
-      <c r="M148" s="30"/>
-      <c r="N148" s="29"/>
-      <c r="O148" s="30"/>
-      <c r="P148" s="31"/>
-      <c r="Q148" s="30"/>
-      <c r="R148" s="30"/>
-      <c r="S148" s="30"/>
-      <c r="T148" s="29"/>
-      <c r="U148" s="30"/>
-      <c r="V148" s="30"/>
-      <c r="W148" s="31"/>
-      <c r="X148" s="30"/>
-      <c r="Y148" s="30"/>
-      <c r="Z148" s="30"/>
-      <c r="AA148" s="30"/>
-      <c r="AB148" s="57"/>
-      <c r="AC148" s="58"/>
-      <c r="AD148" s="58"/>
-      <c r="AE148" s="58"/>
-      <c r="AF148" s="58"/>
-      <c r="AG148" s="58"/>
-      <c r="AH148" s="59"/>
-    </row>
-    <row r="149" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E149" s="15"/>
-    </row>
-    <row r="150" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E150" s="15"/>
-      <c r="F150" s="4" t="s">
-        <v>65</v>
+    </row>
+    <row r="138" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D138" s="18"/>
+    </row>
+    <row r="139" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D140" s="15" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>6.2.3.</v>
       </c>
-      <c r="H150" s="4" t="s">
-        <v>68</v>
+      <c r="E140" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="151" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E151" s="15"/>
-      <c r="H151" s="4" t="s">
-        <v>66</v>
+    <row r="141" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E141" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="152" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E152" s="15"/>
-      <c r="H152" s="4" t="s">
-        <v>67</v>
+    <row r="142" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D144" s="15" t="str">
+        <f>$C$7&amp;"4."</f>
+        <v>6.2.4.</v>
       </c>
-    </row>
-    <row r="153" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="18"/>
-      <c r="H153" s="16" t="s">
-        <v>83</v>
+      <c r="E144" s="16" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="154" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="18"/>
+    <row r="145" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E145" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
+      <c r="R145" s="17"/>
+      <c r="S145" s="17"/>
+      <c r="T145" s="17"/>
+      <c r="U145" s="17"/>
+      <c r="V145" s="17"/>
+      <c r="W145" s="17"/>
+      <c r="X145" s="17"/>
+      <c r="Y145" s="17"/>
+      <c r="Z145" s="17"/>
+      <c r="AA145" s="17"/>
+      <c r="AB145" s="17"/>
+      <c r="AC145" s="17"/>
+      <c r="AD145" s="17"/>
+      <c r="AE145" s="17"/>
+      <c r="AF145" s="17"/>
+      <c r="AG145" s="17"/>
+      <c r="AH145" s="17"/>
+    </row>
+    <row r="146" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D146" s="15"/>
+    </row>
+    <row r="147" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="148" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D148" s="15" t="str">
+        <f>$C$7&amp;"5."</f>
+        <v>6.2.5.</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E149" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E150" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="152" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E152" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F152" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F153" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F154" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="155" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="156" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="D156" s="15" t="str">
-        <f>$C$7&amp;"3."</f>
-        <v>6.2.3.</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E157" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="159" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="160" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D160" s="15" t="str">
-        <f>$C$7&amp;"4."</f>
-        <v>6.2.4.</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E161" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-      <c r="I161" s="17"/>
-      <c r="J161" s="17"/>
-      <c r="K161" s="17"/>
-      <c r="L161" s="17"/>
-      <c r="M161" s="17"/>
-      <c r="N161" s="17"/>
-      <c r="O161" s="17"/>
-      <c r="P161" s="17"/>
-      <c r="Q161" s="17"/>
-      <c r="R161" s="17"/>
-      <c r="S161" s="17"/>
-      <c r="T161" s="17"/>
-      <c r="U161" s="17"/>
-      <c r="V161" s="17"/>
-      <c r="W161" s="17"/>
-      <c r="X161" s="17"/>
-      <c r="Y161" s="17"/>
-      <c r="Z161" s="17"/>
-      <c r="AA161" s="17"/>
-      <c r="AB161" s="17"/>
-      <c r="AC161" s="17"/>
-      <c r="AD161" s="17"/>
-      <c r="AE161" s="17"/>
-      <c r="AF161" s="17"/>
-      <c r="AG161" s="17"/>
-      <c r="AH161" s="17"/>
-    </row>
-    <row r="162" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D162" s="15"/>
-    </row>
-    <row r="163" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="164" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D164" s="15" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>6.2.5.</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="165" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E165" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E166" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="167" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="168" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E168" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F168" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="169" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F169" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F170" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="171" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D172" s="15" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.2.6.</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E156" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E173" s="16" t="s">
+    <row r="157" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E157" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="175" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="E175" s="18" t="s">
+    <row r="158" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="E159" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F175" s="16" t="s">
-        <v>89</v>
+      <c r="F159" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="176" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F176" s="16" t="s">
+    <row r="160" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F160" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="F177" s="16" t="s">
+    <row r="161" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="F161" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="179" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="180" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D180" s="16"/>
-    </row>
-    <row r="181" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="163" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="164" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D164" s="16"/>
+    </row>
+    <row r="165" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10352,22 +10038,6 @@
     <row r="593" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="594" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="595" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="E1:O1"/>
@@ -10380,26 +10050,26 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AB140:AH148"/>
-    <mergeCell ref="AB107:AH118"/>
-    <mergeCell ref="AB119:AH127"/>
-    <mergeCell ref="AB129:AH139"/>
+    <mergeCell ref="AB124:AH132"/>
+    <mergeCell ref="AB91:AH102"/>
+    <mergeCell ref="AB103:AH111"/>
+    <mergeCell ref="AB113:AH123"/>
     <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB84:AH93"/>
-    <mergeCell ref="AB94:AH106"/>
-    <mergeCell ref="AB71:AH83"/>
-    <mergeCell ref="AB59:AH70"/>
-    <mergeCell ref="AB50:AH58"/>
-    <mergeCell ref="F128:AH128"/>
+    <mergeCell ref="AB68:AH77"/>
+    <mergeCell ref="AB78:AH90"/>
+    <mergeCell ref="AB55:AH67"/>
+    <mergeCell ref="AB43:AH54"/>
+    <mergeCell ref="AB34:AH42"/>
+    <mergeCell ref="F112:AH112"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="43" max="34" man="1"/>
-    <brk id="83" max="34" man="1"/>
-    <brk id="128" max="34" man="1"/>
-    <brk id="171" max="34" man="1"/>
+    <brk id="27" max="34" man="1"/>
+    <brk id="67" max="34" man="1"/>
+    <brk id="112" max="34" man="1"/>
+    <brk id="155" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_6出力処理方式_6.2.ファイル転送（配信）.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E647B14B-AA1B-440E-A050-50BAC119C8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4975FB5-C7CC-4A21-990D-E4F2617288AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.2.ファイル転送（配信）" sheetId="4" r:id="rId1"/>
@@ -199,22 +199,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>セゾン情報システムズのHULFTを使用したファイル配信方法である。</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハイシン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ファイルを配信したあと、ジョブとの連携が可能である。</t>
     <rPh sb="5" eb="7">
       <t>ハイシン</t>
@@ -695,6 +679,19 @@
     <t>【5.1.1.3.SFTPクライアントの方式概要】参照。</t>
     <rPh sb="25" eb="27">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セゾンテクノロジーのHULFTを使用したファイル配信方法である。</t>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハイシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1089,6 +1086,75 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1115,15 +1181,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1157,66 +1214,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5620,144 +5617,144 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="4"/>
+    <col min="1" max="16384" width="3.6328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="75"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="76" t="s">
-        <v>57</v>
+      <c r="R1" s="54" t="s">
+        <v>56</v>
       </c>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="78"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="56"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="61"/>
-    </row>
-    <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="62"/>
+    </row>
+    <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="84"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="65"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="85" t="s">
+      <c r="R2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="87"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="68"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="61"/>
-    </row>
-    <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="62"/>
+    </row>
+    <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="90"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="71"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="61"/>
-    </row>
-    <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="62"/>
+    </row>
+    <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
@@ -5765,8 +5762,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="15" t="str">
         <f>$B$5&amp;"2."</f>
         <v>6.2.</v>
@@ -5775,10 +5772,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="15" t="str">
         <f>$C$7&amp;"1."</f>
         <v>6.2.1.</v>
@@ -5787,7 +5784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="str">
         <f>$D$9&amp;"1."</f>
@@ -5798,18 +5795,18 @@
         <v>ファイル転送（配信）方式概要</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="F11" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="F12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="15" t="str">
         <f>$D$9&amp;"2."</f>
         <v>6.2.1.2.</v>
@@ -5819,16 +5816,16 @@
         <v>ファイル転送（配信）方法</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="19"/>
       <c r="F17" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -5861,16 +5858,16 @@
       <c r="AG17" s="21"/>
       <c r="AH17" s="22"/>
     </row>
-    <row r="18" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
       <c r="F18" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="23" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -5897,14 +5894,14 @@
       <c r="AG18" s="24"/>
       <c r="AH18" s="25"/>
     </row>
-    <row r="19" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
@@ -5931,7 +5928,7 @@
       <c r="AG19" s="27"/>
       <c r="AH19" s="28"/>
     </row>
-    <row r="20" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="19"/>
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
@@ -5965,16 +5962,16 @@
       <c r="AG20" s="27"/>
       <c r="AH20" s="28"/>
     </row>
-    <row r="21" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="19"/>
       <c r="F21" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
@@ -6001,14 +5998,14 @@
       <c r="AG21" s="24"/>
       <c r="AH21" s="25"/>
     </row>
-    <row r="22" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="19"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -6035,14 +6032,14 @@
       <c r="AG22" s="27"/>
       <c r="AH22" s="28"/>
     </row>
-    <row r="23" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="19"/>
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
       <c r="J23" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
@@ -6069,29 +6066,29 @@
       <c r="AG23" s="30"/>
       <c r="AH23" s="31"/>
     </row>
-    <row r="24" spans="2:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="18"/>
-      <c r="E24" s="92"/>
-    </row>
-    <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E25" s="15" t="str">
         <f>$D$9&amp;"3."</f>
         <v>6.2.1.3.</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="15"/>
+      <c r="F26" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="15"/>
-      <c r="F26" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>6.2.2.</v>
@@ -6100,28 +6097,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E29" s="15"/>
       <c r="F29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="15"/>
       <c r="F31" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="34"/>
       <c r="K31" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
@@ -6140,7 +6137,7 @@
       <c r="Z31" s="35"/>
       <c r="AA31" s="35"/>
       <c r="AB31" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC31" s="36"/>
       <c r="AD31" s="36"/>
@@ -6149,7 +6146,7 @@
       <c r="AG31" s="36"/>
       <c r="AH31" s="37"/>
     </row>
-    <row r="32" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E32" s="15"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
@@ -6157,7 +6154,7 @@
       <c r="I32" s="39"/>
       <c r="J32" s="40"/>
       <c r="K32" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
@@ -6168,13 +6165,13 @@
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
       <c r="T32" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U32" s="33"/>
       <c r="V32" s="33"/>
       <c r="W32" s="34"/>
       <c r="X32" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y32" s="39"/>
       <c r="Z32" s="39"/>
@@ -6187,7 +6184,7 @@
       <c r="AG32" s="41"/>
       <c r="AH32" s="42"/>
     </row>
-    <row r="33" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E33" s="15"/>
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
@@ -6195,22 +6192,22 @@
       <c r="I33" s="44"/>
       <c r="J33" s="45"/>
       <c r="K33" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L33" s="44"/>
       <c r="M33" s="44"/>
       <c r="N33" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O33" s="35"/>
       <c r="P33" s="47"/>
       <c r="Q33" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R33" s="44"/>
       <c r="S33" s="44"/>
       <c r="T33" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U33" s="44"/>
       <c r="V33" s="44"/>
@@ -6227,7 +6224,7 @@
       <c r="AG33" s="48"/>
       <c r="AH33" s="49"/>
     </row>
-    <row r="34" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="15"/>
       <c r="F34" s="23">
         <v>1</v>
@@ -6253,17 +6250,17 @@
       <c r="Y34" s="24"/>
       <c r="Z34" s="24"/>
       <c r="AA34" s="24"/>
-      <c r="AB34" s="50" t="s">
-        <v>65</v>
+      <c r="AB34" s="73" t="s">
+        <v>64</v>
       </c>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="52"/>
-    </row>
-    <row r="35" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="74"/>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="75"/>
+    </row>
+    <row r="35" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="15"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
@@ -6287,15 +6284,15 @@
       <c r="Y35" s="27"/>
       <c r="Z35" s="27"/>
       <c r="AA35" s="27"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="54"/>
-      <c r="AH35" s="55"/>
-    </row>
-    <row r="36" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB35" s="76"/>
+      <c r="AC35" s="77"/>
+      <c r="AD35" s="77"/>
+      <c r="AE35" s="77"/>
+      <c r="AF35" s="77"/>
+      <c r="AG35" s="77"/>
+      <c r="AH35" s="78"/>
+    </row>
+    <row r="36" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E36" s="15"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -6319,15 +6316,15 @@
       <c r="Y36" s="27"/>
       <c r="Z36" s="27"/>
       <c r="AA36" s="27"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="54"/>
-      <c r="AE36" s="54"/>
-      <c r="AF36" s="54"/>
-      <c r="AG36" s="54"/>
-      <c r="AH36" s="55"/>
-    </row>
-    <row r="37" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="77"/>
+      <c r="AD36" s="77"/>
+      <c r="AE36" s="77"/>
+      <c r="AF36" s="77"/>
+      <c r="AG36" s="77"/>
+      <c r="AH36" s="78"/>
+    </row>
+    <row r="37" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E37" s="15"/>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -6351,15 +6348,15 @@
       <c r="Y37" s="27"/>
       <c r="Z37" s="27"/>
       <c r="AA37" s="27"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="54"/>
-      <c r="AE37" s="54"/>
-      <c r="AF37" s="54"/>
-      <c r="AG37" s="54"/>
-      <c r="AH37" s="55"/>
-    </row>
-    <row r="38" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB37" s="76"/>
+      <c r="AC37" s="77"/>
+      <c r="AD37" s="77"/>
+      <c r="AE37" s="77"/>
+      <c r="AF37" s="77"/>
+      <c r="AG37" s="77"/>
+      <c r="AH37" s="78"/>
+    </row>
+    <row r="38" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="15"/>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -6383,15 +6380,15 @@
       <c r="Y38" s="27"/>
       <c r="Z38" s="27"/>
       <c r="AA38" s="27"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="54"/>
-      <c r="AG38" s="54"/>
-      <c r="AH38" s="55"/>
-    </row>
-    <row r="39" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB38" s="76"/>
+      <c r="AC38" s="77"/>
+      <c r="AD38" s="77"/>
+      <c r="AE38" s="77"/>
+      <c r="AF38" s="77"/>
+      <c r="AG38" s="77"/>
+      <c r="AH38" s="78"/>
+    </row>
+    <row r="39" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E39" s="15"/>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -6415,15 +6412,15 @@
       <c r="Y39" s="27"/>
       <c r="Z39" s="27"/>
       <c r="AA39" s="27"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="54"/>
-      <c r="AD39" s="54"/>
-      <c r="AE39" s="54"/>
-      <c r="AF39" s="54"/>
-      <c r="AG39" s="54"/>
-      <c r="AH39" s="55"/>
-    </row>
-    <row r="40" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB39" s="76"/>
+      <c r="AC39" s="77"/>
+      <c r="AD39" s="77"/>
+      <c r="AE39" s="77"/>
+      <c r="AF39" s="77"/>
+      <c r="AG39" s="77"/>
+      <c r="AH39" s="78"/>
+    </row>
+    <row r="40" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E40" s="15"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
@@ -6447,15 +6444,15 @@
       <c r="Y40" s="27"/>
       <c r="Z40" s="27"/>
       <c r="AA40" s="27"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="54"/>
-      <c r="AE40" s="54"/>
-      <c r="AF40" s="54"/>
-      <c r="AG40" s="54"/>
-      <c r="AH40" s="55"/>
-    </row>
-    <row r="41" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB40" s="76"/>
+      <c r="AC40" s="77"/>
+      <c r="AD40" s="77"/>
+      <c r="AE40" s="77"/>
+      <c r="AF40" s="77"/>
+      <c r="AG40" s="77"/>
+      <c r="AH40" s="78"/>
+    </row>
+    <row r="41" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E41" s="15"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
@@ -6479,15 +6476,15 @@
       <c r="Y41" s="27"/>
       <c r="Z41" s="27"/>
       <c r="AA41" s="27"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="54"/>
-      <c r="AD41" s="54"/>
-      <c r="AE41" s="54"/>
-      <c r="AF41" s="54"/>
-      <c r="AG41" s="54"/>
-      <c r="AH41" s="55"/>
-    </row>
-    <row r="42" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB41" s="76"/>
+      <c r="AC41" s="77"/>
+      <c r="AD41" s="77"/>
+      <c r="AE41" s="77"/>
+      <c r="AF41" s="77"/>
+      <c r="AG41" s="77"/>
+      <c r="AH41" s="78"/>
+    </row>
+    <row r="42" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E42" s="15"/>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
@@ -6511,15 +6508,15 @@
       <c r="Y42" s="30"/>
       <c r="Z42" s="30"/>
       <c r="AA42" s="30"/>
-      <c r="AB42" s="56"/>
-      <c r="AC42" s="57"/>
-      <c r="AD42" s="57"/>
-      <c r="AE42" s="57"/>
-      <c r="AF42" s="57"/>
-      <c r="AG42" s="57"/>
-      <c r="AH42" s="58"/>
-    </row>
-    <row r="43" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB42" s="79"/>
+      <c r="AC42" s="80"/>
+      <c r="AD42" s="80"/>
+      <c r="AE42" s="80"/>
+      <c r="AF42" s="80"/>
+      <c r="AG42" s="80"/>
+      <c r="AH42" s="81"/>
+    </row>
+    <row r="43" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E43" s="15"/>
       <c r="F43" s="23">
         <v>2</v>
@@ -6545,17 +6542,17 @@
       <c r="Y43" s="24"/>
       <c r="Z43" s="24"/>
       <c r="AA43" s="24"/>
-      <c r="AB43" s="50" t="s">
-        <v>69</v>
+      <c r="AB43" s="73" t="s">
+        <v>68</v>
       </c>
-      <c r="AC43" s="51"/>
-      <c r="AD43" s="51"/>
-      <c r="AE43" s="51"/>
-      <c r="AF43" s="51"/>
-      <c r="AG43" s="51"/>
-      <c r="AH43" s="52"/>
-    </row>
-    <row r="44" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC43" s="74"/>
+      <c r="AD43" s="74"/>
+      <c r="AE43" s="74"/>
+      <c r="AF43" s="74"/>
+      <c r="AG43" s="74"/>
+      <c r="AH43" s="75"/>
+    </row>
+    <row r="44" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E44" s="15"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
@@ -6579,15 +6576,15 @@
       <c r="Y44" s="27"/>
       <c r="Z44" s="27"/>
       <c r="AA44" s="27"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="54"/>
-      <c r="AD44" s="54"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="54"/>
-      <c r="AG44" s="54"/>
-      <c r="AH44" s="55"/>
-    </row>
-    <row r="45" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB44" s="76"/>
+      <c r="AC44" s="77"/>
+      <c r="AD44" s="77"/>
+      <c r="AE44" s="77"/>
+      <c r="AF44" s="77"/>
+      <c r="AG44" s="77"/>
+      <c r="AH44" s="78"/>
+    </row>
+    <row r="45" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E45" s="15"/>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
@@ -6611,15 +6608,15 @@
       <c r="Y45" s="27"/>
       <c r="Z45" s="27"/>
       <c r="AA45" s="27"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="54"/>
-      <c r="AD45" s="54"/>
-      <c r="AE45" s="54"/>
-      <c r="AF45" s="54"/>
-      <c r="AG45" s="54"/>
-      <c r="AH45" s="55"/>
-    </row>
-    <row r="46" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB45" s="76"/>
+      <c r="AC45" s="77"/>
+      <c r="AD45" s="77"/>
+      <c r="AE45" s="77"/>
+      <c r="AF45" s="77"/>
+      <c r="AG45" s="77"/>
+      <c r="AH45" s="78"/>
+    </row>
+    <row r="46" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E46" s="15"/>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
@@ -6643,15 +6640,15 @@
       <c r="Y46" s="27"/>
       <c r="Z46" s="27"/>
       <c r="AA46" s="27"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="54"/>
-      <c r="AD46" s="54"/>
-      <c r="AE46" s="54"/>
-      <c r="AF46" s="54"/>
-      <c r="AG46" s="54"/>
-      <c r="AH46" s="55"/>
-    </row>
-    <row r="47" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB46" s="76"/>
+      <c r="AC46" s="77"/>
+      <c r="AD46" s="77"/>
+      <c r="AE46" s="77"/>
+      <c r="AF46" s="77"/>
+      <c r="AG46" s="77"/>
+      <c r="AH46" s="78"/>
+    </row>
+    <row r="47" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E47" s="15"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -6675,15 +6672,15 @@
       <c r="Y47" s="27"/>
       <c r="Z47" s="27"/>
       <c r="AA47" s="27"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="54"/>
-      <c r="AD47" s="54"/>
-      <c r="AE47" s="54"/>
-      <c r="AF47" s="54"/>
-      <c r="AG47" s="54"/>
-      <c r="AH47" s="55"/>
-    </row>
-    <row r="48" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB47" s="76"/>
+      <c r="AC47" s="77"/>
+      <c r="AD47" s="77"/>
+      <c r="AE47" s="77"/>
+      <c r="AF47" s="77"/>
+      <c r="AG47" s="77"/>
+      <c r="AH47" s="78"/>
+    </row>
+    <row r="48" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E48" s="15"/>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6707,15 +6704,15 @@
       <c r="Y48" s="27"/>
       <c r="Z48" s="27"/>
       <c r="AA48" s="27"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="54"/>
-      <c r="AD48" s="54"/>
-      <c r="AE48" s="54"/>
-      <c r="AF48" s="54"/>
-      <c r="AG48" s="54"/>
-      <c r="AH48" s="55"/>
-    </row>
-    <row r="49" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB48" s="76"/>
+      <c r="AC48" s="77"/>
+      <c r="AD48" s="77"/>
+      <c r="AE48" s="77"/>
+      <c r="AF48" s="77"/>
+      <c r="AG48" s="77"/>
+      <c r="AH48" s="78"/>
+    </row>
+    <row r="49" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E49" s="15"/>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6739,15 +6736,15 @@
       <c r="Y49" s="27"/>
       <c r="Z49" s="27"/>
       <c r="AA49" s="27"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="54"/>
-      <c r="AD49" s="54"/>
-      <c r="AE49" s="54"/>
-      <c r="AF49" s="54"/>
-      <c r="AG49" s="54"/>
-      <c r="AH49" s="55"/>
-    </row>
-    <row r="50" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB49" s="76"/>
+      <c r="AC49" s="77"/>
+      <c r="AD49" s="77"/>
+      <c r="AE49" s="77"/>
+      <c r="AF49" s="77"/>
+      <c r="AG49" s="77"/>
+      <c r="AH49" s="78"/>
+    </row>
+    <row r="50" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E50" s="15"/>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6771,15 +6768,15 @@
       <c r="Y50" s="27"/>
       <c r="Z50" s="27"/>
       <c r="AA50" s="27"/>
-      <c r="AB50" s="53"/>
-      <c r="AC50" s="54"/>
-      <c r="AD50" s="54"/>
-      <c r="AE50" s="54"/>
-      <c r="AF50" s="54"/>
-      <c r="AG50" s="54"/>
-      <c r="AH50" s="55"/>
-    </row>
-    <row r="51" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB50" s="76"/>
+      <c r="AC50" s="77"/>
+      <c r="AD50" s="77"/>
+      <c r="AE50" s="77"/>
+      <c r="AF50" s="77"/>
+      <c r="AG50" s="77"/>
+      <c r="AH50" s="78"/>
+    </row>
+    <row r="51" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E51" s="15"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6803,15 +6800,15 @@
       <c r="Y51" s="27"/>
       <c r="Z51" s="27"/>
       <c r="AA51" s="27"/>
-      <c r="AB51" s="53"/>
-      <c r="AC51" s="54"/>
-      <c r="AD51" s="54"/>
-      <c r="AE51" s="54"/>
-      <c r="AF51" s="54"/>
-      <c r="AG51" s="54"/>
-      <c r="AH51" s="55"/>
-    </row>
-    <row r="52" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB51" s="76"/>
+      <c r="AC51" s="77"/>
+      <c r="AD51" s="77"/>
+      <c r="AE51" s="77"/>
+      <c r="AF51" s="77"/>
+      <c r="AG51" s="77"/>
+      <c r="AH51" s="78"/>
+    </row>
+    <row r="52" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E52" s="15"/>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -6835,15 +6832,15 @@
       <c r="Y52" s="27"/>
       <c r="Z52" s="27"/>
       <c r="AA52" s="27"/>
-      <c r="AB52" s="53"/>
-      <c r="AC52" s="54"/>
-      <c r="AD52" s="54"/>
-      <c r="AE52" s="54"/>
-      <c r="AF52" s="54"/>
-      <c r="AG52" s="54"/>
-      <c r="AH52" s="55"/>
-    </row>
-    <row r="53" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB52" s="76"/>
+      <c r="AC52" s="77"/>
+      <c r="AD52" s="77"/>
+      <c r="AE52" s="77"/>
+      <c r="AF52" s="77"/>
+      <c r="AG52" s="77"/>
+      <c r="AH52" s="78"/>
+    </row>
+    <row r="53" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E53" s="15"/>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
@@ -6867,15 +6864,15 @@
       <c r="Y53" s="27"/>
       <c r="Z53" s="27"/>
       <c r="AA53" s="27"/>
-      <c r="AB53" s="53"/>
-      <c r="AC53" s="54"/>
-      <c r="AD53" s="54"/>
-      <c r="AE53" s="54"/>
-      <c r="AF53" s="54"/>
-      <c r="AG53" s="54"/>
-      <c r="AH53" s="55"/>
-    </row>
-    <row r="54" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB53" s="76"/>
+      <c r="AC53" s="77"/>
+      <c r="AD53" s="77"/>
+      <c r="AE53" s="77"/>
+      <c r="AF53" s="77"/>
+      <c r="AG53" s="77"/>
+      <c r="AH53" s="78"/>
+    </row>
+    <row r="54" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E54" s="15"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
@@ -6899,15 +6896,15 @@
       <c r="Y54" s="30"/>
       <c r="Z54" s="30"/>
       <c r="AA54" s="30"/>
-      <c r="AB54" s="56"/>
-      <c r="AC54" s="57"/>
-      <c r="AD54" s="57"/>
-      <c r="AE54" s="57"/>
-      <c r="AF54" s="57"/>
-      <c r="AG54" s="57"/>
-      <c r="AH54" s="58"/>
-    </row>
-    <row r="55" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB54" s="79"/>
+      <c r="AC54" s="80"/>
+      <c r="AD54" s="80"/>
+      <c r="AE54" s="80"/>
+      <c r="AF54" s="80"/>
+      <c r="AG54" s="80"/>
+      <c r="AH54" s="81"/>
+    </row>
+    <row r="55" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E55" s="15"/>
       <c r="F55" s="23">
         <v>3</v>
@@ -6933,17 +6930,17 @@
       <c r="Y55" s="24"/>
       <c r="Z55" s="24"/>
       <c r="AA55" s="24"/>
-      <c r="AB55" s="50" t="s">
-        <v>46</v>
+      <c r="AB55" s="73" t="s">
+        <v>45</v>
       </c>
-      <c r="AC55" s="51"/>
-      <c r="AD55" s="51"/>
-      <c r="AE55" s="51"/>
-      <c r="AF55" s="51"/>
-      <c r="AG55" s="51"/>
-      <c r="AH55" s="52"/>
-    </row>
-    <row r="56" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC55" s="74"/>
+      <c r="AD55" s="74"/>
+      <c r="AE55" s="74"/>
+      <c r="AF55" s="74"/>
+      <c r="AG55" s="74"/>
+      <c r="AH55" s="75"/>
+    </row>
+    <row r="56" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E56" s="15"/>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -6967,15 +6964,15 @@
       <c r="Y56" s="27"/>
       <c r="Z56" s="27"/>
       <c r="AA56" s="27"/>
-      <c r="AB56" s="53"/>
-      <c r="AC56" s="54"/>
-      <c r="AD56" s="54"/>
-      <c r="AE56" s="54"/>
-      <c r="AF56" s="54"/>
-      <c r="AG56" s="54"/>
-      <c r="AH56" s="55"/>
-    </row>
-    <row r="57" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB56" s="76"/>
+      <c r="AC56" s="77"/>
+      <c r="AD56" s="77"/>
+      <c r="AE56" s="77"/>
+      <c r="AF56" s="77"/>
+      <c r="AG56" s="77"/>
+      <c r="AH56" s="78"/>
+    </row>
+    <row r="57" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E57" s="15"/>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
@@ -6999,15 +6996,15 @@
       <c r="Y57" s="27"/>
       <c r="Z57" s="27"/>
       <c r="AA57" s="27"/>
-      <c r="AB57" s="53"/>
-      <c r="AC57" s="54"/>
-      <c r="AD57" s="54"/>
-      <c r="AE57" s="54"/>
-      <c r="AF57" s="54"/>
-      <c r="AG57" s="54"/>
-      <c r="AH57" s="55"/>
-    </row>
-    <row r="58" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB57" s="76"/>
+      <c r="AC57" s="77"/>
+      <c r="AD57" s="77"/>
+      <c r="AE57" s="77"/>
+      <c r="AF57" s="77"/>
+      <c r="AG57" s="77"/>
+      <c r="AH57" s="78"/>
+    </row>
+    <row r="58" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E58" s="15"/>
       <c r="F58" s="26"/>
       <c r="G58" s="26"/>
@@ -7031,15 +7028,15 @@
       <c r="Y58" s="27"/>
       <c r="Z58" s="27"/>
       <c r="AA58" s="27"/>
-      <c r="AB58" s="53"/>
-      <c r="AC58" s="54"/>
-      <c r="AD58" s="54"/>
-      <c r="AE58" s="54"/>
-      <c r="AF58" s="54"/>
-      <c r="AG58" s="54"/>
-      <c r="AH58" s="55"/>
-    </row>
-    <row r="59" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB58" s="76"/>
+      <c r="AC58" s="77"/>
+      <c r="AD58" s="77"/>
+      <c r="AE58" s="77"/>
+      <c r="AF58" s="77"/>
+      <c r="AG58" s="77"/>
+      <c r="AH58" s="78"/>
+    </row>
+    <row r="59" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E59" s="15"/>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -7063,15 +7060,15 @@
       <c r="Y59" s="27"/>
       <c r="Z59" s="27"/>
       <c r="AA59" s="27"/>
-      <c r="AB59" s="53"/>
-      <c r="AC59" s="54"/>
-      <c r="AD59" s="54"/>
-      <c r="AE59" s="54"/>
-      <c r="AF59" s="54"/>
-      <c r="AG59" s="54"/>
-      <c r="AH59" s="55"/>
-    </row>
-    <row r="60" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB59" s="76"/>
+      <c r="AC59" s="77"/>
+      <c r="AD59" s="77"/>
+      <c r="AE59" s="77"/>
+      <c r="AF59" s="77"/>
+      <c r="AG59" s="77"/>
+      <c r="AH59" s="78"/>
+    </row>
+    <row r="60" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E60" s="15"/>
       <c r="F60" s="26"/>
       <c r="G60" s="26"/>
@@ -7095,15 +7092,15 @@
       <c r="Y60" s="27"/>
       <c r="Z60" s="27"/>
       <c r="AA60" s="27"/>
-      <c r="AB60" s="53"/>
-      <c r="AC60" s="54"/>
-      <c r="AD60" s="54"/>
-      <c r="AE60" s="54"/>
-      <c r="AF60" s="54"/>
-      <c r="AG60" s="54"/>
-      <c r="AH60" s="55"/>
-    </row>
-    <row r="61" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="77"/>
+      <c r="AD60" s="77"/>
+      <c r="AE60" s="77"/>
+      <c r="AF60" s="77"/>
+      <c r="AG60" s="77"/>
+      <c r="AH60" s="78"/>
+    </row>
+    <row r="61" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E61" s="15"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
@@ -7127,15 +7124,15 @@
       <c r="Y61" s="27"/>
       <c r="Z61" s="27"/>
       <c r="AA61" s="27"/>
-      <c r="AB61" s="53"/>
-      <c r="AC61" s="54"/>
-      <c r="AD61" s="54"/>
-      <c r="AE61" s="54"/>
-      <c r="AF61" s="54"/>
-      <c r="AG61" s="54"/>
-      <c r="AH61" s="55"/>
-    </row>
-    <row r="62" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB61" s="76"/>
+      <c r="AC61" s="77"/>
+      <c r="AD61" s="77"/>
+      <c r="AE61" s="77"/>
+      <c r="AF61" s="77"/>
+      <c r="AG61" s="77"/>
+      <c r="AH61" s="78"/>
+    </row>
+    <row r="62" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62" s="15"/>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
@@ -7159,15 +7156,15 @@
       <c r="Y62" s="27"/>
       <c r="Z62" s="27"/>
       <c r="AA62" s="27"/>
-      <c r="AB62" s="53"/>
-      <c r="AC62" s="54"/>
-      <c r="AD62" s="54"/>
-      <c r="AE62" s="54"/>
-      <c r="AF62" s="54"/>
-      <c r="AG62" s="54"/>
-      <c r="AH62" s="55"/>
-    </row>
-    <row r="63" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB62" s="76"/>
+      <c r="AC62" s="77"/>
+      <c r="AD62" s="77"/>
+      <c r="AE62" s="77"/>
+      <c r="AF62" s="77"/>
+      <c r="AG62" s="77"/>
+      <c r="AH62" s="78"/>
+    </row>
+    <row r="63" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E63" s="15"/>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -7191,15 +7188,15 @@
       <c r="Y63" s="27"/>
       <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
-      <c r="AB63" s="53"/>
-      <c r="AC63" s="54"/>
-      <c r="AD63" s="54"/>
-      <c r="AE63" s="54"/>
-      <c r="AF63" s="54"/>
-      <c r="AG63" s="54"/>
-      <c r="AH63" s="55"/>
-    </row>
-    <row r="64" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB63" s="76"/>
+      <c r="AC63" s="77"/>
+      <c r="AD63" s="77"/>
+      <c r="AE63" s="77"/>
+      <c r="AF63" s="77"/>
+      <c r="AG63" s="77"/>
+      <c r="AH63" s="78"/>
+    </row>
+    <row r="64" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E64" s="15"/>
       <c r="F64" s="26"/>
       <c r="G64" s="26"/>
@@ -7223,15 +7220,15 @@
       <c r="Y64" s="27"/>
       <c r="Z64" s="27"/>
       <c r="AA64" s="27"/>
-      <c r="AB64" s="53"/>
-      <c r="AC64" s="54"/>
-      <c r="AD64" s="54"/>
-      <c r="AE64" s="54"/>
-      <c r="AF64" s="54"/>
-      <c r="AG64" s="54"/>
-      <c r="AH64" s="55"/>
-    </row>
-    <row r="65" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB64" s="76"/>
+      <c r="AC64" s="77"/>
+      <c r="AD64" s="77"/>
+      <c r="AE64" s="77"/>
+      <c r="AF64" s="77"/>
+      <c r="AG64" s="77"/>
+      <c r="AH64" s="78"/>
+    </row>
+    <row r="65" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E65" s="15"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26"/>
@@ -7255,15 +7252,15 @@
       <c r="Y65" s="27"/>
       <c r="Z65" s="27"/>
       <c r="AA65" s="27"/>
-      <c r="AB65" s="53"/>
-      <c r="AC65" s="54"/>
-      <c r="AD65" s="54"/>
-      <c r="AE65" s="54"/>
-      <c r="AF65" s="54"/>
-      <c r="AG65" s="54"/>
-      <c r="AH65" s="55"/>
-    </row>
-    <row r="66" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB65" s="76"/>
+      <c r="AC65" s="77"/>
+      <c r="AD65" s="77"/>
+      <c r="AE65" s="77"/>
+      <c r="AF65" s="77"/>
+      <c r="AG65" s="77"/>
+      <c r="AH65" s="78"/>
+    </row>
+    <row r="66" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E66" s="15"/>
       <c r="F66" s="26"/>
       <c r="G66" s="26"/>
@@ -7287,15 +7284,15 @@
       <c r="Y66" s="27"/>
       <c r="Z66" s="27"/>
       <c r="AA66" s="27"/>
-      <c r="AB66" s="53"/>
-      <c r="AC66" s="54"/>
-      <c r="AD66" s="54"/>
-      <c r="AE66" s="54"/>
-      <c r="AF66" s="54"/>
-      <c r="AG66" s="54"/>
-      <c r="AH66" s="55"/>
-    </row>
-    <row r="67" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB66" s="76"/>
+      <c r="AC66" s="77"/>
+      <c r="AD66" s="77"/>
+      <c r="AE66" s="77"/>
+      <c r="AF66" s="77"/>
+      <c r="AG66" s="77"/>
+      <c r="AH66" s="78"/>
+    </row>
+    <row r="67" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E67" s="15"/>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
@@ -7319,15 +7316,15 @@
       <c r="Y67" s="30"/>
       <c r="Z67" s="30"/>
       <c r="AA67" s="30"/>
-      <c r="AB67" s="56"/>
-      <c r="AC67" s="57"/>
-      <c r="AD67" s="57"/>
-      <c r="AE67" s="57"/>
-      <c r="AF67" s="57"/>
-      <c r="AG67" s="57"/>
-      <c r="AH67" s="58"/>
-    </row>
-    <row r="68" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB67" s="79"/>
+      <c r="AC67" s="80"/>
+      <c r="AD67" s="80"/>
+      <c r="AE67" s="80"/>
+      <c r="AF67" s="80"/>
+      <c r="AG67" s="80"/>
+      <c r="AH67" s="81"/>
+    </row>
+    <row r="68" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E68" s="15"/>
       <c r="F68" s="23">
         <v>4</v>
@@ -7353,17 +7350,17 @@
       <c r="Y68" s="24"/>
       <c r="Z68" s="24"/>
       <c r="AA68" s="24"/>
-      <c r="AB68" s="50" t="s">
-        <v>47</v>
+      <c r="AB68" s="73" t="s">
+        <v>46</v>
       </c>
-      <c r="AC68" s="62"/>
-      <c r="AD68" s="62"/>
-      <c r="AE68" s="62"/>
-      <c r="AF68" s="62"/>
-      <c r="AG68" s="62"/>
-      <c r="AH68" s="63"/>
-    </row>
-    <row r="69" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC68" s="82"/>
+      <c r="AD68" s="82"/>
+      <c r="AE68" s="82"/>
+      <c r="AF68" s="82"/>
+      <c r="AG68" s="82"/>
+      <c r="AH68" s="83"/>
+    </row>
+    <row r="69" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E69" s="15"/>
       <c r="F69" s="26"/>
       <c r="G69" s="26"/>
@@ -7387,15 +7384,15 @@
       <c r="Y69" s="27"/>
       <c r="Z69" s="27"/>
       <c r="AA69" s="27"/>
-      <c r="AB69" s="64"/>
-      <c r="AC69" s="65"/>
-      <c r="AD69" s="65"/>
-      <c r="AE69" s="65"/>
-      <c r="AF69" s="65"/>
-      <c r="AG69" s="65"/>
-      <c r="AH69" s="66"/>
-    </row>
-    <row r="70" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB69" s="84"/>
+      <c r="AC69" s="85"/>
+      <c r="AD69" s="85"/>
+      <c r="AE69" s="85"/>
+      <c r="AF69" s="85"/>
+      <c r="AG69" s="85"/>
+      <c r="AH69" s="86"/>
+    </row>
+    <row r="70" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E70" s="15"/>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
@@ -7419,15 +7416,15 @@
       <c r="Y70" s="27"/>
       <c r="Z70" s="27"/>
       <c r="AA70" s="27"/>
-      <c r="AB70" s="64"/>
-      <c r="AC70" s="65"/>
-      <c r="AD70" s="65"/>
-      <c r="AE70" s="65"/>
-      <c r="AF70" s="65"/>
-      <c r="AG70" s="65"/>
-      <c r="AH70" s="66"/>
-    </row>
-    <row r="71" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB70" s="84"/>
+      <c r="AC70" s="85"/>
+      <c r="AD70" s="85"/>
+      <c r="AE70" s="85"/>
+      <c r="AF70" s="85"/>
+      <c r="AG70" s="85"/>
+      <c r="AH70" s="86"/>
+    </row>
+    <row r="71" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E71" s="15"/>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
@@ -7451,15 +7448,15 @@
       <c r="Y71" s="27"/>
       <c r="Z71" s="27"/>
       <c r="AA71" s="27"/>
-      <c r="AB71" s="64"/>
-      <c r="AC71" s="65"/>
-      <c r="AD71" s="65"/>
-      <c r="AE71" s="65"/>
-      <c r="AF71" s="65"/>
-      <c r="AG71" s="65"/>
-      <c r="AH71" s="66"/>
-    </row>
-    <row r="72" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB71" s="84"/>
+      <c r="AC71" s="85"/>
+      <c r="AD71" s="85"/>
+      <c r="AE71" s="85"/>
+      <c r="AF71" s="85"/>
+      <c r="AG71" s="85"/>
+      <c r="AH71" s="86"/>
+    </row>
+    <row r="72" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E72" s="15"/>
       <c r="F72" s="26"/>
       <c r="G72" s="26"/>
@@ -7483,15 +7480,15 @@
       <c r="Y72" s="27"/>
       <c r="Z72" s="27"/>
       <c r="AA72" s="27"/>
-      <c r="AB72" s="64"/>
-      <c r="AC72" s="65"/>
-      <c r="AD72" s="65"/>
-      <c r="AE72" s="65"/>
-      <c r="AF72" s="65"/>
-      <c r="AG72" s="65"/>
-      <c r="AH72" s="66"/>
-    </row>
-    <row r="73" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB72" s="84"/>
+      <c r="AC72" s="85"/>
+      <c r="AD72" s="85"/>
+      <c r="AE72" s="85"/>
+      <c r="AF72" s="85"/>
+      <c r="AG72" s="85"/>
+      <c r="AH72" s="86"/>
+    </row>
+    <row r="73" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E73" s="15"/>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
@@ -7515,15 +7512,15 @@
       <c r="Y73" s="27"/>
       <c r="Z73" s="27"/>
       <c r="AA73" s="27"/>
-      <c r="AB73" s="64"/>
-      <c r="AC73" s="65"/>
-      <c r="AD73" s="65"/>
-      <c r="AE73" s="65"/>
-      <c r="AF73" s="65"/>
-      <c r="AG73" s="65"/>
-      <c r="AH73" s="66"/>
-    </row>
-    <row r="74" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB73" s="84"/>
+      <c r="AC73" s="85"/>
+      <c r="AD73" s="85"/>
+      <c r="AE73" s="85"/>
+      <c r="AF73" s="85"/>
+      <c r="AG73" s="85"/>
+      <c r="AH73" s="86"/>
+    </row>
+    <row r="74" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E74" s="15"/>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
@@ -7547,15 +7544,15 @@
       <c r="Y74" s="27"/>
       <c r="Z74" s="27"/>
       <c r="AA74" s="27"/>
-      <c r="AB74" s="64"/>
-      <c r="AC74" s="65"/>
-      <c r="AD74" s="65"/>
-      <c r="AE74" s="65"/>
-      <c r="AF74" s="65"/>
-      <c r="AG74" s="65"/>
-      <c r="AH74" s="66"/>
-    </row>
-    <row r="75" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB74" s="84"/>
+      <c r="AC74" s="85"/>
+      <c r="AD74" s="85"/>
+      <c r="AE74" s="85"/>
+      <c r="AF74" s="85"/>
+      <c r="AG74" s="85"/>
+      <c r="AH74" s="86"/>
+    </row>
+    <row r="75" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E75" s="15"/>
       <c r="F75" s="26"/>
       <c r="G75" s="26"/>
@@ -7579,15 +7576,15 @@
       <c r="Y75" s="27"/>
       <c r="Z75" s="27"/>
       <c r="AA75" s="27"/>
-      <c r="AB75" s="64"/>
-      <c r="AC75" s="65"/>
-      <c r="AD75" s="65"/>
-      <c r="AE75" s="65"/>
-      <c r="AF75" s="65"/>
-      <c r="AG75" s="65"/>
-      <c r="AH75" s="66"/>
-    </row>
-    <row r="76" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB75" s="84"/>
+      <c r="AC75" s="85"/>
+      <c r="AD75" s="85"/>
+      <c r="AE75" s="85"/>
+      <c r="AF75" s="85"/>
+      <c r="AG75" s="85"/>
+      <c r="AH75" s="86"/>
+    </row>
+    <row r="76" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E76" s="15"/>
       <c r="F76" s="26"/>
       <c r="G76" s="26"/>
@@ -7611,15 +7608,15 @@
       <c r="Y76" s="27"/>
       <c r="Z76" s="27"/>
       <c r="AA76" s="27"/>
-      <c r="AB76" s="64"/>
-      <c r="AC76" s="65"/>
-      <c r="AD76" s="65"/>
-      <c r="AE76" s="65"/>
-      <c r="AF76" s="65"/>
-      <c r="AG76" s="65"/>
-      <c r="AH76" s="66"/>
-    </row>
-    <row r="77" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB76" s="84"/>
+      <c r="AC76" s="85"/>
+      <c r="AD76" s="85"/>
+      <c r="AE76" s="85"/>
+      <c r="AF76" s="85"/>
+      <c r="AG76" s="85"/>
+      <c r="AH76" s="86"/>
+    </row>
+    <row r="77" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E77" s="15"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
@@ -7643,15 +7640,15 @@
       <c r="Y77" s="30"/>
       <c r="Z77" s="30"/>
       <c r="AA77" s="30"/>
-      <c r="AB77" s="67"/>
-      <c r="AC77" s="68"/>
-      <c r="AD77" s="68"/>
-      <c r="AE77" s="68"/>
-      <c r="AF77" s="68"/>
-      <c r="AG77" s="68"/>
-      <c r="AH77" s="69"/>
-    </row>
-    <row r="78" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB77" s="87"/>
+      <c r="AC77" s="88"/>
+      <c r="AD77" s="88"/>
+      <c r="AE77" s="88"/>
+      <c r="AF77" s="88"/>
+      <c r="AG77" s="88"/>
+      <c r="AH77" s="89"/>
+    </row>
+    <row r="78" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E78" s="15"/>
       <c r="F78" s="23">
         <v>5</v>
@@ -7677,17 +7674,17 @@
       <c r="Y78" s="24"/>
       <c r="Z78" s="24"/>
       <c r="AA78" s="24"/>
-      <c r="AB78" s="50" t="s">
-        <v>48</v>
+      <c r="AB78" s="73" t="s">
+        <v>47</v>
       </c>
-      <c r="AC78" s="51"/>
-      <c r="AD78" s="51"/>
-      <c r="AE78" s="51"/>
-      <c r="AF78" s="51"/>
-      <c r="AG78" s="51"/>
-      <c r="AH78" s="52"/>
-    </row>
-    <row r="79" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC78" s="74"/>
+      <c r="AD78" s="74"/>
+      <c r="AE78" s="74"/>
+      <c r="AF78" s="74"/>
+      <c r="AG78" s="74"/>
+      <c r="AH78" s="75"/>
+    </row>
+    <row r="79" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E79" s="15"/>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -7711,15 +7708,15 @@
       <c r="Y79" s="27"/>
       <c r="Z79" s="27"/>
       <c r="AA79" s="27"/>
-      <c r="AB79" s="53"/>
-      <c r="AC79" s="54"/>
-      <c r="AD79" s="54"/>
-      <c r="AE79" s="54"/>
-      <c r="AF79" s="54"/>
-      <c r="AG79" s="54"/>
-      <c r="AH79" s="55"/>
-    </row>
-    <row r="80" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB79" s="76"/>
+      <c r="AC79" s="77"/>
+      <c r="AD79" s="77"/>
+      <c r="AE79" s="77"/>
+      <c r="AF79" s="77"/>
+      <c r="AG79" s="77"/>
+      <c r="AH79" s="78"/>
+    </row>
+    <row r="80" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E80" s="15"/>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -7743,15 +7740,15 @@
       <c r="Y80" s="27"/>
       <c r="Z80" s="27"/>
       <c r="AA80" s="27"/>
-      <c r="AB80" s="53"/>
-      <c r="AC80" s="54"/>
-      <c r="AD80" s="54"/>
-      <c r="AE80" s="54"/>
-      <c r="AF80" s="54"/>
-      <c r="AG80" s="54"/>
-      <c r="AH80" s="55"/>
-    </row>
-    <row r="81" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB80" s="76"/>
+      <c r="AC80" s="77"/>
+      <c r="AD80" s="77"/>
+      <c r="AE80" s="77"/>
+      <c r="AF80" s="77"/>
+      <c r="AG80" s="77"/>
+      <c r="AH80" s="78"/>
+    </row>
+    <row r="81" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E81" s="15"/>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -7775,15 +7772,15 @@
       <c r="Y81" s="27"/>
       <c r="Z81" s="27"/>
       <c r="AA81" s="27"/>
-      <c r="AB81" s="53"/>
-      <c r="AC81" s="54"/>
-      <c r="AD81" s="54"/>
-      <c r="AE81" s="54"/>
-      <c r="AF81" s="54"/>
-      <c r="AG81" s="54"/>
-      <c r="AH81" s="55"/>
-    </row>
-    <row r="82" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB81" s="76"/>
+      <c r="AC81" s="77"/>
+      <c r="AD81" s="77"/>
+      <c r="AE81" s="77"/>
+      <c r="AF81" s="77"/>
+      <c r="AG81" s="77"/>
+      <c r="AH81" s="78"/>
+    </row>
+    <row r="82" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E82" s="15"/>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -7807,15 +7804,15 @@
       <c r="Y82" s="27"/>
       <c r="Z82" s="27"/>
       <c r="AA82" s="27"/>
-      <c r="AB82" s="53"/>
-      <c r="AC82" s="54"/>
-      <c r="AD82" s="54"/>
-      <c r="AE82" s="54"/>
-      <c r="AF82" s="54"/>
-      <c r="AG82" s="54"/>
-      <c r="AH82" s="55"/>
-    </row>
-    <row r="83" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB82" s="76"/>
+      <c r="AC82" s="77"/>
+      <c r="AD82" s="77"/>
+      <c r="AE82" s="77"/>
+      <c r="AF82" s="77"/>
+      <c r="AG82" s="77"/>
+      <c r="AH82" s="78"/>
+    </row>
+    <row r="83" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E83" s="15"/>
       <c r="F83" s="26"/>
       <c r="G83" s="26"/>
@@ -7839,15 +7836,15 @@
       <c r="Y83" s="27"/>
       <c r="Z83" s="27"/>
       <c r="AA83" s="27"/>
-      <c r="AB83" s="53"/>
-      <c r="AC83" s="54"/>
-      <c r="AD83" s="54"/>
-      <c r="AE83" s="54"/>
-      <c r="AF83" s="54"/>
-      <c r="AG83" s="54"/>
-      <c r="AH83" s="55"/>
-    </row>
-    <row r="84" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB83" s="76"/>
+      <c r="AC83" s="77"/>
+      <c r="AD83" s="77"/>
+      <c r="AE83" s="77"/>
+      <c r="AF83" s="77"/>
+      <c r="AG83" s="77"/>
+      <c r="AH83" s="78"/>
+    </row>
+    <row r="84" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E84" s="15"/>
       <c r="F84" s="26"/>
       <c r="G84" s="26"/>
@@ -7871,15 +7868,15 @@
       <c r="Y84" s="27"/>
       <c r="Z84" s="27"/>
       <c r="AA84" s="27"/>
-      <c r="AB84" s="53"/>
-      <c r="AC84" s="54"/>
-      <c r="AD84" s="54"/>
-      <c r="AE84" s="54"/>
-      <c r="AF84" s="54"/>
-      <c r="AG84" s="54"/>
-      <c r="AH84" s="55"/>
-    </row>
-    <row r="85" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB84" s="76"/>
+      <c r="AC84" s="77"/>
+      <c r="AD84" s="77"/>
+      <c r="AE84" s="77"/>
+      <c r="AF84" s="77"/>
+      <c r="AG84" s="77"/>
+      <c r="AH84" s="78"/>
+    </row>
+    <row r="85" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E85" s="15"/>
       <c r="F85" s="26"/>
       <c r="G85" s="26"/>
@@ -7903,15 +7900,15 @@
       <c r="Y85" s="27"/>
       <c r="Z85" s="27"/>
       <c r="AA85" s="27"/>
-      <c r="AB85" s="53"/>
-      <c r="AC85" s="54"/>
-      <c r="AD85" s="54"/>
-      <c r="AE85" s="54"/>
-      <c r="AF85" s="54"/>
-      <c r="AG85" s="54"/>
-      <c r="AH85" s="55"/>
-    </row>
-    <row r="86" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB85" s="76"/>
+      <c r="AC85" s="77"/>
+      <c r="AD85" s="77"/>
+      <c r="AE85" s="77"/>
+      <c r="AF85" s="77"/>
+      <c r="AG85" s="77"/>
+      <c r="AH85" s="78"/>
+    </row>
+    <row r="86" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E86" s="15"/>
       <c r="F86" s="26"/>
       <c r="G86" s="26"/>
@@ -7935,15 +7932,15 @@
       <c r="Y86" s="27"/>
       <c r="Z86" s="27"/>
       <c r="AA86" s="27"/>
-      <c r="AB86" s="53"/>
-      <c r="AC86" s="54"/>
-      <c r="AD86" s="54"/>
-      <c r="AE86" s="54"/>
-      <c r="AF86" s="54"/>
-      <c r="AG86" s="54"/>
-      <c r="AH86" s="55"/>
-    </row>
-    <row r="87" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB86" s="76"/>
+      <c r="AC86" s="77"/>
+      <c r="AD86" s="77"/>
+      <c r="AE86" s="77"/>
+      <c r="AF86" s="77"/>
+      <c r="AG86" s="77"/>
+      <c r="AH86" s="78"/>
+    </row>
+    <row r="87" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E87" s="15"/>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -7967,15 +7964,15 @@
       <c r="Y87" s="27"/>
       <c r="Z87" s="27"/>
       <c r="AA87" s="27"/>
-      <c r="AB87" s="53"/>
-      <c r="AC87" s="54"/>
-      <c r="AD87" s="54"/>
-      <c r="AE87" s="54"/>
-      <c r="AF87" s="54"/>
-      <c r="AG87" s="54"/>
-      <c r="AH87" s="55"/>
-    </row>
-    <row r="88" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB87" s="76"/>
+      <c r="AC87" s="77"/>
+      <c r="AD87" s="77"/>
+      <c r="AE87" s="77"/>
+      <c r="AF87" s="77"/>
+      <c r="AG87" s="77"/>
+      <c r="AH87" s="78"/>
+    </row>
+    <row r="88" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E88" s="15"/>
       <c r="F88" s="26"/>
       <c r="G88" s="26"/>
@@ -7999,15 +7996,15 @@
       <c r="Y88" s="27"/>
       <c r="Z88" s="27"/>
       <c r="AA88" s="27"/>
-      <c r="AB88" s="53"/>
-      <c r="AC88" s="54"/>
-      <c r="AD88" s="54"/>
-      <c r="AE88" s="54"/>
-      <c r="AF88" s="54"/>
-      <c r="AG88" s="54"/>
-      <c r="AH88" s="55"/>
-    </row>
-    <row r="89" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB88" s="76"/>
+      <c r="AC88" s="77"/>
+      <c r="AD88" s="77"/>
+      <c r="AE88" s="77"/>
+      <c r="AF88" s="77"/>
+      <c r="AG88" s="77"/>
+      <c r="AH88" s="78"/>
+    </row>
+    <row r="89" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E89" s="15"/>
       <c r="F89" s="26"/>
       <c r="G89" s="26"/>
@@ -8031,15 +8028,15 @@
       <c r="Y89" s="27"/>
       <c r="Z89" s="27"/>
       <c r="AA89" s="27"/>
-      <c r="AB89" s="53"/>
-      <c r="AC89" s="54"/>
-      <c r="AD89" s="54"/>
-      <c r="AE89" s="54"/>
-      <c r="AF89" s="54"/>
-      <c r="AG89" s="54"/>
-      <c r="AH89" s="55"/>
-    </row>
-    <row r="90" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB89" s="76"/>
+      <c r="AC89" s="77"/>
+      <c r="AD89" s="77"/>
+      <c r="AE89" s="77"/>
+      <c r="AF89" s="77"/>
+      <c r="AG89" s="77"/>
+      <c r="AH89" s="78"/>
+    </row>
+    <row r="90" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E90" s="15"/>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -8063,15 +8060,15 @@
       <c r="Y90" s="27"/>
       <c r="Z90" s="27"/>
       <c r="AA90" s="27"/>
-      <c r="AB90" s="53"/>
-      <c r="AC90" s="54"/>
-      <c r="AD90" s="54"/>
-      <c r="AE90" s="54"/>
-      <c r="AF90" s="54"/>
-      <c r="AG90" s="54"/>
-      <c r="AH90" s="55"/>
-    </row>
-    <row r="91" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB90" s="76"/>
+      <c r="AC90" s="77"/>
+      <c r="AD90" s="77"/>
+      <c r="AE90" s="77"/>
+      <c r="AF90" s="77"/>
+      <c r="AG90" s="77"/>
+      <c r="AH90" s="78"/>
+    </row>
+    <row r="91" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E91" s="15"/>
       <c r="F91" s="23">
         <v>6</v>
@@ -8097,17 +8094,17 @@
       <c r="Y91" s="24"/>
       <c r="Z91" s="24"/>
       <c r="AA91" s="24"/>
-      <c r="AB91" s="50" t="s">
-        <v>53</v>
+      <c r="AB91" s="73" t="s">
+        <v>52</v>
       </c>
-      <c r="AC91" s="51"/>
-      <c r="AD91" s="51"/>
-      <c r="AE91" s="51"/>
-      <c r="AF91" s="51"/>
-      <c r="AG91" s="51"/>
-      <c r="AH91" s="52"/>
-    </row>
-    <row r="92" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC91" s="74"/>
+      <c r="AD91" s="74"/>
+      <c r="AE91" s="74"/>
+      <c r="AF91" s="74"/>
+      <c r="AG91" s="74"/>
+      <c r="AH91" s="75"/>
+    </row>
+    <row r="92" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E92" s="15"/>
       <c r="F92" s="26"/>
       <c r="G92" s="26"/>
@@ -8131,15 +8128,15 @@
       <c r="Y92" s="27"/>
       <c r="Z92" s="27"/>
       <c r="AA92" s="27"/>
-      <c r="AB92" s="53"/>
-      <c r="AC92" s="54"/>
-      <c r="AD92" s="54"/>
-      <c r="AE92" s="54"/>
-      <c r="AF92" s="54"/>
-      <c r="AG92" s="54"/>
-      <c r="AH92" s="55"/>
-    </row>
-    <row r="93" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB92" s="76"/>
+      <c r="AC92" s="77"/>
+      <c r="AD92" s="77"/>
+      <c r="AE92" s="77"/>
+      <c r="AF92" s="77"/>
+      <c r="AG92" s="77"/>
+      <c r="AH92" s="78"/>
+    </row>
+    <row r="93" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E93" s="15"/>
       <c r="F93" s="26"/>
       <c r="G93" s="26"/>
@@ -8163,15 +8160,15 @@
       <c r="Y93" s="27"/>
       <c r="Z93" s="27"/>
       <c r="AA93" s="27"/>
-      <c r="AB93" s="53"/>
-      <c r="AC93" s="54"/>
-      <c r="AD93" s="54"/>
-      <c r="AE93" s="54"/>
-      <c r="AF93" s="54"/>
-      <c r="AG93" s="54"/>
-      <c r="AH93" s="55"/>
-    </row>
-    <row r="94" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB93" s="76"/>
+      <c r="AC93" s="77"/>
+      <c r="AD93" s="77"/>
+      <c r="AE93" s="77"/>
+      <c r="AF93" s="77"/>
+      <c r="AG93" s="77"/>
+      <c r="AH93" s="78"/>
+    </row>
+    <row r="94" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E94" s="15"/>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
@@ -8195,15 +8192,15 @@
       <c r="Y94" s="27"/>
       <c r="Z94" s="27"/>
       <c r="AA94" s="27"/>
-      <c r="AB94" s="53"/>
-      <c r="AC94" s="54"/>
-      <c r="AD94" s="54"/>
-      <c r="AE94" s="54"/>
-      <c r="AF94" s="54"/>
-      <c r="AG94" s="54"/>
-      <c r="AH94" s="55"/>
-    </row>
-    <row r="95" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB94" s="76"/>
+      <c r="AC94" s="77"/>
+      <c r="AD94" s="77"/>
+      <c r="AE94" s="77"/>
+      <c r="AF94" s="77"/>
+      <c r="AG94" s="77"/>
+      <c r="AH94" s="78"/>
+    </row>
+    <row r="95" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E95" s="15"/>
       <c r="F95" s="26"/>
       <c r="G95" s="26"/>
@@ -8227,15 +8224,15 @@
       <c r="Y95" s="27"/>
       <c r="Z95" s="27"/>
       <c r="AA95" s="27"/>
-      <c r="AB95" s="53"/>
-      <c r="AC95" s="54"/>
-      <c r="AD95" s="54"/>
-      <c r="AE95" s="54"/>
-      <c r="AF95" s="54"/>
-      <c r="AG95" s="54"/>
-      <c r="AH95" s="55"/>
-    </row>
-    <row r="96" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB95" s="76"/>
+      <c r="AC95" s="77"/>
+      <c r="AD95" s="77"/>
+      <c r="AE95" s="77"/>
+      <c r="AF95" s="77"/>
+      <c r="AG95" s="77"/>
+      <c r="AH95" s="78"/>
+    </row>
+    <row r="96" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E96" s="15"/>
       <c r="F96" s="26"/>
       <c r="G96" s="26"/>
@@ -8259,15 +8256,15 @@
       <c r="Y96" s="27"/>
       <c r="Z96" s="27"/>
       <c r="AA96" s="27"/>
-      <c r="AB96" s="53"/>
-      <c r="AC96" s="54"/>
-      <c r="AD96" s="54"/>
-      <c r="AE96" s="54"/>
-      <c r="AF96" s="54"/>
-      <c r="AG96" s="54"/>
-      <c r="AH96" s="55"/>
-    </row>
-    <row r="97" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB96" s="76"/>
+      <c r="AC96" s="77"/>
+      <c r="AD96" s="77"/>
+      <c r="AE96" s="77"/>
+      <c r="AF96" s="77"/>
+      <c r="AG96" s="77"/>
+      <c r="AH96" s="78"/>
+    </row>
+    <row r="97" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E97" s="15"/>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -8291,15 +8288,15 @@
       <c r="Y97" s="27"/>
       <c r="Z97" s="27"/>
       <c r="AA97" s="27"/>
-      <c r="AB97" s="53"/>
-      <c r="AC97" s="54"/>
-      <c r="AD97" s="54"/>
-      <c r="AE97" s="54"/>
-      <c r="AF97" s="54"/>
-      <c r="AG97" s="54"/>
-      <c r="AH97" s="55"/>
-    </row>
-    <row r="98" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB97" s="76"/>
+      <c r="AC97" s="77"/>
+      <c r="AD97" s="77"/>
+      <c r="AE97" s="77"/>
+      <c r="AF97" s="77"/>
+      <c r="AG97" s="77"/>
+      <c r="AH97" s="78"/>
+    </row>
+    <row r="98" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E98" s="15"/>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -8323,15 +8320,15 @@
       <c r="Y98" s="27"/>
       <c r="Z98" s="27"/>
       <c r="AA98" s="27"/>
-      <c r="AB98" s="53"/>
-      <c r="AC98" s="54"/>
-      <c r="AD98" s="54"/>
-      <c r="AE98" s="54"/>
-      <c r="AF98" s="54"/>
-      <c r="AG98" s="54"/>
-      <c r="AH98" s="55"/>
-    </row>
-    <row r="99" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB98" s="76"/>
+      <c r="AC98" s="77"/>
+      <c r="AD98" s="77"/>
+      <c r="AE98" s="77"/>
+      <c r="AF98" s="77"/>
+      <c r="AG98" s="77"/>
+      <c r="AH98" s="78"/>
+    </row>
+    <row r="99" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E99" s="15"/>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -8355,15 +8352,15 @@
       <c r="Y99" s="27"/>
       <c r="Z99" s="27"/>
       <c r="AA99" s="27"/>
-      <c r="AB99" s="53"/>
-      <c r="AC99" s="54"/>
-      <c r="AD99" s="54"/>
-      <c r="AE99" s="54"/>
-      <c r="AF99" s="54"/>
-      <c r="AG99" s="54"/>
-      <c r="AH99" s="55"/>
-    </row>
-    <row r="100" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB99" s="76"/>
+      <c r="AC99" s="77"/>
+      <c r="AD99" s="77"/>
+      <c r="AE99" s="77"/>
+      <c r="AF99" s="77"/>
+      <c r="AG99" s="77"/>
+      <c r="AH99" s="78"/>
+    </row>
+    <row r="100" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E100" s="15"/>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -8387,15 +8384,15 @@
       <c r="Y100" s="27"/>
       <c r="Z100" s="27"/>
       <c r="AA100" s="27"/>
-      <c r="AB100" s="53"/>
-      <c r="AC100" s="54"/>
-      <c r="AD100" s="54"/>
-      <c r="AE100" s="54"/>
-      <c r="AF100" s="54"/>
-      <c r="AG100" s="54"/>
-      <c r="AH100" s="55"/>
-    </row>
-    <row r="101" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB100" s="76"/>
+      <c r="AC100" s="77"/>
+      <c r="AD100" s="77"/>
+      <c r="AE100" s="77"/>
+      <c r="AF100" s="77"/>
+      <c r="AG100" s="77"/>
+      <c r="AH100" s="78"/>
+    </row>
+    <row r="101" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E101" s="15"/>
       <c r="F101" s="26"/>
       <c r="G101" s="26"/>
@@ -8419,15 +8416,15 @@
       <c r="Y101" s="27"/>
       <c r="Z101" s="27"/>
       <c r="AA101" s="27"/>
-      <c r="AB101" s="53"/>
-      <c r="AC101" s="54"/>
-      <c r="AD101" s="54"/>
-      <c r="AE101" s="54"/>
-      <c r="AF101" s="54"/>
-      <c r="AG101" s="54"/>
-      <c r="AH101" s="55"/>
-    </row>
-    <row r="102" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB101" s="76"/>
+      <c r="AC101" s="77"/>
+      <c r="AD101" s="77"/>
+      <c r="AE101" s="77"/>
+      <c r="AF101" s="77"/>
+      <c r="AG101" s="77"/>
+      <c r="AH101" s="78"/>
+    </row>
+    <row r="102" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E102" s="15"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
@@ -8451,15 +8448,15 @@
       <c r="Y102" s="30"/>
       <c r="Z102" s="30"/>
       <c r="AA102" s="30"/>
-      <c r="AB102" s="56"/>
-      <c r="AC102" s="57"/>
-      <c r="AD102" s="57"/>
-      <c r="AE102" s="57"/>
-      <c r="AF102" s="57"/>
-      <c r="AG102" s="57"/>
-      <c r="AH102" s="58"/>
-    </row>
-    <row r="103" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB102" s="79"/>
+      <c r="AC102" s="80"/>
+      <c r="AD102" s="80"/>
+      <c r="AE102" s="80"/>
+      <c r="AF102" s="80"/>
+      <c r="AG102" s="80"/>
+      <c r="AH102" s="81"/>
+    </row>
+    <row r="103" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E103" s="15"/>
       <c r="F103" s="23">
         <v>7</v>
@@ -8485,17 +8482,17 @@
       <c r="Y103" s="24"/>
       <c r="Z103" s="24"/>
       <c r="AA103" s="24"/>
-      <c r="AB103" s="50" t="s">
-        <v>54</v>
+      <c r="AB103" s="73" t="s">
+        <v>53</v>
       </c>
-      <c r="AC103" s="51"/>
-      <c r="AD103" s="51"/>
-      <c r="AE103" s="51"/>
-      <c r="AF103" s="51"/>
-      <c r="AG103" s="51"/>
-      <c r="AH103" s="52"/>
-    </row>
-    <row r="104" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC103" s="74"/>
+      <c r="AD103" s="74"/>
+      <c r="AE103" s="74"/>
+      <c r="AF103" s="74"/>
+      <c r="AG103" s="74"/>
+      <c r="AH103" s="75"/>
+    </row>
+    <row r="104" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E104" s="15"/>
       <c r="F104" s="26"/>
       <c r="G104" s="26"/>
@@ -8519,15 +8516,15 @@
       <c r="Y104" s="27"/>
       <c r="Z104" s="27"/>
       <c r="AA104" s="27"/>
-      <c r="AB104" s="53"/>
-      <c r="AC104" s="54"/>
-      <c r="AD104" s="54"/>
-      <c r="AE104" s="54"/>
-      <c r="AF104" s="54"/>
-      <c r="AG104" s="54"/>
-      <c r="AH104" s="55"/>
-    </row>
-    <row r="105" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB104" s="76"/>
+      <c r="AC104" s="77"/>
+      <c r="AD104" s="77"/>
+      <c r="AE104" s="77"/>
+      <c r="AF104" s="77"/>
+      <c r="AG104" s="77"/>
+      <c r="AH104" s="78"/>
+    </row>
+    <row r="105" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E105" s="15"/>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -8551,15 +8548,15 @@
       <c r="Y105" s="27"/>
       <c r="Z105" s="27"/>
       <c r="AA105" s="27"/>
-      <c r="AB105" s="53"/>
-      <c r="AC105" s="54"/>
-      <c r="AD105" s="54"/>
-      <c r="AE105" s="54"/>
-      <c r="AF105" s="54"/>
-      <c r="AG105" s="54"/>
-      <c r="AH105" s="55"/>
-    </row>
-    <row r="106" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB105" s="76"/>
+      <c r="AC105" s="77"/>
+      <c r="AD105" s="77"/>
+      <c r="AE105" s="77"/>
+      <c r="AF105" s="77"/>
+      <c r="AG105" s="77"/>
+      <c r="AH105" s="78"/>
+    </row>
+    <row r="106" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E106" s="15"/>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -8583,15 +8580,15 @@
       <c r="Y106" s="27"/>
       <c r="Z106" s="27"/>
       <c r="AA106" s="27"/>
-      <c r="AB106" s="53"/>
-      <c r="AC106" s="54"/>
-      <c r="AD106" s="54"/>
-      <c r="AE106" s="54"/>
-      <c r="AF106" s="54"/>
-      <c r="AG106" s="54"/>
-      <c r="AH106" s="55"/>
-    </row>
-    <row r="107" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB106" s="76"/>
+      <c r="AC106" s="77"/>
+      <c r="AD106" s="77"/>
+      <c r="AE106" s="77"/>
+      <c r="AF106" s="77"/>
+      <c r="AG106" s="77"/>
+      <c r="AH106" s="78"/>
+    </row>
+    <row r="107" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E107" s="15"/>
       <c r="F107" s="26"/>
       <c r="G107" s="26"/>
@@ -8615,15 +8612,15 @@
       <c r="Y107" s="27"/>
       <c r="Z107" s="27"/>
       <c r="AA107" s="27"/>
-      <c r="AB107" s="53"/>
-      <c r="AC107" s="54"/>
-      <c r="AD107" s="54"/>
-      <c r="AE107" s="54"/>
-      <c r="AF107" s="54"/>
-      <c r="AG107" s="54"/>
-      <c r="AH107" s="55"/>
-    </row>
-    <row r="108" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB107" s="76"/>
+      <c r="AC107" s="77"/>
+      <c r="AD107" s="77"/>
+      <c r="AE107" s="77"/>
+      <c r="AF107" s="77"/>
+      <c r="AG107" s="77"/>
+      <c r="AH107" s="78"/>
+    </row>
+    <row r="108" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E108" s="15"/>
       <c r="F108" s="26"/>
       <c r="G108" s="26"/>
@@ -8647,15 +8644,15 @@
       <c r="Y108" s="27"/>
       <c r="Z108" s="27"/>
       <c r="AA108" s="27"/>
-      <c r="AB108" s="53"/>
-      <c r="AC108" s="54"/>
-      <c r="AD108" s="54"/>
-      <c r="AE108" s="54"/>
-      <c r="AF108" s="54"/>
-      <c r="AG108" s="54"/>
-      <c r="AH108" s="55"/>
-    </row>
-    <row r="109" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB108" s="76"/>
+      <c r="AC108" s="77"/>
+      <c r="AD108" s="77"/>
+      <c r="AE108" s="77"/>
+      <c r="AF108" s="77"/>
+      <c r="AG108" s="77"/>
+      <c r="AH108" s="78"/>
+    </row>
+    <row r="109" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E109" s="15"/>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -8679,15 +8676,15 @@
       <c r="Y109" s="27"/>
       <c r="Z109" s="27"/>
       <c r="AA109" s="27"/>
-      <c r="AB109" s="53"/>
-      <c r="AC109" s="54"/>
-      <c r="AD109" s="54"/>
-      <c r="AE109" s="54"/>
-      <c r="AF109" s="54"/>
-      <c r="AG109" s="54"/>
-      <c r="AH109" s="55"/>
-    </row>
-    <row r="110" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB109" s="76"/>
+      <c r="AC109" s="77"/>
+      <c r="AD109" s="77"/>
+      <c r="AE109" s="77"/>
+      <c r="AF109" s="77"/>
+      <c r="AG109" s="77"/>
+      <c r="AH109" s="78"/>
+    </row>
+    <row r="110" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E110" s="15"/>
       <c r="F110" s="26"/>
       <c r="G110" s="26"/>
@@ -8711,15 +8708,15 @@
       <c r="Y110" s="27"/>
       <c r="Z110" s="27"/>
       <c r="AA110" s="27"/>
-      <c r="AB110" s="53"/>
-      <c r="AC110" s="54"/>
-      <c r="AD110" s="54"/>
-      <c r="AE110" s="54"/>
-      <c r="AF110" s="54"/>
-      <c r="AG110" s="54"/>
-      <c r="AH110" s="55"/>
-    </row>
-    <row r="111" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB110" s="76"/>
+      <c r="AC110" s="77"/>
+      <c r="AD110" s="77"/>
+      <c r="AE110" s="77"/>
+      <c r="AF110" s="77"/>
+      <c r="AG110" s="77"/>
+      <c r="AH110" s="78"/>
+    </row>
+    <row r="111" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E111" s="15"/>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
@@ -8743,49 +8740,49 @@
       <c r="Y111" s="30"/>
       <c r="Z111" s="30"/>
       <c r="AA111" s="30"/>
-      <c r="AB111" s="56"/>
-      <c r="AC111" s="57"/>
-      <c r="AD111" s="57"/>
-      <c r="AE111" s="57"/>
-      <c r="AF111" s="57"/>
-      <c r="AG111" s="57"/>
-      <c r="AH111" s="58"/>
-    </row>
-    <row r="112" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB111" s="79"/>
+      <c r="AC111" s="80"/>
+      <c r="AD111" s="80"/>
+      <c r="AE111" s="80"/>
+      <c r="AF111" s="80"/>
+      <c r="AG111" s="80"/>
+      <c r="AH111" s="81"/>
+    </row>
+    <row r="112" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E112" s="15"/>
-      <c r="F112" s="70" t="s">
-        <v>55</v>
+      <c r="F112" s="90" t="s">
+        <v>54</v>
       </c>
-      <c r="G112" s="71"/>
-      <c r="H112" s="71"/>
-      <c r="I112" s="71"/>
-      <c r="J112" s="71"/>
-      <c r="K112" s="71"/>
-      <c r="L112" s="71"/>
-      <c r="M112" s="71"/>
-      <c r="N112" s="71"/>
-      <c r="O112" s="71"/>
-      <c r="P112" s="71"/>
-      <c r="Q112" s="71"/>
-      <c r="R112" s="71"/>
-      <c r="S112" s="71"/>
-      <c r="T112" s="71"/>
-      <c r="U112" s="71"/>
-      <c r="V112" s="71"/>
-      <c r="W112" s="71"/>
-      <c r="X112" s="71"/>
-      <c r="Y112" s="71"/>
-      <c r="Z112" s="71"/>
-      <c r="AA112" s="71"/>
-      <c r="AB112" s="71"/>
-      <c r="AC112" s="71"/>
-      <c r="AD112" s="71"/>
-      <c r="AE112" s="71"/>
-      <c r="AF112" s="71"/>
-      <c r="AG112" s="71"/>
-      <c r="AH112" s="72"/>
-    </row>
-    <row r="113" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G112" s="91"/>
+      <c r="H112" s="91"/>
+      <c r="I112" s="91"/>
+      <c r="J112" s="91"/>
+      <c r="K112" s="91"/>
+      <c r="L112" s="91"/>
+      <c r="M112" s="91"/>
+      <c r="N112" s="91"/>
+      <c r="O112" s="91"/>
+      <c r="P112" s="91"/>
+      <c r="Q112" s="91"/>
+      <c r="R112" s="91"/>
+      <c r="S112" s="91"/>
+      <c r="T112" s="91"/>
+      <c r="U112" s="91"/>
+      <c r="V112" s="91"/>
+      <c r="W112" s="91"/>
+      <c r="X112" s="91"/>
+      <c r="Y112" s="91"/>
+      <c r="Z112" s="91"/>
+      <c r="AA112" s="91"/>
+      <c r="AB112" s="91"/>
+      <c r="AC112" s="91"/>
+      <c r="AD112" s="91"/>
+      <c r="AE112" s="91"/>
+      <c r="AF112" s="91"/>
+      <c r="AG112" s="91"/>
+      <c r="AH112" s="92"/>
+    </row>
+    <row r="113" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E113" s="15"/>
       <c r="F113" s="23">
         <v>8</v>
@@ -8811,17 +8808,17 @@
       <c r="Y113" s="24"/>
       <c r="Z113" s="24"/>
       <c r="AA113" s="25"/>
-      <c r="AB113" s="50" t="s">
-        <v>66</v>
+      <c r="AB113" s="73" t="s">
+        <v>65</v>
       </c>
-      <c r="AC113" s="51"/>
-      <c r="AD113" s="51"/>
-      <c r="AE113" s="51"/>
-      <c r="AF113" s="51"/>
-      <c r="AG113" s="51"/>
-      <c r="AH113" s="52"/>
-    </row>
-    <row r="114" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC113" s="74"/>
+      <c r="AD113" s="74"/>
+      <c r="AE113" s="74"/>
+      <c r="AF113" s="74"/>
+      <c r="AG113" s="74"/>
+      <c r="AH113" s="75"/>
+    </row>
+    <row r="114" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E114" s="15"/>
       <c r="F114" s="26"/>
       <c r="G114" s="26"/>
@@ -8845,15 +8842,15 @@
       <c r="Y114" s="27"/>
       <c r="Z114" s="27"/>
       <c r="AA114" s="28"/>
-      <c r="AB114" s="53"/>
-      <c r="AC114" s="54"/>
-      <c r="AD114" s="54"/>
-      <c r="AE114" s="54"/>
-      <c r="AF114" s="54"/>
-      <c r="AG114" s="54"/>
-      <c r="AH114" s="55"/>
-    </row>
-    <row r="115" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB114" s="76"/>
+      <c r="AC114" s="77"/>
+      <c r="AD114" s="77"/>
+      <c r="AE114" s="77"/>
+      <c r="AF114" s="77"/>
+      <c r="AG114" s="77"/>
+      <c r="AH114" s="78"/>
+    </row>
+    <row r="115" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E115" s="15"/>
       <c r="F115" s="26"/>
       <c r="G115" s="26"/>
@@ -8877,15 +8874,15 @@
       <c r="Y115" s="27"/>
       <c r="Z115" s="27"/>
       <c r="AA115" s="28"/>
-      <c r="AB115" s="53"/>
-      <c r="AC115" s="54"/>
-      <c r="AD115" s="54"/>
-      <c r="AE115" s="54"/>
-      <c r="AF115" s="54"/>
-      <c r="AG115" s="54"/>
-      <c r="AH115" s="55"/>
-    </row>
-    <row r="116" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB115" s="76"/>
+      <c r="AC115" s="77"/>
+      <c r="AD115" s="77"/>
+      <c r="AE115" s="77"/>
+      <c r="AF115" s="77"/>
+      <c r="AG115" s="77"/>
+      <c r="AH115" s="78"/>
+    </row>
+    <row r="116" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E116" s="15"/>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -8909,15 +8906,15 @@
       <c r="Y116" s="27"/>
       <c r="Z116" s="27"/>
       <c r="AA116" s="27"/>
-      <c r="AB116" s="53"/>
-      <c r="AC116" s="54"/>
-      <c r="AD116" s="54"/>
-      <c r="AE116" s="54"/>
-      <c r="AF116" s="54"/>
-      <c r="AG116" s="54"/>
-      <c r="AH116" s="55"/>
-    </row>
-    <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB116" s="76"/>
+      <c r="AC116" s="77"/>
+      <c r="AD116" s="77"/>
+      <c r="AE116" s="77"/>
+      <c r="AF116" s="77"/>
+      <c r="AG116" s="77"/>
+      <c r="AH116" s="78"/>
+    </row>
+    <row r="117" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E117" s="15"/>
       <c r="F117" s="26"/>
       <c r="G117" s="26"/>
@@ -8941,15 +8938,15 @@
       <c r="Y117" s="27"/>
       <c r="Z117" s="27"/>
       <c r="AA117" s="27"/>
-      <c r="AB117" s="53"/>
-      <c r="AC117" s="54"/>
-      <c r="AD117" s="54"/>
-      <c r="AE117" s="54"/>
-      <c r="AF117" s="54"/>
-      <c r="AG117" s="54"/>
-      <c r="AH117" s="55"/>
-    </row>
-    <row r="118" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB117" s="76"/>
+      <c r="AC117" s="77"/>
+      <c r="AD117" s="77"/>
+      <c r="AE117" s="77"/>
+      <c r="AF117" s="77"/>
+      <c r="AG117" s="77"/>
+      <c r="AH117" s="78"/>
+    </row>
+    <row r="118" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E118" s="15"/>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -8973,15 +8970,15 @@
       <c r="Y118" s="27"/>
       <c r="Z118" s="27"/>
       <c r="AA118" s="27"/>
-      <c r="AB118" s="53"/>
-      <c r="AC118" s="54"/>
-      <c r="AD118" s="54"/>
-      <c r="AE118" s="54"/>
-      <c r="AF118" s="54"/>
-      <c r="AG118" s="54"/>
-      <c r="AH118" s="55"/>
-    </row>
-    <row r="119" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB118" s="76"/>
+      <c r="AC118" s="77"/>
+      <c r="AD118" s="77"/>
+      <c r="AE118" s="77"/>
+      <c r="AF118" s="77"/>
+      <c r="AG118" s="77"/>
+      <c r="AH118" s="78"/>
+    </row>
+    <row r="119" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E119" s="15"/>
       <c r="F119" s="26"/>
       <c r="G119" s="26"/>
@@ -9005,15 +9002,15 @@
       <c r="Y119" s="27"/>
       <c r="Z119" s="27"/>
       <c r="AA119" s="27"/>
-      <c r="AB119" s="53"/>
-      <c r="AC119" s="54"/>
-      <c r="AD119" s="54"/>
-      <c r="AE119" s="54"/>
-      <c r="AF119" s="54"/>
-      <c r="AG119" s="54"/>
-      <c r="AH119" s="55"/>
-    </row>
-    <row r="120" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB119" s="76"/>
+      <c r="AC119" s="77"/>
+      <c r="AD119" s="77"/>
+      <c r="AE119" s="77"/>
+      <c r="AF119" s="77"/>
+      <c r="AG119" s="77"/>
+      <c r="AH119" s="78"/>
+    </row>
+    <row r="120" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E120" s="15"/>
       <c r="F120" s="26"/>
       <c r="G120" s="26"/>
@@ -9037,15 +9034,15 @@
       <c r="Y120" s="27"/>
       <c r="Z120" s="27"/>
       <c r="AA120" s="27"/>
-      <c r="AB120" s="53"/>
-      <c r="AC120" s="54"/>
-      <c r="AD120" s="54"/>
-      <c r="AE120" s="54"/>
-      <c r="AF120" s="54"/>
-      <c r="AG120" s="54"/>
-      <c r="AH120" s="55"/>
-    </row>
-    <row r="121" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB120" s="76"/>
+      <c r="AC120" s="77"/>
+      <c r="AD120" s="77"/>
+      <c r="AE120" s="77"/>
+      <c r="AF120" s="77"/>
+      <c r="AG120" s="77"/>
+      <c r="AH120" s="78"/>
+    </row>
+    <row r="121" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E121" s="15"/>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -9069,15 +9066,15 @@
       <c r="Y121" s="27"/>
       <c r="Z121" s="27"/>
       <c r="AA121" s="27"/>
-      <c r="AB121" s="53"/>
-      <c r="AC121" s="54"/>
-      <c r="AD121" s="54"/>
-      <c r="AE121" s="54"/>
-      <c r="AF121" s="54"/>
-      <c r="AG121" s="54"/>
-      <c r="AH121" s="55"/>
-    </row>
-    <row r="122" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB121" s="76"/>
+      <c r="AC121" s="77"/>
+      <c r="AD121" s="77"/>
+      <c r="AE121" s="77"/>
+      <c r="AF121" s="77"/>
+      <c r="AG121" s="77"/>
+      <c r="AH121" s="78"/>
+    </row>
+    <row r="122" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E122" s="15"/>
       <c r="F122" s="26"/>
       <c r="G122" s="26"/>
@@ -9101,15 +9098,15 @@
       <c r="Y122" s="27"/>
       <c r="Z122" s="27"/>
       <c r="AA122" s="27"/>
-      <c r="AB122" s="53"/>
-      <c r="AC122" s="54"/>
-      <c r="AD122" s="54"/>
-      <c r="AE122" s="54"/>
-      <c r="AF122" s="54"/>
-      <c r="AG122" s="54"/>
-      <c r="AH122" s="55"/>
-    </row>
-    <row r="123" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB122" s="76"/>
+      <c r="AC122" s="77"/>
+      <c r="AD122" s="77"/>
+      <c r="AE122" s="77"/>
+      <c r="AF122" s="77"/>
+      <c r="AG122" s="77"/>
+      <c r="AH122" s="78"/>
+    </row>
+    <row r="123" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E123" s="15"/>
       <c r="F123" s="29"/>
       <c r="G123" s="29"/>
@@ -9133,15 +9130,15 @@
       <c r="Y123" s="30"/>
       <c r="Z123" s="30"/>
       <c r="AA123" s="30"/>
-      <c r="AB123" s="56"/>
-      <c r="AC123" s="57"/>
-      <c r="AD123" s="57"/>
-      <c r="AE123" s="57"/>
-      <c r="AF123" s="57"/>
-      <c r="AG123" s="57"/>
-      <c r="AH123" s="58"/>
-    </row>
-    <row r="124" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB123" s="79"/>
+      <c r="AC123" s="80"/>
+      <c r="AD123" s="80"/>
+      <c r="AE123" s="80"/>
+      <c r="AF123" s="80"/>
+      <c r="AG123" s="80"/>
+      <c r="AH123" s="81"/>
+    </row>
+    <row r="124" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E124" s="15"/>
       <c r="F124" s="23">
         <v>9</v>
@@ -9167,17 +9164,17 @@
       <c r="Y124" s="24"/>
       <c r="Z124" s="24"/>
       <c r="AA124" s="25"/>
-      <c r="AB124" s="50" t="s">
-        <v>56</v>
+      <c r="AB124" s="73" t="s">
+        <v>55</v>
       </c>
-      <c r="AC124" s="51"/>
-      <c r="AD124" s="51"/>
-      <c r="AE124" s="51"/>
-      <c r="AF124" s="51"/>
-      <c r="AG124" s="51"/>
-      <c r="AH124" s="52"/>
-    </row>
-    <row r="125" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC124" s="74"/>
+      <c r="AD124" s="74"/>
+      <c r="AE124" s="74"/>
+      <c r="AF124" s="74"/>
+      <c r="AG124" s="74"/>
+      <c r="AH124" s="75"/>
+    </row>
+    <row r="125" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E125" s="15"/>
       <c r="F125" s="26"/>
       <c r="G125" s="26"/>
@@ -9201,15 +9198,15 @@
       <c r="Y125" s="27"/>
       <c r="Z125" s="27"/>
       <c r="AA125" s="28"/>
-      <c r="AB125" s="53"/>
-      <c r="AC125" s="54"/>
-      <c r="AD125" s="54"/>
-      <c r="AE125" s="54"/>
-      <c r="AF125" s="54"/>
-      <c r="AG125" s="54"/>
-      <c r="AH125" s="55"/>
-    </row>
-    <row r="126" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB125" s="76"/>
+      <c r="AC125" s="77"/>
+      <c r="AD125" s="77"/>
+      <c r="AE125" s="77"/>
+      <c r="AF125" s="77"/>
+      <c r="AG125" s="77"/>
+      <c r="AH125" s="78"/>
+    </row>
+    <row r="126" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E126" s="15"/>
       <c r="F126" s="26"/>
       <c r="G126" s="26"/>
@@ -9233,15 +9230,15 @@
       <c r="Y126" s="27"/>
       <c r="Z126" s="27"/>
       <c r="AA126" s="27"/>
-      <c r="AB126" s="53"/>
-      <c r="AC126" s="54"/>
-      <c r="AD126" s="54"/>
-      <c r="AE126" s="54"/>
-      <c r="AF126" s="54"/>
-      <c r="AG126" s="54"/>
-      <c r="AH126" s="55"/>
-    </row>
-    <row r="127" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB126" s="76"/>
+      <c r="AC126" s="77"/>
+      <c r="AD126" s="77"/>
+      <c r="AE126" s="77"/>
+      <c r="AF126" s="77"/>
+      <c r="AG126" s="77"/>
+      <c r="AH126" s="78"/>
+    </row>
+    <row r="127" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E127" s="15"/>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -9265,15 +9262,15 @@
       <c r="Y127" s="27"/>
       <c r="Z127" s="27"/>
       <c r="AA127" s="27"/>
-      <c r="AB127" s="53"/>
-      <c r="AC127" s="54"/>
-      <c r="AD127" s="54"/>
-      <c r="AE127" s="54"/>
-      <c r="AF127" s="54"/>
-      <c r="AG127" s="54"/>
-      <c r="AH127" s="55"/>
-    </row>
-    <row r="128" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB127" s="76"/>
+      <c r="AC127" s="77"/>
+      <c r="AD127" s="77"/>
+      <c r="AE127" s="77"/>
+      <c r="AF127" s="77"/>
+      <c r="AG127" s="77"/>
+      <c r="AH127" s="78"/>
+    </row>
+    <row r="128" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E128" s="15"/>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -9297,15 +9294,15 @@
       <c r="Y128" s="27"/>
       <c r="Z128" s="27"/>
       <c r="AA128" s="27"/>
-      <c r="AB128" s="53"/>
-      <c r="AC128" s="54"/>
-      <c r="AD128" s="54"/>
-      <c r="AE128" s="54"/>
-      <c r="AF128" s="54"/>
-      <c r="AG128" s="54"/>
-      <c r="AH128" s="55"/>
-    </row>
-    <row r="129" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB128" s="76"/>
+      <c r="AC128" s="77"/>
+      <c r="AD128" s="77"/>
+      <c r="AE128" s="77"/>
+      <c r="AF128" s="77"/>
+      <c r="AG128" s="77"/>
+      <c r="AH128" s="78"/>
+    </row>
+    <row r="129" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E129" s="15"/>
       <c r="F129" s="26"/>
       <c r="G129" s="26"/>
@@ -9329,15 +9326,15 @@
       <c r="Y129" s="27"/>
       <c r="Z129" s="27"/>
       <c r="AA129" s="27"/>
-      <c r="AB129" s="53"/>
-      <c r="AC129" s="54"/>
-      <c r="AD129" s="54"/>
-      <c r="AE129" s="54"/>
-      <c r="AF129" s="54"/>
-      <c r="AG129" s="54"/>
-      <c r="AH129" s="55"/>
-    </row>
-    <row r="130" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB129" s="76"/>
+      <c r="AC129" s="77"/>
+      <c r="AD129" s="77"/>
+      <c r="AE129" s="77"/>
+      <c r="AF129" s="77"/>
+      <c r="AG129" s="77"/>
+      <c r="AH129" s="78"/>
+    </row>
+    <row r="130" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E130" s="15"/>
       <c r="F130" s="26"/>
       <c r="G130" s="26"/>
@@ -9361,15 +9358,15 @@
       <c r="Y130" s="27"/>
       <c r="Z130" s="27"/>
       <c r="AA130" s="27"/>
-      <c r="AB130" s="53"/>
-      <c r="AC130" s="54"/>
-      <c r="AD130" s="54"/>
-      <c r="AE130" s="54"/>
-      <c r="AF130" s="54"/>
-      <c r="AG130" s="54"/>
-      <c r="AH130" s="55"/>
-    </row>
-    <row r="131" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB130" s="76"/>
+      <c r="AC130" s="77"/>
+      <c r="AD130" s="77"/>
+      <c r="AE130" s="77"/>
+      <c r="AF130" s="77"/>
+      <c r="AG130" s="77"/>
+      <c r="AH130" s="78"/>
+    </row>
+    <row r="131" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E131" s="15"/>
       <c r="F131" s="26"/>
       <c r="G131" s="26"/>
@@ -9393,15 +9390,15 @@
       <c r="Y131" s="27"/>
       <c r="Z131" s="27"/>
       <c r="AA131" s="27"/>
-      <c r="AB131" s="53"/>
-      <c r="AC131" s="54"/>
-      <c r="AD131" s="54"/>
-      <c r="AE131" s="54"/>
-      <c r="AF131" s="54"/>
-      <c r="AG131" s="54"/>
-      <c r="AH131" s="55"/>
-    </row>
-    <row r="132" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB131" s="76"/>
+      <c r="AC131" s="77"/>
+      <c r="AD131" s="77"/>
+      <c r="AE131" s="77"/>
+      <c r="AF131" s="77"/>
+      <c r="AG131" s="77"/>
+      <c r="AH131" s="78"/>
+    </row>
+    <row r="132" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E132" s="15"/>
       <c r="F132" s="29"/>
       <c r="G132" s="29"/>
@@ -9425,49 +9422,49 @@
       <c r="Y132" s="30"/>
       <c r="Z132" s="30"/>
       <c r="AA132" s="30"/>
-      <c r="AB132" s="56"/>
-      <c r="AC132" s="57"/>
-      <c r="AD132" s="57"/>
-      <c r="AE132" s="57"/>
-      <c r="AF132" s="57"/>
-      <c r="AG132" s="57"/>
-      <c r="AH132" s="58"/>
-    </row>
-    <row r="133" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB132" s="79"/>
+      <c r="AC132" s="80"/>
+      <c r="AD132" s="80"/>
+      <c r="AE132" s="80"/>
+      <c r="AF132" s="80"/>
+      <c r="AG132" s="80"/>
+      <c r="AH132" s="81"/>
+    </row>
+    <row r="133" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E133" s="15"/>
     </row>
-    <row r="134" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E134" s="15"/>
       <c r="F134" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="135" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E135" s="15"/>
+      <c r="H135" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H134" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="135" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E135" s="15"/>
-      <c r="H135" s="4" t="s">
+    </row>
+    <row r="136" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E136" s="15"/>
+      <c r="H136" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E136" s="15"/>
-      <c r="H136" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="137" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D137" s="18"/>
       <c r="H137" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="138" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D138" s="18"/>
     </row>
-    <row r="139" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="140" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="D140" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>6.2.3.</v>
@@ -9476,14 +9473,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="141" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="E141" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="143" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="144" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="142" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="D144" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>6.2.4.</v>
@@ -9492,9 +9489,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="4:34" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E145" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F145" s="17"/>
       <c r="G145" s="17"/>
@@ -9526,11 +9523,11 @@
       <c r="AG145" s="17"/>
       <c r="AH145" s="17"/>
     </row>
-    <row r="146" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="D146" s="15"/>
     </row>
-    <row r="147" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="148" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="D148" s="15" t="str">
         <f>$C$7&amp;"5."</f>
         <v>6.2.5.</v>
@@ -9539,18 +9536,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="E149" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="150" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="E150" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="152" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="E152" s="18" t="s">
         <v>25</v>
       </c>
@@ -9558,18 +9555,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="153" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="F153" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="154" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="F154" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="156" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="155" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="D156" s="15" t="str">
         <f>$C$7&amp;"6."</f>
         <v>6.2.6.</v>
@@ -9578,478 +9575,468 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="157" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="E157" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="159" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="158" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="E159" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="160" spans="4:34" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="160" spans="4:34" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="F160" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="161" spans="4:6" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2">
       <c r="F161" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="163" spans="4:6" s="16" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="164" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="4:6" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2"/>
+    <row r="163" spans="4:6" s="16" customFormat="1" ht="11" x14ac:dyDescent="0.2"/>
+    <row r="164" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D164" s="16"/>
     </row>
-    <row r="165" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="AB124:AH132"/>
     <mergeCell ref="AB91:AH102"/>
     <mergeCell ref="AB103:AH111"/>
@@ -10061,6 +10048,16 @@
     <mergeCell ref="AB43:AH54"/>
     <mergeCell ref="AB34:AH42"/>
     <mergeCell ref="F112:AH112"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
